--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="4" r:id="rId1"/>
@@ -13,20 +13,18 @@
     <sheet name="site" sheetId="172" r:id="rId4"/>
     <sheet name="link" sheetId="173" r:id="rId5"/>
     <sheet name="keyword_page" sheetId="174" r:id="rId6"/>
-    <sheet name="statistics" sheetId="176" r:id="rId7"/>
-    <sheet name="city" sheetId="178" r:id="rId8"/>
-    <sheet name="user" sheetId="179" r:id="rId9"/>
-    <sheet name="operate_log" sheetId="180" r:id="rId10"/>
+    <sheet name="city" sheetId="178" r:id="rId7"/>
+    <sheet name="user" sheetId="179" r:id="rId8"/>
+    <sheet name="operate_log" sheetId="180" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">实体列表!$A$6:$O$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">city!$A$1:$J$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">city!$A$1:$J$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">keyword_page!$A$1:$J$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">link!$A$1:$J$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">operate_log!$A$1:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">operate_log!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">site!$A$1:$J$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">statistics!$A$1:$J$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">user!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">user!$A$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">实体列表!$A$1:$O$26</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -70,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -360,26 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日累计可疑记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日累计监控记录数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城市名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,14 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,10 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keywordPageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,6 +806,38 @@
   </si>
   <si>
     <t>user表中添加userEmail字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每检测一次就将数值加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨剑飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加checktimes字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除统计表，统计数值从link表和site表中取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checktimes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2878,6 +2876,24 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2887,15 +2903,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2905,50 +2912,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2964,68 +3004,26 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="138">
@@ -3466,8 +3464,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:N7"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
@@ -3534,17 +3532,17 @@
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
       <c r="Q4" s="2"/>
       <c r="AA4" s="1"/>
     </row>
@@ -3557,16 +3555,16 @@
         <v>41475</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
@@ -3596,16 +3594,16 @@
         <v>41478</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E6" s="17">
         <v>1.1000000000000001</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
@@ -3635,16 +3633,16 @@
         <v>41478</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E7" s="17">
         <v>1.2</v>
       </c>
       <c r="F7" s="109" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G7" s="110"/>
       <c r="H7" s="110"/>
@@ -3665,15 +3663,25 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:34" s="15" customFormat="1" ht="24.75" customHeight="1">
+    <row r="8" spans="1:34" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="96">
         <v>4</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="109"/>
+      <c r="B8" s="94">
+        <v>41479</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>175</v>
+      </c>
       <c r="G8" s="110"/>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
@@ -3697,11 +3705,21 @@
       <c r="A9" s="97">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="109"/>
+      <c r="B9" s="20">
+        <v>41479</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>177</v>
+      </c>
       <c r="G9" s="110"/>
       <c r="H9" s="110"/>
       <c r="I9" s="110"/>
@@ -3841,15 +3859,15 @@
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -3869,15 +3887,15 @@
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -3895,15 +3913,15 @@
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -3921,15 +3939,15 @@
       <c r="C17" s="12"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
@@ -3947,15 +3965,15 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="108"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
       <c r="Q18" s="2"/>
       <c r="AA18" s="1"/>
     </row>
@@ -4263,6 +4281,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
@@ -4271,827 +4296,11 @@
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
     <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="149"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="75">
-        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
-        <v>-2</v>
-      </c>
-      <c r="B5" s="156" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="75">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B8" s="135" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-    </row>
-    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-    </row>
-    <row r="11" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="75">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="75">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="75">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
-    </row>
-    <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="75">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
-    </row>
-    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="75">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
-    </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="75">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
-    </row>
-    <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="75">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
-    </row>
-    <row r="18" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="75">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
-    </row>
-    <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="75">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
-    </row>
-    <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="75">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
-    </row>
-    <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="75">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
-    </row>
-    <row r="22" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="75">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="75">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-    </row>
-    <row r="24" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="75">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="132"/>
-    </row>
-    <row r="25" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="75">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
-    </row>
-    <row r="26" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="77">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="137"/>
-    </row>
-    <row r="27" spans="1:10" s="65" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="77">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
-    </row>
-    <row r="28" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="77">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
-    </row>
-    <row r="29" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="77">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
-    </row>
-    <row r="30" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="77">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
-    </row>
-    <row r="31" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="77">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
-    </row>
-    <row r="32" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="77">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
-    </row>
-    <row r="33" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="77">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="137"/>
-    </row>
-    <row r="34" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="77">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="137"/>
-    </row>
-    <row r="35" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="77">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="137"/>
-    </row>
-    <row r="36" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="77">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
-    </row>
-    <row r="37" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="77">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="137"/>
-    </row>
-    <row r="38" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="75">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="132"/>
-    </row>
-    <row r="39" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="75">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="132"/>
-    </row>
-    <row r="40" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="132"/>
-    </row>
-    <row r="41" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
-    </row>
-    <row r="42" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
-    </row>
-    <row r="43" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="68"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-    </row>
-    <row r="44" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="62"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="61"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY43 SU5:SU43 ACQ5:ACQ43 AMM5:AMM43 AWI5:AWI43 BGE5:BGE43 BQA5:BQA43 BZW5:BZW43 CJS5:CJS43 CTO5:CTO43 DDK5:DDK43 DNG5:DNG43 DXC5:DXC43 EGY5:EGY43 EQU5:EQU43 FAQ5:FAQ43 FKM5:FKM43 FUI5:FUI43 GEE5:GEE43 GOA5:GOA43 GXW5:GXW43 HHS5:HHS43 HRO5:HRO43 IBK5:IBK43 ILG5:ILG43 IVC5:IVC43 JEY5:JEY43 JOU5:JOU43 JYQ5:JYQ43 KIM5:KIM43 KSI5:KSI43 LCE5:LCE43 LMA5:LMA43 LVW5:LVW43 MFS5:MFS43 MPO5:MPO43 MZK5:MZK43 NJG5:NJG43 NTC5:NTC43 OCY5:OCY43 OMU5:OMU43 OWQ5:OWQ43 PGM5:PGM43 PQI5:PQI43 QAE5:QAE43 QKA5:QKA43 QTW5:QTW43 RDS5:RDS43 RNO5:RNO43 RXK5:RXK43 SHG5:SHG43 SRC5:SRC43 TAY5:TAY43 TKU5:TKU43 TUQ5:TUQ43 UEM5:UEM43 UOI5:UOI43 UYE5:UYE43 VIA5:VIA43 VRW5:VRW43 WBS5:WBS43 WLO5:WLO43 WVK5:WVK43 IY65541:IY65579 SU65541:SU65579 ACQ65541:ACQ65579 AMM65541:AMM65579 AWI65541:AWI65579 BGE65541:BGE65579 BQA65541:BQA65579 BZW65541:BZW65579 CJS65541:CJS65579 CTO65541:CTO65579 DDK65541:DDK65579 DNG65541:DNG65579 DXC65541:DXC65579 EGY65541:EGY65579 EQU65541:EQU65579 FAQ65541:FAQ65579 FKM65541:FKM65579 FUI65541:FUI65579 GEE65541:GEE65579 GOA65541:GOA65579 GXW65541:GXW65579 HHS65541:HHS65579 HRO65541:HRO65579 IBK65541:IBK65579 ILG65541:ILG65579 IVC65541:IVC65579 JEY65541:JEY65579 JOU65541:JOU65579 JYQ65541:JYQ65579 KIM65541:KIM65579 KSI65541:KSI65579 LCE65541:LCE65579 LMA65541:LMA65579 LVW65541:LVW65579 MFS65541:MFS65579 MPO65541:MPO65579 MZK65541:MZK65579 NJG65541:NJG65579 NTC65541:NTC65579 OCY65541:OCY65579 OMU65541:OMU65579 OWQ65541:OWQ65579 PGM65541:PGM65579 PQI65541:PQI65579 QAE65541:QAE65579 QKA65541:QKA65579 QTW65541:QTW65579 RDS65541:RDS65579 RNO65541:RNO65579 RXK65541:RXK65579 SHG65541:SHG65579 SRC65541:SRC65579 TAY65541:TAY65579 TKU65541:TKU65579 TUQ65541:TUQ65579 UEM65541:UEM65579 UOI65541:UOI65579 UYE65541:UYE65579 VIA65541:VIA65579 VRW65541:VRW65579 WBS65541:WBS65579 WLO65541:WLO65579 WVK65541:WVK65579 IY131077:IY131115 SU131077:SU131115 ACQ131077:ACQ131115 AMM131077:AMM131115 AWI131077:AWI131115 BGE131077:BGE131115 BQA131077:BQA131115 BZW131077:BZW131115 CJS131077:CJS131115 CTO131077:CTO131115 DDK131077:DDK131115 DNG131077:DNG131115 DXC131077:DXC131115 EGY131077:EGY131115 EQU131077:EQU131115 FAQ131077:FAQ131115 FKM131077:FKM131115 FUI131077:FUI131115 GEE131077:GEE131115 GOA131077:GOA131115 GXW131077:GXW131115 HHS131077:HHS131115 HRO131077:HRO131115 IBK131077:IBK131115 ILG131077:ILG131115 IVC131077:IVC131115 JEY131077:JEY131115 JOU131077:JOU131115 JYQ131077:JYQ131115 KIM131077:KIM131115 KSI131077:KSI131115 LCE131077:LCE131115 LMA131077:LMA131115 LVW131077:LVW131115 MFS131077:MFS131115 MPO131077:MPO131115 MZK131077:MZK131115 NJG131077:NJG131115 NTC131077:NTC131115 OCY131077:OCY131115 OMU131077:OMU131115 OWQ131077:OWQ131115 PGM131077:PGM131115 PQI131077:PQI131115 QAE131077:QAE131115 QKA131077:QKA131115 QTW131077:QTW131115 RDS131077:RDS131115 RNO131077:RNO131115 RXK131077:RXK131115 SHG131077:SHG131115 SRC131077:SRC131115 TAY131077:TAY131115 TKU131077:TKU131115 TUQ131077:TUQ131115 UEM131077:UEM131115 UOI131077:UOI131115 UYE131077:UYE131115 VIA131077:VIA131115 VRW131077:VRW131115 WBS131077:WBS131115 WLO131077:WLO131115 WVK131077:WVK131115 IY196613:IY196651 SU196613:SU196651 ACQ196613:ACQ196651 AMM196613:AMM196651 AWI196613:AWI196651 BGE196613:BGE196651 BQA196613:BQA196651 BZW196613:BZW196651 CJS196613:CJS196651 CTO196613:CTO196651 DDK196613:DDK196651 DNG196613:DNG196651 DXC196613:DXC196651 EGY196613:EGY196651 EQU196613:EQU196651 FAQ196613:FAQ196651 FKM196613:FKM196651 FUI196613:FUI196651 GEE196613:GEE196651 GOA196613:GOA196651 GXW196613:GXW196651 HHS196613:HHS196651 HRO196613:HRO196651 IBK196613:IBK196651 ILG196613:ILG196651 IVC196613:IVC196651 JEY196613:JEY196651 JOU196613:JOU196651 JYQ196613:JYQ196651 KIM196613:KIM196651 KSI196613:KSI196651 LCE196613:LCE196651 LMA196613:LMA196651 LVW196613:LVW196651 MFS196613:MFS196651 MPO196613:MPO196651 MZK196613:MZK196651 NJG196613:NJG196651 NTC196613:NTC196651 OCY196613:OCY196651 OMU196613:OMU196651 OWQ196613:OWQ196651 PGM196613:PGM196651 PQI196613:PQI196651 QAE196613:QAE196651 QKA196613:QKA196651 QTW196613:QTW196651 RDS196613:RDS196651 RNO196613:RNO196651 RXK196613:RXK196651 SHG196613:SHG196651 SRC196613:SRC196651 TAY196613:TAY196651 TKU196613:TKU196651 TUQ196613:TUQ196651 UEM196613:UEM196651 UOI196613:UOI196651 UYE196613:UYE196651 VIA196613:VIA196651 VRW196613:VRW196651 WBS196613:WBS196651 WLO196613:WLO196651 WVK196613:WVK196651 IY262149:IY262187 SU262149:SU262187 ACQ262149:ACQ262187 AMM262149:AMM262187 AWI262149:AWI262187 BGE262149:BGE262187 BQA262149:BQA262187 BZW262149:BZW262187 CJS262149:CJS262187 CTO262149:CTO262187 DDK262149:DDK262187 DNG262149:DNG262187 DXC262149:DXC262187 EGY262149:EGY262187 EQU262149:EQU262187 FAQ262149:FAQ262187 FKM262149:FKM262187 FUI262149:FUI262187 GEE262149:GEE262187 GOA262149:GOA262187 GXW262149:GXW262187 HHS262149:HHS262187 HRO262149:HRO262187 IBK262149:IBK262187 ILG262149:ILG262187 IVC262149:IVC262187 JEY262149:JEY262187 JOU262149:JOU262187 JYQ262149:JYQ262187 KIM262149:KIM262187 KSI262149:KSI262187 LCE262149:LCE262187 LMA262149:LMA262187 LVW262149:LVW262187 MFS262149:MFS262187 MPO262149:MPO262187 MZK262149:MZK262187 NJG262149:NJG262187 NTC262149:NTC262187 OCY262149:OCY262187 OMU262149:OMU262187 OWQ262149:OWQ262187 PGM262149:PGM262187 PQI262149:PQI262187 QAE262149:QAE262187 QKA262149:QKA262187 QTW262149:QTW262187 RDS262149:RDS262187 RNO262149:RNO262187 RXK262149:RXK262187 SHG262149:SHG262187 SRC262149:SRC262187 TAY262149:TAY262187 TKU262149:TKU262187 TUQ262149:TUQ262187 UEM262149:UEM262187 UOI262149:UOI262187 UYE262149:UYE262187 VIA262149:VIA262187 VRW262149:VRW262187 WBS262149:WBS262187 WLO262149:WLO262187 WVK262149:WVK262187 IY327685:IY327723 SU327685:SU327723 ACQ327685:ACQ327723 AMM327685:AMM327723 AWI327685:AWI327723 BGE327685:BGE327723 BQA327685:BQA327723 BZW327685:BZW327723 CJS327685:CJS327723 CTO327685:CTO327723 DDK327685:DDK327723 DNG327685:DNG327723 DXC327685:DXC327723 EGY327685:EGY327723 EQU327685:EQU327723 FAQ327685:FAQ327723 FKM327685:FKM327723 FUI327685:FUI327723 GEE327685:GEE327723 GOA327685:GOA327723 GXW327685:GXW327723 HHS327685:HHS327723 HRO327685:HRO327723 IBK327685:IBK327723 ILG327685:ILG327723 IVC327685:IVC327723 JEY327685:JEY327723 JOU327685:JOU327723 JYQ327685:JYQ327723 KIM327685:KIM327723 KSI327685:KSI327723 LCE327685:LCE327723 LMA327685:LMA327723 LVW327685:LVW327723 MFS327685:MFS327723 MPO327685:MPO327723 MZK327685:MZK327723 NJG327685:NJG327723 NTC327685:NTC327723 OCY327685:OCY327723 OMU327685:OMU327723 OWQ327685:OWQ327723 PGM327685:PGM327723 PQI327685:PQI327723 QAE327685:QAE327723 QKA327685:QKA327723 QTW327685:QTW327723 RDS327685:RDS327723 RNO327685:RNO327723 RXK327685:RXK327723 SHG327685:SHG327723 SRC327685:SRC327723 TAY327685:TAY327723 TKU327685:TKU327723 TUQ327685:TUQ327723 UEM327685:UEM327723 UOI327685:UOI327723 UYE327685:UYE327723 VIA327685:VIA327723 VRW327685:VRW327723 WBS327685:WBS327723 WLO327685:WLO327723 WVK327685:WVK327723 IY393221:IY393259 SU393221:SU393259 ACQ393221:ACQ393259 AMM393221:AMM393259 AWI393221:AWI393259 BGE393221:BGE393259 BQA393221:BQA393259 BZW393221:BZW393259 CJS393221:CJS393259 CTO393221:CTO393259 DDK393221:DDK393259 DNG393221:DNG393259 DXC393221:DXC393259 EGY393221:EGY393259 EQU393221:EQU393259 FAQ393221:FAQ393259 FKM393221:FKM393259 FUI393221:FUI393259 GEE393221:GEE393259 GOA393221:GOA393259 GXW393221:GXW393259 HHS393221:HHS393259 HRO393221:HRO393259 IBK393221:IBK393259 ILG393221:ILG393259 IVC393221:IVC393259 JEY393221:JEY393259 JOU393221:JOU393259 JYQ393221:JYQ393259 KIM393221:KIM393259 KSI393221:KSI393259 LCE393221:LCE393259 LMA393221:LMA393259 LVW393221:LVW393259 MFS393221:MFS393259 MPO393221:MPO393259 MZK393221:MZK393259 NJG393221:NJG393259 NTC393221:NTC393259 OCY393221:OCY393259 OMU393221:OMU393259 OWQ393221:OWQ393259 PGM393221:PGM393259 PQI393221:PQI393259 QAE393221:QAE393259 QKA393221:QKA393259 QTW393221:QTW393259 RDS393221:RDS393259 RNO393221:RNO393259 RXK393221:RXK393259 SHG393221:SHG393259 SRC393221:SRC393259 TAY393221:TAY393259 TKU393221:TKU393259 TUQ393221:TUQ393259 UEM393221:UEM393259 UOI393221:UOI393259 UYE393221:UYE393259 VIA393221:VIA393259 VRW393221:VRW393259 WBS393221:WBS393259 WLO393221:WLO393259 WVK393221:WVK393259 IY458757:IY458795 SU458757:SU458795 ACQ458757:ACQ458795 AMM458757:AMM458795 AWI458757:AWI458795 BGE458757:BGE458795 BQA458757:BQA458795 BZW458757:BZW458795 CJS458757:CJS458795 CTO458757:CTO458795 DDK458757:DDK458795 DNG458757:DNG458795 DXC458757:DXC458795 EGY458757:EGY458795 EQU458757:EQU458795 FAQ458757:FAQ458795 FKM458757:FKM458795 FUI458757:FUI458795 GEE458757:GEE458795 GOA458757:GOA458795 GXW458757:GXW458795 HHS458757:HHS458795 HRO458757:HRO458795 IBK458757:IBK458795 ILG458757:ILG458795 IVC458757:IVC458795 JEY458757:JEY458795 JOU458757:JOU458795 JYQ458757:JYQ458795 KIM458757:KIM458795 KSI458757:KSI458795 LCE458757:LCE458795 LMA458757:LMA458795 LVW458757:LVW458795 MFS458757:MFS458795 MPO458757:MPO458795 MZK458757:MZK458795 NJG458757:NJG458795 NTC458757:NTC458795 OCY458757:OCY458795 OMU458757:OMU458795 OWQ458757:OWQ458795 PGM458757:PGM458795 PQI458757:PQI458795 QAE458757:QAE458795 QKA458757:QKA458795 QTW458757:QTW458795 RDS458757:RDS458795 RNO458757:RNO458795 RXK458757:RXK458795 SHG458757:SHG458795 SRC458757:SRC458795 TAY458757:TAY458795 TKU458757:TKU458795 TUQ458757:TUQ458795 UEM458757:UEM458795 UOI458757:UOI458795 UYE458757:UYE458795 VIA458757:VIA458795 VRW458757:VRW458795 WBS458757:WBS458795 WLO458757:WLO458795 WVK458757:WVK458795 IY524293:IY524331 SU524293:SU524331 ACQ524293:ACQ524331 AMM524293:AMM524331 AWI524293:AWI524331 BGE524293:BGE524331 BQA524293:BQA524331 BZW524293:BZW524331 CJS524293:CJS524331 CTO524293:CTO524331 DDK524293:DDK524331 DNG524293:DNG524331 DXC524293:DXC524331 EGY524293:EGY524331 EQU524293:EQU524331 FAQ524293:FAQ524331 FKM524293:FKM524331 FUI524293:FUI524331 GEE524293:GEE524331 GOA524293:GOA524331 GXW524293:GXW524331 HHS524293:HHS524331 HRO524293:HRO524331 IBK524293:IBK524331 ILG524293:ILG524331 IVC524293:IVC524331 JEY524293:JEY524331 JOU524293:JOU524331 JYQ524293:JYQ524331 KIM524293:KIM524331 KSI524293:KSI524331 LCE524293:LCE524331 LMA524293:LMA524331 LVW524293:LVW524331 MFS524293:MFS524331 MPO524293:MPO524331 MZK524293:MZK524331 NJG524293:NJG524331 NTC524293:NTC524331 OCY524293:OCY524331 OMU524293:OMU524331 OWQ524293:OWQ524331 PGM524293:PGM524331 PQI524293:PQI524331 QAE524293:QAE524331 QKA524293:QKA524331 QTW524293:QTW524331 RDS524293:RDS524331 RNO524293:RNO524331 RXK524293:RXK524331 SHG524293:SHG524331 SRC524293:SRC524331 TAY524293:TAY524331 TKU524293:TKU524331 TUQ524293:TUQ524331 UEM524293:UEM524331 UOI524293:UOI524331 UYE524293:UYE524331 VIA524293:VIA524331 VRW524293:VRW524331 WBS524293:WBS524331 WLO524293:WLO524331 WVK524293:WVK524331 IY589829:IY589867 SU589829:SU589867 ACQ589829:ACQ589867 AMM589829:AMM589867 AWI589829:AWI589867 BGE589829:BGE589867 BQA589829:BQA589867 BZW589829:BZW589867 CJS589829:CJS589867 CTO589829:CTO589867 DDK589829:DDK589867 DNG589829:DNG589867 DXC589829:DXC589867 EGY589829:EGY589867 EQU589829:EQU589867 FAQ589829:FAQ589867 FKM589829:FKM589867 FUI589829:FUI589867 GEE589829:GEE589867 GOA589829:GOA589867 GXW589829:GXW589867 HHS589829:HHS589867 HRO589829:HRO589867 IBK589829:IBK589867 ILG589829:ILG589867 IVC589829:IVC589867 JEY589829:JEY589867 JOU589829:JOU589867 JYQ589829:JYQ589867 KIM589829:KIM589867 KSI589829:KSI589867 LCE589829:LCE589867 LMA589829:LMA589867 LVW589829:LVW589867 MFS589829:MFS589867 MPO589829:MPO589867 MZK589829:MZK589867 NJG589829:NJG589867 NTC589829:NTC589867 OCY589829:OCY589867 OMU589829:OMU589867 OWQ589829:OWQ589867 PGM589829:PGM589867 PQI589829:PQI589867 QAE589829:QAE589867 QKA589829:QKA589867 QTW589829:QTW589867 RDS589829:RDS589867 RNO589829:RNO589867 RXK589829:RXK589867 SHG589829:SHG589867 SRC589829:SRC589867 TAY589829:TAY589867 TKU589829:TKU589867 TUQ589829:TUQ589867 UEM589829:UEM589867 UOI589829:UOI589867 UYE589829:UYE589867 VIA589829:VIA589867 VRW589829:VRW589867 WBS589829:WBS589867 WLO589829:WLO589867 WVK589829:WVK589867 IY655365:IY655403 SU655365:SU655403 ACQ655365:ACQ655403 AMM655365:AMM655403 AWI655365:AWI655403 BGE655365:BGE655403 BQA655365:BQA655403 BZW655365:BZW655403 CJS655365:CJS655403 CTO655365:CTO655403 DDK655365:DDK655403 DNG655365:DNG655403 DXC655365:DXC655403 EGY655365:EGY655403 EQU655365:EQU655403 FAQ655365:FAQ655403 FKM655365:FKM655403 FUI655365:FUI655403 GEE655365:GEE655403 GOA655365:GOA655403 GXW655365:GXW655403 HHS655365:HHS655403 HRO655365:HRO655403 IBK655365:IBK655403 ILG655365:ILG655403 IVC655365:IVC655403 JEY655365:JEY655403 JOU655365:JOU655403 JYQ655365:JYQ655403 KIM655365:KIM655403 KSI655365:KSI655403 LCE655365:LCE655403 LMA655365:LMA655403 LVW655365:LVW655403 MFS655365:MFS655403 MPO655365:MPO655403 MZK655365:MZK655403 NJG655365:NJG655403 NTC655365:NTC655403 OCY655365:OCY655403 OMU655365:OMU655403 OWQ655365:OWQ655403 PGM655365:PGM655403 PQI655365:PQI655403 QAE655365:QAE655403 QKA655365:QKA655403 QTW655365:QTW655403 RDS655365:RDS655403 RNO655365:RNO655403 RXK655365:RXK655403 SHG655365:SHG655403 SRC655365:SRC655403 TAY655365:TAY655403 TKU655365:TKU655403 TUQ655365:TUQ655403 UEM655365:UEM655403 UOI655365:UOI655403 UYE655365:UYE655403 VIA655365:VIA655403 VRW655365:VRW655403 WBS655365:WBS655403 WLO655365:WLO655403 WVK655365:WVK655403 IY720901:IY720939 SU720901:SU720939 ACQ720901:ACQ720939 AMM720901:AMM720939 AWI720901:AWI720939 BGE720901:BGE720939 BQA720901:BQA720939 BZW720901:BZW720939 CJS720901:CJS720939 CTO720901:CTO720939 DDK720901:DDK720939 DNG720901:DNG720939 DXC720901:DXC720939 EGY720901:EGY720939 EQU720901:EQU720939 FAQ720901:FAQ720939 FKM720901:FKM720939 FUI720901:FUI720939 GEE720901:GEE720939 GOA720901:GOA720939 GXW720901:GXW720939 HHS720901:HHS720939 HRO720901:HRO720939 IBK720901:IBK720939 ILG720901:ILG720939 IVC720901:IVC720939 JEY720901:JEY720939 JOU720901:JOU720939 JYQ720901:JYQ720939 KIM720901:KIM720939 KSI720901:KSI720939 LCE720901:LCE720939 LMA720901:LMA720939 LVW720901:LVW720939 MFS720901:MFS720939 MPO720901:MPO720939 MZK720901:MZK720939 NJG720901:NJG720939 NTC720901:NTC720939 OCY720901:OCY720939 OMU720901:OMU720939 OWQ720901:OWQ720939 PGM720901:PGM720939 PQI720901:PQI720939 QAE720901:QAE720939 QKA720901:QKA720939 QTW720901:QTW720939 RDS720901:RDS720939 RNO720901:RNO720939 RXK720901:RXK720939 SHG720901:SHG720939 SRC720901:SRC720939 TAY720901:TAY720939 TKU720901:TKU720939 TUQ720901:TUQ720939 UEM720901:UEM720939 UOI720901:UOI720939 UYE720901:UYE720939 VIA720901:VIA720939 VRW720901:VRW720939 WBS720901:WBS720939 WLO720901:WLO720939 WVK720901:WVK720939 IY786437:IY786475 SU786437:SU786475 ACQ786437:ACQ786475 AMM786437:AMM786475 AWI786437:AWI786475 BGE786437:BGE786475 BQA786437:BQA786475 BZW786437:BZW786475 CJS786437:CJS786475 CTO786437:CTO786475 DDK786437:DDK786475 DNG786437:DNG786475 DXC786437:DXC786475 EGY786437:EGY786475 EQU786437:EQU786475 FAQ786437:FAQ786475 FKM786437:FKM786475 FUI786437:FUI786475 GEE786437:GEE786475 GOA786437:GOA786475 GXW786437:GXW786475 HHS786437:HHS786475 HRO786437:HRO786475 IBK786437:IBK786475 ILG786437:ILG786475 IVC786437:IVC786475 JEY786437:JEY786475 JOU786437:JOU786475 JYQ786437:JYQ786475 KIM786437:KIM786475 KSI786437:KSI786475 LCE786437:LCE786475 LMA786437:LMA786475 LVW786437:LVW786475 MFS786437:MFS786475 MPO786437:MPO786475 MZK786437:MZK786475 NJG786437:NJG786475 NTC786437:NTC786475 OCY786437:OCY786475 OMU786437:OMU786475 OWQ786437:OWQ786475 PGM786437:PGM786475 PQI786437:PQI786475 QAE786437:QAE786475 QKA786437:QKA786475 QTW786437:QTW786475 RDS786437:RDS786475 RNO786437:RNO786475 RXK786437:RXK786475 SHG786437:SHG786475 SRC786437:SRC786475 TAY786437:TAY786475 TKU786437:TKU786475 TUQ786437:TUQ786475 UEM786437:UEM786475 UOI786437:UOI786475 UYE786437:UYE786475 VIA786437:VIA786475 VRW786437:VRW786475 WBS786437:WBS786475 WLO786437:WLO786475 WVK786437:WVK786475 IY851973:IY852011 SU851973:SU852011 ACQ851973:ACQ852011 AMM851973:AMM852011 AWI851973:AWI852011 BGE851973:BGE852011 BQA851973:BQA852011 BZW851973:BZW852011 CJS851973:CJS852011 CTO851973:CTO852011 DDK851973:DDK852011 DNG851973:DNG852011 DXC851973:DXC852011 EGY851973:EGY852011 EQU851973:EQU852011 FAQ851973:FAQ852011 FKM851973:FKM852011 FUI851973:FUI852011 GEE851973:GEE852011 GOA851973:GOA852011 GXW851973:GXW852011 HHS851973:HHS852011 HRO851973:HRO852011 IBK851973:IBK852011 ILG851973:ILG852011 IVC851973:IVC852011 JEY851973:JEY852011 JOU851973:JOU852011 JYQ851973:JYQ852011 KIM851973:KIM852011 KSI851973:KSI852011 LCE851973:LCE852011 LMA851973:LMA852011 LVW851973:LVW852011 MFS851973:MFS852011 MPO851973:MPO852011 MZK851973:MZK852011 NJG851973:NJG852011 NTC851973:NTC852011 OCY851973:OCY852011 OMU851973:OMU852011 OWQ851973:OWQ852011 PGM851973:PGM852011 PQI851973:PQI852011 QAE851973:QAE852011 QKA851973:QKA852011 QTW851973:QTW852011 RDS851973:RDS852011 RNO851973:RNO852011 RXK851973:RXK852011 SHG851973:SHG852011 SRC851973:SRC852011 TAY851973:TAY852011 TKU851973:TKU852011 TUQ851973:TUQ852011 UEM851973:UEM852011 UOI851973:UOI852011 UYE851973:UYE852011 VIA851973:VIA852011 VRW851973:VRW852011 WBS851973:WBS852011 WLO851973:WLO852011 WVK851973:WVK852011 IY917509:IY917547 SU917509:SU917547 ACQ917509:ACQ917547 AMM917509:AMM917547 AWI917509:AWI917547 BGE917509:BGE917547 BQA917509:BQA917547 BZW917509:BZW917547 CJS917509:CJS917547 CTO917509:CTO917547 DDK917509:DDK917547 DNG917509:DNG917547 DXC917509:DXC917547 EGY917509:EGY917547 EQU917509:EQU917547 FAQ917509:FAQ917547 FKM917509:FKM917547 FUI917509:FUI917547 GEE917509:GEE917547 GOA917509:GOA917547 GXW917509:GXW917547 HHS917509:HHS917547 HRO917509:HRO917547 IBK917509:IBK917547 ILG917509:ILG917547 IVC917509:IVC917547 JEY917509:JEY917547 JOU917509:JOU917547 JYQ917509:JYQ917547 KIM917509:KIM917547 KSI917509:KSI917547 LCE917509:LCE917547 LMA917509:LMA917547 LVW917509:LVW917547 MFS917509:MFS917547 MPO917509:MPO917547 MZK917509:MZK917547 NJG917509:NJG917547 NTC917509:NTC917547 OCY917509:OCY917547 OMU917509:OMU917547 OWQ917509:OWQ917547 PGM917509:PGM917547 PQI917509:PQI917547 QAE917509:QAE917547 QKA917509:QKA917547 QTW917509:QTW917547 RDS917509:RDS917547 RNO917509:RNO917547 RXK917509:RXK917547 SHG917509:SHG917547 SRC917509:SRC917547 TAY917509:TAY917547 TKU917509:TKU917547 TUQ917509:TUQ917547 UEM917509:UEM917547 UOI917509:UOI917547 UYE917509:UYE917547 VIA917509:VIA917547 VRW917509:VRW917547 WBS917509:WBS917547 WLO917509:WLO917547 WVK917509:WVK917547 IY983045:IY983083 SU983045:SU983083 ACQ983045:ACQ983083 AMM983045:AMM983083 AWI983045:AWI983083 BGE983045:BGE983083 BQA983045:BQA983083 BZW983045:BZW983083 CJS983045:CJS983083 CTO983045:CTO983083 DDK983045:DDK983083 DNG983045:DNG983083 DXC983045:DXC983083 EGY983045:EGY983083 EQU983045:EQU983083 FAQ983045:FAQ983083 FKM983045:FKM983083 FUI983045:FUI983083 GEE983045:GEE983083 GOA983045:GOA983083 GXW983045:GXW983083 HHS983045:HHS983083 HRO983045:HRO983083 IBK983045:IBK983083 ILG983045:ILG983083 IVC983045:IVC983083 JEY983045:JEY983083 JOU983045:JOU983083 JYQ983045:JYQ983083 KIM983045:KIM983083 KSI983045:KSI983083 LCE983045:LCE983083 LMA983045:LMA983083 LVW983045:LVW983083 MFS983045:MFS983083 MPO983045:MPO983083 MZK983045:MZK983083 NJG983045:NJG983083 NTC983045:NTC983083 OCY983045:OCY983083 OMU983045:OMU983083 OWQ983045:OWQ983083 PGM983045:PGM983083 PQI983045:PQI983083 QAE983045:QAE983083 QKA983045:QKA983083 QTW983045:QTW983083 RDS983045:RDS983083 RNO983045:RNO983083 RXK983045:RXK983083 SHG983045:SHG983083 SRC983045:SRC983083 TAY983045:TAY983083 TKU983045:TKU983083 TUQ983045:TUQ983083 UEM983045:UEM983083 UOI983045:UOI983083 UYE983045:UYE983083 VIA983045:VIA983083 VRW983045:VRW983083 WBS983045:WBS983083 WLO983045:WLO983083 WVK983045:WVK983083 H983045:H983083 H917509:H917547 H851973:H852011 H786437:H786475 H720901:H720939 H655365:H655403 H589829:H589867 H524293:H524331 H458757:H458795 H393221:H393259 H327685:H327723 H262149:H262187 H196613:H196651 H131077:H131115 H65541:H65579 H5:H43">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
@@ -5136,8 +4345,8 @@
       <c r="C1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="52" t="s">
         <v>12</v>
       </c>
@@ -5302,11 +4511,11 @@
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="33" t="s">
         <v>37</v>
       </c>
@@ -5316,18 +4525,18 @@
       <c r="G6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="125"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="27"/>
@@ -5364,25 +4573,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="85"/>
       <c r="E7" s="92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="119"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="125"/>
       <c r="S7" s="87"/>
       <c r="T7" s="87"/>
       <c r="U7" s="87"/>
@@ -5399,23 +4608,23 @@
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="85"/>
       <c r="E8" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="119"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="125"/>
       <c r="S8" s="87"/>
       <c r="T8" s="87"/>
       <c r="U8" s="87"/>
@@ -5432,23 +4641,23 @@
         <v>3</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="85"/>
       <c r="E9" s="92" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="119"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="125"/>
       <c r="S9" s="87"/>
       <c r="T9" s="87"/>
       <c r="U9" s="87"/>
@@ -5465,23 +4674,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="85"/>
       <c r="E10" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="125"/>
       <c r="S10" s="87"/>
       <c r="T10" s="87"/>
       <c r="U10" s="87"/>
@@ -5498,23 +4707,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="85"/>
       <c r="E11" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="125"/>
       <c r="S11" s="87"/>
       <c r="T11" s="87"/>
       <c r="U11" s="87"/>
@@ -5531,23 +4740,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
       <c r="E12" s="92" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="119"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="125"/>
       <c r="S12" s="87"/>
       <c r="T12" s="87"/>
       <c r="U12" s="87"/>
@@ -5564,23 +4773,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="84"/>
       <c r="D13" s="85"/>
       <c r="E13" s="92" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="125"/>
       <c r="S13" s="87"/>
       <c r="T13" s="87"/>
       <c r="U13" s="87"/>
@@ -5597,23 +4806,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
       <c r="E14" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F14" s="88"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="125"/>
       <c r="S14" s="87"/>
       <c r="T14" s="87"/>
       <c r="U14" s="87"/>
@@ -5633,14 +4842,14 @@
       <c r="E15" s="91"/>
       <c r="F15" s="89"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="124"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="123"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -5880,6 +5089,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="H7:L7"/>
@@ -5896,13 +5112,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
@@ -5949,43 +5158,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
@@ -6001,147 +5210,147 @@
       <c r="H3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="75">
         <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="130"/>
+      <c r="B4" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="142"/>
       <c r="D4" s="72"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70"/>
       <c r="H4" s="69"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="130"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="80" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="130"/>
+      <c r="B6" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="142"/>
       <c r="D6" s="72" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="130"/>
+      <c r="B7" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="142"/>
       <c r="D7" s="72" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="72"/>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="73"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="73"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="73"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="101"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A13" s="64"/>
@@ -6169,18 +5378,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B8:C8"/>
@@ -6193,6 +5390,18 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6232,55 +5441,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -6296,48 +5505,48 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="156"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="80" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" ref="A6:A20" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="153"/>
+      <c r="B6" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="151"/>
       <c r="D6" s="104" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" s="90"/>
       <c r="H6" s="79"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
@@ -6345,113 +5554,113 @@
         <v>3</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" s="150"/>
       <c r="D7" s="105" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="135"/>
+      <c r="B8" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="149"/>
       <c r="D10" s="72" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="149"/>
       <c r="D11" s="72" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="135"/>
+      <c r="B12" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="149"/>
       <c r="D12" s="72" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
@@ -6459,18 +5668,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="150" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="105" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="75">
@@ -6478,18 +5687,18 @@
         <v>10</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C14" s="150"/>
       <c r="D14" s="105" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="75">
@@ -6497,18 +5706,18 @@
         <v>11</v>
       </c>
       <c r="B15" s="150" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="105" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E15" s="74"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="35.25" customHeight="1">
       <c r="A16" s="75">
@@ -6516,20 +5725,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C16" s="150"/>
       <c r="D16" s="105" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E16" s="74"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="132"/>
+      <c r="I16" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="39" customHeight="1">
       <c r="A17" s="75">
@@ -6537,60 +5746,60 @@
         <v>13</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C17" s="150"/>
       <c r="D17" s="105" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="70"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="132"/>
+      <c r="I17" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" s="65" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="135" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="135"/>
+      <c r="B18" s="149" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="149"/>
       <c r="D18" s="72" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="70"/>
       <c r="H18" s="69"/>
-      <c r="I18" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="132"/>
+      <c r="I18" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="135"/>
+      <c r="B19" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="149"/>
       <c r="D19" s="72" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="70"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="75">
@@ -6598,32 +5807,32 @@
         <v>16</v>
       </c>
       <c r="B20" s="150" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C20" s="150"/>
       <c r="D20" s="105" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="70"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="131" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="132"/>
+      <c r="I20" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="68"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="101"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A22" s="64"/>
@@ -6651,35 +5860,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B9:C9"/>
@@ -6693,6 +5873,35 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6712,8 +5921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6732,55 +5941,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -6796,239 +6005,247 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="156"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="80" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="154" t="s">
+      <c r="I5" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="155"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="135"/>
+      <c r="B6" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="80" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" s="90"/>
       <c r="H7" s="79"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="137"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="132"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="78" customFormat="1" ht="42" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="135"/>
+      <c r="B12" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="149"/>
       <c r="D12" s="72" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="132"/>
+      <c r="I12" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="72"/>
+      <c r="A14" s="73">
+        <v>10</v>
+      </c>
+      <c r="B14" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="149"/>
+      <c r="D14" s="72" t="s">
+        <v>178</v>
+      </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="101"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A18" s="64"/>
@@ -7056,6 +6273,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A3:B3"/>
@@ -7072,24 +6307,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7129,43 +6346,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
@@ -7181,240 +6398,240 @@
       <c r="H3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="75">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="80" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="G4" s="90"/>
       <c r="H4" s="79"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="155"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="72" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
       <c r="G5" s="70"/>
       <c r="H5" s="69"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="135"/>
+      <c r="B6" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="135"/>
+      <c r="B7" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="149"/>
       <c r="D10" s="72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="149"/>
       <c r="D11" s="72" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="90"/>
       <c r="H11" s="79"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="132"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="132"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="68"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="101"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A17" s="64"/>
@@ -7442,6 +6659,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A2:B2"/>
@@ -7456,24 +6691,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7490,249 +6707,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="149"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="75">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="65" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="75">
-        <f t="shared" ref="A6:A9" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="75">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-    </row>
-    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="75">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-    </row>
-    <row r="10" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65507:IY65545 H5:H9 WVK5:WVK9 WLO5:WLO9 WBS5:WBS9 VRW5:VRW9 VIA5:VIA9 UYE5:UYE9 UOI5:UOI9 UEM5:UEM9 TUQ5:TUQ9 TKU5:TKU9 TAY5:TAY9 SRC5:SRC9 SHG5:SHG9 RXK5:RXK9 RNO5:RNO9 RDS5:RDS9 QTW5:QTW9 QKA5:QKA9 QAE5:QAE9 PQI5:PQI9 PGM5:PGM9 OWQ5:OWQ9 OMU5:OMU9 OCY5:OCY9 NTC5:NTC9 NJG5:NJG9 MZK5:MZK9 MPO5:MPO9 MFS5:MFS9 LVW5:LVW9 LMA5:LMA9 LCE5:LCE9 KSI5:KSI9 KIM5:KIM9 JYQ5:JYQ9 JOU5:JOU9 JEY5:JEY9 IVC5:IVC9 ILG5:ILG9 IBK5:IBK9 HRO5:HRO9 HHS5:HHS9 GXW5:GXW9 GOA5:GOA9 GEE5:GEE9 FUI5:FUI9 FKM5:FKM9 FAQ5:FAQ9 EQU5:EQU9 EGY5:EGY9 DXC5:DXC9 DNG5:DNG9 DDK5:DDK9 CTO5:CTO9 CJS5:CJS9 BZW5:BZW9 BQA5:BQA9 BGE5:BGE9 AWI5:AWI9 AMM5:AMM9 ACQ5:ACQ9 SU5:SU9 IY5:IY9 H65507:H65545 H131043:H131081 H196579:H196617 H262115:H262153 H327651:H327689 H393187:H393225 H458723:H458761 H524259:H524297 H589795:H589833 H655331:H655369 H720867:H720905 H786403:H786441 H851939:H851977 H917475:H917513 H983011:H983049 WVK983011:WVK983049 WLO983011:WLO983049 WBS983011:WBS983049 VRW983011:VRW983049 VIA983011:VIA983049 UYE983011:UYE983049 UOI983011:UOI983049 UEM983011:UEM983049 TUQ983011:TUQ983049 TKU983011:TKU983049 TAY983011:TAY983049 SRC983011:SRC983049 SHG983011:SHG983049 RXK983011:RXK983049 RNO983011:RNO983049 RDS983011:RDS983049 QTW983011:QTW983049 QKA983011:QKA983049 QAE983011:QAE983049 PQI983011:PQI983049 PGM983011:PGM983049 OWQ983011:OWQ983049 OMU983011:OMU983049 OCY983011:OCY983049 NTC983011:NTC983049 NJG983011:NJG983049 MZK983011:MZK983049 MPO983011:MPO983049 MFS983011:MFS983049 LVW983011:LVW983049 LMA983011:LMA983049 LCE983011:LCE983049 KSI983011:KSI983049 KIM983011:KIM983049 JYQ983011:JYQ983049 JOU983011:JOU983049 JEY983011:JEY983049 IVC983011:IVC983049 ILG983011:ILG983049 IBK983011:IBK983049 HRO983011:HRO983049 HHS983011:HHS983049 GXW983011:GXW983049 GOA983011:GOA983049 GEE983011:GEE983049 FUI983011:FUI983049 FKM983011:FKM983049 FAQ983011:FAQ983049 EQU983011:EQU983049 EGY983011:EGY983049 DXC983011:DXC983049 DNG983011:DNG983049 DDK983011:DDK983049 CTO983011:CTO983049 CJS983011:CJS983049 BZW983011:BZW983049 BQA983011:BQA983049 BGE983011:BGE983049 AWI983011:AWI983049 AMM983011:AMM983049 ACQ983011:ACQ983049 SU983011:SU983049 IY983011:IY983049 WVK917475:WVK917513 WLO917475:WLO917513 WBS917475:WBS917513 VRW917475:VRW917513 VIA917475:VIA917513 UYE917475:UYE917513 UOI917475:UOI917513 UEM917475:UEM917513 TUQ917475:TUQ917513 TKU917475:TKU917513 TAY917475:TAY917513 SRC917475:SRC917513 SHG917475:SHG917513 RXK917475:RXK917513 RNO917475:RNO917513 RDS917475:RDS917513 QTW917475:QTW917513 QKA917475:QKA917513 QAE917475:QAE917513 PQI917475:PQI917513 PGM917475:PGM917513 OWQ917475:OWQ917513 OMU917475:OMU917513 OCY917475:OCY917513 NTC917475:NTC917513 NJG917475:NJG917513 MZK917475:MZK917513 MPO917475:MPO917513 MFS917475:MFS917513 LVW917475:LVW917513 LMA917475:LMA917513 LCE917475:LCE917513 KSI917475:KSI917513 KIM917475:KIM917513 JYQ917475:JYQ917513 JOU917475:JOU917513 JEY917475:JEY917513 IVC917475:IVC917513 ILG917475:ILG917513 IBK917475:IBK917513 HRO917475:HRO917513 HHS917475:HHS917513 GXW917475:GXW917513 GOA917475:GOA917513 GEE917475:GEE917513 FUI917475:FUI917513 FKM917475:FKM917513 FAQ917475:FAQ917513 EQU917475:EQU917513 EGY917475:EGY917513 DXC917475:DXC917513 DNG917475:DNG917513 DDK917475:DDK917513 CTO917475:CTO917513 CJS917475:CJS917513 BZW917475:BZW917513 BQA917475:BQA917513 BGE917475:BGE917513 AWI917475:AWI917513 AMM917475:AMM917513 ACQ917475:ACQ917513 SU917475:SU917513 IY917475:IY917513 WVK851939:WVK851977 WLO851939:WLO851977 WBS851939:WBS851977 VRW851939:VRW851977 VIA851939:VIA851977 UYE851939:UYE851977 UOI851939:UOI851977 UEM851939:UEM851977 TUQ851939:TUQ851977 TKU851939:TKU851977 TAY851939:TAY851977 SRC851939:SRC851977 SHG851939:SHG851977 RXK851939:RXK851977 RNO851939:RNO851977 RDS851939:RDS851977 QTW851939:QTW851977 QKA851939:QKA851977 QAE851939:QAE851977 PQI851939:PQI851977 PGM851939:PGM851977 OWQ851939:OWQ851977 OMU851939:OMU851977 OCY851939:OCY851977 NTC851939:NTC851977 NJG851939:NJG851977 MZK851939:MZK851977 MPO851939:MPO851977 MFS851939:MFS851977 LVW851939:LVW851977 LMA851939:LMA851977 LCE851939:LCE851977 KSI851939:KSI851977 KIM851939:KIM851977 JYQ851939:JYQ851977 JOU851939:JOU851977 JEY851939:JEY851977 IVC851939:IVC851977 ILG851939:ILG851977 IBK851939:IBK851977 HRO851939:HRO851977 HHS851939:HHS851977 GXW851939:GXW851977 GOA851939:GOA851977 GEE851939:GEE851977 FUI851939:FUI851977 FKM851939:FKM851977 FAQ851939:FAQ851977 EQU851939:EQU851977 EGY851939:EGY851977 DXC851939:DXC851977 DNG851939:DNG851977 DDK851939:DDK851977 CTO851939:CTO851977 CJS851939:CJS851977 BZW851939:BZW851977 BQA851939:BQA851977 BGE851939:BGE851977 AWI851939:AWI851977 AMM851939:AMM851977 ACQ851939:ACQ851977 SU851939:SU851977 IY851939:IY851977 WVK786403:WVK786441 WLO786403:WLO786441 WBS786403:WBS786441 VRW786403:VRW786441 VIA786403:VIA786441 UYE786403:UYE786441 UOI786403:UOI786441 UEM786403:UEM786441 TUQ786403:TUQ786441 TKU786403:TKU786441 TAY786403:TAY786441 SRC786403:SRC786441 SHG786403:SHG786441 RXK786403:RXK786441 RNO786403:RNO786441 RDS786403:RDS786441 QTW786403:QTW786441 QKA786403:QKA786441 QAE786403:QAE786441 PQI786403:PQI786441 PGM786403:PGM786441 OWQ786403:OWQ786441 OMU786403:OMU786441 OCY786403:OCY786441 NTC786403:NTC786441 NJG786403:NJG786441 MZK786403:MZK786441 MPO786403:MPO786441 MFS786403:MFS786441 LVW786403:LVW786441 LMA786403:LMA786441 LCE786403:LCE786441 KSI786403:KSI786441 KIM786403:KIM786441 JYQ786403:JYQ786441 JOU786403:JOU786441 JEY786403:JEY786441 IVC786403:IVC786441 ILG786403:ILG786441 IBK786403:IBK786441 HRO786403:HRO786441 HHS786403:HHS786441 GXW786403:GXW786441 GOA786403:GOA786441 GEE786403:GEE786441 FUI786403:FUI786441 FKM786403:FKM786441 FAQ786403:FAQ786441 EQU786403:EQU786441 EGY786403:EGY786441 DXC786403:DXC786441 DNG786403:DNG786441 DDK786403:DDK786441 CTO786403:CTO786441 CJS786403:CJS786441 BZW786403:BZW786441 BQA786403:BQA786441 BGE786403:BGE786441 AWI786403:AWI786441 AMM786403:AMM786441 ACQ786403:ACQ786441 SU786403:SU786441 IY786403:IY786441 WVK720867:WVK720905 WLO720867:WLO720905 WBS720867:WBS720905 VRW720867:VRW720905 VIA720867:VIA720905 UYE720867:UYE720905 UOI720867:UOI720905 UEM720867:UEM720905 TUQ720867:TUQ720905 TKU720867:TKU720905 TAY720867:TAY720905 SRC720867:SRC720905 SHG720867:SHG720905 RXK720867:RXK720905 RNO720867:RNO720905 RDS720867:RDS720905 QTW720867:QTW720905 QKA720867:QKA720905 QAE720867:QAE720905 PQI720867:PQI720905 PGM720867:PGM720905 OWQ720867:OWQ720905 OMU720867:OMU720905 OCY720867:OCY720905 NTC720867:NTC720905 NJG720867:NJG720905 MZK720867:MZK720905 MPO720867:MPO720905 MFS720867:MFS720905 LVW720867:LVW720905 LMA720867:LMA720905 LCE720867:LCE720905 KSI720867:KSI720905 KIM720867:KIM720905 JYQ720867:JYQ720905 JOU720867:JOU720905 JEY720867:JEY720905 IVC720867:IVC720905 ILG720867:ILG720905 IBK720867:IBK720905 HRO720867:HRO720905 HHS720867:HHS720905 GXW720867:GXW720905 GOA720867:GOA720905 GEE720867:GEE720905 FUI720867:FUI720905 FKM720867:FKM720905 FAQ720867:FAQ720905 EQU720867:EQU720905 EGY720867:EGY720905 DXC720867:DXC720905 DNG720867:DNG720905 DDK720867:DDK720905 CTO720867:CTO720905 CJS720867:CJS720905 BZW720867:BZW720905 BQA720867:BQA720905 BGE720867:BGE720905 AWI720867:AWI720905 AMM720867:AMM720905 ACQ720867:ACQ720905 SU720867:SU720905 IY720867:IY720905 WVK655331:WVK655369 WLO655331:WLO655369 WBS655331:WBS655369 VRW655331:VRW655369 VIA655331:VIA655369 UYE655331:UYE655369 UOI655331:UOI655369 UEM655331:UEM655369 TUQ655331:TUQ655369 TKU655331:TKU655369 TAY655331:TAY655369 SRC655331:SRC655369 SHG655331:SHG655369 RXK655331:RXK655369 RNO655331:RNO655369 RDS655331:RDS655369 QTW655331:QTW655369 QKA655331:QKA655369 QAE655331:QAE655369 PQI655331:PQI655369 PGM655331:PGM655369 OWQ655331:OWQ655369 OMU655331:OMU655369 OCY655331:OCY655369 NTC655331:NTC655369 NJG655331:NJG655369 MZK655331:MZK655369 MPO655331:MPO655369 MFS655331:MFS655369 LVW655331:LVW655369 LMA655331:LMA655369 LCE655331:LCE655369 KSI655331:KSI655369 KIM655331:KIM655369 JYQ655331:JYQ655369 JOU655331:JOU655369 JEY655331:JEY655369 IVC655331:IVC655369 ILG655331:ILG655369 IBK655331:IBK655369 HRO655331:HRO655369 HHS655331:HHS655369 GXW655331:GXW655369 GOA655331:GOA655369 GEE655331:GEE655369 FUI655331:FUI655369 FKM655331:FKM655369 FAQ655331:FAQ655369 EQU655331:EQU655369 EGY655331:EGY655369 DXC655331:DXC655369 DNG655331:DNG655369 DDK655331:DDK655369 CTO655331:CTO655369 CJS655331:CJS655369 BZW655331:BZW655369 BQA655331:BQA655369 BGE655331:BGE655369 AWI655331:AWI655369 AMM655331:AMM655369 ACQ655331:ACQ655369 SU655331:SU655369 IY655331:IY655369 WVK589795:WVK589833 WLO589795:WLO589833 WBS589795:WBS589833 VRW589795:VRW589833 VIA589795:VIA589833 UYE589795:UYE589833 UOI589795:UOI589833 UEM589795:UEM589833 TUQ589795:TUQ589833 TKU589795:TKU589833 TAY589795:TAY589833 SRC589795:SRC589833 SHG589795:SHG589833 RXK589795:RXK589833 RNO589795:RNO589833 RDS589795:RDS589833 QTW589795:QTW589833 QKA589795:QKA589833 QAE589795:QAE589833 PQI589795:PQI589833 PGM589795:PGM589833 OWQ589795:OWQ589833 OMU589795:OMU589833 OCY589795:OCY589833 NTC589795:NTC589833 NJG589795:NJG589833 MZK589795:MZK589833 MPO589795:MPO589833 MFS589795:MFS589833 LVW589795:LVW589833 LMA589795:LMA589833 LCE589795:LCE589833 KSI589795:KSI589833 KIM589795:KIM589833 JYQ589795:JYQ589833 JOU589795:JOU589833 JEY589795:JEY589833 IVC589795:IVC589833 ILG589795:ILG589833 IBK589795:IBK589833 HRO589795:HRO589833 HHS589795:HHS589833 GXW589795:GXW589833 GOA589795:GOA589833 GEE589795:GEE589833 FUI589795:FUI589833 FKM589795:FKM589833 FAQ589795:FAQ589833 EQU589795:EQU589833 EGY589795:EGY589833 DXC589795:DXC589833 DNG589795:DNG589833 DDK589795:DDK589833 CTO589795:CTO589833 CJS589795:CJS589833 BZW589795:BZW589833 BQA589795:BQA589833 BGE589795:BGE589833 AWI589795:AWI589833 AMM589795:AMM589833 ACQ589795:ACQ589833 SU589795:SU589833 IY589795:IY589833 WVK524259:WVK524297 WLO524259:WLO524297 WBS524259:WBS524297 VRW524259:VRW524297 VIA524259:VIA524297 UYE524259:UYE524297 UOI524259:UOI524297 UEM524259:UEM524297 TUQ524259:TUQ524297 TKU524259:TKU524297 TAY524259:TAY524297 SRC524259:SRC524297 SHG524259:SHG524297 RXK524259:RXK524297 RNO524259:RNO524297 RDS524259:RDS524297 QTW524259:QTW524297 QKA524259:QKA524297 QAE524259:QAE524297 PQI524259:PQI524297 PGM524259:PGM524297 OWQ524259:OWQ524297 OMU524259:OMU524297 OCY524259:OCY524297 NTC524259:NTC524297 NJG524259:NJG524297 MZK524259:MZK524297 MPO524259:MPO524297 MFS524259:MFS524297 LVW524259:LVW524297 LMA524259:LMA524297 LCE524259:LCE524297 KSI524259:KSI524297 KIM524259:KIM524297 JYQ524259:JYQ524297 JOU524259:JOU524297 JEY524259:JEY524297 IVC524259:IVC524297 ILG524259:ILG524297 IBK524259:IBK524297 HRO524259:HRO524297 HHS524259:HHS524297 GXW524259:GXW524297 GOA524259:GOA524297 GEE524259:GEE524297 FUI524259:FUI524297 FKM524259:FKM524297 FAQ524259:FAQ524297 EQU524259:EQU524297 EGY524259:EGY524297 DXC524259:DXC524297 DNG524259:DNG524297 DDK524259:DDK524297 CTO524259:CTO524297 CJS524259:CJS524297 BZW524259:BZW524297 BQA524259:BQA524297 BGE524259:BGE524297 AWI524259:AWI524297 AMM524259:AMM524297 ACQ524259:ACQ524297 SU524259:SU524297 IY524259:IY524297 WVK458723:WVK458761 WLO458723:WLO458761 WBS458723:WBS458761 VRW458723:VRW458761 VIA458723:VIA458761 UYE458723:UYE458761 UOI458723:UOI458761 UEM458723:UEM458761 TUQ458723:TUQ458761 TKU458723:TKU458761 TAY458723:TAY458761 SRC458723:SRC458761 SHG458723:SHG458761 RXK458723:RXK458761 RNO458723:RNO458761 RDS458723:RDS458761 QTW458723:QTW458761 QKA458723:QKA458761 QAE458723:QAE458761 PQI458723:PQI458761 PGM458723:PGM458761 OWQ458723:OWQ458761 OMU458723:OMU458761 OCY458723:OCY458761 NTC458723:NTC458761 NJG458723:NJG458761 MZK458723:MZK458761 MPO458723:MPO458761 MFS458723:MFS458761 LVW458723:LVW458761 LMA458723:LMA458761 LCE458723:LCE458761 KSI458723:KSI458761 KIM458723:KIM458761 JYQ458723:JYQ458761 JOU458723:JOU458761 JEY458723:JEY458761 IVC458723:IVC458761 ILG458723:ILG458761 IBK458723:IBK458761 HRO458723:HRO458761 HHS458723:HHS458761 GXW458723:GXW458761 GOA458723:GOA458761 GEE458723:GEE458761 FUI458723:FUI458761 FKM458723:FKM458761 FAQ458723:FAQ458761 EQU458723:EQU458761 EGY458723:EGY458761 DXC458723:DXC458761 DNG458723:DNG458761 DDK458723:DDK458761 CTO458723:CTO458761 CJS458723:CJS458761 BZW458723:BZW458761 BQA458723:BQA458761 BGE458723:BGE458761 AWI458723:AWI458761 AMM458723:AMM458761 ACQ458723:ACQ458761 SU458723:SU458761 IY458723:IY458761 WVK393187:WVK393225 WLO393187:WLO393225 WBS393187:WBS393225 VRW393187:VRW393225 VIA393187:VIA393225 UYE393187:UYE393225 UOI393187:UOI393225 UEM393187:UEM393225 TUQ393187:TUQ393225 TKU393187:TKU393225 TAY393187:TAY393225 SRC393187:SRC393225 SHG393187:SHG393225 RXK393187:RXK393225 RNO393187:RNO393225 RDS393187:RDS393225 QTW393187:QTW393225 QKA393187:QKA393225 QAE393187:QAE393225 PQI393187:PQI393225 PGM393187:PGM393225 OWQ393187:OWQ393225 OMU393187:OMU393225 OCY393187:OCY393225 NTC393187:NTC393225 NJG393187:NJG393225 MZK393187:MZK393225 MPO393187:MPO393225 MFS393187:MFS393225 LVW393187:LVW393225 LMA393187:LMA393225 LCE393187:LCE393225 KSI393187:KSI393225 KIM393187:KIM393225 JYQ393187:JYQ393225 JOU393187:JOU393225 JEY393187:JEY393225 IVC393187:IVC393225 ILG393187:ILG393225 IBK393187:IBK393225 HRO393187:HRO393225 HHS393187:HHS393225 GXW393187:GXW393225 GOA393187:GOA393225 GEE393187:GEE393225 FUI393187:FUI393225 FKM393187:FKM393225 FAQ393187:FAQ393225 EQU393187:EQU393225 EGY393187:EGY393225 DXC393187:DXC393225 DNG393187:DNG393225 DDK393187:DDK393225 CTO393187:CTO393225 CJS393187:CJS393225 BZW393187:BZW393225 BQA393187:BQA393225 BGE393187:BGE393225 AWI393187:AWI393225 AMM393187:AMM393225 ACQ393187:ACQ393225 SU393187:SU393225 IY393187:IY393225 WVK327651:WVK327689 WLO327651:WLO327689 WBS327651:WBS327689 VRW327651:VRW327689 VIA327651:VIA327689 UYE327651:UYE327689 UOI327651:UOI327689 UEM327651:UEM327689 TUQ327651:TUQ327689 TKU327651:TKU327689 TAY327651:TAY327689 SRC327651:SRC327689 SHG327651:SHG327689 RXK327651:RXK327689 RNO327651:RNO327689 RDS327651:RDS327689 QTW327651:QTW327689 QKA327651:QKA327689 QAE327651:QAE327689 PQI327651:PQI327689 PGM327651:PGM327689 OWQ327651:OWQ327689 OMU327651:OMU327689 OCY327651:OCY327689 NTC327651:NTC327689 NJG327651:NJG327689 MZK327651:MZK327689 MPO327651:MPO327689 MFS327651:MFS327689 LVW327651:LVW327689 LMA327651:LMA327689 LCE327651:LCE327689 KSI327651:KSI327689 KIM327651:KIM327689 JYQ327651:JYQ327689 JOU327651:JOU327689 JEY327651:JEY327689 IVC327651:IVC327689 ILG327651:ILG327689 IBK327651:IBK327689 HRO327651:HRO327689 HHS327651:HHS327689 GXW327651:GXW327689 GOA327651:GOA327689 GEE327651:GEE327689 FUI327651:FUI327689 FKM327651:FKM327689 FAQ327651:FAQ327689 EQU327651:EQU327689 EGY327651:EGY327689 DXC327651:DXC327689 DNG327651:DNG327689 DDK327651:DDK327689 CTO327651:CTO327689 CJS327651:CJS327689 BZW327651:BZW327689 BQA327651:BQA327689 BGE327651:BGE327689 AWI327651:AWI327689 AMM327651:AMM327689 ACQ327651:ACQ327689 SU327651:SU327689 IY327651:IY327689 WVK262115:WVK262153 WLO262115:WLO262153 WBS262115:WBS262153 VRW262115:VRW262153 VIA262115:VIA262153 UYE262115:UYE262153 UOI262115:UOI262153 UEM262115:UEM262153 TUQ262115:TUQ262153 TKU262115:TKU262153 TAY262115:TAY262153 SRC262115:SRC262153 SHG262115:SHG262153 RXK262115:RXK262153 RNO262115:RNO262153 RDS262115:RDS262153 QTW262115:QTW262153 QKA262115:QKA262153 QAE262115:QAE262153 PQI262115:PQI262153 PGM262115:PGM262153 OWQ262115:OWQ262153 OMU262115:OMU262153 OCY262115:OCY262153 NTC262115:NTC262153 NJG262115:NJG262153 MZK262115:MZK262153 MPO262115:MPO262153 MFS262115:MFS262153 LVW262115:LVW262153 LMA262115:LMA262153 LCE262115:LCE262153 KSI262115:KSI262153 KIM262115:KIM262153 JYQ262115:JYQ262153 JOU262115:JOU262153 JEY262115:JEY262153 IVC262115:IVC262153 ILG262115:ILG262153 IBK262115:IBK262153 HRO262115:HRO262153 HHS262115:HHS262153 GXW262115:GXW262153 GOA262115:GOA262153 GEE262115:GEE262153 FUI262115:FUI262153 FKM262115:FKM262153 FAQ262115:FAQ262153 EQU262115:EQU262153 EGY262115:EGY262153 DXC262115:DXC262153 DNG262115:DNG262153 DDK262115:DDK262153 CTO262115:CTO262153 CJS262115:CJS262153 BZW262115:BZW262153 BQA262115:BQA262153 BGE262115:BGE262153 AWI262115:AWI262153 AMM262115:AMM262153 ACQ262115:ACQ262153 SU262115:SU262153 IY262115:IY262153 WVK196579:WVK196617 WLO196579:WLO196617 WBS196579:WBS196617 VRW196579:VRW196617 VIA196579:VIA196617 UYE196579:UYE196617 UOI196579:UOI196617 UEM196579:UEM196617 TUQ196579:TUQ196617 TKU196579:TKU196617 TAY196579:TAY196617 SRC196579:SRC196617 SHG196579:SHG196617 RXK196579:RXK196617 RNO196579:RNO196617 RDS196579:RDS196617 QTW196579:QTW196617 QKA196579:QKA196617 QAE196579:QAE196617 PQI196579:PQI196617 PGM196579:PGM196617 OWQ196579:OWQ196617 OMU196579:OMU196617 OCY196579:OCY196617 NTC196579:NTC196617 NJG196579:NJG196617 MZK196579:MZK196617 MPO196579:MPO196617 MFS196579:MFS196617 LVW196579:LVW196617 LMA196579:LMA196617 LCE196579:LCE196617 KSI196579:KSI196617 KIM196579:KIM196617 JYQ196579:JYQ196617 JOU196579:JOU196617 JEY196579:JEY196617 IVC196579:IVC196617 ILG196579:ILG196617 IBK196579:IBK196617 HRO196579:HRO196617 HHS196579:HHS196617 GXW196579:GXW196617 GOA196579:GOA196617 GEE196579:GEE196617 FUI196579:FUI196617 FKM196579:FKM196617 FAQ196579:FAQ196617 EQU196579:EQU196617 EGY196579:EGY196617 DXC196579:DXC196617 DNG196579:DNG196617 DDK196579:DDK196617 CTO196579:CTO196617 CJS196579:CJS196617 BZW196579:BZW196617 BQA196579:BQA196617 BGE196579:BGE196617 AWI196579:AWI196617 AMM196579:AMM196617 ACQ196579:ACQ196617 SU196579:SU196617 IY196579:IY196617 WVK131043:WVK131081 WLO131043:WLO131081 WBS131043:WBS131081 VRW131043:VRW131081 VIA131043:VIA131081 UYE131043:UYE131081 UOI131043:UOI131081 UEM131043:UEM131081 TUQ131043:TUQ131081 TKU131043:TKU131081 TAY131043:TAY131081 SRC131043:SRC131081 SHG131043:SHG131081 RXK131043:RXK131081 RNO131043:RNO131081 RDS131043:RDS131081 QTW131043:QTW131081 QKA131043:QKA131081 QAE131043:QAE131081 PQI131043:PQI131081 PGM131043:PGM131081 OWQ131043:OWQ131081 OMU131043:OMU131081 OCY131043:OCY131081 NTC131043:NTC131081 NJG131043:NJG131081 MZK131043:MZK131081 MPO131043:MPO131081 MFS131043:MFS131081 LVW131043:LVW131081 LMA131043:LMA131081 LCE131043:LCE131081 KSI131043:KSI131081 KIM131043:KIM131081 JYQ131043:JYQ131081 JOU131043:JOU131081 JEY131043:JEY131081 IVC131043:IVC131081 ILG131043:ILG131081 IBK131043:IBK131081 HRO131043:HRO131081 HHS131043:HHS131081 GXW131043:GXW131081 GOA131043:GOA131081 GEE131043:GEE131081 FUI131043:FUI131081 FKM131043:FKM131081 FAQ131043:FAQ131081 EQU131043:EQU131081 EGY131043:EGY131081 DXC131043:DXC131081 DNG131043:DNG131081 DDK131043:DDK131081 CTO131043:CTO131081 CJS131043:CJS131081 BZW131043:BZW131081 BQA131043:BQA131081 BGE131043:BGE131081 AWI131043:AWI131081 AMM131043:AMM131081 ACQ131043:ACQ131081 SU131043:SU131081 IY131043:IY131081 WVK65507:WVK65545 WLO65507:WLO65545 WBS65507:WBS65545 VRW65507:VRW65545 VIA65507:VIA65545 UYE65507:UYE65545 UOI65507:UOI65545 UEM65507:UEM65545 TUQ65507:TUQ65545 TKU65507:TKU65545 TAY65507:TAY65545 SRC65507:SRC65545 SHG65507:SHG65545 RXK65507:RXK65545 RNO65507:RNO65545 RDS65507:RDS65545 QTW65507:QTW65545 QKA65507:QKA65545 QAE65507:QAE65545 PQI65507:PQI65545 PGM65507:PGM65545 OWQ65507:OWQ65545 OMU65507:OMU65545 OCY65507:OCY65545 NTC65507:NTC65545 NJG65507:NJG65545 MZK65507:MZK65545 MPO65507:MPO65545 MFS65507:MFS65545 LVW65507:LVW65545 LMA65507:LMA65545 LCE65507:LCE65545 KSI65507:KSI65545 KIM65507:KIM65545 JYQ65507:JYQ65545 JOU65507:JOU65545 JEY65507:JEY65545 IVC65507:IVC65545 ILG65507:ILG65545 IBK65507:IBK65545 HRO65507:HRO65545 HHS65507:HHS65545 GXW65507:GXW65545 GOA65507:GOA65545 GEE65507:GEE65545 FUI65507:FUI65545 FKM65507:FKM65545 FAQ65507:FAQ65545 EQU65507:EQU65545 EGY65507:EGY65545 DXC65507:DXC65545 DNG65507:DNG65545 DDK65507:DDK65545 CTO65507:CTO65545 CJS65507:CJS65545 BZW65507:BZW65545 BQA65507:BQA65545 BGE65507:BGE65545 AWI65507:AWI65545 AMM65507:AMM65545 ACQ65507:ACQ65545 SU65507:SU65545">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -7756,55 +6730,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -7820,128 +6794,128 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="135"/>
+      <c r="B5" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="149"/>
       <c r="D5" s="80" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="75">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="156"/>
+      <c r="B6" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="154"/>
       <c r="D6" s="80" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" s="90"/>
       <c r="H6" s="79"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="135"/>
+      <c r="B7" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="135"/>
+      <c r="B8" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="102"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A12" s="64"/>
@@ -7969,6 +6943,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I5:J5"/>
@@ -7979,18 +6965,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8006,7 +6980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -8030,55 +7004,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -8094,215 +7068,215 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="156"/>
+      <c r="B5" s="154" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="154"/>
       <c r="D5" s="80" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="135"/>
+      <c r="B6" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="135"/>
+      <c r="B7" s="149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="135"/>
+      <c r="B8" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="74"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
       <c r="H10" s="76"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72"/>
       <c r="E11" s="74"/>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
       <c r="H11" s="76"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" ref="A13" si="1">ROW()-7</f>
         <v>6</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72"/>
       <c r="E13" s="74"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="102"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A18" s="64"/>
@@ -8330,6 +7304,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B14:C14"/>
@@ -8338,32 +7338,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8377,4 +7351,813 @@
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
+    <col min="5" max="5" width="11" style="56" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
+    <col min="7" max="7" width="8" style="56" customWidth="1"/>
+    <col min="8" max="8" width="6" style="56" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
+    <col min="10" max="10" width="8" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+    </row>
+    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="130"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+    </row>
+    <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+    </row>
+    <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="140"/>
+    </row>
+    <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="75">
+        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
+        <v>-2</v>
+      </c>
+      <c r="B5" s="154" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="154"/>
+      <c r="D5" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
+    </row>
+    <row r="6" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="75">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="149"/>
+      <c r="D6" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+    </row>
+    <row r="7" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="149" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="149"/>
+      <c r="D7" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+    </row>
+    <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="149"/>
+      <c r="D8" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+    </row>
+    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+    </row>
+    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+    </row>
+    <row r="11" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="75">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+    </row>
+    <row r="12" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+    </row>
+    <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="75">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+    </row>
+    <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="75">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+    </row>
+    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="75">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
+    </row>
+    <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="75">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
+    </row>
+    <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="75">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+    </row>
+    <row r="18" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="75">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+    </row>
+    <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="75">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+    </row>
+    <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="75">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="75">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="75">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+    </row>
+    <row r="23" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="75">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+    </row>
+    <row r="24" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="75">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+    </row>
+    <row r="25" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="75">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+    </row>
+    <row r="26" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="77">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
+    </row>
+    <row r="27" spans="1:10" s="65" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="77">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
+    </row>
+    <row r="28" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="77">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
+    </row>
+    <row r="29" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="77">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
+    </row>
+    <row r="30" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="77">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
+    </row>
+    <row r="31" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="77">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
+    </row>
+    <row r="32" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="77">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
+    </row>
+    <row r="33" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="77">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
+    </row>
+    <row r="34" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="77">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+    </row>
+    <row r="35" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="77">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
+    </row>
+    <row r="36" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="77">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
+    </row>
+    <row r="37" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="77">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="144"/>
+    </row>
+    <row r="38" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="75">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="146"/>
+    </row>
+    <row r="39" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="75">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
+    </row>
+    <row r="40" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="73"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="146"/>
+    </row>
+    <row r="41" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="73"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="146"/>
+    </row>
+    <row r="42" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="73"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
+    </row>
+    <row r="43" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A43" s="68"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+    </row>
+    <row r="44" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A44" s="64"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="62"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="61"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="I42:J42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY43 SU5:SU43 ACQ5:ACQ43 AMM5:AMM43 AWI5:AWI43 BGE5:BGE43 BQA5:BQA43 BZW5:BZW43 CJS5:CJS43 CTO5:CTO43 DDK5:DDK43 DNG5:DNG43 DXC5:DXC43 EGY5:EGY43 EQU5:EQU43 FAQ5:FAQ43 FKM5:FKM43 FUI5:FUI43 GEE5:GEE43 GOA5:GOA43 GXW5:GXW43 HHS5:HHS43 HRO5:HRO43 IBK5:IBK43 ILG5:ILG43 IVC5:IVC43 JEY5:JEY43 JOU5:JOU43 JYQ5:JYQ43 KIM5:KIM43 KSI5:KSI43 LCE5:LCE43 LMA5:LMA43 LVW5:LVW43 MFS5:MFS43 MPO5:MPO43 MZK5:MZK43 NJG5:NJG43 NTC5:NTC43 OCY5:OCY43 OMU5:OMU43 OWQ5:OWQ43 PGM5:PGM43 PQI5:PQI43 QAE5:QAE43 QKA5:QKA43 QTW5:QTW43 RDS5:RDS43 RNO5:RNO43 RXK5:RXK43 SHG5:SHG43 SRC5:SRC43 TAY5:TAY43 TKU5:TKU43 TUQ5:TUQ43 UEM5:UEM43 UOI5:UOI43 UYE5:UYE43 VIA5:VIA43 VRW5:VRW43 WBS5:WBS43 WLO5:WLO43 WVK5:WVK43 IY65541:IY65579 SU65541:SU65579 ACQ65541:ACQ65579 AMM65541:AMM65579 AWI65541:AWI65579 BGE65541:BGE65579 BQA65541:BQA65579 BZW65541:BZW65579 CJS65541:CJS65579 CTO65541:CTO65579 DDK65541:DDK65579 DNG65541:DNG65579 DXC65541:DXC65579 EGY65541:EGY65579 EQU65541:EQU65579 FAQ65541:FAQ65579 FKM65541:FKM65579 FUI65541:FUI65579 GEE65541:GEE65579 GOA65541:GOA65579 GXW65541:GXW65579 HHS65541:HHS65579 HRO65541:HRO65579 IBK65541:IBK65579 ILG65541:ILG65579 IVC65541:IVC65579 JEY65541:JEY65579 JOU65541:JOU65579 JYQ65541:JYQ65579 KIM65541:KIM65579 KSI65541:KSI65579 LCE65541:LCE65579 LMA65541:LMA65579 LVW65541:LVW65579 MFS65541:MFS65579 MPO65541:MPO65579 MZK65541:MZK65579 NJG65541:NJG65579 NTC65541:NTC65579 OCY65541:OCY65579 OMU65541:OMU65579 OWQ65541:OWQ65579 PGM65541:PGM65579 PQI65541:PQI65579 QAE65541:QAE65579 QKA65541:QKA65579 QTW65541:QTW65579 RDS65541:RDS65579 RNO65541:RNO65579 RXK65541:RXK65579 SHG65541:SHG65579 SRC65541:SRC65579 TAY65541:TAY65579 TKU65541:TKU65579 TUQ65541:TUQ65579 UEM65541:UEM65579 UOI65541:UOI65579 UYE65541:UYE65579 VIA65541:VIA65579 VRW65541:VRW65579 WBS65541:WBS65579 WLO65541:WLO65579 WVK65541:WVK65579 IY131077:IY131115 SU131077:SU131115 ACQ131077:ACQ131115 AMM131077:AMM131115 AWI131077:AWI131115 BGE131077:BGE131115 BQA131077:BQA131115 BZW131077:BZW131115 CJS131077:CJS131115 CTO131077:CTO131115 DDK131077:DDK131115 DNG131077:DNG131115 DXC131077:DXC131115 EGY131077:EGY131115 EQU131077:EQU131115 FAQ131077:FAQ131115 FKM131077:FKM131115 FUI131077:FUI131115 GEE131077:GEE131115 GOA131077:GOA131115 GXW131077:GXW131115 HHS131077:HHS131115 HRO131077:HRO131115 IBK131077:IBK131115 ILG131077:ILG131115 IVC131077:IVC131115 JEY131077:JEY131115 JOU131077:JOU131115 JYQ131077:JYQ131115 KIM131077:KIM131115 KSI131077:KSI131115 LCE131077:LCE131115 LMA131077:LMA131115 LVW131077:LVW131115 MFS131077:MFS131115 MPO131077:MPO131115 MZK131077:MZK131115 NJG131077:NJG131115 NTC131077:NTC131115 OCY131077:OCY131115 OMU131077:OMU131115 OWQ131077:OWQ131115 PGM131077:PGM131115 PQI131077:PQI131115 QAE131077:QAE131115 QKA131077:QKA131115 QTW131077:QTW131115 RDS131077:RDS131115 RNO131077:RNO131115 RXK131077:RXK131115 SHG131077:SHG131115 SRC131077:SRC131115 TAY131077:TAY131115 TKU131077:TKU131115 TUQ131077:TUQ131115 UEM131077:UEM131115 UOI131077:UOI131115 UYE131077:UYE131115 VIA131077:VIA131115 VRW131077:VRW131115 WBS131077:WBS131115 WLO131077:WLO131115 WVK131077:WVK131115 IY196613:IY196651 SU196613:SU196651 ACQ196613:ACQ196651 AMM196613:AMM196651 AWI196613:AWI196651 BGE196613:BGE196651 BQA196613:BQA196651 BZW196613:BZW196651 CJS196613:CJS196651 CTO196613:CTO196651 DDK196613:DDK196651 DNG196613:DNG196651 DXC196613:DXC196651 EGY196613:EGY196651 EQU196613:EQU196651 FAQ196613:FAQ196651 FKM196613:FKM196651 FUI196613:FUI196651 GEE196613:GEE196651 GOA196613:GOA196651 GXW196613:GXW196651 HHS196613:HHS196651 HRO196613:HRO196651 IBK196613:IBK196651 ILG196613:ILG196651 IVC196613:IVC196651 JEY196613:JEY196651 JOU196613:JOU196651 JYQ196613:JYQ196651 KIM196613:KIM196651 KSI196613:KSI196651 LCE196613:LCE196651 LMA196613:LMA196651 LVW196613:LVW196651 MFS196613:MFS196651 MPO196613:MPO196651 MZK196613:MZK196651 NJG196613:NJG196651 NTC196613:NTC196651 OCY196613:OCY196651 OMU196613:OMU196651 OWQ196613:OWQ196651 PGM196613:PGM196651 PQI196613:PQI196651 QAE196613:QAE196651 QKA196613:QKA196651 QTW196613:QTW196651 RDS196613:RDS196651 RNO196613:RNO196651 RXK196613:RXK196651 SHG196613:SHG196651 SRC196613:SRC196651 TAY196613:TAY196651 TKU196613:TKU196651 TUQ196613:TUQ196651 UEM196613:UEM196651 UOI196613:UOI196651 UYE196613:UYE196651 VIA196613:VIA196651 VRW196613:VRW196651 WBS196613:WBS196651 WLO196613:WLO196651 WVK196613:WVK196651 IY262149:IY262187 SU262149:SU262187 ACQ262149:ACQ262187 AMM262149:AMM262187 AWI262149:AWI262187 BGE262149:BGE262187 BQA262149:BQA262187 BZW262149:BZW262187 CJS262149:CJS262187 CTO262149:CTO262187 DDK262149:DDK262187 DNG262149:DNG262187 DXC262149:DXC262187 EGY262149:EGY262187 EQU262149:EQU262187 FAQ262149:FAQ262187 FKM262149:FKM262187 FUI262149:FUI262187 GEE262149:GEE262187 GOA262149:GOA262187 GXW262149:GXW262187 HHS262149:HHS262187 HRO262149:HRO262187 IBK262149:IBK262187 ILG262149:ILG262187 IVC262149:IVC262187 JEY262149:JEY262187 JOU262149:JOU262187 JYQ262149:JYQ262187 KIM262149:KIM262187 KSI262149:KSI262187 LCE262149:LCE262187 LMA262149:LMA262187 LVW262149:LVW262187 MFS262149:MFS262187 MPO262149:MPO262187 MZK262149:MZK262187 NJG262149:NJG262187 NTC262149:NTC262187 OCY262149:OCY262187 OMU262149:OMU262187 OWQ262149:OWQ262187 PGM262149:PGM262187 PQI262149:PQI262187 QAE262149:QAE262187 QKA262149:QKA262187 QTW262149:QTW262187 RDS262149:RDS262187 RNO262149:RNO262187 RXK262149:RXK262187 SHG262149:SHG262187 SRC262149:SRC262187 TAY262149:TAY262187 TKU262149:TKU262187 TUQ262149:TUQ262187 UEM262149:UEM262187 UOI262149:UOI262187 UYE262149:UYE262187 VIA262149:VIA262187 VRW262149:VRW262187 WBS262149:WBS262187 WLO262149:WLO262187 WVK262149:WVK262187 IY327685:IY327723 SU327685:SU327723 ACQ327685:ACQ327723 AMM327685:AMM327723 AWI327685:AWI327723 BGE327685:BGE327723 BQA327685:BQA327723 BZW327685:BZW327723 CJS327685:CJS327723 CTO327685:CTO327723 DDK327685:DDK327723 DNG327685:DNG327723 DXC327685:DXC327723 EGY327685:EGY327723 EQU327685:EQU327723 FAQ327685:FAQ327723 FKM327685:FKM327723 FUI327685:FUI327723 GEE327685:GEE327723 GOA327685:GOA327723 GXW327685:GXW327723 HHS327685:HHS327723 HRO327685:HRO327723 IBK327685:IBK327723 ILG327685:ILG327723 IVC327685:IVC327723 JEY327685:JEY327723 JOU327685:JOU327723 JYQ327685:JYQ327723 KIM327685:KIM327723 KSI327685:KSI327723 LCE327685:LCE327723 LMA327685:LMA327723 LVW327685:LVW327723 MFS327685:MFS327723 MPO327685:MPO327723 MZK327685:MZK327723 NJG327685:NJG327723 NTC327685:NTC327723 OCY327685:OCY327723 OMU327685:OMU327723 OWQ327685:OWQ327723 PGM327685:PGM327723 PQI327685:PQI327723 QAE327685:QAE327723 QKA327685:QKA327723 QTW327685:QTW327723 RDS327685:RDS327723 RNO327685:RNO327723 RXK327685:RXK327723 SHG327685:SHG327723 SRC327685:SRC327723 TAY327685:TAY327723 TKU327685:TKU327723 TUQ327685:TUQ327723 UEM327685:UEM327723 UOI327685:UOI327723 UYE327685:UYE327723 VIA327685:VIA327723 VRW327685:VRW327723 WBS327685:WBS327723 WLO327685:WLO327723 WVK327685:WVK327723 IY393221:IY393259 SU393221:SU393259 ACQ393221:ACQ393259 AMM393221:AMM393259 AWI393221:AWI393259 BGE393221:BGE393259 BQA393221:BQA393259 BZW393221:BZW393259 CJS393221:CJS393259 CTO393221:CTO393259 DDK393221:DDK393259 DNG393221:DNG393259 DXC393221:DXC393259 EGY393221:EGY393259 EQU393221:EQU393259 FAQ393221:FAQ393259 FKM393221:FKM393259 FUI393221:FUI393259 GEE393221:GEE393259 GOA393221:GOA393259 GXW393221:GXW393259 HHS393221:HHS393259 HRO393221:HRO393259 IBK393221:IBK393259 ILG393221:ILG393259 IVC393221:IVC393259 JEY393221:JEY393259 JOU393221:JOU393259 JYQ393221:JYQ393259 KIM393221:KIM393259 KSI393221:KSI393259 LCE393221:LCE393259 LMA393221:LMA393259 LVW393221:LVW393259 MFS393221:MFS393259 MPO393221:MPO393259 MZK393221:MZK393259 NJG393221:NJG393259 NTC393221:NTC393259 OCY393221:OCY393259 OMU393221:OMU393259 OWQ393221:OWQ393259 PGM393221:PGM393259 PQI393221:PQI393259 QAE393221:QAE393259 QKA393221:QKA393259 QTW393221:QTW393259 RDS393221:RDS393259 RNO393221:RNO393259 RXK393221:RXK393259 SHG393221:SHG393259 SRC393221:SRC393259 TAY393221:TAY393259 TKU393221:TKU393259 TUQ393221:TUQ393259 UEM393221:UEM393259 UOI393221:UOI393259 UYE393221:UYE393259 VIA393221:VIA393259 VRW393221:VRW393259 WBS393221:WBS393259 WLO393221:WLO393259 WVK393221:WVK393259 IY458757:IY458795 SU458757:SU458795 ACQ458757:ACQ458795 AMM458757:AMM458795 AWI458757:AWI458795 BGE458757:BGE458795 BQA458757:BQA458795 BZW458757:BZW458795 CJS458757:CJS458795 CTO458757:CTO458795 DDK458757:DDK458795 DNG458757:DNG458795 DXC458757:DXC458795 EGY458757:EGY458795 EQU458757:EQU458795 FAQ458757:FAQ458795 FKM458757:FKM458795 FUI458757:FUI458795 GEE458757:GEE458795 GOA458757:GOA458795 GXW458757:GXW458795 HHS458757:HHS458795 HRO458757:HRO458795 IBK458757:IBK458795 ILG458757:ILG458795 IVC458757:IVC458795 JEY458757:JEY458795 JOU458757:JOU458795 JYQ458757:JYQ458795 KIM458757:KIM458795 KSI458757:KSI458795 LCE458757:LCE458795 LMA458757:LMA458795 LVW458757:LVW458795 MFS458757:MFS458795 MPO458757:MPO458795 MZK458757:MZK458795 NJG458757:NJG458795 NTC458757:NTC458795 OCY458757:OCY458795 OMU458757:OMU458795 OWQ458757:OWQ458795 PGM458757:PGM458795 PQI458757:PQI458795 QAE458757:QAE458795 QKA458757:QKA458795 QTW458757:QTW458795 RDS458757:RDS458795 RNO458757:RNO458795 RXK458757:RXK458795 SHG458757:SHG458795 SRC458757:SRC458795 TAY458757:TAY458795 TKU458757:TKU458795 TUQ458757:TUQ458795 UEM458757:UEM458795 UOI458757:UOI458795 UYE458757:UYE458795 VIA458757:VIA458795 VRW458757:VRW458795 WBS458757:WBS458795 WLO458757:WLO458795 WVK458757:WVK458795 IY524293:IY524331 SU524293:SU524331 ACQ524293:ACQ524331 AMM524293:AMM524331 AWI524293:AWI524331 BGE524293:BGE524331 BQA524293:BQA524331 BZW524293:BZW524331 CJS524293:CJS524331 CTO524293:CTO524331 DDK524293:DDK524331 DNG524293:DNG524331 DXC524293:DXC524331 EGY524293:EGY524331 EQU524293:EQU524331 FAQ524293:FAQ524331 FKM524293:FKM524331 FUI524293:FUI524331 GEE524293:GEE524331 GOA524293:GOA524331 GXW524293:GXW524331 HHS524293:HHS524331 HRO524293:HRO524331 IBK524293:IBK524331 ILG524293:ILG524331 IVC524293:IVC524331 JEY524293:JEY524331 JOU524293:JOU524331 JYQ524293:JYQ524331 KIM524293:KIM524331 KSI524293:KSI524331 LCE524293:LCE524331 LMA524293:LMA524331 LVW524293:LVW524331 MFS524293:MFS524331 MPO524293:MPO524331 MZK524293:MZK524331 NJG524293:NJG524331 NTC524293:NTC524331 OCY524293:OCY524331 OMU524293:OMU524331 OWQ524293:OWQ524331 PGM524293:PGM524331 PQI524293:PQI524331 QAE524293:QAE524331 QKA524293:QKA524331 QTW524293:QTW524331 RDS524293:RDS524331 RNO524293:RNO524331 RXK524293:RXK524331 SHG524293:SHG524331 SRC524293:SRC524331 TAY524293:TAY524331 TKU524293:TKU524331 TUQ524293:TUQ524331 UEM524293:UEM524331 UOI524293:UOI524331 UYE524293:UYE524331 VIA524293:VIA524331 VRW524293:VRW524331 WBS524293:WBS524331 WLO524293:WLO524331 WVK524293:WVK524331 IY589829:IY589867 SU589829:SU589867 ACQ589829:ACQ589867 AMM589829:AMM589867 AWI589829:AWI589867 BGE589829:BGE589867 BQA589829:BQA589867 BZW589829:BZW589867 CJS589829:CJS589867 CTO589829:CTO589867 DDK589829:DDK589867 DNG589829:DNG589867 DXC589829:DXC589867 EGY589829:EGY589867 EQU589829:EQU589867 FAQ589829:FAQ589867 FKM589829:FKM589867 FUI589829:FUI589867 GEE589829:GEE589867 GOA589829:GOA589867 GXW589829:GXW589867 HHS589829:HHS589867 HRO589829:HRO589867 IBK589829:IBK589867 ILG589829:ILG589867 IVC589829:IVC589867 JEY589829:JEY589867 JOU589829:JOU589867 JYQ589829:JYQ589867 KIM589829:KIM589867 KSI589829:KSI589867 LCE589829:LCE589867 LMA589829:LMA589867 LVW589829:LVW589867 MFS589829:MFS589867 MPO589829:MPO589867 MZK589829:MZK589867 NJG589829:NJG589867 NTC589829:NTC589867 OCY589829:OCY589867 OMU589829:OMU589867 OWQ589829:OWQ589867 PGM589829:PGM589867 PQI589829:PQI589867 QAE589829:QAE589867 QKA589829:QKA589867 QTW589829:QTW589867 RDS589829:RDS589867 RNO589829:RNO589867 RXK589829:RXK589867 SHG589829:SHG589867 SRC589829:SRC589867 TAY589829:TAY589867 TKU589829:TKU589867 TUQ589829:TUQ589867 UEM589829:UEM589867 UOI589829:UOI589867 UYE589829:UYE589867 VIA589829:VIA589867 VRW589829:VRW589867 WBS589829:WBS589867 WLO589829:WLO589867 WVK589829:WVK589867 IY655365:IY655403 SU655365:SU655403 ACQ655365:ACQ655403 AMM655365:AMM655403 AWI655365:AWI655403 BGE655365:BGE655403 BQA655365:BQA655403 BZW655365:BZW655403 CJS655365:CJS655403 CTO655365:CTO655403 DDK655365:DDK655403 DNG655365:DNG655403 DXC655365:DXC655403 EGY655365:EGY655403 EQU655365:EQU655403 FAQ655365:FAQ655403 FKM655365:FKM655403 FUI655365:FUI655403 GEE655365:GEE655403 GOA655365:GOA655403 GXW655365:GXW655403 HHS655365:HHS655403 HRO655365:HRO655403 IBK655365:IBK655403 ILG655365:ILG655403 IVC655365:IVC655403 JEY655365:JEY655403 JOU655365:JOU655403 JYQ655365:JYQ655403 KIM655365:KIM655403 KSI655365:KSI655403 LCE655365:LCE655403 LMA655365:LMA655403 LVW655365:LVW655403 MFS655365:MFS655403 MPO655365:MPO655403 MZK655365:MZK655403 NJG655365:NJG655403 NTC655365:NTC655403 OCY655365:OCY655403 OMU655365:OMU655403 OWQ655365:OWQ655403 PGM655365:PGM655403 PQI655365:PQI655403 QAE655365:QAE655403 QKA655365:QKA655403 QTW655365:QTW655403 RDS655365:RDS655403 RNO655365:RNO655403 RXK655365:RXK655403 SHG655365:SHG655403 SRC655365:SRC655403 TAY655365:TAY655403 TKU655365:TKU655403 TUQ655365:TUQ655403 UEM655365:UEM655403 UOI655365:UOI655403 UYE655365:UYE655403 VIA655365:VIA655403 VRW655365:VRW655403 WBS655365:WBS655403 WLO655365:WLO655403 WVK655365:WVK655403 IY720901:IY720939 SU720901:SU720939 ACQ720901:ACQ720939 AMM720901:AMM720939 AWI720901:AWI720939 BGE720901:BGE720939 BQA720901:BQA720939 BZW720901:BZW720939 CJS720901:CJS720939 CTO720901:CTO720939 DDK720901:DDK720939 DNG720901:DNG720939 DXC720901:DXC720939 EGY720901:EGY720939 EQU720901:EQU720939 FAQ720901:FAQ720939 FKM720901:FKM720939 FUI720901:FUI720939 GEE720901:GEE720939 GOA720901:GOA720939 GXW720901:GXW720939 HHS720901:HHS720939 HRO720901:HRO720939 IBK720901:IBK720939 ILG720901:ILG720939 IVC720901:IVC720939 JEY720901:JEY720939 JOU720901:JOU720939 JYQ720901:JYQ720939 KIM720901:KIM720939 KSI720901:KSI720939 LCE720901:LCE720939 LMA720901:LMA720939 LVW720901:LVW720939 MFS720901:MFS720939 MPO720901:MPO720939 MZK720901:MZK720939 NJG720901:NJG720939 NTC720901:NTC720939 OCY720901:OCY720939 OMU720901:OMU720939 OWQ720901:OWQ720939 PGM720901:PGM720939 PQI720901:PQI720939 QAE720901:QAE720939 QKA720901:QKA720939 QTW720901:QTW720939 RDS720901:RDS720939 RNO720901:RNO720939 RXK720901:RXK720939 SHG720901:SHG720939 SRC720901:SRC720939 TAY720901:TAY720939 TKU720901:TKU720939 TUQ720901:TUQ720939 UEM720901:UEM720939 UOI720901:UOI720939 UYE720901:UYE720939 VIA720901:VIA720939 VRW720901:VRW720939 WBS720901:WBS720939 WLO720901:WLO720939 WVK720901:WVK720939 IY786437:IY786475 SU786437:SU786475 ACQ786437:ACQ786475 AMM786437:AMM786475 AWI786437:AWI786475 BGE786437:BGE786475 BQA786437:BQA786475 BZW786437:BZW786475 CJS786437:CJS786475 CTO786437:CTO786475 DDK786437:DDK786475 DNG786437:DNG786475 DXC786437:DXC786475 EGY786437:EGY786475 EQU786437:EQU786475 FAQ786437:FAQ786475 FKM786437:FKM786475 FUI786437:FUI786475 GEE786437:GEE786475 GOA786437:GOA786475 GXW786437:GXW786475 HHS786437:HHS786475 HRO786437:HRO786475 IBK786437:IBK786475 ILG786437:ILG786475 IVC786437:IVC786475 JEY786437:JEY786475 JOU786437:JOU786475 JYQ786437:JYQ786475 KIM786437:KIM786475 KSI786437:KSI786475 LCE786437:LCE786475 LMA786437:LMA786475 LVW786437:LVW786475 MFS786437:MFS786475 MPO786437:MPO786475 MZK786437:MZK786475 NJG786437:NJG786475 NTC786437:NTC786475 OCY786437:OCY786475 OMU786437:OMU786475 OWQ786437:OWQ786475 PGM786437:PGM786475 PQI786437:PQI786475 QAE786437:QAE786475 QKA786437:QKA786475 QTW786437:QTW786475 RDS786437:RDS786475 RNO786437:RNO786475 RXK786437:RXK786475 SHG786437:SHG786475 SRC786437:SRC786475 TAY786437:TAY786475 TKU786437:TKU786475 TUQ786437:TUQ786475 UEM786437:UEM786475 UOI786437:UOI786475 UYE786437:UYE786475 VIA786437:VIA786475 VRW786437:VRW786475 WBS786437:WBS786475 WLO786437:WLO786475 WVK786437:WVK786475 IY851973:IY852011 SU851973:SU852011 ACQ851973:ACQ852011 AMM851973:AMM852011 AWI851973:AWI852011 BGE851973:BGE852011 BQA851973:BQA852011 BZW851973:BZW852011 CJS851973:CJS852011 CTO851973:CTO852011 DDK851973:DDK852011 DNG851973:DNG852011 DXC851973:DXC852011 EGY851973:EGY852011 EQU851973:EQU852011 FAQ851973:FAQ852011 FKM851973:FKM852011 FUI851973:FUI852011 GEE851973:GEE852011 GOA851973:GOA852011 GXW851973:GXW852011 HHS851973:HHS852011 HRO851973:HRO852011 IBK851973:IBK852011 ILG851973:ILG852011 IVC851973:IVC852011 JEY851973:JEY852011 JOU851973:JOU852011 JYQ851973:JYQ852011 KIM851973:KIM852011 KSI851973:KSI852011 LCE851973:LCE852011 LMA851973:LMA852011 LVW851973:LVW852011 MFS851973:MFS852011 MPO851973:MPO852011 MZK851973:MZK852011 NJG851973:NJG852011 NTC851973:NTC852011 OCY851973:OCY852011 OMU851973:OMU852011 OWQ851973:OWQ852011 PGM851973:PGM852011 PQI851973:PQI852011 QAE851973:QAE852011 QKA851973:QKA852011 QTW851973:QTW852011 RDS851973:RDS852011 RNO851973:RNO852011 RXK851973:RXK852011 SHG851973:SHG852011 SRC851973:SRC852011 TAY851973:TAY852011 TKU851973:TKU852011 TUQ851973:TUQ852011 UEM851973:UEM852011 UOI851973:UOI852011 UYE851973:UYE852011 VIA851973:VIA852011 VRW851973:VRW852011 WBS851973:WBS852011 WLO851973:WLO852011 WVK851973:WVK852011 IY917509:IY917547 SU917509:SU917547 ACQ917509:ACQ917547 AMM917509:AMM917547 AWI917509:AWI917547 BGE917509:BGE917547 BQA917509:BQA917547 BZW917509:BZW917547 CJS917509:CJS917547 CTO917509:CTO917547 DDK917509:DDK917547 DNG917509:DNG917547 DXC917509:DXC917547 EGY917509:EGY917547 EQU917509:EQU917547 FAQ917509:FAQ917547 FKM917509:FKM917547 FUI917509:FUI917547 GEE917509:GEE917547 GOA917509:GOA917547 GXW917509:GXW917547 HHS917509:HHS917547 HRO917509:HRO917547 IBK917509:IBK917547 ILG917509:ILG917547 IVC917509:IVC917547 JEY917509:JEY917547 JOU917509:JOU917547 JYQ917509:JYQ917547 KIM917509:KIM917547 KSI917509:KSI917547 LCE917509:LCE917547 LMA917509:LMA917547 LVW917509:LVW917547 MFS917509:MFS917547 MPO917509:MPO917547 MZK917509:MZK917547 NJG917509:NJG917547 NTC917509:NTC917547 OCY917509:OCY917547 OMU917509:OMU917547 OWQ917509:OWQ917547 PGM917509:PGM917547 PQI917509:PQI917547 QAE917509:QAE917547 QKA917509:QKA917547 QTW917509:QTW917547 RDS917509:RDS917547 RNO917509:RNO917547 RXK917509:RXK917547 SHG917509:SHG917547 SRC917509:SRC917547 TAY917509:TAY917547 TKU917509:TKU917547 TUQ917509:TUQ917547 UEM917509:UEM917547 UOI917509:UOI917547 UYE917509:UYE917547 VIA917509:VIA917547 VRW917509:VRW917547 WBS917509:WBS917547 WLO917509:WLO917547 WVK917509:WVK917547 IY983045:IY983083 SU983045:SU983083 ACQ983045:ACQ983083 AMM983045:AMM983083 AWI983045:AWI983083 BGE983045:BGE983083 BQA983045:BQA983083 BZW983045:BZW983083 CJS983045:CJS983083 CTO983045:CTO983083 DDK983045:DDK983083 DNG983045:DNG983083 DXC983045:DXC983083 EGY983045:EGY983083 EQU983045:EQU983083 FAQ983045:FAQ983083 FKM983045:FKM983083 FUI983045:FUI983083 GEE983045:GEE983083 GOA983045:GOA983083 GXW983045:GXW983083 HHS983045:HHS983083 HRO983045:HRO983083 IBK983045:IBK983083 ILG983045:ILG983083 IVC983045:IVC983083 JEY983045:JEY983083 JOU983045:JOU983083 JYQ983045:JYQ983083 KIM983045:KIM983083 KSI983045:KSI983083 LCE983045:LCE983083 LMA983045:LMA983083 LVW983045:LVW983083 MFS983045:MFS983083 MPO983045:MPO983083 MZK983045:MZK983083 NJG983045:NJG983083 NTC983045:NTC983083 OCY983045:OCY983083 OMU983045:OMU983083 OWQ983045:OWQ983083 PGM983045:PGM983083 PQI983045:PQI983083 QAE983045:QAE983083 QKA983045:QKA983083 QTW983045:QTW983083 RDS983045:RDS983083 RNO983045:RNO983083 RXK983045:RXK983083 SHG983045:SHG983083 SRC983045:SRC983083 TAY983045:TAY983083 TKU983045:TKU983083 TUQ983045:TUQ983083 UEM983045:UEM983083 UOI983045:UOI983083 UYE983045:UYE983083 VIA983045:VIA983083 VRW983045:VRW983083 WBS983045:WBS983083 WLO983045:WLO983083 WVK983045:WVK983083 H983045:H983083 H917509:H917547 H851973:H852011 H786437:H786475 H720901:H720939 H655365:H655403 H589829:H589867 H524293:H524331 H458757:H458795 H393221:H393259 H327685:H327723 H262149:H262187 H196613:H196651 H131077:H131115 H65541:H65579 H5:H43">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -838,6 +838,14 @@
   </si>
   <si>
     <t>checktimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经建立索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isIndexed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2876,6 +2884,33 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2885,32 +2920,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2921,9 +2935,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2933,14 +2944,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2977,36 +3012,15 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3018,12 +3032,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="138">
@@ -3532,17 +3540,17 @@
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="117"/>
       <c r="Q4" s="2"/>
       <c r="AA4" s="1"/>
     </row>
@@ -3859,15 +3867,15 @@
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="117"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="114"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -3887,15 +3895,15 @@
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="117"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="114"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -3913,15 +3921,15 @@
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -3939,15 +3947,15 @@
       <c r="C17" s="12"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="114"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
@@ -3965,15 +3973,15 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
       <c r="Q18" s="2"/>
       <c r="AA18" s="1"/>
     </row>
@@ -4281,13 +4289,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
@@ -4296,6 +4297,13 @@
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
     <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4345,8 +4353,8 @@
       <c r="C1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="52" t="s">
         <v>12</v>
       </c>
@@ -4511,11 +4519,11 @@
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="33" t="s">
         <v>37</v>
       </c>
@@ -4525,18 +4533,18 @@
       <c r="G6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120" t="s">
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="124"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="125"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="27"/>
@@ -4584,14 +4592,14 @@
       <c r="G7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="125"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="119"/>
       <c r="S7" s="87"/>
       <c r="T7" s="87"/>
       <c r="U7" s="87"/>
@@ -4617,14 +4625,14 @@
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="125"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="119"/>
       <c r="S8" s="87"/>
       <c r="T8" s="87"/>
       <c r="U8" s="87"/>
@@ -4650,14 +4658,14 @@
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="125"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="119"/>
       <c r="S9" s="87"/>
       <c r="T9" s="87"/>
       <c r="U9" s="87"/>
@@ -4683,14 +4691,14 @@
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="125"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="S10" s="87"/>
       <c r="T10" s="87"/>
       <c r="U10" s="87"/>
@@ -4716,14 +4724,14 @@
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="125"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
       <c r="S11" s="87"/>
       <c r="T11" s="87"/>
       <c r="U11" s="87"/>
@@ -4749,14 +4757,14 @@
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="125"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="119"/>
       <c r="S12" s="87"/>
       <c r="T12" s="87"/>
       <c r="U12" s="87"/>
@@ -4782,14 +4790,14 @@
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="125"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="119"/>
       <c r="S13" s="87"/>
       <c r="T13" s="87"/>
       <c r="U13" s="87"/>
@@ -4815,14 +4823,14 @@
       </c>
       <c r="F14" s="88"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="125"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="119"/>
       <c r="S14" s="87"/>
       <c r="T14" s="87"/>
       <c r="U14" s="87"/>
@@ -4842,14 +4850,14 @@
       <c r="E15" s="91"/>
       <c r="F15" s="89"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="124"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -5089,13 +5097,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H11:L11"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="H7:L7"/>
@@ -5112,6 +5113,13 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
@@ -5158,43 +5166,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="138"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
@@ -5210,37 +5218,37 @@
       <c r="H3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="140"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="75">
         <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="142"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="72"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70"/>
       <c r="H4" s="69"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="146"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="132"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
+      <c r="C5" s="130"/>
       <c r="D5" s="80" t="s">
         <v>100</v>
       </c>
@@ -5248,18 +5256,18 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="142"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="72" t="s">
         <v>101</v>
       </c>
@@ -5267,18 +5275,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="72" t="s">
         <v>103</v>
       </c>
@@ -5286,71 +5294,71 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="72"/>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="73"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="73"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="73"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="72"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="101"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A13" s="64"/>
@@ -5378,6 +5386,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B8:C8"/>
@@ -5390,18 +5410,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5441,55 +5449,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -5505,20 +5513,20 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="80" t="s">
         <v>87</v>
       </c>
@@ -5526,18 +5534,18 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" ref="A6:A20" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="104" t="s">
         <v>88</v>
       </c>
@@ -5545,8 +5553,8 @@
       <c r="F6" s="74"/>
       <c r="G6" s="90"/>
       <c r="H6" s="79"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
@@ -5564,18 +5572,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="72" t="s">
         <v>132</v>
       </c>
@@ -5583,18 +5591,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="149"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72" t="s">
         <v>89</v>
       </c>
@@ -5602,18 +5610,18 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72" t="s">
         <v>90</v>
       </c>
@@ -5621,18 +5629,18 @@
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="149"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="72" t="s">
         <v>162</v>
       </c>
@@ -5640,18 +5648,18 @@
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="72" t="s">
         <v>161</v>
       </c>
@@ -5659,8 +5667,8 @@
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
@@ -5678,8 +5686,8 @@
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="75">
@@ -5697,8 +5705,8 @@
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="75">
@@ -5716,8 +5724,8 @@
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="35.25" customHeight="1">
       <c r="A16" s="75">
@@ -5735,10 +5743,10 @@
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="145" t="s">
+      <c r="I16" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="146"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="39" customHeight="1">
       <c r="A17" s="75">
@@ -5756,20 +5764,20 @@
       <c r="F17" s="71"/>
       <c r="G17" s="70"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="145" t="s">
+      <c r="I17" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="146"/>
+      <c r="J17" s="132"/>
     </row>
     <row r="18" spans="1:10" s="65" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="149"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="72" t="s">
         <v>164</v>
       </c>
@@ -5777,20 +5785,20 @@
       <c r="F18" s="71"/>
       <c r="G18" s="70"/>
       <c r="H18" s="69"/>
-      <c r="I18" s="145" t="s">
+      <c r="I18" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="146"/>
+      <c r="J18" s="132"/>
     </row>
     <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="149"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="72" t="s">
         <v>163</v>
       </c>
@@ -5798,8 +5806,8 @@
       <c r="F19" s="71"/>
       <c r="G19" s="70"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="75">
@@ -5817,22 +5825,22 @@
       <c r="F20" s="71"/>
       <c r="G20" s="70"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="145" t="s">
+      <c r="I20" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="146"/>
+      <c r="J20" s="132"/>
     </row>
     <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="68"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="101"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A22" s="64"/>
@@ -5860,6 +5868,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B9:C9"/>
@@ -5873,35 +5907,9 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5922,7 +5930,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5941,55 +5949,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -6005,20 +6013,20 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="80" t="s">
         <v>87</v>
       </c>
@@ -6026,20 +6034,20 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="153"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="72" t="s">
         <v>105</v>
       </c>
@@ -6047,18 +6055,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="80" t="s">
         <v>111</v>
       </c>
@@ -6066,20 +6074,20 @@
       <c r="F7" s="74"/>
       <c r="G7" s="90"/>
       <c r="H7" s="79"/>
-      <c r="I7" s="143" t="s">
+      <c r="I7" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="144"/>
+      <c r="J7" s="137"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="72" t="s">
         <v>106</v>
       </c>
@@ -6087,18 +6095,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="149"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72" t="s">
         <v>107</v>
       </c>
@@ -6106,18 +6114,18 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72" t="s">
         <v>108</v>
       </c>
@@ -6125,20 +6133,20 @@
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="145" t="s">
+      <c r="I10" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="146"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="1:10" s="78" customFormat="1" ht="42" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="149"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="72" t="s">
         <v>109</v>
       </c>
@@ -6146,20 +6154,20 @@
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="146"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="72" t="s">
         <v>151</v>
       </c>
@@ -6167,20 +6175,20 @@
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="146"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="149"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="72" t="s">
         <v>131</v>
       </c>
@@ -6188,17 +6196,17 @@
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73">
         <v>10</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="149"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="72" t="s">
         <v>178</v>
       </c>
@@ -6206,46 +6214,52 @@
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="145" t="s">
+      <c r="I14" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="146"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="73">
+        <v>11</v>
+      </c>
+      <c r="B15" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="135"/>
+      <c r="D15" s="72" t="s">
+        <v>180</v>
+      </c>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="101"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A18" s="64"/>
@@ -6273,24 +6287,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A3:B3"/>
@@ -6307,6 +6303,24 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6346,43 +6360,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="138"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
@@ -6398,20 +6412,20 @@
       <c r="H3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="140"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="75">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="80" t="s">
         <v>112</v>
       </c>
@@ -6419,18 +6433,18 @@
       <c r="F4" s="74"/>
       <c r="G4" s="90"/>
       <c r="H4" s="79"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="153"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="155"/>
     </row>
     <row r="5" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="72" t="s">
         <v>105</v>
       </c>
@@ -6438,18 +6452,18 @@
       <c r="F5" s="71"/>
       <c r="G5" s="70"/>
       <c r="H5" s="69"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="72" t="s">
         <v>100</v>
       </c>
@@ -6457,18 +6471,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="149"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="72" t="s">
         <v>117</v>
       </c>
@@ -6476,18 +6490,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="72" t="s">
         <v>113</v>
       </c>
@@ -6495,18 +6509,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="149"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72" t="s">
         <v>106</v>
       </c>
@@ -6514,18 +6528,18 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72" t="s">
         <v>107</v>
       </c>
@@ -6533,18 +6547,18 @@
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="149"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="72" t="s">
         <v>114</v>
       </c>
@@ -6552,18 +6566,18 @@
       <c r="F11" s="71"/>
       <c r="G11" s="90"/>
       <c r="H11" s="79"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="72" t="s">
         <v>115</v>
       </c>
@@ -6571,20 +6585,20 @@
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="146"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="149"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="72" t="s">
         <v>166</v>
       </c>
@@ -6592,46 +6606,46 @@
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="145" t="s">
+      <c r="I13" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="146"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="68"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="101"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A17" s="64"/>
@@ -6659,24 +6673,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A2:B2"/>
@@ -6691,6 +6687,24 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6730,55 +6744,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -6794,20 +6808,20 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="80" t="s">
         <v>118</v>
       </c>
@@ -6815,18 +6829,18 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="75">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="156"/>
       <c r="D6" s="80" t="s">
         <v>119</v>
       </c>
@@ -6834,18 +6848,18 @@
       <c r="F6" s="74"/>
       <c r="G6" s="90"/>
       <c r="H6" s="79"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="149"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="72" t="s">
         <v>129</v>
       </c>
@@ -6853,18 +6867,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="72" t="s">
         <v>120</v>
       </c>
@@ -6872,50 +6886,50 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="102"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A12" s="64"/>
@@ -6943,18 +6957,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I5:J5"/>
@@ -6965,6 +6967,18 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7004,55 +7018,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -7068,20 +7082,20 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="80" t="s">
         <v>121</v>
       </c>
@@ -7089,18 +7103,18 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="72" t="s">
         <v>122</v>
       </c>
@@ -7108,18 +7122,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="149"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="72" t="s">
         <v>123</v>
       </c>
@@ -7127,20 +7141,20 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="146"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="72" t="s">
         <v>168</v>
       </c>
@@ -7148,18 +7162,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="149"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72" t="s">
         <v>130</v>
       </c>
@@ -7167,116 +7181,116 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72"/>
       <c r="E10" s="74"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
       <c r="H10" s="76"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="72"/>
       <c r="E11" s="74"/>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
       <c r="H11" s="76"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="72"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" ref="A13" si="1">ROW()-7</f>
         <v>6</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="72"/>
       <c r="E13" s="74"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="102"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A18" s="64"/>
@@ -7304,12 +7318,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:C5"/>
@@ -7318,26 +7346,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7377,55 +7391,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -7441,20 +7455,20 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="75">
         <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
         <v>-2</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="80" t="s">
         <v>118</v>
       </c>
@@ -7462,18 +7476,18 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="72" t="s">
         <v>124</v>
       </c>
@@ -7481,18 +7495,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="149"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="72" t="s">
         <v>125</v>
       </c>
@@ -7500,18 +7514,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="72" t="s">
         <v>126</v>
       </c>
@@ -7519,521 +7533,521 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="90"/>
       <c r="H10" s="79"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="72"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="72"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="72"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="72"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="70"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
     </row>
     <row r="18" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="72"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="70"/>
       <c r="H18" s="69"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
     </row>
     <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="75">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="72"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="70"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="75">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="72"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="70"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
     </row>
     <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="72"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="70"/>
       <c r="H21" s="69"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="72"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="70"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
     </row>
     <row r="23" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="75">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="72"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="70"/>
       <c r="H23" s="69"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
     </row>
     <row r="24" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="75">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="72"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="70"/>
       <c r="H24" s="69"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
     </row>
     <row r="25" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="75">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="72"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="70"/>
       <c r="H25" s="69"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
     </row>
     <row r="26" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="77">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="72"/>
       <c r="E26" s="74"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
       <c r="H26" s="76"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:10" s="65" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="77">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="72"/>
       <c r="E27" s="74"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
       <c r="H27" s="76"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="77">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="72"/>
       <c r="E28" s="74"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
       <c r="H28" s="76"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="77">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
       <c r="D29" s="72"/>
       <c r="E29" s="74"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="76"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="144"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
     </row>
     <row r="30" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="77">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="72"/>
       <c r="E30" s="74"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="76"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
     </row>
     <row r="31" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="77">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="72"/>
       <c r="E31" s="74"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
       <c r="H31" s="76"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="137"/>
     </row>
     <row r="32" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="77">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="72"/>
       <c r="E32" s="74"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="76"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="144"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="137"/>
     </row>
     <row r="33" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="77">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="72"/>
       <c r="E33" s="74"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="76"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="144"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="137"/>
     </row>
     <row r="34" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="77">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
       <c r="D34" s="72"/>
       <c r="E34" s="74"/>
       <c r="F34" s="71"/>
       <c r="G34" s="71"/>
       <c r="H34" s="76"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="137"/>
     </row>
     <row r="35" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="77">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="72"/>
       <c r="E35" s="74"/>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
       <c r="H35" s="76"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="144"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="137"/>
     </row>
     <row r="36" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="77">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="72"/>
       <c r="E36" s="74"/>
       <c r="F36" s="71"/>
       <c r="G36" s="71"/>
       <c r="H36" s="76"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="137"/>
     </row>
     <row r="37" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="77">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="72"/>
       <c r="E37" s="74"/>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
       <c r="H37" s="76"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="144"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="137"/>
     </row>
     <row r="38" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="75">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="72"/>
       <c r="E38" s="71"/>
       <c r="F38" s="71"/>
       <c r="G38" s="70"/>
       <c r="H38" s="69"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="146"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="132"/>
     </row>
     <row r="39" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="75">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="72"/>
       <c r="E39" s="74"/>
       <c r="F39" s="71"/>
       <c r="G39" s="70"/>
       <c r="H39" s="69"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="132"/>
     </row>
     <row r="40" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="73"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="72"/>
       <c r="E40" s="71"/>
       <c r="F40" s="71"/>
       <c r="G40" s="70"/>
       <c r="H40" s="69"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="146"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="132"/>
     </row>
     <row r="41" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="73"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="72"/>
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
       <c r="G41" s="70"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="146"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
     </row>
     <row r="42" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="73"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="72"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71"/>
       <c r="G42" s="70"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="132"/>
     </row>
     <row r="43" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="68"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="102"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
     </row>
     <row r="44" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A44" s="64"/>
@@ -8061,84 +8075,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="B40:C40"/>
@@ -8147,6 +8083,84 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="184">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -846,6 +846,18 @@
   </si>
   <si>
     <t>isIndexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨剑飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link表中添加是否已经索引标志位isIndexd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2884,6 +2896,24 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2893,15 +2923,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2911,50 +2932,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2969,48 +3023,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3472,8 +3484,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:N9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
@@ -3540,17 +3552,17 @@
       <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
       <c r="Q4" s="2"/>
       <c r="AA4" s="1"/>
     </row>
@@ -3751,11 +3763,21 @@
       <c r="A10" s="98">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="20">
+        <v>41480</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>183</v>
+      </c>
       <c r="G10" s="110"/>
       <c r="H10" s="110"/>
       <c r="I10" s="110"/>
@@ -3867,15 +3889,15 @@
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -3895,15 +3917,15 @@
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -3921,15 +3943,15 @@
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -3947,15 +3969,15 @@
       <c r="C17" s="12"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
@@ -3973,15 +3995,15 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="108"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
       <c r="Q18" s="2"/>
       <c r="AA18" s="1"/>
     </row>
@@ -4289,6 +4311,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F18:N18"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:N6"/>
@@ -4297,13 +4326,6 @@
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="F9:N9"/>
     <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4353,8 +4375,8 @@
       <c r="C1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="52" t="s">
         <v>12</v>
       </c>
@@ -4519,11 +4541,11 @@
       <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="33" t="s">
         <v>37</v>
       </c>
@@ -4533,18 +4555,18 @@
       <c r="G6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="125"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="27"/>
@@ -4592,14 +4614,14 @@
       <c r="G7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="119"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="125"/>
       <c r="S7" s="87"/>
       <c r="T7" s="87"/>
       <c r="U7" s="87"/>
@@ -4625,14 +4647,14 @@
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="119"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="125"/>
       <c r="S8" s="87"/>
       <c r="T8" s="87"/>
       <c r="U8" s="87"/>
@@ -4658,14 +4680,14 @@
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="119"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="125"/>
       <c r="S9" s="87"/>
       <c r="T9" s="87"/>
       <c r="U9" s="87"/>
@@ -4691,14 +4713,14 @@
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="125"/>
       <c r="S10" s="87"/>
       <c r="T10" s="87"/>
       <c r="U10" s="87"/>
@@ -4724,14 +4746,14 @@
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="125"/>
       <c r="S11" s="87"/>
       <c r="T11" s="87"/>
       <c r="U11" s="87"/>
@@ -4757,14 +4779,14 @@
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="119"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="125"/>
       <c r="S12" s="87"/>
       <c r="T12" s="87"/>
       <c r="U12" s="87"/>
@@ -4790,14 +4812,14 @@
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="125"/>
       <c r="S13" s="87"/>
       <c r="T13" s="87"/>
       <c r="U13" s="87"/>
@@ -4823,14 +4845,14 @@
       </c>
       <c r="F14" s="88"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="125"/>
       <c r="S14" s="87"/>
       <c r="T14" s="87"/>
       <c r="U14" s="87"/>
@@ -4850,14 +4872,14 @@
       <c r="E15" s="91"/>
       <c r="F15" s="89"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="124"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="123"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -5097,6 +5119,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="H7:L7"/>
@@ -5113,13 +5142,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
@@ -5166,43 +5188,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
@@ -5218,37 +5240,37 @@
       <c r="H3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="75">
         <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="72"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70"/>
       <c r="H4" s="69"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="130"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="80" t="s">
         <v>100</v>
       </c>
@@ -5256,18 +5278,18 @@
       <c r="F5" s="74"/>
       <c r="G5" s="90"/>
       <c r="H5" s="79"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="130"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="72" t="s">
         <v>101</v>
       </c>
@@ -5275,18 +5297,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="72" t="s">
         <v>103</v>
       </c>
@@ -5294,71 +5316,71 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="72"/>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="73"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="73"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="73"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="101"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A13" s="64"/>
@@ -5386,18 +5408,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B8:C8"/>
@@ -5410,6 +5420,18 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5449,10 +5471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="151"/>
       <c r="D1" s="152"/>
       <c r="E1" s="152"/>
@@ -5463,10 +5485,10 @@
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="151"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
@@ -5477,27 +5499,27 @@
       <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -5513,10 +5535,10 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
@@ -5572,18 +5594,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
         <v>132</v>
       </c>
@@ -5591,18 +5613,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
         <v>89</v>
       </c>
@@ -5610,18 +5632,18 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72" t="s">
         <v>90</v>
       </c>
@@ -5629,18 +5651,18 @@
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72" t="s">
         <v>162</v>
       </c>
@@ -5648,18 +5670,18 @@
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72" t="s">
         <v>161</v>
       </c>
@@ -5667,8 +5689,8 @@
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
@@ -5686,8 +5708,8 @@
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="75">
@@ -5705,8 +5727,8 @@
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="75">
@@ -5724,8 +5746,8 @@
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="35.25" customHeight="1">
       <c r="A16" s="75">
@@ -5743,10 +5765,10 @@
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131" t="s">
+      <c r="I16" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="132"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="39" customHeight="1">
       <c r="A17" s="75">
@@ -5764,20 +5786,20 @@
       <c r="F17" s="71"/>
       <c r="G17" s="70"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="132"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" s="65" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="135"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="72" t="s">
         <v>164</v>
       </c>
@@ -5785,20 +5807,20 @@
       <c r="F18" s="71"/>
       <c r="G18" s="70"/>
       <c r="H18" s="69"/>
-      <c r="I18" s="131" t="s">
+      <c r="I18" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="132"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="135"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="72" t="s">
         <v>163</v>
       </c>
@@ -5806,8 +5828,8 @@
       <c r="F19" s="71"/>
       <c r="G19" s="70"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="75">
@@ -5825,22 +5847,22 @@
       <c r="F20" s="71"/>
       <c r="G20" s="70"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="131" t="s">
+      <c r="I20" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="132"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="68"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="101"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A22" s="64"/>
@@ -5868,16 +5890,16 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="A3:B3"/>
@@ -5894,22 +5916,22 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5929,7 +5951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
@@ -5949,10 +5971,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="151"/>
       <c r="D1" s="152"/>
       <c r="E1" s="152"/>
@@ -5963,10 +5985,10 @@
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="151"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
@@ -5977,27 +5999,27 @@
       <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -6013,10 +6035,10 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="75">
@@ -6044,10 +6066,10 @@
         <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
         <v>105</v>
       </c>
@@ -6055,18 +6077,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="80" t="s">
         <v>111</v>
       </c>
@@ -6074,20 +6096,20 @@
       <c r="F7" s="74"/>
       <c r="G7" s="90"/>
       <c r="H7" s="79"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="137"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
         <v>106</v>
       </c>
@@ -6095,18 +6117,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
         <v>107</v>
       </c>
@@ -6114,18 +6136,18 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72" t="s">
         <v>108</v>
       </c>
@@ -6133,20 +6155,20 @@
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="132"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="78" customFormat="1" ht="42" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72" t="s">
         <v>109</v>
       </c>
@@ -6154,20 +6176,20 @@
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131" t="s">
+      <c r="I11" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="132"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72" t="s">
         <v>151</v>
       </c>
@@ -6175,20 +6197,20 @@
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="132"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72" t="s">
         <v>131</v>
       </c>
@@ -6196,17 +6218,17 @@
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73">
         <v>10</v>
       </c>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="72" t="s">
         <v>178</v>
       </c>
@@ -6214,19 +6236,19 @@
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="132"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73">
         <v>11</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="135"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72" t="s">
         <v>180</v>
       </c>
@@ -6234,32 +6256,32 @@
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="101"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A18" s="64"/>
@@ -6287,6 +6309,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A3:B3"/>
@@ -6303,24 +6343,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6360,43 +6382,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
@@ -6412,10 +6434,10 @@
       <c r="H3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="75">
@@ -6441,10 +6463,10 @@
         <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="72" t="s">
         <v>105</v>
       </c>
@@ -6452,18 +6474,18 @@
       <c r="F5" s="71"/>
       <c r="G5" s="70"/>
       <c r="H5" s="69"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
         <v>100</v>
       </c>
@@ -6471,18 +6493,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
         <v>117</v>
       </c>
@@ -6490,18 +6512,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
         <v>113</v>
       </c>
@@ -6509,18 +6531,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
         <v>106</v>
       </c>
@@ -6528,18 +6550,18 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72" t="s">
         <v>107</v>
       </c>
@@ -6547,18 +6569,18 @@
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72" t="s">
         <v>114</v>
       </c>
@@ -6566,18 +6588,18 @@
       <c r="F11" s="71"/>
       <c r="G11" s="90"/>
       <c r="H11" s="79"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72" t="s">
         <v>115</v>
       </c>
@@ -6585,20 +6607,20 @@
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="132"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72" t="s">
         <v>166</v>
       </c>
@@ -6606,46 +6628,46 @@
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="132"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="68"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="101"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A17" s="64"/>
@@ -6673,6 +6695,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A2:B2"/>
@@ -6687,24 +6727,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6744,10 +6766,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="151"/>
       <c r="D1" s="152"/>
       <c r="E1" s="152"/>
@@ -6758,10 +6780,10 @@
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="151"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
@@ -6772,27 +6794,27 @@
       <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -6808,20 +6830,20 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="75">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="80" t="s">
         <v>118</v>
       </c>
@@ -6856,10 +6878,10 @@
         <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
         <v>129</v>
       </c>
@@ -6867,18 +6889,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
         <v>120</v>
       </c>
@@ -6886,50 +6908,50 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="70"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="102"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A12" s="64"/>
@@ -6957,6 +6979,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I5:J5"/>
@@ -6967,18 +7001,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7018,10 +7040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="151"/>
       <c r="D1" s="152"/>
       <c r="E1" s="152"/>
@@ -7032,10 +7054,10 @@
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="151"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
@@ -7046,27 +7068,27 @@
       <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -7082,10 +7104,10 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="75">
@@ -7111,10 +7133,10 @@
         <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
         <v>122</v>
       </c>
@@ -7122,18 +7144,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
         <v>123</v>
       </c>
@@ -7141,20 +7163,20 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="132"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
         <v>168</v>
       </c>
@@ -7162,18 +7184,18 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72" t="s">
         <v>130</v>
       </c>
@@ -7181,116 +7203,116 @@
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="74"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
       <c r="H10" s="76"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
     </row>
     <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72"/>
       <c r="E11" s="74"/>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
       <c r="H11" s="76"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" ref="A13" si="1">ROW()-7</f>
         <v>6</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72"/>
       <c r="E13" s="74"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="68"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="102"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A18" s="64"/>
@@ -7318,6 +7340,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B14:C14"/>
@@ -7326,32 +7374,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7391,10 +7413,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="151"/>
       <c r="D1" s="152"/>
       <c r="E1" s="152"/>
@@ -7405,10 +7427,10 @@
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="151"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
@@ -7419,27 +7441,27 @@
       <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
@@ -7455,10 +7477,10 @@
       <c r="H4" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="149"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="75">
@@ -7484,10 +7506,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="72" t="s">
         <v>124</v>
       </c>
@@ -7495,18 +7517,18 @@
       <c r="F6" s="71"/>
       <c r="G6" s="70"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="72" t="s">
         <v>125</v>
       </c>
@@ -7514,18 +7536,18 @@
       <c r="F7" s="71"/>
       <c r="G7" s="70"/>
       <c r="H7" s="69"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="72" t="s">
         <v>126</v>
       </c>
@@ -7533,521 +7555,521 @@
       <c r="F8" s="71"/>
       <c r="G8" s="70"/>
       <c r="H8" s="69"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="72"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="70"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="72"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="90"/>
       <c r="H10" s="79"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="72"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="70"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="72"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="70"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="72"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="70"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="72"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="70"/>
       <c r="H14" s="69"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="72"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="70"/>
       <c r="H16" s="69"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="72"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="70"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="72"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="70"/>
       <c r="H18" s="69"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="75">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="72"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="70"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="75">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="72"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="70"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="72"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="70"/>
       <c r="H21" s="69"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
       <c r="D22" s="72"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="70"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="23" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="75">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="72"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="70"/>
       <c r="H23" s="69"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
     </row>
     <row r="24" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="75">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="72"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="70"/>
       <c r="H24" s="69"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="132"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="75">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="72"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="70"/>
       <c r="H25" s="69"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="77">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="72"/>
       <c r="E26" s="74"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
       <c r="H26" s="76"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="137"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:10" s="65" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="77">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="72"/>
       <c r="E27" s="74"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
       <c r="H27" s="76"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="77">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="72"/>
       <c r="E28" s="74"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
       <c r="H28" s="76"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="137"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
     </row>
     <row r="29" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="77">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="72"/>
       <c r="E29" s="74"/>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
       <c r="H29" s="76"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
     </row>
     <row r="30" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="77">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="72"/>
       <c r="E30" s="74"/>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
       <c r="H30" s="76"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
     </row>
     <row r="31" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="77">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
       <c r="D31" s="72"/>
       <c r="E31" s="74"/>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
       <c r="H31" s="76"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
     </row>
     <row r="32" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="77">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="72"/>
       <c r="E32" s="74"/>
       <c r="F32" s="71"/>
       <c r="G32" s="71"/>
       <c r="H32" s="76"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
     </row>
     <row r="33" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="77">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="72"/>
       <c r="E33" s="74"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="76"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="137"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
     </row>
     <row r="34" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="77">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
       <c r="D34" s="72"/>
       <c r="E34" s="74"/>
       <c r="F34" s="71"/>
       <c r="G34" s="71"/>
       <c r="H34" s="76"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="137"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="35" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="77">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
       <c r="D35" s="72"/>
       <c r="E35" s="74"/>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
       <c r="H35" s="76"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="137"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
     </row>
     <row r="36" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="77">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="72"/>
       <c r="E36" s="74"/>
       <c r="F36" s="71"/>
       <c r="G36" s="71"/>
       <c r="H36" s="76"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
     </row>
     <row r="37" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="77">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="72"/>
       <c r="E37" s="74"/>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
       <c r="H37" s="76"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="137"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="144"/>
     </row>
     <row r="38" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="75">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="72"/>
       <c r="E38" s="71"/>
       <c r="F38" s="71"/>
       <c r="G38" s="70"/>
       <c r="H38" s="69"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="132"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="146"/>
     </row>
     <row r="39" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="75">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="72"/>
       <c r="E39" s="74"/>
       <c r="F39" s="71"/>
       <c r="G39" s="70"/>
       <c r="H39" s="69"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="132"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="73"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
       <c r="D40" s="72"/>
       <c r="E40" s="71"/>
       <c r="F40" s="71"/>
       <c r="G40" s="70"/>
       <c r="H40" s="69"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="132"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="146"/>
     </row>
     <row r="41" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="73"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="72"/>
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
       <c r="G41" s="70"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="146"/>
     </row>
     <row r="42" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="73"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="72"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71"/>
       <c r="G42" s="70"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
     </row>
     <row r="43" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="68"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="102"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
       <c r="A44" s="64"/>
@@ -8075,6 +8097,84 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="B40:C40"/>
@@ -8083,84 +8183,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="4" r:id="rId1"/>
@@ -20,10 +20,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">实体列表!$A$6:$O$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">city!$A$1:$J$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">keyword_page!$A$1:$J$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">keyword_page!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">link!$A$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">operate_log!$A$1:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">site!$A$1:$J$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">site!$A$1:$J$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">user!$A$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">实体列表!$A$1:$O$26</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="189">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -211,16 +211,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>修改日期</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>修改者</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -241,9 +231,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>修改历史</t>
-  </si>
-  <si>
     <t>实体设计</t>
     <rPh sb="0" eb="4">
       <t>セッケイ</t>
@@ -697,14 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绑定关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,10 +760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敏感词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,6 +833,46 @@
   </si>
   <si>
     <t>link表中添加是否已经索引标志位isIndexd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMailTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市所在经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市所在维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>site表中增加经纬度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword_page表中增加发送邮件次数信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,10 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-  </numFmts>
-  <fonts count="54">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,13 +1266,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -2589,7 +2594,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2606,9 +2611,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2625,9 +2627,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2644,9 +2643,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,9 +2651,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2860,9 +2853,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="137" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2890,11 +2880,32 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2905,32 +2916,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2941,9 +2931,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2953,14 +2940,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2997,44 +3008,11 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3482,532 +3460,515 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:N10"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.75" style="1" customWidth="1"/>
-    <col min="18" max="27" width="3.75" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="3.75" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="26" width="3.75" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="3.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.25" customHeight="1"/>
-    <row r="2" spans="1:34" ht="13.5">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:33">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="23" t="s">
+    </row>
+    <row r="4" spans="1:33" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
-      <c r="Q4" s="2"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="75">
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="110"/>
+      <c r="P4" s="2"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A5" s="71">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="20">
-        <v>41475</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="B5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="111"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="75">
+      <c r="E5" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="104"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A6" s="71">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="20">
-        <v>41478</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="111"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-    </row>
-    <row r="7" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="95">
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A7" s="90">
         <f>ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="20">
-        <v>41478</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="104"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" spans="1:33" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="91">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="F7" s="109" t="s">
+      <c r="D8" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="111"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:34" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="96">
-        <v>4</v>
-      </c>
-      <c r="B8" s="94">
-        <v>41479</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A9" s="92">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="15">
         <v>1.3</v>
       </c>
-      <c r="F8" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A9" s="97">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20">
-        <v>41479</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="104"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A10" s="93">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="F9" s="109" t="s">
+      <c r="C10" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A10" s="98">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20">
-        <v>41480</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="15">
         <v>1.4</v>
       </c>
-      <c r="F10" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="111"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-    </row>
-    <row r="11" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A11" s="98">
+      <c r="E10" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="104"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A11" s="93">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-    </row>
-    <row r="12" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A12" s="98">
+      <c r="B11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="12" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A12" s="93">
         <v>8</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="111"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-    </row>
-    <row r="13" spans="1:34" s="15" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A13" s="98">
+      <c r="B12" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="104"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:33" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A13" s="93">
         <v>9</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="111"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="1:34" s="8" customFormat="1">
-      <c r="A14" s="99">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="104"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="1:33" s="7" customFormat="1">
+      <c r="A14" s="94">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="117"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:34" s="8" customFormat="1">
-      <c r="A15" s="99">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" s="7" customFormat="1">
+      <c r="A15" s="94">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="117"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" s="8" customFormat="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="1:27" s="8" customFormat="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" s="7" customFormat="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" s="7" customFormat="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="107"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
-      <c r="Q18" s="2"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="D18" s="4"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="P18" s="2"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4021,9 +3982,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4037,9 +3997,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4053,9 +4012,8 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4069,9 +4027,8 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4085,9 +4042,8 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4101,9 +4057,8 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4117,9 +4072,8 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4133,9 +4087,8 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4149,9 +4102,8 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4165,9 +4117,8 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4181,9 +4132,8 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4197,9 +4147,8 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4213,9 +4162,8 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4229,9 +4177,8 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4245,7 +4192,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -4255,9 +4202,8 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4271,7 +4217,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -4281,9 +4227,8 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4297,7 +4242,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -4307,25 +4252,24 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F18:N18"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4367,745 +4311,745 @@
     <col min="29" max="16384" width="3.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:45" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-    </row>
-    <row r="2" spans="1:45" s="26" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A2" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="44" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="1:45" s="22" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-    </row>
-    <row r="3" spans="1:45" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-    </row>
-    <row r="4" spans="1:45" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="O2" s="32"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+    </row>
+    <row r="3" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+    </row>
+    <row r="4" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="str">
+      <c r="B4" s="31" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>实体列表</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-    </row>
-    <row r="5" spans="1:45" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
     </row>
     <row r="6" spans="1:45" ht="29.25" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="120" t="s">
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="115"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+    </row>
+    <row r="7" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="79">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-    </row>
-    <row r="7" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="83">
-        <v>1</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+    </row>
+    <row r="8" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="79">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+    </row>
+    <row r="9" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="79">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="92" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="125"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-    </row>
-    <row r="8" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="83">
-        <v>2</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="92" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="112"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+    </row>
+    <row r="10" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="79">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="125"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-    </row>
-    <row r="9" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="83">
-        <v>3</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="92" t="s">
+      <c r="F10" s="84"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="112"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+    </row>
+    <row r="11" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="79">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="125"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-    </row>
-    <row r="10" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="83">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31" t="s">
+      <c r="F11" s="84"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="112"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+    </row>
+    <row r="12" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="79">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="93" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="125"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-    </row>
-    <row r="11" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="83">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="112"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+    </row>
+    <row r="13" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="79">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="92" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="112"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+    </row>
+    <row r="14" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="79">
+        <v>7</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="125"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-    </row>
-    <row r="12" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="83">
-        <v>5</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="125"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-    </row>
-    <row r="13" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="83">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="125"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-    </row>
-    <row r="14" spans="1:45" s="86" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="83">
-        <v>7</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="125"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-    </row>
-    <row r="15" spans="1:45" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="123"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-    </row>
-    <row r="16" spans="1:45" s="26" customFormat="1">
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-    </row>
-    <row r="17" spans="19:28" s="26" customFormat="1">
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-    </row>
-    <row r="18" spans="19:28" s="26" customFormat="1">
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-    </row>
-    <row r="19" spans="19:28" s="26" customFormat="1">
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-    </row>
-    <row r="20" spans="19:28" s="26" customFormat="1">
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-    </row>
-    <row r="21" spans="19:28" s="26" customFormat="1">
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-    </row>
-    <row r="22" spans="19:28" s="26" customFormat="1">
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-    </row>
-    <row r="23" spans="19:28" s="26" customFormat="1">
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-    </row>
-    <row r="24" spans="19:28" s="26" customFormat="1">
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-    </row>
-    <row r="25" spans="19:28" s="26" customFormat="1">
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-    </row>
-    <row r="26" spans="19:28" s="26" customFormat="1">
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-    </row>
-    <row r="27" spans="19:28" s="26" customFormat="1">
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-    </row>
-    <row r="28" spans="19:28" s="26" customFormat="1">
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-    </row>
-    <row r="29" spans="19:28" s="26" customFormat="1">
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-    </row>
-    <row r="30" spans="19:28" s="26" customFormat="1">
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-    </row>
-    <row r="31" spans="19:28" s="26" customFormat="1">
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-    </row>
-    <row r="32" spans="19:28" s="26" customFormat="1">
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-    </row>
-    <row r="33" spans="19:28" s="26" customFormat="1">
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="112"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+    </row>
+    <row r="15" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="117"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+    </row>
+    <row r="16" spans="1:45" s="22" customFormat="1">
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+    </row>
+    <row r="17" spans="19:28" s="22" customFormat="1">
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+    </row>
+    <row r="18" spans="19:28" s="22" customFormat="1">
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+    </row>
+    <row r="19" spans="19:28" s="22" customFormat="1">
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="19:28" s="22" customFormat="1">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+    </row>
+    <row r="21" spans="19:28" s="22" customFormat="1">
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+    </row>
+    <row r="22" spans="19:28" s="22" customFormat="1">
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="19:28" s="22" customFormat="1">
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+    </row>
+    <row r="24" spans="19:28" s="22" customFormat="1">
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+    </row>
+    <row r="25" spans="19:28" s="22" customFormat="1">
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="19:28" s="22" customFormat="1">
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="19:28" s="22" customFormat="1">
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+    </row>
+    <row r="28" spans="19:28" s="22" customFormat="1">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+    </row>
+    <row r="29" spans="19:28" s="22" customFormat="1">
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+    </row>
+    <row r="30" spans="19:28" s="22" customFormat="1">
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+    </row>
+    <row r="31" spans="19:28" s="22" customFormat="1">
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+    </row>
+    <row r="32" spans="19:28" s="22" customFormat="1">
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+    </row>
+    <row r="33" spans="19:28" s="22" customFormat="1">
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:O6">
@@ -5119,13 +5063,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H11:L11"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="H7:L7"/>
@@ -5142,6 +5079,13 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
@@ -5174,240 +5118,252 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="G3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="140"/>
-    </row>
-    <row r="4" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="75">
+      <c r="J3" s="142"/>
+    </row>
+    <row r="4" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71">
         <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="146"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="75">
+      <c r="B4" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
-    </row>
-    <row r="6" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="75">
+      <c r="B5" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="141" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="123"/>
+      <c r="D7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-    </row>
-    <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-    </row>
-    <row r="13" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="62"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="61"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="59"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B8:C8"/>
@@ -5420,18 +5376,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5449,457 +5393,505 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="75">
+      <c r="J4" s="142"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="75">
-        <f t="shared" ref="A6:A20" si="0">ROW()-4</f>
+      <c r="B5" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A22" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-    </row>
-    <row r="7" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+    </row>
+    <row r="7" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="150" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="72" t="s">
+      <c r="B8" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="C8" s="128"/>
+      <c r="D8" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="B9" s="128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="75">
+      <c r="B10" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-    </row>
-    <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="75">
+      <c r="B11" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="D11" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-    </row>
-    <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="75">
+      <c r="B12" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-    </row>
-    <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="75">
+      <c r="B13" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="128"/>
+      <c r="D13" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="71">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-    </row>
-    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="75">
+      <c r="B14" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="128"/>
+      <c r="D14" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-    </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A16" s="75">
+      <c r="B15" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="150"/>
-      <c r="D16" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:10" s="65" customFormat="1" ht="39" customHeight="1">
-      <c r="A17" s="75">
+      <c r="B16" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="145" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="146"/>
-    </row>
-    <row r="18" spans="1:10" s="65" customFormat="1" ht="42" customHeight="1">
-      <c r="A18" s="75">
+      <c r="B17" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
+    </row>
+    <row r="18" spans="1:10" s="61" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="149" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="146"/>
-    </row>
-    <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="75">
+      <c r="B18" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="125"/>
+    </row>
+    <row r="19" spans="1:10" s="61" customFormat="1" ht="39" customHeight="1">
+      <c r="A19" s="71">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="149" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-    </row>
-    <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="75">
+      <c r="B19" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="128"/>
+      <c r="D19" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="125"/>
+    </row>
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="42" customHeight="1">
+      <c r="A20" s="71">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="150"/>
-      <c r="D20" s="105" t="s">
+      <c r="B20" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="128"/>
+      <c r="D20" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="125"/>
+    </row>
+    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="71">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="128"/>
+      <c r="D21" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="145" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="146"/>
-    </row>
-    <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="101"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-    </row>
-    <row r="22" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="62"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="59"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+    </row>
+    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="71">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="128"/>
+      <c r="D22" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="125"/>
+    </row>
+    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+    </row>
+    <row r="24" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="57"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="A3:B3"/>
@@ -5916,26 +5908,24 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65519:IY65557 H65519:H65557 H131055:H131093 H196591:H196629 H262127:H262165 H327663:H327701 H393199:H393237 H458735:H458773 H524271:H524309 H589807:H589845 H655343:H655381 H720879:H720917 H786415:H786453 H851951:H851989 H917487:H917525 H983023:H983061 SU65519:SU65557 WVK983023:WVK983061 WLO983023:WLO983061 WBS983023:WBS983061 VRW983023:VRW983061 VIA983023:VIA983061 UYE983023:UYE983061 UOI983023:UOI983061 UEM983023:UEM983061 TUQ983023:TUQ983061 TKU983023:TKU983061 TAY983023:TAY983061 SRC983023:SRC983061 SHG983023:SHG983061 RXK983023:RXK983061 RNO983023:RNO983061 RDS983023:RDS983061 QTW983023:QTW983061 QKA983023:QKA983061 QAE983023:QAE983061 PQI983023:PQI983061 PGM983023:PGM983061 OWQ983023:OWQ983061 OMU983023:OMU983061 OCY983023:OCY983061 NTC983023:NTC983061 NJG983023:NJG983061 MZK983023:MZK983061 MPO983023:MPO983061 MFS983023:MFS983061 LVW983023:LVW983061 LMA983023:LMA983061 LCE983023:LCE983061 KSI983023:KSI983061 KIM983023:KIM983061 JYQ983023:JYQ983061 JOU983023:JOU983061 JEY983023:JEY983061 IVC983023:IVC983061 ILG983023:ILG983061 IBK983023:IBK983061 HRO983023:HRO983061 HHS983023:HHS983061 GXW983023:GXW983061 GOA983023:GOA983061 GEE983023:GEE983061 FUI983023:FUI983061 FKM983023:FKM983061 FAQ983023:FAQ983061 EQU983023:EQU983061 EGY983023:EGY983061 DXC983023:DXC983061 DNG983023:DNG983061 DDK983023:DDK983061 CTO983023:CTO983061 CJS983023:CJS983061 BZW983023:BZW983061 BQA983023:BQA983061 BGE983023:BGE983061 AWI983023:AWI983061 AMM983023:AMM983061 ACQ983023:ACQ983061 SU983023:SU983061 IY983023:IY983061 WVK917487:WVK917525 WLO917487:WLO917525 WBS917487:WBS917525 VRW917487:VRW917525 VIA917487:VIA917525 UYE917487:UYE917525 UOI917487:UOI917525 UEM917487:UEM917525 TUQ917487:TUQ917525 TKU917487:TKU917525 TAY917487:TAY917525 SRC917487:SRC917525 SHG917487:SHG917525 RXK917487:RXK917525 RNO917487:RNO917525 RDS917487:RDS917525 QTW917487:QTW917525 QKA917487:QKA917525 QAE917487:QAE917525 PQI917487:PQI917525 PGM917487:PGM917525 OWQ917487:OWQ917525 OMU917487:OMU917525 OCY917487:OCY917525 NTC917487:NTC917525 NJG917487:NJG917525 MZK917487:MZK917525 MPO917487:MPO917525 MFS917487:MFS917525 LVW917487:LVW917525 LMA917487:LMA917525 LCE917487:LCE917525 KSI917487:KSI917525 KIM917487:KIM917525 JYQ917487:JYQ917525 JOU917487:JOU917525 JEY917487:JEY917525 IVC917487:IVC917525 ILG917487:ILG917525 IBK917487:IBK917525 HRO917487:HRO917525 HHS917487:HHS917525 GXW917487:GXW917525 GOA917487:GOA917525 GEE917487:GEE917525 FUI917487:FUI917525 FKM917487:FKM917525 FAQ917487:FAQ917525 EQU917487:EQU917525 EGY917487:EGY917525 DXC917487:DXC917525 DNG917487:DNG917525 DDK917487:DDK917525 CTO917487:CTO917525 CJS917487:CJS917525 BZW917487:BZW917525 BQA917487:BQA917525 BGE917487:BGE917525 AWI917487:AWI917525 AMM917487:AMM917525 ACQ917487:ACQ917525 SU917487:SU917525 IY917487:IY917525 WVK851951:WVK851989 WLO851951:WLO851989 WBS851951:WBS851989 VRW851951:VRW851989 VIA851951:VIA851989 UYE851951:UYE851989 UOI851951:UOI851989 UEM851951:UEM851989 TUQ851951:TUQ851989 TKU851951:TKU851989 TAY851951:TAY851989 SRC851951:SRC851989 SHG851951:SHG851989 RXK851951:RXK851989 RNO851951:RNO851989 RDS851951:RDS851989 QTW851951:QTW851989 QKA851951:QKA851989 QAE851951:QAE851989 PQI851951:PQI851989 PGM851951:PGM851989 OWQ851951:OWQ851989 OMU851951:OMU851989 OCY851951:OCY851989 NTC851951:NTC851989 NJG851951:NJG851989 MZK851951:MZK851989 MPO851951:MPO851989 MFS851951:MFS851989 LVW851951:LVW851989 LMA851951:LMA851989 LCE851951:LCE851989 KSI851951:KSI851989 KIM851951:KIM851989 JYQ851951:JYQ851989 JOU851951:JOU851989 JEY851951:JEY851989 IVC851951:IVC851989 ILG851951:ILG851989 IBK851951:IBK851989 HRO851951:HRO851989 HHS851951:HHS851989 GXW851951:GXW851989 GOA851951:GOA851989 GEE851951:GEE851989 FUI851951:FUI851989 FKM851951:FKM851989 FAQ851951:FAQ851989 EQU851951:EQU851989 EGY851951:EGY851989 DXC851951:DXC851989 DNG851951:DNG851989 DDK851951:DDK851989 CTO851951:CTO851989 CJS851951:CJS851989 BZW851951:BZW851989 BQA851951:BQA851989 BGE851951:BGE851989 AWI851951:AWI851989 AMM851951:AMM851989 ACQ851951:ACQ851989 SU851951:SU851989 IY851951:IY851989 WVK786415:WVK786453 WLO786415:WLO786453 WBS786415:WBS786453 VRW786415:VRW786453 VIA786415:VIA786453 UYE786415:UYE786453 UOI786415:UOI786453 UEM786415:UEM786453 TUQ786415:TUQ786453 TKU786415:TKU786453 TAY786415:TAY786453 SRC786415:SRC786453 SHG786415:SHG786453 RXK786415:RXK786453 RNO786415:RNO786453 RDS786415:RDS786453 QTW786415:QTW786453 QKA786415:QKA786453 QAE786415:QAE786453 PQI786415:PQI786453 PGM786415:PGM786453 OWQ786415:OWQ786453 OMU786415:OMU786453 OCY786415:OCY786453 NTC786415:NTC786453 NJG786415:NJG786453 MZK786415:MZK786453 MPO786415:MPO786453 MFS786415:MFS786453 LVW786415:LVW786453 LMA786415:LMA786453 LCE786415:LCE786453 KSI786415:KSI786453 KIM786415:KIM786453 JYQ786415:JYQ786453 JOU786415:JOU786453 JEY786415:JEY786453 IVC786415:IVC786453 ILG786415:ILG786453 IBK786415:IBK786453 HRO786415:HRO786453 HHS786415:HHS786453 GXW786415:GXW786453 GOA786415:GOA786453 GEE786415:GEE786453 FUI786415:FUI786453 FKM786415:FKM786453 FAQ786415:FAQ786453 EQU786415:EQU786453 EGY786415:EGY786453 DXC786415:DXC786453 DNG786415:DNG786453 DDK786415:DDK786453 CTO786415:CTO786453 CJS786415:CJS786453 BZW786415:BZW786453 BQA786415:BQA786453 BGE786415:BGE786453 AWI786415:AWI786453 AMM786415:AMM786453 ACQ786415:ACQ786453 SU786415:SU786453 IY786415:IY786453 WVK720879:WVK720917 WLO720879:WLO720917 WBS720879:WBS720917 VRW720879:VRW720917 VIA720879:VIA720917 UYE720879:UYE720917 UOI720879:UOI720917 UEM720879:UEM720917 TUQ720879:TUQ720917 TKU720879:TKU720917 TAY720879:TAY720917 SRC720879:SRC720917 SHG720879:SHG720917 RXK720879:RXK720917 RNO720879:RNO720917 RDS720879:RDS720917 QTW720879:QTW720917 QKA720879:QKA720917 QAE720879:QAE720917 PQI720879:PQI720917 PGM720879:PGM720917 OWQ720879:OWQ720917 OMU720879:OMU720917 OCY720879:OCY720917 NTC720879:NTC720917 NJG720879:NJG720917 MZK720879:MZK720917 MPO720879:MPO720917 MFS720879:MFS720917 LVW720879:LVW720917 LMA720879:LMA720917 LCE720879:LCE720917 KSI720879:KSI720917 KIM720879:KIM720917 JYQ720879:JYQ720917 JOU720879:JOU720917 JEY720879:JEY720917 IVC720879:IVC720917 ILG720879:ILG720917 IBK720879:IBK720917 HRO720879:HRO720917 HHS720879:HHS720917 GXW720879:GXW720917 GOA720879:GOA720917 GEE720879:GEE720917 FUI720879:FUI720917 FKM720879:FKM720917 FAQ720879:FAQ720917 EQU720879:EQU720917 EGY720879:EGY720917 DXC720879:DXC720917 DNG720879:DNG720917 DDK720879:DDK720917 CTO720879:CTO720917 CJS720879:CJS720917 BZW720879:BZW720917 BQA720879:BQA720917 BGE720879:BGE720917 AWI720879:AWI720917 AMM720879:AMM720917 ACQ720879:ACQ720917 SU720879:SU720917 IY720879:IY720917 WVK655343:WVK655381 WLO655343:WLO655381 WBS655343:WBS655381 VRW655343:VRW655381 VIA655343:VIA655381 UYE655343:UYE655381 UOI655343:UOI655381 UEM655343:UEM655381 TUQ655343:TUQ655381 TKU655343:TKU655381 TAY655343:TAY655381 SRC655343:SRC655381 SHG655343:SHG655381 RXK655343:RXK655381 RNO655343:RNO655381 RDS655343:RDS655381 QTW655343:QTW655381 QKA655343:QKA655381 QAE655343:QAE655381 PQI655343:PQI655381 PGM655343:PGM655381 OWQ655343:OWQ655381 OMU655343:OMU655381 OCY655343:OCY655381 NTC655343:NTC655381 NJG655343:NJG655381 MZK655343:MZK655381 MPO655343:MPO655381 MFS655343:MFS655381 LVW655343:LVW655381 LMA655343:LMA655381 LCE655343:LCE655381 KSI655343:KSI655381 KIM655343:KIM655381 JYQ655343:JYQ655381 JOU655343:JOU655381 JEY655343:JEY655381 IVC655343:IVC655381 ILG655343:ILG655381 IBK655343:IBK655381 HRO655343:HRO655381 HHS655343:HHS655381 GXW655343:GXW655381 GOA655343:GOA655381 GEE655343:GEE655381 FUI655343:FUI655381 FKM655343:FKM655381 FAQ655343:FAQ655381 EQU655343:EQU655381 EGY655343:EGY655381 DXC655343:DXC655381 DNG655343:DNG655381 DDK655343:DDK655381 CTO655343:CTO655381 CJS655343:CJS655381 BZW655343:BZW655381 BQA655343:BQA655381 BGE655343:BGE655381 AWI655343:AWI655381 AMM655343:AMM655381 ACQ655343:ACQ655381 SU655343:SU655381 IY655343:IY655381 WVK589807:WVK589845 WLO589807:WLO589845 WBS589807:WBS589845 VRW589807:VRW589845 VIA589807:VIA589845 UYE589807:UYE589845 UOI589807:UOI589845 UEM589807:UEM589845 TUQ589807:TUQ589845 TKU589807:TKU589845 TAY589807:TAY589845 SRC589807:SRC589845 SHG589807:SHG589845 RXK589807:RXK589845 RNO589807:RNO589845 RDS589807:RDS589845 QTW589807:QTW589845 QKA589807:QKA589845 QAE589807:QAE589845 PQI589807:PQI589845 PGM589807:PGM589845 OWQ589807:OWQ589845 OMU589807:OMU589845 OCY589807:OCY589845 NTC589807:NTC589845 NJG589807:NJG589845 MZK589807:MZK589845 MPO589807:MPO589845 MFS589807:MFS589845 LVW589807:LVW589845 LMA589807:LMA589845 LCE589807:LCE589845 KSI589807:KSI589845 KIM589807:KIM589845 JYQ589807:JYQ589845 JOU589807:JOU589845 JEY589807:JEY589845 IVC589807:IVC589845 ILG589807:ILG589845 IBK589807:IBK589845 HRO589807:HRO589845 HHS589807:HHS589845 GXW589807:GXW589845 GOA589807:GOA589845 GEE589807:GEE589845 FUI589807:FUI589845 FKM589807:FKM589845 FAQ589807:FAQ589845 EQU589807:EQU589845 EGY589807:EGY589845 DXC589807:DXC589845 DNG589807:DNG589845 DDK589807:DDK589845 CTO589807:CTO589845 CJS589807:CJS589845 BZW589807:BZW589845 BQA589807:BQA589845 BGE589807:BGE589845 AWI589807:AWI589845 AMM589807:AMM589845 ACQ589807:ACQ589845 SU589807:SU589845 IY589807:IY589845 WVK524271:WVK524309 WLO524271:WLO524309 WBS524271:WBS524309 VRW524271:VRW524309 VIA524271:VIA524309 UYE524271:UYE524309 UOI524271:UOI524309 UEM524271:UEM524309 TUQ524271:TUQ524309 TKU524271:TKU524309 TAY524271:TAY524309 SRC524271:SRC524309 SHG524271:SHG524309 RXK524271:RXK524309 RNO524271:RNO524309 RDS524271:RDS524309 QTW524271:QTW524309 QKA524271:QKA524309 QAE524271:QAE524309 PQI524271:PQI524309 PGM524271:PGM524309 OWQ524271:OWQ524309 OMU524271:OMU524309 OCY524271:OCY524309 NTC524271:NTC524309 NJG524271:NJG524309 MZK524271:MZK524309 MPO524271:MPO524309 MFS524271:MFS524309 LVW524271:LVW524309 LMA524271:LMA524309 LCE524271:LCE524309 KSI524271:KSI524309 KIM524271:KIM524309 JYQ524271:JYQ524309 JOU524271:JOU524309 JEY524271:JEY524309 IVC524271:IVC524309 ILG524271:ILG524309 IBK524271:IBK524309 HRO524271:HRO524309 HHS524271:HHS524309 GXW524271:GXW524309 GOA524271:GOA524309 GEE524271:GEE524309 FUI524271:FUI524309 FKM524271:FKM524309 FAQ524271:FAQ524309 EQU524271:EQU524309 EGY524271:EGY524309 DXC524271:DXC524309 DNG524271:DNG524309 DDK524271:DDK524309 CTO524271:CTO524309 CJS524271:CJS524309 BZW524271:BZW524309 BQA524271:BQA524309 BGE524271:BGE524309 AWI524271:AWI524309 AMM524271:AMM524309 ACQ524271:ACQ524309 SU524271:SU524309 IY524271:IY524309 WVK458735:WVK458773 WLO458735:WLO458773 WBS458735:WBS458773 VRW458735:VRW458773 VIA458735:VIA458773 UYE458735:UYE458773 UOI458735:UOI458773 UEM458735:UEM458773 TUQ458735:TUQ458773 TKU458735:TKU458773 TAY458735:TAY458773 SRC458735:SRC458773 SHG458735:SHG458773 RXK458735:RXK458773 RNO458735:RNO458773 RDS458735:RDS458773 QTW458735:QTW458773 QKA458735:QKA458773 QAE458735:QAE458773 PQI458735:PQI458773 PGM458735:PGM458773 OWQ458735:OWQ458773 OMU458735:OMU458773 OCY458735:OCY458773 NTC458735:NTC458773 NJG458735:NJG458773 MZK458735:MZK458773 MPO458735:MPO458773 MFS458735:MFS458773 LVW458735:LVW458773 LMA458735:LMA458773 LCE458735:LCE458773 KSI458735:KSI458773 KIM458735:KIM458773 JYQ458735:JYQ458773 JOU458735:JOU458773 JEY458735:JEY458773 IVC458735:IVC458773 ILG458735:ILG458773 IBK458735:IBK458773 HRO458735:HRO458773 HHS458735:HHS458773 GXW458735:GXW458773 GOA458735:GOA458773 GEE458735:GEE458773 FUI458735:FUI458773 FKM458735:FKM458773 FAQ458735:FAQ458773 EQU458735:EQU458773 EGY458735:EGY458773 DXC458735:DXC458773 DNG458735:DNG458773 DDK458735:DDK458773 CTO458735:CTO458773 CJS458735:CJS458773 BZW458735:BZW458773 BQA458735:BQA458773 BGE458735:BGE458773 AWI458735:AWI458773 AMM458735:AMM458773 ACQ458735:ACQ458773 SU458735:SU458773 IY458735:IY458773 WVK393199:WVK393237 WLO393199:WLO393237 WBS393199:WBS393237 VRW393199:VRW393237 VIA393199:VIA393237 UYE393199:UYE393237 UOI393199:UOI393237 UEM393199:UEM393237 TUQ393199:TUQ393237 TKU393199:TKU393237 TAY393199:TAY393237 SRC393199:SRC393237 SHG393199:SHG393237 RXK393199:RXK393237 RNO393199:RNO393237 RDS393199:RDS393237 QTW393199:QTW393237 QKA393199:QKA393237 QAE393199:QAE393237 PQI393199:PQI393237 PGM393199:PGM393237 OWQ393199:OWQ393237 OMU393199:OMU393237 OCY393199:OCY393237 NTC393199:NTC393237 NJG393199:NJG393237 MZK393199:MZK393237 MPO393199:MPO393237 MFS393199:MFS393237 LVW393199:LVW393237 LMA393199:LMA393237 LCE393199:LCE393237 KSI393199:KSI393237 KIM393199:KIM393237 JYQ393199:JYQ393237 JOU393199:JOU393237 JEY393199:JEY393237 IVC393199:IVC393237 ILG393199:ILG393237 IBK393199:IBK393237 HRO393199:HRO393237 HHS393199:HHS393237 GXW393199:GXW393237 GOA393199:GOA393237 GEE393199:GEE393237 FUI393199:FUI393237 FKM393199:FKM393237 FAQ393199:FAQ393237 EQU393199:EQU393237 EGY393199:EGY393237 DXC393199:DXC393237 DNG393199:DNG393237 DDK393199:DDK393237 CTO393199:CTO393237 CJS393199:CJS393237 BZW393199:BZW393237 BQA393199:BQA393237 BGE393199:BGE393237 AWI393199:AWI393237 AMM393199:AMM393237 ACQ393199:ACQ393237 SU393199:SU393237 IY393199:IY393237 WVK327663:WVK327701 WLO327663:WLO327701 WBS327663:WBS327701 VRW327663:VRW327701 VIA327663:VIA327701 UYE327663:UYE327701 UOI327663:UOI327701 UEM327663:UEM327701 TUQ327663:TUQ327701 TKU327663:TKU327701 TAY327663:TAY327701 SRC327663:SRC327701 SHG327663:SHG327701 RXK327663:RXK327701 RNO327663:RNO327701 RDS327663:RDS327701 QTW327663:QTW327701 QKA327663:QKA327701 QAE327663:QAE327701 PQI327663:PQI327701 PGM327663:PGM327701 OWQ327663:OWQ327701 OMU327663:OMU327701 OCY327663:OCY327701 NTC327663:NTC327701 NJG327663:NJG327701 MZK327663:MZK327701 MPO327663:MPO327701 MFS327663:MFS327701 LVW327663:LVW327701 LMA327663:LMA327701 LCE327663:LCE327701 KSI327663:KSI327701 KIM327663:KIM327701 JYQ327663:JYQ327701 JOU327663:JOU327701 JEY327663:JEY327701 IVC327663:IVC327701 ILG327663:ILG327701 IBK327663:IBK327701 HRO327663:HRO327701 HHS327663:HHS327701 GXW327663:GXW327701 GOA327663:GOA327701 GEE327663:GEE327701 FUI327663:FUI327701 FKM327663:FKM327701 FAQ327663:FAQ327701 EQU327663:EQU327701 EGY327663:EGY327701 DXC327663:DXC327701 DNG327663:DNG327701 DDK327663:DDK327701 CTO327663:CTO327701 CJS327663:CJS327701 BZW327663:BZW327701 BQA327663:BQA327701 BGE327663:BGE327701 AWI327663:AWI327701 AMM327663:AMM327701 ACQ327663:ACQ327701 SU327663:SU327701 IY327663:IY327701 WVK262127:WVK262165 WLO262127:WLO262165 WBS262127:WBS262165 VRW262127:VRW262165 VIA262127:VIA262165 UYE262127:UYE262165 UOI262127:UOI262165 UEM262127:UEM262165 TUQ262127:TUQ262165 TKU262127:TKU262165 TAY262127:TAY262165 SRC262127:SRC262165 SHG262127:SHG262165 RXK262127:RXK262165 RNO262127:RNO262165 RDS262127:RDS262165 QTW262127:QTW262165 QKA262127:QKA262165 QAE262127:QAE262165 PQI262127:PQI262165 PGM262127:PGM262165 OWQ262127:OWQ262165 OMU262127:OMU262165 OCY262127:OCY262165 NTC262127:NTC262165 NJG262127:NJG262165 MZK262127:MZK262165 MPO262127:MPO262165 MFS262127:MFS262165 LVW262127:LVW262165 LMA262127:LMA262165 LCE262127:LCE262165 KSI262127:KSI262165 KIM262127:KIM262165 JYQ262127:JYQ262165 JOU262127:JOU262165 JEY262127:JEY262165 IVC262127:IVC262165 ILG262127:ILG262165 IBK262127:IBK262165 HRO262127:HRO262165 HHS262127:HHS262165 GXW262127:GXW262165 GOA262127:GOA262165 GEE262127:GEE262165 FUI262127:FUI262165 FKM262127:FKM262165 FAQ262127:FAQ262165 EQU262127:EQU262165 EGY262127:EGY262165 DXC262127:DXC262165 DNG262127:DNG262165 DDK262127:DDK262165 CTO262127:CTO262165 CJS262127:CJS262165 BZW262127:BZW262165 BQA262127:BQA262165 BGE262127:BGE262165 AWI262127:AWI262165 AMM262127:AMM262165 ACQ262127:ACQ262165 SU262127:SU262165 IY262127:IY262165 WVK196591:WVK196629 WLO196591:WLO196629 WBS196591:WBS196629 VRW196591:VRW196629 VIA196591:VIA196629 UYE196591:UYE196629 UOI196591:UOI196629 UEM196591:UEM196629 TUQ196591:TUQ196629 TKU196591:TKU196629 TAY196591:TAY196629 SRC196591:SRC196629 SHG196591:SHG196629 RXK196591:RXK196629 RNO196591:RNO196629 RDS196591:RDS196629 QTW196591:QTW196629 QKA196591:QKA196629 QAE196591:QAE196629 PQI196591:PQI196629 PGM196591:PGM196629 OWQ196591:OWQ196629 OMU196591:OMU196629 OCY196591:OCY196629 NTC196591:NTC196629 NJG196591:NJG196629 MZK196591:MZK196629 MPO196591:MPO196629 MFS196591:MFS196629 LVW196591:LVW196629 LMA196591:LMA196629 LCE196591:LCE196629 KSI196591:KSI196629 KIM196591:KIM196629 JYQ196591:JYQ196629 JOU196591:JOU196629 JEY196591:JEY196629 IVC196591:IVC196629 ILG196591:ILG196629 IBK196591:IBK196629 HRO196591:HRO196629 HHS196591:HHS196629 GXW196591:GXW196629 GOA196591:GOA196629 GEE196591:GEE196629 FUI196591:FUI196629 FKM196591:FKM196629 FAQ196591:FAQ196629 EQU196591:EQU196629 EGY196591:EGY196629 DXC196591:DXC196629 DNG196591:DNG196629 DDK196591:DDK196629 CTO196591:CTO196629 CJS196591:CJS196629 BZW196591:BZW196629 BQA196591:BQA196629 BGE196591:BGE196629 AWI196591:AWI196629 AMM196591:AMM196629 ACQ196591:ACQ196629 SU196591:SU196629 IY196591:IY196629 WVK131055:WVK131093 WLO131055:WLO131093 WBS131055:WBS131093 VRW131055:VRW131093 VIA131055:VIA131093 UYE131055:UYE131093 UOI131055:UOI131093 UEM131055:UEM131093 TUQ131055:TUQ131093 TKU131055:TKU131093 TAY131055:TAY131093 SRC131055:SRC131093 SHG131055:SHG131093 RXK131055:RXK131093 RNO131055:RNO131093 RDS131055:RDS131093 QTW131055:QTW131093 QKA131055:QKA131093 QAE131055:QAE131093 PQI131055:PQI131093 PGM131055:PGM131093 OWQ131055:OWQ131093 OMU131055:OMU131093 OCY131055:OCY131093 NTC131055:NTC131093 NJG131055:NJG131093 MZK131055:MZK131093 MPO131055:MPO131093 MFS131055:MFS131093 LVW131055:LVW131093 LMA131055:LMA131093 LCE131055:LCE131093 KSI131055:KSI131093 KIM131055:KIM131093 JYQ131055:JYQ131093 JOU131055:JOU131093 JEY131055:JEY131093 IVC131055:IVC131093 ILG131055:ILG131093 IBK131055:IBK131093 HRO131055:HRO131093 HHS131055:HHS131093 GXW131055:GXW131093 GOA131055:GOA131093 GEE131055:GEE131093 FUI131055:FUI131093 FKM131055:FKM131093 FAQ131055:FAQ131093 EQU131055:EQU131093 EGY131055:EGY131093 DXC131055:DXC131093 DNG131055:DNG131093 DDK131055:DDK131093 CTO131055:CTO131093 CJS131055:CJS131093 BZW131055:BZW131093 BQA131055:BQA131093 BGE131055:BGE131093 AWI131055:AWI131093 AMM131055:AMM131093 ACQ131055:ACQ131093 SU131055:SU131093 IY131055:IY131093 WVK65519:WVK65557 WLO65519:WLO65557 WBS65519:WBS65557 VRW65519:VRW65557 VIA65519:VIA65557 UYE65519:UYE65557 UOI65519:UOI65557 UEM65519:UEM65557 TUQ65519:TUQ65557 TKU65519:TKU65557 TAY65519:TAY65557 SRC65519:SRC65557 SHG65519:SHG65557 RXK65519:RXK65557 RNO65519:RNO65557 RDS65519:RDS65557 QTW65519:QTW65557 QKA65519:QKA65557 QAE65519:QAE65557 PQI65519:PQI65557 PGM65519:PGM65557 OWQ65519:OWQ65557 OMU65519:OMU65557 OCY65519:OCY65557 NTC65519:NTC65557 NJG65519:NJG65557 MZK65519:MZK65557 MPO65519:MPO65557 MFS65519:MFS65557 LVW65519:LVW65557 LMA65519:LMA65557 LCE65519:LCE65557 KSI65519:KSI65557 KIM65519:KIM65557 JYQ65519:JYQ65557 JOU65519:JOU65557 JEY65519:JEY65557 IVC65519:IVC65557 ILG65519:ILG65557 IBK65519:IBK65557 HRO65519:HRO65557 HHS65519:HHS65557 GXW65519:GXW65557 GOA65519:GOA65557 GEE65519:GEE65557 FUI65519:FUI65557 FKM65519:FKM65557 FAQ65519:FAQ65557 EQU65519:EQU65557 EGY65519:EGY65557 DXC65519:DXC65557 DNG65519:DNG65557 DDK65519:DDK65557 CTO65519:CTO65557 CJS65519:CJS65557 BZW65519:BZW65557 BQA65519:BQA65557 BGE65519:BGE65557 AWI65519:AWI65557 AMM65519:AMM65557 ACQ65519:ACQ65557 H5:H21 IY5:IY21 SU5:SU21 ACQ5:ACQ21 AMM5:AMM21 AWI5:AWI21 BGE5:BGE21 BQA5:BQA21 BZW5:BZW21 CJS5:CJS21 CTO5:CTO21 DDK5:DDK21 DNG5:DNG21 DXC5:DXC21 EGY5:EGY21 EQU5:EQU21 FAQ5:FAQ21 FKM5:FKM21 FUI5:FUI21 GEE5:GEE21 GOA5:GOA21 GXW5:GXW21 HHS5:HHS21 HRO5:HRO21 IBK5:IBK21 ILG5:ILG21 IVC5:IVC21 JEY5:JEY21 JOU5:JOU21 JYQ5:JYQ21 KIM5:KIM21 KSI5:KSI21 LCE5:LCE21 LMA5:LMA21 LVW5:LVW21 MFS5:MFS21 MPO5:MPO21 MZK5:MZK21 NJG5:NJG21 NTC5:NTC21 OCY5:OCY21 OMU5:OMU21 OWQ5:OWQ21 PGM5:PGM21 PQI5:PQI21 QAE5:QAE21 QKA5:QKA21 QTW5:QTW21 RDS5:RDS21 RNO5:RNO21 RXK5:RXK21 SHG5:SHG21 SRC5:SRC21 TAY5:TAY21 TKU5:TKU21 TUQ5:TUQ21 UEM5:UEM21 UOI5:UOI21 UYE5:UYE21 VIA5:VIA21 VRW5:VRW21 WBS5:WBS21 WLO5:WLO21 WVK5:WVK21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65521:IY65559 H65521:H65559 H131057:H131095 H196593:H196631 H262129:H262167 H327665:H327703 H393201:H393239 H458737:H458775 H524273:H524311 H589809:H589847 H655345:H655383 H720881:H720919 H786417:H786455 H851953:H851991 H917489:H917527 H983025:H983063 SU65521:SU65559 WVK983025:WVK983063 WLO983025:WLO983063 WBS983025:WBS983063 VRW983025:VRW983063 VIA983025:VIA983063 UYE983025:UYE983063 UOI983025:UOI983063 UEM983025:UEM983063 TUQ983025:TUQ983063 TKU983025:TKU983063 TAY983025:TAY983063 SRC983025:SRC983063 SHG983025:SHG983063 RXK983025:RXK983063 RNO983025:RNO983063 RDS983025:RDS983063 QTW983025:QTW983063 QKA983025:QKA983063 QAE983025:QAE983063 PQI983025:PQI983063 PGM983025:PGM983063 OWQ983025:OWQ983063 OMU983025:OMU983063 OCY983025:OCY983063 NTC983025:NTC983063 NJG983025:NJG983063 MZK983025:MZK983063 MPO983025:MPO983063 MFS983025:MFS983063 LVW983025:LVW983063 LMA983025:LMA983063 LCE983025:LCE983063 KSI983025:KSI983063 KIM983025:KIM983063 JYQ983025:JYQ983063 JOU983025:JOU983063 JEY983025:JEY983063 IVC983025:IVC983063 ILG983025:ILG983063 IBK983025:IBK983063 HRO983025:HRO983063 HHS983025:HHS983063 GXW983025:GXW983063 GOA983025:GOA983063 GEE983025:GEE983063 FUI983025:FUI983063 FKM983025:FKM983063 FAQ983025:FAQ983063 EQU983025:EQU983063 EGY983025:EGY983063 DXC983025:DXC983063 DNG983025:DNG983063 DDK983025:DDK983063 CTO983025:CTO983063 CJS983025:CJS983063 BZW983025:BZW983063 BQA983025:BQA983063 BGE983025:BGE983063 AWI983025:AWI983063 AMM983025:AMM983063 ACQ983025:ACQ983063 SU983025:SU983063 IY983025:IY983063 WVK917489:WVK917527 WLO917489:WLO917527 WBS917489:WBS917527 VRW917489:VRW917527 VIA917489:VIA917527 UYE917489:UYE917527 UOI917489:UOI917527 UEM917489:UEM917527 TUQ917489:TUQ917527 TKU917489:TKU917527 TAY917489:TAY917527 SRC917489:SRC917527 SHG917489:SHG917527 RXK917489:RXK917527 RNO917489:RNO917527 RDS917489:RDS917527 QTW917489:QTW917527 QKA917489:QKA917527 QAE917489:QAE917527 PQI917489:PQI917527 PGM917489:PGM917527 OWQ917489:OWQ917527 OMU917489:OMU917527 OCY917489:OCY917527 NTC917489:NTC917527 NJG917489:NJG917527 MZK917489:MZK917527 MPO917489:MPO917527 MFS917489:MFS917527 LVW917489:LVW917527 LMA917489:LMA917527 LCE917489:LCE917527 KSI917489:KSI917527 KIM917489:KIM917527 JYQ917489:JYQ917527 JOU917489:JOU917527 JEY917489:JEY917527 IVC917489:IVC917527 ILG917489:ILG917527 IBK917489:IBK917527 HRO917489:HRO917527 HHS917489:HHS917527 GXW917489:GXW917527 GOA917489:GOA917527 GEE917489:GEE917527 FUI917489:FUI917527 FKM917489:FKM917527 FAQ917489:FAQ917527 EQU917489:EQU917527 EGY917489:EGY917527 DXC917489:DXC917527 DNG917489:DNG917527 DDK917489:DDK917527 CTO917489:CTO917527 CJS917489:CJS917527 BZW917489:BZW917527 BQA917489:BQA917527 BGE917489:BGE917527 AWI917489:AWI917527 AMM917489:AMM917527 ACQ917489:ACQ917527 SU917489:SU917527 IY917489:IY917527 WVK851953:WVK851991 WLO851953:WLO851991 WBS851953:WBS851991 VRW851953:VRW851991 VIA851953:VIA851991 UYE851953:UYE851991 UOI851953:UOI851991 UEM851953:UEM851991 TUQ851953:TUQ851991 TKU851953:TKU851991 TAY851953:TAY851991 SRC851953:SRC851991 SHG851953:SHG851991 RXK851953:RXK851991 RNO851953:RNO851991 RDS851953:RDS851991 QTW851953:QTW851991 QKA851953:QKA851991 QAE851953:QAE851991 PQI851953:PQI851991 PGM851953:PGM851991 OWQ851953:OWQ851991 OMU851953:OMU851991 OCY851953:OCY851991 NTC851953:NTC851991 NJG851953:NJG851991 MZK851953:MZK851991 MPO851953:MPO851991 MFS851953:MFS851991 LVW851953:LVW851991 LMA851953:LMA851991 LCE851953:LCE851991 KSI851953:KSI851991 KIM851953:KIM851991 JYQ851953:JYQ851991 JOU851953:JOU851991 JEY851953:JEY851991 IVC851953:IVC851991 ILG851953:ILG851991 IBK851953:IBK851991 HRO851953:HRO851991 HHS851953:HHS851991 GXW851953:GXW851991 GOA851953:GOA851991 GEE851953:GEE851991 FUI851953:FUI851991 FKM851953:FKM851991 FAQ851953:FAQ851991 EQU851953:EQU851991 EGY851953:EGY851991 DXC851953:DXC851991 DNG851953:DNG851991 DDK851953:DDK851991 CTO851953:CTO851991 CJS851953:CJS851991 BZW851953:BZW851991 BQA851953:BQA851991 BGE851953:BGE851991 AWI851953:AWI851991 AMM851953:AMM851991 ACQ851953:ACQ851991 SU851953:SU851991 IY851953:IY851991 WVK786417:WVK786455 WLO786417:WLO786455 WBS786417:WBS786455 VRW786417:VRW786455 VIA786417:VIA786455 UYE786417:UYE786455 UOI786417:UOI786455 UEM786417:UEM786455 TUQ786417:TUQ786455 TKU786417:TKU786455 TAY786417:TAY786455 SRC786417:SRC786455 SHG786417:SHG786455 RXK786417:RXK786455 RNO786417:RNO786455 RDS786417:RDS786455 QTW786417:QTW786455 QKA786417:QKA786455 QAE786417:QAE786455 PQI786417:PQI786455 PGM786417:PGM786455 OWQ786417:OWQ786455 OMU786417:OMU786455 OCY786417:OCY786455 NTC786417:NTC786455 NJG786417:NJG786455 MZK786417:MZK786455 MPO786417:MPO786455 MFS786417:MFS786455 LVW786417:LVW786455 LMA786417:LMA786455 LCE786417:LCE786455 KSI786417:KSI786455 KIM786417:KIM786455 JYQ786417:JYQ786455 JOU786417:JOU786455 JEY786417:JEY786455 IVC786417:IVC786455 ILG786417:ILG786455 IBK786417:IBK786455 HRO786417:HRO786455 HHS786417:HHS786455 GXW786417:GXW786455 GOA786417:GOA786455 GEE786417:GEE786455 FUI786417:FUI786455 FKM786417:FKM786455 FAQ786417:FAQ786455 EQU786417:EQU786455 EGY786417:EGY786455 DXC786417:DXC786455 DNG786417:DNG786455 DDK786417:DDK786455 CTO786417:CTO786455 CJS786417:CJS786455 BZW786417:BZW786455 BQA786417:BQA786455 BGE786417:BGE786455 AWI786417:AWI786455 AMM786417:AMM786455 ACQ786417:ACQ786455 SU786417:SU786455 IY786417:IY786455 WVK720881:WVK720919 WLO720881:WLO720919 WBS720881:WBS720919 VRW720881:VRW720919 VIA720881:VIA720919 UYE720881:UYE720919 UOI720881:UOI720919 UEM720881:UEM720919 TUQ720881:TUQ720919 TKU720881:TKU720919 TAY720881:TAY720919 SRC720881:SRC720919 SHG720881:SHG720919 RXK720881:RXK720919 RNO720881:RNO720919 RDS720881:RDS720919 QTW720881:QTW720919 QKA720881:QKA720919 QAE720881:QAE720919 PQI720881:PQI720919 PGM720881:PGM720919 OWQ720881:OWQ720919 OMU720881:OMU720919 OCY720881:OCY720919 NTC720881:NTC720919 NJG720881:NJG720919 MZK720881:MZK720919 MPO720881:MPO720919 MFS720881:MFS720919 LVW720881:LVW720919 LMA720881:LMA720919 LCE720881:LCE720919 KSI720881:KSI720919 KIM720881:KIM720919 JYQ720881:JYQ720919 JOU720881:JOU720919 JEY720881:JEY720919 IVC720881:IVC720919 ILG720881:ILG720919 IBK720881:IBK720919 HRO720881:HRO720919 HHS720881:HHS720919 GXW720881:GXW720919 GOA720881:GOA720919 GEE720881:GEE720919 FUI720881:FUI720919 FKM720881:FKM720919 FAQ720881:FAQ720919 EQU720881:EQU720919 EGY720881:EGY720919 DXC720881:DXC720919 DNG720881:DNG720919 DDK720881:DDK720919 CTO720881:CTO720919 CJS720881:CJS720919 BZW720881:BZW720919 BQA720881:BQA720919 BGE720881:BGE720919 AWI720881:AWI720919 AMM720881:AMM720919 ACQ720881:ACQ720919 SU720881:SU720919 IY720881:IY720919 WVK655345:WVK655383 WLO655345:WLO655383 WBS655345:WBS655383 VRW655345:VRW655383 VIA655345:VIA655383 UYE655345:UYE655383 UOI655345:UOI655383 UEM655345:UEM655383 TUQ655345:TUQ655383 TKU655345:TKU655383 TAY655345:TAY655383 SRC655345:SRC655383 SHG655345:SHG655383 RXK655345:RXK655383 RNO655345:RNO655383 RDS655345:RDS655383 QTW655345:QTW655383 QKA655345:QKA655383 QAE655345:QAE655383 PQI655345:PQI655383 PGM655345:PGM655383 OWQ655345:OWQ655383 OMU655345:OMU655383 OCY655345:OCY655383 NTC655345:NTC655383 NJG655345:NJG655383 MZK655345:MZK655383 MPO655345:MPO655383 MFS655345:MFS655383 LVW655345:LVW655383 LMA655345:LMA655383 LCE655345:LCE655383 KSI655345:KSI655383 KIM655345:KIM655383 JYQ655345:JYQ655383 JOU655345:JOU655383 JEY655345:JEY655383 IVC655345:IVC655383 ILG655345:ILG655383 IBK655345:IBK655383 HRO655345:HRO655383 HHS655345:HHS655383 GXW655345:GXW655383 GOA655345:GOA655383 GEE655345:GEE655383 FUI655345:FUI655383 FKM655345:FKM655383 FAQ655345:FAQ655383 EQU655345:EQU655383 EGY655345:EGY655383 DXC655345:DXC655383 DNG655345:DNG655383 DDK655345:DDK655383 CTO655345:CTO655383 CJS655345:CJS655383 BZW655345:BZW655383 BQA655345:BQA655383 BGE655345:BGE655383 AWI655345:AWI655383 AMM655345:AMM655383 ACQ655345:ACQ655383 SU655345:SU655383 IY655345:IY655383 WVK589809:WVK589847 WLO589809:WLO589847 WBS589809:WBS589847 VRW589809:VRW589847 VIA589809:VIA589847 UYE589809:UYE589847 UOI589809:UOI589847 UEM589809:UEM589847 TUQ589809:TUQ589847 TKU589809:TKU589847 TAY589809:TAY589847 SRC589809:SRC589847 SHG589809:SHG589847 RXK589809:RXK589847 RNO589809:RNO589847 RDS589809:RDS589847 QTW589809:QTW589847 QKA589809:QKA589847 QAE589809:QAE589847 PQI589809:PQI589847 PGM589809:PGM589847 OWQ589809:OWQ589847 OMU589809:OMU589847 OCY589809:OCY589847 NTC589809:NTC589847 NJG589809:NJG589847 MZK589809:MZK589847 MPO589809:MPO589847 MFS589809:MFS589847 LVW589809:LVW589847 LMA589809:LMA589847 LCE589809:LCE589847 KSI589809:KSI589847 KIM589809:KIM589847 JYQ589809:JYQ589847 JOU589809:JOU589847 JEY589809:JEY589847 IVC589809:IVC589847 ILG589809:ILG589847 IBK589809:IBK589847 HRO589809:HRO589847 HHS589809:HHS589847 GXW589809:GXW589847 GOA589809:GOA589847 GEE589809:GEE589847 FUI589809:FUI589847 FKM589809:FKM589847 FAQ589809:FAQ589847 EQU589809:EQU589847 EGY589809:EGY589847 DXC589809:DXC589847 DNG589809:DNG589847 DDK589809:DDK589847 CTO589809:CTO589847 CJS589809:CJS589847 BZW589809:BZW589847 BQA589809:BQA589847 BGE589809:BGE589847 AWI589809:AWI589847 AMM589809:AMM589847 ACQ589809:ACQ589847 SU589809:SU589847 IY589809:IY589847 WVK524273:WVK524311 WLO524273:WLO524311 WBS524273:WBS524311 VRW524273:VRW524311 VIA524273:VIA524311 UYE524273:UYE524311 UOI524273:UOI524311 UEM524273:UEM524311 TUQ524273:TUQ524311 TKU524273:TKU524311 TAY524273:TAY524311 SRC524273:SRC524311 SHG524273:SHG524311 RXK524273:RXK524311 RNO524273:RNO524311 RDS524273:RDS524311 QTW524273:QTW524311 QKA524273:QKA524311 QAE524273:QAE524311 PQI524273:PQI524311 PGM524273:PGM524311 OWQ524273:OWQ524311 OMU524273:OMU524311 OCY524273:OCY524311 NTC524273:NTC524311 NJG524273:NJG524311 MZK524273:MZK524311 MPO524273:MPO524311 MFS524273:MFS524311 LVW524273:LVW524311 LMA524273:LMA524311 LCE524273:LCE524311 KSI524273:KSI524311 KIM524273:KIM524311 JYQ524273:JYQ524311 JOU524273:JOU524311 JEY524273:JEY524311 IVC524273:IVC524311 ILG524273:ILG524311 IBK524273:IBK524311 HRO524273:HRO524311 HHS524273:HHS524311 GXW524273:GXW524311 GOA524273:GOA524311 GEE524273:GEE524311 FUI524273:FUI524311 FKM524273:FKM524311 FAQ524273:FAQ524311 EQU524273:EQU524311 EGY524273:EGY524311 DXC524273:DXC524311 DNG524273:DNG524311 DDK524273:DDK524311 CTO524273:CTO524311 CJS524273:CJS524311 BZW524273:BZW524311 BQA524273:BQA524311 BGE524273:BGE524311 AWI524273:AWI524311 AMM524273:AMM524311 ACQ524273:ACQ524311 SU524273:SU524311 IY524273:IY524311 WVK458737:WVK458775 WLO458737:WLO458775 WBS458737:WBS458775 VRW458737:VRW458775 VIA458737:VIA458775 UYE458737:UYE458775 UOI458737:UOI458775 UEM458737:UEM458775 TUQ458737:TUQ458775 TKU458737:TKU458775 TAY458737:TAY458775 SRC458737:SRC458775 SHG458737:SHG458775 RXK458737:RXK458775 RNO458737:RNO458775 RDS458737:RDS458775 QTW458737:QTW458775 QKA458737:QKA458775 QAE458737:QAE458775 PQI458737:PQI458775 PGM458737:PGM458775 OWQ458737:OWQ458775 OMU458737:OMU458775 OCY458737:OCY458775 NTC458737:NTC458775 NJG458737:NJG458775 MZK458737:MZK458775 MPO458737:MPO458775 MFS458737:MFS458775 LVW458737:LVW458775 LMA458737:LMA458775 LCE458737:LCE458775 KSI458737:KSI458775 KIM458737:KIM458775 JYQ458737:JYQ458775 JOU458737:JOU458775 JEY458737:JEY458775 IVC458737:IVC458775 ILG458737:ILG458775 IBK458737:IBK458775 HRO458737:HRO458775 HHS458737:HHS458775 GXW458737:GXW458775 GOA458737:GOA458775 GEE458737:GEE458775 FUI458737:FUI458775 FKM458737:FKM458775 FAQ458737:FAQ458775 EQU458737:EQU458775 EGY458737:EGY458775 DXC458737:DXC458775 DNG458737:DNG458775 DDK458737:DDK458775 CTO458737:CTO458775 CJS458737:CJS458775 BZW458737:BZW458775 BQA458737:BQA458775 BGE458737:BGE458775 AWI458737:AWI458775 AMM458737:AMM458775 ACQ458737:ACQ458775 SU458737:SU458775 IY458737:IY458775 WVK393201:WVK393239 WLO393201:WLO393239 WBS393201:WBS393239 VRW393201:VRW393239 VIA393201:VIA393239 UYE393201:UYE393239 UOI393201:UOI393239 UEM393201:UEM393239 TUQ393201:TUQ393239 TKU393201:TKU393239 TAY393201:TAY393239 SRC393201:SRC393239 SHG393201:SHG393239 RXK393201:RXK393239 RNO393201:RNO393239 RDS393201:RDS393239 QTW393201:QTW393239 QKA393201:QKA393239 QAE393201:QAE393239 PQI393201:PQI393239 PGM393201:PGM393239 OWQ393201:OWQ393239 OMU393201:OMU393239 OCY393201:OCY393239 NTC393201:NTC393239 NJG393201:NJG393239 MZK393201:MZK393239 MPO393201:MPO393239 MFS393201:MFS393239 LVW393201:LVW393239 LMA393201:LMA393239 LCE393201:LCE393239 KSI393201:KSI393239 KIM393201:KIM393239 JYQ393201:JYQ393239 JOU393201:JOU393239 JEY393201:JEY393239 IVC393201:IVC393239 ILG393201:ILG393239 IBK393201:IBK393239 HRO393201:HRO393239 HHS393201:HHS393239 GXW393201:GXW393239 GOA393201:GOA393239 GEE393201:GEE393239 FUI393201:FUI393239 FKM393201:FKM393239 FAQ393201:FAQ393239 EQU393201:EQU393239 EGY393201:EGY393239 DXC393201:DXC393239 DNG393201:DNG393239 DDK393201:DDK393239 CTO393201:CTO393239 CJS393201:CJS393239 BZW393201:BZW393239 BQA393201:BQA393239 BGE393201:BGE393239 AWI393201:AWI393239 AMM393201:AMM393239 ACQ393201:ACQ393239 SU393201:SU393239 IY393201:IY393239 WVK327665:WVK327703 WLO327665:WLO327703 WBS327665:WBS327703 VRW327665:VRW327703 VIA327665:VIA327703 UYE327665:UYE327703 UOI327665:UOI327703 UEM327665:UEM327703 TUQ327665:TUQ327703 TKU327665:TKU327703 TAY327665:TAY327703 SRC327665:SRC327703 SHG327665:SHG327703 RXK327665:RXK327703 RNO327665:RNO327703 RDS327665:RDS327703 QTW327665:QTW327703 QKA327665:QKA327703 QAE327665:QAE327703 PQI327665:PQI327703 PGM327665:PGM327703 OWQ327665:OWQ327703 OMU327665:OMU327703 OCY327665:OCY327703 NTC327665:NTC327703 NJG327665:NJG327703 MZK327665:MZK327703 MPO327665:MPO327703 MFS327665:MFS327703 LVW327665:LVW327703 LMA327665:LMA327703 LCE327665:LCE327703 KSI327665:KSI327703 KIM327665:KIM327703 JYQ327665:JYQ327703 JOU327665:JOU327703 JEY327665:JEY327703 IVC327665:IVC327703 ILG327665:ILG327703 IBK327665:IBK327703 HRO327665:HRO327703 HHS327665:HHS327703 GXW327665:GXW327703 GOA327665:GOA327703 GEE327665:GEE327703 FUI327665:FUI327703 FKM327665:FKM327703 FAQ327665:FAQ327703 EQU327665:EQU327703 EGY327665:EGY327703 DXC327665:DXC327703 DNG327665:DNG327703 DDK327665:DDK327703 CTO327665:CTO327703 CJS327665:CJS327703 BZW327665:BZW327703 BQA327665:BQA327703 BGE327665:BGE327703 AWI327665:AWI327703 AMM327665:AMM327703 ACQ327665:ACQ327703 SU327665:SU327703 IY327665:IY327703 WVK262129:WVK262167 WLO262129:WLO262167 WBS262129:WBS262167 VRW262129:VRW262167 VIA262129:VIA262167 UYE262129:UYE262167 UOI262129:UOI262167 UEM262129:UEM262167 TUQ262129:TUQ262167 TKU262129:TKU262167 TAY262129:TAY262167 SRC262129:SRC262167 SHG262129:SHG262167 RXK262129:RXK262167 RNO262129:RNO262167 RDS262129:RDS262167 QTW262129:QTW262167 QKA262129:QKA262167 QAE262129:QAE262167 PQI262129:PQI262167 PGM262129:PGM262167 OWQ262129:OWQ262167 OMU262129:OMU262167 OCY262129:OCY262167 NTC262129:NTC262167 NJG262129:NJG262167 MZK262129:MZK262167 MPO262129:MPO262167 MFS262129:MFS262167 LVW262129:LVW262167 LMA262129:LMA262167 LCE262129:LCE262167 KSI262129:KSI262167 KIM262129:KIM262167 JYQ262129:JYQ262167 JOU262129:JOU262167 JEY262129:JEY262167 IVC262129:IVC262167 ILG262129:ILG262167 IBK262129:IBK262167 HRO262129:HRO262167 HHS262129:HHS262167 GXW262129:GXW262167 GOA262129:GOA262167 GEE262129:GEE262167 FUI262129:FUI262167 FKM262129:FKM262167 FAQ262129:FAQ262167 EQU262129:EQU262167 EGY262129:EGY262167 DXC262129:DXC262167 DNG262129:DNG262167 DDK262129:DDK262167 CTO262129:CTO262167 CJS262129:CJS262167 BZW262129:BZW262167 BQA262129:BQA262167 BGE262129:BGE262167 AWI262129:AWI262167 AMM262129:AMM262167 ACQ262129:ACQ262167 SU262129:SU262167 IY262129:IY262167 WVK196593:WVK196631 WLO196593:WLO196631 WBS196593:WBS196631 VRW196593:VRW196631 VIA196593:VIA196631 UYE196593:UYE196631 UOI196593:UOI196631 UEM196593:UEM196631 TUQ196593:TUQ196631 TKU196593:TKU196631 TAY196593:TAY196631 SRC196593:SRC196631 SHG196593:SHG196631 RXK196593:RXK196631 RNO196593:RNO196631 RDS196593:RDS196631 QTW196593:QTW196631 QKA196593:QKA196631 QAE196593:QAE196631 PQI196593:PQI196631 PGM196593:PGM196631 OWQ196593:OWQ196631 OMU196593:OMU196631 OCY196593:OCY196631 NTC196593:NTC196631 NJG196593:NJG196631 MZK196593:MZK196631 MPO196593:MPO196631 MFS196593:MFS196631 LVW196593:LVW196631 LMA196593:LMA196631 LCE196593:LCE196631 KSI196593:KSI196631 KIM196593:KIM196631 JYQ196593:JYQ196631 JOU196593:JOU196631 JEY196593:JEY196631 IVC196593:IVC196631 ILG196593:ILG196631 IBK196593:IBK196631 HRO196593:HRO196631 HHS196593:HHS196631 GXW196593:GXW196631 GOA196593:GOA196631 GEE196593:GEE196631 FUI196593:FUI196631 FKM196593:FKM196631 FAQ196593:FAQ196631 EQU196593:EQU196631 EGY196593:EGY196631 DXC196593:DXC196631 DNG196593:DNG196631 DDK196593:DDK196631 CTO196593:CTO196631 CJS196593:CJS196631 BZW196593:BZW196631 BQA196593:BQA196631 BGE196593:BGE196631 AWI196593:AWI196631 AMM196593:AMM196631 ACQ196593:ACQ196631 SU196593:SU196631 IY196593:IY196631 WVK131057:WVK131095 WLO131057:WLO131095 WBS131057:WBS131095 VRW131057:VRW131095 VIA131057:VIA131095 UYE131057:UYE131095 UOI131057:UOI131095 UEM131057:UEM131095 TUQ131057:TUQ131095 TKU131057:TKU131095 TAY131057:TAY131095 SRC131057:SRC131095 SHG131057:SHG131095 RXK131057:RXK131095 RNO131057:RNO131095 RDS131057:RDS131095 QTW131057:QTW131095 QKA131057:QKA131095 QAE131057:QAE131095 PQI131057:PQI131095 PGM131057:PGM131095 OWQ131057:OWQ131095 OMU131057:OMU131095 OCY131057:OCY131095 NTC131057:NTC131095 NJG131057:NJG131095 MZK131057:MZK131095 MPO131057:MPO131095 MFS131057:MFS131095 LVW131057:LVW131095 LMA131057:LMA131095 LCE131057:LCE131095 KSI131057:KSI131095 KIM131057:KIM131095 JYQ131057:JYQ131095 JOU131057:JOU131095 JEY131057:JEY131095 IVC131057:IVC131095 ILG131057:ILG131095 IBK131057:IBK131095 HRO131057:HRO131095 HHS131057:HHS131095 GXW131057:GXW131095 GOA131057:GOA131095 GEE131057:GEE131095 FUI131057:FUI131095 FKM131057:FKM131095 FAQ131057:FAQ131095 EQU131057:EQU131095 EGY131057:EGY131095 DXC131057:DXC131095 DNG131057:DNG131095 DDK131057:DDK131095 CTO131057:CTO131095 CJS131057:CJS131095 BZW131057:BZW131095 BQA131057:BQA131095 BGE131057:BGE131095 AWI131057:AWI131095 AMM131057:AMM131095 ACQ131057:ACQ131095 SU131057:SU131095 IY131057:IY131095 WVK65521:WVK65559 WLO65521:WLO65559 WBS65521:WBS65559 VRW65521:VRW65559 VIA65521:VIA65559 UYE65521:UYE65559 UOI65521:UOI65559 UEM65521:UEM65559 TUQ65521:TUQ65559 TKU65521:TKU65559 TAY65521:TAY65559 SRC65521:SRC65559 SHG65521:SHG65559 RXK65521:RXK65559 RNO65521:RNO65559 RDS65521:RDS65559 QTW65521:QTW65559 QKA65521:QKA65559 QAE65521:QAE65559 PQI65521:PQI65559 PGM65521:PGM65559 OWQ65521:OWQ65559 OMU65521:OMU65559 OCY65521:OCY65559 NTC65521:NTC65559 NJG65521:NJG65559 MZK65521:MZK65559 MPO65521:MPO65559 MFS65521:MFS65559 LVW65521:LVW65559 LMA65521:LMA65559 LCE65521:LCE65559 KSI65521:KSI65559 KIM65521:KIM65559 JYQ65521:JYQ65559 JOU65521:JOU65559 JEY65521:JEY65559 IVC65521:IVC65559 ILG65521:ILG65559 IBK65521:IBK65559 HRO65521:HRO65559 HHS65521:HHS65559 GXW65521:GXW65559 GOA65521:GOA65559 GEE65521:GEE65559 FUI65521:FUI65559 FKM65521:FKM65559 FAQ65521:FAQ65559 EQU65521:EQU65559 EGY65521:EGY65559 DXC65521:DXC65559 DNG65521:DNG65559 DDK65521:DDK65559 CTO65521:CTO65559 CJS65521:CJS65559 BZW65521:BZW65559 BQA65521:BQA65559 BGE65521:BGE65559 AWI65521:AWI65559 AMM65521:AMM65559 ACQ65521:ACQ65559 H5:H23 IY5:IY23 SU5:SU23 ACQ5:ACQ23 AMM5:AMM23 AWI5:AWI23 BGE5:BGE23 BQA5:BQA23 BZW5:BZW23 CJS5:CJS23 CTO5:CTO23 DDK5:DDK23 DNG5:DNG23 DXC5:DXC23 EGY5:EGY23 EQU5:EQU23 FAQ5:FAQ23 FKM5:FKM23 FUI5:FUI23 GEE5:GEE23 GOA5:GOA23 GXW5:GXW23 HHS5:HHS23 HRO5:HRO23 IBK5:IBK23 ILG5:ILG23 IVC5:IVC23 JEY5:JEY23 JOU5:JOU23 JYQ5:JYQ23 KIM5:KIM23 KSI5:KSI23 LCE5:LCE23 LMA5:LMA23 LVW5:LVW23 MFS5:MFS23 MPO5:MPO23 MZK5:MZK23 NJG5:NJG23 NTC5:NTC23 OCY5:OCY23 OMU5:OMU23 OWQ5:OWQ23 PGM5:PGM23 PQI5:PQI23 QAE5:QAE23 QKA5:QKA23 QTW5:QTW23 RDS5:RDS23 RNO5:RNO23 RXK5:RXK23 SHG5:SHG23 SRC5:SRC23 TAY5:TAY23 TKU5:TKU23 TUQ5:TUQ23 UEM5:UEM23 UOI5:UOI23 UYE5:UYE23 VIA5:VIA23 VRW5:VRW23 WBS5:WBS23 WLO5:WLO23 WVK5:WVK23">
       <formula1>"主键,外键,索引"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5957,376 +5947,358 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="75">
+      <c r="J4" s="142"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="75">
+      <c r="B5" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
         <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="149" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="144"/>
-    </row>
-    <row r="8" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="123"/>
+      <c r="D7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="B8" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="D8" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="B9" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" s="78" customFormat="1" ht="42" customHeight="1">
-      <c r="A11" s="75">
+      <c r="B10" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="42" customHeight="1">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="146"/>
-    </row>
-    <row r="12" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="75">
+      <c r="B11" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="D11" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="J12" s="146"/>
-    </row>
-    <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="75">
+      <c r="B12" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="149" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-    </row>
-    <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="73">
+      <c r="B13" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="128"/>
+      <c r="D13" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="69">
         <v>10</v>
       </c>
-      <c r="B14" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="146"/>
-    </row>
-    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="73">
+      <c r="B14" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="128"/>
+      <c r="D14" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="124" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="69">
         <v>11</v>
       </c>
-      <c r="B15" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-    </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
+      <c r="B15" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="61"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A3:B3"/>
@@ -6343,6 +6315,24 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6360,359 +6350,323 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="G3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="140"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="75">
+      <c r="J3" s="142"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="155"/>
-    </row>
-    <row r="5" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="75">
+      <c r="B4" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
+    </row>
+    <row r="5" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
         <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="149" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="75">
+      <c r="B5" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
+    </row>
+    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="149" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="B8" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="D8" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="B9" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="75">
+      <c r="B10" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-    </row>
-    <row r="12" spans="1:10" s="78" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="75">
+      <c r="B11" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="D11" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="146"/>
-    </row>
-    <row r="13" spans="1:10" s="78" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="75">
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="146"/>
-    </row>
-    <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-    </row>
-    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-    </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="61"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="59"/>
+      <c r="B13" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="128"/>
+      <c r="D13" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="69">
+        <v>10</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="128"/>
+      <c r="D14" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
+  <mergeCells count="28">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A2:B2"/>
@@ -6727,10 +6681,24 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65514:IY65552 SU65514:SU65552 ACQ65514:ACQ65552 AMM65514:AMM65552 AWI65514:AWI65552 BGE65514:BGE65552 BQA65514:BQA65552 BZW65514:BZW65552 CJS65514:CJS65552 CTO65514:CTO65552 DDK65514:DDK65552 DNG65514:DNG65552 DXC65514:DXC65552 EGY65514:EGY65552 EQU65514:EQU65552 FAQ65514:FAQ65552 FKM65514:FKM65552 FUI65514:FUI65552 GEE65514:GEE65552 GOA65514:GOA65552 GXW65514:GXW65552 HHS65514:HHS65552 HRO65514:HRO65552 IBK65514:IBK65552 ILG65514:ILG65552 IVC65514:IVC65552 JEY65514:JEY65552 JOU65514:JOU65552 JYQ65514:JYQ65552 KIM65514:KIM65552 KSI65514:KSI65552 LCE65514:LCE65552 LMA65514:LMA65552 LVW65514:LVW65552 MFS65514:MFS65552 MPO65514:MPO65552 MZK65514:MZK65552 NJG65514:NJG65552 NTC65514:NTC65552 OCY65514:OCY65552 OMU65514:OMU65552 OWQ65514:OWQ65552 PGM65514:PGM65552 PQI65514:PQI65552 QAE65514:QAE65552 QKA65514:QKA65552 QTW65514:QTW65552 RDS65514:RDS65552 RNO65514:RNO65552 RXK65514:RXK65552 SHG65514:SHG65552 SRC65514:SRC65552 TAY65514:TAY65552 TKU65514:TKU65552 TUQ65514:TUQ65552 UEM65514:UEM65552 UOI65514:UOI65552 UYE65514:UYE65552 VIA65514:VIA65552 VRW65514:VRW65552 WBS65514:WBS65552 WLO65514:WLO65552 WVK65514:WVK65552 IY131050:IY131088 SU131050:SU131088 ACQ131050:ACQ131088 AMM131050:AMM131088 AWI131050:AWI131088 BGE131050:BGE131088 BQA131050:BQA131088 BZW131050:BZW131088 CJS131050:CJS131088 CTO131050:CTO131088 DDK131050:DDK131088 DNG131050:DNG131088 DXC131050:DXC131088 EGY131050:EGY131088 EQU131050:EQU131088 FAQ131050:FAQ131088 FKM131050:FKM131088 FUI131050:FUI131088 GEE131050:GEE131088 GOA131050:GOA131088 GXW131050:GXW131088 HHS131050:HHS131088 HRO131050:HRO131088 IBK131050:IBK131088 ILG131050:ILG131088 IVC131050:IVC131088 JEY131050:JEY131088 JOU131050:JOU131088 JYQ131050:JYQ131088 KIM131050:KIM131088 KSI131050:KSI131088 LCE131050:LCE131088 LMA131050:LMA131088 LVW131050:LVW131088 MFS131050:MFS131088 MPO131050:MPO131088 MZK131050:MZK131088 NJG131050:NJG131088 NTC131050:NTC131088 OCY131050:OCY131088 OMU131050:OMU131088 OWQ131050:OWQ131088 PGM131050:PGM131088 PQI131050:PQI131088 QAE131050:QAE131088 QKA131050:QKA131088 QTW131050:QTW131088 RDS131050:RDS131088 RNO131050:RNO131088 RXK131050:RXK131088 SHG131050:SHG131088 SRC131050:SRC131088 TAY131050:TAY131088 TKU131050:TKU131088 TUQ131050:TUQ131088 UEM131050:UEM131088 UOI131050:UOI131088 UYE131050:UYE131088 VIA131050:VIA131088 VRW131050:VRW131088 WBS131050:WBS131088 WLO131050:WLO131088 WVK131050:WVK131088 IY196586:IY196624 SU196586:SU196624 ACQ196586:ACQ196624 AMM196586:AMM196624 AWI196586:AWI196624 BGE196586:BGE196624 BQA196586:BQA196624 BZW196586:BZW196624 CJS196586:CJS196624 CTO196586:CTO196624 DDK196586:DDK196624 DNG196586:DNG196624 DXC196586:DXC196624 EGY196586:EGY196624 EQU196586:EQU196624 FAQ196586:FAQ196624 FKM196586:FKM196624 FUI196586:FUI196624 GEE196586:GEE196624 GOA196586:GOA196624 GXW196586:GXW196624 HHS196586:HHS196624 HRO196586:HRO196624 IBK196586:IBK196624 ILG196586:ILG196624 IVC196586:IVC196624 JEY196586:JEY196624 JOU196586:JOU196624 JYQ196586:JYQ196624 KIM196586:KIM196624 KSI196586:KSI196624 LCE196586:LCE196624 LMA196586:LMA196624 LVW196586:LVW196624 MFS196586:MFS196624 MPO196586:MPO196624 MZK196586:MZK196624 NJG196586:NJG196624 NTC196586:NTC196624 OCY196586:OCY196624 OMU196586:OMU196624 OWQ196586:OWQ196624 PGM196586:PGM196624 PQI196586:PQI196624 QAE196586:QAE196624 QKA196586:QKA196624 QTW196586:QTW196624 RDS196586:RDS196624 RNO196586:RNO196624 RXK196586:RXK196624 SHG196586:SHG196624 SRC196586:SRC196624 TAY196586:TAY196624 TKU196586:TKU196624 TUQ196586:TUQ196624 UEM196586:UEM196624 UOI196586:UOI196624 UYE196586:UYE196624 VIA196586:VIA196624 VRW196586:VRW196624 WBS196586:WBS196624 WLO196586:WLO196624 WVK196586:WVK196624 IY262122:IY262160 SU262122:SU262160 ACQ262122:ACQ262160 AMM262122:AMM262160 AWI262122:AWI262160 BGE262122:BGE262160 BQA262122:BQA262160 BZW262122:BZW262160 CJS262122:CJS262160 CTO262122:CTO262160 DDK262122:DDK262160 DNG262122:DNG262160 DXC262122:DXC262160 EGY262122:EGY262160 EQU262122:EQU262160 FAQ262122:FAQ262160 FKM262122:FKM262160 FUI262122:FUI262160 GEE262122:GEE262160 GOA262122:GOA262160 GXW262122:GXW262160 HHS262122:HHS262160 HRO262122:HRO262160 IBK262122:IBK262160 ILG262122:ILG262160 IVC262122:IVC262160 JEY262122:JEY262160 JOU262122:JOU262160 JYQ262122:JYQ262160 KIM262122:KIM262160 KSI262122:KSI262160 LCE262122:LCE262160 LMA262122:LMA262160 LVW262122:LVW262160 MFS262122:MFS262160 MPO262122:MPO262160 MZK262122:MZK262160 NJG262122:NJG262160 NTC262122:NTC262160 OCY262122:OCY262160 OMU262122:OMU262160 OWQ262122:OWQ262160 PGM262122:PGM262160 PQI262122:PQI262160 QAE262122:QAE262160 QKA262122:QKA262160 QTW262122:QTW262160 RDS262122:RDS262160 RNO262122:RNO262160 RXK262122:RXK262160 SHG262122:SHG262160 SRC262122:SRC262160 TAY262122:TAY262160 TKU262122:TKU262160 TUQ262122:TUQ262160 UEM262122:UEM262160 UOI262122:UOI262160 UYE262122:UYE262160 VIA262122:VIA262160 VRW262122:VRW262160 WBS262122:WBS262160 WLO262122:WLO262160 WVK262122:WVK262160 IY327658:IY327696 SU327658:SU327696 ACQ327658:ACQ327696 AMM327658:AMM327696 AWI327658:AWI327696 BGE327658:BGE327696 BQA327658:BQA327696 BZW327658:BZW327696 CJS327658:CJS327696 CTO327658:CTO327696 DDK327658:DDK327696 DNG327658:DNG327696 DXC327658:DXC327696 EGY327658:EGY327696 EQU327658:EQU327696 FAQ327658:FAQ327696 FKM327658:FKM327696 FUI327658:FUI327696 GEE327658:GEE327696 GOA327658:GOA327696 GXW327658:GXW327696 HHS327658:HHS327696 HRO327658:HRO327696 IBK327658:IBK327696 ILG327658:ILG327696 IVC327658:IVC327696 JEY327658:JEY327696 JOU327658:JOU327696 JYQ327658:JYQ327696 KIM327658:KIM327696 KSI327658:KSI327696 LCE327658:LCE327696 LMA327658:LMA327696 LVW327658:LVW327696 MFS327658:MFS327696 MPO327658:MPO327696 MZK327658:MZK327696 NJG327658:NJG327696 NTC327658:NTC327696 OCY327658:OCY327696 OMU327658:OMU327696 OWQ327658:OWQ327696 PGM327658:PGM327696 PQI327658:PQI327696 QAE327658:QAE327696 QKA327658:QKA327696 QTW327658:QTW327696 RDS327658:RDS327696 RNO327658:RNO327696 RXK327658:RXK327696 SHG327658:SHG327696 SRC327658:SRC327696 TAY327658:TAY327696 TKU327658:TKU327696 TUQ327658:TUQ327696 UEM327658:UEM327696 UOI327658:UOI327696 UYE327658:UYE327696 VIA327658:VIA327696 VRW327658:VRW327696 WBS327658:WBS327696 WLO327658:WLO327696 WVK327658:WVK327696 IY393194:IY393232 SU393194:SU393232 ACQ393194:ACQ393232 AMM393194:AMM393232 AWI393194:AWI393232 BGE393194:BGE393232 BQA393194:BQA393232 BZW393194:BZW393232 CJS393194:CJS393232 CTO393194:CTO393232 DDK393194:DDK393232 DNG393194:DNG393232 DXC393194:DXC393232 EGY393194:EGY393232 EQU393194:EQU393232 FAQ393194:FAQ393232 FKM393194:FKM393232 FUI393194:FUI393232 GEE393194:GEE393232 GOA393194:GOA393232 GXW393194:GXW393232 HHS393194:HHS393232 HRO393194:HRO393232 IBK393194:IBK393232 ILG393194:ILG393232 IVC393194:IVC393232 JEY393194:JEY393232 JOU393194:JOU393232 JYQ393194:JYQ393232 KIM393194:KIM393232 KSI393194:KSI393232 LCE393194:LCE393232 LMA393194:LMA393232 LVW393194:LVW393232 MFS393194:MFS393232 MPO393194:MPO393232 MZK393194:MZK393232 NJG393194:NJG393232 NTC393194:NTC393232 OCY393194:OCY393232 OMU393194:OMU393232 OWQ393194:OWQ393232 PGM393194:PGM393232 PQI393194:PQI393232 QAE393194:QAE393232 QKA393194:QKA393232 QTW393194:QTW393232 RDS393194:RDS393232 RNO393194:RNO393232 RXK393194:RXK393232 SHG393194:SHG393232 SRC393194:SRC393232 TAY393194:TAY393232 TKU393194:TKU393232 TUQ393194:TUQ393232 UEM393194:UEM393232 UOI393194:UOI393232 UYE393194:UYE393232 VIA393194:VIA393232 VRW393194:VRW393232 WBS393194:WBS393232 WLO393194:WLO393232 WVK393194:WVK393232 IY458730:IY458768 SU458730:SU458768 ACQ458730:ACQ458768 AMM458730:AMM458768 AWI458730:AWI458768 BGE458730:BGE458768 BQA458730:BQA458768 BZW458730:BZW458768 CJS458730:CJS458768 CTO458730:CTO458768 DDK458730:DDK458768 DNG458730:DNG458768 DXC458730:DXC458768 EGY458730:EGY458768 EQU458730:EQU458768 FAQ458730:FAQ458768 FKM458730:FKM458768 FUI458730:FUI458768 GEE458730:GEE458768 GOA458730:GOA458768 GXW458730:GXW458768 HHS458730:HHS458768 HRO458730:HRO458768 IBK458730:IBK458768 ILG458730:ILG458768 IVC458730:IVC458768 JEY458730:JEY458768 JOU458730:JOU458768 JYQ458730:JYQ458768 KIM458730:KIM458768 KSI458730:KSI458768 LCE458730:LCE458768 LMA458730:LMA458768 LVW458730:LVW458768 MFS458730:MFS458768 MPO458730:MPO458768 MZK458730:MZK458768 NJG458730:NJG458768 NTC458730:NTC458768 OCY458730:OCY458768 OMU458730:OMU458768 OWQ458730:OWQ458768 PGM458730:PGM458768 PQI458730:PQI458768 QAE458730:QAE458768 QKA458730:QKA458768 QTW458730:QTW458768 RDS458730:RDS458768 RNO458730:RNO458768 RXK458730:RXK458768 SHG458730:SHG458768 SRC458730:SRC458768 TAY458730:TAY458768 TKU458730:TKU458768 TUQ458730:TUQ458768 UEM458730:UEM458768 UOI458730:UOI458768 UYE458730:UYE458768 VIA458730:VIA458768 VRW458730:VRW458768 WBS458730:WBS458768 WLO458730:WLO458768 WVK458730:WVK458768 IY524266:IY524304 SU524266:SU524304 ACQ524266:ACQ524304 AMM524266:AMM524304 AWI524266:AWI524304 BGE524266:BGE524304 BQA524266:BQA524304 BZW524266:BZW524304 CJS524266:CJS524304 CTO524266:CTO524304 DDK524266:DDK524304 DNG524266:DNG524304 DXC524266:DXC524304 EGY524266:EGY524304 EQU524266:EQU524304 FAQ524266:FAQ524304 FKM524266:FKM524304 FUI524266:FUI524304 GEE524266:GEE524304 GOA524266:GOA524304 GXW524266:GXW524304 HHS524266:HHS524304 HRO524266:HRO524304 IBK524266:IBK524304 ILG524266:ILG524304 IVC524266:IVC524304 JEY524266:JEY524304 JOU524266:JOU524304 JYQ524266:JYQ524304 KIM524266:KIM524304 KSI524266:KSI524304 LCE524266:LCE524304 LMA524266:LMA524304 LVW524266:LVW524304 MFS524266:MFS524304 MPO524266:MPO524304 MZK524266:MZK524304 NJG524266:NJG524304 NTC524266:NTC524304 OCY524266:OCY524304 OMU524266:OMU524304 OWQ524266:OWQ524304 PGM524266:PGM524304 PQI524266:PQI524304 QAE524266:QAE524304 QKA524266:QKA524304 QTW524266:QTW524304 RDS524266:RDS524304 RNO524266:RNO524304 RXK524266:RXK524304 SHG524266:SHG524304 SRC524266:SRC524304 TAY524266:TAY524304 TKU524266:TKU524304 TUQ524266:TUQ524304 UEM524266:UEM524304 UOI524266:UOI524304 UYE524266:UYE524304 VIA524266:VIA524304 VRW524266:VRW524304 WBS524266:WBS524304 WLO524266:WLO524304 WVK524266:WVK524304 IY589802:IY589840 SU589802:SU589840 ACQ589802:ACQ589840 AMM589802:AMM589840 AWI589802:AWI589840 BGE589802:BGE589840 BQA589802:BQA589840 BZW589802:BZW589840 CJS589802:CJS589840 CTO589802:CTO589840 DDK589802:DDK589840 DNG589802:DNG589840 DXC589802:DXC589840 EGY589802:EGY589840 EQU589802:EQU589840 FAQ589802:FAQ589840 FKM589802:FKM589840 FUI589802:FUI589840 GEE589802:GEE589840 GOA589802:GOA589840 GXW589802:GXW589840 HHS589802:HHS589840 HRO589802:HRO589840 IBK589802:IBK589840 ILG589802:ILG589840 IVC589802:IVC589840 JEY589802:JEY589840 JOU589802:JOU589840 JYQ589802:JYQ589840 KIM589802:KIM589840 KSI589802:KSI589840 LCE589802:LCE589840 LMA589802:LMA589840 LVW589802:LVW589840 MFS589802:MFS589840 MPO589802:MPO589840 MZK589802:MZK589840 NJG589802:NJG589840 NTC589802:NTC589840 OCY589802:OCY589840 OMU589802:OMU589840 OWQ589802:OWQ589840 PGM589802:PGM589840 PQI589802:PQI589840 QAE589802:QAE589840 QKA589802:QKA589840 QTW589802:QTW589840 RDS589802:RDS589840 RNO589802:RNO589840 RXK589802:RXK589840 SHG589802:SHG589840 SRC589802:SRC589840 TAY589802:TAY589840 TKU589802:TKU589840 TUQ589802:TUQ589840 UEM589802:UEM589840 UOI589802:UOI589840 UYE589802:UYE589840 VIA589802:VIA589840 VRW589802:VRW589840 WBS589802:WBS589840 WLO589802:WLO589840 WVK589802:WVK589840 IY655338:IY655376 SU655338:SU655376 ACQ655338:ACQ655376 AMM655338:AMM655376 AWI655338:AWI655376 BGE655338:BGE655376 BQA655338:BQA655376 BZW655338:BZW655376 CJS655338:CJS655376 CTO655338:CTO655376 DDK655338:DDK655376 DNG655338:DNG655376 DXC655338:DXC655376 EGY655338:EGY655376 EQU655338:EQU655376 FAQ655338:FAQ655376 FKM655338:FKM655376 FUI655338:FUI655376 GEE655338:GEE655376 GOA655338:GOA655376 GXW655338:GXW655376 HHS655338:HHS655376 HRO655338:HRO655376 IBK655338:IBK655376 ILG655338:ILG655376 IVC655338:IVC655376 JEY655338:JEY655376 JOU655338:JOU655376 JYQ655338:JYQ655376 KIM655338:KIM655376 KSI655338:KSI655376 LCE655338:LCE655376 LMA655338:LMA655376 LVW655338:LVW655376 MFS655338:MFS655376 MPO655338:MPO655376 MZK655338:MZK655376 NJG655338:NJG655376 NTC655338:NTC655376 OCY655338:OCY655376 OMU655338:OMU655376 OWQ655338:OWQ655376 PGM655338:PGM655376 PQI655338:PQI655376 QAE655338:QAE655376 QKA655338:QKA655376 QTW655338:QTW655376 RDS655338:RDS655376 RNO655338:RNO655376 RXK655338:RXK655376 SHG655338:SHG655376 SRC655338:SRC655376 TAY655338:TAY655376 TKU655338:TKU655376 TUQ655338:TUQ655376 UEM655338:UEM655376 UOI655338:UOI655376 UYE655338:UYE655376 VIA655338:VIA655376 VRW655338:VRW655376 WBS655338:WBS655376 WLO655338:WLO655376 WVK655338:WVK655376 IY720874:IY720912 SU720874:SU720912 ACQ720874:ACQ720912 AMM720874:AMM720912 AWI720874:AWI720912 BGE720874:BGE720912 BQA720874:BQA720912 BZW720874:BZW720912 CJS720874:CJS720912 CTO720874:CTO720912 DDK720874:DDK720912 DNG720874:DNG720912 DXC720874:DXC720912 EGY720874:EGY720912 EQU720874:EQU720912 FAQ720874:FAQ720912 FKM720874:FKM720912 FUI720874:FUI720912 GEE720874:GEE720912 GOA720874:GOA720912 GXW720874:GXW720912 HHS720874:HHS720912 HRO720874:HRO720912 IBK720874:IBK720912 ILG720874:ILG720912 IVC720874:IVC720912 JEY720874:JEY720912 JOU720874:JOU720912 JYQ720874:JYQ720912 KIM720874:KIM720912 KSI720874:KSI720912 LCE720874:LCE720912 LMA720874:LMA720912 LVW720874:LVW720912 MFS720874:MFS720912 MPO720874:MPO720912 MZK720874:MZK720912 NJG720874:NJG720912 NTC720874:NTC720912 OCY720874:OCY720912 OMU720874:OMU720912 OWQ720874:OWQ720912 PGM720874:PGM720912 PQI720874:PQI720912 QAE720874:QAE720912 QKA720874:QKA720912 QTW720874:QTW720912 RDS720874:RDS720912 RNO720874:RNO720912 RXK720874:RXK720912 SHG720874:SHG720912 SRC720874:SRC720912 TAY720874:TAY720912 TKU720874:TKU720912 TUQ720874:TUQ720912 UEM720874:UEM720912 UOI720874:UOI720912 UYE720874:UYE720912 VIA720874:VIA720912 VRW720874:VRW720912 WBS720874:WBS720912 WLO720874:WLO720912 WVK720874:WVK720912 IY786410:IY786448 SU786410:SU786448 ACQ786410:ACQ786448 AMM786410:AMM786448 AWI786410:AWI786448 BGE786410:BGE786448 BQA786410:BQA786448 BZW786410:BZW786448 CJS786410:CJS786448 CTO786410:CTO786448 DDK786410:DDK786448 DNG786410:DNG786448 DXC786410:DXC786448 EGY786410:EGY786448 EQU786410:EQU786448 FAQ786410:FAQ786448 FKM786410:FKM786448 FUI786410:FUI786448 GEE786410:GEE786448 GOA786410:GOA786448 GXW786410:GXW786448 HHS786410:HHS786448 HRO786410:HRO786448 IBK786410:IBK786448 ILG786410:ILG786448 IVC786410:IVC786448 JEY786410:JEY786448 JOU786410:JOU786448 JYQ786410:JYQ786448 KIM786410:KIM786448 KSI786410:KSI786448 LCE786410:LCE786448 LMA786410:LMA786448 LVW786410:LVW786448 MFS786410:MFS786448 MPO786410:MPO786448 MZK786410:MZK786448 NJG786410:NJG786448 NTC786410:NTC786448 OCY786410:OCY786448 OMU786410:OMU786448 OWQ786410:OWQ786448 PGM786410:PGM786448 PQI786410:PQI786448 QAE786410:QAE786448 QKA786410:QKA786448 QTW786410:QTW786448 RDS786410:RDS786448 RNO786410:RNO786448 RXK786410:RXK786448 SHG786410:SHG786448 SRC786410:SRC786448 TAY786410:TAY786448 TKU786410:TKU786448 TUQ786410:TUQ786448 UEM786410:UEM786448 UOI786410:UOI786448 UYE786410:UYE786448 VIA786410:VIA786448 VRW786410:VRW786448 WBS786410:WBS786448 WLO786410:WLO786448 WVK786410:WVK786448 IY851946:IY851984 SU851946:SU851984 ACQ851946:ACQ851984 AMM851946:AMM851984 AWI851946:AWI851984 BGE851946:BGE851984 BQA851946:BQA851984 BZW851946:BZW851984 CJS851946:CJS851984 CTO851946:CTO851984 DDK851946:DDK851984 DNG851946:DNG851984 DXC851946:DXC851984 EGY851946:EGY851984 EQU851946:EQU851984 FAQ851946:FAQ851984 FKM851946:FKM851984 FUI851946:FUI851984 GEE851946:GEE851984 GOA851946:GOA851984 GXW851946:GXW851984 HHS851946:HHS851984 HRO851946:HRO851984 IBK851946:IBK851984 ILG851946:ILG851984 IVC851946:IVC851984 JEY851946:JEY851984 JOU851946:JOU851984 JYQ851946:JYQ851984 KIM851946:KIM851984 KSI851946:KSI851984 LCE851946:LCE851984 LMA851946:LMA851984 LVW851946:LVW851984 MFS851946:MFS851984 MPO851946:MPO851984 MZK851946:MZK851984 NJG851946:NJG851984 NTC851946:NTC851984 OCY851946:OCY851984 OMU851946:OMU851984 OWQ851946:OWQ851984 PGM851946:PGM851984 PQI851946:PQI851984 QAE851946:QAE851984 QKA851946:QKA851984 QTW851946:QTW851984 RDS851946:RDS851984 RNO851946:RNO851984 RXK851946:RXK851984 SHG851946:SHG851984 SRC851946:SRC851984 TAY851946:TAY851984 TKU851946:TKU851984 TUQ851946:TUQ851984 UEM851946:UEM851984 UOI851946:UOI851984 UYE851946:UYE851984 VIA851946:VIA851984 VRW851946:VRW851984 WBS851946:WBS851984 WLO851946:WLO851984 WVK851946:WVK851984 IY917482:IY917520 SU917482:SU917520 ACQ917482:ACQ917520 AMM917482:AMM917520 AWI917482:AWI917520 BGE917482:BGE917520 BQA917482:BQA917520 BZW917482:BZW917520 CJS917482:CJS917520 CTO917482:CTO917520 DDK917482:DDK917520 DNG917482:DNG917520 DXC917482:DXC917520 EGY917482:EGY917520 EQU917482:EQU917520 FAQ917482:FAQ917520 FKM917482:FKM917520 FUI917482:FUI917520 GEE917482:GEE917520 GOA917482:GOA917520 GXW917482:GXW917520 HHS917482:HHS917520 HRO917482:HRO917520 IBK917482:IBK917520 ILG917482:ILG917520 IVC917482:IVC917520 JEY917482:JEY917520 JOU917482:JOU917520 JYQ917482:JYQ917520 KIM917482:KIM917520 KSI917482:KSI917520 LCE917482:LCE917520 LMA917482:LMA917520 LVW917482:LVW917520 MFS917482:MFS917520 MPO917482:MPO917520 MZK917482:MZK917520 NJG917482:NJG917520 NTC917482:NTC917520 OCY917482:OCY917520 OMU917482:OMU917520 OWQ917482:OWQ917520 PGM917482:PGM917520 PQI917482:PQI917520 QAE917482:QAE917520 QKA917482:QKA917520 QTW917482:QTW917520 RDS917482:RDS917520 RNO917482:RNO917520 RXK917482:RXK917520 SHG917482:SHG917520 SRC917482:SRC917520 TAY917482:TAY917520 TKU917482:TKU917520 TUQ917482:TUQ917520 UEM917482:UEM917520 UOI917482:UOI917520 UYE917482:UYE917520 VIA917482:VIA917520 VRW917482:VRW917520 WBS917482:WBS917520 WLO917482:WLO917520 WVK917482:WVK917520 IY983018:IY983056 SU983018:SU983056 ACQ983018:ACQ983056 AMM983018:AMM983056 AWI983018:AWI983056 BGE983018:BGE983056 BQA983018:BQA983056 BZW983018:BZW983056 CJS983018:CJS983056 CTO983018:CTO983056 DDK983018:DDK983056 DNG983018:DNG983056 DXC983018:DXC983056 EGY983018:EGY983056 EQU983018:EQU983056 FAQ983018:FAQ983056 FKM983018:FKM983056 FUI983018:FUI983056 GEE983018:GEE983056 GOA983018:GOA983056 GXW983018:GXW983056 HHS983018:HHS983056 HRO983018:HRO983056 IBK983018:IBK983056 ILG983018:ILG983056 IVC983018:IVC983056 JEY983018:JEY983056 JOU983018:JOU983056 JYQ983018:JYQ983056 KIM983018:KIM983056 KSI983018:KSI983056 LCE983018:LCE983056 LMA983018:LMA983056 LVW983018:LVW983056 MFS983018:MFS983056 MPO983018:MPO983056 MZK983018:MZK983056 NJG983018:NJG983056 NTC983018:NTC983056 OCY983018:OCY983056 OMU983018:OMU983056 OWQ983018:OWQ983056 PGM983018:PGM983056 PQI983018:PQI983056 QAE983018:QAE983056 QKA983018:QKA983056 QTW983018:QTW983056 RDS983018:RDS983056 RNO983018:RNO983056 RXK983018:RXK983056 SHG983018:SHG983056 SRC983018:SRC983056 TAY983018:TAY983056 TKU983018:TKU983056 TUQ983018:TUQ983056 UEM983018:UEM983056 UOI983018:UOI983056 UYE983018:UYE983056 VIA983018:VIA983056 VRW983018:VRW983056 WBS983018:WBS983056 WLO983018:WLO983056 WVK983018:WVK983056 H983018:H983056 H917482:H917520 H851946:H851984 H786410:H786448 H720874:H720912 H655338:H655376 H589802:H589840 H524266:H524304 H458730:H458768 H393194:H393232 H327658:H327696 H262122:H262160 H196586:H196624 H131050:H131088 H65514:H65552 H4:H16 WVK4:WVK16 WLO4:WLO16 WBS4:WBS16 VRW4:VRW16 VIA4:VIA16 UYE4:UYE16 UOI4:UOI16 UEM4:UEM16 TUQ4:TUQ16 TKU4:TKU16 TAY4:TAY16 SRC4:SRC16 SHG4:SHG16 RXK4:RXK16 RNO4:RNO16 RDS4:RDS16 QTW4:QTW16 QKA4:QKA16 QAE4:QAE16 PQI4:PQI16 PGM4:PGM16 OWQ4:OWQ16 OMU4:OMU16 OCY4:OCY16 NTC4:NTC16 NJG4:NJG16 MZK4:MZK16 MPO4:MPO16 MFS4:MFS16 LVW4:LVW16 LMA4:LMA16 LCE4:LCE16 KSI4:KSI16 KIM4:KIM16 JYQ4:JYQ16 JOU4:JOU16 JEY4:JEY16 IVC4:IVC16 ILG4:ILG16 IBK4:IBK16 HRO4:HRO16 HHS4:HHS16 GXW4:GXW16 GOA4:GOA16 GEE4:GEE16 FUI4:FUI16 FKM4:FKM16 FAQ4:FAQ16 EQU4:EQU16 EGY4:EGY16 DXC4:DXC16 DNG4:DNG16 DDK4:DDK16 CTO4:CTO16 CJS4:CJS16 BZW4:BZW16 BQA4:BQA16 BGE4:BGE16 AWI4:AWI16 AMM4:AMM16 ACQ4:ACQ16 SU4:SU16 IY4:IY16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65512:IY65550 SU65512:SU65550 ACQ65512:ACQ65550 AMM65512:AMM65550 AWI65512:AWI65550 BGE65512:BGE65550 BQA65512:BQA65550 BZW65512:BZW65550 CJS65512:CJS65550 CTO65512:CTO65550 DDK65512:DDK65550 DNG65512:DNG65550 DXC65512:DXC65550 EGY65512:EGY65550 EQU65512:EQU65550 FAQ65512:FAQ65550 FKM65512:FKM65550 FUI65512:FUI65550 GEE65512:GEE65550 GOA65512:GOA65550 GXW65512:GXW65550 HHS65512:HHS65550 HRO65512:HRO65550 IBK65512:IBK65550 ILG65512:ILG65550 IVC65512:IVC65550 JEY65512:JEY65550 JOU65512:JOU65550 JYQ65512:JYQ65550 KIM65512:KIM65550 KSI65512:KSI65550 LCE65512:LCE65550 LMA65512:LMA65550 LVW65512:LVW65550 MFS65512:MFS65550 MPO65512:MPO65550 MZK65512:MZK65550 NJG65512:NJG65550 NTC65512:NTC65550 OCY65512:OCY65550 OMU65512:OMU65550 OWQ65512:OWQ65550 PGM65512:PGM65550 PQI65512:PQI65550 QAE65512:QAE65550 QKA65512:QKA65550 QTW65512:QTW65550 RDS65512:RDS65550 RNO65512:RNO65550 RXK65512:RXK65550 SHG65512:SHG65550 SRC65512:SRC65550 TAY65512:TAY65550 TKU65512:TKU65550 TUQ65512:TUQ65550 UEM65512:UEM65550 UOI65512:UOI65550 UYE65512:UYE65550 VIA65512:VIA65550 VRW65512:VRW65550 WBS65512:WBS65550 WLO65512:WLO65550 WVK65512:WVK65550 IY131048:IY131086 SU131048:SU131086 ACQ131048:ACQ131086 AMM131048:AMM131086 AWI131048:AWI131086 BGE131048:BGE131086 BQA131048:BQA131086 BZW131048:BZW131086 CJS131048:CJS131086 CTO131048:CTO131086 DDK131048:DDK131086 DNG131048:DNG131086 DXC131048:DXC131086 EGY131048:EGY131086 EQU131048:EQU131086 FAQ131048:FAQ131086 FKM131048:FKM131086 FUI131048:FUI131086 GEE131048:GEE131086 GOA131048:GOA131086 GXW131048:GXW131086 HHS131048:HHS131086 HRO131048:HRO131086 IBK131048:IBK131086 ILG131048:ILG131086 IVC131048:IVC131086 JEY131048:JEY131086 JOU131048:JOU131086 JYQ131048:JYQ131086 KIM131048:KIM131086 KSI131048:KSI131086 LCE131048:LCE131086 LMA131048:LMA131086 LVW131048:LVW131086 MFS131048:MFS131086 MPO131048:MPO131086 MZK131048:MZK131086 NJG131048:NJG131086 NTC131048:NTC131086 OCY131048:OCY131086 OMU131048:OMU131086 OWQ131048:OWQ131086 PGM131048:PGM131086 PQI131048:PQI131086 QAE131048:QAE131086 QKA131048:QKA131086 QTW131048:QTW131086 RDS131048:RDS131086 RNO131048:RNO131086 RXK131048:RXK131086 SHG131048:SHG131086 SRC131048:SRC131086 TAY131048:TAY131086 TKU131048:TKU131086 TUQ131048:TUQ131086 UEM131048:UEM131086 UOI131048:UOI131086 UYE131048:UYE131086 VIA131048:VIA131086 VRW131048:VRW131086 WBS131048:WBS131086 WLO131048:WLO131086 WVK131048:WVK131086 IY196584:IY196622 SU196584:SU196622 ACQ196584:ACQ196622 AMM196584:AMM196622 AWI196584:AWI196622 BGE196584:BGE196622 BQA196584:BQA196622 BZW196584:BZW196622 CJS196584:CJS196622 CTO196584:CTO196622 DDK196584:DDK196622 DNG196584:DNG196622 DXC196584:DXC196622 EGY196584:EGY196622 EQU196584:EQU196622 FAQ196584:FAQ196622 FKM196584:FKM196622 FUI196584:FUI196622 GEE196584:GEE196622 GOA196584:GOA196622 GXW196584:GXW196622 HHS196584:HHS196622 HRO196584:HRO196622 IBK196584:IBK196622 ILG196584:ILG196622 IVC196584:IVC196622 JEY196584:JEY196622 JOU196584:JOU196622 JYQ196584:JYQ196622 KIM196584:KIM196622 KSI196584:KSI196622 LCE196584:LCE196622 LMA196584:LMA196622 LVW196584:LVW196622 MFS196584:MFS196622 MPO196584:MPO196622 MZK196584:MZK196622 NJG196584:NJG196622 NTC196584:NTC196622 OCY196584:OCY196622 OMU196584:OMU196622 OWQ196584:OWQ196622 PGM196584:PGM196622 PQI196584:PQI196622 QAE196584:QAE196622 QKA196584:QKA196622 QTW196584:QTW196622 RDS196584:RDS196622 RNO196584:RNO196622 RXK196584:RXK196622 SHG196584:SHG196622 SRC196584:SRC196622 TAY196584:TAY196622 TKU196584:TKU196622 TUQ196584:TUQ196622 UEM196584:UEM196622 UOI196584:UOI196622 UYE196584:UYE196622 VIA196584:VIA196622 VRW196584:VRW196622 WBS196584:WBS196622 WLO196584:WLO196622 WVK196584:WVK196622 IY262120:IY262158 SU262120:SU262158 ACQ262120:ACQ262158 AMM262120:AMM262158 AWI262120:AWI262158 BGE262120:BGE262158 BQA262120:BQA262158 BZW262120:BZW262158 CJS262120:CJS262158 CTO262120:CTO262158 DDK262120:DDK262158 DNG262120:DNG262158 DXC262120:DXC262158 EGY262120:EGY262158 EQU262120:EQU262158 FAQ262120:FAQ262158 FKM262120:FKM262158 FUI262120:FUI262158 GEE262120:GEE262158 GOA262120:GOA262158 GXW262120:GXW262158 HHS262120:HHS262158 HRO262120:HRO262158 IBK262120:IBK262158 ILG262120:ILG262158 IVC262120:IVC262158 JEY262120:JEY262158 JOU262120:JOU262158 JYQ262120:JYQ262158 KIM262120:KIM262158 KSI262120:KSI262158 LCE262120:LCE262158 LMA262120:LMA262158 LVW262120:LVW262158 MFS262120:MFS262158 MPO262120:MPO262158 MZK262120:MZK262158 NJG262120:NJG262158 NTC262120:NTC262158 OCY262120:OCY262158 OMU262120:OMU262158 OWQ262120:OWQ262158 PGM262120:PGM262158 PQI262120:PQI262158 QAE262120:QAE262158 QKA262120:QKA262158 QTW262120:QTW262158 RDS262120:RDS262158 RNO262120:RNO262158 RXK262120:RXK262158 SHG262120:SHG262158 SRC262120:SRC262158 TAY262120:TAY262158 TKU262120:TKU262158 TUQ262120:TUQ262158 UEM262120:UEM262158 UOI262120:UOI262158 UYE262120:UYE262158 VIA262120:VIA262158 VRW262120:VRW262158 WBS262120:WBS262158 WLO262120:WLO262158 WVK262120:WVK262158 IY327656:IY327694 SU327656:SU327694 ACQ327656:ACQ327694 AMM327656:AMM327694 AWI327656:AWI327694 BGE327656:BGE327694 BQA327656:BQA327694 BZW327656:BZW327694 CJS327656:CJS327694 CTO327656:CTO327694 DDK327656:DDK327694 DNG327656:DNG327694 DXC327656:DXC327694 EGY327656:EGY327694 EQU327656:EQU327694 FAQ327656:FAQ327694 FKM327656:FKM327694 FUI327656:FUI327694 GEE327656:GEE327694 GOA327656:GOA327694 GXW327656:GXW327694 HHS327656:HHS327694 HRO327656:HRO327694 IBK327656:IBK327694 ILG327656:ILG327694 IVC327656:IVC327694 JEY327656:JEY327694 JOU327656:JOU327694 JYQ327656:JYQ327694 KIM327656:KIM327694 KSI327656:KSI327694 LCE327656:LCE327694 LMA327656:LMA327694 LVW327656:LVW327694 MFS327656:MFS327694 MPO327656:MPO327694 MZK327656:MZK327694 NJG327656:NJG327694 NTC327656:NTC327694 OCY327656:OCY327694 OMU327656:OMU327694 OWQ327656:OWQ327694 PGM327656:PGM327694 PQI327656:PQI327694 QAE327656:QAE327694 QKA327656:QKA327694 QTW327656:QTW327694 RDS327656:RDS327694 RNO327656:RNO327694 RXK327656:RXK327694 SHG327656:SHG327694 SRC327656:SRC327694 TAY327656:TAY327694 TKU327656:TKU327694 TUQ327656:TUQ327694 UEM327656:UEM327694 UOI327656:UOI327694 UYE327656:UYE327694 VIA327656:VIA327694 VRW327656:VRW327694 WBS327656:WBS327694 WLO327656:WLO327694 WVK327656:WVK327694 IY393192:IY393230 SU393192:SU393230 ACQ393192:ACQ393230 AMM393192:AMM393230 AWI393192:AWI393230 BGE393192:BGE393230 BQA393192:BQA393230 BZW393192:BZW393230 CJS393192:CJS393230 CTO393192:CTO393230 DDK393192:DDK393230 DNG393192:DNG393230 DXC393192:DXC393230 EGY393192:EGY393230 EQU393192:EQU393230 FAQ393192:FAQ393230 FKM393192:FKM393230 FUI393192:FUI393230 GEE393192:GEE393230 GOA393192:GOA393230 GXW393192:GXW393230 HHS393192:HHS393230 HRO393192:HRO393230 IBK393192:IBK393230 ILG393192:ILG393230 IVC393192:IVC393230 JEY393192:JEY393230 JOU393192:JOU393230 JYQ393192:JYQ393230 KIM393192:KIM393230 KSI393192:KSI393230 LCE393192:LCE393230 LMA393192:LMA393230 LVW393192:LVW393230 MFS393192:MFS393230 MPO393192:MPO393230 MZK393192:MZK393230 NJG393192:NJG393230 NTC393192:NTC393230 OCY393192:OCY393230 OMU393192:OMU393230 OWQ393192:OWQ393230 PGM393192:PGM393230 PQI393192:PQI393230 QAE393192:QAE393230 QKA393192:QKA393230 QTW393192:QTW393230 RDS393192:RDS393230 RNO393192:RNO393230 RXK393192:RXK393230 SHG393192:SHG393230 SRC393192:SRC393230 TAY393192:TAY393230 TKU393192:TKU393230 TUQ393192:TUQ393230 UEM393192:UEM393230 UOI393192:UOI393230 UYE393192:UYE393230 VIA393192:VIA393230 VRW393192:VRW393230 WBS393192:WBS393230 WLO393192:WLO393230 WVK393192:WVK393230 IY458728:IY458766 SU458728:SU458766 ACQ458728:ACQ458766 AMM458728:AMM458766 AWI458728:AWI458766 BGE458728:BGE458766 BQA458728:BQA458766 BZW458728:BZW458766 CJS458728:CJS458766 CTO458728:CTO458766 DDK458728:DDK458766 DNG458728:DNG458766 DXC458728:DXC458766 EGY458728:EGY458766 EQU458728:EQU458766 FAQ458728:FAQ458766 FKM458728:FKM458766 FUI458728:FUI458766 GEE458728:GEE458766 GOA458728:GOA458766 GXW458728:GXW458766 HHS458728:HHS458766 HRO458728:HRO458766 IBK458728:IBK458766 ILG458728:ILG458766 IVC458728:IVC458766 JEY458728:JEY458766 JOU458728:JOU458766 JYQ458728:JYQ458766 KIM458728:KIM458766 KSI458728:KSI458766 LCE458728:LCE458766 LMA458728:LMA458766 LVW458728:LVW458766 MFS458728:MFS458766 MPO458728:MPO458766 MZK458728:MZK458766 NJG458728:NJG458766 NTC458728:NTC458766 OCY458728:OCY458766 OMU458728:OMU458766 OWQ458728:OWQ458766 PGM458728:PGM458766 PQI458728:PQI458766 QAE458728:QAE458766 QKA458728:QKA458766 QTW458728:QTW458766 RDS458728:RDS458766 RNO458728:RNO458766 RXK458728:RXK458766 SHG458728:SHG458766 SRC458728:SRC458766 TAY458728:TAY458766 TKU458728:TKU458766 TUQ458728:TUQ458766 UEM458728:UEM458766 UOI458728:UOI458766 UYE458728:UYE458766 VIA458728:VIA458766 VRW458728:VRW458766 WBS458728:WBS458766 WLO458728:WLO458766 WVK458728:WVK458766 IY524264:IY524302 SU524264:SU524302 ACQ524264:ACQ524302 AMM524264:AMM524302 AWI524264:AWI524302 BGE524264:BGE524302 BQA524264:BQA524302 BZW524264:BZW524302 CJS524264:CJS524302 CTO524264:CTO524302 DDK524264:DDK524302 DNG524264:DNG524302 DXC524264:DXC524302 EGY524264:EGY524302 EQU524264:EQU524302 FAQ524264:FAQ524302 FKM524264:FKM524302 FUI524264:FUI524302 GEE524264:GEE524302 GOA524264:GOA524302 GXW524264:GXW524302 HHS524264:HHS524302 HRO524264:HRO524302 IBK524264:IBK524302 ILG524264:ILG524302 IVC524264:IVC524302 JEY524264:JEY524302 JOU524264:JOU524302 JYQ524264:JYQ524302 KIM524264:KIM524302 KSI524264:KSI524302 LCE524264:LCE524302 LMA524264:LMA524302 LVW524264:LVW524302 MFS524264:MFS524302 MPO524264:MPO524302 MZK524264:MZK524302 NJG524264:NJG524302 NTC524264:NTC524302 OCY524264:OCY524302 OMU524264:OMU524302 OWQ524264:OWQ524302 PGM524264:PGM524302 PQI524264:PQI524302 QAE524264:QAE524302 QKA524264:QKA524302 QTW524264:QTW524302 RDS524264:RDS524302 RNO524264:RNO524302 RXK524264:RXK524302 SHG524264:SHG524302 SRC524264:SRC524302 TAY524264:TAY524302 TKU524264:TKU524302 TUQ524264:TUQ524302 UEM524264:UEM524302 UOI524264:UOI524302 UYE524264:UYE524302 VIA524264:VIA524302 VRW524264:VRW524302 WBS524264:WBS524302 WLO524264:WLO524302 WVK524264:WVK524302 IY589800:IY589838 SU589800:SU589838 ACQ589800:ACQ589838 AMM589800:AMM589838 AWI589800:AWI589838 BGE589800:BGE589838 BQA589800:BQA589838 BZW589800:BZW589838 CJS589800:CJS589838 CTO589800:CTO589838 DDK589800:DDK589838 DNG589800:DNG589838 DXC589800:DXC589838 EGY589800:EGY589838 EQU589800:EQU589838 FAQ589800:FAQ589838 FKM589800:FKM589838 FUI589800:FUI589838 GEE589800:GEE589838 GOA589800:GOA589838 GXW589800:GXW589838 HHS589800:HHS589838 HRO589800:HRO589838 IBK589800:IBK589838 ILG589800:ILG589838 IVC589800:IVC589838 JEY589800:JEY589838 JOU589800:JOU589838 JYQ589800:JYQ589838 KIM589800:KIM589838 KSI589800:KSI589838 LCE589800:LCE589838 LMA589800:LMA589838 LVW589800:LVW589838 MFS589800:MFS589838 MPO589800:MPO589838 MZK589800:MZK589838 NJG589800:NJG589838 NTC589800:NTC589838 OCY589800:OCY589838 OMU589800:OMU589838 OWQ589800:OWQ589838 PGM589800:PGM589838 PQI589800:PQI589838 QAE589800:QAE589838 QKA589800:QKA589838 QTW589800:QTW589838 RDS589800:RDS589838 RNO589800:RNO589838 RXK589800:RXK589838 SHG589800:SHG589838 SRC589800:SRC589838 TAY589800:TAY589838 TKU589800:TKU589838 TUQ589800:TUQ589838 UEM589800:UEM589838 UOI589800:UOI589838 UYE589800:UYE589838 VIA589800:VIA589838 VRW589800:VRW589838 WBS589800:WBS589838 WLO589800:WLO589838 WVK589800:WVK589838 IY655336:IY655374 SU655336:SU655374 ACQ655336:ACQ655374 AMM655336:AMM655374 AWI655336:AWI655374 BGE655336:BGE655374 BQA655336:BQA655374 BZW655336:BZW655374 CJS655336:CJS655374 CTO655336:CTO655374 DDK655336:DDK655374 DNG655336:DNG655374 DXC655336:DXC655374 EGY655336:EGY655374 EQU655336:EQU655374 FAQ655336:FAQ655374 FKM655336:FKM655374 FUI655336:FUI655374 GEE655336:GEE655374 GOA655336:GOA655374 GXW655336:GXW655374 HHS655336:HHS655374 HRO655336:HRO655374 IBK655336:IBK655374 ILG655336:ILG655374 IVC655336:IVC655374 JEY655336:JEY655374 JOU655336:JOU655374 JYQ655336:JYQ655374 KIM655336:KIM655374 KSI655336:KSI655374 LCE655336:LCE655374 LMA655336:LMA655374 LVW655336:LVW655374 MFS655336:MFS655374 MPO655336:MPO655374 MZK655336:MZK655374 NJG655336:NJG655374 NTC655336:NTC655374 OCY655336:OCY655374 OMU655336:OMU655374 OWQ655336:OWQ655374 PGM655336:PGM655374 PQI655336:PQI655374 QAE655336:QAE655374 QKA655336:QKA655374 QTW655336:QTW655374 RDS655336:RDS655374 RNO655336:RNO655374 RXK655336:RXK655374 SHG655336:SHG655374 SRC655336:SRC655374 TAY655336:TAY655374 TKU655336:TKU655374 TUQ655336:TUQ655374 UEM655336:UEM655374 UOI655336:UOI655374 UYE655336:UYE655374 VIA655336:VIA655374 VRW655336:VRW655374 WBS655336:WBS655374 WLO655336:WLO655374 WVK655336:WVK655374 IY720872:IY720910 SU720872:SU720910 ACQ720872:ACQ720910 AMM720872:AMM720910 AWI720872:AWI720910 BGE720872:BGE720910 BQA720872:BQA720910 BZW720872:BZW720910 CJS720872:CJS720910 CTO720872:CTO720910 DDK720872:DDK720910 DNG720872:DNG720910 DXC720872:DXC720910 EGY720872:EGY720910 EQU720872:EQU720910 FAQ720872:FAQ720910 FKM720872:FKM720910 FUI720872:FUI720910 GEE720872:GEE720910 GOA720872:GOA720910 GXW720872:GXW720910 HHS720872:HHS720910 HRO720872:HRO720910 IBK720872:IBK720910 ILG720872:ILG720910 IVC720872:IVC720910 JEY720872:JEY720910 JOU720872:JOU720910 JYQ720872:JYQ720910 KIM720872:KIM720910 KSI720872:KSI720910 LCE720872:LCE720910 LMA720872:LMA720910 LVW720872:LVW720910 MFS720872:MFS720910 MPO720872:MPO720910 MZK720872:MZK720910 NJG720872:NJG720910 NTC720872:NTC720910 OCY720872:OCY720910 OMU720872:OMU720910 OWQ720872:OWQ720910 PGM720872:PGM720910 PQI720872:PQI720910 QAE720872:QAE720910 QKA720872:QKA720910 QTW720872:QTW720910 RDS720872:RDS720910 RNO720872:RNO720910 RXK720872:RXK720910 SHG720872:SHG720910 SRC720872:SRC720910 TAY720872:TAY720910 TKU720872:TKU720910 TUQ720872:TUQ720910 UEM720872:UEM720910 UOI720872:UOI720910 UYE720872:UYE720910 VIA720872:VIA720910 VRW720872:VRW720910 WBS720872:WBS720910 WLO720872:WLO720910 WVK720872:WVK720910 IY786408:IY786446 SU786408:SU786446 ACQ786408:ACQ786446 AMM786408:AMM786446 AWI786408:AWI786446 BGE786408:BGE786446 BQA786408:BQA786446 BZW786408:BZW786446 CJS786408:CJS786446 CTO786408:CTO786446 DDK786408:DDK786446 DNG786408:DNG786446 DXC786408:DXC786446 EGY786408:EGY786446 EQU786408:EQU786446 FAQ786408:FAQ786446 FKM786408:FKM786446 FUI786408:FUI786446 GEE786408:GEE786446 GOA786408:GOA786446 GXW786408:GXW786446 HHS786408:HHS786446 HRO786408:HRO786446 IBK786408:IBK786446 ILG786408:ILG786446 IVC786408:IVC786446 JEY786408:JEY786446 JOU786408:JOU786446 JYQ786408:JYQ786446 KIM786408:KIM786446 KSI786408:KSI786446 LCE786408:LCE786446 LMA786408:LMA786446 LVW786408:LVW786446 MFS786408:MFS786446 MPO786408:MPO786446 MZK786408:MZK786446 NJG786408:NJG786446 NTC786408:NTC786446 OCY786408:OCY786446 OMU786408:OMU786446 OWQ786408:OWQ786446 PGM786408:PGM786446 PQI786408:PQI786446 QAE786408:QAE786446 QKA786408:QKA786446 QTW786408:QTW786446 RDS786408:RDS786446 RNO786408:RNO786446 RXK786408:RXK786446 SHG786408:SHG786446 SRC786408:SRC786446 TAY786408:TAY786446 TKU786408:TKU786446 TUQ786408:TUQ786446 UEM786408:UEM786446 UOI786408:UOI786446 UYE786408:UYE786446 VIA786408:VIA786446 VRW786408:VRW786446 WBS786408:WBS786446 WLO786408:WLO786446 WVK786408:WVK786446 IY851944:IY851982 SU851944:SU851982 ACQ851944:ACQ851982 AMM851944:AMM851982 AWI851944:AWI851982 BGE851944:BGE851982 BQA851944:BQA851982 BZW851944:BZW851982 CJS851944:CJS851982 CTO851944:CTO851982 DDK851944:DDK851982 DNG851944:DNG851982 DXC851944:DXC851982 EGY851944:EGY851982 EQU851944:EQU851982 FAQ851944:FAQ851982 FKM851944:FKM851982 FUI851944:FUI851982 GEE851944:GEE851982 GOA851944:GOA851982 GXW851944:GXW851982 HHS851944:HHS851982 HRO851944:HRO851982 IBK851944:IBK851982 ILG851944:ILG851982 IVC851944:IVC851982 JEY851944:JEY851982 JOU851944:JOU851982 JYQ851944:JYQ851982 KIM851944:KIM851982 KSI851944:KSI851982 LCE851944:LCE851982 LMA851944:LMA851982 LVW851944:LVW851982 MFS851944:MFS851982 MPO851944:MPO851982 MZK851944:MZK851982 NJG851944:NJG851982 NTC851944:NTC851982 OCY851944:OCY851982 OMU851944:OMU851982 OWQ851944:OWQ851982 PGM851944:PGM851982 PQI851944:PQI851982 QAE851944:QAE851982 QKA851944:QKA851982 QTW851944:QTW851982 RDS851944:RDS851982 RNO851944:RNO851982 RXK851944:RXK851982 SHG851944:SHG851982 SRC851944:SRC851982 TAY851944:TAY851982 TKU851944:TKU851982 TUQ851944:TUQ851982 UEM851944:UEM851982 UOI851944:UOI851982 UYE851944:UYE851982 VIA851944:VIA851982 VRW851944:VRW851982 WBS851944:WBS851982 WLO851944:WLO851982 WVK851944:WVK851982 IY917480:IY917518 SU917480:SU917518 ACQ917480:ACQ917518 AMM917480:AMM917518 AWI917480:AWI917518 BGE917480:BGE917518 BQA917480:BQA917518 BZW917480:BZW917518 CJS917480:CJS917518 CTO917480:CTO917518 DDK917480:DDK917518 DNG917480:DNG917518 DXC917480:DXC917518 EGY917480:EGY917518 EQU917480:EQU917518 FAQ917480:FAQ917518 FKM917480:FKM917518 FUI917480:FUI917518 GEE917480:GEE917518 GOA917480:GOA917518 GXW917480:GXW917518 HHS917480:HHS917518 HRO917480:HRO917518 IBK917480:IBK917518 ILG917480:ILG917518 IVC917480:IVC917518 JEY917480:JEY917518 JOU917480:JOU917518 JYQ917480:JYQ917518 KIM917480:KIM917518 KSI917480:KSI917518 LCE917480:LCE917518 LMA917480:LMA917518 LVW917480:LVW917518 MFS917480:MFS917518 MPO917480:MPO917518 MZK917480:MZK917518 NJG917480:NJG917518 NTC917480:NTC917518 OCY917480:OCY917518 OMU917480:OMU917518 OWQ917480:OWQ917518 PGM917480:PGM917518 PQI917480:PQI917518 QAE917480:QAE917518 QKA917480:QKA917518 QTW917480:QTW917518 RDS917480:RDS917518 RNO917480:RNO917518 RXK917480:RXK917518 SHG917480:SHG917518 SRC917480:SRC917518 TAY917480:TAY917518 TKU917480:TKU917518 TUQ917480:TUQ917518 UEM917480:UEM917518 UOI917480:UOI917518 UYE917480:UYE917518 VIA917480:VIA917518 VRW917480:VRW917518 WBS917480:WBS917518 WLO917480:WLO917518 WVK917480:WVK917518 IY983016:IY983054 SU983016:SU983054 ACQ983016:ACQ983054 AMM983016:AMM983054 AWI983016:AWI983054 BGE983016:BGE983054 BQA983016:BQA983054 BZW983016:BZW983054 CJS983016:CJS983054 CTO983016:CTO983054 DDK983016:DDK983054 DNG983016:DNG983054 DXC983016:DXC983054 EGY983016:EGY983054 EQU983016:EQU983054 FAQ983016:FAQ983054 FKM983016:FKM983054 FUI983016:FUI983054 GEE983016:GEE983054 GOA983016:GOA983054 GXW983016:GXW983054 HHS983016:HHS983054 HRO983016:HRO983054 IBK983016:IBK983054 ILG983016:ILG983054 IVC983016:IVC983054 JEY983016:JEY983054 JOU983016:JOU983054 JYQ983016:JYQ983054 KIM983016:KIM983054 KSI983016:KSI983054 LCE983016:LCE983054 LMA983016:LMA983054 LVW983016:LVW983054 MFS983016:MFS983054 MPO983016:MPO983054 MZK983016:MZK983054 NJG983016:NJG983054 NTC983016:NTC983054 OCY983016:OCY983054 OMU983016:OMU983054 OWQ983016:OWQ983054 PGM983016:PGM983054 PQI983016:PQI983054 QAE983016:QAE983054 QKA983016:QKA983054 QTW983016:QTW983054 RDS983016:RDS983054 RNO983016:RNO983054 RXK983016:RXK983054 SHG983016:SHG983054 SRC983016:SRC983054 TAY983016:TAY983054 TKU983016:TKU983054 TUQ983016:TUQ983054 UEM983016:UEM983054 UOI983016:UOI983054 UYE983016:UYE983054 VIA983016:VIA983054 VRW983016:VRW983054 WBS983016:WBS983054 WLO983016:WLO983054 WVK983016:WVK983054 H983016:H983054 H917480:H917518 H851944:H851982 H786408:H786446 H720872:H720910 H655336:H655374 H589800:H589838 H524264:H524302 H458728:H458766 H393192:H393230 H327656:H327694 H262120:H262158 H196584:H196622 H131048:H131086 H65512:H65550 H4:H14 IY4:IY14 SU4:SU14 ACQ4:ACQ14 AMM4:AMM14 AWI4:AWI14 BGE4:BGE14 BQA4:BQA14 BZW4:BZW14 CJS4:CJS14 CTO4:CTO14 DDK4:DDK14 DNG4:DNG14 DXC4:DXC14 EGY4:EGY14 EQU4:EQU14 FAQ4:FAQ14 FKM4:FKM14 FUI4:FUI14 GEE4:GEE14 GOA4:GOA14 GXW4:GXW14 HHS4:HHS14 HRO4:HRO14 IBK4:IBK14 ILG4:ILG14 IVC4:IVC14 JEY4:JEY14 JOU4:JOU14 JYQ4:JYQ14 KIM4:KIM14 KSI4:KSI14 LCE4:LCE14 LMA4:LMA14 LVW4:LVW14 MFS4:MFS14 MPO4:MPO14 MZK4:MZK14 NJG4:NJG14 NTC4:NTC14 OCY4:OCY14 OMU4:OMU14 OWQ4:OWQ14 PGM4:PGM14 PQI4:PQI14 QAE4:QAE14 QKA4:QKA14 QTW4:QTW14 RDS4:RDS14 RNO4:RNO14 RXK4:RXK14 SHG4:SHG14 SRC4:SRC14 TAY4:TAY14 TKU4:TKU14 TUQ4:TUQ14 UEM4:UEM14 UOI4:UOI14 UYE4:UYE14 VIA4:VIA14 VRW4:VRW14 WBS4:WBS14 WLO4:WLO14 WVK4:WVK14">
       <formula1>"主键,外键,索引"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6752,245 +6720,233 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="75">
+      <c r="J4" s="142"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="71">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="75">
+      <c r="B5" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="71">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="156" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-    </row>
-    <row r="7" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+    </row>
+    <row r="7" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="B8" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="D8" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-    </row>
-    <row r="12" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="61"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="59"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I5:J5"/>
@@ -7001,6 +6957,18 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7026,326 +6994,340 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="75">
+      <c r="J4" s="142"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="71">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="75">
+      <c r="B5" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="71">
         <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="145" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="B8" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="D8" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="B9" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
-    </row>
-    <row r="11" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="75">
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="144"/>
-    </row>
-    <row r="12" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="75">
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-    </row>
-    <row r="13" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="75">
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
         <f t="shared" ref="A13" si="1">ROW()-7</f>
         <v>6</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-    </row>
-    <row r="14" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-    </row>
-    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-    </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="61"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:C5"/>
@@ -7354,26 +7336,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7399,782 +7367,704 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="11" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="8" style="56" customWidth="1"/>
-    <col min="8" max="8" width="6" style="56" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-    </row>
-    <row r="2" spans="1:10" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="1:10" s="56" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:10" s="56" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="140"/>
-    </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="75">
+      <c r="J4" s="142"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="71">
         <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
         <v>-2</v>
       </c>
-      <c r="B5" s="156" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-    </row>
-    <row r="6" spans="1:10" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="75">
+      <c r="B5" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="B6" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="78" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="75">
+      <c r="B6" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="149" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="75">
+      <c r="B7" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="B8" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="D8" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-    </row>
-    <row r="11" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="75">
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-    </row>
-    <row r="12" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="75">
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-    </row>
-    <row r="13" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="75">
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-    </row>
-    <row r="14" spans="1:10" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="75">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-    </row>
-    <row r="15" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="75">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-    </row>
-    <row r="16" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="75">
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-    </row>
-    <row r="17" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="75">
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-    </row>
-    <row r="18" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="75">
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
+    </row>
+    <row r="18" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-    </row>
-    <row r="19" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="75">
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+    </row>
+    <row r="19" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="71">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-    </row>
-    <row r="20" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="75">
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
+    </row>
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="71">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-    </row>
-    <row r="21" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="75">
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+    </row>
+    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="71">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="75">
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+    </row>
+    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="71">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-    </row>
-    <row r="23" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="75">
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="125"/>
+    </row>
+    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="71">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-    </row>
-    <row r="24" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="75">
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
+    </row>
+    <row r="24" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="71">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-    </row>
-    <row r="25" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="75">
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+    </row>
+    <row r="25" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="71">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-    </row>
-    <row r="26" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="77">
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="125"/>
+    </row>
+    <row r="26" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="73">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
-    </row>
-    <row r="27" spans="1:10" s="65" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="77">
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+    </row>
+    <row r="27" spans="1:10" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
-    </row>
-    <row r="28" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="77">
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+    </row>
+    <row r="28" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="73">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
-    </row>
-    <row r="29" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="77">
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="130"/>
+    </row>
+    <row r="29" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="73">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="144"/>
-    </row>
-    <row r="30" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="77">
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
+    </row>
+    <row r="30" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="73">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
-    </row>
-    <row r="31" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="77">
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
+    </row>
+    <row r="31" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="73">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
-    </row>
-    <row r="32" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="77">
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
+    </row>
+    <row r="32" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="73">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="144"/>
-    </row>
-    <row r="33" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="77">
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
+    </row>
+    <row r="33" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="73">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="144"/>
-    </row>
-    <row r="34" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="77">
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="130"/>
+    </row>
+    <row r="34" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="73">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
-    </row>
-    <row r="35" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="77">
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="130"/>
+    </row>
+    <row r="35" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="73">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="144"/>
-    </row>
-    <row r="36" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="77">
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="130"/>
+    </row>
+    <row r="36" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="73">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
-    </row>
-    <row r="37" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="77">
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="130"/>
+    </row>
+    <row r="37" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="73">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="144"/>
-    </row>
-    <row r="38" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="75">
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
+    </row>
+    <row r="38" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="71">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="146"/>
-    </row>
-    <row r="39" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="75">
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="125"/>
+    </row>
+    <row r="39" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="71">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
-    </row>
-    <row r="40" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="146"/>
-    </row>
-    <row r="41" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="146"/>
-    </row>
-    <row r="42" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
-    </row>
-    <row r="43" spans="1:10" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="68"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-    </row>
-    <row r="44" spans="1:10" s="56" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="62"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="125"/>
+    </row>
+    <row r="40" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="125"/>
+    </row>
+    <row r="41" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="125"/>
+    </row>
+    <row r="42" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="125"/>
+    </row>
+    <row r="43" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A43" s="64"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A44" s="60"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="61"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="59"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="B40:C40"/>
@@ -8183,6 +8073,84 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="4" r:id="rId1"/>
@@ -16,9 +16,11 @@
     <sheet name="city" sheetId="178" r:id="rId7"/>
     <sheet name="user" sheetId="179" r:id="rId8"/>
     <sheet name="operate_log" sheetId="180" r:id="rId9"/>
+    <sheet name="bulletins" sheetId="182" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">实体列表!$A$6:$O$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">bulletins!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">city!$A$1:$J$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">keyword_page!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">link!$A$1:$J$18</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="197">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -873,6 +875,38 @@
   </si>
   <si>
     <t>keyword_page表中增加发送邮件次数信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简报标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简报路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加简报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2594,7 +2628,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2880,6 +2914,30 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2889,15 +2947,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2907,50 +2956,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,62 +3048,20 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="138">
@@ -3462,8 +3502,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
@@ -3523,17 +3563,17 @@
       <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="110"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
       <c r="P4" s="2"/>
       <c r="Z4" s="1"/>
     </row>
@@ -3551,17 +3591,17 @@
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -3587,17 +3627,17 @@
       <c r="D6" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -3623,17 +3663,17 @@
       <c r="D7" s="15">
         <v>1.2</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -3658,17 +3698,17 @@
       <c r="D8" s="15">
         <v>1.3</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -3693,17 +3733,17 @@
       <c r="D9" s="15">
         <v>1.3</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
@@ -3728,17 +3768,17 @@
       <c r="D10" s="15">
         <v>1.4</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -3763,17 +3803,17 @@
       <c r="D11" s="15">
         <v>1.5</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -3798,17 +3838,17 @@
       <c r="D12" s="15">
         <v>1.5</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -3824,18 +3864,26 @@
       <c r="A13" s="93">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="104"/>
+      <c r="B13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
@@ -3854,15 +3902,15 @@
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="107"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="112"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -3881,15 +3929,15 @@
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="107"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="112"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -3906,15 +3954,15 @@
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="107"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="112"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -3931,15 +3979,15 @@
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="107"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -3956,15 +4004,15 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="109"/>
       <c r="P18" s="2"/>
       <c r="Z18" s="1"/>
     </row>
@@ -4255,6 +4303,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
@@ -4263,13 +4318,6 @@
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4278,1125 +4326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AS33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.75" style="1" customWidth="1"/>
-    <col min="19" max="28" width="3.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="3.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-    </row>
-    <row r="2" spans="1:45" s="22" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A2" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="32"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-    </row>
-    <row r="3" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-    </row>
-    <row r="4" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="31" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>实体列表</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-    </row>
-    <row r="5" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-    </row>
-    <row r="6" spans="1:45" ht="29.25" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-    </row>
-    <row r="7" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="79">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-    </row>
-    <row r="8" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="79">
-        <v>2</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-    </row>
-    <row r="9" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="79">
-        <v>3</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-    </row>
-    <row r="10" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="79">
-        <v>3</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-    </row>
-    <row r="11" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="79">
-        <v>4</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="112"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-    </row>
-    <row r="12" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="79">
-        <v>5</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="112"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-    </row>
-    <row r="13" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="79">
-        <v>6</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="112"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-    </row>
-    <row r="14" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="79">
-        <v>7</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-    </row>
-    <row r="15" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="117"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-    </row>
-    <row r="16" spans="1:45" s="22" customFormat="1">
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-    </row>
-    <row r="17" spans="19:28" s="22" customFormat="1">
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-    </row>
-    <row r="18" spans="19:28" s="22" customFormat="1">
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-    </row>
-    <row r="19" spans="19:28" s="22" customFormat="1">
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-    </row>
-    <row r="20" spans="19:28" s="22" customFormat="1">
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-    </row>
-    <row r="21" spans="19:28" s="22" customFormat="1">
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-    </row>
-    <row r="22" spans="19:28" s="22" customFormat="1">
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-    </row>
-    <row r="23" spans="19:28" s="22" customFormat="1">
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-    </row>
-    <row r="24" spans="19:28" s="22" customFormat="1">
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-    </row>
-    <row r="25" spans="19:28" s="22" customFormat="1">
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-    </row>
-    <row r="26" spans="19:28" s="22" customFormat="1">
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-    </row>
-    <row r="27" spans="19:28" s="22" customFormat="1">
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-    </row>
-    <row r="28" spans="19:28" s="22" customFormat="1">
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-    </row>
-    <row r="29" spans="19:28" s="22" customFormat="1">
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-    </row>
-    <row r="30" spans="19:28" s="22" customFormat="1">
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-    </row>
-    <row r="31" spans="19:28" s="22" customFormat="1">
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-    </row>
-    <row r="32" spans="19:28" s="22" customFormat="1">
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-    </row>
-    <row r="33" spans="19:28" s="22" customFormat="1">
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A6:O6">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="23">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H11:L11"/>
-  </mergeCells>
-  <phoneticPr fontId="5"/>
-  <hyperlinks>
-    <hyperlink ref="E7" location="keyword!A1" display="keyword"/>
-    <hyperlink ref="E8" location="site!A1" display="site"/>
-    <hyperlink ref="E9" location="link!A1" display="link"/>
-    <hyperlink ref="E10" location="keyword_page!A1" display="keyword_page"/>
-    <hyperlink ref="E11" location="statistics!A1" display="statistics"/>
-    <hyperlink ref="E12" location="city!A1" display="city"/>
-    <hyperlink ref="E13" location="user!A1" display="user"/>
-    <hyperlink ref="E14" location="operate_log!A1" display="operate_log"/>
-  </hyperlinks>
-  <pageMargins left="0.51" right="0.67" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="168" man="1"/>
-  </colBreaks>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="142"/>
-    </row>
-    <row r="4" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71">
-        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B5" s="122" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="122" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="122" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-    </row>
-    <row r="13" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="58"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="57"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65510:IY65548 H65510:H65548 H131046:H131084 H196582:H196620 H262118:H262156 H327654:H327692 H393190:H393228 H458726:H458764 H524262:H524300 H589798:H589836 H655334:H655372 H720870:H720908 H786406:H786444 H851942:H851980 H917478:H917516 H983014:H983052 WVK983014:WVK983052 WLO983014:WLO983052 WBS983014:WBS983052 VRW983014:VRW983052 VIA983014:VIA983052 UYE983014:UYE983052 UOI983014:UOI983052 UEM983014:UEM983052 TUQ983014:TUQ983052 TKU983014:TKU983052 TAY983014:TAY983052 SRC983014:SRC983052 SHG983014:SHG983052 RXK983014:RXK983052 RNO983014:RNO983052 RDS983014:RDS983052 QTW983014:QTW983052 QKA983014:QKA983052 QAE983014:QAE983052 PQI983014:PQI983052 PGM983014:PGM983052 OWQ983014:OWQ983052 OMU983014:OMU983052 OCY983014:OCY983052 NTC983014:NTC983052 NJG983014:NJG983052 MZK983014:MZK983052 MPO983014:MPO983052 MFS983014:MFS983052 LVW983014:LVW983052 LMA983014:LMA983052 LCE983014:LCE983052 KSI983014:KSI983052 KIM983014:KIM983052 JYQ983014:JYQ983052 JOU983014:JOU983052 JEY983014:JEY983052 IVC983014:IVC983052 ILG983014:ILG983052 IBK983014:IBK983052 HRO983014:HRO983052 HHS983014:HHS983052 GXW983014:GXW983052 GOA983014:GOA983052 GEE983014:GEE983052 FUI983014:FUI983052 FKM983014:FKM983052 FAQ983014:FAQ983052 EQU983014:EQU983052 EGY983014:EGY983052 DXC983014:DXC983052 DNG983014:DNG983052 DDK983014:DDK983052 CTO983014:CTO983052 CJS983014:CJS983052 BZW983014:BZW983052 BQA983014:BQA983052 BGE983014:BGE983052 AWI983014:AWI983052 AMM983014:AMM983052 ACQ983014:ACQ983052 SU983014:SU983052 IY983014:IY983052 WVK917478:WVK917516 WLO917478:WLO917516 WBS917478:WBS917516 VRW917478:VRW917516 VIA917478:VIA917516 UYE917478:UYE917516 UOI917478:UOI917516 UEM917478:UEM917516 TUQ917478:TUQ917516 TKU917478:TKU917516 TAY917478:TAY917516 SRC917478:SRC917516 SHG917478:SHG917516 RXK917478:RXK917516 RNO917478:RNO917516 RDS917478:RDS917516 QTW917478:QTW917516 QKA917478:QKA917516 QAE917478:QAE917516 PQI917478:PQI917516 PGM917478:PGM917516 OWQ917478:OWQ917516 OMU917478:OMU917516 OCY917478:OCY917516 NTC917478:NTC917516 NJG917478:NJG917516 MZK917478:MZK917516 MPO917478:MPO917516 MFS917478:MFS917516 LVW917478:LVW917516 LMA917478:LMA917516 LCE917478:LCE917516 KSI917478:KSI917516 KIM917478:KIM917516 JYQ917478:JYQ917516 JOU917478:JOU917516 JEY917478:JEY917516 IVC917478:IVC917516 ILG917478:ILG917516 IBK917478:IBK917516 HRO917478:HRO917516 HHS917478:HHS917516 GXW917478:GXW917516 GOA917478:GOA917516 GEE917478:GEE917516 FUI917478:FUI917516 FKM917478:FKM917516 FAQ917478:FAQ917516 EQU917478:EQU917516 EGY917478:EGY917516 DXC917478:DXC917516 DNG917478:DNG917516 DDK917478:DDK917516 CTO917478:CTO917516 CJS917478:CJS917516 BZW917478:BZW917516 BQA917478:BQA917516 BGE917478:BGE917516 AWI917478:AWI917516 AMM917478:AMM917516 ACQ917478:ACQ917516 SU917478:SU917516 IY917478:IY917516 WVK851942:WVK851980 WLO851942:WLO851980 WBS851942:WBS851980 VRW851942:VRW851980 VIA851942:VIA851980 UYE851942:UYE851980 UOI851942:UOI851980 UEM851942:UEM851980 TUQ851942:TUQ851980 TKU851942:TKU851980 TAY851942:TAY851980 SRC851942:SRC851980 SHG851942:SHG851980 RXK851942:RXK851980 RNO851942:RNO851980 RDS851942:RDS851980 QTW851942:QTW851980 QKA851942:QKA851980 QAE851942:QAE851980 PQI851942:PQI851980 PGM851942:PGM851980 OWQ851942:OWQ851980 OMU851942:OMU851980 OCY851942:OCY851980 NTC851942:NTC851980 NJG851942:NJG851980 MZK851942:MZK851980 MPO851942:MPO851980 MFS851942:MFS851980 LVW851942:LVW851980 LMA851942:LMA851980 LCE851942:LCE851980 KSI851942:KSI851980 KIM851942:KIM851980 JYQ851942:JYQ851980 JOU851942:JOU851980 JEY851942:JEY851980 IVC851942:IVC851980 ILG851942:ILG851980 IBK851942:IBK851980 HRO851942:HRO851980 HHS851942:HHS851980 GXW851942:GXW851980 GOA851942:GOA851980 GEE851942:GEE851980 FUI851942:FUI851980 FKM851942:FKM851980 FAQ851942:FAQ851980 EQU851942:EQU851980 EGY851942:EGY851980 DXC851942:DXC851980 DNG851942:DNG851980 DDK851942:DDK851980 CTO851942:CTO851980 CJS851942:CJS851980 BZW851942:BZW851980 BQA851942:BQA851980 BGE851942:BGE851980 AWI851942:AWI851980 AMM851942:AMM851980 ACQ851942:ACQ851980 SU851942:SU851980 IY851942:IY851980 WVK786406:WVK786444 WLO786406:WLO786444 WBS786406:WBS786444 VRW786406:VRW786444 VIA786406:VIA786444 UYE786406:UYE786444 UOI786406:UOI786444 UEM786406:UEM786444 TUQ786406:TUQ786444 TKU786406:TKU786444 TAY786406:TAY786444 SRC786406:SRC786444 SHG786406:SHG786444 RXK786406:RXK786444 RNO786406:RNO786444 RDS786406:RDS786444 QTW786406:QTW786444 QKA786406:QKA786444 QAE786406:QAE786444 PQI786406:PQI786444 PGM786406:PGM786444 OWQ786406:OWQ786444 OMU786406:OMU786444 OCY786406:OCY786444 NTC786406:NTC786444 NJG786406:NJG786444 MZK786406:MZK786444 MPO786406:MPO786444 MFS786406:MFS786444 LVW786406:LVW786444 LMA786406:LMA786444 LCE786406:LCE786444 KSI786406:KSI786444 KIM786406:KIM786444 JYQ786406:JYQ786444 JOU786406:JOU786444 JEY786406:JEY786444 IVC786406:IVC786444 ILG786406:ILG786444 IBK786406:IBK786444 HRO786406:HRO786444 HHS786406:HHS786444 GXW786406:GXW786444 GOA786406:GOA786444 GEE786406:GEE786444 FUI786406:FUI786444 FKM786406:FKM786444 FAQ786406:FAQ786444 EQU786406:EQU786444 EGY786406:EGY786444 DXC786406:DXC786444 DNG786406:DNG786444 DDK786406:DDK786444 CTO786406:CTO786444 CJS786406:CJS786444 BZW786406:BZW786444 BQA786406:BQA786444 BGE786406:BGE786444 AWI786406:AWI786444 AMM786406:AMM786444 ACQ786406:ACQ786444 SU786406:SU786444 IY786406:IY786444 WVK720870:WVK720908 WLO720870:WLO720908 WBS720870:WBS720908 VRW720870:VRW720908 VIA720870:VIA720908 UYE720870:UYE720908 UOI720870:UOI720908 UEM720870:UEM720908 TUQ720870:TUQ720908 TKU720870:TKU720908 TAY720870:TAY720908 SRC720870:SRC720908 SHG720870:SHG720908 RXK720870:RXK720908 RNO720870:RNO720908 RDS720870:RDS720908 QTW720870:QTW720908 QKA720870:QKA720908 QAE720870:QAE720908 PQI720870:PQI720908 PGM720870:PGM720908 OWQ720870:OWQ720908 OMU720870:OMU720908 OCY720870:OCY720908 NTC720870:NTC720908 NJG720870:NJG720908 MZK720870:MZK720908 MPO720870:MPO720908 MFS720870:MFS720908 LVW720870:LVW720908 LMA720870:LMA720908 LCE720870:LCE720908 KSI720870:KSI720908 KIM720870:KIM720908 JYQ720870:JYQ720908 JOU720870:JOU720908 JEY720870:JEY720908 IVC720870:IVC720908 ILG720870:ILG720908 IBK720870:IBK720908 HRO720870:HRO720908 HHS720870:HHS720908 GXW720870:GXW720908 GOA720870:GOA720908 GEE720870:GEE720908 FUI720870:FUI720908 FKM720870:FKM720908 FAQ720870:FAQ720908 EQU720870:EQU720908 EGY720870:EGY720908 DXC720870:DXC720908 DNG720870:DNG720908 DDK720870:DDK720908 CTO720870:CTO720908 CJS720870:CJS720908 BZW720870:BZW720908 BQA720870:BQA720908 BGE720870:BGE720908 AWI720870:AWI720908 AMM720870:AMM720908 ACQ720870:ACQ720908 SU720870:SU720908 IY720870:IY720908 WVK655334:WVK655372 WLO655334:WLO655372 WBS655334:WBS655372 VRW655334:VRW655372 VIA655334:VIA655372 UYE655334:UYE655372 UOI655334:UOI655372 UEM655334:UEM655372 TUQ655334:TUQ655372 TKU655334:TKU655372 TAY655334:TAY655372 SRC655334:SRC655372 SHG655334:SHG655372 RXK655334:RXK655372 RNO655334:RNO655372 RDS655334:RDS655372 QTW655334:QTW655372 QKA655334:QKA655372 QAE655334:QAE655372 PQI655334:PQI655372 PGM655334:PGM655372 OWQ655334:OWQ655372 OMU655334:OMU655372 OCY655334:OCY655372 NTC655334:NTC655372 NJG655334:NJG655372 MZK655334:MZK655372 MPO655334:MPO655372 MFS655334:MFS655372 LVW655334:LVW655372 LMA655334:LMA655372 LCE655334:LCE655372 KSI655334:KSI655372 KIM655334:KIM655372 JYQ655334:JYQ655372 JOU655334:JOU655372 JEY655334:JEY655372 IVC655334:IVC655372 ILG655334:ILG655372 IBK655334:IBK655372 HRO655334:HRO655372 HHS655334:HHS655372 GXW655334:GXW655372 GOA655334:GOA655372 GEE655334:GEE655372 FUI655334:FUI655372 FKM655334:FKM655372 FAQ655334:FAQ655372 EQU655334:EQU655372 EGY655334:EGY655372 DXC655334:DXC655372 DNG655334:DNG655372 DDK655334:DDK655372 CTO655334:CTO655372 CJS655334:CJS655372 BZW655334:BZW655372 BQA655334:BQA655372 BGE655334:BGE655372 AWI655334:AWI655372 AMM655334:AMM655372 ACQ655334:ACQ655372 SU655334:SU655372 IY655334:IY655372 WVK589798:WVK589836 WLO589798:WLO589836 WBS589798:WBS589836 VRW589798:VRW589836 VIA589798:VIA589836 UYE589798:UYE589836 UOI589798:UOI589836 UEM589798:UEM589836 TUQ589798:TUQ589836 TKU589798:TKU589836 TAY589798:TAY589836 SRC589798:SRC589836 SHG589798:SHG589836 RXK589798:RXK589836 RNO589798:RNO589836 RDS589798:RDS589836 QTW589798:QTW589836 QKA589798:QKA589836 QAE589798:QAE589836 PQI589798:PQI589836 PGM589798:PGM589836 OWQ589798:OWQ589836 OMU589798:OMU589836 OCY589798:OCY589836 NTC589798:NTC589836 NJG589798:NJG589836 MZK589798:MZK589836 MPO589798:MPO589836 MFS589798:MFS589836 LVW589798:LVW589836 LMA589798:LMA589836 LCE589798:LCE589836 KSI589798:KSI589836 KIM589798:KIM589836 JYQ589798:JYQ589836 JOU589798:JOU589836 JEY589798:JEY589836 IVC589798:IVC589836 ILG589798:ILG589836 IBK589798:IBK589836 HRO589798:HRO589836 HHS589798:HHS589836 GXW589798:GXW589836 GOA589798:GOA589836 GEE589798:GEE589836 FUI589798:FUI589836 FKM589798:FKM589836 FAQ589798:FAQ589836 EQU589798:EQU589836 EGY589798:EGY589836 DXC589798:DXC589836 DNG589798:DNG589836 DDK589798:DDK589836 CTO589798:CTO589836 CJS589798:CJS589836 BZW589798:BZW589836 BQA589798:BQA589836 BGE589798:BGE589836 AWI589798:AWI589836 AMM589798:AMM589836 ACQ589798:ACQ589836 SU589798:SU589836 IY589798:IY589836 WVK524262:WVK524300 WLO524262:WLO524300 WBS524262:WBS524300 VRW524262:VRW524300 VIA524262:VIA524300 UYE524262:UYE524300 UOI524262:UOI524300 UEM524262:UEM524300 TUQ524262:TUQ524300 TKU524262:TKU524300 TAY524262:TAY524300 SRC524262:SRC524300 SHG524262:SHG524300 RXK524262:RXK524300 RNO524262:RNO524300 RDS524262:RDS524300 QTW524262:QTW524300 QKA524262:QKA524300 QAE524262:QAE524300 PQI524262:PQI524300 PGM524262:PGM524300 OWQ524262:OWQ524300 OMU524262:OMU524300 OCY524262:OCY524300 NTC524262:NTC524300 NJG524262:NJG524300 MZK524262:MZK524300 MPO524262:MPO524300 MFS524262:MFS524300 LVW524262:LVW524300 LMA524262:LMA524300 LCE524262:LCE524300 KSI524262:KSI524300 KIM524262:KIM524300 JYQ524262:JYQ524300 JOU524262:JOU524300 JEY524262:JEY524300 IVC524262:IVC524300 ILG524262:ILG524300 IBK524262:IBK524300 HRO524262:HRO524300 HHS524262:HHS524300 GXW524262:GXW524300 GOA524262:GOA524300 GEE524262:GEE524300 FUI524262:FUI524300 FKM524262:FKM524300 FAQ524262:FAQ524300 EQU524262:EQU524300 EGY524262:EGY524300 DXC524262:DXC524300 DNG524262:DNG524300 DDK524262:DDK524300 CTO524262:CTO524300 CJS524262:CJS524300 BZW524262:BZW524300 BQA524262:BQA524300 BGE524262:BGE524300 AWI524262:AWI524300 AMM524262:AMM524300 ACQ524262:ACQ524300 SU524262:SU524300 IY524262:IY524300 WVK458726:WVK458764 WLO458726:WLO458764 WBS458726:WBS458764 VRW458726:VRW458764 VIA458726:VIA458764 UYE458726:UYE458764 UOI458726:UOI458764 UEM458726:UEM458764 TUQ458726:TUQ458764 TKU458726:TKU458764 TAY458726:TAY458764 SRC458726:SRC458764 SHG458726:SHG458764 RXK458726:RXK458764 RNO458726:RNO458764 RDS458726:RDS458764 QTW458726:QTW458764 QKA458726:QKA458764 QAE458726:QAE458764 PQI458726:PQI458764 PGM458726:PGM458764 OWQ458726:OWQ458764 OMU458726:OMU458764 OCY458726:OCY458764 NTC458726:NTC458764 NJG458726:NJG458764 MZK458726:MZK458764 MPO458726:MPO458764 MFS458726:MFS458764 LVW458726:LVW458764 LMA458726:LMA458764 LCE458726:LCE458764 KSI458726:KSI458764 KIM458726:KIM458764 JYQ458726:JYQ458764 JOU458726:JOU458764 JEY458726:JEY458764 IVC458726:IVC458764 ILG458726:ILG458764 IBK458726:IBK458764 HRO458726:HRO458764 HHS458726:HHS458764 GXW458726:GXW458764 GOA458726:GOA458764 GEE458726:GEE458764 FUI458726:FUI458764 FKM458726:FKM458764 FAQ458726:FAQ458764 EQU458726:EQU458764 EGY458726:EGY458764 DXC458726:DXC458764 DNG458726:DNG458764 DDK458726:DDK458764 CTO458726:CTO458764 CJS458726:CJS458764 BZW458726:BZW458764 BQA458726:BQA458764 BGE458726:BGE458764 AWI458726:AWI458764 AMM458726:AMM458764 ACQ458726:ACQ458764 SU458726:SU458764 IY458726:IY458764 WVK393190:WVK393228 WLO393190:WLO393228 WBS393190:WBS393228 VRW393190:VRW393228 VIA393190:VIA393228 UYE393190:UYE393228 UOI393190:UOI393228 UEM393190:UEM393228 TUQ393190:TUQ393228 TKU393190:TKU393228 TAY393190:TAY393228 SRC393190:SRC393228 SHG393190:SHG393228 RXK393190:RXK393228 RNO393190:RNO393228 RDS393190:RDS393228 QTW393190:QTW393228 QKA393190:QKA393228 QAE393190:QAE393228 PQI393190:PQI393228 PGM393190:PGM393228 OWQ393190:OWQ393228 OMU393190:OMU393228 OCY393190:OCY393228 NTC393190:NTC393228 NJG393190:NJG393228 MZK393190:MZK393228 MPO393190:MPO393228 MFS393190:MFS393228 LVW393190:LVW393228 LMA393190:LMA393228 LCE393190:LCE393228 KSI393190:KSI393228 KIM393190:KIM393228 JYQ393190:JYQ393228 JOU393190:JOU393228 JEY393190:JEY393228 IVC393190:IVC393228 ILG393190:ILG393228 IBK393190:IBK393228 HRO393190:HRO393228 HHS393190:HHS393228 GXW393190:GXW393228 GOA393190:GOA393228 GEE393190:GEE393228 FUI393190:FUI393228 FKM393190:FKM393228 FAQ393190:FAQ393228 EQU393190:EQU393228 EGY393190:EGY393228 DXC393190:DXC393228 DNG393190:DNG393228 DDK393190:DDK393228 CTO393190:CTO393228 CJS393190:CJS393228 BZW393190:BZW393228 BQA393190:BQA393228 BGE393190:BGE393228 AWI393190:AWI393228 AMM393190:AMM393228 ACQ393190:ACQ393228 SU393190:SU393228 IY393190:IY393228 WVK327654:WVK327692 WLO327654:WLO327692 WBS327654:WBS327692 VRW327654:VRW327692 VIA327654:VIA327692 UYE327654:UYE327692 UOI327654:UOI327692 UEM327654:UEM327692 TUQ327654:TUQ327692 TKU327654:TKU327692 TAY327654:TAY327692 SRC327654:SRC327692 SHG327654:SHG327692 RXK327654:RXK327692 RNO327654:RNO327692 RDS327654:RDS327692 QTW327654:QTW327692 QKA327654:QKA327692 QAE327654:QAE327692 PQI327654:PQI327692 PGM327654:PGM327692 OWQ327654:OWQ327692 OMU327654:OMU327692 OCY327654:OCY327692 NTC327654:NTC327692 NJG327654:NJG327692 MZK327654:MZK327692 MPO327654:MPO327692 MFS327654:MFS327692 LVW327654:LVW327692 LMA327654:LMA327692 LCE327654:LCE327692 KSI327654:KSI327692 KIM327654:KIM327692 JYQ327654:JYQ327692 JOU327654:JOU327692 JEY327654:JEY327692 IVC327654:IVC327692 ILG327654:ILG327692 IBK327654:IBK327692 HRO327654:HRO327692 HHS327654:HHS327692 GXW327654:GXW327692 GOA327654:GOA327692 GEE327654:GEE327692 FUI327654:FUI327692 FKM327654:FKM327692 FAQ327654:FAQ327692 EQU327654:EQU327692 EGY327654:EGY327692 DXC327654:DXC327692 DNG327654:DNG327692 DDK327654:DDK327692 CTO327654:CTO327692 CJS327654:CJS327692 BZW327654:BZW327692 BQA327654:BQA327692 BGE327654:BGE327692 AWI327654:AWI327692 AMM327654:AMM327692 ACQ327654:ACQ327692 SU327654:SU327692 IY327654:IY327692 WVK262118:WVK262156 WLO262118:WLO262156 WBS262118:WBS262156 VRW262118:VRW262156 VIA262118:VIA262156 UYE262118:UYE262156 UOI262118:UOI262156 UEM262118:UEM262156 TUQ262118:TUQ262156 TKU262118:TKU262156 TAY262118:TAY262156 SRC262118:SRC262156 SHG262118:SHG262156 RXK262118:RXK262156 RNO262118:RNO262156 RDS262118:RDS262156 QTW262118:QTW262156 QKA262118:QKA262156 QAE262118:QAE262156 PQI262118:PQI262156 PGM262118:PGM262156 OWQ262118:OWQ262156 OMU262118:OMU262156 OCY262118:OCY262156 NTC262118:NTC262156 NJG262118:NJG262156 MZK262118:MZK262156 MPO262118:MPO262156 MFS262118:MFS262156 LVW262118:LVW262156 LMA262118:LMA262156 LCE262118:LCE262156 KSI262118:KSI262156 KIM262118:KIM262156 JYQ262118:JYQ262156 JOU262118:JOU262156 JEY262118:JEY262156 IVC262118:IVC262156 ILG262118:ILG262156 IBK262118:IBK262156 HRO262118:HRO262156 HHS262118:HHS262156 GXW262118:GXW262156 GOA262118:GOA262156 GEE262118:GEE262156 FUI262118:FUI262156 FKM262118:FKM262156 FAQ262118:FAQ262156 EQU262118:EQU262156 EGY262118:EGY262156 DXC262118:DXC262156 DNG262118:DNG262156 DDK262118:DDK262156 CTO262118:CTO262156 CJS262118:CJS262156 BZW262118:BZW262156 BQA262118:BQA262156 BGE262118:BGE262156 AWI262118:AWI262156 AMM262118:AMM262156 ACQ262118:ACQ262156 SU262118:SU262156 IY262118:IY262156 WVK196582:WVK196620 WLO196582:WLO196620 WBS196582:WBS196620 VRW196582:VRW196620 VIA196582:VIA196620 UYE196582:UYE196620 UOI196582:UOI196620 UEM196582:UEM196620 TUQ196582:TUQ196620 TKU196582:TKU196620 TAY196582:TAY196620 SRC196582:SRC196620 SHG196582:SHG196620 RXK196582:RXK196620 RNO196582:RNO196620 RDS196582:RDS196620 QTW196582:QTW196620 QKA196582:QKA196620 QAE196582:QAE196620 PQI196582:PQI196620 PGM196582:PGM196620 OWQ196582:OWQ196620 OMU196582:OMU196620 OCY196582:OCY196620 NTC196582:NTC196620 NJG196582:NJG196620 MZK196582:MZK196620 MPO196582:MPO196620 MFS196582:MFS196620 LVW196582:LVW196620 LMA196582:LMA196620 LCE196582:LCE196620 KSI196582:KSI196620 KIM196582:KIM196620 JYQ196582:JYQ196620 JOU196582:JOU196620 JEY196582:JEY196620 IVC196582:IVC196620 ILG196582:ILG196620 IBK196582:IBK196620 HRO196582:HRO196620 HHS196582:HHS196620 GXW196582:GXW196620 GOA196582:GOA196620 GEE196582:GEE196620 FUI196582:FUI196620 FKM196582:FKM196620 FAQ196582:FAQ196620 EQU196582:EQU196620 EGY196582:EGY196620 DXC196582:DXC196620 DNG196582:DNG196620 DDK196582:DDK196620 CTO196582:CTO196620 CJS196582:CJS196620 BZW196582:BZW196620 BQA196582:BQA196620 BGE196582:BGE196620 AWI196582:AWI196620 AMM196582:AMM196620 ACQ196582:ACQ196620 SU196582:SU196620 IY196582:IY196620 WVK131046:WVK131084 WLO131046:WLO131084 WBS131046:WBS131084 VRW131046:VRW131084 VIA131046:VIA131084 UYE131046:UYE131084 UOI131046:UOI131084 UEM131046:UEM131084 TUQ131046:TUQ131084 TKU131046:TKU131084 TAY131046:TAY131084 SRC131046:SRC131084 SHG131046:SHG131084 RXK131046:RXK131084 RNO131046:RNO131084 RDS131046:RDS131084 QTW131046:QTW131084 QKA131046:QKA131084 QAE131046:QAE131084 PQI131046:PQI131084 PGM131046:PGM131084 OWQ131046:OWQ131084 OMU131046:OMU131084 OCY131046:OCY131084 NTC131046:NTC131084 NJG131046:NJG131084 MZK131046:MZK131084 MPO131046:MPO131084 MFS131046:MFS131084 LVW131046:LVW131084 LMA131046:LMA131084 LCE131046:LCE131084 KSI131046:KSI131084 KIM131046:KIM131084 JYQ131046:JYQ131084 JOU131046:JOU131084 JEY131046:JEY131084 IVC131046:IVC131084 ILG131046:ILG131084 IBK131046:IBK131084 HRO131046:HRO131084 HHS131046:HHS131084 GXW131046:GXW131084 GOA131046:GOA131084 GEE131046:GEE131084 FUI131046:FUI131084 FKM131046:FKM131084 FAQ131046:FAQ131084 EQU131046:EQU131084 EGY131046:EGY131084 DXC131046:DXC131084 DNG131046:DNG131084 DDK131046:DDK131084 CTO131046:CTO131084 CJS131046:CJS131084 BZW131046:BZW131084 BQA131046:BQA131084 BGE131046:BGE131084 AWI131046:AWI131084 AMM131046:AMM131084 ACQ131046:ACQ131084 SU131046:SU131084 IY131046:IY131084 WVK65510:WVK65548 WLO65510:WLO65548 WBS65510:WBS65548 VRW65510:VRW65548 VIA65510:VIA65548 UYE65510:UYE65548 UOI65510:UOI65548 UEM65510:UEM65548 TUQ65510:TUQ65548 TKU65510:TKU65548 TAY65510:TAY65548 SRC65510:SRC65548 SHG65510:SHG65548 RXK65510:RXK65548 RNO65510:RNO65548 RDS65510:RDS65548 QTW65510:QTW65548 QKA65510:QKA65548 QAE65510:QAE65548 PQI65510:PQI65548 PGM65510:PGM65548 OWQ65510:OWQ65548 OMU65510:OMU65548 OCY65510:OCY65548 NTC65510:NTC65548 NJG65510:NJG65548 MZK65510:MZK65548 MPO65510:MPO65548 MFS65510:MFS65548 LVW65510:LVW65548 LMA65510:LMA65548 LCE65510:LCE65548 KSI65510:KSI65548 KIM65510:KIM65548 JYQ65510:JYQ65548 JOU65510:JOU65548 JEY65510:JEY65548 IVC65510:IVC65548 ILG65510:ILG65548 IBK65510:IBK65548 HRO65510:HRO65548 HHS65510:HHS65548 GXW65510:GXW65548 GOA65510:GOA65548 GEE65510:GEE65548 FUI65510:FUI65548 FKM65510:FKM65548 FAQ65510:FAQ65548 EQU65510:EQU65548 EGY65510:EGY65548 DXC65510:DXC65548 DNG65510:DNG65548 DDK65510:DDK65548 CTO65510:CTO65548 CJS65510:CJS65548 BZW65510:BZW65548 BQA65510:BQA65548 BGE65510:BGE65548 AWI65510:AWI65548 AMM65510:AMM65548 ACQ65510:ACQ65548 SU65510:SU65548 H4:H12 WVK4:WVK12 WLO4:WLO12 WBS4:WBS12 VRW4:VRW12 VIA4:VIA12 UYE4:UYE12 UOI4:UOI12 UEM4:UEM12 TUQ4:TUQ12 TKU4:TKU12 TAY4:TAY12 SRC4:SRC12 SHG4:SHG12 RXK4:RXK12 RNO4:RNO12 RDS4:RDS12 QTW4:QTW12 QKA4:QKA12 QAE4:QAE12 PQI4:PQI12 PGM4:PGM12 OWQ4:OWQ12 OMU4:OMU12 OCY4:OCY12 NTC4:NTC12 NJG4:NJG12 MZK4:MZK12 MPO4:MPO12 MFS4:MFS12 LVW4:LVW12 LMA4:LMA12 LCE4:LCE12 KSI4:KSI12 KIM4:KIM12 JYQ4:JYQ12 JOU4:JOU12 JEY4:JEY12 IVC4:IVC12 ILG4:ILG12 IBK4:IBK12 HRO4:HRO12 HHS4:HHS12 GXW4:GXW12 GOA4:GOA12 GEE4:GEE12 FUI4:FUI12 FKM4:FKM12 FAQ4:FAQ12 EQU4:EQU12 EGY4:EGY12 DXC4:DXC12 DNG4:DNG12 DDK4:DDK12 CTO4:CTO12 CJS4:CJS12 BZW4:BZW12 BQA4:BQA12 BGE4:BGE12 AWI4:AWI12 AMM4:AMM12 ACQ4:ACQ12 SU4:SU12 IY4:IY12">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5415,55 +4350,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="135" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
@@ -5476,2568 +4411,606 @@
       <c r="G4" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="141" t="s">
+      <c r="I4" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="142"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
+        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
+        <v>-2</v>
       </c>
       <c r="B5" s="147" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="147"/>
       <c r="D5" s="76" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E5" s="70"/>
       <c r="F5" s="70"/>
       <c r="G5" s="86"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="71">
-        <f t="shared" ref="A6:A22" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="128"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="144"/>
       <c r="D7" s="68" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="66"/>
       <c r="H7" s="65"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-    </row>
-    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="128"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="144"/>
       <c r="D8" s="68" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="66"/>
       <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="71">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="128"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="144"/>
       <c r="D9" s="68" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="66"/>
       <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="71">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68" t="s">
-        <v>88</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="G10" s="86"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="71">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="68" t="s">
-        <v>158</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="66"/>
       <c r="H11" s="65"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="71">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="68" t="s">
-        <v>157</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="66"/>
       <c r="H12" s="65"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="71">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="68" t="s">
-        <v>118</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="66"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="71">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="68" t="s">
-        <v>127</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="66"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="71">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="68" t="s">
-        <v>89</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="66"/>
       <c r="H15" s="65"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-    </row>
-    <row r="16" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="71">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="128" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="71">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="128" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
-    </row>
-    <row r="18" spans="1:10" s="61" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A18" s="71">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="125"/>
-    </row>
-    <row r="19" spans="1:10" s="61" customFormat="1" ht="39" customHeight="1">
-      <c r="A19" s="71">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="125"/>
-    </row>
-    <row r="20" spans="1:10" s="61" customFormat="1" ht="42" customHeight="1">
-      <c r="A20" s="71">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="125"/>
-    </row>
-    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="71">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-    </row>
-    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="71">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="124" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="125"/>
-    </row>
-    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-    </row>
-    <row r="24" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="57"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65521:IY65559 H65521:H65559 H131057:H131095 H196593:H196631 H262129:H262167 H327665:H327703 H393201:H393239 H458737:H458775 H524273:H524311 H589809:H589847 H655345:H655383 H720881:H720919 H786417:H786455 H851953:H851991 H917489:H917527 H983025:H983063 SU65521:SU65559 WVK983025:WVK983063 WLO983025:WLO983063 WBS983025:WBS983063 VRW983025:VRW983063 VIA983025:VIA983063 UYE983025:UYE983063 UOI983025:UOI983063 UEM983025:UEM983063 TUQ983025:TUQ983063 TKU983025:TKU983063 TAY983025:TAY983063 SRC983025:SRC983063 SHG983025:SHG983063 RXK983025:RXK983063 RNO983025:RNO983063 RDS983025:RDS983063 QTW983025:QTW983063 QKA983025:QKA983063 QAE983025:QAE983063 PQI983025:PQI983063 PGM983025:PGM983063 OWQ983025:OWQ983063 OMU983025:OMU983063 OCY983025:OCY983063 NTC983025:NTC983063 NJG983025:NJG983063 MZK983025:MZK983063 MPO983025:MPO983063 MFS983025:MFS983063 LVW983025:LVW983063 LMA983025:LMA983063 LCE983025:LCE983063 KSI983025:KSI983063 KIM983025:KIM983063 JYQ983025:JYQ983063 JOU983025:JOU983063 JEY983025:JEY983063 IVC983025:IVC983063 ILG983025:ILG983063 IBK983025:IBK983063 HRO983025:HRO983063 HHS983025:HHS983063 GXW983025:GXW983063 GOA983025:GOA983063 GEE983025:GEE983063 FUI983025:FUI983063 FKM983025:FKM983063 FAQ983025:FAQ983063 EQU983025:EQU983063 EGY983025:EGY983063 DXC983025:DXC983063 DNG983025:DNG983063 DDK983025:DDK983063 CTO983025:CTO983063 CJS983025:CJS983063 BZW983025:BZW983063 BQA983025:BQA983063 BGE983025:BGE983063 AWI983025:AWI983063 AMM983025:AMM983063 ACQ983025:ACQ983063 SU983025:SU983063 IY983025:IY983063 WVK917489:WVK917527 WLO917489:WLO917527 WBS917489:WBS917527 VRW917489:VRW917527 VIA917489:VIA917527 UYE917489:UYE917527 UOI917489:UOI917527 UEM917489:UEM917527 TUQ917489:TUQ917527 TKU917489:TKU917527 TAY917489:TAY917527 SRC917489:SRC917527 SHG917489:SHG917527 RXK917489:RXK917527 RNO917489:RNO917527 RDS917489:RDS917527 QTW917489:QTW917527 QKA917489:QKA917527 QAE917489:QAE917527 PQI917489:PQI917527 PGM917489:PGM917527 OWQ917489:OWQ917527 OMU917489:OMU917527 OCY917489:OCY917527 NTC917489:NTC917527 NJG917489:NJG917527 MZK917489:MZK917527 MPO917489:MPO917527 MFS917489:MFS917527 LVW917489:LVW917527 LMA917489:LMA917527 LCE917489:LCE917527 KSI917489:KSI917527 KIM917489:KIM917527 JYQ917489:JYQ917527 JOU917489:JOU917527 JEY917489:JEY917527 IVC917489:IVC917527 ILG917489:ILG917527 IBK917489:IBK917527 HRO917489:HRO917527 HHS917489:HHS917527 GXW917489:GXW917527 GOA917489:GOA917527 GEE917489:GEE917527 FUI917489:FUI917527 FKM917489:FKM917527 FAQ917489:FAQ917527 EQU917489:EQU917527 EGY917489:EGY917527 DXC917489:DXC917527 DNG917489:DNG917527 DDK917489:DDK917527 CTO917489:CTO917527 CJS917489:CJS917527 BZW917489:BZW917527 BQA917489:BQA917527 BGE917489:BGE917527 AWI917489:AWI917527 AMM917489:AMM917527 ACQ917489:ACQ917527 SU917489:SU917527 IY917489:IY917527 WVK851953:WVK851991 WLO851953:WLO851991 WBS851953:WBS851991 VRW851953:VRW851991 VIA851953:VIA851991 UYE851953:UYE851991 UOI851953:UOI851991 UEM851953:UEM851991 TUQ851953:TUQ851991 TKU851953:TKU851991 TAY851953:TAY851991 SRC851953:SRC851991 SHG851953:SHG851991 RXK851953:RXK851991 RNO851953:RNO851991 RDS851953:RDS851991 QTW851953:QTW851991 QKA851953:QKA851991 QAE851953:QAE851991 PQI851953:PQI851991 PGM851953:PGM851991 OWQ851953:OWQ851991 OMU851953:OMU851991 OCY851953:OCY851991 NTC851953:NTC851991 NJG851953:NJG851991 MZK851953:MZK851991 MPO851953:MPO851991 MFS851953:MFS851991 LVW851953:LVW851991 LMA851953:LMA851991 LCE851953:LCE851991 KSI851953:KSI851991 KIM851953:KIM851991 JYQ851953:JYQ851991 JOU851953:JOU851991 JEY851953:JEY851991 IVC851953:IVC851991 ILG851953:ILG851991 IBK851953:IBK851991 HRO851953:HRO851991 HHS851953:HHS851991 GXW851953:GXW851991 GOA851953:GOA851991 GEE851953:GEE851991 FUI851953:FUI851991 FKM851953:FKM851991 FAQ851953:FAQ851991 EQU851953:EQU851991 EGY851953:EGY851991 DXC851953:DXC851991 DNG851953:DNG851991 DDK851953:DDK851991 CTO851953:CTO851991 CJS851953:CJS851991 BZW851953:BZW851991 BQA851953:BQA851991 BGE851953:BGE851991 AWI851953:AWI851991 AMM851953:AMM851991 ACQ851953:ACQ851991 SU851953:SU851991 IY851953:IY851991 WVK786417:WVK786455 WLO786417:WLO786455 WBS786417:WBS786455 VRW786417:VRW786455 VIA786417:VIA786455 UYE786417:UYE786455 UOI786417:UOI786455 UEM786417:UEM786455 TUQ786417:TUQ786455 TKU786417:TKU786455 TAY786417:TAY786455 SRC786417:SRC786455 SHG786417:SHG786455 RXK786417:RXK786455 RNO786417:RNO786455 RDS786417:RDS786455 QTW786417:QTW786455 QKA786417:QKA786455 QAE786417:QAE786455 PQI786417:PQI786455 PGM786417:PGM786455 OWQ786417:OWQ786455 OMU786417:OMU786455 OCY786417:OCY786455 NTC786417:NTC786455 NJG786417:NJG786455 MZK786417:MZK786455 MPO786417:MPO786455 MFS786417:MFS786455 LVW786417:LVW786455 LMA786417:LMA786455 LCE786417:LCE786455 KSI786417:KSI786455 KIM786417:KIM786455 JYQ786417:JYQ786455 JOU786417:JOU786455 JEY786417:JEY786455 IVC786417:IVC786455 ILG786417:ILG786455 IBK786417:IBK786455 HRO786417:HRO786455 HHS786417:HHS786455 GXW786417:GXW786455 GOA786417:GOA786455 GEE786417:GEE786455 FUI786417:FUI786455 FKM786417:FKM786455 FAQ786417:FAQ786455 EQU786417:EQU786455 EGY786417:EGY786455 DXC786417:DXC786455 DNG786417:DNG786455 DDK786417:DDK786455 CTO786417:CTO786455 CJS786417:CJS786455 BZW786417:BZW786455 BQA786417:BQA786455 BGE786417:BGE786455 AWI786417:AWI786455 AMM786417:AMM786455 ACQ786417:ACQ786455 SU786417:SU786455 IY786417:IY786455 WVK720881:WVK720919 WLO720881:WLO720919 WBS720881:WBS720919 VRW720881:VRW720919 VIA720881:VIA720919 UYE720881:UYE720919 UOI720881:UOI720919 UEM720881:UEM720919 TUQ720881:TUQ720919 TKU720881:TKU720919 TAY720881:TAY720919 SRC720881:SRC720919 SHG720881:SHG720919 RXK720881:RXK720919 RNO720881:RNO720919 RDS720881:RDS720919 QTW720881:QTW720919 QKA720881:QKA720919 QAE720881:QAE720919 PQI720881:PQI720919 PGM720881:PGM720919 OWQ720881:OWQ720919 OMU720881:OMU720919 OCY720881:OCY720919 NTC720881:NTC720919 NJG720881:NJG720919 MZK720881:MZK720919 MPO720881:MPO720919 MFS720881:MFS720919 LVW720881:LVW720919 LMA720881:LMA720919 LCE720881:LCE720919 KSI720881:KSI720919 KIM720881:KIM720919 JYQ720881:JYQ720919 JOU720881:JOU720919 JEY720881:JEY720919 IVC720881:IVC720919 ILG720881:ILG720919 IBK720881:IBK720919 HRO720881:HRO720919 HHS720881:HHS720919 GXW720881:GXW720919 GOA720881:GOA720919 GEE720881:GEE720919 FUI720881:FUI720919 FKM720881:FKM720919 FAQ720881:FAQ720919 EQU720881:EQU720919 EGY720881:EGY720919 DXC720881:DXC720919 DNG720881:DNG720919 DDK720881:DDK720919 CTO720881:CTO720919 CJS720881:CJS720919 BZW720881:BZW720919 BQA720881:BQA720919 BGE720881:BGE720919 AWI720881:AWI720919 AMM720881:AMM720919 ACQ720881:ACQ720919 SU720881:SU720919 IY720881:IY720919 WVK655345:WVK655383 WLO655345:WLO655383 WBS655345:WBS655383 VRW655345:VRW655383 VIA655345:VIA655383 UYE655345:UYE655383 UOI655345:UOI655383 UEM655345:UEM655383 TUQ655345:TUQ655383 TKU655345:TKU655383 TAY655345:TAY655383 SRC655345:SRC655383 SHG655345:SHG655383 RXK655345:RXK655383 RNO655345:RNO655383 RDS655345:RDS655383 QTW655345:QTW655383 QKA655345:QKA655383 QAE655345:QAE655383 PQI655345:PQI655383 PGM655345:PGM655383 OWQ655345:OWQ655383 OMU655345:OMU655383 OCY655345:OCY655383 NTC655345:NTC655383 NJG655345:NJG655383 MZK655345:MZK655383 MPO655345:MPO655383 MFS655345:MFS655383 LVW655345:LVW655383 LMA655345:LMA655383 LCE655345:LCE655383 KSI655345:KSI655383 KIM655345:KIM655383 JYQ655345:JYQ655383 JOU655345:JOU655383 JEY655345:JEY655383 IVC655345:IVC655383 ILG655345:ILG655383 IBK655345:IBK655383 HRO655345:HRO655383 HHS655345:HHS655383 GXW655345:GXW655383 GOA655345:GOA655383 GEE655345:GEE655383 FUI655345:FUI655383 FKM655345:FKM655383 FAQ655345:FAQ655383 EQU655345:EQU655383 EGY655345:EGY655383 DXC655345:DXC655383 DNG655345:DNG655383 DDK655345:DDK655383 CTO655345:CTO655383 CJS655345:CJS655383 BZW655345:BZW655383 BQA655345:BQA655383 BGE655345:BGE655383 AWI655345:AWI655383 AMM655345:AMM655383 ACQ655345:ACQ655383 SU655345:SU655383 IY655345:IY655383 WVK589809:WVK589847 WLO589809:WLO589847 WBS589809:WBS589847 VRW589809:VRW589847 VIA589809:VIA589847 UYE589809:UYE589847 UOI589809:UOI589847 UEM589809:UEM589847 TUQ589809:TUQ589847 TKU589809:TKU589847 TAY589809:TAY589847 SRC589809:SRC589847 SHG589809:SHG589847 RXK589809:RXK589847 RNO589809:RNO589847 RDS589809:RDS589847 QTW589809:QTW589847 QKA589809:QKA589847 QAE589809:QAE589847 PQI589809:PQI589847 PGM589809:PGM589847 OWQ589809:OWQ589847 OMU589809:OMU589847 OCY589809:OCY589847 NTC589809:NTC589847 NJG589809:NJG589847 MZK589809:MZK589847 MPO589809:MPO589847 MFS589809:MFS589847 LVW589809:LVW589847 LMA589809:LMA589847 LCE589809:LCE589847 KSI589809:KSI589847 KIM589809:KIM589847 JYQ589809:JYQ589847 JOU589809:JOU589847 JEY589809:JEY589847 IVC589809:IVC589847 ILG589809:ILG589847 IBK589809:IBK589847 HRO589809:HRO589847 HHS589809:HHS589847 GXW589809:GXW589847 GOA589809:GOA589847 GEE589809:GEE589847 FUI589809:FUI589847 FKM589809:FKM589847 FAQ589809:FAQ589847 EQU589809:EQU589847 EGY589809:EGY589847 DXC589809:DXC589847 DNG589809:DNG589847 DDK589809:DDK589847 CTO589809:CTO589847 CJS589809:CJS589847 BZW589809:BZW589847 BQA589809:BQA589847 BGE589809:BGE589847 AWI589809:AWI589847 AMM589809:AMM589847 ACQ589809:ACQ589847 SU589809:SU589847 IY589809:IY589847 WVK524273:WVK524311 WLO524273:WLO524311 WBS524273:WBS524311 VRW524273:VRW524311 VIA524273:VIA524311 UYE524273:UYE524311 UOI524273:UOI524311 UEM524273:UEM524311 TUQ524273:TUQ524311 TKU524273:TKU524311 TAY524273:TAY524311 SRC524273:SRC524311 SHG524273:SHG524311 RXK524273:RXK524311 RNO524273:RNO524311 RDS524273:RDS524311 QTW524273:QTW524311 QKA524273:QKA524311 QAE524273:QAE524311 PQI524273:PQI524311 PGM524273:PGM524311 OWQ524273:OWQ524311 OMU524273:OMU524311 OCY524273:OCY524311 NTC524273:NTC524311 NJG524273:NJG524311 MZK524273:MZK524311 MPO524273:MPO524311 MFS524273:MFS524311 LVW524273:LVW524311 LMA524273:LMA524311 LCE524273:LCE524311 KSI524273:KSI524311 KIM524273:KIM524311 JYQ524273:JYQ524311 JOU524273:JOU524311 JEY524273:JEY524311 IVC524273:IVC524311 ILG524273:ILG524311 IBK524273:IBK524311 HRO524273:HRO524311 HHS524273:HHS524311 GXW524273:GXW524311 GOA524273:GOA524311 GEE524273:GEE524311 FUI524273:FUI524311 FKM524273:FKM524311 FAQ524273:FAQ524311 EQU524273:EQU524311 EGY524273:EGY524311 DXC524273:DXC524311 DNG524273:DNG524311 DDK524273:DDK524311 CTO524273:CTO524311 CJS524273:CJS524311 BZW524273:BZW524311 BQA524273:BQA524311 BGE524273:BGE524311 AWI524273:AWI524311 AMM524273:AMM524311 ACQ524273:ACQ524311 SU524273:SU524311 IY524273:IY524311 WVK458737:WVK458775 WLO458737:WLO458775 WBS458737:WBS458775 VRW458737:VRW458775 VIA458737:VIA458775 UYE458737:UYE458775 UOI458737:UOI458775 UEM458737:UEM458775 TUQ458737:TUQ458775 TKU458737:TKU458775 TAY458737:TAY458775 SRC458737:SRC458775 SHG458737:SHG458775 RXK458737:RXK458775 RNO458737:RNO458775 RDS458737:RDS458775 QTW458737:QTW458775 QKA458737:QKA458775 QAE458737:QAE458775 PQI458737:PQI458775 PGM458737:PGM458775 OWQ458737:OWQ458775 OMU458737:OMU458775 OCY458737:OCY458775 NTC458737:NTC458775 NJG458737:NJG458775 MZK458737:MZK458775 MPO458737:MPO458775 MFS458737:MFS458775 LVW458737:LVW458775 LMA458737:LMA458775 LCE458737:LCE458775 KSI458737:KSI458775 KIM458737:KIM458775 JYQ458737:JYQ458775 JOU458737:JOU458775 JEY458737:JEY458775 IVC458737:IVC458775 ILG458737:ILG458775 IBK458737:IBK458775 HRO458737:HRO458775 HHS458737:HHS458775 GXW458737:GXW458775 GOA458737:GOA458775 GEE458737:GEE458775 FUI458737:FUI458775 FKM458737:FKM458775 FAQ458737:FAQ458775 EQU458737:EQU458775 EGY458737:EGY458775 DXC458737:DXC458775 DNG458737:DNG458775 DDK458737:DDK458775 CTO458737:CTO458775 CJS458737:CJS458775 BZW458737:BZW458775 BQA458737:BQA458775 BGE458737:BGE458775 AWI458737:AWI458775 AMM458737:AMM458775 ACQ458737:ACQ458775 SU458737:SU458775 IY458737:IY458775 WVK393201:WVK393239 WLO393201:WLO393239 WBS393201:WBS393239 VRW393201:VRW393239 VIA393201:VIA393239 UYE393201:UYE393239 UOI393201:UOI393239 UEM393201:UEM393239 TUQ393201:TUQ393239 TKU393201:TKU393239 TAY393201:TAY393239 SRC393201:SRC393239 SHG393201:SHG393239 RXK393201:RXK393239 RNO393201:RNO393239 RDS393201:RDS393239 QTW393201:QTW393239 QKA393201:QKA393239 QAE393201:QAE393239 PQI393201:PQI393239 PGM393201:PGM393239 OWQ393201:OWQ393239 OMU393201:OMU393239 OCY393201:OCY393239 NTC393201:NTC393239 NJG393201:NJG393239 MZK393201:MZK393239 MPO393201:MPO393239 MFS393201:MFS393239 LVW393201:LVW393239 LMA393201:LMA393239 LCE393201:LCE393239 KSI393201:KSI393239 KIM393201:KIM393239 JYQ393201:JYQ393239 JOU393201:JOU393239 JEY393201:JEY393239 IVC393201:IVC393239 ILG393201:ILG393239 IBK393201:IBK393239 HRO393201:HRO393239 HHS393201:HHS393239 GXW393201:GXW393239 GOA393201:GOA393239 GEE393201:GEE393239 FUI393201:FUI393239 FKM393201:FKM393239 FAQ393201:FAQ393239 EQU393201:EQU393239 EGY393201:EGY393239 DXC393201:DXC393239 DNG393201:DNG393239 DDK393201:DDK393239 CTO393201:CTO393239 CJS393201:CJS393239 BZW393201:BZW393239 BQA393201:BQA393239 BGE393201:BGE393239 AWI393201:AWI393239 AMM393201:AMM393239 ACQ393201:ACQ393239 SU393201:SU393239 IY393201:IY393239 WVK327665:WVK327703 WLO327665:WLO327703 WBS327665:WBS327703 VRW327665:VRW327703 VIA327665:VIA327703 UYE327665:UYE327703 UOI327665:UOI327703 UEM327665:UEM327703 TUQ327665:TUQ327703 TKU327665:TKU327703 TAY327665:TAY327703 SRC327665:SRC327703 SHG327665:SHG327703 RXK327665:RXK327703 RNO327665:RNO327703 RDS327665:RDS327703 QTW327665:QTW327703 QKA327665:QKA327703 QAE327665:QAE327703 PQI327665:PQI327703 PGM327665:PGM327703 OWQ327665:OWQ327703 OMU327665:OMU327703 OCY327665:OCY327703 NTC327665:NTC327703 NJG327665:NJG327703 MZK327665:MZK327703 MPO327665:MPO327703 MFS327665:MFS327703 LVW327665:LVW327703 LMA327665:LMA327703 LCE327665:LCE327703 KSI327665:KSI327703 KIM327665:KIM327703 JYQ327665:JYQ327703 JOU327665:JOU327703 JEY327665:JEY327703 IVC327665:IVC327703 ILG327665:ILG327703 IBK327665:IBK327703 HRO327665:HRO327703 HHS327665:HHS327703 GXW327665:GXW327703 GOA327665:GOA327703 GEE327665:GEE327703 FUI327665:FUI327703 FKM327665:FKM327703 FAQ327665:FAQ327703 EQU327665:EQU327703 EGY327665:EGY327703 DXC327665:DXC327703 DNG327665:DNG327703 DDK327665:DDK327703 CTO327665:CTO327703 CJS327665:CJS327703 BZW327665:BZW327703 BQA327665:BQA327703 BGE327665:BGE327703 AWI327665:AWI327703 AMM327665:AMM327703 ACQ327665:ACQ327703 SU327665:SU327703 IY327665:IY327703 WVK262129:WVK262167 WLO262129:WLO262167 WBS262129:WBS262167 VRW262129:VRW262167 VIA262129:VIA262167 UYE262129:UYE262167 UOI262129:UOI262167 UEM262129:UEM262167 TUQ262129:TUQ262167 TKU262129:TKU262167 TAY262129:TAY262167 SRC262129:SRC262167 SHG262129:SHG262167 RXK262129:RXK262167 RNO262129:RNO262167 RDS262129:RDS262167 QTW262129:QTW262167 QKA262129:QKA262167 QAE262129:QAE262167 PQI262129:PQI262167 PGM262129:PGM262167 OWQ262129:OWQ262167 OMU262129:OMU262167 OCY262129:OCY262167 NTC262129:NTC262167 NJG262129:NJG262167 MZK262129:MZK262167 MPO262129:MPO262167 MFS262129:MFS262167 LVW262129:LVW262167 LMA262129:LMA262167 LCE262129:LCE262167 KSI262129:KSI262167 KIM262129:KIM262167 JYQ262129:JYQ262167 JOU262129:JOU262167 JEY262129:JEY262167 IVC262129:IVC262167 ILG262129:ILG262167 IBK262129:IBK262167 HRO262129:HRO262167 HHS262129:HHS262167 GXW262129:GXW262167 GOA262129:GOA262167 GEE262129:GEE262167 FUI262129:FUI262167 FKM262129:FKM262167 FAQ262129:FAQ262167 EQU262129:EQU262167 EGY262129:EGY262167 DXC262129:DXC262167 DNG262129:DNG262167 DDK262129:DDK262167 CTO262129:CTO262167 CJS262129:CJS262167 BZW262129:BZW262167 BQA262129:BQA262167 BGE262129:BGE262167 AWI262129:AWI262167 AMM262129:AMM262167 ACQ262129:ACQ262167 SU262129:SU262167 IY262129:IY262167 WVK196593:WVK196631 WLO196593:WLO196631 WBS196593:WBS196631 VRW196593:VRW196631 VIA196593:VIA196631 UYE196593:UYE196631 UOI196593:UOI196631 UEM196593:UEM196631 TUQ196593:TUQ196631 TKU196593:TKU196631 TAY196593:TAY196631 SRC196593:SRC196631 SHG196593:SHG196631 RXK196593:RXK196631 RNO196593:RNO196631 RDS196593:RDS196631 QTW196593:QTW196631 QKA196593:QKA196631 QAE196593:QAE196631 PQI196593:PQI196631 PGM196593:PGM196631 OWQ196593:OWQ196631 OMU196593:OMU196631 OCY196593:OCY196631 NTC196593:NTC196631 NJG196593:NJG196631 MZK196593:MZK196631 MPO196593:MPO196631 MFS196593:MFS196631 LVW196593:LVW196631 LMA196593:LMA196631 LCE196593:LCE196631 KSI196593:KSI196631 KIM196593:KIM196631 JYQ196593:JYQ196631 JOU196593:JOU196631 JEY196593:JEY196631 IVC196593:IVC196631 ILG196593:ILG196631 IBK196593:IBK196631 HRO196593:HRO196631 HHS196593:HHS196631 GXW196593:GXW196631 GOA196593:GOA196631 GEE196593:GEE196631 FUI196593:FUI196631 FKM196593:FKM196631 FAQ196593:FAQ196631 EQU196593:EQU196631 EGY196593:EGY196631 DXC196593:DXC196631 DNG196593:DNG196631 DDK196593:DDK196631 CTO196593:CTO196631 CJS196593:CJS196631 BZW196593:BZW196631 BQA196593:BQA196631 BGE196593:BGE196631 AWI196593:AWI196631 AMM196593:AMM196631 ACQ196593:ACQ196631 SU196593:SU196631 IY196593:IY196631 WVK131057:WVK131095 WLO131057:WLO131095 WBS131057:WBS131095 VRW131057:VRW131095 VIA131057:VIA131095 UYE131057:UYE131095 UOI131057:UOI131095 UEM131057:UEM131095 TUQ131057:TUQ131095 TKU131057:TKU131095 TAY131057:TAY131095 SRC131057:SRC131095 SHG131057:SHG131095 RXK131057:RXK131095 RNO131057:RNO131095 RDS131057:RDS131095 QTW131057:QTW131095 QKA131057:QKA131095 QAE131057:QAE131095 PQI131057:PQI131095 PGM131057:PGM131095 OWQ131057:OWQ131095 OMU131057:OMU131095 OCY131057:OCY131095 NTC131057:NTC131095 NJG131057:NJG131095 MZK131057:MZK131095 MPO131057:MPO131095 MFS131057:MFS131095 LVW131057:LVW131095 LMA131057:LMA131095 LCE131057:LCE131095 KSI131057:KSI131095 KIM131057:KIM131095 JYQ131057:JYQ131095 JOU131057:JOU131095 JEY131057:JEY131095 IVC131057:IVC131095 ILG131057:ILG131095 IBK131057:IBK131095 HRO131057:HRO131095 HHS131057:HHS131095 GXW131057:GXW131095 GOA131057:GOA131095 GEE131057:GEE131095 FUI131057:FUI131095 FKM131057:FKM131095 FAQ131057:FAQ131095 EQU131057:EQU131095 EGY131057:EGY131095 DXC131057:DXC131095 DNG131057:DNG131095 DDK131057:DDK131095 CTO131057:CTO131095 CJS131057:CJS131095 BZW131057:BZW131095 BQA131057:BQA131095 BGE131057:BGE131095 AWI131057:AWI131095 AMM131057:AMM131095 ACQ131057:ACQ131095 SU131057:SU131095 IY131057:IY131095 WVK65521:WVK65559 WLO65521:WLO65559 WBS65521:WBS65559 VRW65521:VRW65559 VIA65521:VIA65559 UYE65521:UYE65559 UOI65521:UOI65559 UEM65521:UEM65559 TUQ65521:TUQ65559 TKU65521:TKU65559 TAY65521:TAY65559 SRC65521:SRC65559 SHG65521:SHG65559 RXK65521:RXK65559 RNO65521:RNO65559 RDS65521:RDS65559 QTW65521:QTW65559 QKA65521:QKA65559 QAE65521:QAE65559 PQI65521:PQI65559 PGM65521:PGM65559 OWQ65521:OWQ65559 OMU65521:OMU65559 OCY65521:OCY65559 NTC65521:NTC65559 NJG65521:NJG65559 MZK65521:MZK65559 MPO65521:MPO65559 MFS65521:MFS65559 LVW65521:LVW65559 LMA65521:LMA65559 LCE65521:LCE65559 KSI65521:KSI65559 KIM65521:KIM65559 JYQ65521:JYQ65559 JOU65521:JOU65559 JEY65521:JEY65559 IVC65521:IVC65559 ILG65521:ILG65559 IBK65521:IBK65559 HRO65521:HRO65559 HHS65521:HHS65559 GXW65521:GXW65559 GOA65521:GOA65559 GEE65521:GEE65559 FUI65521:FUI65559 FKM65521:FKM65559 FAQ65521:FAQ65559 EQU65521:EQU65559 EGY65521:EGY65559 DXC65521:DXC65559 DNG65521:DNG65559 DDK65521:DDK65559 CTO65521:CTO65559 CJS65521:CJS65559 BZW65521:BZW65559 BQA65521:BQA65559 BGE65521:BGE65559 AWI65521:AWI65559 AMM65521:AMM65559 ACQ65521:ACQ65559 H5:H23 IY5:IY23 SU5:SU23 ACQ5:ACQ23 AMM5:AMM23 AWI5:AWI23 BGE5:BGE23 BQA5:BQA23 BZW5:BZW23 CJS5:CJS23 CTO5:CTO23 DDK5:DDK23 DNG5:DNG23 DXC5:DXC23 EGY5:EGY23 EQU5:EQU23 FAQ5:FAQ23 FKM5:FKM23 FUI5:FUI23 GEE5:GEE23 GOA5:GOA23 GXW5:GXW23 HHS5:HHS23 HRO5:HRO23 IBK5:IBK23 ILG5:ILG23 IVC5:IVC23 JEY5:JEY23 JOU5:JOU23 JYQ5:JYQ23 KIM5:KIM23 KSI5:KSI23 LCE5:LCE23 LMA5:LMA23 LVW5:LVW23 MFS5:MFS23 MPO5:MPO23 MZK5:MZK23 NJG5:NJG23 NTC5:NTC23 OCY5:OCY23 OMU5:OMU23 OWQ5:OWQ23 PGM5:PGM23 PQI5:PQI23 QAE5:QAE23 QKA5:QKA23 QTW5:QTW23 RDS5:RDS23 RNO5:RNO23 RXK5:RXK23 SHG5:SHG23 SRC5:SRC23 TAY5:TAY23 TKU5:TKU23 TUQ5:TUQ23 UEM5:UEM23 UOI5:UOI23 UYE5:UYE23 VIA5:VIA23 VRW5:VRW23 WBS5:WBS23 WLO5:WLO23 WVK5:WVK23">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="142"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="145" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="122" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="124" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" s="74" customFormat="1" ht="42" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="124" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="124" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="69">
-        <v>10</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="69">
-        <v>11</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-    </row>
-    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="68"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="66"/>
       <c r="H16" s="65"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-    </row>
-    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="57"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 IY65515:IY65553 H983019:H983057 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 IY5:IY17 SU5:SU17 ACQ5:ACQ17 AMM5:AMM17 AWI5:AWI17 BGE5:BGE17 BQA5:BQA17 BZW5:BZW17 CJS5:CJS17 CTO5:CTO17 DDK5:DDK17 DNG5:DNG17 DXC5:DXC17 EGY5:EGY17 EQU5:EQU17 FAQ5:FAQ17 FKM5:FKM17 FUI5:FUI17 GEE5:GEE17 GOA5:GOA17 GXW5:GXW17 HHS5:HHS17 HRO5:HRO17 IBK5:IBK17 ILG5:ILG17 IVC5:IVC17 JEY5:JEY17 JOU5:JOU17 JYQ5:JYQ17 KIM5:KIM17 KSI5:KSI17 LCE5:LCE17 LMA5:LMA17 LVW5:LVW17 MFS5:MFS17 MPO5:MPO17 MZK5:MZK17 NJG5:NJG17 NTC5:NTC17 OCY5:OCY17 OMU5:OMU17 OWQ5:OWQ17 PGM5:PGM17 PQI5:PQI17 QAE5:QAE17 QKA5:QKA17 QTW5:QTW17 RDS5:RDS17 RNO5:RNO17 RXK5:RXK17 SHG5:SHG17 SRC5:SRC17 TAY5:TAY17 TKU5:TKU17 TUQ5:TUQ17 UEM5:UEM17 UOI5:UOI17 UYE5:UYE17 VIA5:VIA17 VRW5:VRW17 WBS5:WBS17 WLO5:WLO17 WVK5:WVK17 H5:H17">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="142"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71">
-        <f>ROW()-4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="146"/>
-    </row>
-    <row r="5" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
-    </row>
-    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="69">
-        <v>10</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="58"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="57"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65512:IY65550 SU65512:SU65550 ACQ65512:ACQ65550 AMM65512:AMM65550 AWI65512:AWI65550 BGE65512:BGE65550 BQA65512:BQA65550 BZW65512:BZW65550 CJS65512:CJS65550 CTO65512:CTO65550 DDK65512:DDK65550 DNG65512:DNG65550 DXC65512:DXC65550 EGY65512:EGY65550 EQU65512:EQU65550 FAQ65512:FAQ65550 FKM65512:FKM65550 FUI65512:FUI65550 GEE65512:GEE65550 GOA65512:GOA65550 GXW65512:GXW65550 HHS65512:HHS65550 HRO65512:HRO65550 IBK65512:IBK65550 ILG65512:ILG65550 IVC65512:IVC65550 JEY65512:JEY65550 JOU65512:JOU65550 JYQ65512:JYQ65550 KIM65512:KIM65550 KSI65512:KSI65550 LCE65512:LCE65550 LMA65512:LMA65550 LVW65512:LVW65550 MFS65512:MFS65550 MPO65512:MPO65550 MZK65512:MZK65550 NJG65512:NJG65550 NTC65512:NTC65550 OCY65512:OCY65550 OMU65512:OMU65550 OWQ65512:OWQ65550 PGM65512:PGM65550 PQI65512:PQI65550 QAE65512:QAE65550 QKA65512:QKA65550 QTW65512:QTW65550 RDS65512:RDS65550 RNO65512:RNO65550 RXK65512:RXK65550 SHG65512:SHG65550 SRC65512:SRC65550 TAY65512:TAY65550 TKU65512:TKU65550 TUQ65512:TUQ65550 UEM65512:UEM65550 UOI65512:UOI65550 UYE65512:UYE65550 VIA65512:VIA65550 VRW65512:VRW65550 WBS65512:WBS65550 WLO65512:WLO65550 WVK65512:WVK65550 IY131048:IY131086 SU131048:SU131086 ACQ131048:ACQ131086 AMM131048:AMM131086 AWI131048:AWI131086 BGE131048:BGE131086 BQA131048:BQA131086 BZW131048:BZW131086 CJS131048:CJS131086 CTO131048:CTO131086 DDK131048:DDK131086 DNG131048:DNG131086 DXC131048:DXC131086 EGY131048:EGY131086 EQU131048:EQU131086 FAQ131048:FAQ131086 FKM131048:FKM131086 FUI131048:FUI131086 GEE131048:GEE131086 GOA131048:GOA131086 GXW131048:GXW131086 HHS131048:HHS131086 HRO131048:HRO131086 IBK131048:IBK131086 ILG131048:ILG131086 IVC131048:IVC131086 JEY131048:JEY131086 JOU131048:JOU131086 JYQ131048:JYQ131086 KIM131048:KIM131086 KSI131048:KSI131086 LCE131048:LCE131086 LMA131048:LMA131086 LVW131048:LVW131086 MFS131048:MFS131086 MPO131048:MPO131086 MZK131048:MZK131086 NJG131048:NJG131086 NTC131048:NTC131086 OCY131048:OCY131086 OMU131048:OMU131086 OWQ131048:OWQ131086 PGM131048:PGM131086 PQI131048:PQI131086 QAE131048:QAE131086 QKA131048:QKA131086 QTW131048:QTW131086 RDS131048:RDS131086 RNO131048:RNO131086 RXK131048:RXK131086 SHG131048:SHG131086 SRC131048:SRC131086 TAY131048:TAY131086 TKU131048:TKU131086 TUQ131048:TUQ131086 UEM131048:UEM131086 UOI131048:UOI131086 UYE131048:UYE131086 VIA131048:VIA131086 VRW131048:VRW131086 WBS131048:WBS131086 WLO131048:WLO131086 WVK131048:WVK131086 IY196584:IY196622 SU196584:SU196622 ACQ196584:ACQ196622 AMM196584:AMM196622 AWI196584:AWI196622 BGE196584:BGE196622 BQA196584:BQA196622 BZW196584:BZW196622 CJS196584:CJS196622 CTO196584:CTO196622 DDK196584:DDK196622 DNG196584:DNG196622 DXC196584:DXC196622 EGY196584:EGY196622 EQU196584:EQU196622 FAQ196584:FAQ196622 FKM196584:FKM196622 FUI196584:FUI196622 GEE196584:GEE196622 GOA196584:GOA196622 GXW196584:GXW196622 HHS196584:HHS196622 HRO196584:HRO196622 IBK196584:IBK196622 ILG196584:ILG196622 IVC196584:IVC196622 JEY196584:JEY196622 JOU196584:JOU196622 JYQ196584:JYQ196622 KIM196584:KIM196622 KSI196584:KSI196622 LCE196584:LCE196622 LMA196584:LMA196622 LVW196584:LVW196622 MFS196584:MFS196622 MPO196584:MPO196622 MZK196584:MZK196622 NJG196584:NJG196622 NTC196584:NTC196622 OCY196584:OCY196622 OMU196584:OMU196622 OWQ196584:OWQ196622 PGM196584:PGM196622 PQI196584:PQI196622 QAE196584:QAE196622 QKA196584:QKA196622 QTW196584:QTW196622 RDS196584:RDS196622 RNO196584:RNO196622 RXK196584:RXK196622 SHG196584:SHG196622 SRC196584:SRC196622 TAY196584:TAY196622 TKU196584:TKU196622 TUQ196584:TUQ196622 UEM196584:UEM196622 UOI196584:UOI196622 UYE196584:UYE196622 VIA196584:VIA196622 VRW196584:VRW196622 WBS196584:WBS196622 WLO196584:WLO196622 WVK196584:WVK196622 IY262120:IY262158 SU262120:SU262158 ACQ262120:ACQ262158 AMM262120:AMM262158 AWI262120:AWI262158 BGE262120:BGE262158 BQA262120:BQA262158 BZW262120:BZW262158 CJS262120:CJS262158 CTO262120:CTO262158 DDK262120:DDK262158 DNG262120:DNG262158 DXC262120:DXC262158 EGY262120:EGY262158 EQU262120:EQU262158 FAQ262120:FAQ262158 FKM262120:FKM262158 FUI262120:FUI262158 GEE262120:GEE262158 GOA262120:GOA262158 GXW262120:GXW262158 HHS262120:HHS262158 HRO262120:HRO262158 IBK262120:IBK262158 ILG262120:ILG262158 IVC262120:IVC262158 JEY262120:JEY262158 JOU262120:JOU262158 JYQ262120:JYQ262158 KIM262120:KIM262158 KSI262120:KSI262158 LCE262120:LCE262158 LMA262120:LMA262158 LVW262120:LVW262158 MFS262120:MFS262158 MPO262120:MPO262158 MZK262120:MZK262158 NJG262120:NJG262158 NTC262120:NTC262158 OCY262120:OCY262158 OMU262120:OMU262158 OWQ262120:OWQ262158 PGM262120:PGM262158 PQI262120:PQI262158 QAE262120:QAE262158 QKA262120:QKA262158 QTW262120:QTW262158 RDS262120:RDS262158 RNO262120:RNO262158 RXK262120:RXK262158 SHG262120:SHG262158 SRC262120:SRC262158 TAY262120:TAY262158 TKU262120:TKU262158 TUQ262120:TUQ262158 UEM262120:UEM262158 UOI262120:UOI262158 UYE262120:UYE262158 VIA262120:VIA262158 VRW262120:VRW262158 WBS262120:WBS262158 WLO262120:WLO262158 WVK262120:WVK262158 IY327656:IY327694 SU327656:SU327694 ACQ327656:ACQ327694 AMM327656:AMM327694 AWI327656:AWI327694 BGE327656:BGE327694 BQA327656:BQA327694 BZW327656:BZW327694 CJS327656:CJS327694 CTO327656:CTO327694 DDK327656:DDK327694 DNG327656:DNG327694 DXC327656:DXC327694 EGY327656:EGY327694 EQU327656:EQU327694 FAQ327656:FAQ327694 FKM327656:FKM327694 FUI327656:FUI327694 GEE327656:GEE327694 GOA327656:GOA327694 GXW327656:GXW327694 HHS327656:HHS327694 HRO327656:HRO327694 IBK327656:IBK327694 ILG327656:ILG327694 IVC327656:IVC327694 JEY327656:JEY327694 JOU327656:JOU327694 JYQ327656:JYQ327694 KIM327656:KIM327694 KSI327656:KSI327694 LCE327656:LCE327694 LMA327656:LMA327694 LVW327656:LVW327694 MFS327656:MFS327694 MPO327656:MPO327694 MZK327656:MZK327694 NJG327656:NJG327694 NTC327656:NTC327694 OCY327656:OCY327694 OMU327656:OMU327694 OWQ327656:OWQ327694 PGM327656:PGM327694 PQI327656:PQI327694 QAE327656:QAE327694 QKA327656:QKA327694 QTW327656:QTW327694 RDS327656:RDS327694 RNO327656:RNO327694 RXK327656:RXK327694 SHG327656:SHG327694 SRC327656:SRC327694 TAY327656:TAY327694 TKU327656:TKU327694 TUQ327656:TUQ327694 UEM327656:UEM327694 UOI327656:UOI327694 UYE327656:UYE327694 VIA327656:VIA327694 VRW327656:VRW327694 WBS327656:WBS327694 WLO327656:WLO327694 WVK327656:WVK327694 IY393192:IY393230 SU393192:SU393230 ACQ393192:ACQ393230 AMM393192:AMM393230 AWI393192:AWI393230 BGE393192:BGE393230 BQA393192:BQA393230 BZW393192:BZW393230 CJS393192:CJS393230 CTO393192:CTO393230 DDK393192:DDK393230 DNG393192:DNG393230 DXC393192:DXC393230 EGY393192:EGY393230 EQU393192:EQU393230 FAQ393192:FAQ393230 FKM393192:FKM393230 FUI393192:FUI393230 GEE393192:GEE393230 GOA393192:GOA393230 GXW393192:GXW393230 HHS393192:HHS393230 HRO393192:HRO393230 IBK393192:IBK393230 ILG393192:ILG393230 IVC393192:IVC393230 JEY393192:JEY393230 JOU393192:JOU393230 JYQ393192:JYQ393230 KIM393192:KIM393230 KSI393192:KSI393230 LCE393192:LCE393230 LMA393192:LMA393230 LVW393192:LVW393230 MFS393192:MFS393230 MPO393192:MPO393230 MZK393192:MZK393230 NJG393192:NJG393230 NTC393192:NTC393230 OCY393192:OCY393230 OMU393192:OMU393230 OWQ393192:OWQ393230 PGM393192:PGM393230 PQI393192:PQI393230 QAE393192:QAE393230 QKA393192:QKA393230 QTW393192:QTW393230 RDS393192:RDS393230 RNO393192:RNO393230 RXK393192:RXK393230 SHG393192:SHG393230 SRC393192:SRC393230 TAY393192:TAY393230 TKU393192:TKU393230 TUQ393192:TUQ393230 UEM393192:UEM393230 UOI393192:UOI393230 UYE393192:UYE393230 VIA393192:VIA393230 VRW393192:VRW393230 WBS393192:WBS393230 WLO393192:WLO393230 WVK393192:WVK393230 IY458728:IY458766 SU458728:SU458766 ACQ458728:ACQ458766 AMM458728:AMM458766 AWI458728:AWI458766 BGE458728:BGE458766 BQA458728:BQA458766 BZW458728:BZW458766 CJS458728:CJS458766 CTO458728:CTO458766 DDK458728:DDK458766 DNG458728:DNG458766 DXC458728:DXC458766 EGY458728:EGY458766 EQU458728:EQU458766 FAQ458728:FAQ458766 FKM458728:FKM458766 FUI458728:FUI458766 GEE458728:GEE458766 GOA458728:GOA458766 GXW458728:GXW458766 HHS458728:HHS458766 HRO458728:HRO458766 IBK458728:IBK458766 ILG458728:ILG458766 IVC458728:IVC458766 JEY458728:JEY458766 JOU458728:JOU458766 JYQ458728:JYQ458766 KIM458728:KIM458766 KSI458728:KSI458766 LCE458728:LCE458766 LMA458728:LMA458766 LVW458728:LVW458766 MFS458728:MFS458766 MPO458728:MPO458766 MZK458728:MZK458766 NJG458728:NJG458766 NTC458728:NTC458766 OCY458728:OCY458766 OMU458728:OMU458766 OWQ458728:OWQ458766 PGM458728:PGM458766 PQI458728:PQI458766 QAE458728:QAE458766 QKA458728:QKA458766 QTW458728:QTW458766 RDS458728:RDS458766 RNO458728:RNO458766 RXK458728:RXK458766 SHG458728:SHG458766 SRC458728:SRC458766 TAY458728:TAY458766 TKU458728:TKU458766 TUQ458728:TUQ458766 UEM458728:UEM458766 UOI458728:UOI458766 UYE458728:UYE458766 VIA458728:VIA458766 VRW458728:VRW458766 WBS458728:WBS458766 WLO458728:WLO458766 WVK458728:WVK458766 IY524264:IY524302 SU524264:SU524302 ACQ524264:ACQ524302 AMM524264:AMM524302 AWI524264:AWI524302 BGE524264:BGE524302 BQA524264:BQA524302 BZW524264:BZW524302 CJS524264:CJS524302 CTO524264:CTO524302 DDK524264:DDK524302 DNG524264:DNG524302 DXC524264:DXC524302 EGY524264:EGY524302 EQU524264:EQU524302 FAQ524264:FAQ524302 FKM524264:FKM524302 FUI524264:FUI524302 GEE524264:GEE524302 GOA524264:GOA524302 GXW524264:GXW524302 HHS524264:HHS524302 HRO524264:HRO524302 IBK524264:IBK524302 ILG524264:ILG524302 IVC524264:IVC524302 JEY524264:JEY524302 JOU524264:JOU524302 JYQ524264:JYQ524302 KIM524264:KIM524302 KSI524264:KSI524302 LCE524264:LCE524302 LMA524264:LMA524302 LVW524264:LVW524302 MFS524264:MFS524302 MPO524264:MPO524302 MZK524264:MZK524302 NJG524264:NJG524302 NTC524264:NTC524302 OCY524264:OCY524302 OMU524264:OMU524302 OWQ524264:OWQ524302 PGM524264:PGM524302 PQI524264:PQI524302 QAE524264:QAE524302 QKA524264:QKA524302 QTW524264:QTW524302 RDS524264:RDS524302 RNO524264:RNO524302 RXK524264:RXK524302 SHG524264:SHG524302 SRC524264:SRC524302 TAY524264:TAY524302 TKU524264:TKU524302 TUQ524264:TUQ524302 UEM524264:UEM524302 UOI524264:UOI524302 UYE524264:UYE524302 VIA524264:VIA524302 VRW524264:VRW524302 WBS524264:WBS524302 WLO524264:WLO524302 WVK524264:WVK524302 IY589800:IY589838 SU589800:SU589838 ACQ589800:ACQ589838 AMM589800:AMM589838 AWI589800:AWI589838 BGE589800:BGE589838 BQA589800:BQA589838 BZW589800:BZW589838 CJS589800:CJS589838 CTO589800:CTO589838 DDK589800:DDK589838 DNG589800:DNG589838 DXC589800:DXC589838 EGY589800:EGY589838 EQU589800:EQU589838 FAQ589800:FAQ589838 FKM589800:FKM589838 FUI589800:FUI589838 GEE589800:GEE589838 GOA589800:GOA589838 GXW589800:GXW589838 HHS589800:HHS589838 HRO589800:HRO589838 IBK589800:IBK589838 ILG589800:ILG589838 IVC589800:IVC589838 JEY589800:JEY589838 JOU589800:JOU589838 JYQ589800:JYQ589838 KIM589800:KIM589838 KSI589800:KSI589838 LCE589800:LCE589838 LMA589800:LMA589838 LVW589800:LVW589838 MFS589800:MFS589838 MPO589800:MPO589838 MZK589800:MZK589838 NJG589800:NJG589838 NTC589800:NTC589838 OCY589800:OCY589838 OMU589800:OMU589838 OWQ589800:OWQ589838 PGM589800:PGM589838 PQI589800:PQI589838 QAE589800:QAE589838 QKA589800:QKA589838 QTW589800:QTW589838 RDS589800:RDS589838 RNO589800:RNO589838 RXK589800:RXK589838 SHG589800:SHG589838 SRC589800:SRC589838 TAY589800:TAY589838 TKU589800:TKU589838 TUQ589800:TUQ589838 UEM589800:UEM589838 UOI589800:UOI589838 UYE589800:UYE589838 VIA589800:VIA589838 VRW589800:VRW589838 WBS589800:WBS589838 WLO589800:WLO589838 WVK589800:WVK589838 IY655336:IY655374 SU655336:SU655374 ACQ655336:ACQ655374 AMM655336:AMM655374 AWI655336:AWI655374 BGE655336:BGE655374 BQA655336:BQA655374 BZW655336:BZW655374 CJS655336:CJS655374 CTO655336:CTO655374 DDK655336:DDK655374 DNG655336:DNG655374 DXC655336:DXC655374 EGY655336:EGY655374 EQU655336:EQU655374 FAQ655336:FAQ655374 FKM655336:FKM655374 FUI655336:FUI655374 GEE655336:GEE655374 GOA655336:GOA655374 GXW655336:GXW655374 HHS655336:HHS655374 HRO655336:HRO655374 IBK655336:IBK655374 ILG655336:ILG655374 IVC655336:IVC655374 JEY655336:JEY655374 JOU655336:JOU655374 JYQ655336:JYQ655374 KIM655336:KIM655374 KSI655336:KSI655374 LCE655336:LCE655374 LMA655336:LMA655374 LVW655336:LVW655374 MFS655336:MFS655374 MPO655336:MPO655374 MZK655336:MZK655374 NJG655336:NJG655374 NTC655336:NTC655374 OCY655336:OCY655374 OMU655336:OMU655374 OWQ655336:OWQ655374 PGM655336:PGM655374 PQI655336:PQI655374 QAE655336:QAE655374 QKA655336:QKA655374 QTW655336:QTW655374 RDS655336:RDS655374 RNO655336:RNO655374 RXK655336:RXK655374 SHG655336:SHG655374 SRC655336:SRC655374 TAY655336:TAY655374 TKU655336:TKU655374 TUQ655336:TUQ655374 UEM655336:UEM655374 UOI655336:UOI655374 UYE655336:UYE655374 VIA655336:VIA655374 VRW655336:VRW655374 WBS655336:WBS655374 WLO655336:WLO655374 WVK655336:WVK655374 IY720872:IY720910 SU720872:SU720910 ACQ720872:ACQ720910 AMM720872:AMM720910 AWI720872:AWI720910 BGE720872:BGE720910 BQA720872:BQA720910 BZW720872:BZW720910 CJS720872:CJS720910 CTO720872:CTO720910 DDK720872:DDK720910 DNG720872:DNG720910 DXC720872:DXC720910 EGY720872:EGY720910 EQU720872:EQU720910 FAQ720872:FAQ720910 FKM720872:FKM720910 FUI720872:FUI720910 GEE720872:GEE720910 GOA720872:GOA720910 GXW720872:GXW720910 HHS720872:HHS720910 HRO720872:HRO720910 IBK720872:IBK720910 ILG720872:ILG720910 IVC720872:IVC720910 JEY720872:JEY720910 JOU720872:JOU720910 JYQ720872:JYQ720910 KIM720872:KIM720910 KSI720872:KSI720910 LCE720872:LCE720910 LMA720872:LMA720910 LVW720872:LVW720910 MFS720872:MFS720910 MPO720872:MPO720910 MZK720872:MZK720910 NJG720872:NJG720910 NTC720872:NTC720910 OCY720872:OCY720910 OMU720872:OMU720910 OWQ720872:OWQ720910 PGM720872:PGM720910 PQI720872:PQI720910 QAE720872:QAE720910 QKA720872:QKA720910 QTW720872:QTW720910 RDS720872:RDS720910 RNO720872:RNO720910 RXK720872:RXK720910 SHG720872:SHG720910 SRC720872:SRC720910 TAY720872:TAY720910 TKU720872:TKU720910 TUQ720872:TUQ720910 UEM720872:UEM720910 UOI720872:UOI720910 UYE720872:UYE720910 VIA720872:VIA720910 VRW720872:VRW720910 WBS720872:WBS720910 WLO720872:WLO720910 WVK720872:WVK720910 IY786408:IY786446 SU786408:SU786446 ACQ786408:ACQ786446 AMM786408:AMM786446 AWI786408:AWI786446 BGE786408:BGE786446 BQA786408:BQA786446 BZW786408:BZW786446 CJS786408:CJS786446 CTO786408:CTO786446 DDK786408:DDK786446 DNG786408:DNG786446 DXC786408:DXC786446 EGY786408:EGY786446 EQU786408:EQU786446 FAQ786408:FAQ786446 FKM786408:FKM786446 FUI786408:FUI786446 GEE786408:GEE786446 GOA786408:GOA786446 GXW786408:GXW786446 HHS786408:HHS786446 HRO786408:HRO786446 IBK786408:IBK786446 ILG786408:ILG786446 IVC786408:IVC786446 JEY786408:JEY786446 JOU786408:JOU786446 JYQ786408:JYQ786446 KIM786408:KIM786446 KSI786408:KSI786446 LCE786408:LCE786446 LMA786408:LMA786446 LVW786408:LVW786446 MFS786408:MFS786446 MPO786408:MPO786446 MZK786408:MZK786446 NJG786408:NJG786446 NTC786408:NTC786446 OCY786408:OCY786446 OMU786408:OMU786446 OWQ786408:OWQ786446 PGM786408:PGM786446 PQI786408:PQI786446 QAE786408:QAE786446 QKA786408:QKA786446 QTW786408:QTW786446 RDS786408:RDS786446 RNO786408:RNO786446 RXK786408:RXK786446 SHG786408:SHG786446 SRC786408:SRC786446 TAY786408:TAY786446 TKU786408:TKU786446 TUQ786408:TUQ786446 UEM786408:UEM786446 UOI786408:UOI786446 UYE786408:UYE786446 VIA786408:VIA786446 VRW786408:VRW786446 WBS786408:WBS786446 WLO786408:WLO786446 WVK786408:WVK786446 IY851944:IY851982 SU851944:SU851982 ACQ851944:ACQ851982 AMM851944:AMM851982 AWI851944:AWI851982 BGE851944:BGE851982 BQA851944:BQA851982 BZW851944:BZW851982 CJS851944:CJS851982 CTO851944:CTO851982 DDK851944:DDK851982 DNG851944:DNG851982 DXC851944:DXC851982 EGY851944:EGY851982 EQU851944:EQU851982 FAQ851944:FAQ851982 FKM851944:FKM851982 FUI851944:FUI851982 GEE851944:GEE851982 GOA851944:GOA851982 GXW851944:GXW851982 HHS851944:HHS851982 HRO851944:HRO851982 IBK851944:IBK851982 ILG851944:ILG851982 IVC851944:IVC851982 JEY851944:JEY851982 JOU851944:JOU851982 JYQ851944:JYQ851982 KIM851944:KIM851982 KSI851944:KSI851982 LCE851944:LCE851982 LMA851944:LMA851982 LVW851944:LVW851982 MFS851944:MFS851982 MPO851944:MPO851982 MZK851944:MZK851982 NJG851944:NJG851982 NTC851944:NTC851982 OCY851944:OCY851982 OMU851944:OMU851982 OWQ851944:OWQ851982 PGM851944:PGM851982 PQI851944:PQI851982 QAE851944:QAE851982 QKA851944:QKA851982 QTW851944:QTW851982 RDS851944:RDS851982 RNO851944:RNO851982 RXK851944:RXK851982 SHG851944:SHG851982 SRC851944:SRC851982 TAY851944:TAY851982 TKU851944:TKU851982 TUQ851944:TUQ851982 UEM851944:UEM851982 UOI851944:UOI851982 UYE851944:UYE851982 VIA851944:VIA851982 VRW851944:VRW851982 WBS851944:WBS851982 WLO851944:WLO851982 WVK851944:WVK851982 IY917480:IY917518 SU917480:SU917518 ACQ917480:ACQ917518 AMM917480:AMM917518 AWI917480:AWI917518 BGE917480:BGE917518 BQA917480:BQA917518 BZW917480:BZW917518 CJS917480:CJS917518 CTO917480:CTO917518 DDK917480:DDK917518 DNG917480:DNG917518 DXC917480:DXC917518 EGY917480:EGY917518 EQU917480:EQU917518 FAQ917480:FAQ917518 FKM917480:FKM917518 FUI917480:FUI917518 GEE917480:GEE917518 GOA917480:GOA917518 GXW917480:GXW917518 HHS917480:HHS917518 HRO917480:HRO917518 IBK917480:IBK917518 ILG917480:ILG917518 IVC917480:IVC917518 JEY917480:JEY917518 JOU917480:JOU917518 JYQ917480:JYQ917518 KIM917480:KIM917518 KSI917480:KSI917518 LCE917480:LCE917518 LMA917480:LMA917518 LVW917480:LVW917518 MFS917480:MFS917518 MPO917480:MPO917518 MZK917480:MZK917518 NJG917480:NJG917518 NTC917480:NTC917518 OCY917480:OCY917518 OMU917480:OMU917518 OWQ917480:OWQ917518 PGM917480:PGM917518 PQI917480:PQI917518 QAE917480:QAE917518 QKA917480:QKA917518 QTW917480:QTW917518 RDS917480:RDS917518 RNO917480:RNO917518 RXK917480:RXK917518 SHG917480:SHG917518 SRC917480:SRC917518 TAY917480:TAY917518 TKU917480:TKU917518 TUQ917480:TUQ917518 UEM917480:UEM917518 UOI917480:UOI917518 UYE917480:UYE917518 VIA917480:VIA917518 VRW917480:VRW917518 WBS917480:WBS917518 WLO917480:WLO917518 WVK917480:WVK917518 IY983016:IY983054 SU983016:SU983054 ACQ983016:ACQ983054 AMM983016:AMM983054 AWI983016:AWI983054 BGE983016:BGE983054 BQA983016:BQA983054 BZW983016:BZW983054 CJS983016:CJS983054 CTO983016:CTO983054 DDK983016:DDK983054 DNG983016:DNG983054 DXC983016:DXC983054 EGY983016:EGY983054 EQU983016:EQU983054 FAQ983016:FAQ983054 FKM983016:FKM983054 FUI983016:FUI983054 GEE983016:GEE983054 GOA983016:GOA983054 GXW983016:GXW983054 HHS983016:HHS983054 HRO983016:HRO983054 IBK983016:IBK983054 ILG983016:ILG983054 IVC983016:IVC983054 JEY983016:JEY983054 JOU983016:JOU983054 JYQ983016:JYQ983054 KIM983016:KIM983054 KSI983016:KSI983054 LCE983016:LCE983054 LMA983016:LMA983054 LVW983016:LVW983054 MFS983016:MFS983054 MPO983016:MPO983054 MZK983016:MZK983054 NJG983016:NJG983054 NTC983016:NTC983054 OCY983016:OCY983054 OMU983016:OMU983054 OWQ983016:OWQ983054 PGM983016:PGM983054 PQI983016:PQI983054 QAE983016:QAE983054 QKA983016:QKA983054 QTW983016:QTW983054 RDS983016:RDS983054 RNO983016:RNO983054 RXK983016:RXK983054 SHG983016:SHG983054 SRC983016:SRC983054 TAY983016:TAY983054 TKU983016:TKU983054 TUQ983016:TUQ983054 UEM983016:UEM983054 UOI983016:UOI983054 UYE983016:UYE983054 VIA983016:VIA983054 VRW983016:VRW983054 WBS983016:WBS983054 WLO983016:WLO983054 WVK983016:WVK983054 H983016:H983054 H917480:H917518 H851944:H851982 H786408:H786446 H720872:H720910 H655336:H655374 H589800:H589838 H524264:H524302 H458728:H458766 H393192:H393230 H327656:H327694 H262120:H262158 H196584:H196622 H131048:H131086 H65512:H65550 H4:H14 IY4:IY14 SU4:SU14 ACQ4:ACQ14 AMM4:AMM14 AWI4:AWI14 BGE4:BGE14 BQA4:BQA14 BZW4:BZW14 CJS4:CJS14 CTO4:CTO14 DDK4:DDK14 DNG4:DNG14 DXC4:DXC14 EGY4:EGY14 EQU4:EQU14 FAQ4:FAQ14 FKM4:FKM14 FUI4:FUI14 GEE4:GEE14 GOA4:GOA14 GXW4:GXW14 HHS4:HHS14 HRO4:HRO14 IBK4:IBK14 ILG4:ILG14 IVC4:IVC14 JEY4:JEY14 JOU4:JOU14 JYQ4:JYQ14 KIM4:KIM14 KSI4:KSI14 LCE4:LCE14 LMA4:LMA14 LVW4:LVW14 MFS4:MFS14 MPO4:MPO14 MZK4:MZK14 NJG4:NJG14 NTC4:NTC14 OCY4:OCY14 OMU4:OMU14 OWQ4:OWQ14 PGM4:PGM14 PQI4:PQI14 QAE4:QAE14 QKA4:QKA14 QTW4:QTW14 RDS4:RDS14 RNO4:RNO14 RXK4:RXK14 SHG4:SHG14 SRC4:SRC14 TAY4:TAY14 TKU4:TKU14 TUQ4:TUQ14 UEM4:UEM14 UOI4:UOI14 UYE4:UYE14 VIA4:VIA14 VRW4:VRW14 WBS4:WBS14 WLO4:WLO14 WVK4:WVK14">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="142"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="128" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="71">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-    </row>
-    <row r="7" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-    </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="57"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65509:H65547 H131045:H131083 H196581:H196619 H262117:H262155 H327653:H327691 H393189:H393227 H458725:H458763 H524261:H524299 H589797:H589835 H655333:H655371 H720869:H720907 H786405:H786443 H851941:H851979 H917477:H917515 H983013:H983051 WVK983013:WVK983051 WLO983013:WLO983051 WBS983013:WBS983051 VRW983013:VRW983051 VIA983013:VIA983051 UYE983013:UYE983051 UOI983013:UOI983051 UEM983013:UEM983051 TUQ983013:TUQ983051 TKU983013:TKU983051 TAY983013:TAY983051 SRC983013:SRC983051 SHG983013:SHG983051 RXK983013:RXK983051 RNO983013:RNO983051 RDS983013:RDS983051 QTW983013:QTW983051 QKA983013:QKA983051 QAE983013:QAE983051 PQI983013:PQI983051 PGM983013:PGM983051 OWQ983013:OWQ983051 OMU983013:OMU983051 OCY983013:OCY983051 NTC983013:NTC983051 NJG983013:NJG983051 MZK983013:MZK983051 MPO983013:MPO983051 MFS983013:MFS983051 LVW983013:LVW983051 LMA983013:LMA983051 LCE983013:LCE983051 KSI983013:KSI983051 KIM983013:KIM983051 JYQ983013:JYQ983051 JOU983013:JOU983051 JEY983013:JEY983051 IVC983013:IVC983051 ILG983013:ILG983051 IBK983013:IBK983051 HRO983013:HRO983051 HHS983013:HHS983051 GXW983013:GXW983051 GOA983013:GOA983051 GEE983013:GEE983051 FUI983013:FUI983051 FKM983013:FKM983051 FAQ983013:FAQ983051 EQU983013:EQU983051 EGY983013:EGY983051 DXC983013:DXC983051 DNG983013:DNG983051 DDK983013:DDK983051 CTO983013:CTO983051 CJS983013:CJS983051 BZW983013:BZW983051 BQA983013:BQA983051 BGE983013:BGE983051 AWI983013:AWI983051 AMM983013:AMM983051 ACQ983013:ACQ983051 SU983013:SU983051 IY983013:IY983051 WVK917477:WVK917515 WLO917477:WLO917515 WBS917477:WBS917515 VRW917477:VRW917515 VIA917477:VIA917515 UYE917477:UYE917515 UOI917477:UOI917515 UEM917477:UEM917515 TUQ917477:TUQ917515 TKU917477:TKU917515 TAY917477:TAY917515 SRC917477:SRC917515 SHG917477:SHG917515 RXK917477:RXK917515 RNO917477:RNO917515 RDS917477:RDS917515 QTW917477:QTW917515 QKA917477:QKA917515 QAE917477:QAE917515 PQI917477:PQI917515 PGM917477:PGM917515 OWQ917477:OWQ917515 OMU917477:OMU917515 OCY917477:OCY917515 NTC917477:NTC917515 NJG917477:NJG917515 MZK917477:MZK917515 MPO917477:MPO917515 MFS917477:MFS917515 LVW917477:LVW917515 LMA917477:LMA917515 LCE917477:LCE917515 KSI917477:KSI917515 KIM917477:KIM917515 JYQ917477:JYQ917515 JOU917477:JOU917515 JEY917477:JEY917515 IVC917477:IVC917515 ILG917477:ILG917515 IBK917477:IBK917515 HRO917477:HRO917515 HHS917477:HHS917515 GXW917477:GXW917515 GOA917477:GOA917515 GEE917477:GEE917515 FUI917477:FUI917515 FKM917477:FKM917515 FAQ917477:FAQ917515 EQU917477:EQU917515 EGY917477:EGY917515 DXC917477:DXC917515 DNG917477:DNG917515 DDK917477:DDK917515 CTO917477:CTO917515 CJS917477:CJS917515 BZW917477:BZW917515 BQA917477:BQA917515 BGE917477:BGE917515 AWI917477:AWI917515 AMM917477:AMM917515 ACQ917477:ACQ917515 SU917477:SU917515 IY917477:IY917515 WVK851941:WVK851979 WLO851941:WLO851979 WBS851941:WBS851979 VRW851941:VRW851979 VIA851941:VIA851979 UYE851941:UYE851979 UOI851941:UOI851979 UEM851941:UEM851979 TUQ851941:TUQ851979 TKU851941:TKU851979 TAY851941:TAY851979 SRC851941:SRC851979 SHG851941:SHG851979 RXK851941:RXK851979 RNO851941:RNO851979 RDS851941:RDS851979 QTW851941:QTW851979 QKA851941:QKA851979 QAE851941:QAE851979 PQI851941:PQI851979 PGM851941:PGM851979 OWQ851941:OWQ851979 OMU851941:OMU851979 OCY851941:OCY851979 NTC851941:NTC851979 NJG851941:NJG851979 MZK851941:MZK851979 MPO851941:MPO851979 MFS851941:MFS851979 LVW851941:LVW851979 LMA851941:LMA851979 LCE851941:LCE851979 KSI851941:KSI851979 KIM851941:KIM851979 JYQ851941:JYQ851979 JOU851941:JOU851979 JEY851941:JEY851979 IVC851941:IVC851979 ILG851941:ILG851979 IBK851941:IBK851979 HRO851941:HRO851979 HHS851941:HHS851979 GXW851941:GXW851979 GOA851941:GOA851979 GEE851941:GEE851979 FUI851941:FUI851979 FKM851941:FKM851979 FAQ851941:FAQ851979 EQU851941:EQU851979 EGY851941:EGY851979 DXC851941:DXC851979 DNG851941:DNG851979 DDK851941:DDK851979 CTO851941:CTO851979 CJS851941:CJS851979 BZW851941:BZW851979 BQA851941:BQA851979 BGE851941:BGE851979 AWI851941:AWI851979 AMM851941:AMM851979 ACQ851941:ACQ851979 SU851941:SU851979 IY851941:IY851979 WVK786405:WVK786443 WLO786405:WLO786443 WBS786405:WBS786443 VRW786405:VRW786443 VIA786405:VIA786443 UYE786405:UYE786443 UOI786405:UOI786443 UEM786405:UEM786443 TUQ786405:TUQ786443 TKU786405:TKU786443 TAY786405:TAY786443 SRC786405:SRC786443 SHG786405:SHG786443 RXK786405:RXK786443 RNO786405:RNO786443 RDS786405:RDS786443 QTW786405:QTW786443 QKA786405:QKA786443 QAE786405:QAE786443 PQI786405:PQI786443 PGM786405:PGM786443 OWQ786405:OWQ786443 OMU786405:OMU786443 OCY786405:OCY786443 NTC786405:NTC786443 NJG786405:NJG786443 MZK786405:MZK786443 MPO786405:MPO786443 MFS786405:MFS786443 LVW786405:LVW786443 LMA786405:LMA786443 LCE786405:LCE786443 KSI786405:KSI786443 KIM786405:KIM786443 JYQ786405:JYQ786443 JOU786405:JOU786443 JEY786405:JEY786443 IVC786405:IVC786443 ILG786405:ILG786443 IBK786405:IBK786443 HRO786405:HRO786443 HHS786405:HHS786443 GXW786405:GXW786443 GOA786405:GOA786443 GEE786405:GEE786443 FUI786405:FUI786443 FKM786405:FKM786443 FAQ786405:FAQ786443 EQU786405:EQU786443 EGY786405:EGY786443 DXC786405:DXC786443 DNG786405:DNG786443 DDK786405:DDK786443 CTO786405:CTO786443 CJS786405:CJS786443 BZW786405:BZW786443 BQA786405:BQA786443 BGE786405:BGE786443 AWI786405:AWI786443 AMM786405:AMM786443 ACQ786405:ACQ786443 SU786405:SU786443 IY786405:IY786443 WVK720869:WVK720907 WLO720869:WLO720907 WBS720869:WBS720907 VRW720869:VRW720907 VIA720869:VIA720907 UYE720869:UYE720907 UOI720869:UOI720907 UEM720869:UEM720907 TUQ720869:TUQ720907 TKU720869:TKU720907 TAY720869:TAY720907 SRC720869:SRC720907 SHG720869:SHG720907 RXK720869:RXK720907 RNO720869:RNO720907 RDS720869:RDS720907 QTW720869:QTW720907 QKA720869:QKA720907 QAE720869:QAE720907 PQI720869:PQI720907 PGM720869:PGM720907 OWQ720869:OWQ720907 OMU720869:OMU720907 OCY720869:OCY720907 NTC720869:NTC720907 NJG720869:NJG720907 MZK720869:MZK720907 MPO720869:MPO720907 MFS720869:MFS720907 LVW720869:LVW720907 LMA720869:LMA720907 LCE720869:LCE720907 KSI720869:KSI720907 KIM720869:KIM720907 JYQ720869:JYQ720907 JOU720869:JOU720907 JEY720869:JEY720907 IVC720869:IVC720907 ILG720869:ILG720907 IBK720869:IBK720907 HRO720869:HRO720907 HHS720869:HHS720907 GXW720869:GXW720907 GOA720869:GOA720907 GEE720869:GEE720907 FUI720869:FUI720907 FKM720869:FKM720907 FAQ720869:FAQ720907 EQU720869:EQU720907 EGY720869:EGY720907 DXC720869:DXC720907 DNG720869:DNG720907 DDK720869:DDK720907 CTO720869:CTO720907 CJS720869:CJS720907 BZW720869:BZW720907 BQA720869:BQA720907 BGE720869:BGE720907 AWI720869:AWI720907 AMM720869:AMM720907 ACQ720869:ACQ720907 SU720869:SU720907 IY720869:IY720907 WVK655333:WVK655371 WLO655333:WLO655371 WBS655333:WBS655371 VRW655333:VRW655371 VIA655333:VIA655371 UYE655333:UYE655371 UOI655333:UOI655371 UEM655333:UEM655371 TUQ655333:TUQ655371 TKU655333:TKU655371 TAY655333:TAY655371 SRC655333:SRC655371 SHG655333:SHG655371 RXK655333:RXK655371 RNO655333:RNO655371 RDS655333:RDS655371 QTW655333:QTW655371 QKA655333:QKA655371 QAE655333:QAE655371 PQI655333:PQI655371 PGM655333:PGM655371 OWQ655333:OWQ655371 OMU655333:OMU655371 OCY655333:OCY655371 NTC655333:NTC655371 NJG655333:NJG655371 MZK655333:MZK655371 MPO655333:MPO655371 MFS655333:MFS655371 LVW655333:LVW655371 LMA655333:LMA655371 LCE655333:LCE655371 KSI655333:KSI655371 KIM655333:KIM655371 JYQ655333:JYQ655371 JOU655333:JOU655371 JEY655333:JEY655371 IVC655333:IVC655371 ILG655333:ILG655371 IBK655333:IBK655371 HRO655333:HRO655371 HHS655333:HHS655371 GXW655333:GXW655371 GOA655333:GOA655371 GEE655333:GEE655371 FUI655333:FUI655371 FKM655333:FKM655371 FAQ655333:FAQ655371 EQU655333:EQU655371 EGY655333:EGY655371 DXC655333:DXC655371 DNG655333:DNG655371 DDK655333:DDK655371 CTO655333:CTO655371 CJS655333:CJS655371 BZW655333:BZW655371 BQA655333:BQA655371 BGE655333:BGE655371 AWI655333:AWI655371 AMM655333:AMM655371 ACQ655333:ACQ655371 SU655333:SU655371 IY655333:IY655371 WVK589797:WVK589835 WLO589797:WLO589835 WBS589797:WBS589835 VRW589797:VRW589835 VIA589797:VIA589835 UYE589797:UYE589835 UOI589797:UOI589835 UEM589797:UEM589835 TUQ589797:TUQ589835 TKU589797:TKU589835 TAY589797:TAY589835 SRC589797:SRC589835 SHG589797:SHG589835 RXK589797:RXK589835 RNO589797:RNO589835 RDS589797:RDS589835 QTW589797:QTW589835 QKA589797:QKA589835 QAE589797:QAE589835 PQI589797:PQI589835 PGM589797:PGM589835 OWQ589797:OWQ589835 OMU589797:OMU589835 OCY589797:OCY589835 NTC589797:NTC589835 NJG589797:NJG589835 MZK589797:MZK589835 MPO589797:MPO589835 MFS589797:MFS589835 LVW589797:LVW589835 LMA589797:LMA589835 LCE589797:LCE589835 KSI589797:KSI589835 KIM589797:KIM589835 JYQ589797:JYQ589835 JOU589797:JOU589835 JEY589797:JEY589835 IVC589797:IVC589835 ILG589797:ILG589835 IBK589797:IBK589835 HRO589797:HRO589835 HHS589797:HHS589835 GXW589797:GXW589835 GOA589797:GOA589835 GEE589797:GEE589835 FUI589797:FUI589835 FKM589797:FKM589835 FAQ589797:FAQ589835 EQU589797:EQU589835 EGY589797:EGY589835 DXC589797:DXC589835 DNG589797:DNG589835 DDK589797:DDK589835 CTO589797:CTO589835 CJS589797:CJS589835 BZW589797:BZW589835 BQA589797:BQA589835 BGE589797:BGE589835 AWI589797:AWI589835 AMM589797:AMM589835 ACQ589797:ACQ589835 SU589797:SU589835 IY589797:IY589835 WVK524261:WVK524299 WLO524261:WLO524299 WBS524261:WBS524299 VRW524261:VRW524299 VIA524261:VIA524299 UYE524261:UYE524299 UOI524261:UOI524299 UEM524261:UEM524299 TUQ524261:TUQ524299 TKU524261:TKU524299 TAY524261:TAY524299 SRC524261:SRC524299 SHG524261:SHG524299 RXK524261:RXK524299 RNO524261:RNO524299 RDS524261:RDS524299 QTW524261:QTW524299 QKA524261:QKA524299 QAE524261:QAE524299 PQI524261:PQI524299 PGM524261:PGM524299 OWQ524261:OWQ524299 OMU524261:OMU524299 OCY524261:OCY524299 NTC524261:NTC524299 NJG524261:NJG524299 MZK524261:MZK524299 MPO524261:MPO524299 MFS524261:MFS524299 LVW524261:LVW524299 LMA524261:LMA524299 LCE524261:LCE524299 KSI524261:KSI524299 KIM524261:KIM524299 JYQ524261:JYQ524299 JOU524261:JOU524299 JEY524261:JEY524299 IVC524261:IVC524299 ILG524261:ILG524299 IBK524261:IBK524299 HRO524261:HRO524299 HHS524261:HHS524299 GXW524261:GXW524299 GOA524261:GOA524299 GEE524261:GEE524299 FUI524261:FUI524299 FKM524261:FKM524299 FAQ524261:FAQ524299 EQU524261:EQU524299 EGY524261:EGY524299 DXC524261:DXC524299 DNG524261:DNG524299 DDK524261:DDK524299 CTO524261:CTO524299 CJS524261:CJS524299 BZW524261:BZW524299 BQA524261:BQA524299 BGE524261:BGE524299 AWI524261:AWI524299 AMM524261:AMM524299 ACQ524261:ACQ524299 SU524261:SU524299 IY524261:IY524299 WVK458725:WVK458763 WLO458725:WLO458763 WBS458725:WBS458763 VRW458725:VRW458763 VIA458725:VIA458763 UYE458725:UYE458763 UOI458725:UOI458763 UEM458725:UEM458763 TUQ458725:TUQ458763 TKU458725:TKU458763 TAY458725:TAY458763 SRC458725:SRC458763 SHG458725:SHG458763 RXK458725:RXK458763 RNO458725:RNO458763 RDS458725:RDS458763 QTW458725:QTW458763 QKA458725:QKA458763 QAE458725:QAE458763 PQI458725:PQI458763 PGM458725:PGM458763 OWQ458725:OWQ458763 OMU458725:OMU458763 OCY458725:OCY458763 NTC458725:NTC458763 NJG458725:NJG458763 MZK458725:MZK458763 MPO458725:MPO458763 MFS458725:MFS458763 LVW458725:LVW458763 LMA458725:LMA458763 LCE458725:LCE458763 KSI458725:KSI458763 KIM458725:KIM458763 JYQ458725:JYQ458763 JOU458725:JOU458763 JEY458725:JEY458763 IVC458725:IVC458763 ILG458725:ILG458763 IBK458725:IBK458763 HRO458725:HRO458763 HHS458725:HHS458763 GXW458725:GXW458763 GOA458725:GOA458763 GEE458725:GEE458763 FUI458725:FUI458763 FKM458725:FKM458763 FAQ458725:FAQ458763 EQU458725:EQU458763 EGY458725:EGY458763 DXC458725:DXC458763 DNG458725:DNG458763 DDK458725:DDK458763 CTO458725:CTO458763 CJS458725:CJS458763 BZW458725:BZW458763 BQA458725:BQA458763 BGE458725:BGE458763 AWI458725:AWI458763 AMM458725:AMM458763 ACQ458725:ACQ458763 SU458725:SU458763 IY458725:IY458763 WVK393189:WVK393227 WLO393189:WLO393227 WBS393189:WBS393227 VRW393189:VRW393227 VIA393189:VIA393227 UYE393189:UYE393227 UOI393189:UOI393227 UEM393189:UEM393227 TUQ393189:TUQ393227 TKU393189:TKU393227 TAY393189:TAY393227 SRC393189:SRC393227 SHG393189:SHG393227 RXK393189:RXK393227 RNO393189:RNO393227 RDS393189:RDS393227 QTW393189:QTW393227 QKA393189:QKA393227 QAE393189:QAE393227 PQI393189:PQI393227 PGM393189:PGM393227 OWQ393189:OWQ393227 OMU393189:OMU393227 OCY393189:OCY393227 NTC393189:NTC393227 NJG393189:NJG393227 MZK393189:MZK393227 MPO393189:MPO393227 MFS393189:MFS393227 LVW393189:LVW393227 LMA393189:LMA393227 LCE393189:LCE393227 KSI393189:KSI393227 KIM393189:KIM393227 JYQ393189:JYQ393227 JOU393189:JOU393227 JEY393189:JEY393227 IVC393189:IVC393227 ILG393189:ILG393227 IBK393189:IBK393227 HRO393189:HRO393227 HHS393189:HHS393227 GXW393189:GXW393227 GOA393189:GOA393227 GEE393189:GEE393227 FUI393189:FUI393227 FKM393189:FKM393227 FAQ393189:FAQ393227 EQU393189:EQU393227 EGY393189:EGY393227 DXC393189:DXC393227 DNG393189:DNG393227 DDK393189:DDK393227 CTO393189:CTO393227 CJS393189:CJS393227 BZW393189:BZW393227 BQA393189:BQA393227 BGE393189:BGE393227 AWI393189:AWI393227 AMM393189:AMM393227 ACQ393189:ACQ393227 SU393189:SU393227 IY393189:IY393227 WVK327653:WVK327691 WLO327653:WLO327691 WBS327653:WBS327691 VRW327653:VRW327691 VIA327653:VIA327691 UYE327653:UYE327691 UOI327653:UOI327691 UEM327653:UEM327691 TUQ327653:TUQ327691 TKU327653:TKU327691 TAY327653:TAY327691 SRC327653:SRC327691 SHG327653:SHG327691 RXK327653:RXK327691 RNO327653:RNO327691 RDS327653:RDS327691 QTW327653:QTW327691 QKA327653:QKA327691 QAE327653:QAE327691 PQI327653:PQI327691 PGM327653:PGM327691 OWQ327653:OWQ327691 OMU327653:OMU327691 OCY327653:OCY327691 NTC327653:NTC327691 NJG327653:NJG327691 MZK327653:MZK327691 MPO327653:MPO327691 MFS327653:MFS327691 LVW327653:LVW327691 LMA327653:LMA327691 LCE327653:LCE327691 KSI327653:KSI327691 KIM327653:KIM327691 JYQ327653:JYQ327691 JOU327653:JOU327691 JEY327653:JEY327691 IVC327653:IVC327691 ILG327653:ILG327691 IBK327653:IBK327691 HRO327653:HRO327691 HHS327653:HHS327691 GXW327653:GXW327691 GOA327653:GOA327691 GEE327653:GEE327691 FUI327653:FUI327691 FKM327653:FKM327691 FAQ327653:FAQ327691 EQU327653:EQU327691 EGY327653:EGY327691 DXC327653:DXC327691 DNG327653:DNG327691 DDK327653:DDK327691 CTO327653:CTO327691 CJS327653:CJS327691 BZW327653:BZW327691 BQA327653:BQA327691 BGE327653:BGE327691 AWI327653:AWI327691 AMM327653:AMM327691 ACQ327653:ACQ327691 SU327653:SU327691 IY327653:IY327691 WVK262117:WVK262155 WLO262117:WLO262155 WBS262117:WBS262155 VRW262117:VRW262155 VIA262117:VIA262155 UYE262117:UYE262155 UOI262117:UOI262155 UEM262117:UEM262155 TUQ262117:TUQ262155 TKU262117:TKU262155 TAY262117:TAY262155 SRC262117:SRC262155 SHG262117:SHG262155 RXK262117:RXK262155 RNO262117:RNO262155 RDS262117:RDS262155 QTW262117:QTW262155 QKA262117:QKA262155 QAE262117:QAE262155 PQI262117:PQI262155 PGM262117:PGM262155 OWQ262117:OWQ262155 OMU262117:OMU262155 OCY262117:OCY262155 NTC262117:NTC262155 NJG262117:NJG262155 MZK262117:MZK262155 MPO262117:MPO262155 MFS262117:MFS262155 LVW262117:LVW262155 LMA262117:LMA262155 LCE262117:LCE262155 KSI262117:KSI262155 KIM262117:KIM262155 JYQ262117:JYQ262155 JOU262117:JOU262155 JEY262117:JEY262155 IVC262117:IVC262155 ILG262117:ILG262155 IBK262117:IBK262155 HRO262117:HRO262155 HHS262117:HHS262155 GXW262117:GXW262155 GOA262117:GOA262155 GEE262117:GEE262155 FUI262117:FUI262155 FKM262117:FKM262155 FAQ262117:FAQ262155 EQU262117:EQU262155 EGY262117:EGY262155 DXC262117:DXC262155 DNG262117:DNG262155 DDK262117:DDK262155 CTO262117:CTO262155 CJS262117:CJS262155 BZW262117:BZW262155 BQA262117:BQA262155 BGE262117:BGE262155 AWI262117:AWI262155 AMM262117:AMM262155 ACQ262117:ACQ262155 SU262117:SU262155 IY262117:IY262155 WVK196581:WVK196619 WLO196581:WLO196619 WBS196581:WBS196619 VRW196581:VRW196619 VIA196581:VIA196619 UYE196581:UYE196619 UOI196581:UOI196619 UEM196581:UEM196619 TUQ196581:TUQ196619 TKU196581:TKU196619 TAY196581:TAY196619 SRC196581:SRC196619 SHG196581:SHG196619 RXK196581:RXK196619 RNO196581:RNO196619 RDS196581:RDS196619 QTW196581:QTW196619 QKA196581:QKA196619 QAE196581:QAE196619 PQI196581:PQI196619 PGM196581:PGM196619 OWQ196581:OWQ196619 OMU196581:OMU196619 OCY196581:OCY196619 NTC196581:NTC196619 NJG196581:NJG196619 MZK196581:MZK196619 MPO196581:MPO196619 MFS196581:MFS196619 LVW196581:LVW196619 LMA196581:LMA196619 LCE196581:LCE196619 KSI196581:KSI196619 KIM196581:KIM196619 JYQ196581:JYQ196619 JOU196581:JOU196619 JEY196581:JEY196619 IVC196581:IVC196619 ILG196581:ILG196619 IBK196581:IBK196619 HRO196581:HRO196619 HHS196581:HHS196619 GXW196581:GXW196619 GOA196581:GOA196619 GEE196581:GEE196619 FUI196581:FUI196619 FKM196581:FKM196619 FAQ196581:FAQ196619 EQU196581:EQU196619 EGY196581:EGY196619 DXC196581:DXC196619 DNG196581:DNG196619 DDK196581:DDK196619 CTO196581:CTO196619 CJS196581:CJS196619 BZW196581:BZW196619 BQA196581:BQA196619 BGE196581:BGE196619 AWI196581:AWI196619 AMM196581:AMM196619 ACQ196581:ACQ196619 SU196581:SU196619 IY196581:IY196619 WVK131045:WVK131083 WLO131045:WLO131083 WBS131045:WBS131083 VRW131045:VRW131083 VIA131045:VIA131083 UYE131045:UYE131083 UOI131045:UOI131083 UEM131045:UEM131083 TUQ131045:TUQ131083 TKU131045:TKU131083 TAY131045:TAY131083 SRC131045:SRC131083 SHG131045:SHG131083 RXK131045:RXK131083 RNO131045:RNO131083 RDS131045:RDS131083 QTW131045:QTW131083 QKA131045:QKA131083 QAE131045:QAE131083 PQI131045:PQI131083 PGM131045:PGM131083 OWQ131045:OWQ131083 OMU131045:OMU131083 OCY131045:OCY131083 NTC131045:NTC131083 NJG131045:NJG131083 MZK131045:MZK131083 MPO131045:MPO131083 MFS131045:MFS131083 LVW131045:LVW131083 LMA131045:LMA131083 LCE131045:LCE131083 KSI131045:KSI131083 KIM131045:KIM131083 JYQ131045:JYQ131083 JOU131045:JOU131083 JEY131045:JEY131083 IVC131045:IVC131083 ILG131045:ILG131083 IBK131045:IBK131083 HRO131045:HRO131083 HHS131045:HHS131083 GXW131045:GXW131083 GOA131045:GOA131083 GEE131045:GEE131083 FUI131045:FUI131083 FKM131045:FKM131083 FAQ131045:FAQ131083 EQU131045:EQU131083 EGY131045:EGY131083 DXC131045:DXC131083 DNG131045:DNG131083 DDK131045:DDK131083 CTO131045:CTO131083 CJS131045:CJS131083 BZW131045:BZW131083 BQA131045:BQA131083 BGE131045:BGE131083 AWI131045:AWI131083 AMM131045:AMM131083 ACQ131045:ACQ131083 SU131045:SU131083 IY131045:IY131083 WVK65509:WVK65547 WLO65509:WLO65547 WBS65509:WBS65547 VRW65509:VRW65547 VIA65509:VIA65547 UYE65509:UYE65547 UOI65509:UOI65547 UEM65509:UEM65547 TUQ65509:TUQ65547 TKU65509:TKU65547 TAY65509:TAY65547 SRC65509:SRC65547 SHG65509:SHG65547 RXK65509:RXK65547 RNO65509:RNO65547 RDS65509:RDS65547 QTW65509:QTW65547 QKA65509:QKA65547 QAE65509:QAE65547 PQI65509:PQI65547 PGM65509:PGM65547 OWQ65509:OWQ65547 OMU65509:OMU65547 OCY65509:OCY65547 NTC65509:NTC65547 NJG65509:NJG65547 MZK65509:MZK65547 MPO65509:MPO65547 MFS65509:MFS65547 LVW65509:LVW65547 LMA65509:LMA65547 LCE65509:LCE65547 KSI65509:KSI65547 KIM65509:KIM65547 JYQ65509:JYQ65547 JOU65509:JOU65547 JEY65509:JEY65547 IVC65509:IVC65547 ILG65509:ILG65547 IBK65509:IBK65547 HRO65509:HRO65547 HHS65509:HHS65547 GXW65509:GXW65547 GOA65509:GOA65547 GEE65509:GEE65547 FUI65509:FUI65547 FKM65509:FKM65547 FAQ65509:FAQ65547 EQU65509:EQU65547 EGY65509:EGY65547 DXC65509:DXC65547 DNG65509:DNG65547 DDK65509:DDK65547 CTO65509:CTO65547 CJS65509:CJS65547 BZW65509:BZW65547 BQA65509:BQA65547 BGE65509:BGE65547 AWI65509:AWI65547 AMM65509:AMM65547 ACQ65509:ACQ65547 SU65509:SU65547 IY65509:IY65547 SU6:SU11 ACQ6:ACQ11 AMM6:AMM11 AWI6:AWI11 BGE6:BGE11 BQA6:BQA11 BZW6:BZW11 CJS6:CJS11 CTO6:CTO11 DDK6:DDK11 DNG6:DNG11 DXC6:DXC11 EGY6:EGY11 EQU6:EQU11 FAQ6:FAQ11 FKM6:FKM11 FUI6:FUI11 GEE6:GEE11 GOA6:GOA11 GXW6:GXW11 HHS6:HHS11 HRO6:HRO11 IBK6:IBK11 ILG6:ILG11 IVC6:IVC11 JEY6:JEY11 JOU6:JOU11 JYQ6:JYQ11 KIM6:KIM11 KSI6:KSI11 LCE6:LCE11 LMA6:LMA11 LVW6:LVW11 MFS6:MFS11 MPO6:MPO11 MZK6:MZK11 NJG6:NJG11 NTC6:NTC11 OCY6:OCY11 OMU6:OMU11 OWQ6:OWQ11 PGM6:PGM11 PQI6:PQI11 QAE6:QAE11 QKA6:QKA11 QTW6:QTW11 RDS6:RDS11 RNO6:RNO11 RXK6:RXK11 SHG6:SHG11 SRC6:SRC11 TAY6:TAY11 TKU6:TKU11 TUQ6:TUQ11 UEM6:UEM11 UOI6:UOI11 UYE6:UYE11 VIA6:VIA11 VRW6:VRW11 WBS6:WBS11 WLO6:WLO11 WVK6:WVK11 H5:H11 IY6:IY11">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="142"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="124" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="125"/>
-    </row>
-    <row r="8" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" ref="A13" si="1">ROW()-7</f>
-        <v>6</v>
-      </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-    </row>
-    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-    </row>
-    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="57"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65515:IY65553 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 H983019:H983057 WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 H5:H17 WVK5:WVK17 WLO5:WLO17 WBS5:WBS17 VRW5:VRW17 VIA5:VIA17 UYE5:UYE17 UOI5:UOI17 UEM5:UEM17 TUQ5:TUQ17 TKU5:TKU17 TAY5:TAY17 SRC5:SRC17 SHG5:SHG17 RXK5:RXK17 RNO5:RNO17 RDS5:RDS17 QTW5:QTW17 QKA5:QKA17 QAE5:QAE17 PQI5:PQI17 PGM5:PGM17 OWQ5:OWQ17 OMU5:OMU17 OCY5:OCY17 NTC5:NTC17 NJG5:NJG17 MZK5:MZK17 MPO5:MPO17 MFS5:MFS17 LVW5:LVW17 LMA5:LMA17 LCE5:LCE17 KSI5:KSI17 KIM5:KIM17 JYQ5:JYQ17 JOU5:JOU17 JEY5:JEY17 IVC5:IVC17 ILG5:ILG17 IBK5:IBK17 HRO5:HRO17 HHS5:HHS17 GXW5:GXW17 GOA5:GOA17 GEE5:GEE17 FUI5:FUI17 FKM5:FKM17 FAQ5:FAQ17 EQU5:EQU17 EGY5:EGY17 DXC5:DXC17 DNG5:DNG17 DDK5:DDK17 CTO5:CTO17 CJS5:CJS17 BZW5:BZW17 BQA5:BQA17 BGE5:BGE17 AWI5:AWI17 AMM5:AMM17 ACQ5:ACQ17 SU5:SU17 IY5:IY17">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="142"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="71">
-        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
-        <v>-2</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="B6" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="125"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-    </row>
-    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="68"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="65"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
     </row>
     <row r="18" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="68"/>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
       <c r="G18" s="66"/>
       <c r="H18" s="65"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
     </row>
     <row r="19" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="71">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="68"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
       <c r="G19" s="66"/>
       <c r="H19" s="65"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="71">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="68"/>
       <c r="E20" s="67"/>
       <c r="F20" s="67"/>
       <c r="G20" s="66"/>
       <c r="H20" s="65"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="71">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="68"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
       <c r="H21" s="65"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="71">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="68"/>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
       <c r="G22" s="66"/>
       <c r="H22" s="65"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
     </row>
     <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="71">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="68"/>
       <c r="E23" s="67"/>
       <c r="F23" s="67"/>
       <c r="G23" s="66"/>
       <c r="H23" s="65"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
     </row>
     <row r="24" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="71">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="68"/>
       <c r="E24" s="67"/>
       <c r="F24" s="67"/>
       <c r="G24" s="66"/>
       <c r="H24" s="65"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
     </row>
     <row r="25" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="71">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="68"/>
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
       <c r="G25" s="66"/>
       <c r="H25" s="65"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
     </row>
     <row r="26" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="73">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="68"/>
       <c r="E26" s="70"/>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="1:10" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
       <c r="D27" s="68"/>
       <c r="E27" s="70"/>
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="73">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="68"/>
       <c r="E28" s="70"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
       <c r="H28" s="72"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="130"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="73">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
       <c r="D29" s="68"/>
       <c r="E29" s="70"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
       <c r="H29" s="72"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="73">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="68"/>
       <c r="E30" s="70"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
       <c r="H30" s="72"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="130"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="73">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="68"/>
       <c r="E31" s="70"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
       <c r="H31" s="72"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
     </row>
     <row r="32" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="73">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="68"/>
       <c r="E32" s="70"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
       <c r="H32" s="72"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
     </row>
     <row r="33" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="73">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="68"/>
       <c r="E33" s="70"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
       <c r="H33" s="72"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="130"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
     </row>
     <row r="34" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="73">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
       <c r="D34" s="68"/>
       <c r="E34" s="70"/>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
       <c r="H34" s="72"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="130"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="139"/>
     </row>
     <row r="35" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="73">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
       <c r="D35" s="68"/>
       <c r="E35" s="70"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
       <c r="H35" s="72"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="130"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="139"/>
     </row>
     <row r="36" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="73">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="68"/>
       <c r="E36" s="70"/>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
       <c r="H36" s="72"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="130"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="139"/>
     </row>
     <row r="37" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="73">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
       <c r="D37" s="68"/>
       <c r="E37" s="70"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="130"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="71">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
       <c r="D38" s="68"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="66"/>
       <c r="H38" s="65"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
     </row>
     <row r="39" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="71">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="68"/>
       <c r="E39" s="70"/>
       <c r="F39" s="67"/>
       <c r="G39" s="66"/>
       <c r="H39" s="65"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="125"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
     </row>
     <row r="40" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
       <c r="D40" s="68"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
       <c r="G40" s="66"/>
       <c r="H40" s="65"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="125"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="141"/>
     </row>
     <row r="41" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="69"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="68"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
       <c r="G41" s="66"/>
       <c r="H41" s="65"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="125"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="69"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="68"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="66"/>
       <c r="H42" s="65"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="125"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="141"/>
     </row>
     <row r="43" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="97"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="99"/>
       <c r="E43" s="63"/>
       <c r="F43" s="63"/>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
     </row>
     <row r="44" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
       <c r="A44" s="60"/>
@@ -8164,4 +5137,3892 @@
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AS33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" style="1" customWidth="1"/>
+    <col min="19" max="28" width="3.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="3.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="46"/>
+      <c r="L1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="1:45" s="22" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+    </row>
+    <row r="3" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+    </row>
+    <row r="4" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="31" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>实体列表</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+    </row>
+    <row r="6" spans="1:45" ht="29.25" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="115"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+    </row>
+    <row r="7" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="79">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="120"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+    </row>
+    <row r="8" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="79">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="120"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+    </row>
+    <row r="9" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="79">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="120"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+    </row>
+    <row r="10" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="79">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="120"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+    </row>
+    <row r="11" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="79">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="120"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+    </row>
+    <row r="12" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="79">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="120"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+    </row>
+    <row r="13" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="79">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="120"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+    </row>
+    <row r="14" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="79">
+        <v>7</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="120"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+    </row>
+    <row r="15" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+    </row>
+    <row r="16" spans="1:45" s="22" customFormat="1">
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+    </row>
+    <row r="17" spans="19:28" s="22" customFormat="1">
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+    </row>
+    <row r="18" spans="19:28" s="22" customFormat="1">
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+    </row>
+    <row r="19" spans="19:28" s="22" customFormat="1">
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="19:28" s="22" customFormat="1">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+    </row>
+    <row r="21" spans="19:28" s="22" customFormat="1">
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+    </row>
+    <row r="22" spans="19:28" s="22" customFormat="1">
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="19:28" s="22" customFormat="1">
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+    </row>
+    <row r="24" spans="19:28" s="22" customFormat="1">
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+    </row>
+    <row r="25" spans="19:28" s="22" customFormat="1">
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="19:28" s="22" customFormat="1">
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="19:28" s="22" customFormat="1">
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+    </row>
+    <row r="28" spans="19:28" s="22" customFormat="1">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+    </row>
+    <row r="29" spans="19:28" s="22" customFormat="1">
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+    </row>
+    <row r="30" spans="19:28" s="22" customFormat="1">
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+    </row>
+    <row r="31" spans="19:28" s="22" customFormat="1">
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+    </row>
+    <row r="32" spans="19:28" s="22" customFormat="1">
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+    </row>
+    <row r="33" spans="19:28" s="22" customFormat="1">
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:O6">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="23">
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="E7" location="keyword!A1" display="keyword"/>
+    <hyperlink ref="E8" location="site!A1" display="site"/>
+    <hyperlink ref="E9" location="link!A1" display="link"/>
+    <hyperlink ref="E10" location="keyword_page!A1" display="keyword_page"/>
+    <hyperlink ref="E11" location="statistics!A1" display="statistics"/>
+    <hyperlink ref="E12" location="city!A1" display="city"/>
+    <hyperlink ref="E13" location="user!A1" display="user"/>
+    <hyperlink ref="E14" location="operate_log!A1" display="operate_log"/>
+  </hyperlinks>
+  <pageMargins left="0.51" right="0.67" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="168" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="135"/>
+    </row>
+    <row r="4" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71">
+        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="137"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="141"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="137"/>
+      <c r="D6" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+    </row>
+    <row r="13" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65510:IY65548 H65510:H65548 H131046:H131084 H196582:H196620 H262118:H262156 H327654:H327692 H393190:H393228 H458726:H458764 H524262:H524300 H589798:H589836 H655334:H655372 H720870:H720908 H786406:H786444 H851942:H851980 H917478:H917516 H983014:H983052 WVK983014:WVK983052 WLO983014:WLO983052 WBS983014:WBS983052 VRW983014:VRW983052 VIA983014:VIA983052 UYE983014:UYE983052 UOI983014:UOI983052 UEM983014:UEM983052 TUQ983014:TUQ983052 TKU983014:TKU983052 TAY983014:TAY983052 SRC983014:SRC983052 SHG983014:SHG983052 RXK983014:RXK983052 RNO983014:RNO983052 RDS983014:RDS983052 QTW983014:QTW983052 QKA983014:QKA983052 QAE983014:QAE983052 PQI983014:PQI983052 PGM983014:PGM983052 OWQ983014:OWQ983052 OMU983014:OMU983052 OCY983014:OCY983052 NTC983014:NTC983052 NJG983014:NJG983052 MZK983014:MZK983052 MPO983014:MPO983052 MFS983014:MFS983052 LVW983014:LVW983052 LMA983014:LMA983052 LCE983014:LCE983052 KSI983014:KSI983052 KIM983014:KIM983052 JYQ983014:JYQ983052 JOU983014:JOU983052 JEY983014:JEY983052 IVC983014:IVC983052 ILG983014:ILG983052 IBK983014:IBK983052 HRO983014:HRO983052 HHS983014:HHS983052 GXW983014:GXW983052 GOA983014:GOA983052 GEE983014:GEE983052 FUI983014:FUI983052 FKM983014:FKM983052 FAQ983014:FAQ983052 EQU983014:EQU983052 EGY983014:EGY983052 DXC983014:DXC983052 DNG983014:DNG983052 DDK983014:DDK983052 CTO983014:CTO983052 CJS983014:CJS983052 BZW983014:BZW983052 BQA983014:BQA983052 BGE983014:BGE983052 AWI983014:AWI983052 AMM983014:AMM983052 ACQ983014:ACQ983052 SU983014:SU983052 IY983014:IY983052 WVK917478:WVK917516 WLO917478:WLO917516 WBS917478:WBS917516 VRW917478:VRW917516 VIA917478:VIA917516 UYE917478:UYE917516 UOI917478:UOI917516 UEM917478:UEM917516 TUQ917478:TUQ917516 TKU917478:TKU917516 TAY917478:TAY917516 SRC917478:SRC917516 SHG917478:SHG917516 RXK917478:RXK917516 RNO917478:RNO917516 RDS917478:RDS917516 QTW917478:QTW917516 QKA917478:QKA917516 QAE917478:QAE917516 PQI917478:PQI917516 PGM917478:PGM917516 OWQ917478:OWQ917516 OMU917478:OMU917516 OCY917478:OCY917516 NTC917478:NTC917516 NJG917478:NJG917516 MZK917478:MZK917516 MPO917478:MPO917516 MFS917478:MFS917516 LVW917478:LVW917516 LMA917478:LMA917516 LCE917478:LCE917516 KSI917478:KSI917516 KIM917478:KIM917516 JYQ917478:JYQ917516 JOU917478:JOU917516 JEY917478:JEY917516 IVC917478:IVC917516 ILG917478:ILG917516 IBK917478:IBK917516 HRO917478:HRO917516 HHS917478:HHS917516 GXW917478:GXW917516 GOA917478:GOA917516 GEE917478:GEE917516 FUI917478:FUI917516 FKM917478:FKM917516 FAQ917478:FAQ917516 EQU917478:EQU917516 EGY917478:EGY917516 DXC917478:DXC917516 DNG917478:DNG917516 DDK917478:DDK917516 CTO917478:CTO917516 CJS917478:CJS917516 BZW917478:BZW917516 BQA917478:BQA917516 BGE917478:BGE917516 AWI917478:AWI917516 AMM917478:AMM917516 ACQ917478:ACQ917516 SU917478:SU917516 IY917478:IY917516 WVK851942:WVK851980 WLO851942:WLO851980 WBS851942:WBS851980 VRW851942:VRW851980 VIA851942:VIA851980 UYE851942:UYE851980 UOI851942:UOI851980 UEM851942:UEM851980 TUQ851942:TUQ851980 TKU851942:TKU851980 TAY851942:TAY851980 SRC851942:SRC851980 SHG851942:SHG851980 RXK851942:RXK851980 RNO851942:RNO851980 RDS851942:RDS851980 QTW851942:QTW851980 QKA851942:QKA851980 QAE851942:QAE851980 PQI851942:PQI851980 PGM851942:PGM851980 OWQ851942:OWQ851980 OMU851942:OMU851980 OCY851942:OCY851980 NTC851942:NTC851980 NJG851942:NJG851980 MZK851942:MZK851980 MPO851942:MPO851980 MFS851942:MFS851980 LVW851942:LVW851980 LMA851942:LMA851980 LCE851942:LCE851980 KSI851942:KSI851980 KIM851942:KIM851980 JYQ851942:JYQ851980 JOU851942:JOU851980 JEY851942:JEY851980 IVC851942:IVC851980 ILG851942:ILG851980 IBK851942:IBK851980 HRO851942:HRO851980 HHS851942:HHS851980 GXW851942:GXW851980 GOA851942:GOA851980 GEE851942:GEE851980 FUI851942:FUI851980 FKM851942:FKM851980 FAQ851942:FAQ851980 EQU851942:EQU851980 EGY851942:EGY851980 DXC851942:DXC851980 DNG851942:DNG851980 DDK851942:DDK851980 CTO851942:CTO851980 CJS851942:CJS851980 BZW851942:BZW851980 BQA851942:BQA851980 BGE851942:BGE851980 AWI851942:AWI851980 AMM851942:AMM851980 ACQ851942:ACQ851980 SU851942:SU851980 IY851942:IY851980 WVK786406:WVK786444 WLO786406:WLO786444 WBS786406:WBS786444 VRW786406:VRW786444 VIA786406:VIA786444 UYE786406:UYE786444 UOI786406:UOI786444 UEM786406:UEM786444 TUQ786406:TUQ786444 TKU786406:TKU786444 TAY786406:TAY786444 SRC786406:SRC786444 SHG786406:SHG786444 RXK786406:RXK786444 RNO786406:RNO786444 RDS786406:RDS786444 QTW786406:QTW786444 QKA786406:QKA786444 QAE786406:QAE786444 PQI786406:PQI786444 PGM786406:PGM786444 OWQ786406:OWQ786444 OMU786406:OMU786444 OCY786406:OCY786444 NTC786406:NTC786444 NJG786406:NJG786444 MZK786406:MZK786444 MPO786406:MPO786444 MFS786406:MFS786444 LVW786406:LVW786444 LMA786406:LMA786444 LCE786406:LCE786444 KSI786406:KSI786444 KIM786406:KIM786444 JYQ786406:JYQ786444 JOU786406:JOU786444 JEY786406:JEY786444 IVC786406:IVC786444 ILG786406:ILG786444 IBK786406:IBK786444 HRO786406:HRO786444 HHS786406:HHS786444 GXW786406:GXW786444 GOA786406:GOA786444 GEE786406:GEE786444 FUI786406:FUI786444 FKM786406:FKM786444 FAQ786406:FAQ786444 EQU786406:EQU786444 EGY786406:EGY786444 DXC786406:DXC786444 DNG786406:DNG786444 DDK786406:DDK786444 CTO786406:CTO786444 CJS786406:CJS786444 BZW786406:BZW786444 BQA786406:BQA786444 BGE786406:BGE786444 AWI786406:AWI786444 AMM786406:AMM786444 ACQ786406:ACQ786444 SU786406:SU786444 IY786406:IY786444 WVK720870:WVK720908 WLO720870:WLO720908 WBS720870:WBS720908 VRW720870:VRW720908 VIA720870:VIA720908 UYE720870:UYE720908 UOI720870:UOI720908 UEM720870:UEM720908 TUQ720870:TUQ720908 TKU720870:TKU720908 TAY720870:TAY720908 SRC720870:SRC720908 SHG720870:SHG720908 RXK720870:RXK720908 RNO720870:RNO720908 RDS720870:RDS720908 QTW720870:QTW720908 QKA720870:QKA720908 QAE720870:QAE720908 PQI720870:PQI720908 PGM720870:PGM720908 OWQ720870:OWQ720908 OMU720870:OMU720908 OCY720870:OCY720908 NTC720870:NTC720908 NJG720870:NJG720908 MZK720870:MZK720908 MPO720870:MPO720908 MFS720870:MFS720908 LVW720870:LVW720908 LMA720870:LMA720908 LCE720870:LCE720908 KSI720870:KSI720908 KIM720870:KIM720908 JYQ720870:JYQ720908 JOU720870:JOU720908 JEY720870:JEY720908 IVC720870:IVC720908 ILG720870:ILG720908 IBK720870:IBK720908 HRO720870:HRO720908 HHS720870:HHS720908 GXW720870:GXW720908 GOA720870:GOA720908 GEE720870:GEE720908 FUI720870:FUI720908 FKM720870:FKM720908 FAQ720870:FAQ720908 EQU720870:EQU720908 EGY720870:EGY720908 DXC720870:DXC720908 DNG720870:DNG720908 DDK720870:DDK720908 CTO720870:CTO720908 CJS720870:CJS720908 BZW720870:BZW720908 BQA720870:BQA720908 BGE720870:BGE720908 AWI720870:AWI720908 AMM720870:AMM720908 ACQ720870:ACQ720908 SU720870:SU720908 IY720870:IY720908 WVK655334:WVK655372 WLO655334:WLO655372 WBS655334:WBS655372 VRW655334:VRW655372 VIA655334:VIA655372 UYE655334:UYE655372 UOI655334:UOI655372 UEM655334:UEM655372 TUQ655334:TUQ655372 TKU655334:TKU655372 TAY655334:TAY655372 SRC655334:SRC655372 SHG655334:SHG655372 RXK655334:RXK655372 RNO655334:RNO655372 RDS655334:RDS655372 QTW655334:QTW655372 QKA655334:QKA655372 QAE655334:QAE655372 PQI655334:PQI655372 PGM655334:PGM655372 OWQ655334:OWQ655372 OMU655334:OMU655372 OCY655334:OCY655372 NTC655334:NTC655372 NJG655334:NJG655372 MZK655334:MZK655372 MPO655334:MPO655372 MFS655334:MFS655372 LVW655334:LVW655372 LMA655334:LMA655372 LCE655334:LCE655372 KSI655334:KSI655372 KIM655334:KIM655372 JYQ655334:JYQ655372 JOU655334:JOU655372 JEY655334:JEY655372 IVC655334:IVC655372 ILG655334:ILG655372 IBK655334:IBK655372 HRO655334:HRO655372 HHS655334:HHS655372 GXW655334:GXW655372 GOA655334:GOA655372 GEE655334:GEE655372 FUI655334:FUI655372 FKM655334:FKM655372 FAQ655334:FAQ655372 EQU655334:EQU655372 EGY655334:EGY655372 DXC655334:DXC655372 DNG655334:DNG655372 DDK655334:DDK655372 CTO655334:CTO655372 CJS655334:CJS655372 BZW655334:BZW655372 BQA655334:BQA655372 BGE655334:BGE655372 AWI655334:AWI655372 AMM655334:AMM655372 ACQ655334:ACQ655372 SU655334:SU655372 IY655334:IY655372 WVK589798:WVK589836 WLO589798:WLO589836 WBS589798:WBS589836 VRW589798:VRW589836 VIA589798:VIA589836 UYE589798:UYE589836 UOI589798:UOI589836 UEM589798:UEM589836 TUQ589798:TUQ589836 TKU589798:TKU589836 TAY589798:TAY589836 SRC589798:SRC589836 SHG589798:SHG589836 RXK589798:RXK589836 RNO589798:RNO589836 RDS589798:RDS589836 QTW589798:QTW589836 QKA589798:QKA589836 QAE589798:QAE589836 PQI589798:PQI589836 PGM589798:PGM589836 OWQ589798:OWQ589836 OMU589798:OMU589836 OCY589798:OCY589836 NTC589798:NTC589836 NJG589798:NJG589836 MZK589798:MZK589836 MPO589798:MPO589836 MFS589798:MFS589836 LVW589798:LVW589836 LMA589798:LMA589836 LCE589798:LCE589836 KSI589798:KSI589836 KIM589798:KIM589836 JYQ589798:JYQ589836 JOU589798:JOU589836 JEY589798:JEY589836 IVC589798:IVC589836 ILG589798:ILG589836 IBK589798:IBK589836 HRO589798:HRO589836 HHS589798:HHS589836 GXW589798:GXW589836 GOA589798:GOA589836 GEE589798:GEE589836 FUI589798:FUI589836 FKM589798:FKM589836 FAQ589798:FAQ589836 EQU589798:EQU589836 EGY589798:EGY589836 DXC589798:DXC589836 DNG589798:DNG589836 DDK589798:DDK589836 CTO589798:CTO589836 CJS589798:CJS589836 BZW589798:BZW589836 BQA589798:BQA589836 BGE589798:BGE589836 AWI589798:AWI589836 AMM589798:AMM589836 ACQ589798:ACQ589836 SU589798:SU589836 IY589798:IY589836 WVK524262:WVK524300 WLO524262:WLO524300 WBS524262:WBS524300 VRW524262:VRW524300 VIA524262:VIA524300 UYE524262:UYE524300 UOI524262:UOI524300 UEM524262:UEM524300 TUQ524262:TUQ524300 TKU524262:TKU524300 TAY524262:TAY524300 SRC524262:SRC524300 SHG524262:SHG524300 RXK524262:RXK524300 RNO524262:RNO524300 RDS524262:RDS524300 QTW524262:QTW524300 QKA524262:QKA524300 QAE524262:QAE524300 PQI524262:PQI524300 PGM524262:PGM524300 OWQ524262:OWQ524300 OMU524262:OMU524300 OCY524262:OCY524300 NTC524262:NTC524300 NJG524262:NJG524300 MZK524262:MZK524300 MPO524262:MPO524300 MFS524262:MFS524300 LVW524262:LVW524300 LMA524262:LMA524300 LCE524262:LCE524300 KSI524262:KSI524300 KIM524262:KIM524300 JYQ524262:JYQ524300 JOU524262:JOU524300 JEY524262:JEY524300 IVC524262:IVC524300 ILG524262:ILG524300 IBK524262:IBK524300 HRO524262:HRO524300 HHS524262:HHS524300 GXW524262:GXW524300 GOA524262:GOA524300 GEE524262:GEE524300 FUI524262:FUI524300 FKM524262:FKM524300 FAQ524262:FAQ524300 EQU524262:EQU524300 EGY524262:EGY524300 DXC524262:DXC524300 DNG524262:DNG524300 DDK524262:DDK524300 CTO524262:CTO524300 CJS524262:CJS524300 BZW524262:BZW524300 BQA524262:BQA524300 BGE524262:BGE524300 AWI524262:AWI524300 AMM524262:AMM524300 ACQ524262:ACQ524300 SU524262:SU524300 IY524262:IY524300 WVK458726:WVK458764 WLO458726:WLO458764 WBS458726:WBS458764 VRW458726:VRW458764 VIA458726:VIA458764 UYE458726:UYE458764 UOI458726:UOI458764 UEM458726:UEM458764 TUQ458726:TUQ458764 TKU458726:TKU458764 TAY458726:TAY458764 SRC458726:SRC458764 SHG458726:SHG458764 RXK458726:RXK458764 RNO458726:RNO458764 RDS458726:RDS458764 QTW458726:QTW458764 QKA458726:QKA458764 QAE458726:QAE458764 PQI458726:PQI458764 PGM458726:PGM458764 OWQ458726:OWQ458764 OMU458726:OMU458764 OCY458726:OCY458764 NTC458726:NTC458764 NJG458726:NJG458764 MZK458726:MZK458764 MPO458726:MPO458764 MFS458726:MFS458764 LVW458726:LVW458764 LMA458726:LMA458764 LCE458726:LCE458764 KSI458726:KSI458764 KIM458726:KIM458764 JYQ458726:JYQ458764 JOU458726:JOU458764 JEY458726:JEY458764 IVC458726:IVC458764 ILG458726:ILG458764 IBK458726:IBK458764 HRO458726:HRO458764 HHS458726:HHS458764 GXW458726:GXW458764 GOA458726:GOA458764 GEE458726:GEE458764 FUI458726:FUI458764 FKM458726:FKM458764 FAQ458726:FAQ458764 EQU458726:EQU458764 EGY458726:EGY458764 DXC458726:DXC458764 DNG458726:DNG458764 DDK458726:DDK458764 CTO458726:CTO458764 CJS458726:CJS458764 BZW458726:BZW458764 BQA458726:BQA458764 BGE458726:BGE458764 AWI458726:AWI458764 AMM458726:AMM458764 ACQ458726:ACQ458764 SU458726:SU458764 IY458726:IY458764 WVK393190:WVK393228 WLO393190:WLO393228 WBS393190:WBS393228 VRW393190:VRW393228 VIA393190:VIA393228 UYE393190:UYE393228 UOI393190:UOI393228 UEM393190:UEM393228 TUQ393190:TUQ393228 TKU393190:TKU393228 TAY393190:TAY393228 SRC393190:SRC393228 SHG393190:SHG393228 RXK393190:RXK393228 RNO393190:RNO393228 RDS393190:RDS393228 QTW393190:QTW393228 QKA393190:QKA393228 QAE393190:QAE393228 PQI393190:PQI393228 PGM393190:PGM393228 OWQ393190:OWQ393228 OMU393190:OMU393228 OCY393190:OCY393228 NTC393190:NTC393228 NJG393190:NJG393228 MZK393190:MZK393228 MPO393190:MPO393228 MFS393190:MFS393228 LVW393190:LVW393228 LMA393190:LMA393228 LCE393190:LCE393228 KSI393190:KSI393228 KIM393190:KIM393228 JYQ393190:JYQ393228 JOU393190:JOU393228 JEY393190:JEY393228 IVC393190:IVC393228 ILG393190:ILG393228 IBK393190:IBK393228 HRO393190:HRO393228 HHS393190:HHS393228 GXW393190:GXW393228 GOA393190:GOA393228 GEE393190:GEE393228 FUI393190:FUI393228 FKM393190:FKM393228 FAQ393190:FAQ393228 EQU393190:EQU393228 EGY393190:EGY393228 DXC393190:DXC393228 DNG393190:DNG393228 DDK393190:DDK393228 CTO393190:CTO393228 CJS393190:CJS393228 BZW393190:BZW393228 BQA393190:BQA393228 BGE393190:BGE393228 AWI393190:AWI393228 AMM393190:AMM393228 ACQ393190:ACQ393228 SU393190:SU393228 IY393190:IY393228 WVK327654:WVK327692 WLO327654:WLO327692 WBS327654:WBS327692 VRW327654:VRW327692 VIA327654:VIA327692 UYE327654:UYE327692 UOI327654:UOI327692 UEM327654:UEM327692 TUQ327654:TUQ327692 TKU327654:TKU327692 TAY327654:TAY327692 SRC327654:SRC327692 SHG327654:SHG327692 RXK327654:RXK327692 RNO327654:RNO327692 RDS327654:RDS327692 QTW327654:QTW327692 QKA327654:QKA327692 QAE327654:QAE327692 PQI327654:PQI327692 PGM327654:PGM327692 OWQ327654:OWQ327692 OMU327654:OMU327692 OCY327654:OCY327692 NTC327654:NTC327692 NJG327654:NJG327692 MZK327654:MZK327692 MPO327654:MPO327692 MFS327654:MFS327692 LVW327654:LVW327692 LMA327654:LMA327692 LCE327654:LCE327692 KSI327654:KSI327692 KIM327654:KIM327692 JYQ327654:JYQ327692 JOU327654:JOU327692 JEY327654:JEY327692 IVC327654:IVC327692 ILG327654:ILG327692 IBK327654:IBK327692 HRO327654:HRO327692 HHS327654:HHS327692 GXW327654:GXW327692 GOA327654:GOA327692 GEE327654:GEE327692 FUI327654:FUI327692 FKM327654:FKM327692 FAQ327654:FAQ327692 EQU327654:EQU327692 EGY327654:EGY327692 DXC327654:DXC327692 DNG327654:DNG327692 DDK327654:DDK327692 CTO327654:CTO327692 CJS327654:CJS327692 BZW327654:BZW327692 BQA327654:BQA327692 BGE327654:BGE327692 AWI327654:AWI327692 AMM327654:AMM327692 ACQ327654:ACQ327692 SU327654:SU327692 IY327654:IY327692 WVK262118:WVK262156 WLO262118:WLO262156 WBS262118:WBS262156 VRW262118:VRW262156 VIA262118:VIA262156 UYE262118:UYE262156 UOI262118:UOI262156 UEM262118:UEM262156 TUQ262118:TUQ262156 TKU262118:TKU262156 TAY262118:TAY262156 SRC262118:SRC262156 SHG262118:SHG262156 RXK262118:RXK262156 RNO262118:RNO262156 RDS262118:RDS262156 QTW262118:QTW262156 QKA262118:QKA262156 QAE262118:QAE262156 PQI262118:PQI262156 PGM262118:PGM262156 OWQ262118:OWQ262156 OMU262118:OMU262156 OCY262118:OCY262156 NTC262118:NTC262156 NJG262118:NJG262156 MZK262118:MZK262156 MPO262118:MPO262156 MFS262118:MFS262156 LVW262118:LVW262156 LMA262118:LMA262156 LCE262118:LCE262156 KSI262118:KSI262156 KIM262118:KIM262156 JYQ262118:JYQ262156 JOU262118:JOU262156 JEY262118:JEY262156 IVC262118:IVC262156 ILG262118:ILG262156 IBK262118:IBK262156 HRO262118:HRO262156 HHS262118:HHS262156 GXW262118:GXW262156 GOA262118:GOA262156 GEE262118:GEE262156 FUI262118:FUI262156 FKM262118:FKM262156 FAQ262118:FAQ262156 EQU262118:EQU262156 EGY262118:EGY262156 DXC262118:DXC262156 DNG262118:DNG262156 DDK262118:DDK262156 CTO262118:CTO262156 CJS262118:CJS262156 BZW262118:BZW262156 BQA262118:BQA262156 BGE262118:BGE262156 AWI262118:AWI262156 AMM262118:AMM262156 ACQ262118:ACQ262156 SU262118:SU262156 IY262118:IY262156 WVK196582:WVK196620 WLO196582:WLO196620 WBS196582:WBS196620 VRW196582:VRW196620 VIA196582:VIA196620 UYE196582:UYE196620 UOI196582:UOI196620 UEM196582:UEM196620 TUQ196582:TUQ196620 TKU196582:TKU196620 TAY196582:TAY196620 SRC196582:SRC196620 SHG196582:SHG196620 RXK196582:RXK196620 RNO196582:RNO196620 RDS196582:RDS196620 QTW196582:QTW196620 QKA196582:QKA196620 QAE196582:QAE196620 PQI196582:PQI196620 PGM196582:PGM196620 OWQ196582:OWQ196620 OMU196582:OMU196620 OCY196582:OCY196620 NTC196582:NTC196620 NJG196582:NJG196620 MZK196582:MZK196620 MPO196582:MPO196620 MFS196582:MFS196620 LVW196582:LVW196620 LMA196582:LMA196620 LCE196582:LCE196620 KSI196582:KSI196620 KIM196582:KIM196620 JYQ196582:JYQ196620 JOU196582:JOU196620 JEY196582:JEY196620 IVC196582:IVC196620 ILG196582:ILG196620 IBK196582:IBK196620 HRO196582:HRO196620 HHS196582:HHS196620 GXW196582:GXW196620 GOA196582:GOA196620 GEE196582:GEE196620 FUI196582:FUI196620 FKM196582:FKM196620 FAQ196582:FAQ196620 EQU196582:EQU196620 EGY196582:EGY196620 DXC196582:DXC196620 DNG196582:DNG196620 DDK196582:DDK196620 CTO196582:CTO196620 CJS196582:CJS196620 BZW196582:BZW196620 BQA196582:BQA196620 BGE196582:BGE196620 AWI196582:AWI196620 AMM196582:AMM196620 ACQ196582:ACQ196620 SU196582:SU196620 IY196582:IY196620 WVK131046:WVK131084 WLO131046:WLO131084 WBS131046:WBS131084 VRW131046:VRW131084 VIA131046:VIA131084 UYE131046:UYE131084 UOI131046:UOI131084 UEM131046:UEM131084 TUQ131046:TUQ131084 TKU131046:TKU131084 TAY131046:TAY131084 SRC131046:SRC131084 SHG131046:SHG131084 RXK131046:RXK131084 RNO131046:RNO131084 RDS131046:RDS131084 QTW131046:QTW131084 QKA131046:QKA131084 QAE131046:QAE131084 PQI131046:PQI131084 PGM131046:PGM131084 OWQ131046:OWQ131084 OMU131046:OMU131084 OCY131046:OCY131084 NTC131046:NTC131084 NJG131046:NJG131084 MZK131046:MZK131084 MPO131046:MPO131084 MFS131046:MFS131084 LVW131046:LVW131084 LMA131046:LMA131084 LCE131046:LCE131084 KSI131046:KSI131084 KIM131046:KIM131084 JYQ131046:JYQ131084 JOU131046:JOU131084 JEY131046:JEY131084 IVC131046:IVC131084 ILG131046:ILG131084 IBK131046:IBK131084 HRO131046:HRO131084 HHS131046:HHS131084 GXW131046:GXW131084 GOA131046:GOA131084 GEE131046:GEE131084 FUI131046:FUI131084 FKM131046:FKM131084 FAQ131046:FAQ131084 EQU131046:EQU131084 EGY131046:EGY131084 DXC131046:DXC131084 DNG131046:DNG131084 DDK131046:DDK131084 CTO131046:CTO131084 CJS131046:CJS131084 BZW131046:BZW131084 BQA131046:BQA131084 BGE131046:BGE131084 AWI131046:AWI131084 AMM131046:AMM131084 ACQ131046:ACQ131084 SU131046:SU131084 IY131046:IY131084 WVK65510:WVK65548 WLO65510:WLO65548 WBS65510:WBS65548 VRW65510:VRW65548 VIA65510:VIA65548 UYE65510:UYE65548 UOI65510:UOI65548 UEM65510:UEM65548 TUQ65510:TUQ65548 TKU65510:TKU65548 TAY65510:TAY65548 SRC65510:SRC65548 SHG65510:SHG65548 RXK65510:RXK65548 RNO65510:RNO65548 RDS65510:RDS65548 QTW65510:QTW65548 QKA65510:QKA65548 QAE65510:QAE65548 PQI65510:PQI65548 PGM65510:PGM65548 OWQ65510:OWQ65548 OMU65510:OMU65548 OCY65510:OCY65548 NTC65510:NTC65548 NJG65510:NJG65548 MZK65510:MZK65548 MPO65510:MPO65548 MFS65510:MFS65548 LVW65510:LVW65548 LMA65510:LMA65548 LCE65510:LCE65548 KSI65510:KSI65548 KIM65510:KIM65548 JYQ65510:JYQ65548 JOU65510:JOU65548 JEY65510:JEY65548 IVC65510:IVC65548 ILG65510:ILG65548 IBK65510:IBK65548 HRO65510:HRO65548 HHS65510:HHS65548 GXW65510:GXW65548 GOA65510:GOA65548 GEE65510:GEE65548 FUI65510:FUI65548 FKM65510:FKM65548 FAQ65510:FAQ65548 EQU65510:EQU65548 EGY65510:EGY65548 DXC65510:DXC65548 DNG65510:DNG65548 DDK65510:DDK65548 CTO65510:CTO65548 CJS65510:CJS65548 BZW65510:BZW65548 BQA65510:BQA65548 BGE65510:BGE65548 AWI65510:AWI65548 AMM65510:AMM65548 ACQ65510:ACQ65548 SU65510:SU65548 H4:H12 WVK4:WVK12 WLO4:WLO12 WBS4:WBS12 VRW4:VRW12 VIA4:VIA12 UYE4:UYE12 UOI4:UOI12 UEM4:UEM12 TUQ4:TUQ12 TKU4:TKU12 TAY4:TAY12 SRC4:SRC12 SHG4:SHG12 RXK4:RXK12 RNO4:RNO12 RDS4:RDS12 QTW4:QTW12 QKA4:QKA12 QAE4:QAE12 PQI4:PQI12 PGM4:PGM12 OWQ4:OWQ12 OMU4:OMU12 OCY4:OCY12 NTC4:NTC12 NJG4:NJG12 MZK4:MZK12 MPO4:MPO12 MFS4:MFS12 LVW4:LVW12 LMA4:LMA12 LCE4:LCE12 KSI4:KSI12 KIM4:KIM12 JYQ4:JYQ12 JOU4:JOU12 JEY4:JEY12 IVC4:IVC12 ILG4:ILG12 IBK4:IBK12 HRO4:HRO12 HHS4:HHS12 GXW4:GXW12 GOA4:GOA12 GEE4:GEE12 FUI4:FUI12 FKM4:FKM12 FAQ4:FAQ12 EQU4:EQU12 EGY4:EGY12 DXC4:DXC12 DNG4:DNG12 DDK4:DDK12 CTO4:CTO12 CJS4:CJS12 BZW4:BZW12 BQA4:BQA12 BGE4:BGE12 AWI4:AWI12 AMM4:AMM12 ACQ4:ACQ12 SU4:SU12 IY4:IY12">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A22" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+    </row>
+    <row r="7" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="140" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="71">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="144"/>
+      <c r="D14" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="140" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="71">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="144"/>
+      <c r="D15" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="71">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="144"/>
+      <c r="D16" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="71">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="144"/>
+      <c r="D17" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+    </row>
+    <row r="18" spans="1:10" s="61" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A18" s="71">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="144"/>
+      <c r="D18" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="141"/>
+    </row>
+    <row r="19" spans="1:10" s="61" customFormat="1" ht="39" customHeight="1">
+      <c r="A19" s="71">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="144"/>
+      <c r="D19" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="141"/>
+    </row>
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="42" customHeight="1">
+      <c r="A20" s="71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="144"/>
+      <c r="D20" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="141"/>
+    </row>
+    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="71">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="144"/>
+      <c r="D21" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+    </row>
+    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="71">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="141"/>
+    </row>
+    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+    </row>
+    <row r="24" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="57"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65521:IY65559 H65521:H65559 H131057:H131095 H196593:H196631 H262129:H262167 H327665:H327703 H393201:H393239 H458737:H458775 H524273:H524311 H589809:H589847 H655345:H655383 H720881:H720919 H786417:H786455 H851953:H851991 H917489:H917527 H983025:H983063 SU65521:SU65559 WVK983025:WVK983063 WLO983025:WLO983063 WBS983025:WBS983063 VRW983025:VRW983063 VIA983025:VIA983063 UYE983025:UYE983063 UOI983025:UOI983063 UEM983025:UEM983063 TUQ983025:TUQ983063 TKU983025:TKU983063 TAY983025:TAY983063 SRC983025:SRC983063 SHG983025:SHG983063 RXK983025:RXK983063 RNO983025:RNO983063 RDS983025:RDS983063 QTW983025:QTW983063 QKA983025:QKA983063 QAE983025:QAE983063 PQI983025:PQI983063 PGM983025:PGM983063 OWQ983025:OWQ983063 OMU983025:OMU983063 OCY983025:OCY983063 NTC983025:NTC983063 NJG983025:NJG983063 MZK983025:MZK983063 MPO983025:MPO983063 MFS983025:MFS983063 LVW983025:LVW983063 LMA983025:LMA983063 LCE983025:LCE983063 KSI983025:KSI983063 KIM983025:KIM983063 JYQ983025:JYQ983063 JOU983025:JOU983063 JEY983025:JEY983063 IVC983025:IVC983063 ILG983025:ILG983063 IBK983025:IBK983063 HRO983025:HRO983063 HHS983025:HHS983063 GXW983025:GXW983063 GOA983025:GOA983063 GEE983025:GEE983063 FUI983025:FUI983063 FKM983025:FKM983063 FAQ983025:FAQ983063 EQU983025:EQU983063 EGY983025:EGY983063 DXC983025:DXC983063 DNG983025:DNG983063 DDK983025:DDK983063 CTO983025:CTO983063 CJS983025:CJS983063 BZW983025:BZW983063 BQA983025:BQA983063 BGE983025:BGE983063 AWI983025:AWI983063 AMM983025:AMM983063 ACQ983025:ACQ983063 SU983025:SU983063 IY983025:IY983063 WVK917489:WVK917527 WLO917489:WLO917527 WBS917489:WBS917527 VRW917489:VRW917527 VIA917489:VIA917527 UYE917489:UYE917527 UOI917489:UOI917527 UEM917489:UEM917527 TUQ917489:TUQ917527 TKU917489:TKU917527 TAY917489:TAY917527 SRC917489:SRC917527 SHG917489:SHG917527 RXK917489:RXK917527 RNO917489:RNO917527 RDS917489:RDS917527 QTW917489:QTW917527 QKA917489:QKA917527 QAE917489:QAE917527 PQI917489:PQI917527 PGM917489:PGM917527 OWQ917489:OWQ917527 OMU917489:OMU917527 OCY917489:OCY917527 NTC917489:NTC917527 NJG917489:NJG917527 MZK917489:MZK917527 MPO917489:MPO917527 MFS917489:MFS917527 LVW917489:LVW917527 LMA917489:LMA917527 LCE917489:LCE917527 KSI917489:KSI917527 KIM917489:KIM917527 JYQ917489:JYQ917527 JOU917489:JOU917527 JEY917489:JEY917527 IVC917489:IVC917527 ILG917489:ILG917527 IBK917489:IBK917527 HRO917489:HRO917527 HHS917489:HHS917527 GXW917489:GXW917527 GOA917489:GOA917527 GEE917489:GEE917527 FUI917489:FUI917527 FKM917489:FKM917527 FAQ917489:FAQ917527 EQU917489:EQU917527 EGY917489:EGY917527 DXC917489:DXC917527 DNG917489:DNG917527 DDK917489:DDK917527 CTO917489:CTO917527 CJS917489:CJS917527 BZW917489:BZW917527 BQA917489:BQA917527 BGE917489:BGE917527 AWI917489:AWI917527 AMM917489:AMM917527 ACQ917489:ACQ917527 SU917489:SU917527 IY917489:IY917527 WVK851953:WVK851991 WLO851953:WLO851991 WBS851953:WBS851991 VRW851953:VRW851991 VIA851953:VIA851991 UYE851953:UYE851991 UOI851953:UOI851991 UEM851953:UEM851991 TUQ851953:TUQ851991 TKU851953:TKU851991 TAY851953:TAY851991 SRC851953:SRC851991 SHG851953:SHG851991 RXK851953:RXK851991 RNO851953:RNO851991 RDS851953:RDS851991 QTW851953:QTW851991 QKA851953:QKA851991 QAE851953:QAE851991 PQI851953:PQI851991 PGM851953:PGM851991 OWQ851953:OWQ851991 OMU851953:OMU851991 OCY851953:OCY851991 NTC851953:NTC851991 NJG851953:NJG851991 MZK851953:MZK851991 MPO851953:MPO851991 MFS851953:MFS851991 LVW851953:LVW851991 LMA851953:LMA851991 LCE851953:LCE851991 KSI851953:KSI851991 KIM851953:KIM851991 JYQ851953:JYQ851991 JOU851953:JOU851991 JEY851953:JEY851991 IVC851953:IVC851991 ILG851953:ILG851991 IBK851953:IBK851991 HRO851953:HRO851991 HHS851953:HHS851991 GXW851953:GXW851991 GOA851953:GOA851991 GEE851953:GEE851991 FUI851953:FUI851991 FKM851953:FKM851991 FAQ851953:FAQ851991 EQU851953:EQU851991 EGY851953:EGY851991 DXC851953:DXC851991 DNG851953:DNG851991 DDK851953:DDK851991 CTO851953:CTO851991 CJS851953:CJS851991 BZW851953:BZW851991 BQA851953:BQA851991 BGE851953:BGE851991 AWI851953:AWI851991 AMM851953:AMM851991 ACQ851953:ACQ851991 SU851953:SU851991 IY851953:IY851991 WVK786417:WVK786455 WLO786417:WLO786455 WBS786417:WBS786455 VRW786417:VRW786455 VIA786417:VIA786455 UYE786417:UYE786455 UOI786417:UOI786455 UEM786417:UEM786455 TUQ786417:TUQ786455 TKU786417:TKU786455 TAY786417:TAY786455 SRC786417:SRC786455 SHG786417:SHG786455 RXK786417:RXK786455 RNO786417:RNO786455 RDS786417:RDS786455 QTW786417:QTW786455 QKA786417:QKA786455 QAE786417:QAE786455 PQI786417:PQI786455 PGM786417:PGM786455 OWQ786417:OWQ786455 OMU786417:OMU786455 OCY786417:OCY786455 NTC786417:NTC786455 NJG786417:NJG786455 MZK786417:MZK786455 MPO786417:MPO786455 MFS786417:MFS786455 LVW786417:LVW786455 LMA786417:LMA786455 LCE786417:LCE786455 KSI786417:KSI786455 KIM786417:KIM786455 JYQ786417:JYQ786455 JOU786417:JOU786455 JEY786417:JEY786455 IVC786417:IVC786455 ILG786417:ILG786455 IBK786417:IBK786455 HRO786417:HRO786455 HHS786417:HHS786455 GXW786417:GXW786455 GOA786417:GOA786455 GEE786417:GEE786455 FUI786417:FUI786455 FKM786417:FKM786455 FAQ786417:FAQ786455 EQU786417:EQU786455 EGY786417:EGY786455 DXC786417:DXC786455 DNG786417:DNG786455 DDK786417:DDK786455 CTO786417:CTO786455 CJS786417:CJS786455 BZW786417:BZW786455 BQA786417:BQA786455 BGE786417:BGE786455 AWI786417:AWI786455 AMM786417:AMM786455 ACQ786417:ACQ786455 SU786417:SU786455 IY786417:IY786455 WVK720881:WVK720919 WLO720881:WLO720919 WBS720881:WBS720919 VRW720881:VRW720919 VIA720881:VIA720919 UYE720881:UYE720919 UOI720881:UOI720919 UEM720881:UEM720919 TUQ720881:TUQ720919 TKU720881:TKU720919 TAY720881:TAY720919 SRC720881:SRC720919 SHG720881:SHG720919 RXK720881:RXK720919 RNO720881:RNO720919 RDS720881:RDS720919 QTW720881:QTW720919 QKA720881:QKA720919 QAE720881:QAE720919 PQI720881:PQI720919 PGM720881:PGM720919 OWQ720881:OWQ720919 OMU720881:OMU720919 OCY720881:OCY720919 NTC720881:NTC720919 NJG720881:NJG720919 MZK720881:MZK720919 MPO720881:MPO720919 MFS720881:MFS720919 LVW720881:LVW720919 LMA720881:LMA720919 LCE720881:LCE720919 KSI720881:KSI720919 KIM720881:KIM720919 JYQ720881:JYQ720919 JOU720881:JOU720919 JEY720881:JEY720919 IVC720881:IVC720919 ILG720881:ILG720919 IBK720881:IBK720919 HRO720881:HRO720919 HHS720881:HHS720919 GXW720881:GXW720919 GOA720881:GOA720919 GEE720881:GEE720919 FUI720881:FUI720919 FKM720881:FKM720919 FAQ720881:FAQ720919 EQU720881:EQU720919 EGY720881:EGY720919 DXC720881:DXC720919 DNG720881:DNG720919 DDK720881:DDK720919 CTO720881:CTO720919 CJS720881:CJS720919 BZW720881:BZW720919 BQA720881:BQA720919 BGE720881:BGE720919 AWI720881:AWI720919 AMM720881:AMM720919 ACQ720881:ACQ720919 SU720881:SU720919 IY720881:IY720919 WVK655345:WVK655383 WLO655345:WLO655383 WBS655345:WBS655383 VRW655345:VRW655383 VIA655345:VIA655383 UYE655345:UYE655383 UOI655345:UOI655383 UEM655345:UEM655383 TUQ655345:TUQ655383 TKU655345:TKU655383 TAY655345:TAY655383 SRC655345:SRC655383 SHG655345:SHG655383 RXK655345:RXK655383 RNO655345:RNO655383 RDS655345:RDS655383 QTW655345:QTW655383 QKA655345:QKA655383 QAE655345:QAE655383 PQI655345:PQI655383 PGM655345:PGM655383 OWQ655345:OWQ655383 OMU655345:OMU655383 OCY655345:OCY655383 NTC655345:NTC655383 NJG655345:NJG655383 MZK655345:MZK655383 MPO655345:MPO655383 MFS655345:MFS655383 LVW655345:LVW655383 LMA655345:LMA655383 LCE655345:LCE655383 KSI655345:KSI655383 KIM655345:KIM655383 JYQ655345:JYQ655383 JOU655345:JOU655383 JEY655345:JEY655383 IVC655345:IVC655383 ILG655345:ILG655383 IBK655345:IBK655383 HRO655345:HRO655383 HHS655345:HHS655383 GXW655345:GXW655383 GOA655345:GOA655383 GEE655345:GEE655383 FUI655345:FUI655383 FKM655345:FKM655383 FAQ655345:FAQ655383 EQU655345:EQU655383 EGY655345:EGY655383 DXC655345:DXC655383 DNG655345:DNG655383 DDK655345:DDK655383 CTO655345:CTO655383 CJS655345:CJS655383 BZW655345:BZW655383 BQA655345:BQA655383 BGE655345:BGE655383 AWI655345:AWI655383 AMM655345:AMM655383 ACQ655345:ACQ655383 SU655345:SU655383 IY655345:IY655383 WVK589809:WVK589847 WLO589809:WLO589847 WBS589809:WBS589847 VRW589809:VRW589847 VIA589809:VIA589847 UYE589809:UYE589847 UOI589809:UOI589847 UEM589809:UEM589847 TUQ589809:TUQ589847 TKU589809:TKU589847 TAY589809:TAY589847 SRC589809:SRC589847 SHG589809:SHG589847 RXK589809:RXK589847 RNO589809:RNO589847 RDS589809:RDS589847 QTW589809:QTW589847 QKA589809:QKA589847 QAE589809:QAE589847 PQI589809:PQI589847 PGM589809:PGM589847 OWQ589809:OWQ589847 OMU589809:OMU589847 OCY589809:OCY589847 NTC589809:NTC589847 NJG589809:NJG589847 MZK589809:MZK589847 MPO589809:MPO589847 MFS589809:MFS589847 LVW589809:LVW589847 LMA589809:LMA589847 LCE589809:LCE589847 KSI589809:KSI589847 KIM589809:KIM589847 JYQ589809:JYQ589847 JOU589809:JOU589847 JEY589809:JEY589847 IVC589809:IVC589847 ILG589809:ILG589847 IBK589809:IBK589847 HRO589809:HRO589847 HHS589809:HHS589847 GXW589809:GXW589847 GOA589809:GOA589847 GEE589809:GEE589847 FUI589809:FUI589847 FKM589809:FKM589847 FAQ589809:FAQ589847 EQU589809:EQU589847 EGY589809:EGY589847 DXC589809:DXC589847 DNG589809:DNG589847 DDK589809:DDK589847 CTO589809:CTO589847 CJS589809:CJS589847 BZW589809:BZW589847 BQA589809:BQA589847 BGE589809:BGE589847 AWI589809:AWI589847 AMM589809:AMM589847 ACQ589809:ACQ589847 SU589809:SU589847 IY589809:IY589847 WVK524273:WVK524311 WLO524273:WLO524311 WBS524273:WBS524311 VRW524273:VRW524311 VIA524273:VIA524311 UYE524273:UYE524311 UOI524273:UOI524311 UEM524273:UEM524311 TUQ524273:TUQ524311 TKU524273:TKU524311 TAY524273:TAY524311 SRC524273:SRC524311 SHG524273:SHG524311 RXK524273:RXK524311 RNO524273:RNO524311 RDS524273:RDS524311 QTW524273:QTW524311 QKA524273:QKA524311 QAE524273:QAE524311 PQI524273:PQI524311 PGM524273:PGM524311 OWQ524273:OWQ524311 OMU524273:OMU524311 OCY524273:OCY524311 NTC524273:NTC524311 NJG524273:NJG524311 MZK524273:MZK524311 MPO524273:MPO524311 MFS524273:MFS524311 LVW524273:LVW524311 LMA524273:LMA524311 LCE524273:LCE524311 KSI524273:KSI524311 KIM524273:KIM524311 JYQ524273:JYQ524311 JOU524273:JOU524311 JEY524273:JEY524311 IVC524273:IVC524311 ILG524273:ILG524311 IBK524273:IBK524311 HRO524273:HRO524311 HHS524273:HHS524311 GXW524273:GXW524311 GOA524273:GOA524311 GEE524273:GEE524311 FUI524273:FUI524311 FKM524273:FKM524311 FAQ524273:FAQ524311 EQU524273:EQU524311 EGY524273:EGY524311 DXC524273:DXC524311 DNG524273:DNG524311 DDK524273:DDK524311 CTO524273:CTO524311 CJS524273:CJS524311 BZW524273:BZW524311 BQA524273:BQA524311 BGE524273:BGE524311 AWI524273:AWI524311 AMM524273:AMM524311 ACQ524273:ACQ524311 SU524273:SU524311 IY524273:IY524311 WVK458737:WVK458775 WLO458737:WLO458775 WBS458737:WBS458775 VRW458737:VRW458775 VIA458737:VIA458775 UYE458737:UYE458775 UOI458737:UOI458775 UEM458737:UEM458775 TUQ458737:TUQ458775 TKU458737:TKU458775 TAY458737:TAY458775 SRC458737:SRC458775 SHG458737:SHG458775 RXK458737:RXK458775 RNO458737:RNO458775 RDS458737:RDS458775 QTW458737:QTW458775 QKA458737:QKA458775 QAE458737:QAE458775 PQI458737:PQI458775 PGM458737:PGM458775 OWQ458737:OWQ458775 OMU458737:OMU458775 OCY458737:OCY458775 NTC458737:NTC458775 NJG458737:NJG458775 MZK458737:MZK458775 MPO458737:MPO458775 MFS458737:MFS458775 LVW458737:LVW458775 LMA458737:LMA458775 LCE458737:LCE458775 KSI458737:KSI458775 KIM458737:KIM458775 JYQ458737:JYQ458775 JOU458737:JOU458775 JEY458737:JEY458775 IVC458737:IVC458775 ILG458737:ILG458775 IBK458737:IBK458775 HRO458737:HRO458775 HHS458737:HHS458775 GXW458737:GXW458775 GOA458737:GOA458775 GEE458737:GEE458775 FUI458737:FUI458775 FKM458737:FKM458775 FAQ458737:FAQ458775 EQU458737:EQU458775 EGY458737:EGY458775 DXC458737:DXC458775 DNG458737:DNG458775 DDK458737:DDK458775 CTO458737:CTO458775 CJS458737:CJS458775 BZW458737:BZW458775 BQA458737:BQA458775 BGE458737:BGE458775 AWI458737:AWI458775 AMM458737:AMM458775 ACQ458737:ACQ458775 SU458737:SU458775 IY458737:IY458775 WVK393201:WVK393239 WLO393201:WLO393239 WBS393201:WBS393239 VRW393201:VRW393239 VIA393201:VIA393239 UYE393201:UYE393239 UOI393201:UOI393239 UEM393201:UEM393239 TUQ393201:TUQ393239 TKU393201:TKU393239 TAY393201:TAY393239 SRC393201:SRC393239 SHG393201:SHG393239 RXK393201:RXK393239 RNO393201:RNO393239 RDS393201:RDS393239 QTW393201:QTW393239 QKA393201:QKA393239 QAE393201:QAE393239 PQI393201:PQI393239 PGM393201:PGM393239 OWQ393201:OWQ393239 OMU393201:OMU393239 OCY393201:OCY393239 NTC393201:NTC393239 NJG393201:NJG393239 MZK393201:MZK393239 MPO393201:MPO393239 MFS393201:MFS393239 LVW393201:LVW393239 LMA393201:LMA393239 LCE393201:LCE393239 KSI393201:KSI393239 KIM393201:KIM393239 JYQ393201:JYQ393239 JOU393201:JOU393239 JEY393201:JEY393239 IVC393201:IVC393239 ILG393201:ILG393239 IBK393201:IBK393239 HRO393201:HRO393239 HHS393201:HHS393239 GXW393201:GXW393239 GOA393201:GOA393239 GEE393201:GEE393239 FUI393201:FUI393239 FKM393201:FKM393239 FAQ393201:FAQ393239 EQU393201:EQU393239 EGY393201:EGY393239 DXC393201:DXC393239 DNG393201:DNG393239 DDK393201:DDK393239 CTO393201:CTO393239 CJS393201:CJS393239 BZW393201:BZW393239 BQA393201:BQA393239 BGE393201:BGE393239 AWI393201:AWI393239 AMM393201:AMM393239 ACQ393201:ACQ393239 SU393201:SU393239 IY393201:IY393239 WVK327665:WVK327703 WLO327665:WLO327703 WBS327665:WBS327703 VRW327665:VRW327703 VIA327665:VIA327703 UYE327665:UYE327703 UOI327665:UOI327703 UEM327665:UEM327703 TUQ327665:TUQ327703 TKU327665:TKU327703 TAY327665:TAY327703 SRC327665:SRC327703 SHG327665:SHG327703 RXK327665:RXK327703 RNO327665:RNO327703 RDS327665:RDS327703 QTW327665:QTW327703 QKA327665:QKA327703 QAE327665:QAE327703 PQI327665:PQI327703 PGM327665:PGM327703 OWQ327665:OWQ327703 OMU327665:OMU327703 OCY327665:OCY327703 NTC327665:NTC327703 NJG327665:NJG327703 MZK327665:MZK327703 MPO327665:MPO327703 MFS327665:MFS327703 LVW327665:LVW327703 LMA327665:LMA327703 LCE327665:LCE327703 KSI327665:KSI327703 KIM327665:KIM327703 JYQ327665:JYQ327703 JOU327665:JOU327703 JEY327665:JEY327703 IVC327665:IVC327703 ILG327665:ILG327703 IBK327665:IBK327703 HRO327665:HRO327703 HHS327665:HHS327703 GXW327665:GXW327703 GOA327665:GOA327703 GEE327665:GEE327703 FUI327665:FUI327703 FKM327665:FKM327703 FAQ327665:FAQ327703 EQU327665:EQU327703 EGY327665:EGY327703 DXC327665:DXC327703 DNG327665:DNG327703 DDK327665:DDK327703 CTO327665:CTO327703 CJS327665:CJS327703 BZW327665:BZW327703 BQA327665:BQA327703 BGE327665:BGE327703 AWI327665:AWI327703 AMM327665:AMM327703 ACQ327665:ACQ327703 SU327665:SU327703 IY327665:IY327703 WVK262129:WVK262167 WLO262129:WLO262167 WBS262129:WBS262167 VRW262129:VRW262167 VIA262129:VIA262167 UYE262129:UYE262167 UOI262129:UOI262167 UEM262129:UEM262167 TUQ262129:TUQ262167 TKU262129:TKU262167 TAY262129:TAY262167 SRC262129:SRC262167 SHG262129:SHG262167 RXK262129:RXK262167 RNO262129:RNO262167 RDS262129:RDS262167 QTW262129:QTW262167 QKA262129:QKA262167 QAE262129:QAE262167 PQI262129:PQI262167 PGM262129:PGM262167 OWQ262129:OWQ262167 OMU262129:OMU262167 OCY262129:OCY262167 NTC262129:NTC262167 NJG262129:NJG262167 MZK262129:MZK262167 MPO262129:MPO262167 MFS262129:MFS262167 LVW262129:LVW262167 LMA262129:LMA262167 LCE262129:LCE262167 KSI262129:KSI262167 KIM262129:KIM262167 JYQ262129:JYQ262167 JOU262129:JOU262167 JEY262129:JEY262167 IVC262129:IVC262167 ILG262129:ILG262167 IBK262129:IBK262167 HRO262129:HRO262167 HHS262129:HHS262167 GXW262129:GXW262167 GOA262129:GOA262167 GEE262129:GEE262167 FUI262129:FUI262167 FKM262129:FKM262167 FAQ262129:FAQ262167 EQU262129:EQU262167 EGY262129:EGY262167 DXC262129:DXC262167 DNG262129:DNG262167 DDK262129:DDK262167 CTO262129:CTO262167 CJS262129:CJS262167 BZW262129:BZW262167 BQA262129:BQA262167 BGE262129:BGE262167 AWI262129:AWI262167 AMM262129:AMM262167 ACQ262129:ACQ262167 SU262129:SU262167 IY262129:IY262167 WVK196593:WVK196631 WLO196593:WLO196631 WBS196593:WBS196631 VRW196593:VRW196631 VIA196593:VIA196631 UYE196593:UYE196631 UOI196593:UOI196631 UEM196593:UEM196631 TUQ196593:TUQ196631 TKU196593:TKU196631 TAY196593:TAY196631 SRC196593:SRC196631 SHG196593:SHG196631 RXK196593:RXK196631 RNO196593:RNO196631 RDS196593:RDS196631 QTW196593:QTW196631 QKA196593:QKA196631 QAE196593:QAE196631 PQI196593:PQI196631 PGM196593:PGM196631 OWQ196593:OWQ196631 OMU196593:OMU196631 OCY196593:OCY196631 NTC196593:NTC196631 NJG196593:NJG196631 MZK196593:MZK196631 MPO196593:MPO196631 MFS196593:MFS196631 LVW196593:LVW196631 LMA196593:LMA196631 LCE196593:LCE196631 KSI196593:KSI196631 KIM196593:KIM196631 JYQ196593:JYQ196631 JOU196593:JOU196631 JEY196593:JEY196631 IVC196593:IVC196631 ILG196593:ILG196631 IBK196593:IBK196631 HRO196593:HRO196631 HHS196593:HHS196631 GXW196593:GXW196631 GOA196593:GOA196631 GEE196593:GEE196631 FUI196593:FUI196631 FKM196593:FKM196631 FAQ196593:FAQ196631 EQU196593:EQU196631 EGY196593:EGY196631 DXC196593:DXC196631 DNG196593:DNG196631 DDK196593:DDK196631 CTO196593:CTO196631 CJS196593:CJS196631 BZW196593:BZW196631 BQA196593:BQA196631 BGE196593:BGE196631 AWI196593:AWI196631 AMM196593:AMM196631 ACQ196593:ACQ196631 SU196593:SU196631 IY196593:IY196631 WVK131057:WVK131095 WLO131057:WLO131095 WBS131057:WBS131095 VRW131057:VRW131095 VIA131057:VIA131095 UYE131057:UYE131095 UOI131057:UOI131095 UEM131057:UEM131095 TUQ131057:TUQ131095 TKU131057:TKU131095 TAY131057:TAY131095 SRC131057:SRC131095 SHG131057:SHG131095 RXK131057:RXK131095 RNO131057:RNO131095 RDS131057:RDS131095 QTW131057:QTW131095 QKA131057:QKA131095 QAE131057:QAE131095 PQI131057:PQI131095 PGM131057:PGM131095 OWQ131057:OWQ131095 OMU131057:OMU131095 OCY131057:OCY131095 NTC131057:NTC131095 NJG131057:NJG131095 MZK131057:MZK131095 MPO131057:MPO131095 MFS131057:MFS131095 LVW131057:LVW131095 LMA131057:LMA131095 LCE131057:LCE131095 KSI131057:KSI131095 KIM131057:KIM131095 JYQ131057:JYQ131095 JOU131057:JOU131095 JEY131057:JEY131095 IVC131057:IVC131095 ILG131057:ILG131095 IBK131057:IBK131095 HRO131057:HRO131095 HHS131057:HHS131095 GXW131057:GXW131095 GOA131057:GOA131095 GEE131057:GEE131095 FUI131057:FUI131095 FKM131057:FKM131095 FAQ131057:FAQ131095 EQU131057:EQU131095 EGY131057:EGY131095 DXC131057:DXC131095 DNG131057:DNG131095 DDK131057:DDK131095 CTO131057:CTO131095 CJS131057:CJS131095 BZW131057:BZW131095 BQA131057:BQA131095 BGE131057:BGE131095 AWI131057:AWI131095 AMM131057:AMM131095 ACQ131057:ACQ131095 SU131057:SU131095 IY131057:IY131095 WVK65521:WVK65559 WLO65521:WLO65559 WBS65521:WBS65559 VRW65521:VRW65559 VIA65521:VIA65559 UYE65521:UYE65559 UOI65521:UOI65559 UEM65521:UEM65559 TUQ65521:TUQ65559 TKU65521:TKU65559 TAY65521:TAY65559 SRC65521:SRC65559 SHG65521:SHG65559 RXK65521:RXK65559 RNO65521:RNO65559 RDS65521:RDS65559 QTW65521:QTW65559 QKA65521:QKA65559 QAE65521:QAE65559 PQI65521:PQI65559 PGM65521:PGM65559 OWQ65521:OWQ65559 OMU65521:OMU65559 OCY65521:OCY65559 NTC65521:NTC65559 NJG65521:NJG65559 MZK65521:MZK65559 MPO65521:MPO65559 MFS65521:MFS65559 LVW65521:LVW65559 LMA65521:LMA65559 LCE65521:LCE65559 KSI65521:KSI65559 KIM65521:KIM65559 JYQ65521:JYQ65559 JOU65521:JOU65559 JEY65521:JEY65559 IVC65521:IVC65559 ILG65521:ILG65559 IBK65521:IBK65559 HRO65521:HRO65559 HHS65521:HHS65559 GXW65521:GXW65559 GOA65521:GOA65559 GEE65521:GEE65559 FUI65521:FUI65559 FKM65521:FKM65559 FAQ65521:FAQ65559 EQU65521:EQU65559 EGY65521:EGY65559 DXC65521:DXC65559 DNG65521:DNG65559 DDK65521:DDK65559 CTO65521:CTO65559 CJS65521:CJS65559 BZW65521:BZW65559 BQA65521:BQA65559 BGE65521:BGE65559 AWI65521:AWI65559 AMM65521:AMM65559 ACQ65521:ACQ65559 H5:H23 IY5:IY23 SU5:SU23 ACQ5:ACQ23 AMM5:AMM23 AWI5:AWI23 BGE5:BGE23 BQA5:BQA23 BZW5:BZW23 CJS5:CJS23 CTO5:CTO23 DDK5:DDK23 DNG5:DNG23 DXC5:DXC23 EGY5:EGY23 EQU5:EQU23 FAQ5:FAQ23 FKM5:FKM23 FUI5:FUI23 GEE5:GEE23 GOA5:GOA23 GXW5:GXW23 HHS5:HHS23 HRO5:HRO23 IBK5:IBK23 ILG5:ILG23 IVC5:IVC23 JEY5:JEY23 JOU5:JOU23 JYQ5:JYQ23 KIM5:KIM23 KSI5:KSI23 LCE5:LCE23 LMA5:LMA23 LVW5:LVW23 MFS5:MFS23 MPO5:MPO23 MZK5:MZK23 NJG5:NJG23 NTC5:NTC23 OCY5:OCY23 OMU5:OMU23 OWQ5:OWQ23 PGM5:PGM23 PQI5:PQI23 QAE5:QAE23 QKA5:QKA23 QTW5:QTW23 RDS5:RDS23 RNO5:RNO23 RXK5:RXK23 SHG5:SHG23 SRC5:SRC23 TAY5:TAY23 TKU5:TKU23 TUQ5:TUQ23 UEM5:UEM23 UOI5:UOI23 UYE5:UYE23 VIA5:VIA23 VRW5:VRW23 WBS5:WBS23 WLO5:WLO23 WVK5:WVK23">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="42" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="69">
+        <v>10</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="144"/>
+      <c r="D14" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="69">
+        <v>11</v>
+      </c>
+      <c r="B15" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="144"/>
+      <c r="D15" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 IY65515:IY65553 H983019:H983057 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 IY5:IY17 SU5:SU17 ACQ5:ACQ17 AMM5:AMM17 AWI5:AWI17 BGE5:BGE17 BQA5:BQA17 BZW5:BZW17 CJS5:CJS17 CTO5:CTO17 DDK5:DDK17 DNG5:DNG17 DXC5:DXC17 EGY5:EGY17 EQU5:EQU17 FAQ5:FAQ17 FKM5:FKM17 FUI5:FUI17 GEE5:GEE17 GOA5:GOA17 GXW5:GXW17 HHS5:HHS17 HRO5:HRO17 IBK5:IBK17 ILG5:ILG17 IVC5:IVC17 JEY5:JEY17 JOU5:JOU17 JYQ5:JYQ17 KIM5:KIM17 KSI5:KSI17 LCE5:LCE17 LMA5:LMA17 LVW5:LVW17 MFS5:MFS17 MPO5:MPO17 MZK5:MZK17 NJG5:NJG17 NTC5:NTC17 OCY5:OCY17 OMU5:OMU17 OWQ5:OWQ17 PGM5:PGM17 PQI5:PQI17 QAE5:QAE17 QKA5:QKA17 QTW5:QTW17 RDS5:RDS17 RNO5:RNO17 RXK5:RXK17 SHG5:SHG17 SRC5:SRC17 TAY5:TAY17 TKU5:TKU17 TUQ5:TUQ17 UEM5:UEM17 UOI5:UOI17 UYE5:UYE17 VIA5:VIA17 VRW5:VRW17 WBS5:WBS17 WLO5:WLO17 WVK5:WVK17 H5:H17">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="135"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71">
+        <f>ROW()-4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="149"/>
+    </row>
+    <row r="5" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="144"/>
+      <c r="D5" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141"/>
+    </row>
+    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="69">
+        <v>10</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="144"/>
+      <c r="D14" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65512:IY65550 SU65512:SU65550 ACQ65512:ACQ65550 AMM65512:AMM65550 AWI65512:AWI65550 BGE65512:BGE65550 BQA65512:BQA65550 BZW65512:BZW65550 CJS65512:CJS65550 CTO65512:CTO65550 DDK65512:DDK65550 DNG65512:DNG65550 DXC65512:DXC65550 EGY65512:EGY65550 EQU65512:EQU65550 FAQ65512:FAQ65550 FKM65512:FKM65550 FUI65512:FUI65550 GEE65512:GEE65550 GOA65512:GOA65550 GXW65512:GXW65550 HHS65512:HHS65550 HRO65512:HRO65550 IBK65512:IBK65550 ILG65512:ILG65550 IVC65512:IVC65550 JEY65512:JEY65550 JOU65512:JOU65550 JYQ65512:JYQ65550 KIM65512:KIM65550 KSI65512:KSI65550 LCE65512:LCE65550 LMA65512:LMA65550 LVW65512:LVW65550 MFS65512:MFS65550 MPO65512:MPO65550 MZK65512:MZK65550 NJG65512:NJG65550 NTC65512:NTC65550 OCY65512:OCY65550 OMU65512:OMU65550 OWQ65512:OWQ65550 PGM65512:PGM65550 PQI65512:PQI65550 QAE65512:QAE65550 QKA65512:QKA65550 QTW65512:QTW65550 RDS65512:RDS65550 RNO65512:RNO65550 RXK65512:RXK65550 SHG65512:SHG65550 SRC65512:SRC65550 TAY65512:TAY65550 TKU65512:TKU65550 TUQ65512:TUQ65550 UEM65512:UEM65550 UOI65512:UOI65550 UYE65512:UYE65550 VIA65512:VIA65550 VRW65512:VRW65550 WBS65512:WBS65550 WLO65512:WLO65550 WVK65512:WVK65550 IY131048:IY131086 SU131048:SU131086 ACQ131048:ACQ131086 AMM131048:AMM131086 AWI131048:AWI131086 BGE131048:BGE131086 BQA131048:BQA131086 BZW131048:BZW131086 CJS131048:CJS131086 CTO131048:CTO131086 DDK131048:DDK131086 DNG131048:DNG131086 DXC131048:DXC131086 EGY131048:EGY131086 EQU131048:EQU131086 FAQ131048:FAQ131086 FKM131048:FKM131086 FUI131048:FUI131086 GEE131048:GEE131086 GOA131048:GOA131086 GXW131048:GXW131086 HHS131048:HHS131086 HRO131048:HRO131086 IBK131048:IBK131086 ILG131048:ILG131086 IVC131048:IVC131086 JEY131048:JEY131086 JOU131048:JOU131086 JYQ131048:JYQ131086 KIM131048:KIM131086 KSI131048:KSI131086 LCE131048:LCE131086 LMA131048:LMA131086 LVW131048:LVW131086 MFS131048:MFS131086 MPO131048:MPO131086 MZK131048:MZK131086 NJG131048:NJG131086 NTC131048:NTC131086 OCY131048:OCY131086 OMU131048:OMU131086 OWQ131048:OWQ131086 PGM131048:PGM131086 PQI131048:PQI131086 QAE131048:QAE131086 QKA131048:QKA131086 QTW131048:QTW131086 RDS131048:RDS131086 RNO131048:RNO131086 RXK131048:RXK131086 SHG131048:SHG131086 SRC131048:SRC131086 TAY131048:TAY131086 TKU131048:TKU131086 TUQ131048:TUQ131086 UEM131048:UEM131086 UOI131048:UOI131086 UYE131048:UYE131086 VIA131048:VIA131086 VRW131048:VRW131086 WBS131048:WBS131086 WLO131048:WLO131086 WVK131048:WVK131086 IY196584:IY196622 SU196584:SU196622 ACQ196584:ACQ196622 AMM196584:AMM196622 AWI196584:AWI196622 BGE196584:BGE196622 BQA196584:BQA196622 BZW196584:BZW196622 CJS196584:CJS196622 CTO196584:CTO196622 DDK196584:DDK196622 DNG196584:DNG196622 DXC196584:DXC196622 EGY196584:EGY196622 EQU196584:EQU196622 FAQ196584:FAQ196622 FKM196584:FKM196622 FUI196584:FUI196622 GEE196584:GEE196622 GOA196584:GOA196622 GXW196584:GXW196622 HHS196584:HHS196622 HRO196584:HRO196622 IBK196584:IBK196622 ILG196584:ILG196622 IVC196584:IVC196622 JEY196584:JEY196622 JOU196584:JOU196622 JYQ196584:JYQ196622 KIM196584:KIM196622 KSI196584:KSI196622 LCE196584:LCE196622 LMA196584:LMA196622 LVW196584:LVW196622 MFS196584:MFS196622 MPO196584:MPO196622 MZK196584:MZK196622 NJG196584:NJG196622 NTC196584:NTC196622 OCY196584:OCY196622 OMU196584:OMU196622 OWQ196584:OWQ196622 PGM196584:PGM196622 PQI196584:PQI196622 QAE196584:QAE196622 QKA196584:QKA196622 QTW196584:QTW196622 RDS196584:RDS196622 RNO196584:RNO196622 RXK196584:RXK196622 SHG196584:SHG196622 SRC196584:SRC196622 TAY196584:TAY196622 TKU196584:TKU196622 TUQ196584:TUQ196622 UEM196584:UEM196622 UOI196584:UOI196622 UYE196584:UYE196622 VIA196584:VIA196622 VRW196584:VRW196622 WBS196584:WBS196622 WLO196584:WLO196622 WVK196584:WVK196622 IY262120:IY262158 SU262120:SU262158 ACQ262120:ACQ262158 AMM262120:AMM262158 AWI262120:AWI262158 BGE262120:BGE262158 BQA262120:BQA262158 BZW262120:BZW262158 CJS262120:CJS262158 CTO262120:CTO262158 DDK262120:DDK262158 DNG262120:DNG262158 DXC262120:DXC262158 EGY262120:EGY262158 EQU262120:EQU262158 FAQ262120:FAQ262158 FKM262120:FKM262158 FUI262120:FUI262158 GEE262120:GEE262158 GOA262120:GOA262158 GXW262120:GXW262158 HHS262120:HHS262158 HRO262120:HRO262158 IBK262120:IBK262158 ILG262120:ILG262158 IVC262120:IVC262158 JEY262120:JEY262158 JOU262120:JOU262158 JYQ262120:JYQ262158 KIM262120:KIM262158 KSI262120:KSI262158 LCE262120:LCE262158 LMA262120:LMA262158 LVW262120:LVW262158 MFS262120:MFS262158 MPO262120:MPO262158 MZK262120:MZK262158 NJG262120:NJG262158 NTC262120:NTC262158 OCY262120:OCY262158 OMU262120:OMU262158 OWQ262120:OWQ262158 PGM262120:PGM262158 PQI262120:PQI262158 QAE262120:QAE262158 QKA262120:QKA262158 QTW262120:QTW262158 RDS262120:RDS262158 RNO262120:RNO262158 RXK262120:RXK262158 SHG262120:SHG262158 SRC262120:SRC262158 TAY262120:TAY262158 TKU262120:TKU262158 TUQ262120:TUQ262158 UEM262120:UEM262158 UOI262120:UOI262158 UYE262120:UYE262158 VIA262120:VIA262158 VRW262120:VRW262158 WBS262120:WBS262158 WLO262120:WLO262158 WVK262120:WVK262158 IY327656:IY327694 SU327656:SU327694 ACQ327656:ACQ327694 AMM327656:AMM327694 AWI327656:AWI327694 BGE327656:BGE327694 BQA327656:BQA327694 BZW327656:BZW327694 CJS327656:CJS327694 CTO327656:CTO327694 DDK327656:DDK327694 DNG327656:DNG327694 DXC327656:DXC327694 EGY327656:EGY327694 EQU327656:EQU327694 FAQ327656:FAQ327694 FKM327656:FKM327694 FUI327656:FUI327694 GEE327656:GEE327694 GOA327656:GOA327694 GXW327656:GXW327694 HHS327656:HHS327694 HRO327656:HRO327694 IBK327656:IBK327694 ILG327656:ILG327694 IVC327656:IVC327694 JEY327656:JEY327694 JOU327656:JOU327694 JYQ327656:JYQ327694 KIM327656:KIM327694 KSI327656:KSI327694 LCE327656:LCE327694 LMA327656:LMA327694 LVW327656:LVW327694 MFS327656:MFS327694 MPO327656:MPO327694 MZK327656:MZK327694 NJG327656:NJG327694 NTC327656:NTC327694 OCY327656:OCY327694 OMU327656:OMU327694 OWQ327656:OWQ327694 PGM327656:PGM327694 PQI327656:PQI327694 QAE327656:QAE327694 QKA327656:QKA327694 QTW327656:QTW327694 RDS327656:RDS327694 RNO327656:RNO327694 RXK327656:RXK327694 SHG327656:SHG327694 SRC327656:SRC327694 TAY327656:TAY327694 TKU327656:TKU327694 TUQ327656:TUQ327694 UEM327656:UEM327694 UOI327656:UOI327694 UYE327656:UYE327694 VIA327656:VIA327694 VRW327656:VRW327694 WBS327656:WBS327694 WLO327656:WLO327694 WVK327656:WVK327694 IY393192:IY393230 SU393192:SU393230 ACQ393192:ACQ393230 AMM393192:AMM393230 AWI393192:AWI393230 BGE393192:BGE393230 BQA393192:BQA393230 BZW393192:BZW393230 CJS393192:CJS393230 CTO393192:CTO393230 DDK393192:DDK393230 DNG393192:DNG393230 DXC393192:DXC393230 EGY393192:EGY393230 EQU393192:EQU393230 FAQ393192:FAQ393230 FKM393192:FKM393230 FUI393192:FUI393230 GEE393192:GEE393230 GOA393192:GOA393230 GXW393192:GXW393230 HHS393192:HHS393230 HRO393192:HRO393230 IBK393192:IBK393230 ILG393192:ILG393230 IVC393192:IVC393230 JEY393192:JEY393230 JOU393192:JOU393230 JYQ393192:JYQ393230 KIM393192:KIM393230 KSI393192:KSI393230 LCE393192:LCE393230 LMA393192:LMA393230 LVW393192:LVW393230 MFS393192:MFS393230 MPO393192:MPO393230 MZK393192:MZK393230 NJG393192:NJG393230 NTC393192:NTC393230 OCY393192:OCY393230 OMU393192:OMU393230 OWQ393192:OWQ393230 PGM393192:PGM393230 PQI393192:PQI393230 QAE393192:QAE393230 QKA393192:QKA393230 QTW393192:QTW393230 RDS393192:RDS393230 RNO393192:RNO393230 RXK393192:RXK393230 SHG393192:SHG393230 SRC393192:SRC393230 TAY393192:TAY393230 TKU393192:TKU393230 TUQ393192:TUQ393230 UEM393192:UEM393230 UOI393192:UOI393230 UYE393192:UYE393230 VIA393192:VIA393230 VRW393192:VRW393230 WBS393192:WBS393230 WLO393192:WLO393230 WVK393192:WVK393230 IY458728:IY458766 SU458728:SU458766 ACQ458728:ACQ458766 AMM458728:AMM458766 AWI458728:AWI458766 BGE458728:BGE458766 BQA458728:BQA458766 BZW458728:BZW458766 CJS458728:CJS458766 CTO458728:CTO458766 DDK458728:DDK458766 DNG458728:DNG458766 DXC458728:DXC458766 EGY458728:EGY458766 EQU458728:EQU458766 FAQ458728:FAQ458766 FKM458728:FKM458766 FUI458728:FUI458766 GEE458728:GEE458766 GOA458728:GOA458766 GXW458728:GXW458766 HHS458728:HHS458766 HRO458728:HRO458766 IBK458728:IBK458766 ILG458728:ILG458766 IVC458728:IVC458766 JEY458728:JEY458766 JOU458728:JOU458766 JYQ458728:JYQ458766 KIM458728:KIM458766 KSI458728:KSI458766 LCE458728:LCE458766 LMA458728:LMA458766 LVW458728:LVW458766 MFS458728:MFS458766 MPO458728:MPO458766 MZK458728:MZK458766 NJG458728:NJG458766 NTC458728:NTC458766 OCY458728:OCY458766 OMU458728:OMU458766 OWQ458728:OWQ458766 PGM458728:PGM458766 PQI458728:PQI458766 QAE458728:QAE458766 QKA458728:QKA458766 QTW458728:QTW458766 RDS458728:RDS458766 RNO458728:RNO458766 RXK458728:RXK458766 SHG458728:SHG458766 SRC458728:SRC458766 TAY458728:TAY458766 TKU458728:TKU458766 TUQ458728:TUQ458766 UEM458728:UEM458766 UOI458728:UOI458766 UYE458728:UYE458766 VIA458728:VIA458766 VRW458728:VRW458766 WBS458728:WBS458766 WLO458728:WLO458766 WVK458728:WVK458766 IY524264:IY524302 SU524264:SU524302 ACQ524264:ACQ524302 AMM524264:AMM524302 AWI524264:AWI524302 BGE524264:BGE524302 BQA524264:BQA524302 BZW524264:BZW524302 CJS524264:CJS524302 CTO524264:CTO524302 DDK524264:DDK524302 DNG524264:DNG524302 DXC524264:DXC524302 EGY524264:EGY524302 EQU524264:EQU524302 FAQ524264:FAQ524302 FKM524264:FKM524302 FUI524264:FUI524302 GEE524264:GEE524302 GOA524264:GOA524302 GXW524264:GXW524302 HHS524264:HHS524302 HRO524264:HRO524302 IBK524264:IBK524302 ILG524264:ILG524302 IVC524264:IVC524302 JEY524264:JEY524302 JOU524264:JOU524302 JYQ524264:JYQ524302 KIM524264:KIM524302 KSI524264:KSI524302 LCE524264:LCE524302 LMA524264:LMA524302 LVW524264:LVW524302 MFS524264:MFS524302 MPO524264:MPO524302 MZK524264:MZK524302 NJG524264:NJG524302 NTC524264:NTC524302 OCY524264:OCY524302 OMU524264:OMU524302 OWQ524264:OWQ524302 PGM524264:PGM524302 PQI524264:PQI524302 QAE524264:QAE524302 QKA524264:QKA524302 QTW524264:QTW524302 RDS524264:RDS524302 RNO524264:RNO524302 RXK524264:RXK524302 SHG524264:SHG524302 SRC524264:SRC524302 TAY524264:TAY524302 TKU524264:TKU524302 TUQ524264:TUQ524302 UEM524264:UEM524302 UOI524264:UOI524302 UYE524264:UYE524302 VIA524264:VIA524302 VRW524264:VRW524302 WBS524264:WBS524302 WLO524264:WLO524302 WVK524264:WVK524302 IY589800:IY589838 SU589800:SU589838 ACQ589800:ACQ589838 AMM589800:AMM589838 AWI589800:AWI589838 BGE589800:BGE589838 BQA589800:BQA589838 BZW589800:BZW589838 CJS589800:CJS589838 CTO589800:CTO589838 DDK589800:DDK589838 DNG589800:DNG589838 DXC589800:DXC589838 EGY589800:EGY589838 EQU589800:EQU589838 FAQ589800:FAQ589838 FKM589800:FKM589838 FUI589800:FUI589838 GEE589800:GEE589838 GOA589800:GOA589838 GXW589800:GXW589838 HHS589800:HHS589838 HRO589800:HRO589838 IBK589800:IBK589838 ILG589800:ILG589838 IVC589800:IVC589838 JEY589800:JEY589838 JOU589800:JOU589838 JYQ589800:JYQ589838 KIM589800:KIM589838 KSI589800:KSI589838 LCE589800:LCE589838 LMA589800:LMA589838 LVW589800:LVW589838 MFS589800:MFS589838 MPO589800:MPO589838 MZK589800:MZK589838 NJG589800:NJG589838 NTC589800:NTC589838 OCY589800:OCY589838 OMU589800:OMU589838 OWQ589800:OWQ589838 PGM589800:PGM589838 PQI589800:PQI589838 QAE589800:QAE589838 QKA589800:QKA589838 QTW589800:QTW589838 RDS589800:RDS589838 RNO589800:RNO589838 RXK589800:RXK589838 SHG589800:SHG589838 SRC589800:SRC589838 TAY589800:TAY589838 TKU589800:TKU589838 TUQ589800:TUQ589838 UEM589800:UEM589838 UOI589800:UOI589838 UYE589800:UYE589838 VIA589800:VIA589838 VRW589800:VRW589838 WBS589800:WBS589838 WLO589800:WLO589838 WVK589800:WVK589838 IY655336:IY655374 SU655336:SU655374 ACQ655336:ACQ655374 AMM655336:AMM655374 AWI655336:AWI655374 BGE655336:BGE655374 BQA655336:BQA655374 BZW655336:BZW655374 CJS655336:CJS655374 CTO655336:CTO655374 DDK655336:DDK655374 DNG655336:DNG655374 DXC655336:DXC655374 EGY655336:EGY655374 EQU655336:EQU655374 FAQ655336:FAQ655374 FKM655336:FKM655374 FUI655336:FUI655374 GEE655336:GEE655374 GOA655336:GOA655374 GXW655336:GXW655374 HHS655336:HHS655374 HRO655336:HRO655374 IBK655336:IBK655374 ILG655336:ILG655374 IVC655336:IVC655374 JEY655336:JEY655374 JOU655336:JOU655374 JYQ655336:JYQ655374 KIM655336:KIM655374 KSI655336:KSI655374 LCE655336:LCE655374 LMA655336:LMA655374 LVW655336:LVW655374 MFS655336:MFS655374 MPO655336:MPO655374 MZK655336:MZK655374 NJG655336:NJG655374 NTC655336:NTC655374 OCY655336:OCY655374 OMU655336:OMU655374 OWQ655336:OWQ655374 PGM655336:PGM655374 PQI655336:PQI655374 QAE655336:QAE655374 QKA655336:QKA655374 QTW655336:QTW655374 RDS655336:RDS655374 RNO655336:RNO655374 RXK655336:RXK655374 SHG655336:SHG655374 SRC655336:SRC655374 TAY655336:TAY655374 TKU655336:TKU655374 TUQ655336:TUQ655374 UEM655336:UEM655374 UOI655336:UOI655374 UYE655336:UYE655374 VIA655336:VIA655374 VRW655336:VRW655374 WBS655336:WBS655374 WLO655336:WLO655374 WVK655336:WVK655374 IY720872:IY720910 SU720872:SU720910 ACQ720872:ACQ720910 AMM720872:AMM720910 AWI720872:AWI720910 BGE720872:BGE720910 BQA720872:BQA720910 BZW720872:BZW720910 CJS720872:CJS720910 CTO720872:CTO720910 DDK720872:DDK720910 DNG720872:DNG720910 DXC720872:DXC720910 EGY720872:EGY720910 EQU720872:EQU720910 FAQ720872:FAQ720910 FKM720872:FKM720910 FUI720872:FUI720910 GEE720872:GEE720910 GOA720872:GOA720910 GXW720872:GXW720910 HHS720872:HHS720910 HRO720872:HRO720910 IBK720872:IBK720910 ILG720872:ILG720910 IVC720872:IVC720910 JEY720872:JEY720910 JOU720872:JOU720910 JYQ720872:JYQ720910 KIM720872:KIM720910 KSI720872:KSI720910 LCE720872:LCE720910 LMA720872:LMA720910 LVW720872:LVW720910 MFS720872:MFS720910 MPO720872:MPO720910 MZK720872:MZK720910 NJG720872:NJG720910 NTC720872:NTC720910 OCY720872:OCY720910 OMU720872:OMU720910 OWQ720872:OWQ720910 PGM720872:PGM720910 PQI720872:PQI720910 QAE720872:QAE720910 QKA720872:QKA720910 QTW720872:QTW720910 RDS720872:RDS720910 RNO720872:RNO720910 RXK720872:RXK720910 SHG720872:SHG720910 SRC720872:SRC720910 TAY720872:TAY720910 TKU720872:TKU720910 TUQ720872:TUQ720910 UEM720872:UEM720910 UOI720872:UOI720910 UYE720872:UYE720910 VIA720872:VIA720910 VRW720872:VRW720910 WBS720872:WBS720910 WLO720872:WLO720910 WVK720872:WVK720910 IY786408:IY786446 SU786408:SU786446 ACQ786408:ACQ786446 AMM786408:AMM786446 AWI786408:AWI786446 BGE786408:BGE786446 BQA786408:BQA786446 BZW786408:BZW786446 CJS786408:CJS786446 CTO786408:CTO786446 DDK786408:DDK786446 DNG786408:DNG786446 DXC786408:DXC786446 EGY786408:EGY786446 EQU786408:EQU786446 FAQ786408:FAQ786446 FKM786408:FKM786446 FUI786408:FUI786446 GEE786408:GEE786446 GOA786408:GOA786446 GXW786408:GXW786446 HHS786408:HHS786446 HRO786408:HRO786446 IBK786408:IBK786446 ILG786408:ILG786446 IVC786408:IVC786446 JEY786408:JEY786446 JOU786408:JOU786446 JYQ786408:JYQ786446 KIM786408:KIM786446 KSI786408:KSI786446 LCE786408:LCE786446 LMA786408:LMA786446 LVW786408:LVW786446 MFS786408:MFS786446 MPO786408:MPO786446 MZK786408:MZK786446 NJG786408:NJG786446 NTC786408:NTC786446 OCY786408:OCY786446 OMU786408:OMU786446 OWQ786408:OWQ786446 PGM786408:PGM786446 PQI786408:PQI786446 QAE786408:QAE786446 QKA786408:QKA786446 QTW786408:QTW786446 RDS786408:RDS786446 RNO786408:RNO786446 RXK786408:RXK786446 SHG786408:SHG786446 SRC786408:SRC786446 TAY786408:TAY786446 TKU786408:TKU786446 TUQ786408:TUQ786446 UEM786408:UEM786446 UOI786408:UOI786446 UYE786408:UYE786446 VIA786408:VIA786446 VRW786408:VRW786446 WBS786408:WBS786446 WLO786408:WLO786446 WVK786408:WVK786446 IY851944:IY851982 SU851944:SU851982 ACQ851944:ACQ851982 AMM851944:AMM851982 AWI851944:AWI851982 BGE851944:BGE851982 BQA851944:BQA851982 BZW851944:BZW851982 CJS851944:CJS851982 CTO851944:CTO851982 DDK851944:DDK851982 DNG851944:DNG851982 DXC851944:DXC851982 EGY851944:EGY851982 EQU851944:EQU851982 FAQ851944:FAQ851982 FKM851944:FKM851982 FUI851944:FUI851982 GEE851944:GEE851982 GOA851944:GOA851982 GXW851944:GXW851982 HHS851944:HHS851982 HRO851944:HRO851982 IBK851944:IBK851982 ILG851944:ILG851982 IVC851944:IVC851982 JEY851944:JEY851982 JOU851944:JOU851982 JYQ851944:JYQ851982 KIM851944:KIM851982 KSI851944:KSI851982 LCE851944:LCE851982 LMA851944:LMA851982 LVW851944:LVW851982 MFS851944:MFS851982 MPO851944:MPO851982 MZK851944:MZK851982 NJG851944:NJG851982 NTC851944:NTC851982 OCY851944:OCY851982 OMU851944:OMU851982 OWQ851944:OWQ851982 PGM851944:PGM851982 PQI851944:PQI851982 QAE851944:QAE851982 QKA851944:QKA851982 QTW851944:QTW851982 RDS851944:RDS851982 RNO851944:RNO851982 RXK851944:RXK851982 SHG851944:SHG851982 SRC851944:SRC851982 TAY851944:TAY851982 TKU851944:TKU851982 TUQ851944:TUQ851982 UEM851944:UEM851982 UOI851944:UOI851982 UYE851944:UYE851982 VIA851944:VIA851982 VRW851944:VRW851982 WBS851944:WBS851982 WLO851944:WLO851982 WVK851944:WVK851982 IY917480:IY917518 SU917480:SU917518 ACQ917480:ACQ917518 AMM917480:AMM917518 AWI917480:AWI917518 BGE917480:BGE917518 BQA917480:BQA917518 BZW917480:BZW917518 CJS917480:CJS917518 CTO917480:CTO917518 DDK917480:DDK917518 DNG917480:DNG917518 DXC917480:DXC917518 EGY917480:EGY917518 EQU917480:EQU917518 FAQ917480:FAQ917518 FKM917480:FKM917518 FUI917480:FUI917518 GEE917480:GEE917518 GOA917480:GOA917518 GXW917480:GXW917518 HHS917480:HHS917518 HRO917480:HRO917518 IBK917480:IBK917518 ILG917480:ILG917518 IVC917480:IVC917518 JEY917480:JEY917518 JOU917480:JOU917518 JYQ917480:JYQ917518 KIM917480:KIM917518 KSI917480:KSI917518 LCE917480:LCE917518 LMA917480:LMA917518 LVW917480:LVW917518 MFS917480:MFS917518 MPO917480:MPO917518 MZK917480:MZK917518 NJG917480:NJG917518 NTC917480:NTC917518 OCY917480:OCY917518 OMU917480:OMU917518 OWQ917480:OWQ917518 PGM917480:PGM917518 PQI917480:PQI917518 QAE917480:QAE917518 QKA917480:QKA917518 QTW917480:QTW917518 RDS917480:RDS917518 RNO917480:RNO917518 RXK917480:RXK917518 SHG917480:SHG917518 SRC917480:SRC917518 TAY917480:TAY917518 TKU917480:TKU917518 TUQ917480:TUQ917518 UEM917480:UEM917518 UOI917480:UOI917518 UYE917480:UYE917518 VIA917480:VIA917518 VRW917480:VRW917518 WBS917480:WBS917518 WLO917480:WLO917518 WVK917480:WVK917518 IY983016:IY983054 SU983016:SU983054 ACQ983016:ACQ983054 AMM983016:AMM983054 AWI983016:AWI983054 BGE983016:BGE983054 BQA983016:BQA983054 BZW983016:BZW983054 CJS983016:CJS983054 CTO983016:CTO983054 DDK983016:DDK983054 DNG983016:DNG983054 DXC983016:DXC983054 EGY983016:EGY983054 EQU983016:EQU983054 FAQ983016:FAQ983054 FKM983016:FKM983054 FUI983016:FUI983054 GEE983016:GEE983054 GOA983016:GOA983054 GXW983016:GXW983054 HHS983016:HHS983054 HRO983016:HRO983054 IBK983016:IBK983054 ILG983016:ILG983054 IVC983016:IVC983054 JEY983016:JEY983054 JOU983016:JOU983054 JYQ983016:JYQ983054 KIM983016:KIM983054 KSI983016:KSI983054 LCE983016:LCE983054 LMA983016:LMA983054 LVW983016:LVW983054 MFS983016:MFS983054 MPO983016:MPO983054 MZK983016:MZK983054 NJG983016:NJG983054 NTC983016:NTC983054 OCY983016:OCY983054 OMU983016:OMU983054 OWQ983016:OWQ983054 PGM983016:PGM983054 PQI983016:PQI983054 QAE983016:QAE983054 QKA983016:QKA983054 QTW983016:QTW983054 RDS983016:RDS983054 RNO983016:RNO983054 RXK983016:RXK983054 SHG983016:SHG983054 SRC983016:SRC983054 TAY983016:TAY983054 TKU983016:TKU983054 TUQ983016:TUQ983054 UEM983016:UEM983054 UOI983016:UOI983054 UYE983016:UYE983054 VIA983016:VIA983054 VRW983016:VRW983054 WBS983016:WBS983054 WLO983016:WLO983054 WVK983016:WVK983054 H983016:H983054 H917480:H917518 H851944:H851982 H786408:H786446 H720872:H720910 H655336:H655374 H589800:H589838 H524264:H524302 H458728:H458766 H393192:H393230 H327656:H327694 H262120:H262158 H196584:H196622 H131048:H131086 H65512:H65550 H4:H14 IY4:IY14 SU4:SU14 ACQ4:ACQ14 AMM4:AMM14 AWI4:AWI14 BGE4:BGE14 BQA4:BQA14 BZW4:BZW14 CJS4:CJS14 CTO4:CTO14 DDK4:DDK14 DNG4:DNG14 DXC4:DXC14 EGY4:EGY14 EQU4:EQU14 FAQ4:FAQ14 FKM4:FKM14 FUI4:FUI14 GEE4:GEE14 GOA4:GOA14 GXW4:GXW14 HHS4:HHS14 HRO4:HRO14 IBK4:IBK14 ILG4:ILG14 IVC4:IVC14 JEY4:JEY14 JOU4:JOU14 JYQ4:JYQ14 KIM4:KIM14 KSI4:KSI14 LCE4:LCE14 LMA4:LMA14 LVW4:LVW14 MFS4:MFS14 MPO4:MPO14 MZK4:MZK14 NJG4:NJG14 NTC4:NTC14 OCY4:OCY14 OMU4:OMU14 OWQ4:OWQ14 PGM4:PGM14 PQI4:PQI14 QAE4:QAE14 QKA4:QKA14 QTW4:QTW14 RDS4:RDS14 RNO4:RNO14 RXK4:RXK14 SHG4:SHG14 SRC4:SRC14 TAY4:TAY14 TKU4:TKU14 TUQ4:TUQ14 UEM4:UEM14 UOI4:UOI14 UYE4:UYE14 VIA4:VIA14 VRW4:VRW14 WBS4:WBS14 WLO4:WLO14 WVK4:WVK14">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="144"/>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="71">
+        <f>ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+    </row>
+    <row r="7" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65509:H65547 H131045:H131083 H196581:H196619 H262117:H262155 H327653:H327691 H393189:H393227 H458725:H458763 H524261:H524299 H589797:H589835 H655333:H655371 H720869:H720907 H786405:H786443 H851941:H851979 H917477:H917515 H983013:H983051 WVK983013:WVK983051 WLO983013:WLO983051 WBS983013:WBS983051 VRW983013:VRW983051 VIA983013:VIA983051 UYE983013:UYE983051 UOI983013:UOI983051 UEM983013:UEM983051 TUQ983013:TUQ983051 TKU983013:TKU983051 TAY983013:TAY983051 SRC983013:SRC983051 SHG983013:SHG983051 RXK983013:RXK983051 RNO983013:RNO983051 RDS983013:RDS983051 QTW983013:QTW983051 QKA983013:QKA983051 QAE983013:QAE983051 PQI983013:PQI983051 PGM983013:PGM983051 OWQ983013:OWQ983051 OMU983013:OMU983051 OCY983013:OCY983051 NTC983013:NTC983051 NJG983013:NJG983051 MZK983013:MZK983051 MPO983013:MPO983051 MFS983013:MFS983051 LVW983013:LVW983051 LMA983013:LMA983051 LCE983013:LCE983051 KSI983013:KSI983051 KIM983013:KIM983051 JYQ983013:JYQ983051 JOU983013:JOU983051 JEY983013:JEY983051 IVC983013:IVC983051 ILG983013:ILG983051 IBK983013:IBK983051 HRO983013:HRO983051 HHS983013:HHS983051 GXW983013:GXW983051 GOA983013:GOA983051 GEE983013:GEE983051 FUI983013:FUI983051 FKM983013:FKM983051 FAQ983013:FAQ983051 EQU983013:EQU983051 EGY983013:EGY983051 DXC983013:DXC983051 DNG983013:DNG983051 DDK983013:DDK983051 CTO983013:CTO983051 CJS983013:CJS983051 BZW983013:BZW983051 BQA983013:BQA983051 BGE983013:BGE983051 AWI983013:AWI983051 AMM983013:AMM983051 ACQ983013:ACQ983051 SU983013:SU983051 IY983013:IY983051 WVK917477:WVK917515 WLO917477:WLO917515 WBS917477:WBS917515 VRW917477:VRW917515 VIA917477:VIA917515 UYE917477:UYE917515 UOI917477:UOI917515 UEM917477:UEM917515 TUQ917477:TUQ917515 TKU917477:TKU917515 TAY917477:TAY917515 SRC917477:SRC917515 SHG917477:SHG917515 RXK917477:RXK917515 RNO917477:RNO917515 RDS917477:RDS917515 QTW917477:QTW917515 QKA917477:QKA917515 QAE917477:QAE917515 PQI917477:PQI917515 PGM917477:PGM917515 OWQ917477:OWQ917515 OMU917477:OMU917515 OCY917477:OCY917515 NTC917477:NTC917515 NJG917477:NJG917515 MZK917477:MZK917515 MPO917477:MPO917515 MFS917477:MFS917515 LVW917477:LVW917515 LMA917477:LMA917515 LCE917477:LCE917515 KSI917477:KSI917515 KIM917477:KIM917515 JYQ917477:JYQ917515 JOU917477:JOU917515 JEY917477:JEY917515 IVC917477:IVC917515 ILG917477:ILG917515 IBK917477:IBK917515 HRO917477:HRO917515 HHS917477:HHS917515 GXW917477:GXW917515 GOA917477:GOA917515 GEE917477:GEE917515 FUI917477:FUI917515 FKM917477:FKM917515 FAQ917477:FAQ917515 EQU917477:EQU917515 EGY917477:EGY917515 DXC917477:DXC917515 DNG917477:DNG917515 DDK917477:DDK917515 CTO917477:CTO917515 CJS917477:CJS917515 BZW917477:BZW917515 BQA917477:BQA917515 BGE917477:BGE917515 AWI917477:AWI917515 AMM917477:AMM917515 ACQ917477:ACQ917515 SU917477:SU917515 IY917477:IY917515 WVK851941:WVK851979 WLO851941:WLO851979 WBS851941:WBS851979 VRW851941:VRW851979 VIA851941:VIA851979 UYE851941:UYE851979 UOI851941:UOI851979 UEM851941:UEM851979 TUQ851941:TUQ851979 TKU851941:TKU851979 TAY851941:TAY851979 SRC851941:SRC851979 SHG851941:SHG851979 RXK851941:RXK851979 RNO851941:RNO851979 RDS851941:RDS851979 QTW851941:QTW851979 QKA851941:QKA851979 QAE851941:QAE851979 PQI851941:PQI851979 PGM851941:PGM851979 OWQ851941:OWQ851979 OMU851941:OMU851979 OCY851941:OCY851979 NTC851941:NTC851979 NJG851941:NJG851979 MZK851941:MZK851979 MPO851941:MPO851979 MFS851941:MFS851979 LVW851941:LVW851979 LMA851941:LMA851979 LCE851941:LCE851979 KSI851941:KSI851979 KIM851941:KIM851979 JYQ851941:JYQ851979 JOU851941:JOU851979 JEY851941:JEY851979 IVC851941:IVC851979 ILG851941:ILG851979 IBK851941:IBK851979 HRO851941:HRO851979 HHS851941:HHS851979 GXW851941:GXW851979 GOA851941:GOA851979 GEE851941:GEE851979 FUI851941:FUI851979 FKM851941:FKM851979 FAQ851941:FAQ851979 EQU851941:EQU851979 EGY851941:EGY851979 DXC851941:DXC851979 DNG851941:DNG851979 DDK851941:DDK851979 CTO851941:CTO851979 CJS851941:CJS851979 BZW851941:BZW851979 BQA851941:BQA851979 BGE851941:BGE851979 AWI851941:AWI851979 AMM851941:AMM851979 ACQ851941:ACQ851979 SU851941:SU851979 IY851941:IY851979 WVK786405:WVK786443 WLO786405:WLO786443 WBS786405:WBS786443 VRW786405:VRW786443 VIA786405:VIA786443 UYE786405:UYE786443 UOI786405:UOI786443 UEM786405:UEM786443 TUQ786405:TUQ786443 TKU786405:TKU786443 TAY786405:TAY786443 SRC786405:SRC786443 SHG786405:SHG786443 RXK786405:RXK786443 RNO786405:RNO786443 RDS786405:RDS786443 QTW786405:QTW786443 QKA786405:QKA786443 QAE786405:QAE786443 PQI786405:PQI786443 PGM786405:PGM786443 OWQ786405:OWQ786443 OMU786405:OMU786443 OCY786405:OCY786443 NTC786405:NTC786443 NJG786405:NJG786443 MZK786405:MZK786443 MPO786405:MPO786443 MFS786405:MFS786443 LVW786405:LVW786443 LMA786405:LMA786443 LCE786405:LCE786443 KSI786405:KSI786443 KIM786405:KIM786443 JYQ786405:JYQ786443 JOU786405:JOU786443 JEY786405:JEY786443 IVC786405:IVC786443 ILG786405:ILG786443 IBK786405:IBK786443 HRO786405:HRO786443 HHS786405:HHS786443 GXW786405:GXW786443 GOA786405:GOA786443 GEE786405:GEE786443 FUI786405:FUI786443 FKM786405:FKM786443 FAQ786405:FAQ786443 EQU786405:EQU786443 EGY786405:EGY786443 DXC786405:DXC786443 DNG786405:DNG786443 DDK786405:DDK786443 CTO786405:CTO786443 CJS786405:CJS786443 BZW786405:BZW786443 BQA786405:BQA786443 BGE786405:BGE786443 AWI786405:AWI786443 AMM786405:AMM786443 ACQ786405:ACQ786443 SU786405:SU786443 IY786405:IY786443 WVK720869:WVK720907 WLO720869:WLO720907 WBS720869:WBS720907 VRW720869:VRW720907 VIA720869:VIA720907 UYE720869:UYE720907 UOI720869:UOI720907 UEM720869:UEM720907 TUQ720869:TUQ720907 TKU720869:TKU720907 TAY720869:TAY720907 SRC720869:SRC720907 SHG720869:SHG720907 RXK720869:RXK720907 RNO720869:RNO720907 RDS720869:RDS720907 QTW720869:QTW720907 QKA720869:QKA720907 QAE720869:QAE720907 PQI720869:PQI720907 PGM720869:PGM720907 OWQ720869:OWQ720907 OMU720869:OMU720907 OCY720869:OCY720907 NTC720869:NTC720907 NJG720869:NJG720907 MZK720869:MZK720907 MPO720869:MPO720907 MFS720869:MFS720907 LVW720869:LVW720907 LMA720869:LMA720907 LCE720869:LCE720907 KSI720869:KSI720907 KIM720869:KIM720907 JYQ720869:JYQ720907 JOU720869:JOU720907 JEY720869:JEY720907 IVC720869:IVC720907 ILG720869:ILG720907 IBK720869:IBK720907 HRO720869:HRO720907 HHS720869:HHS720907 GXW720869:GXW720907 GOA720869:GOA720907 GEE720869:GEE720907 FUI720869:FUI720907 FKM720869:FKM720907 FAQ720869:FAQ720907 EQU720869:EQU720907 EGY720869:EGY720907 DXC720869:DXC720907 DNG720869:DNG720907 DDK720869:DDK720907 CTO720869:CTO720907 CJS720869:CJS720907 BZW720869:BZW720907 BQA720869:BQA720907 BGE720869:BGE720907 AWI720869:AWI720907 AMM720869:AMM720907 ACQ720869:ACQ720907 SU720869:SU720907 IY720869:IY720907 WVK655333:WVK655371 WLO655333:WLO655371 WBS655333:WBS655371 VRW655333:VRW655371 VIA655333:VIA655371 UYE655333:UYE655371 UOI655333:UOI655371 UEM655333:UEM655371 TUQ655333:TUQ655371 TKU655333:TKU655371 TAY655333:TAY655371 SRC655333:SRC655371 SHG655333:SHG655371 RXK655333:RXK655371 RNO655333:RNO655371 RDS655333:RDS655371 QTW655333:QTW655371 QKA655333:QKA655371 QAE655333:QAE655371 PQI655333:PQI655371 PGM655333:PGM655371 OWQ655333:OWQ655371 OMU655333:OMU655371 OCY655333:OCY655371 NTC655333:NTC655371 NJG655333:NJG655371 MZK655333:MZK655371 MPO655333:MPO655371 MFS655333:MFS655371 LVW655333:LVW655371 LMA655333:LMA655371 LCE655333:LCE655371 KSI655333:KSI655371 KIM655333:KIM655371 JYQ655333:JYQ655371 JOU655333:JOU655371 JEY655333:JEY655371 IVC655333:IVC655371 ILG655333:ILG655371 IBK655333:IBK655371 HRO655333:HRO655371 HHS655333:HHS655371 GXW655333:GXW655371 GOA655333:GOA655371 GEE655333:GEE655371 FUI655333:FUI655371 FKM655333:FKM655371 FAQ655333:FAQ655371 EQU655333:EQU655371 EGY655333:EGY655371 DXC655333:DXC655371 DNG655333:DNG655371 DDK655333:DDK655371 CTO655333:CTO655371 CJS655333:CJS655371 BZW655333:BZW655371 BQA655333:BQA655371 BGE655333:BGE655371 AWI655333:AWI655371 AMM655333:AMM655371 ACQ655333:ACQ655371 SU655333:SU655371 IY655333:IY655371 WVK589797:WVK589835 WLO589797:WLO589835 WBS589797:WBS589835 VRW589797:VRW589835 VIA589797:VIA589835 UYE589797:UYE589835 UOI589797:UOI589835 UEM589797:UEM589835 TUQ589797:TUQ589835 TKU589797:TKU589835 TAY589797:TAY589835 SRC589797:SRC589835 SHG589797:SHG589835 RXK589797:RXK589835 RNO589797:RNO589835 RDS589797:RDS589835 QTW589797:QTW589835 QKA589797:QKA589835 QAE589797:QAE589835 PQI589797:PQI589835 PGM589797:PGM589835 OWQ589797:OWQ589835 OMU589797:OMU589835 OCY589797:OCY589835 NTC589797:NTC589835 NJG589797:NJG589835 MZK589797:MZK589835 MPO589797:MPO589835 MFS589797:MFS589835 LVW589797:LVW589835 LMA589797:LMA589835 LCE589797:LCE589835 KSI589797:KSI589835 KIM589797:KIM589835 JYQ589797:JYQ589835 JOU589797:JOU589835 JEY589797:JEY589835 IVC589797:IVC589835 ILG589797:ILG589835 IBK589797:IBK589835 HRO589797:HRO589835 HHS589797:HHS589835 GXW589797:GXW589835 GOA589797:GOA589835 GEE589797:GEE589835 FUI589797:FUI589835 FKM589797:FKM589835 FAQ589797:FAQ589835 EQU589797:EQU589835 EGY589797:EGY589835 DXC589797:DXC589835 DNG589797:DNG589835 DDK589797:DDK589835 CTO589797:CTO589835 CJS589797:CJS589835 BZW589797:BZW589835 BQA589797:BQA589835 BGE589797:BGE589835 AWI589797:AWI589835 AMM589797:AMM589835 ACQ589797:ACQ589835 SU589797:SU589835 IY589797:IY589835 WVK524261:WVK524299 WLO524261:WLO524299 WBS524261:WBS524299 VRW524261:VRW524299 VIA524261:VIA524299 UYE524261:UYE524299 UOI524261:UOI524299 UEM524261:UEM524299 TUQ524261:TUQ524299 TKU524261:TKU524299 TAY524261:TAY524299 SRC524261:SRC524299 SHG524261:SHG524299 RXK524261:RXK524299 RNO524261:RNO524299 RDS524261:RDS524299 QTW524261:QTW524299 QKA524261:QKA524299 QAE524261:QAE524299 PQI524261:PQI524299 PGM524261:PGM524299 OWQ524261:OWQ524299 OMU524261:OMU524299 OCY524261:OCY524299 NTC524261:NTC524299 NJG524261:NJG524299 MZK524261:MZK524299 MPO524261:MPO524299 MFS524261:MFS524299 LVW524261:LVW524299 LMA524261:LMA524299 LCE524261:LCE524299 KSI524261:KSI524299 KIM524261:KIM524299 JYQ524261:JYQ524299 JOU524261:JOU524299 JEY524261:JEY524299 IVC524261:IVC524299 ILG524261:ILG524299 IBK524261:IBK524299 HRO524261:HRO524299 HHS524261:HHS524299 GXW524261:GXW524299 GOA524261:GOA524299 GEE524261:GEE524299 FUI524261:FUI524299 FKM524261:FKM524299 FAQ524261:FAQ524299 EQU524261:EQU524299 EGY524261:EGY524299 DXC524261:DXC524299 DNG524261:DNG524299 DDK524261:DDK524299 CTO524261:CTO524299 CJS524261:CJS524299 BZW524261:BZW524299 BQA524261:BQA524299 BGE524261:BGE524299 AWI524261:AWI524299 AMM524261:AMM524299 ACQ524261:ACQ524299 SU524261:SU524299 IY524261:IY524299 WVK458725:WVK458763 WLO458725:WLO458763 WBS458725:WBS458763 VRW458725:VRW458763 VIA458725:VIA458763 UYE458725:UYE458763 UOI458725:UOI458763 UEM458725:UEM458763 TUQ458725:TUQ458763 TKU458725:TKU458763 TAY458725:TAY458763 SRC458725:SRC458763 SHG458725:SHG458763 RXK458725:RXK458763 RNO458725:RNO458763 RDS458725:RDS458763 QTW458725:QTW458763 QKA458725:QKA458763 QAE458725:QAE458763 PQI458725:PQI458763 PGM458725:PGM458763 OWQ458725:OWQ458763 OMU458725:OMU458763 OCY458725:OCY458763 NTC458725:NTC458763 NJG458725:NJG458763 MZK458725:MZK458763 MPO458725:MPO458763 MFS458725:MFS458763 LVW458725:LVW458763 LMA458725:LMA458763 LCE458725:LCE458763 KSI458725:KSI458763 KIM458725:KIM458763 JYQ458725:JYQ458763 JOU458725:JOU458763 JEY458725:JEY458763 IVC458725:IVC458763 ILG458725:ILG458763 IBK458725:IBK458763 HRO458725:HRO458763 HHS458725:HHS458763 GXW458725:GXW458763 GOA458725:GOA458763 GEE458725:GEE458763 FUI458725:FUI458763 FKM458725:FKM458763 FAQ458725:FAQ458763 EQU458725:EQU458763 EGY458725:EGY458763 DXC458725:DXC458763 DNG458725:DNG458763 DDK458725:DDK458763 CTO458725:CTO458763 CJS458725:CJS458763 BZW458725:BZW458763 BQA458725:BQA458763 BGE458725:BGE458763 AWI458725:AWI458763 AMM458725:AMM458763 ACQ458725:ACQ458763 SU458725:SU458763 IY458725:IY458763 WVK393189:WVK393227 WLO393189:WLO393227 WBS393189:WBS393227 VRW393189:VRW393227 VIA393189:VIA393227 UYE393189:UYE393227 UOI393189:UOI393227 UEM393189:UEM393227 TUQ393189:TUQ393227 TKU393189:TKU393227 TAY393189:TAY393227 SRC393189:SRC393227 SHG393189:SHG393227 RXK393189:RXK393227 RNO393189:RNO393227 RDS393189:RDS393227 QTW393189:QTW393227 QKA393189:QKA393227 QAE393189:QAE393227 PQI393189:PQI393227 PGM393189:PGM393227 OWQ393189:OWQ393227 OMU393189:OMU393227 OCY393189:OCY393227 NTC393189:NTC393227 NJG393189:NJG393227 MZK393189:MZK393227 MPO393189:MPO393227 MFS393189:MFS393227 LVW393189:LVW393227 LMA393189:LMA393227 LCE393189:LCE393227 KSI393189:KSI393227 KIM393189:KIM393227 JYQ393189:JYQ393227 JOU393189:JOU393227 JEY393189:JEY393227 IVC393189:IVC393227 ILG393189:ILG393227 IBK393189:IBK393227 HRO393189:HRO393227 HHS393189:HHS393227 GXW393189:GXW393227 GOA393189:GOA393227 GEE393189:GEE393227 FUI393189:FUI393227 FKM393189:FKM393227 FAQ393189:FAQ393227 EQU393189:EQU393227 EGY393189:EGY393227 DXC393189:DXC393227 DNG393189:DNG393227 DDK393189:DDK393227 CTO393189:CTO393227 CJS393189:CJS393227 BZW393189:BZW393227 BQA393189:BQA393227 BGE393189:BGE393227 AWI393189:AWI393227 AMM393189:AMM393227 ACQ393189:ACQ393227 SU393189:SU393227 IY393189:IY393227 WVK327653:WVK327691 WLO327653:WLO327691 WBS327653:WBS327691 VRW327653:VRW327691 VIA327653:VIA327691 UYE327653:UYE327691 UOI327653:UOI327691 UEM327653:UEM327691 TUQ327653:TUQ327691 TKU327653:TKU327691 TAY327653:TAY327691 SRC327653:SRC327691 SHG327653:SHG327691 RXK327653:RXK327691 RNO327653:RNO327691 RDS327653:RDS327691 QTW327653:QTW327691 QKA327653:QKA327691 QAE327653:QAE327691 PQI327653:PQI327691 PGM327653:PGM327691 OWQ327653:OWQ327691 OMU327653:OMU327691 OCY327653:OCY327691 NTC327653:NTC327691 NJG327653:NJG327691 MZK327653:MZK327691 MPO327653:MPO327691 MFS327653:MFS327691 LVW327653:LVW327691 LMA327653:LMA327691 LCE327653:LCE327691 KSI327653:KSI327691 KIM327653:KIM327691 JYQ327653:JYQ327691 JOU327653:JOU327691 JEY327653:JEY327691 IVC327653:IVC327691 ILG327653:ILG327691 IBK327653:IBK327691 HRO327653:HRO327691 HHS327653:HHS327691 GXW327653:GXW327691 GOA327653:GOA327691 GEE327653:GEE327691 FUI327653:FUI327691 FKM327653:FKM327691 FAQ327653:FAQ327691 EQU327653:EQU327691 EGY327653:EGY327691 DXC327653:DXC327691 DNG327653:DNG327691 DDK327653:DDK327691 CTO327653:CTO327691 CJS327653:CJS327691 BZW327653:BZW327691 BQA327653:BQA327691 BGE327653:BGE327691 AWI327653:AWI327691 AMM327653:AMM327691 ACQ327653:ACQ327691 SU327653:SU327691 IY327653:IY327691 WVK262117:WVK262155 WLO262117:WLO262155 WBS262117:WBS262155 VRW262117:VRW262155 VIA262117:VIA262155 UYE262117:UYE262155 UOI262117:UOI262155 UEM262117:UEM262155 TUQ262117:TUQ262155 TKU262117:TKU262155 TAY262117:TAY262155 SRC262117:SRC262155 SHG262117:SHG262155 RXK262117:RXK262155 RNO262117:RNO262155 RDS262117:RDS262155 QTW262117:QTW262155 QKA262117:QKA262155 QAE262117:QAE262155 PQI262117:PQI262155 PGM262117:PGM262155 OWQ262117:OWQ262155 OMU262117:OMU262155 OCY262117:OCY262155 NTC262117:NTC262155 NJG262117:NJG262155 MZK262117:MZK262155 MPO262117:MPO262155 MFS262117:MFS262155 LVW262117:LVW262155 LMA262117:LMA262155 LCE262117:LCE262155 KSI262117:KSI262155 KIM262117:KIM262155 JYQ262117:JYQ262155 JOU262117:JOU262155 JEY262117:JEY262155 IVC262117:IVC262155 ILG262117:ILG262155 IBK262117:IBK262155 HRO262117:HRO262155 HHS262117:HHS262155 GXW262117:GXW262155 GOA262117:GOA262155 GEE262117:GEE262155 FUI262117:FUI262155 FKM262117:FKM262155 FAQ262117:FAQ262155 EQU262117:EQU262155 EGY262117:EGY262155 DXC262117:DXC262155 DNG262117:DNG262155 DDK262117:DDK262155 CTO262117:CTO262155 CJS262117:CJS262155 BZW262117:BZW262155 BQA262117:BQA262155 BGE262117:BGE262155 AWI262117:AWI262155 AMM262117:AMM262155 ACQ262117:ACQ262155 SU262117:SU262155 IY262117:IY262155 WVK196581:WVK196619 WLO196581:WLO196619 WBS196581:WBS196619 VRW196581:VRW196619 VIA196581:VIA196619 UYE196581:UYE196619 UOI196581:UOI196619 UEM196581:UEM196619 TUQ196581:TUQ196619 TKU196581:TKU196619 TAY196581:TAY196619 SRC196581:SRC196619 SHG196581:SHG196619 RXK196581:RXK196619 RNO196581:RNO196619 RDS196581:RDS196619 QTW196581:QTW196619 QKA196581:QKA196619 QAE196581:QAE196619 PQI196581:PQI196619 PGM196581:PGM196619 OWQ196581:OWQ196619 OMU196581:OMU196619 OCY196581:OCY196619 NTC196581:NTC196619 NJG196581:NJG196619 MZK196581:MZK196619 MPO196581:MPO196619 MFS196581:MFS196619 LVW196581:LVW196619 LMA196581:LMA196619 LCE196581:LCE196619 KSI196581:KSI196619 KIM196581:KIM196619 JYQ196581:JYQ196619 JOU196581:JOU196619 JEY196581:JEY196619 IVC196581:IVC196619 ILG196581:ILG196619 IBK196581:IBK196619 HRO196581:HRO196619 HHS196581:HHS196619 GXW196581:GXW196619 GOA196581:GOA196619 GEE196581:GEE196619 FUI196581:FUI196619 FKM196581:FKM196619 FAQ196581:FAQ196619 EQU196581:EQU196619 EGY196581:EGY196619 DXC196581:DXC196619 DNG196581:DNG196619 DDK196581:DDK196619 CTO196581:CTO196619 CJS196581:CJS196619 BZW196581:BZW196619 BQA196581:BQA196619 BGE196581:BGE196619 AWI196581:AWI196619 AMM196581:AMM196619 ACQ196581:ACQ196619 SU196581:SU196619 IY196581:IY196619 WVK131045:WVK131083 WLO131045:WLO131083 WBS131045:WBS131083 VRW131045:VRW131083 VIA131045:VIA131083 UYE131045:UYE131083 UOI131045:UOI131083 UEM131045:UEM131083 TUQ131045:TUQ131083 TKU131045:TKU131083 TAY131045:TAY131083 SRC131045:SRC131083 SHG131045:SHG131083 RXK131045:RXK131083 RNO131045:RNO131083 RDS131045:RDS131083 QTW131045:QTW131083 QKA131045:QKA131083 QAE131045:QAE131083 PQI131045:PQI131083 PGM131045:PGM131083 OWQ131045:OWQ131083 OMU131045:OMU131083 OCY131045:OCY131083 NTC131045:NTC131083 NJG131045:NJG131083 MZK131045:MZK131083 MPO131045:MPO131083 MFS131045:MFS131083 LVW131045:LVW131083 LMA131045:LMA131083 LCE131045:LCE131083 KSI131045:KSI131083 KIM131045:KIM131083 JYQ131045:JYQ131083 JOU131045:JOU131083 JEY131045:JEY131083 IVC131045:IVC131083 ILG131045:ILG131083 IBK131045:IBK131083 HRO131045:HRO131083 HHS131045:HHS131083 GXW131045:GXW131083 GOA131045:GOA131083 GEE131045:GEE131083 FUI131045:FUI131083 FKM131045:FKM131083 FAQ131045:FAQ131083 EQU131045:EQU131083 EGY131045:EGY131083 DXC131045:DXC131083 DNG131045:DNG131083 DDK131045:DDK131083 CTO131045:CTO131083 CJS131045:CJS131083 BZW131045:BZW131083 BQA131045:BQA131083 BGE131045:BGE131083 AWI131045:AWI131083 AMM131045:AMM131083 ACQ131045:ACQ131083 SU131045:SU131083 IY131045:IY131083 WVK65509:WVK65547 WLO65509:WLO65547 WBS65509:WBS65547 VRW65509:VRW65547 VIA65509:VIA65547 UYE65509:UYE65547 UOI65509:UOI65547 UEM65509:UEM65547 TUQ65509:TUQ65547 TKU65509:TKU65547 TAY65509:TAY65547 SRC65509:SRC65547 SHG65509:SHG65547 RXK65509:RXK65547 RNO65509:RNO65547 RDS65509:RDS65547 QTW65509:QTW65547 QKA65509:QKA65547 QAE65509:QAE65547 PQI65509:PQI65547 PGM65509:PGM65547 OWQ65509:OWQ65547 OMU65509:OMU65547 OCY65509:OCY65547 NTC65509:NTC65547 NJG65509:NJG65547 MZK65509:MZK65547 MPO65509:MPO65547 MFS65509:MFS65547 LVW65509:LVW65547 LMA65509:LMA65547 LCE65509:LCE65547 KSI65509:KSI65547 KIM65509:KIM65547 JYQ65509:JYQ65547 JOU65509:JOU65547 JEY65509:JEY65547 IVC65509:IVC65547 ILG65509:ILG65547 IBK65509:IBK65547 HRO65509:HRO65547 HHS65509:HHS65547 GXW65509:GXW65547 GOA65509:GOA65547 GEE65509:GEE65547 FUI65509:FUI65547 FKM65509:FKM65547 FAQ65509:FAQ65547 EQU65509:EQU65547 EGY65509:EGY65547 DXC65509:DXC65547 DNG65509:DNG65547 DDK65509:DDK65547 CTO65509:CTO65547 CJS65509:CJS65547 BZW65509:BZW65547 BQA65509:BQA65547 BGE65509:BGE65547 AWI65509:AWI65547 AMM65509:AMM65547 ACQ65509:ACQ65547 SU65509:SU65547 IY65509:IY65547 SU6:SU11 ACQ6:ACQ11 AMM6:AMM11 AWI6:AWI11 BGE6:BGE11 BQA6:BQA11 BZW6:BZW11 CJS6:CJS11 CTO6:CTO11 DDK6:DDK11 DNG6:DNG11 DXC6:DXC11 EGY6:EGY11 EQU6:EQU11 FAQ6:FAQ11 FKM6:FKM11 FUI6:FUI11 GEE6:GEE11 GOA6:GOA11 GXW6:GXW11 HHS6:HHS11 HRO6:HRO11 IBK6:IBK11 ILG6:ILG11 IVC6:IVC11 JEY6:JEY11 JOU6:JOU11 JYQ6:JYQ11 KIM6:KIM11 KSI6:KSI11 LCE6:LCE11 LMA6:LMA11 LVW6:LVW11 MFS6:MFS11 MPO6:MPO11 MZK6:MZK11 NJG6:NJG11 NTC6:NTC11 OCY6:OCY11 OMU6:OMU11 OWQ6:OWQ11 PGM6:PGM11 PQI6:PQI11 QAE6:QAE11 QKA6:QKA11 QTW6:QTW11 RDS6:RDS11 RNO6:RNO11 RXK6:RXK11 SHG6:SHG11 SRC6:SRC11 TAY6:TAY11 TKU6:TKU11 TUQ6:TUQ11 UEM6:UEM11 UOI6:UOI11 UYE6:UYE11 VIA6:VIA11 VRW6:VRW11 WBS6:WBS11 WLO6:WLO11 WVK6:WVK11 H5:H11 IY6:IY11">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" ref="A13" si="1">ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65515:IY65553 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 H983019:H983057 WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 H5:H17 WVK5:WVK17 WLO5:WLO17 WBS5:WBS17 VRW5:VRW17 VIA5:VIA17 UYE5:UYE17 UOI5:UOI17 UEM5:UEM17 TUQ5:TUQ17 TKU5:TKU17 TAY5:TAY17 SRC5:SRC17 SHG5:SHG17 RXK5:RXK17 RNO5:RNO17 RDS5:RDS17 QTW5:QTW17 QKA5:QKA17 QAE5:QAE17 PQI5:PQI17 PGM5:PGM17 OWQ5:OWQ17 OMU5:OMU17 OCY5:OCY17 NTC5:NTC17 NJG5:NJG17 MZK5:MZK17 MPO5:MPO17 MFS5:MFS17 LVW5:LVW17 LMA5:LMA17 LCE5:LCE17 KSI5:KSI17 KIM5:KIM17 JYQ5:JYQ17 JOU5:JOU17 JEY5:JEY17 IVC5:IVC17 ILG5:ILG17 IBK5:IBK17 HRO5:HRO17 HHS5:HHS17 GXW5:GXW17 GOA5:GOA17 GEE5:GEE17 FUI5:FUI17 FKM5:FKM17 FAQ5:FAQ17 EQU5:EQU17 EGY5:EGY17 DXC5:DXC17 DNG5:DNG17 DDK5:DDK17 CTO5:CTO17 CJS5:CJS17 BZW5:BZW17 BQA5:BQA17 BGE5:BGE17 AWI5:AWI17 AMM5:AMM17 ACQ5:ACQ17 SU5:SU17 IY5:IY17">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="71">
+        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
+        <v>-2</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="71">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+    </row>
+    <row r="18" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="71">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+    </row>
+    <row r="19" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="71">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+    </row>
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="71">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+    </row>
+    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="71">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+    </row>
+    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="71">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+    </row>
+    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+    </row>
+    <row r="24" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="71">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+    </row>
+    <row r="25" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="71">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+    </row>
+    <row r="26" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="73">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
+    </row>
+    <row r="27" spans="1:10" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="73">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
+    </row>
+    <row r="28" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="73">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
+    </row>
+    <row r="29" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="73">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+    </row>
+    <row r="30" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="73">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+    </row>
+    <row r="31" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="73">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
+    </row>
+    <row r="32" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="73">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
+    </row>
+    <row r="33" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="73">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
+    </row>
+    <row r="34" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="73">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="139"/>
+    </row>
+    <row r="35" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="73">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="139"/>
+    </row>
+    <row r="36" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="73">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="139"/>
+    </row>
+    <row r="37" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="73">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
+    </row>
+    <row r="38" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="71">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
+    </row>
+    <row r="39" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="71">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
+    </row>
+    <row r="40" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="141"/>
+    </row>
+    <row r="41" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="141"/>
+    </row>
+    <row r="42" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="141"/>
+    </row>
+    <row r="43" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A43" s="64"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A44" s="60"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="57"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="I42:J42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY43 SU5:SU43 ACQ5:ACQ43 AMM5:AMM43 AWI5:AWI43 BGE5:BGE43 BQA5:BQA43 BZW5:BZW43 CJS5:CJS43 CTO5:CTO43 DDK5:DDK43 DNG5:DNG43 DXC5:DXC43 EGY5:EGY43 EQU5:EQU43 FAQ5:FAQ43 FKM5:FKM43 FUI5:FUI43 GEE5:GEE43 GOA5:GOA43 GXW5:GXW43 HHS5:HHS43 HRO5:HRO43 IBK5:IBK43 ILG5:ILG43 IVC5:IVC43 JEY5:JEY43 JOU5:JOU43 JYQ5:JYQ43 KIM5:KIM43 KSI5:KSI43 LCE5:LCE43 LMA5:LMA43 LVW5:LVW43 MFS5:MFS43 MPO5:MPO43 MZK5:MZK43 NJG5:NJG43 NTC5:NTC43 OCY5:OCY43 OMU5:OMU43 OWQ5:OWQ43 PGM5:PGM43 PQI5:PQI43 QAE5:QAE43 QKA5:QKA43 QTW5:QTW43 RDS5:RDS43 RNO5:RNO43 RXK5:RXK43 SHG5:SHG43 SRC5:SRC43 TAY5:TAY43 TKU5:TKU43 TUQ5:TUQ43 UEM5:UEM43 UOI5:UOI43 UYE5:UYE43 VIA5:VIA43 VRW5:VRW43 WBS5:WBS43 WLO5:WLO43 WVK5:WVK43 IY65541:IY65579 SU65541:SU65579 ACQ65541:ACQ65579 AMM65541:AMM65579 AWI65541:AWI65579 BGE65541:BGE65579 BQA65541:BQA65579 BZW65541:BZW65579 CJS65541:CJS65579 CTO65541:CTO65579 DDK65541:DDK65579 DNG65541:DNG65579 DXC65541:DXC65579 EGY65541:EGY65579 EQU65541:EQU65579 FAQ65541:FAQ65579 FKM65541:FKM65579 FUI65541:FUI65579 GEE65541:GEE65579 GOA65541:GOA65579 GXW65541:GXW65579 HHS65541:HHS65579 HRO65541:HRO65579 IBK65541:IBK65579 ILG65541:ILG65579 IVC65541:IVC65579 JEY65541:JEY65579 JOU65541:JOU65579 JYQ65541:JYQ65579 KIM65541:KIM65579 KSI65541:KSI65579 LCE65541:LCE65579 LMA65541:LMA65579 LVW65541:LVW65579 MFS65541:MFS65579 MPO65541:MPO65579 MZK65541:MZK65579 NJG65541:NJG65579 NTC65541:NTC65579 OCY65541:OCY65579 OMU65541:OMU65579 OWQ65541:OWQ65579 PGM65541:PGM65579 PQI65541:PQI65579 QAE65541:QAE65579 QKA65541:QKA65579 QTW65541:QTW65579 RDS65541:RDS65579 RNO65541:RNO65579 RXK65541:RXK65579 SHG65541:SHG65579 SRC65541:SRC65579 TAY65541:TAY65579 TKU65541:TKU65579 TUQ65541:TUQ65579 UEM65541:UEM65579 UOI65541:UOI65579 UYE65541:UYE65579 VIA65541:VIA65579 VRW65541:VRW65579 WBS65541:WBS65579 WLO65541:WLO65579 WVK65541:WVK65579 IY131077:IY131115 SU131077:SU131115 ACQ131077:ACQ131115 AMM131077:AMM131115 AWI131077:AWI131115 BGE131077:BGE131115 BQA131077:BQA131115 BZW131077:BZW131115 CJS131077:CJS131115 CTO131077:CTO131115 DDK131077:DDK131115 DNG131077:DNG131115 DXC131077:DXC131115 EGY131077:EGY131115 EQU131077:EQU131115 FAQ131077:FAQ131115 FKM131077:FKM131115 FUI131077:FUI131115 GEE131077:GEE131115 GOA131077:GOA131115 GXW131077:GXW131115 HHS131077:HHS131115 HRO131077:HRO131115 IBK131077:IBK131115 ILG131077:ILG131115 IVC131077:IVC131115 JEY131077:JEY131115 JOU131077:JOU131115 JYQ131077:JYQ131115 KIM131077:KIM131115 KSI131077:KSI131115 LCE131077:LCE131115 LMA131077:LMA131115 LVW131077:LVW131115 MFS131077:MFS131115 MPO131077:MPO131115 MZK131077:MZK131115 NJG131077:NJG131115 NTC131077:NTC131115 OCY131077:OCY131115 OMU131077:OMU131115 OWQ131077:OWQ131115 PGM131077:PGM131115 PQI131077:PQI131115 QAE131077:QAE131115 QKA131077:QKA131115 QTW131077:QTW131115 RDS131077:RDS131115 RNO131077:RNO131115 RXK131077:RXK131115 SHG131077:SHG131115 SRC131077:SRC131115 TAY131077:TAY131115 TKU131077:TKU131115 TUQ131077:TUQ131115 UEM131077:UEM131115 UOI131077:UOI131115 UYE131077:UYE131115 VIA131077:VIA131115 VRW131077:VRW131115 WBS131077:WBS131115 WLO131077:WLO131115 WVK131077:WVK131115 IY196613:IY196651 SU196613:SU196651 ACQ196613:ACQ196651 AMM196613:AMM196651 AWI196613:AWI196651 BGE196613:BGE196651 BQA196613:BQA196651 BZW196613:BZW196651 CJS196613:CJS196651 CTO196613:CTO196651 DDK196613:DDK196651 DNG196613:DNG196651 DXC196613:DXC196651 EGY196613:EGY196651 EQU196613:EQU196651 FAQ196613:FAQ196651 FKM196613:FKM196651 FUI196613:FUI196651 GEE196613:GEE196651 GOA196613:GOA196651 GXW196613:GXW196651 HHS196613:HHS196651 HRO196613:HRO196651 IBK196613:IBK196651 ILG196613:ILG196651 IVC196613:IVC196651 JEY196613:JEY196651 JOU196613:JOU196651 JYQ196613:JYQ196651 KIM196613:KIM196651 KSI196613:KSI196651 LCE196613:LCE196651 LMA196613:LMA196651 LVW196613:LVW196651 MFS196613:MFS196651 MPO196613:MPO196651 MZK196613:MZK196651 NJG196613:NJG196651 NTC196613:NTC196651 OCY196613:OCY196651 OMU196613:OMU196651 OWQ196613:OWQ196651 PGM196613:PGM196651 PQI196613:PQI196651 QAE196613:QAE196651 QKA196613:QKA196651 QTW196613:QTW196651 RDS196613:RDS196651 RNO196613:RNO196651 RXK196613:RXK196651 SHG196613:SHG196651 SRC196613:SRC196651 TAY196613:TAY196651 TKU196613:TKU196651 TUQ196613:TUQ196651 UEM196613:UEM196651 UOI196613:UOI196651 UYE196613:UYE196651 VIA196613:VIA196651 VRW196613:VRW196651 WBS196613:WBS196651 WLO196613:WLO196651 WVK196613:WVK196651 IY262149:IY262187 SU262149:SU262187 ACQ262149:ACQ262187 AMM262149:AMM262187 AWI262149:AWI262187 BGE262149:BGE262187 BQA262149:BQA262187 BZW262149:BZW262187 CJS262149:CJS262187 CTO262149:CTO262187 DDK262149:DDK262187 DNG262149:DNG262187 DXC262149:DXC262187 EGY262149:EGY262187 EQU262149:EQU262187 FAQ262149:FAQ262187 FKM262149:FKM262187 FUI262149:FUI262187 GEE262149:GEE262187 GOA262149:GOA262187 GXW262149:GXW262187 HHS262149:HHS262187 HRO262149:HRO262187 IBK262149:IBK262187 ILG262149:ILG262187 IVC262149:IVC262187 JEY262149:JEY262187 JOU262149:JOU262187 JYQ262149:JYQ262187 KIM262149:KIM262187 KSI262149:KSI262187 LCE262149:LCE262187 LMA262149:LMA262187 LVW262149:LVW262187 MFS262149:MFS262187 MPO262149:MPO262187 MZK262149:MZK262187 NJG262149:NJG262187 NTC262149:NTC262187 OCY262149:OCY262187 OMU262149:OMU262187 OWQ262149:OWQ262187 PGM262149:PGM262187 PQI262149:PQI262187 QAE262149:QAE262187 QKA262149:QKA262187 QTW262149:QTW262187 RDS262149:RDS262187 RNO262149:RNO262187 RXK262149:RXK262187 SHG262149:SHG262187 SRC262149:SRC262187 TAY262149:TAY262187 TKU262149:TKU262187 TUQ262149:TUQ262187 UEM262149:UEM262187 UOI262149:UOI262187 UYE262149:UYE262187 VIA262149:VIA262187 VRW262149:VRW262187 WBS262149:WBS262187 WLO262149:WLO262187 WVK262149:WVK262187 IY327685:IY327723 SU327685:SU327723 ACQ327685:ACQ327723 AMM327685:AMM327723 AWI327685:AWI327723 BGE327685:BGE327723 BQA327685:BQA327723 BZW327685:BZW327723 CJS327685:CJS327723 CTO327685:CTO327723 DDK327685:DDK327723 DNG327685:DNG327723 DXC327685:DXC327723 EGY327685:EGY327723 EQU327685:EQU327723 FAQ327685:FAQ327723 FKM327685:FKM327723 FUI327685:FUI327723 GEE327685:GEE327723 GOA327685:GOA327723 GXW327685:GXW327723 HHS327685:HHS327723 HRO327685:HRO327723 IBK327685:IBK327723 ILG327685:ILG327723 IVC327685:IVC327723 JEY327685:JEY327723 JOU327685:JOU327723 JYQ327685:JYQ327723 KIM327685:KIM327723 KSI327685:KSI327723 LCE327685:LCE327723 LMA327685:LMA327723 LVW327685:LVW327723 MFS327685:MFS327723 MPO327685:MPO327723 MZK327685:MZK327723 NJG327685:NJG327723 NTC327685:NTC327723 OCY327685:OCY327723 OMU327685:OMU327723 OWQ327685:OWQ327723 PGM327685:PGM327723 PQI327685:PQI327723 QAE327685:QAE327723 QKA327685:QKA327723 QTW327685:QTW327723 RDS327685:RDS327723 RNO327685:RNO327723 RXK327685:RXK327723 SHG327685:SHG327723 SRC327685:SRC327723 TAY327685:TAY327723 TKU327685:TKU327723 TUQ327685:TUQ327723 UEM327685:UEM327723 UOI327685:UOI327723 UYE327685:UYE327723 VIA327685:VIA327723 VRW327685:VRW327723 WBS327685:WBS327723 WLO327685:WLO327723 WVK327685:WVK327723 IY393221:IY393259 SU393221:SU393259 ACQ393221:ACQ393259 AMM393221:AMM393259 AWI393221:AWI393259 BGE393221:BGE393259 BQA393221:BQA393259 BZW393221:BZW393259 CJS393221:CJS393259 CTO393221:CTO393259 DDK393221:DDK393259 DNG393221:DNG393259 DXC393221:DXC393259 EGY393221:EGY393259 EQU393221:EQU393259 FAQ393221:FAQ393259 FKM393221:FKM393259 FUI393221:FUI393259 GEE393221:GEE393259 GOA393221:GOA393259 GXW393221:GXW393259 HHS393221:HHS393259 HRO393221:HRO393259 IBK393221:IBK393259 ILG393221:ILG393259 IVC393221:IVC393259 JEY393221:JEY393259 JOU393221:JOU393259 JYQ393221:JYQ393259 KIM393221:KIM393259 KSI393221:KSI393259 LCE393221:LCE393259 LMA393221:LMA393259 LVW393221:LVW393259 MFS393221:MFS393259 MPO393221:MPO393259 MZK393221:MZK393259 NJG393221:NJG393259 NTC393221:NTC393259 OCY393221:OCY393259 OMU393221:OMU393259 OWQ393221:OWQ393259 PGM393221:PGM393259 PQI393221:PQI393259 QAE393221:QAE393259 QKA393221:QKA393259 QTW393221:QTW393259 RDS393221:RDS393259 RNO393221:RNO393259 RXK393221:RXK393259 SHG393221:SHG393259 SRC393221:SRC393259 TAY393221:TAY393259 TKU393221:TKU393259 TUQ393221:TUQ393259 UEM393221:UEM393259 UOI393221:UOI393259 UYE393221:UYE393259 VIA393221:VIA393259 VRW393221:VRW393259 WBS393221:WBS393259 WLO393221:WLO393259 WVK393221:WVK393259 IY458757:IY458795 SU458757:SU458795 ACQ458757:ACQ458795 AMM458757:AMM458795 AWI458757:AWI458795 BGE458757:BGE458795 BQA458757:BQA458795 BZW458757:BZW458795 CJS458757:CJS458795 CTO458757:CTO458795 DDK458757:DDK458795 DNG458757:DNG458795 DXC458757:DXC458795 EGY458757:EGY458795 EQU458757:EQU458795 FAQ458757:FAQ458795 FKM458757:FKM458795 FUI458757:FUI458795 GEE458757:GEE458795 GOA458757:GOA458795 GXW458757:GXW458795 HHS458757:HHS458795 HRO458757:HRO458795 IBK458757:IBK458795 ILG458757:ILG458795 IVC458757:IVC458795 JEY458757:JEY458795 JOU458757:JOU458795 JYQ458757:JYQ458795 KIM458757:KIM458795 KSI458757:KSI458795 LCE458757:LCE458795 LMA458757:LMA458795 LVW458757:LVW458795 MFS458757:MFS458795 MPO458757:MPO458795 MZK458757:MZK458795 NJG458757:NJG458795 NTC458757:NTC458795 OCY458757:OCY458795 OMU458757:OMU458795 OWQ458757:OWQ458795 PGM458757:PGM458795 PQI458757:PQI458795 QAE458757:QAE458795 QKA458757:QKA458795 QTW458757:QTW458795 RDS458757:RDS458795 RNO458757:RNO458795 RXK458757:RXK458795 SHG458757:SHG458795 SRC458757:SRC458795 TAY458757:TAY458795 TKU458757:TKU458795 TUQ458757:TUQ458795 UEM458757:UEM458795 UOI458757:UOI458795 UYE458757:UYE458795 VIA458757:VIA458795 VRW458757:VRW458795 WBS458757:WBS458795 WLO458757:WLO458795 WVK458757:WVK458795 IY524293:IY524331 SU524293:SU524331 ACQ524293:ACQ524331 AMM524293:AMM524331 AWI524293:AWI524331 BGE524293:BGE524331 BQA524293:BQA524331 BZW524293:BZW524331 CJS524293:CJS524331 CTO524293:CTO524331 DDK524293:DDK524331 DNG524293:DNG524331 DXC524293:DXC524331 EGY524293:EGY524331 EQU524293:EQU524331 FAQ524293:FAQ524331 FKM524293:FKM524331 FUI524293:FUI524331 GEE524293:GEE524331 GOA524293:GOA524331 GXW524293:GXW524331 HHS524293:HHS524331 HRO524293:HRO524331 IBK524293:IBK524331 ILG524293:ILG524331 IVC524293:IVC524331 JEY524293:JEY524331 JOU524293:JOU524331 JYQ524293:JYQ524331 KIM524293:KIM524331 KSI524293:KSI524331 LCE524293:LCE524331 LMA524293:LMA524331 LVW524293:LVW524331 MFS524293:MFS524331 MPO524293:MPO524331 MZK524293:MZK524331 NJG524293:NJG524331 NTC524293:NTC524331 OCY524293:OCY524331 OMU524293:OMU524331 OWQ524293:OWQ524331 PGM524293:PGM524331 PQI524293:PQI524331 QAE524293:QAE524331 QKA524293:QKA524331 QTW524293:QTW524331 RDS524293:RDS524331 RNO524293:RNO524331 RXK524293:RXK524331 SHG524293:SHG524331 SRC524293:SRC524331 TAY524293:TAY524331 TKU524293:TKU524331 TUQ524293:TUQ524331 UEM524293:UEM524331 UOI524293:UOI524331 UYE524293:UYE524331 VIA524293:VIA524331 VRW524293:VRW524331 WBS524293:WBS524331 WLO524293:WLO524331 WVK524293:WVK524331 IY589829:IY589867 SU589829:SU589867 ACQ589829:ACQ589867 AMM589829:AMM589867 AWI589829:AWI589867 BGE589829:BGE589867 BQA589829:BQA589867 BZW589829:BZW589867 CJS589829:CJS589867 CTO589829:CTO589867 DDK589829:DDK589867 DNG589829:DNG589867 DXC589829:DXC589867 EGY589829:EGY589867 EQU589829:EQU589867 FAQ589829:FAQ589867 FKM589829:FKM589867 FUI589829:FUI589867 GEE589829:GEE589867 GOA589829:GOA589867 GXW589829:GXW589867 HHS589829:HHS589867 HRO589829:HRO589867 IBK589829:IBK589867 ILG589829:ILG589867 IVC589829:IVC589867 JEY589829:JEY589867 JOU589829:JOU589867 JYQ589829:JYQ589867 KIM589829:KIM589867 KSI589829:KSI589867 LCE589829:LCE589867 LMA589829:LMA589867 LVW589829:LVW589867 MFS589829:MFS589867 MPO589829:MPO589867 MZK589829:MZK589867 NJG589829:NJG589867 NTC589829:NTC589867 OCY589829:OCY589867 OMU589829:OMU589867 OWQ589829:OWQ589867 PGM589829:PGM589867 PQI589829:PQI589867 QAE589829:QAE589867 QKA589829:QKA589867 QTW589829:QTW589867 RDS589829:RDS589867 RNO589829:RNO589867 RXK589829:RXK589867 SHG589829:SHG589867 SRC589829:SRC589867 TAY589829:TAY589867 TKU589829:TKU589867 TUQ589829:TUQ589867 UEM589829:UEM589867 UOI589829:UOI589867 UYE589829:UYE589867 VIA589829:VIA589867 VRW589829:VRW589867 WBS589829:WBS589867 WLO589829:WLO589867 WVK589829:WVK589867 IY655365:IY655403 SU655365:SU655403 ACQ655365:ACQ655403 AMM655365:AMM655403 AWI655365:AWI655403 BGE655365:BGE655403 BQA655365:BQA655403 BZW655365:BZW655403 CJS655365:CJS655403 CTO655365:CTO655403 DDK655365:DDK655403 DNG655365:DNG655403 DXC655365:DXC655403 EGY655365:EGY655403 EQU655365:EQU655403 FAQ655365:FAQ655403 FKM655365:FKM655403 FUI655365:FUI655403 GEE655365:GEE655403 GOA655365:GOA655403 GXW655365:GXW655403 HHS655365:HHS655403 HRO655365:HRO655403 IBK655365:IBK655403 ILG655365:ILG655403 IVC655365:IVC655403 JEY655365:JEY655403 JOU655365:JOU655403 JYQ655365:JYQ655403 KIM655365:KIM655403 KSI655365:KSI655403 LCE655365:LCE655403 LMA655365:LMA655403 LVW655365:LVW655403 MFS655365:MFS655403 MPO655365:MPO655403 MZK655365:MZK655403 NJG655365:NJG655403 NTC655365:NTC655403 OCY655365:OCY655403 OMU655365:OMU655403 OWQ655365:OWQ655403 PGM655365:PGM655403 PQI655365:PQI655403 QAE655365:QAE655403 QKA655365:QKA655403 QTW655365:QTW655403 RDS655365:RDS655403 RNO655365:RNO655403 RXK655365:RXK655403 SHG655365:SHG655403 SRC655365:SRC655403 TAY655365:TAY655403 TKU655365:TKU655403 TUQ655365:TUQ655403 UEM655365:UEM655403 UOI655365:UOI655403 UYE655365:UYE655403 VIA655365:VIA655403 VRW655365:VRW655403 WBS655365:WBS655403 WLO655365:WLO655403 WVK655365:WVK655403 IY720901:IY720939 SU720901:SU720939 ACQ720901:ACQ720939 AMM720901:AMM720939 AWI720901:AWI720939 BGE720901:BGE720939 BQA720901:BQA720939 BZW720901:BZW720939 CJS720901:CJS720939 CTO720901:CTO720939 DDK720901:DDK720939 DNG720901:DNG720939 DXC720901:DXC720939 EGY720901:EGY720939 EQU720901:EQU720939 FAQ720901:FAQ720939 FKM720901:FKM720939 FUI720901:FUI720939 GEE720901:GEE720939 GOA720901:GOA720939 GXW720901:GXW720939 HHS720901:HHS720939 HRO720901:HRO720939 IBK720901:IBK720939 ILG720901:ILG720939 IVC720901:IVC720939 JEY720901:JEY720939 JOU720901:JOU720939 JYQ720901:JYQ720939 KIM720901:KIM720939 KSI720901:KSI720939 LCE720901:LCE720939 LMA720901:LMA720939 LVW720901:LVW720939 MFS720901:MFS720939 MPO720901:MPO720939 MZK720901:MZK720939 NJG720901:NJG720939 NTC720901:NTC720939 OCY720901:OCY720939 OMU720901:OMU720939 OWQ720901:OWQ720939 PGM720901:PGM720939 PQI720901:PQI720939 QAE720901:QAE720939 QKA720901:QKA720939 QTW720901:QTW720939 RDS720901:RDS720939 RNO720901:RNO720939 RXK720901:RXK720939 SHG720901:SHG720939 SRC720901:SRC720939 TAY720901:TAY720939 TKU720901:TKU720939 TUQ720901:TUQ720939 UEM720901:UEM720939 UOI720901:UOI720939 UYE720901:UYE720939 VIA720901:VIA720939 VRW720901:VRW720939 WBS720901:WBS720939 WLO720901:WLO720939 WVK720901:WVK720939 IY786437:IY786475 SU786437:SU786475 ACQ786437:ACQ786475 AMM786437:AMM786475 AWI786437:AWI786475 BGE786437:BGE786475 BQA786437:BQA786475 BZW786437:BZW786475 CJS786437:CJS786475 CTO786437:CTO786475 DDK786437:DDK786475 DNG786437:DNG786475 DXC786437:DXC786475 EGY786437:EGY786475 EQU786437:EQU786475 FAQ786437:FAQ786475 FKM786437:FKM786475 FUI786437:FUI786475 GEE786437:GEE786475 GOA786437:GOA786475 GXW786437:GXW786475 HHS786437:HHS786475 HRO786437:HRO786475 IBK786437:IBK786475 ILG786437:ILG786475 IVC786437:IVC786475 JEY786437:JEY786475 JOU786437:JOU786475 JYQ786437:JYQ786475 KIM786437:KIM786475 KSI786437:KSI786475 LCE786437:LCE786475 LMA786437:LMA786475 LVW786437:LVW786475 MFS786437:MFS786475 MPO786437:MPO786475 MZK786437:MZK786475 NJG786437:NJG786475 NTC786437:NTC786475 OCY786437:OCY786475 OMU786437:OMU786475 OWQ786437:OWQ786475 PGM786437:PGM786475 PQI786437:PQI786475 QAE786437:QAE786475 QKA786437:QKA786475 QTW786437:QTW786475 RDS786437:RDS786475 RNO786437:RNO786475 RXK786437:RXK786475 SHG786437:SHG786475 SRC786437:SRC786475 TAY786437:TAY786475 TKU786437:TKU786475 TUQ786437:TUQ786475 UEM786437:UEM786475 UOI786437:UOI786475 UYE786437:UYE786475 VIA786437:VIA786475 VRW786437:VRW786475 WBS786437:WBS786475 WLO786437:WLO786475 WVK786437:WVK786475 IY851973:IY852011 SU851973:SU852011 ACQ851973:ACQ852011 AMM851973:AMM852011 AWI851973:AWI852011 BGE851973:BGE852011 BQA851973:BQA852011 BZW851973:BZW852011 CJS851973:CJS852011 CTO851973:CTO852011 DDK851973:DDK852011 DNG851973:DNG852011 DXC851973:DXC852011 EGY851973:EGY852011 EQU851973:EQU852011 FAQ851973:FAQ852011 FKM851973:FKM852011 FUI851973:FUI852011 GEE851973:GEE852011 GOA851973:GOA852011 GXW851973:GXW852011 HHS851973:HHS852011 HRO851973:HRO852011 IBK851973:IBK852011 ILG851973:ILG852011 IVC851973:IVC852011 JEY851973:JEY852011 JOU851973:JOU852011 JYQ851973:JYQ852011 KIM851973:KIM852011 KSI851973:KSI852011 LCE851973:LCE852011 LMA851973:LMA852011 LVW851973:LVW852011 MFS851973:MFS852011 MPO851973:MPO852011 MZK851973:MZK852011 NJG851973:NJG852011 NTC851973:NTC852011 OCY851973:OCY852011 OMU851973:OMU852011 OWQ851973:OWQ852011 PGM851973:PGM852011 PQI851973:PQI852011 QAE851973:QAE852011 QKA851973:QKA852011 QTW851973:QTW852011 RDS851973:RDS852011 RNO851973:RNO852011 RXK851973:RXK852011 SHG851973:SHG852011 SRC851973:SRC852011 TAY851973:TAY852011 TKU851973:TKU852011 TUQ851973:TUQ852011 UEM851973:UEM852011 UOI851973:UOI852011 UYE851973:UYE852011 VIA851973:VIA852011 VRW851973:VRW852011 WBS851973:WBS852011 WLO851973:WLO852011 WVK851973:WVK852011 IY917509:IY917547 SU917509:SU917547 ACQ917509:ACQ917547 AMM917509:AMM917547 AWI917509:AWI917547 BGE917509:BGE917547 BQA917509:BQA917547 BZW917509:BZW917547 CJS917509:CJS917547 CTO917509:CTO917547 DDK917509:DDK917547 DNG917509:DNG917547 DXC917509:DXC917547 EGY917509:EGY917547 EQU917509:EQU917547 FAQ917509:FAQ917547 FKM917509:FKM917547 FUI917509:FUI917547 GEE917509:GEE917547 GOA917509:GOA917547 GXW917509:GXW917547 HHS917509:HHS917547 HRO917509:HRO917547 IBK917509:IBK917547 ILG917509:ILG917547 IVC917509:IVC917547 JEY917509:JEY917547 JOU917509:JOU917547 JYQ917509:JYQ917547 KIM917509:KIM917547 KSI917509:KSI917547 LCE917509:LCE917547 LMA917509:LMA917547 LVW917509:LVW917547 MFS917509:MFS917547 MPO917509:MPO917547 MZK917509:MZK917547 NJG917509:NJG917547 NTC917509:NTC917547 OCY917509:OCY917547 OMU917509:OMU917547 OWQ917509:OWQ917547 PGM917509:PGM917547 PQI917509:PQI917547 QAE917509:QAE917547 QKA917509:QKA917547 QTW917509:QTW917547 RDS917509:RDS917547 RNO917509:RNO917547 RXK917509:RXK917547 SHG917509:SHG917547 SRC917509:SRC917547 TAY917509:TAY917547 TKU917509:TKU917547 TUQ917509:TUQ917547 UEM917509:UEM917547 UOI917509:UOI917547 UYE917509:UYE917547 VIA917509:VIA917547 VRW917509:VRW917547 WBS917509:WBS917547 WLO917509:WLO917547 WVK917509:WVK917547 IY983045:IY983083 SU983045:SU983083 ACQ983045:ACQ983083 AMM983045:AMM983083 AWI983045:AWI983083 BGE983045:BGE983083 BQA983045:BQA983083 BZW983045:BZW983083 CJS983045:CJS983083 CTO983045:CTO983083 DDK983045:DDK983083 DNG983045:DNG983083 DXC983045:DXC983083 EGY983045:EGY983083 EQU983045:EQU983083 FAQ983045:FAQ983083 FKM983045:FKM983083 FUI983045:FUI983083 GEE983045:GEE983083 GOA983045:GOA983083 GXW983045:GXW983083 HHS983045:HHS983083 HRO983045:HRO983083 IBK983045:IBK983083 ILG983045:ILG983083 IVC983045:IVC983083 JEY983045:JEY983083 JOU983045:JOU983083 JYQ983045:JYQ983083 KIM983045:KIM983083 KSI983045:KSI983083 LCE983045:LCE983083 LMA983045:LMA983083 LVW983045:LVW983083 MFS983045:MFS983083 MPO983045:MPO983083 MZK983045:MZK983083 NJG983045:NJG983083 NTC983045:NTC983083 OCY983045:OCY983083 OMU983045:OMU983083 OWQ983045:OWQ983083 PGM983045:PGM983083 PQI983045:PQI983083 QAE983045:QAE983083 QKA983045:QKA983083 QTW983045:QTW983083 RDS983045:RDS983083 RNO983045:RNO983083 RXK983045:RXK983083 SHG983045:SHG983083 SRC983045:SRC983083 TAY983045:TAY983083 TKU983045:TKU983083 TUQ983045:TUQ983083 UEM983045:UEM983083 UOI983045:UOI983083 UYE983045:UYE983083 VIA983045:VIA983083 VRW983045:VRW983083 WBS983045:WBS983083 WLO983045:WLO983083 WVK983045:WVK983083 H983045:H983083 H917509:H917547 H851973:H852011 H786437:H786475 H720901:H720939 H655365:H655403 H589829:H589867 H524293:H524331 H458757:H458795 H393221:H393259 H327685:H327723 H262149:H262187 H196613:H196651 H131077:H131115 H65541:H65579 H5:H43">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="198">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -907,6 +907,10 @@
   </si>
   <si>
     <t>添加简报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简报表中添加描述字段，来描述该简报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2920,6 +2924,33 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2929,32 +2960,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2965,9 +2975,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2977,14 +2984,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3020,33 +3051,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3503,7 +3507,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:M13"/>
+      <selection activeCell="E14" sqref="E14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
@@ -3563,17 +3567,17 @@
       <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="112"/>
       <c r="P4" s="2"/>
       <c r="Z4" s="1"/>
     </row>
@@ -3899,18 +3903,26 @@
       <c r="A14" s="94">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
+      <c r="B14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -3929,15 +3941,15 @@
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -3954,15 +3966,15 @@
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="112"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -3979,15 +3991,15 @@
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -4004,15 +4016,15 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="109"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
       <c r="P18" s="2"/>
       <c r="Z18" s="1"/>
     </row>
@@ -4303,13 +4315,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
@@ -4318,6 +4323,13 @@
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4350,10 +4362,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="134"/>
       <c r="C1" s="145"/>
       <c r="D1" s="146"/>
       <c r="E1" s="146"/>
@@ -4364,10 +4376,10 @@
       <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="125"/>
+      <c r="B2" s="134"/>
       <c r="C2" s="145"/>
       <c r="D2" s="146"/>
       <c r="E2" s="146"/>
@@ -4378,27 +4390,27 @@
       <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
@@ -4414,10 +4426,10 @@
       <c r="H4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="135"/>
+      <c r="J4" s="144"/>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="71">
@@ -4443,10 +4455,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="144"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="68" t="s">
         <v>99</v>
       </c>
@@ -4454,18 +4466,18 @@
       <c r="F6" s="67"/>
       <c r="G6" s="66"/>
       <c r="H6" s="65"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="144"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="68" t="s">
         <v>190</v>
       </c>
@@ -4473,18 +4485,18 @@
       <c r="F7" s="67"/>
       <c r="G7" s="66"/>
       <c r="H7" s="65"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
     </row>
     <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="68" t="s">
         <v>191</v>
       </c>
@@ -4492,18 +4504,18 @@
       <c r="F8" s="67"/>
       <c r="G8" s="66"/>
       <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="144"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="68" t="s">
         <v>194</v>
       </c>
@@ -4511,506 +4523,4394 @@
       <c r="F9" s="67"/>
       <c r="G9" s="66"/>
       <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
       <c r="D10" s="68"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="86"/>
       <c r="H10" s="75"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
     </row>
     <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="68"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="66"/>
       <c r="H11" s="65"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="68"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="66"/>
       <c r="H12" s="65"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
     </row>
     <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="68"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="66"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
     </row>
     <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="68"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="66"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
     </row>
     <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="68"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="66"/>
       <c r="H15" s="65"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
     </row>
     <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="68"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="66"/>
       <c r="H16" s="65"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
       <c r="D17" s="68"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="66"/>
       <c r="H17" s="65"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="68"/>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
       <c r="G18" s="66"/>
       <c r="H18" s="65"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
     </row>
     <row r="19" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="71">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="68"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
       <c r="G19" s="66"/>
       <c r="H19" s="65"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
     </row>
     <row r="20" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="71">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="68"/>
       <c r="E20" s="67"/>
       <c r="F20" s="67"/>
       <c r="G20" s="66"/>
       <c r="H20" s="65"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="71">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="68"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="66"/>
       <c r="H21" s="65"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="71">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="68"/>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
       <c r="G22" s="66"/>
       <c r="H22" s="65"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="71">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
       <c r="D23" s="68"/>
       <c r="E23" s="67"/>
       <c r="F23" s="67"/>
       <c r="G23" s="66"/>
       <c r="H23" s="65"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
     </row>
     <row r="24" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="71">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="68"/>
       <c r="E24" s="67"/>
       <c r="F24" s="67"/>
       <c r="G24" s="66"/>
       <c r="H24" s="65"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
     </row>
     <row r="25" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="71">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="68"/>
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
       <c r="G25" s="66"/>
       <c r="H25" s="65"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
     </row>
     <row r="26" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="73">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="68"/>
       <c r="E26" s="70"/>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="139"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="132"/>
     </row>
     <row r="27" spans="1:10" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="73">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="68"/>
       <c r="E27" s="70"/>
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
     </row>
     <row r="28" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="73">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="68"/>
       <c r="E28" s="70"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
       <c r="H28" s="72"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="139"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
     </row>
     <row r="29" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="73">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
       <c r="D29" s="68"/>
       <c r="E29" s="70"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
       <c r="H29" s="72"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="73">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="68"/>
       <c r="E30" s="70"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
       <c r="H30" s="72"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
     </row>
     <row r="31" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="73">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="68"/>
       <c r="E31" s="70"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
       <c r="H31" s="72"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="139"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
     </row>
     <row r="32" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="73">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
       <c r="D32" s="68"/>
       <c r="E32" s="70"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
       <c r="H32" s="72"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="139"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
     </row>
     <row r="33" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="73">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="68"/>
       <c r="E33" s="70"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
       <c r="H33" s="72"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="139"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
     </row>
     <row r="34" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="73">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="68"/>
       <c r="E34" s="70"/>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
       <c r="H34" s="72"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="139"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="132"/>
     </row>
     <row r="35" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="73">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
       <c r="D35" s="68"/>
       <c r="E35" s="70"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
       <c r="H35" s="72"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="139"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="132"/>
     </row>
     <row r="36" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="73">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="68"/>
       <c r="E36" s="70"/>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
       <c r="H36" s="72"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="139"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="132"/>
     </row>
     <row r="37" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="73">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
       <c r="D37" s="68"/>
       <c r="E37" s="70"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="139"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
     </row>
     <row r="38" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="71">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
       <c r="D38" s="68"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="66"/>
       <c r="H38" s="65"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="71">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="68"/>
       <c r="E39" s="70"/>
       <c r="F39" s="67"/>
       <c r="G39" s="66"/>
       <c r="H39" s="65"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="141"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
     </row>
     <row r="40" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
       <c r="D40" s="68"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
       <c r="G40" s="66"/>
       <c r="H40" s="65"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="141"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
     </row>
     <row r="41" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="69"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="68"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
       <c r="G41" s="66"/>
       <c r="H41" s="65"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="127"/>
     </row>
     <row r="42" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="69"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="68"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="66"/>
       <c r="H42" s="65"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="141"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="127"/>
     </row>
     <row r="43" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="64"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
       <c r="D43" s="99"/>
       <c r="E43" s="63"/>
       <c r="F43" s="63"/>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A44" s="60"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="57"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="I42:J42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY43 SU5:SU43 ACQ5:ACQ43 AMM5:AMM43 AWI5:AWI43 BGE5:BGE43 BQA5:BQA43 BZW5:BZW43 CJS5:CJS43 CTO5:CTO43 DDK5:DDK43 DNG5:DNG43 DXC5:DXC43 EGY5:EGY43 EQU5:EQU43 FAQ5:FAQ43 FKM5:FKM43 FUI5:FUI43 GEE5:GEE43 GOA5:GOA43 GXW5:GXW43 HHS5:HHS43 HRO5:HRO43 IBK5:IBK43 ILG5:ILG43 IVC5:IVC43 JEY5:JEY43 JOU5:JOU43 JYQ5:JYQ43 KIM5:KIM43 KSI5:KSI43 LCE5:LCE43 LMA5:LMA43 LVW5:LVW43 MFS5:MFS43 MPO5:MPO43 MZK5:MZK43 NJG5:NJG43 NTC5:NTC43 OCY5:OCY43 OMU5:OMU43 OWQ5:OWQ43 PGM5:PGM43 PQI5:PQI43 QAE5:QAE43 QKA5:QKA43 QTW5:QTW43 RDS5:RDS43 RNO5:RNO43 RXK5:RXK43 SHG5:SHG43 SRC5:SRC43 TAY5:TAY43 TKU5:TKU43 TUQ5:TUQ43 UEM5:UEM43 UOI5:UOI43 UYE5:UYE43 VIA5:VIA43 VRW5:VRW43 WBS5:WBS43 WLO5:WLO43 WVK5:WVK43 IY65541:IY65579 SU65541:SU65579 ACQ65541:ACQ65579 AMM65541:AMM65579 AWI65541:AWI65579 BGE65541:BGE65579 BQA65541:BQA65579 BZW65541:BZW65579 CJS65541:CJS65579 CTO65541:CTO65579 DDK65541:DDK65579 DNG65541:DNG65579 DXC65541:DXC65579 EGY65541:EGY65579 EQU65541:EQU65579 FAQ65541:FAQ65579 FKM65541:FKM65579 FUI65541:FUI65579 GEE65541:GEE65579 GOA65541:GOA65579 GXW65541:GXW65579 HHS65541:HHS65579 HRO65541:HRO65579 IBK65541:IBK65579 ILG65541:ILG65579 IVC65541:IVC65579 JEY65541:JEY65579 JOU65541:JOU65579 JYQ65541:JYQ65579 KIM65541:KIM65579 KSI65541:KSI65579 LCE65541:LCE65579 LMA65541:LMA65579 LVW65541:LVW65579 MFS65541:MFS65579 MPO65541:MPO65579 MZK65541:MZK65579 NJG65541:NJG65579 NTC65541:NTC65579 OCY65541:OCY65579 OMU65541:OMU65579 OWQ65541:OWQ65579 PGM65541:PGM65579 PQI65541:PQI65579 QAE65541:QAE65579 QKA65541:QKA65579 QTW65541:QTW65579 RDS65541:RDS65579 RNO65541:RNO65579 RXK65541:RXK65579 SHG65541:SHG65579 SRC65541:SRC65579 TAY65541:TAY65579 TKU65541:TKU65579 TUQ65541:TUQ65579 UEM65541:UEM65579 UOI65541:UOI65579 UYE65541:UYE65579 VIA65541:VIA65579 VRW65541:VRW65579 WBS65541:WBS65579 WLO65541:WLO65579 WVK65541:WVK65579 IY131077:IY131115 SU131077:SU131115 ACQ131077:ACQ131115 AMM131077:AMM131115 AWI131077:AWI131115 BGE131077:BGE131115 BQA131077:BQA131115 BZW131077:BZW131115 CJS131077:CJS131115 CTO131077:CTO131115 DDK131077:DDK131115 DNG131077:DNG131115 DXC131077:DXC131115 EGY131077:EGY131115 EQU131077:EQU131115 FAQ131077:FAQ131115 FKM131077:FKM131115 FUI131077:FUI131115 GEE131077:GEE131115 GOA131077:GOA131115 GXW131077:GXW131115 HHS131077:HHS131115 HRO131077:HRO131115 IBK131077:IBK131115 ILG131077:ILG131115 IVC131077:IVC131115 JEY131077:JEY131115 JOU131077:JOU131115 JYQ131077:JYQ131115 KIM131077:KIM131115 KSI131077:KSI131115 LCE131077:LCE131115 LMA131077:LMA131115 LVW131077:LVW131115 MFS131077:MFS131115 MPO131077:MPO131115 MZK131077:MZK131115 NJG131077:NJG131115 NTC131077:NTC131115 OCY131077:OCY131115 OMU131077:OMU131115 OWQ131077:OWQ131115 PGM131077:PGM131115 PQI131077:PQI131115 QAE131077:QAE131115 QKA131077:QKA131115 QTW131077:QTW131115 RDS131077:RDS131115 RNO131077:RNO131115 RXK131077:RXK131115 SHG131077:SHG131115 SRC131077:SRC131115 TAY131077:TAY131115 TKU131077:TKU131115 TUQ131077:TUQ131115 UEM131077:UEM131115 UOI131077:UOI131115 UYE131077:UYE131115 VIA131077:VIA131115 VRW131077:VRW131115 WBS131077:WBS131115 WLO131077:WLO131115 WVK131077:WVK131115 IY196613:IY196651 SU196613:SU196651 ACQ196613:ACQ196651 AMM196613:AMM196651 AWI196613:AWI196651 BGE196613:BGE196651 BQA196613:BQA196651 BZW196613:BZW196651 CJS196613:CJS196651 CTO196613:CTO196651 DDK196613:DDK196651 DNG196613:DNG196651 DXC196613:DXC196651 EGY196613:EGY196651 EQU196613:EQU196651 FAQ196613:FAQ196651 FKM196613:FKM196651 FUI196613:FUI196651 GEE196613:GEE196651 GOA196613:GOA196651 GXW196613:GXW196651 HHS196613:HHS196651 HRO196613:HRO196651 IBK196613:IBK196651 ILG196613:ILG196651 IVC196613:IVC196651 JEY196613:JEY196651 JOU196613:JOU196651 JYQ196613:JYQ196651 KIM196613:KIM196651 KSI196613:KSI196651 LCE196613:LCE196651 LMA196613:LMA196651 LVW196613:LVW196651 MFS196613:MFS196651 MPO196613:MPO196651 MZK196613:MZK196651 NJG196613:NJG196651 NTC196613:NTC196651 OCY196613:OCY196651 OMU196613:OMU196651 OWQ196613:OWQ196651 PGM196613:PGM196651 PQI196613:PQI196651 QAE196613:QAE196651 QKA196613:QKA196651 QTW196613:QTW196651 RDS196613:RDS196651 RNO196613:RNO196651 RXK196613:RXK196651 SHG196613:SHG196651 SRC196613:SRC196651 TAY196613:TAY196651 TKU196613:TKU196651 TUQ196613:TUQ196651 UEM196613:UEM196651 UOI196613:UOI196651 UYE196613:UYE196651 VIA196613:VIA196651 VRW196613:VRW196651 WBS196613:WBS196651 WLO196613:WLO196651 WVK196613:WVK196651 IY262149:IY262187 SU262149:SU262187 ACQ262149:ACQ262187 AMM262149:AMM262187 AWI262149:AWI262187 BGE262149:BGE262187 BQA262149:BQA262187 BZW262149:BZW262187 CJS262149:CJS262187 CTO262149:CTO262187 DDK262149:DDK262187 DNG262149:DNG262187 DXC262149:DXC262187 EGY262149:EGY262187 EQU262149:EQU262187 FAQ262149:FAQ262187 FKM262149:FKM262187 FUI262149:FUI262187 GEE262149:GEE262187 GOA262149:GOA262187 GXW262149:GXW262187 HHS262149:HHS262187 HRO262149:HRO262187 IBK262149:IBK262187 ILG262149:ILG262187 IVC262149:IVC262187 JEY262149:JEY262187 JOU262149:JOU262187 JYQ262149:JYQ262187 KIM262149:KIM262187 KSI262149:KSI262187 LCE262149:LCE262187 LMA262149:LMA262187 LVW262149:LVW262187 MFS262149:MFS262187 MPO262149:MPO262187 MZK262149:MZK262187 NJG262149:NJG262187 NTC262149:NTC262187 OCY262149:OCY262187 OMU262149:OMU262187 OWQ262149:OWQ262187 PGM262149:PGM262187 PQI262149:PQI262187 QAE262149:QAE262187 QKA262149:QKA262187 QTW262149:QTW262187 RDS262149:RDS262187 RNO262149:RNO262187 RXK262149:RXK262187 SHG262149:SHG262187 SRC262149:SRC262187 TAY262149:TAY262187 TKU262149:TKU262187 TUQ262149:TUQ262187 UEM262149:UEM262187 UOI262149:UOI262187 UYE262149:UYE262187 VIA262149:VIA262187 VRW262149:VRW262187 WBS262149:WBS262187 WLO262149:WLO262187 WVK262149:WVK262187 IY327685:IY327723 SU327685:SU327723 ACQ327685:ACQ327723 AMM327685:AMM327723 AWI327685:AWI327723 BGE327685:BGE327723 BQA327685:BQA327723 BZW327685:BZW327723 CJS327685:CJS327723 CTO327685:CTO327723 DDK327685:DDK327723 DNG327685:DNG327723 DXC327685:DXC327723 EGY327685:EGY327723 EQU327685:EQU327723 FAQ327685:FAQ327723 FKM327685:FKM327723 FUI327685:FUI327723 GEE327685:GEE327723 GOA327685:GOA327723 GXW327685:GXW327723 HHS327685:HHS327723 HRO327685:HRO327723 IBK327685:IBK327723 ILG327685:ILG327723 IVC327685:IVC327723 JEY327685:JEY327723 JOU327685:JOU327723 JYQ327685:JYQ327723 KIM327685:KIM327723 KSI327685:KSI327723 LCE327685:LCE327723 LMA327685:LMA327723 LVW327685:LVW327723 MFS327685:MFS327723 MPO327685:MPO327723 MZK327685:MZK327723 NJG327685:NJG327723 NTC327685:NTC327723 OCY327685:OCY327723 OMU327685:OMU327723 OWQ327685:OWQ327723 PGM327685:PGM327723 PQI327685:PQI327723 QAE327685:QAE327723 QKA327685:QKA327723 QTW327685:QTW327723 RDS327685:RDS327723 RNO327685:RNO327723 RXK327685:RXK327723 SHG327685:SHG327723 SRC327685:SRC327723 TAY327685:TAY327723 TKU327685:TKU327723 TUQ327685:TUQ327723 UEM327685:UEM327723 UOI327685:UOI327723 UYE327685:UYE327723 VIA327685:VIA327723 VRW327685:VRW327723 WBS327685:WBS327723 WLO327685:WLO327723 WVK327685:WVK327723 IY393221:IY393259 SU393221:SU393259 ACQ393221:ACQ393259 AMM393221:AMM393259 AWI393221:AWI393259 BGE393221:BGE393259 BQA393221:BQA393259 BZW393221:BZW393259 CJS393221:CJS393259 CTO393221:CTO393259 DDK393221:DDK393259 DNG393221:DNG393259 DXC393221:DXC393259 EGY393221:EGY393259 EQU393221:EQU393259 FAQ393221:FAQ393259 FKM393221:FKM393259 FUI393221:FUI393259 GEE393221:GEE393259 GOA393221:GOA393259 GXW393221:GXW393259 HHS393221:HHS393259 HRO393221:HRO393259 IBK393221:IBK393259 ILG393221:ILG393259 IVC393221:IVC393259 JEY393221:JEY393259 JOU393221:JOU393259 JYQ393221:JYQ393259 KIM393221:KIM393259 KSI393221:KSI393259 LCE393221:LCE393259 LMA393221:LMA393259 LVW393221:LVW393259 MFS393221:MFS393259 MPO393221:MPO393259 MZK393221:MZK393259 NJG393221:NJG393259 NTC393221:NTC393259 OCY393221:OCY393259 OMU393221:OMU393259 OWQ393221:OWQ393259 PGM393221:PGM393259 PQI393221:PQI393259 QAE393221:QAE393259 QKA393221:QKA393259 QTW393221:QTW393259 RDS393221:RDS393259 RNO393221:RNO393259 RXK393221:RXK393259 SHG393221:SHG393259 SRC393221:SRC393259 TAY393221:TAY393259 TKU393221:TKU393259 TUQ393221:TUQ393259 UEM393221:UEM393259 UOI393221:UOI393259 UYE393221:UYE393259 VIA393221:VIA393259 VRW393221:VRW393259 WBS393221:WBS393259 WLO393221:WLO393259 WVK393221:WVK393259 IY458757:IY458795 SU458757:SU458795 ACQ458757:ACQ458795 AMM458757:AMM458795 AWI458757:AWI458795 BGE458757:BGE458795 BQA458757:BQA458795 BZW458757:BZW458795 CJS458757:CJS458795 CTO458757:CTO458795 DDK458757:DDK458795 DNG458757:DNG458795 DXC458757:DXC458795 EGY458757:EGY458795 EQU458757:EQU458795 FAQ458757:FAQ458795 FKM458757:FKM458795 FUI458757:FUI458795 GEE458757:GEE458795 GOA458757:GOA458795 GXW458757:GXW458795 HHS458757:HHS458795 HRO458757:HRO458795 IBK458757:IBK458795 ILG458757:ILG458795 IVC458757:IVC458795 JEY458757:JEY458795 JOU458757:JOU458795 JYQ458757:JYQ458795 KIM458757:KIM458795 KSI458757:KSI458795 LCE458757:LCE458795 LMA458757:LMA458795 LVW458757:LVW458795 MFS458757:MFS458795 MPO458757:MPO458795 MZK458757:MZK458795 NJG458757:NJG458795 NTC458757:NTC458795 OCY458757:OCY458795 OMU458757:OMU458795 OWQ458757:OWQ458795 PGM458757:PGM458795 PQI458757:PQI458795 QAE458757:QAE458795 QKA458757:QKA458795 QTW458757:QTW458795 RDS458757:RDS458795 RNO458757:RNO458795 RXK458757:RXK458795 SHG458757:SHG458795 SRC458757:SRC458795 TAY458757:TAY458795 TKU458757:TKU458795 TUQ458757:TUQ458795 UEM458757:UEM458795 UOI458757:UOI458795 UYE458757:UYE458795 VIA458757:VIA458795 VRW458757:VRW458795 WBS458757:WBS458795 WLO458757:WLO458795 WVK458757:WVK458795 IY524293:IY524331 SU524293:SU524331 ACQ524293:ACQ524331 AMM524293:AMM524331 AWI524293:AWI524331 BGE524293:BGE524331 BQA524293:BQA524331 BZW524293:BZW524331 CJS524293:CJS524331 CTO524293:CTO524331 DDK524293:DDK524331 DNG524293:DNG524331 DXC524293:DXC524331 EGY524293:EGY524331 EQU524293:EQU524331 FAQ524293:FAQ524331 FKM524293:FKM524331 FUI524293:FUI524331 GEE524293:GEE524331 GOA524293:GOA524331 GXW524293:GXW524331 HHS524293:HHS524331 HRO524293:HRO524331 IBK524293:IBK524331 ILG524293:ILG524331 IVC524293:IVC524331 JEY524293:JEY524331 JOU524293:JOU524331 JYQ524293:JYQ524331 KIM524293:KIM524331 KSI524293:KSI524331 LCE524293:LCE524331 LMA524293:LMA524331 LVW524293:LVW524331 MFS524293:MFS524331 MPO524293:MPO524331 MZK524293:MZK524331 NJG524293:NJG524331 NTC524293:NTC524331 OCY524293:OCY524331 OMU524293:OMU524331 OWQ524293:OWQ524331 PGM524293:PGM524331 PQI524293:PQI524331 QAE524293:QAE524331 QKA524293:QKA524331 QTW524293:QTW524331 RDS524293:RDS524331 RNO524293:RNO524331 RXK524293:RXK524331 SHG524293:SHG524331 SRC524293:SRC524331 TAY524293:TAY524331 TKU524293:TKU524331 TUQ524293:TUQ524331 UEM524293:UEM524331 UOI524293:UOI524331 UYE524293:UYE524331 VIA524293:VIA524331 VRW524293:VRW524331 WBS524293:WBS524331 WLO524293:WLO524331 WVK524293:WVK524331 IY589829:IY589867 SU589829:SU589867 ACQ589829:ACQ589867 AMM589829:AMM589867 AWI589829:AWI589867 BGE589829:BGE589867 BQA589829:BQA589867 BZW589829:BZW589867 CJS589829:CJS589867 CTO589829:CTO589867 DDK589829:DDK589867 DNG589829:DNG589867 DXC589829:DXC589867 EGY589829:EGY589867 EQU589829:EQU589867 FAQ589829:FAQ589867 FKM589829:FKM589867 FUI589829:FUI589867 GEE589829:GEE589867 GOA589829:GOA589867 GXW589829:GXW589867 HHS589829:HHS589867 HRO589829:HRO589867 IBK589829:IBK589867 ILG589829:ILG589867 IVC589829:IVC589867 JEY589829:JEY589867 JOU589829:JOU589867 JYQ589829:JYQ589867 KIM589829:KIM589867 KSI589829:KSI589867 LCE589829:LCE589867 LMA589829:LMA589867 LVW589829:LVW589867 MFS589829:MFS589867 MPO589829:MPO589867 MZK589829:MZK589867 NJG589829:NJG589867 NTC589829:NTC589867 OCY589829:OCY589867 OMU589829:OMU589867 OWQ589829:OWQ589867 PGM589829:PGM589867 PQI589829:PQI589867 QAE589829:QAE589867 QKA589829:QKA589867 QTW589829:QTW589867 RDS589829:RDS589867 RNO589829:RNO589867 RXK589829:RXK589867 SHG589829:SHG589867 SRC589829:SRC589867 TAY589829:TAY589867 TKU589829:TKU589867 TUQ589829:TUQ589867 UEM589829:UEM589867 UOI589829:UOI589867 UYE589829:UYE589867 VIA589829:VIA589867 VRW589829:VRW589867 WBS589829:WBS589867 WLO589829:WLO589867 WVK589829:WVK589867 IY655365:IY655403 SU655365:SU655403 ACQ655365:ACQ655403 AMM655365:AMM655403 AWI655365:AWI655403 BGE655365:BGE655403 BQA655365:BQA655403 BZW655365:BZW655403 CJS655365:CJS655403 CTO655365:CTO655403 DDK655365:DDK655403 DNG655365:DNG655403 DXC655365:DXC655403 EGY655365:EGY655403 EQU655365:EQU655403 FAQ655365:FAQ655403 FKM655365:FKM655403 FUI655365:FUI655403 GEE655365:GEE655403 GOA655365:GOA655403 GXW655365:GXW655403 HHS655365:HHS655403 HRO655365:HRO655403 IBK655365:IBK655403 ILG655365:ILG655403 IVC655365:IVC655403 JEY655365:JEY655403 JOU655365:JOU655403 JYQ655365:JYQ655403 KIM655365:KIM655403 KSI655365:KSI655403 LCE655365:LCE655403 LMA655365:LMA655403 LVW655365:LVW655403 MFS655365:MFS655403 MPO655365:MPO655403 MZK655365:MZK655403 NJG655365:NJG655403 NTC655365:NTC655403 OCY655365:OCY655403 OMU655365:OMU655403 OWQ655365:OWQ655403 PGM655365:PGM655403 PQI655365:PQI655403 QAE655365:QAE655403 QKA655365:QKA655403 QTW655365:QTW655403 RDS655365:RDS655403 RNO655365:RNO655403 RXK655365:RXK655403 SHG655365:SHG655403 SRC655365:SRC655403 TAY655365:TAY655403 TKU655365:TKU655403 TUQ655365:TUQ655403 UEM655365:UEM655403 UOI655365:UOI655403 UYE655365:UYE655403 VIA655365:VIA655403 VRW655365:VRW655403 WBS655365:WBS655403 WLO655365:WLO655403 WVK655365:WVK655403 IY720901:IY720939 SU720901:SU720939 ACQ720901:ACQ720939 AMM720901:AMM720939 AWI720901:AWI720939 BGE720901:BGE720939 BQA720901:BQA720939 BZW720901:BZW720939 CJS720901:CJS720939 CTO720901:CTO720939 DDK720901:DDK720939 DNG720901:DNG720939 DXC720901:DXC720939 EGY720901:EGY720939 EQU720901:EQU720939 FAQ720901:FAQ720939 FKM720901:FKM720939 FUI720901:FUI720939 GEE720901:GEE720939 GOA720901:GOA720939 GXW720901:GXW720939 HHS720901:HHS720939 HRO720901:HRO720939 IBK720901:IBK720939 ILG720901:ILG720939 IVC720901:IVC720939 JEY720901:JEY720939 JOU720901:JOU720939 JYQ720901:JYQ720939 KIM720901:KIM720939 KSI720901:KSI720939 LCE720901:LCE720939 LMA720901:LMA720939 LVW720901:LVW720939 MFS720901:MFS720939 MPO720901:MPO720939 MZK720901:MZK720939 NJG720901:NJG720939 NTC720901:NTC720939 OCY720901:OCY720939 OMU720901:OMU720939 OWQ720901:OWQ720939 PGM720901:PGM720939 PQI720901:PQI720939 QAE720901:QAE720939 QKA720901:QKA720939 QTW720901:QTW720939 RDS720901:RDS720939 RNO720901:RNO720939 RXK720901:RXK720939 SHG720901:SHG720939 SRC720901:SRC720939 TAY720901:TAY720939 TKU720901:TKU720939 TUQ720901:TUQ720939 UEM720901:UEM720939 UOI720901:UOI720939 UYE720901:UYE720939 VIA720901:VIA720939 VRW720901:VRW720939 WBS720901:WBS720939 WLO720901:WLO720939 WVK720901:WVK720939 IY786437:IY786475 SU786437:SU786475 ACQ786437:ACQ786475 AMM786437:AMM786475 AWI786437:AWI786475 BGE786437:BGE786475 BQA786437:BQA786475 BZW786437:BZW786475 CJS786437:CJS786475 CTO786437:CTO786475 DDK786437:DDK786475 DNG786437:DNG786475 DXC786437:DXC786475 EGY786437:EGY786475 EQU786437:EQU786475 FAQ786437:FAQ786475 FKM786437:FKM786475 FUI786437:FUI786475 GEE786437:GEE786475 GOA786437:GOA786475 GXW786437:GXW786475 HHS786437:HHS786475 HRO786437:HRO786475 IBK786437:IBK786475 ILG786437:ILG786475 IVC786437:IVC786475 JEY786437:JEY786475 JOU786437:JOU786475 JYQ786437:JYQ786475 KIM786437:KIM786475 KSI786437:KSI786475 LCE786437:LCE786475 LMA786437:LMA786475 LVW786437:LVW786475 MFS786437:MFS786475 MPO786437:MPO786475 MZK786437:MZK786475 NJG786437:NJG786475 NTC786437:NTC786475 OCY786437:OCY786475 OMU786437:OMU786475 OWQ786437:OWQ786475 PGM786437:PGM786475 PQI786437:PQI786475 QAE786437:QAE786475 QKA786437:QKA786475 QTW786437:QTW786475 RDS786437:RDS786475 RNO786437:RNO786475 RXK786437:RXK786475 SHG786437:SHG786475 SRC786437:SRC786475 TAY786437:TAY786475 TKU786437:TKU786475 TUQ786437:TUQ786475 UEM786437:UEM786475 UOI786437:UOI786475 UYE786437:UYE786475 VIA786437:VIA786475 VRW786437:VRW786475 WBS786437:WBS786475 WLO786437:WLO786475 WVK786437:WVK786475 IY851973:IY852011 SU851973:SU852011 ACQ851973:ACQ852011 AMM851973:AMM852011 AWI851973:AWI852011 BGE851973:BGE852011 BQA851973:BQA852011 BZW851973:BZW852011 CJS851973:CJS852011 CTO851973:CTO852011 DDK851973:DDK852011 DNG851973:DNG852011 DXC851973:DXC852011 EGY851973:EGY852011 EQU851973:EQU852011 FAQ851973:FAQ852011 FKM851973:FKM852011 FUI851973:FUI852011 GEE851973:GEE852011 GOA851973:GOA852011 GXW851973:GXW852011 HHS851973:HHS852011 HRO851973:HRO852011 IBK851973:IBK852011 ILG851973:ILG852011 IVC851973:IVC852011 JEY851973:JEY852011 JOU851973:JOU852011 JYQ851973:JYQ852011 KIM851973:KIM852011 KSI851973:KSI852011 LCE851973:LCE852011 LMA851973:LMA852011 LVW851973:LVW852011 MFS851973:MFS852011 MPO851973:MPO852011 MZK851973:MZK852011 NJG851973:NJG852011 NTC851973:NTC852011 OCY851973:OCY852011 OMU851973:OMU852011 OWQ851973:OWQ852011 PGM851973:PGM852011 PQI851973:PQI852011 QAE851973:QAE852011 QKA851973:QKA852011 QTW851973:QTW852011 RDS851973:RDS852011 RNO851973:RNO852011 RXK851973:RXK852011 SHG851973:SHG852011 SRC851973:SRC852011 TAY851973:TAY852011 TKU851973:TKU852011 TUQ851973:TUQ852011 UEM851973:UEM852011 UOI851973:UOI852011 UYE851973:UYE852011 VIA851973:VIA852011 VRW851973:VRW852011 WBS851973:WBS852011 WLO851973:WLO852011 WVK851973:WVK852011 IY917509:IY917547 SU917509:SU917547 ACQ917509:ACQ917547 AMM917509:AMM917547 AWI917509:AWI917547 BGE917509:BGE917547 BQA917509:BQA917547 BZW917509:BZW917547 CJS917509:CJS917547 CTO917509:CTO917547 DDK917509:DDK917547 DNG917509:DNG917547 DXC917509:DXC917547 EGY917509:EGY917547 EQU917509:EQU917547 FAQ917509:FAQ917547 FKM917509:FKM917547 FUI917509:FUI917547 GEE917509:GEE917547 GOA917509:GOA917547 GXW917509:GXW917547 HHS917509:HHS917547 HRO917509:HRO917547 IBK917509:IBK917547 ILG917509:ILG917547 IVC917509:IVC917547 JEY917509:JEY917547 JOU917509:JOU917547 JYQ917509:JYQ917547 KIM917509:KIM917547 KSI917509:KSI917547 LCE917509:LCE917547 LMA917509:LMA917547 LVW917509:LVW917547 MFS917509:MFS917547 MPO917509:MPO917547 MZK917509:MZK917547 NJG917509:NJG917547 NTC917509:NTC917547 OCY917509:OCY917547 OMU917509:OMU917547 OWQ917509:OWQ917547 PGM917509:PGM917547 PQI917509:PQI917547 QAE917509:QAE917547 QKA917509:QKA917547 QTW917509:QTW917547 RDS917509:RDS917547 RNO917509:RNO917547 RXK917509:RXK917547 SHG917509:SHG917547 SRC917509:SRC917547 TAY917509:TAY917547 TKU917509:TKU917547 TUQ917509:TUQ917547 UEM917509:UEM917547 UOI917509:UOI917547 UYE917509:UYE917547 VIA917509:VIA917547 VRW917509:VRW917547 WBS917509:WBS917547 WLO917509:WLO917547 WVK917509:WVK917547 IY983045:IY983083 SU983045:SU983083 ACQ983045:ACQ983083 AMM983045:AMM983083 AWI983045:AWI983083 BGE983045:BGE983083 BQA983045:BQA983083 BZW983045:BZW983083 CJS983045:CJS983083 CTO983045:CTO983083 DDK983045:DDK983083 DNG983045:DNG983083 DXC983045:DXC983083 EGY983045:EGY983083 EQU983045:EQU983083 FAQ983045:FAQ983083 FKM983045:FKM983083 FUI983045:FUI983083 GEE983045:GEE983083 GOA983045:GOA983083 GXW983045:GXW983083 HHS983045:HHS983083 HRO983045:HRO983083 IBK983045:IBK983083 ILG983045:ILG983083 IVC983045:IVC983083 JEY983045:JEY983083 JOU983045:JOU983083 JYQ983045:JYQ983083 KIM983045:KIM983083 KSI983045:KSI983083 LCE983045:LCE983083 LMA983045:LMA983083 LVW983045:LVW983083 MFS983045:MFS983083 MPO983045:MPO983083 MZK983045:MZK983083 NJG983045:NJG983083 NTC983045:NTC983083 OCY983045:OCY983083 OMU983045:OMU983083 OWQ983045:OWQ983083 PGM983045:PGM983083 PQI983045:PQI983083 QAE983045:QAE983083 QKA983045:QKA983083 QTW983045:QTW983083 RDS983045:RDS983083 RNO983045:RNO983083 RXK983045:RXK983083 SHG983045:SHG983083 SRC983045:SRC983083 TAY983045:TAY983083 TKU983045:TKU983083 TUQ983045:TUQ983083 UEM983045:UEM983083 UOI983045:UOI983083 UYE983045:UYE983083 VIA983045:VIA983083 VRW983045:VRW983083 WBS983045:WBS983083 WLO983045:WLO983083 WVK983045:WVK983083 H983045:H983083 H917509:H917547 H851973:H852011 H786437:H786475 H720901:H720939 H655365:H655403 H589829:H589867 H524293:H524331 H458757:H458795 H393221:H393259 H327685:H327723 H262149:H262187 H196613:H196651 H131077:H131115 H65541:H65579 H5:H43">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AS33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" style="1" customWidth="1"/>
+    <col min="19" max="28" width="3.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="3.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="115"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="46"/>
+      <c r="L1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="1:45" s="22" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+    </row>
+    <row r="3" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+    </row>
+    <row r="4" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="31" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>实体列表</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+    </row>
+    <row r="6" spans="1:45" ht="29.25" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="117"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+    </row>
+    <row r="7" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="79">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+    </row>
+    <row r="8" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="79">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+    </row>
+    <row r="9" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="79">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="114"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+    </row>
+    <row r="10" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="79">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+    </row>
+    <row r="11" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="79">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="114"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+    </row>
+    <row r="12" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="79">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="114"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+    </row>
+    <row r="13" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="79">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="114"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+    </row>
+    <row r="14" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="79">
+        <v>7</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+    </row>
+    <row r="15" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="119"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+    </row>
+    <row r="16" spans="1:45" s="22" customFormat="1">
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+    </row>
+    <row r="17" spans="19:28" s="22" customFormat="1">
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+    </row>
+    <row r="18" spans="19:28" s="22" customFormat="1">
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+    </row>
+    <row r="19" spans="19:28" s="22" customFormat="1">
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="19:28" s="22" customFormat="1">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+    </row>
+    <row r="21" spans="19:28" s="22" customFormat="1">
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+    </row>
+    <row r="22" spans="19:28" s="22" customFormat="1">
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="19:28" s="22" customFormat="1">
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+    </row>
+    <row r="24" spans="19:28" s="22" customFormat="1">
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+    </row>
+    <row r="25" spans="19:28" s="22" customFormat="1">
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="19:28" s="22" customFormat="1">
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="19:28" s="22" customFormat="1">
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+    </row>
+    <row r="28" spans="19:28" s="22" customFormat="1">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+    </row>
+    <row r="29" spans="19:28" s="22" customFormat="1">
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+    </row>
+    <row r="30" spans="19:28" s="22" customFormat="1">
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+    </row>
+    <row r="31" spans="19:28" s="22" customFormat="1">
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+    </row>
+    <row r="32" spans="19:28" s="22" customFormat="1">
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+    </row>
+    <row r="33" spans="19:28" s="22" customFormat="1">
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:O6">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="23">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="E7" location="keyword!A1" display="keyword"/>
+    <hyperlink ref="E8" location="site!A1" display="site"/>
+    <hyperlink ref="E9" location="link!A1" display="link"/>
+    <hyperlink ref="E10" location="keyword_page!A1" display="keyword_page"/>
+    <hyperlink ref="E11" location="statistics!A1" display="statistics"/>
+    <hyperlink ref="E12" location="city!A1" display="city"/>
+    <hyperlink ref="E13" location="user!A1" display="user"/>
+    <hyperlink ref="E14" location="operate_log!A1" display="operate_log"/>
+  </hyperlinks>
+  <pageMargins left="0.51" right="0.67" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="168" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="138"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="144"/>
+    </row>
+    <row r="4" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71">
+        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="125"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="125"/>
+      <c r="D5" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65510:IY65548 H65510:H65548 H131046:H131084 H196582:H196620 H262118:H262156 H327654:H327692 H393190:H393228 H458726:H458764 H524262:H524300 H589798:H589836 H655334:H655372 H720870:H720908 H786406:H786444 H851942:H851980 H917478:H917516 H983014:H983052 WVK983014:WVK983052 WLO983014:WLO983052 WBS983014:WBS983052 VRW983014:VRW983052 VIA983014:VIA983052 UYE983014:UYE983052 UOI983014:UOI983052 UEM983014:UEM983052 TUQ983014:TUQ983052 TKU983014:TKU983052 TAY983014:TAY983052 SRC983014:SRC983052 SHG983014:SHG983052 RXK983014:RXK983052 RNO983014:RNO983052 RDS983014:RDS983052 QTW983014:QTW983052 QKA983014:QKA983052 QAE983014:QAE983052 PQI983014:PQI983052 PGM983014:PGM983052 OWQ983014:OWQ983052 OMU983014:OMU983052 OCY983014:OCY983052 NTC983014:NTC983052 NJG983014:NJG983052 MZK983014:MZK983052 MPO983014:MPO983052 MFS983014:MFS983052 LVW983014:LVW983052 LMA983014:LMA983052 LCE983014:LCE983052 KSI983014:KSI983052 KIM983014:KIM983052 JYQ983014:JYQ983052 JOU983014:JOU983052 JEY983014:JEY983052 IVC983014:IVC983052 ILG983014:ILG983052 IBK983014:IBK983052 HRO983014:HRO983052 HHS983014:HHS983052 GXW983014:GXW983052 GOA983014:GOA983052 GEE983014:GEE983052 FUI983014:FUI983052 FKM983014:FKM983052 FAQ983014:FAQ983052 EQU983014:EQU983052 EGY983014:EGY983052 DXC983014:DXC983052 DNG983014:DNG983052 DDK983014:DDK983052 CTO983014:CTO983052 CJS983014:CJS983052 BZW983014:BZW983052 BQA983014:BQA983052 BGE983014:BGE983052 AWI983014:AWI983052 AMM983014:AMM983052 ACQ983014:ACQ983052 SU983014:SU983052 IY983014:IY983052 WVK917478:WVK917516 WLO917478:WLO917516 WBS917478:WBS917516 VRW917478:VRW917516 VIA917478:VIA917516 UYE917478:UYE917516 UOI917478:UOI917516 UEM917478:UEM917516 TUQ917478:TUQ917516 TKU917478:TKU917516 TAY917478:TAY917516 SRC917478:SRC917516 SHG917478:SHG917516 RXK917478:RXK917516 RNO917478:RNO917516 RDS917478:RDS917516 QTW917478:QTW917516 QKA917478:QKA917516 QAE917478:QAE917516 PQI917478:PQI917516 PGM917478:PGM917516 OWQ917478:OWQ917516 OMU917478:OMU917516 OCY917478:OCY917516 NTC917478:NTC917516 NJG917478:NJG917516 MZK917478:MZK917516 MPO917478:MPO917516 MFS917478:MFS917516 LVW917478:LVW917516 LMA917478:LMA917516 LCE917478:LCE917516 KSI917478:KSI917516 KIM917478:KIM917516 JYQ917478:JYQ917516 JOU917478:JOU917516 JEY917478:JEY917516 IVC917478:IVC917516 ILG917478:ILG917516 IBK917478:IBK917516 HRO917478:HRO917516 HHS917478:HHS917516 GXW917478:GXW917516 GOA917478:GOA917516 GEE917478:GEE917516 FUI917478:FUI917516 FKM917478:FKM917516 FAQ917478:FAQ917516 EQU917478:EQU917516 EGY917478:EGY917516 DXC917478:DXC917516 DNG917478:DNG917516 DDK917478:DDK917516 CTO917478:CTO917516 CJS917478:CJS917516 BZW917478:BZW917516 BQA917478:BQA917516 BGE917478:BGE917516 AWI917478:AWI917516 AMM917478:AMM917516 ACQ917478:ACQ917516 SU917478:SU917516 IY917478:IY917516 WVK851942:WVK851980 WLO851942:WLO851980 WBS851942:WBS851980 VRW851942:VRW851980 VIA851942:VIA851980 UYE851942:UYE851980 UOI851942:UOI851980 UEM851942:UEM851980 TUQ851942:TUQ851980 TKU851942:TKU851980 TAY851942:TAY851980 SRC851942:SRC851980 SHG851942:SHG851980 RXK851942:RXK851980 RNO851942:RNO851980 RDS851942:RDS851980 QTW851942:QTW851980 QKA851942:QKA851980 QAE851942:QAE851980 PQI851942:PQI851980 PGM851942:PGM851980 OWQ851942:OWQ851980 OMU851942:OMU851980 OCY851942:OCY851980 NTC851942:NTC851980 NJG851942:NJG851980 MZK851942:MZK851980 MPO851942:MPO851980 MFS851942:MFS851980 LVW851942:LVW851980 LMA851942:LMA851980 LCE851942:LCE851980 KSI851942:KSI851980 KIM851942:KIM851980 JYQ851942:JYQ851980 JOU851942:JOU851980 JEY851942:JEY851980 IVC851942:IVC851980 ILG851942:ILG851980 IBK851942:IBK851980 HRO851942:HRO851980 HHS851942:HHS851980 GXW851942:GXW851980 GOA851942:GOA851980 GEE851942:GEE851980 FUI851942:FUI851980 FKM851942:FKM851980 FAQ851942:FAQ851980 EQU851942:EQU851980 EGY851942:EGY851980 DXC851942:DXC851980 DNG851942:DNG851980 DDK851942:DDK851980 CTO851942:CTO851980 CJS851942:CJS851980 BZW851942:BZW851980 BQA851942:BQA851980 BGE851942:BGE851980 AWI851942:AWI851980 AMM851942:AMM851980 ACQ851942:ACQ851980 SU851942:SU851980 IY851942:IY851980 WVK786406:WVK786444 WLO786406:WLO786444 WBS786406:WBS786444 VRW786406:VRW786444 VIA786406:VIA786444 UYE786406:UYE786444 UOI786406:UOI786444 UEM786406:UEM786444 TUQ786406:TUQ786444 TKU786406:TKU786444 TAY786406:TAY786444 SRC786406:SRC786444 SHG786406:SHG786444 RXK786406:RXK786444 RNO786406:RNO786444 RDS786406:RDS786444 QTW786406:QTW786444 QKA786406:QKA786444 QAE786406:QAE786444 PQI786406:PQI786444 PGM786406:PGM786444 OWQ786406:OWQ786444 OMU786406:OMU786444 OCY786406:OCY786444 NTC786406:NTC786444 NJG786406:NJG786444 MZK786406:MZK786444 MPO786406:MPO786444 MFS786406:MFS786444 LVW786406:LVW786444 LMA786406:LMA786444 LCE786406:LCE786444 KSI786406:KSI786444 KIM786406:KIM786444 JYQ786406:JYQ786444 JOU786406:JOU786444 JEY786406:JEY786444 IVC786406:IVC786444 ILG786406:ILG786444 IBK786406:IBK786444 HRO786406:HRO786444 HHS786406:HHS786444 GXW786406:GXW786444 GOA786406:GOA786444 GEE786406:GEE786444 FUI786406:FUI786444 FKM786406:FKM786444 FAQ786406:FAQ786444 EQU786406:EQU786444 EGY786406:EGY786444 DXC786406:DXC786444 DNG786406:DNG786444 DDK786406:DDK786444 CTO786406:CTO786444 CJS786406:CJS786444 BZW786406:BZW786444 BQA786406:BQA786444 BGE786406:BGE786444 AWI786406:AWI786444 AMM786406:AMM786444 ACQ786406:ACQ786444 SU786406:SU786444 IY786406:IY786444 WVK720870:WVK720908 WLO720870:WLO720908 WBS720870:WBS720908 VRW720870:VRW720908 VIA720870:VIA720908 UYE720870:UYE720908 UOI720870:UOI720908 UEM720870:UEM720908 TUQ720870:TUQ720908 TKU720870:TKU720908 TAY720870:TAY720908 SRC720870:SRC720908 SHG720870:SHG720908 RXK720870:RXK720908 RNO720870:RNO720908 RDS720870:RDS720908 QTW720870:QTW720908 QKA720870:QKA720908 QAE720870:QAE720908 PQI720870:PQI720908 PGM720870:PGM720908 OWQ720870:OWQ720908 OMU720870:OMU720908 OCY720870:OCY720908 NTC720870:NTC720908 NJG720870:NJG720908 MZK720870:MZK720908 MPO720870:MPO720908 MFS720870:MFS720908 LVW720870:LVW720908 LMA720870:LMA720908 LCE720870:LCE720908 KSI720870:KSI720908 KIM720870:KIM720908 JYQ720870:JYQ720908 JOU720870:JOU720908 JEY720870:JEY720908 IVC720870:IVC720908 ILG720870:ILG720908 IBK720870:IBK720908 HRO720870:HRO720908 HHS720870:HHS720908 GXW720870:GXW720908 GOA720870:GOA720908 GEE720870:GEE720908 FUI720870:FUI720908 FKM720870:FKM720908 FAQ720870:FAQ720908 EQU720870:EQU720908 EGY720870:EGY720908 DXC720870:DXC720908 DNG720870:DNG720908 DDK720870:DDK720908 CTO720870:CTO720908 CJS720870:CJS720908 BZW720870:BZW720908 BQA720870:BQA720908 BGE720870:BGE720908 AWI720870:AWI720908 AMM720870:AMM720908 ACQ720870:ACQ720908 SU720870:SU720908 IY720870:IY720908 WVK655334:WVK655372 WLO655334:WLO655372 WBS655334:WBS655372 VRW655334:VRW655372 VIA655334:VIA655372 UYE655334:UYE655372 UOI655334:UOI655372 UEM655334:UEM655372 TUQ655334:TUQ655372 TKU655334:TKU655372 TAY655334:TAY655372 SRC655334:SRC655372 SHG655334:SHG655372 RXK655334:RXK655372 RNO655334:RNO655372 RDS655334:RDS655372 QTW655334:QTW655372 QKA655334:QKA655372 QAE655334:QAE655372 PQI655334:PQI655372 PGM655334:PGM655372 OWQ655334:OWQ655372 OMU655334:OMU655372 OCY655334:OCY655372 NTC655334:NTC655372 NJG655334:NJG655372 MZK655334:MZK655372 MPO655334:MPO655372 MFS655334:MFS655372 LVW655334:LVW655372 LMA655334:LMA655372 LCE655334:LCE655372 KSI655334:KSI655372 KIM655334:KIM655372 JYQ655334:JYQ655372 JOU655334:JOU655372 JEY655334:JEY655372 IVC655334:IVC655372 ILG655334:ILG655372 IBK655334:IBK655372 HRO655334:HRO655372 HHS655334:HHS655372 GXW655334:GXW655372 GOA655334:GOA655372 GEE655334:GEE655372 FUI655334:FUI655372 FKM655334:FKM655372 FAQ655334:FAQ655372 EQU655334:EQU655372 EGY655334:EGY655372 DXC655334:DXC655372 DNG655334:DNG655372 DDK655334:DDK655372 CTO655334:CTO655372 CJS655334:CJS655372 BZW655334:BZW655372 BQA655334:BQA655372 BGE655334:BGE655372 AWI655334:AWI655372 AMM655334:AMM655372 ACQ655334:ACQ655372 SU655334:SU655372 IY655334:IY655372 WVK589798:WVK589836 WLO589798:WLO589836 WBS589798:WBS589836 VRW589798:VRW589836 VIA589798:VIA589836 UYE589798:UYE589836 UOI589798:UOI589836 UEM589798:UEM589836 TUQ589798:TUQ589836 TKU589798:TKU589836 TAY589798:TAY589836 SRC589798:SRC589836 SHG589798:SHG589836 RXK589798:RXK589836 RNO589798:RNO589836 RDS589798:RDS589836 QTW589798:QTW589836 QKA589798:QKA589836 QAE589798:QAE589836 PQI589798:PQI589836 PGM589798:PGM589836 OWQ589798:OWQ589836 OMU589798:OMU589836 OCY589798:OCY589836 NTC589798:NTC589836 NJG589798:NJG589836 MZK589798:MZK589836 MPO589798:MPO589836 MFS589798:MFS589836 LVW589798:LVW589836 LMA589798:LMA589836 LCE589798:LCE589836 KSI589798:KSI589836 KIM589798:KIM589836 JYQ589798:JYQ589836 JOU589798:JOU589836 JEY589798:JEY589836 IVC589798:IVC589836 ILG589798:ILG589836 IBK589798:IBK589836 HRO589798:HRO589836 HHS589798:HHS589836 GXW589798:GXW589836 GOA589798:GOA589836 GEE589798:GEE589836 FUI589798:FUI589836 FKM589798:FKM589836 FAQ589798:FAQ589836 EQU589798:EQU589836 EGY589798:EGY589836 DXC589798:DXC589836 DNG589798:DNG589836 DDK589798:DDK589836 CTO589798:CTO589836 CJS589798:CJS589836 BZW589798:BZW589836 BQA589798:BQA589836 BGE589798:BGE589836 AWI589798:AWI589836 AMM589798:AMM589836 ACQ589798:ACQ589836 SU589798:SU589836 IY589798:IY589836 WVK524262:WVK524300 WLO524262:WLO524300 WBS524262:WBS524300 VRW524262:VRW524300 VIA524262:VIA524300 UYE524262:UYE524300 UOI524262:UOI524300 UEM524262:UEM524300 TUQ524262:TUQ524300 TKU524262:TKU524300 TAY524262:TAY524300 SRC524262:SRC524300 SHG524262:SHG524300 RXK524262:RXK524300 RNO524262:RNO524300 RDS524262:RDS524300 QTW524262:QTW524300 QKA524262:QKA524300 QAE524262:QAE524300 PQI524262:PQI524300 PGM524262:PGM524300 OWQ524262:OWQ524300 OMU524262:OMU524300 OCY524262:OCY524300 NTC524262:NTC524300 NJG524262:NJG524300 MZK524262:MZK524300 MPO524262:MPO524300 MFS524262:MFS524300 LVW524262:LVW524300 LMA524262:LMA524300 LCE524262:LCE524300 KSI524262:KSI524300 KIM524262:KIM524300 JYQ524262:JYQ524300 JOU524262:JOU524300 JEY524262:JEY524300 IVC524262:IVC524300 ILG524262:ILG524300 IBK524262:IBK524300 HRO524262:HRO524300 HHS524262:HHS524300 GXW524262:GXW524300 GOA524262:GOA524300 GEE524262:GEE524300 FUI524262:FUI524300 FKM524262:FKM524300 FAQ524262:FAQ524300 EQU524262:EQU524300 EGY524262:EGY524300 DXC524262:DXC524300 DNG524262:DNG524300 DDK524262:DDK524300 CTO524262:CTO524300 CJS524262:CJS524300 BZW524262:BZW524300 BQA524262:BQA524300 BGE524262:BGE524300 AWI524262:AWI524300 AMM524262:AMM524300 ACQ524262:ACQ524300 SU524262:SU524300 IY524262:IY524300 WVK458726:WVK458764 WLO458726:WLO458764 WBS458726:WBS458764 VRW458726:VRW458764 VIA458726:VIA458764 UYE458726:UYE458764 UOI458726:UOI458764 UEM458726:UEM458764 TUQ458726:TUQ458764 TKU458726:TKU458764 TAY458726:TAY458764 SRC458726:SRC458764 SHG458726:SHG458764 RXK458726:RXK458764 RNO458726:RNO458764 RDS458726:RDS458764 QTW458726:QTW458764 QKA458726:QKA458764 QAE458726:QAE458764 PQI458726:PQI458764 PGM458726:PGM458764 OWQ458726:OWQ458764 OMU458726:OMU458764 OCY458726:OCY458764 NTC458726:NTC458764 NJG458726:NJG458764 MZK458726:MZK458764 MPO458726:MPO458764 MFS458726:MFS458764 LVW458726:LVW458764 LMA458726:LMA458764 LCE458726:LCE458764 KSI458726:KSI458764 KIM458726:KIM458764 JYQ458726:JYQ458764 JOU458726:JOU458764 JEY458726:JEY458764 IVC458726:IVC458764 ILG458726:ILG458764 IBK458726:IBK458764 HRO458726:HRO458764 HHS458726:HHS458764 GXW458726:GXW458764 GOA458726:GOA458764 GEE458726:GEE458764 FUI458726:FUI458764 FKM458726:FKM458764 FAQ458726:FAQ458764 EQU458726:EQU458764 EGY458726:EGY458764 DXC458726:DXC458764 DNG458726:DNG458764 DDK458726:DDK458764 CTO458726:CTO458764 CJS458726:CJS458764 BZW458726:BZW458764 BQA458726:BQA458764 BGE458726:BGE458764 AWI458726:AWI458764 AMM458726:AMM458764 ACQ458726:ACQ458764 SU458726:SU458764 IY458726:IY458764 WVK393190:WVK393228 WLO393190:WLO393228 WBS393190:WBS393228 VRW393190:VRW393228 VIA393190:VIA393228 UYE393190:UYE393228 UOI393190:UOI393228 UEM393190:UEM393228 TUQ393190:TUQ393228 TKU393190:TKU393228 TAY393190:TAY393228 SRC393190:SRC393228 SHG393190:SHG393228 RXK393190:RXK393228 RNO393190:RNO393228 RDS393190:RDS393228 QTW393190:QTW393228 QKA393190:QKA393228 QAE393190:QAE393228 PQI393190:PQI393228 PGM393190:PGM393228 OWQ393190:OWQ393228 OMU393190:OMU393228 OCY393190:OCY393228 NTC393190:NTC393228 NJG393190:NJG393228 MZK393190:MZK393228 MPO393190:MPO393228 MFS393190:MFS393228 LVW393190:LVW393228 LMA393190:LMA393228 LCE393190:LCE393228 KSI393190:KSI393228 KIM393190:KIM393228 JYQ393190:JYQ393228 JOU393190:JOU393228 JEY393190:JEY393228 IVC393190:IVC393228 ILG393190:ILG393228 IBK393190:IBK393228 HRO393190:HRO393228 HHS393190:HHS393228 GXW393190:GXW393228 GOA393190:GOA393228 GEE393190:GEE393228 FUI393190:FUI393228 FKM393190:FKM393228 FAQ393190:FAQ393228 EQU393190:EQU393228 EGY393190:EGY393228 DXC393190:DXC393228 DNG393190:DNG393228 DDK393190:DDK393228 CTO393190:CTO393228 CJS393190:CJS393228 BZW393190:BZW393228 BQA393190:BQA393228 BGE393190:BGE393228 AWI393190:AWI393228 AMM393190:AMM393228 ACQ393190:ACQ393228 SU393190:SU393228 IY393190:IY393228 WVK327654:WVK327692 WLO327654:WLO327692 WBS327654:WBS327692 VRW327654:VRW327692 VIA327654:VIA327692 UYE327654:UYE327692 UOI327654:UOI327692 UEM327654:UEM327692 TUQ327654:TUQ327692 TKU327654:TKU327692 TAY327654:TAY327692 SRC327654:SRC327692 SHG327654:SHG327692 RXK327654:RXK327692 RNO327654:RNO327692 RDS327654:RDS327692 QTW327654:QTW327692 QKA327654:QKA327692 QAE327654:QAE327692 PQI327654:PQI327692 PGM327654:PGM327692 OWQ327654:OWQ327692 OMU327654:OMU327692 OCY327654:OCY327692 NTC327654:NTC327692 NJG327654:NJG327692 MZK327654:MZK327692 MPO327654:MPO327692 MFS327654:MFS327692 LVW327654:LVW327692 LMA327654:LMA327692 LCE327654:LCE327692 KSI327654:KSI327692 KIM327654:KIM327692 JYQ327654:JYQ327692 JOU327654:JOU327692 JEY327654:JEY327692 IVC327654:IVC327692 ILG327654:ILG327692 IBK327654:IBK327692 HRO327654:HRO327692 HHS327654:HHS327692 GXW327654:GXW327692 GOA327654:GOA327692 GEE327654:GEE327692 FUI327654:FUI327692 FKM327654:FKM327692 FAQ327654:FAQ327692 EQU327654:EQU327692 EGY327654:EGY327692 DXC327654:DXC327692 DNG327654:DNG327692 DDK327654:DDK327692 CTO327654:CTO327692 CJS327654:CJS327692 BZW327654:BZW327692 BQA327654:BQA327692 BGE327654:BGE327692 AWI327654:AWI327692 AMM327654:AMM327692 ACQ327654:ACQ327692 SU327654:SU327692 IY327654:IY327692 WVK262118:WVK262156 WLO262118:WLO262156 WBS262118:WBS262156 VRW262118:VRW262156 VIA262118:VIA262156 UYE262118:UYE262156 UOI262118:UOI262156 UEM262118:UEM262156 TUQ262118:TUQ262156 TKU262118:TKU262156 TAY262118:TAY262156 SRC262118:SRC262156 SHG262118:SHG262156 RXK262118:RXK262156 RNO262118:RNO262156 RDS262118:RDS262156 QTW262118:QTW262156 QKA262118:QKA262156 QAE262118:QAE262156 PQI262118:PQI262156 PGM262118:PGM262156 OWQ262118:OWQ262156 OMU262118:OMU262156 OCY262118:OCY262156 NTC262118:NTC262156 NJG262118:NJG262156 MZK262118:MZK262156 MPO262118:MPO262156 MFS262118:MFS262156 LVW262118:LVW262156 LMA262118:LMA262156 LCE262118:LCE262156 KSI262118:KSI262156 KIM262118:KIM262156 JYQ262118:JYQ262156 JOU262118:JOU262156 JEY262118:JEY262156 IVC262118:IVC262156 ILG262118:ILG262156 IBK262118:IBK262156 HRO262118:HRO262156 HHS262118:HHS262156 GXW262118:GXW262156 GOA262118:GOA262156 GEE262118:GEE262156 FUI262118:FUI262156 FKM262118:FKM262156 FAQ262118:FAQ262156 EQU262118:EQU262156 EGY262118:EGY262156 DXC262118:DXC262156 DNG262118:DNG262156 DDK262118:DDK262156 CTO262118:CTO262156 CJS262118:CJS262156 BZW262118:BZW262156 BQA262118:BQA262156 BGE262118:BGE262156 AWI262118:AWI262156 AMM262118:AMM262156 ACQ262118:ACQ262156 SU262118:SU262156 IY262118:IY262156 WVK196582:WVK196620 WLO196582:WLO196620 WBS196582:WBS196620 VRW196582:VRW196620 VIA196582:VIA196620 UYE196582:UYE196620 UOI196582:UOI196620 UEM196582:UEM196620 TUQ196582:TUQ196620 TKU196582:TKU196620 TAY196582:TAY196620 SRC196582:SRC196620 SHG196582:SHG196620 RXK196582:RXK196620 RNO196582:RNO196620 RDS196582:RDS196620 QTW196582:QTW196620 QKA196582:QKA196620 QAE196582:QAE196620 PQI196582:PQI196620 PGM196582:PGM196620 OWQ196582:OWQ196620 OMU196582:OMU196620 OCY196582:OCY196620 NTC196582:NTC196620 NJG196582:NJG196620 MZK196582:MZK196620 MPO196582:MPO196620 MFS196582:MFS196620 LVW196582:LVW196620 LMA196582:LMA196620 LCE196582:LCE196620 KSI196582:KSI196620 KIM196582:KIM196620 JYQ196582:JYQ196620 JOU196582:JOU196620 JEY196582:JEY196620 IVC196582:IVC196620 ILG196582:ILG196620 IBK196582:IBK196620 HRO196582:HRO196620 HHS196582:HHS196620 GXW196582:GXW196620 GOA196582:GOA196620 GEE196582:GEE196620 FUI196582:FUI196620 FKM196582:FKM196620 FAQ196582:FAQ196620 EQU196582:EQU196620 EGY196582:EGY196620 DXC196582:DXC196620 DNG196582:DNG196620 DDK196582:DDK196620 CTO196582:CTO196620 CJS196582:CJS196620 BZW196582:BZW196620 BQA196582:BQA196620 BGE196582:BGE196620 AWI196582:AWI196620 AMM196582:AMM196620 ACQ196582:ACQ196620 SU196582:SU196620 IY196582:IY196620 WVK131046:WVK131084 WLO131046:WLO131084 WBS131046:WBS131084 VRW131046:VRW131084 VIA131046:VIA131084 UYE131046:UYE131084 UOI131046:UOI131084 UEM131046:UEM131084 TUQ131046:TUQ131084 TKU131046:TKU131084 TAY131046:TAY131084 SRC131046:SRC131084 SHG131046:SHG131084 RXK131046:RXK131084 RNO131046:RNO131084 RDS131046:RDS131084 QTW131046:QTW131084 QKA131046:QKA131084 QAE131046:QAE131084 PQI131046:PQI131084 PGM131046:PGM131084 OWQ131046:OWQ131084 OMU131046:OMU131084 OCY131046:OCY131084 NTC131046:NTC131084 NJG131046:NJG131084 MZK131046:MZK131084 MPO131046:MPO131084 MFS131046:MFS131084 LVW131046:LVW131084 LMA131046:LMA131084 LCE131046:LCE131084 KSI131046:KSI131084 KIM131046:KIM131084 JYQ131046:JYQ131084 JOU131046:JOU131084 JEY131046:JEY131084 IVC131046:IVC131084 ILG131046:ILG131084 IBK131046:IBK131084 HRO131046:HRO131084 HHS131046:HHS131084 GXW131046:GXW131084 GOA131046:GOA131084 GEE131046:GEE131084 FUI131046:FUI131084 FKM131046:FKM131084 FAQ131046:FAQ131084 EQU131046:EQU131084 EGY131046:EGY131084 DXC131046:DXC131084 DNG131046:DNG131084 DDK131046:DDK131084 CTO131046:CTO131084 CJS131046:CJS131084 BZW131046:BZW131084 BQA131046:BQA131084 BGE131046:BGE131084 AWI131046:AWI131084 AMM131046:AMM131084 ACQ131046:ACQ131084 SU131046:SU131084 IY131046:IY131084 WVK65510:WVK65548 WLO65510:WLO65548 WBS65510:WBS65548 VRW65510:VRW65548 VIA65510:VIA65548 UYE65510:UYE65548 UOI65510:UOI65548 UEM65510:UEM65548 TUQ65510:TUQ65548 TKU65510:TKU65548 TAY65510:TAY65548 SRC65510:SRC65548 SHG65510:SHG65548 RXK65510:RXK65548 RNO65510:RNO65548 RDS65510:RDS65548 QTW65510:QTW65548 QKA65510:QKA65548 QAE65510:QAE65548 PQI65510:PQI65548 PGM65510:PGM65548 OWQ65510:OWQ65548 OMU65510:OMU65548 OCY65510:OCY65548 NTC65510:NTC65548 NJG65510:NJG65548 MZK65510:MZK65548 MPO65510:MPO65548 MFS65510:MFS65548 LVW65510:LVW65548 LMA65510:LMA65548 LCE65510:LCE65548 KSI65510:KSI65548 KIM65510:KIM65548 JYQ65510:JYQ65548 JOU65510:JOU65548 JEY65510:JEY65548 IVC65510:IVC65548 ILG65510:ILG65548 IBK65510:IBK65548 HRO65510:HRO65548 HHS65510:HHS65548 GXW65510:GXW65548 GOA65510:GOA65548 GEE65510:GEE65548 FUI65510:FUI65548 FKM65510:FKM65548 FAQ65510:FAQ65548 EQU65510:EQU65548 EGY65510:EGY65548 DXC65510:DXC65548 DNG65510:DNG65548 DDK65510:DDK65548 CTO65510:CTO65548 CJS65510:CJS65548 BZW65510:BZW65548 BQA65510:BQA65548 BGE65510:BGE65548 AWI65510:AWI65548 AMM65510:AMM65548 ACQ65510:ACQ65548 SU65510:SU65548 H4:H12 WVK4:WVK12 WLO4:WLO12 WBS4:WBS12 VRW4:VRW12 VIA4:VIA12 UYE4:UYE12 UOI4:UOI12 UEM4:UEM12 TUQ4:TUQ12 TKU4:TKU12 TAY4:TAY12 SRC4:SRC12 SHG4:SHG12 RXK4:RXK12 RNO4:RNO12 RDS4:RDS12 QTW4:QTW12 QKA4:QKA12 QAE4:QAE12 PQI4:PQI12 PGM4:PGM12 OWQ4:OWQ12 OMU4:OMU12 OCY4:OCY12 NTC4:NTC12 NJG4:NJG12 MZK4:MZK12 MPO4:MPO12 MFS4:MFS12 LVW4:LVW12 LMA4:LMA12 LCE4:LCE12 KSI4:KSI12 KIM4:KIM12 JYQ4:JYQ12 JOU4:JOU12 JEY4:JEY12 IVC4:IVC12 ILG4:ILG12 IBK4:IBK12 HRO4:HRO12 HHS4:HHS12 GXW4:GXW12 GOA4:GOA12 GEE4:GEE12 FUI4:FUI12 FKM4:FKM12 FAQ4:FAQ12 EQU4:EQU12 EGY4:EGY12 DXC4:DXC12 DNG4:DNG12 DDK4:DDK12 CTO4:CTO12 CJS4:CJS12 BZW4:BZW12 BQA4:BQA12 BGE4:BGE12 AWI4:AWI12 AMM4:AMM12 ACQ4:ACQ12 SU4:SU12 IY4:IY12">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="144"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A22" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+    </row>
+    <row r="7" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="130"/>
+      <c r="D11" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="127"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="71">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="71">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="130"/>
+      <c r="D15" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+    </row>
+    <row r="16" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="71">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="71">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+    </row>
+    <row r="18" spans="1:10" s="61" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A18" s="71">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="127"/>
+    </row>
+    <row r="19" spans="1:10" s="61" customFormat="1" ht="39" customHeight="1">
+      <c r="A19" s="71">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="130"/>
+      <c r="D19" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="127"/>
+    </row>
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="42" customHeight="1">
+      <c r="A20" s="71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="130"/>
+      <c r="D20" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="127"/>
+    </row>
+    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="71">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+    </row>
+    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="71">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="127"/>
+    </row>
+    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="57"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65521:IY65559 H65521:H65559 H131057:H131095 H196593:H196631 H262129:H262167 H327665:H327703 H393201:H393239 H458737:H458775 H524273:H524311 H589809:H589847 H655345:H655383 H720881:H720919 H786417:H786455 H851953:H851991 H917489:H917527 H983025:H983063 SU65521:SU65559 WVK983025:WVK983063 WLO983025:WLO983063 WBS983025:WBS983063 VRW983025:VRW983063 VIA983025:VIA983063 UYE983025:UYE983063 UOI983025:UOI983063 UEM983025:UEM983063 TUQ983025:TUQ983063 TKU983025:TKU983063 TAY983025:TAY983063 SRC983025:SRC983063 SHG983025:SHG983063 RXK983025:RXK983063 RNO983025:RNO983063 RDS983025:RDS983063 QTW983025:QTW983063 QKA983025:QKA983063 QAE983025:QAE983063 PQI983025:PQI983063 PGM983025:PGM983063 OWQ983025:OWQ983063 OMU983025:OMU983063 OCY983025:OCY983063 NTC983025:NTC983063 NJG983025:NJG983063 MZK983025:MZK983063 MPO983025:MPO983063 MFS983025:MFS983063 LVW983025:LVW983063 LMA983025:LMA983063 LCE983025:LCE983063 KSI983025:KSI983063 KIM983025:KIM983063 JYQ983025:JYQ983063 JOU983025:JOU983063 JEY983025:JEY983063 IVC983025:IVC983063 ILG983025:ILG983063 IBK983025:IBK983063 HRO983025:HRO983063 HHS983025:HHS983063 GXW983025:GXW983063 GOA983025:GOA983063 GEE983025:GEE983063 FUI983025:FUI983063 FKM983025:FKM983063 FAQ983025:FAQ983063 EQU983025:EQU983063 EGY983025:EGY983063 DXC983025:DXC983063 DNG983025:DNG983063 DDK983025:DDK983063 CTO983025:CTO983063 CJS983025:CJS983063 BZW983025:BZW983063 BQA983025:BQA983063 BGE983025:BGE983063 AWI983025:AWI983063 AMM983025:AMM983063 ACQ983025:ACQ983063 SU983025:SU983063 IY983025:IY983063 WVK917489:WVK917527 WLO917489:WLO917527 WBS917489:WBS917527 VRW917489:VRW917527 VIA917489:VIA917527 UYE917489:UYE917527 UOI917489:UOI917527 UEM917489:UEM917527 TUQ917489:TUQ917527 TKU917489:TKU917527 TAY917489:TAY917527 SRC917489:SRC917527 SHG917489:SHG917527 RXK917489:RXK917527 RNO917489:RNO917527 RDS917489:RDS917527 QTW917489:QTW917527 QKA917489:QKA917527 QAE917489:QAE917527 PQI917489:PQI917527 PGM917489:PGM917527 OWQ917489:OWQ917527 OMU917489:OMU917527 OCY917489:OCY917527 NTC917489:NTC917527 NJG917489:NJG917527 MZK917489:MZK917527 MPO917489:MPO917527 MFS917489:MFS917527 LVW917489:LVW917527 LMA917489:LMA917527 LCE917489:LCE917527 KSI917489:KSI917527 KIM917489:KIM917527 JYQ917489:JYQ917527 JOU917489:JOU917527 JEY917489:JEY917527 IVC917489:IVC917527 ILG917489:ILG917527 IBK917489:IBK917527 HRO917489:HRO917527 HHS917489:HHS917527 GXW917489:GXW917527 GOA917489:GOA917527 GEE917489:GEE917527 FUI917489:FUI917527 FKM917489:FKM917527 FAQ917489:FAQ917527 EQU917489:EQU917527 EGY917489:EGY917527 DXC917489:DXC917527 DNG917489:DNG917527 DDK917489:DDK917527 CTO917489:CTO917527 CJS917489:CJS917527 BZW917489:BZW917527 BQA917489:BQA917527 BGE917489:BGE917527 AWI917489:AWI917527 AMM917489:AMM917527 ACQ917489:ACQ917527 SU917489:SU917527 IY917489:IY917527 WVK851953:WVK851991 WLO851953:WLO851991 WBS851953:WBS851991 VRW851953:VRW851991 VIA851953:VIA851991 UYE851953:UYE851991 UOI851953:UOI851991 UEM851953:UEM851991 TUQ851953:TUQ851991 TKU851953:TKU851991 TAY851953:TAY851991 SRC851953:SRC851991 SHG851953:SHG851991 RXK851953:RXK851991 RNO851953:RNO851991 RDS851953:RDS851991 QTW851953:QTW851991 QKA851953:QKA851991 QAE851953:QAE851991 PQI851953:PQI851991 PGM851953:PGM851991 OWQ851953:OWQ851991 OMU851953:OMU851991 OCY851953:OCY851991 NTC851953:NTC851991 NJG851953:NJG851991 MZK851953:MZK851991 MPO851953:MPO851991 MFS851953:MFS851991 LVW851953:LVW851991 LMA851953:LMA851991 LCE851953:LCE851991 KSI851953:KSI851991 KIM851953:KIM851991 JYQ851953:JYQ851991 JOU851953:JOU851991 JEY851953:JEY851991 IVC851953:IVC851991 ILG851953:ILG851991 IBK851953:IBK851991 HRO851953:HRO851991 HHS851953:HHS851991 GXW851953:GXW851991 GOA851953:GOA851991 GEE851953:GEE851991 FUI851953:FUI851991 FKM851953:FKM851991 FAQ851953:FAQ851991 EQU851953:EQU851991 EGY851953:EGY851991 DXC851953:DXC851991 DNG851953:DNG851991 DDK851953:DDK851991 CTO851953:CTO851991 CJS851953:CJS851991 BZW851953:BZW851991 BQA851953:BQA851991 BGE851953:BGE851991 AWI851953:AWI851991 AMM851953:AMM851991 ACQ851953:ACQ851991 SU851953:SU851991 IY851953:IY851991 WVK786417:WVK786455 WLO786417:WLO786455 WBS786417:WBS786455 VRW786417:VRW786455 VIA786417:VIA786455 UYE786417:UYE786455 UOI786417:UOI786455 UEM786417:UEM786455 TUQ786417:TUQ786455 TKU786417:TKU786455 TAY786417:TAY786455 SRC786417:SRC786455 SHG786417:SHG786455 RXK786417:RXK786455 RNO786417:RNO786455 RDS786417:RDS786455 QTW786417:QTW786455 QKA786417:QKA786455 QAE786417:QAE786455 PQI786417:PQI786455 PGM786417:PGM786455 OWQ786417:OWQ786455 OMU786417:OMU786455 OCY786417:OCY786455 NTC786417:NTC786455 NJG786417:NJG786455 MZK786417:MZK786455 MPO786417:MPO786455 MFS786417:MFS786455 LVW786417:LVW786455 LMA786417:LMA786455 LCE786417:LCE786455 KSI786417:KSI786455 KIM786417:KIM786455 JYQ786417:JYQ786455 JOU786417:JOU786455 JEY786417:JEY786455 IVC786417:IVC786455 ILG786417:ILG786455 IBK786417:IBK786455 HRO786417:HRO786455 HHS786417:HHS786455 GXW786417:GXW786455 GOA786417:GOA786455 GEE786417:GEE786455 FUI786417:FUI786455 FKM786417:FKM786455 FAQ786417:FAQ786455 EQU786417:EQU786455 EGY786417:EGY786455 DXC786417:DXC786455 DNG786417:DNG786455 DDK786417:DDK786455 CTO786417:CTO786455 CJS786417:CJS786455 BZW786417:BZW786455 BQA786417:BQA786455 BGE786417:BGE786455 AWI786417:AWI786455 AMM786417:AMM786455 ACQ786417:ACQ786455 SU786417:SU786455 IY786417:IY786455 WVK720881:WVK720919 WLO720881:WLO720919 WBS720881:WBS720919 VRW720881:VRW720919 VIA720881:VIA720919 UYE720881:UYE720919 UOI720881:UOI720919 UEM720881:UEM720919 TUQ720881:TUQ720919 TKU720881:TKU720919 TAY720881:TAY720919 SRC720881:SRC720919 SHG720881:SHG720919 RXK720881:RXK720919 RNO720881:RNO720919 RDS720881:RDS720919 QTW720881:QTW720919 QKA720881:QKA720919 QAE720881:QAE720919 PQI720881:PQI720919 PGM720881:PGM720919 OWQ720881:OWQ720919 OMU720881:OMU720919 OCY720881:OCY720919 NTC720881:NTC720919 NJG720881:NJG720919 MZK720881:MZK720919 MPO720881:MPO720919 MFS720881:MFS720919 LVW720881:LVW720919 LMA720881:LMA720919 LCE720881:LCE720919 KSI720881:KSI720919 KIM720881:KIM720919 JYQ720881:JYQ720919 JOU720881:JOU720919 JEY720881:JEY720919 IVC720881:IVC720919 ILG720881:ILG720919 IBK720881:IBK720919 HRO720881:HRO720919 HHS720881:HHS720919 GXW720881:GXW720919 GOA720881:GOA720919 GEE720881:GEE720919 FUI720881:FUI720919 FKM720881:FKM720919 FAQ720881:FAQ720919 EQU720881:EQU720919 EGY720881:EGY720919 DXC720881:DXC720919 DNG720881:DNG720919 DDK720881:DDK720919 CTO720881:CTO720919 CJS720881:CJS720919 BZW720881:BZW720919 BQA720881:BQA720919 BGE720881:BGE720919 AWI720881:AWI720919 AMM720881:AMM720919 ACQ720881:ACQ720919 SU720881:SU720919 IY720881:IY720919 WVK655345:WVK655383 WLO655345:WLO655383 WBS655345:WBS655383 VRW655345:VRW655383 VIA655345:VIA655383 UYE655345:UYE655383 UOI655345:UOI655383 UEM655345:UEM655383 TUQ655345:TUQ655383 TKU655345:TKU655383 TAY655345:TAY655383 SRC655345:SRC655383 SHG655345:SHG655383 RXK655345:RXK655383 RNO655345:RNO655383 RDS655345:RDS655383 QTW655345:QTW655383 QKA655345:QKA655383 QAE655345:QAE655383 PQI655345:PQI655383 PGM655345:PGM655383 OWQ655345:OWQ655383 OMU655345:OMU655383 OCY655345:OCY655383 NTC655345:NTC655383 NJG655345:NJG655383 MZK655345:MZK655383 MPO655345:MPO655383 MFS655345:MFS655383 LVW655345:LVW655383 LMA655345:LMA655383 LCE655345:LCE655383 KSI655345:KSI655383 KIM655345:KIM655383 JYQ655345:JYQ655383 JOU655345:JOU655383 JEY655345:JEY655383 IVC655345:IVC655383 ILG655345:ILG655383 IBK655345:IBK655383 HRO655345:HRO655383 HHS655345:HHS655383 GXW655345:GXW655383 GOA655345:GOA655383 GEE655345:GEE655383 FUI655345:FUI655383 FKM655345:FKM655383 FAQ655345:FAQ655383 EQU655345:EQU655383 EGY655345:EGY655383 DXC655345:DXC655383 DNG655345:DNG655383 DDK655345:DDK655383 CTO655345:CTO655383 CJS655345:CJS655383 BZW655345:BZW655383 BQA655345:BQA655383 BGE655345:BGE655383 AWI655345:AWI655383 AMM655345:AMM655383 ACQ655345:ACQ655383 SU655345:SU655383 IY655345:IY655383 WVK589809:WVK589847 WLO589809:WLO589847 WBS589809:WBS589847 VRW589809:VRW589847 VIA589809:VIA589847 UYE589809:UYE589847 UOI589809:UOI589847 UEM589809:UEM589847 TUQ589809:TUQ589847 TKU589809:TKU589847 TAY589809:TAY589847 SRC589809:SRC589847 SHG589809:SHG589847 RXK589809:RXK589847 RNO589809:RNO589847 RDS589809:RDS589847 QTW589809:QTW589847 QKA589809:QKA589847 QAE589809:QAE589847 PQI589809:PQI589847 PGM589809:PGM589847 OWQ589809:OWQ589847 OMU589809:OMU589847 OCY589809:OCY589847 NTC589809:NTC589847 NJG589809:NJG589847 MZK589809:MZK589847 MPO589809:MPO589847 MFS589809:MFS589847 LVW589809:LVW589847 LMA589809:LMA589847 LCE589809:LCE589847 KSI589809:KSI589847 KIM589809:KIM589847 JYQ589809:JYQ589847 JOU589809:JOU589847 JEY589809:JEY589847 IVC589809:IVC589847 ILG589809:ILG589847 IBK589809:IBK589847 HRO589809:HRO589847 HHS589809:HHS589847 GXW589809:GXW589847 GOA589809:GOA589847 GEE589809:GEE589847 FUI589809:FUI589847 FKM589809:FKM589847 FAQ589809:FAQ589847 EQU589809:EQU589847 EGY589809:EGY589847 DXC589809:DXC589847 DNG589809:DNG589847 DDK589809:DDK589847 CTO589809:CTO589847 CJS589809:CJS589847 BZW589809:BZW589847 BQA589809:BQA589847 BGE589809:BGE589847 AWI589809:AWI589847 AMM589809:AMM589847 ACQ589809:ACQ589847 SU589809:SU589847 IY589809:IY589847 WVK524273:WVK524311 WLO524273:WLO524311 WBS524273:WBS524311 VRW524273:VRW524311 VIA524273:VIA524311 UYE524273:UYE524311 UOI524273:UOI524311 UEM524273:UEM524311 TUQ524273:TUQ524311 TKU524273:TKU524311 TAY524273:TAY524311 SRC524273:SRC524311 SHG524273:SHG524311 RXK524273:RXK524311 RNO524273:RNO524311 RDS524273:RDS524311 QTW524273:QTW524311 QKA524273:QKA524311 QAE524273:QAE524311 PQI524273:PQI524311 PGM524273:PGM524311 OWQ524273:OWQ524311 OMU524273:OMU524311 OCY524273:OCY524311 NTC524273:NTC524311 NJG524273:NJG524311 MZK524273:MZK524311 MPO524273:MPO524311 MFS524273:MFS524311 LVW524273:LVW524311 LMA524273:LMA524311 LCE524273:LCE524311 KSI524273:KSI524311 KIM524273:KIM524311 JYQ524273:JYQ524311 JOU524273:JOU524311 JEY524273:JEY524311 IVC524273:IVC524311 ILG524273:ILG524311 IBK524273:IBK524311 HRO524273:HRO524311 HHS524273:HHS524311 GXW524273:GXW524311 GOA524273:GOA524311 GEE524273:GEE524311 FUI524273:FUI524311 FKM524273:FKM524311 FAQ524273:FAQ524311 EQU524273:EQU524311 EGY524273:EGY524311 DXC524273:DXC524311 DNG524273:DNG524311 DDK524273:DDK524311 CTO524273:CTO524311 CJS524273:CJS524311 BZW524273:BZW524311 BQA524273:BQA524311 BGE524273:BGE524311 AWI524273:AWI524311 AMM524273:AMM524311 ACQ524273:ACQ524311 SU524273:SU524311 IY524273:IY524311 WVK458737:WVK458775 WLO458737:WLO458775 WBS458737:WBS458775 VRW458737:VRW458775 VIA458737:VIA458775 UYE458737:UYE458775 UOI458737:UOI458775 UEM458737:UEM458775 TUQ458737:TUQ458775 TKU458737:TKU458775 TAY458737:TAY458775 SRC458737:SRC458775 SHG458737:SHG458775 RXK458737:RXK458775 RNO458737:RNO458775 RDS458737:RDS458775 QTW458737:QTW458775 QKA458737:QKA458775 QAE458737:QAE458775 PQI458737:PQI458775 PGM458737:PGM458775 OWQ458737:OWQ458775 OMU458737:OMU458775 OCY458737:OCY458775 NTC458737:NTC458775 NJG458737:NJG458775 MZK458737:MZK458775 MPO458737:MPO458775 MFS458737:MFS458775 LVW458737:LVW458775 LMA458737:LMA458775 LCE458737:LCE458775 KSI458737:KSI458775 KIM458737:KIM458775 JYQ458737:JYQ458775 JOU458737:JOU458775 JEY458737:JEY458775 IVC458737:IVC458775 ILG458737:ILG458775 IBK458737:IBK458775 HRO458737:HRO458775 HHS458737:HHS458775 GXW458737:GXW458775 GOA458737:GOA458775 GEE458737:GEE458775 FUI458737:FUI458775 FKM458737:FKM458775 FAQ458737:FAQ458775 EQU458737:EQU458775 EGY458737:EGY458775 DXC458737:DXC458775 DNG458737:DNG458775 DDK458737:DDK458775 CTO458737:CTO458775 CJS458737:CJS458775 BZW458737:BZW458775 BQA458737:BQA458775 BGE458737:BGE458775 AWI458737:AWI458775 AMM458737:AMM458775 ACQ458737:ACQ458775 SU458737:SU458775 IY458737:IY458775 WVK393201:WVK393239 WLO393201:WLO393239 WBS393201:WBS393239 VRW393201:VRW393239 VIA393201:VIA393239 UYE393201:UYE393239 UOI393201:UOI393239 UEM393201:UEM393239 TUQ393201:TUQ393239 TKU393201:TKU393239 TAY393201:TAY393239 SRC393201:SRC393239 SHG393201:SHG393239 RXK393201:RXK393239 RNO393201:RNO393239 RDS393201:RDS393239 QTW393201:QTW393239 QKA393201:QKA393239 QAE393201:QAE393239 PQI393201:PQI393239 PGM393201:PGM393239 OWQ393201:OWQ393239 OMU393201:OMU393239 OCY393201:OCY393239 NTC393201:NTC393239 NJG393201:NJG393239 MZK393201:MZK393239 MPO393201:MPO393239 MFS393201:MFS393239 LVW393201:LVW393239 LMA393201:LMA393239 LCE393201:LCE393239 KSI393201:KSI393239 KIM393201:KIM393239 JYQ393201:JYQ393239 JOU393201:JOU393239 JEY393201:JEY393239 IVC393201:IVC393239 ILG393201:ILG393239 IBK393201:IBK393239 HRO393201:HRO393239 HHS393201:HHS393239 GXW393201:GXW393239 GOA393201:GOA393239 GEE393201:GEE393239 FUI393201:FUI393239 FKM393201:FKM393239 FAQ393201:FAQ393239 EQU393201:EQU393239 EGY393201:EGY393239 DXC393201:DXC393239 DNG393201:DNG393239 DDK393201:DDK393239 CTO393201:CTO393239 CJS393201:CJS393239 BZW393201:BZW393239 BQA393201:BQA393239 BGE393201:BGE393239 AWI393201:AWI393239 AMM393201:AMM393239 ACQ393201:ACQ393239 SU393201:SU393239 IY393201:IY393239 WVK327665:WVK327703 WLO327665:WLO327703 WBS327665:WBS327703 VRW327665:VRW327703 VIA327665:VIA327703 UYE327665:UYE327703 UOI327665:UOI327703 UEM327665:UEM327703 TUQ327665:TUQ327703 TKU327665:TKU327703 TAY327665:TAY327703 SRC327665:SRC327703 SHG327665:SHG327703 RXK327665:RXK327703 RNO327665:RNO327703 RDS327665:RDS327703 QTW327665:QTW327703 QKA327665:QKA327703 QAE327665:QAE327703 PQI327665:PQI327703 PGM327665:PGM327703 OWQ327665:OWQ327703 OMU327665:OMU327703 OCY327665:OCY327703 NTC327665:NTC327703 NJG327665:NJG327703 MZK327665:MZK327703 MPO327665:MPO327703 MFS327665:MFS327703 LVW327665:LVW327703 LMA327665:LMA327703 LCE327665:LCE327703 KSI327665:KSI327703 KIM327665:KIM327703 JYQ327665:JYQ327703 JOU327665:JOU327703 JEY327665:JEY327703 IVC327665:IVC327703 ILG327665:ILG327703 IBK327665:IBK327703 HRO327665:HRO327703 HHS327665:HHS327703 GXW327665:GXW327703 GOA327665:GOA327703 GEE327665:GEE327703 FUI327665:FUI327703 FKM327665:FKM327703 FAQ327665:FAQ327703 EQU327665:EQU327703 EGY327665:EGY327703 DXC327665:DXC327703 DNG327665:DNG327703 DDK327665:DDK327703 CTO327665:CTO327703 CJS327665:CJS327703 BZW327665:BZW327703 BQA327665:BQA327703 BGE327665:BGE327703 AWI327665:AWI327703 AMM327665:AMM327703 ACQ327665:ACQ327703 SU327665:SU327703 IY327665:IY327703 WVK262129:WVK262167 WLO262129:WLO262167 WBS262129:WBS262167 VRW262129:VRW262167 VIA262129:VIA262167 UYE262129:UYE262167 UOI262129:UOI262167 UEM262129:UEM262167 TUQ262129:TUQ262167 TKU262129:TKU262167 TAY262129:TAY262167 SRC262129:SRC262167 SHG262129:SHG262167 RXK262129:RXK262167 RNO262129:RNO262167 RDS262129:RDS262167 QTW262129:QTW262167 QKA262129:QKA262167 QAE262129:QAE262167 PQI262129:PQI262167 PGM262129:PGM262167 OWQ262129:OWQ262167 OMU262129:OMU262167 OCY262129:OCY262167 NTC262129:NTC262167 NJG262129:NJG262167 MZK262129:MZK262167 MPO262129:MPO262167 MFS262129:MFS262167 LVW262129:LVW262167 LMA262129:LMA262167 LCE262129:LCE262167 KSI262129:KSI262167 KIM262129:KIM262167 JYQ262129:JYQ262167 JOU262129:JOU262167 JEY262129:JEY262167 IVC262129:IVC262167 ILG262129:ILG262167 IBK262129:IBK262167 HRO262129:HRO262167 HHS262129:HHS262167 GXW262129:GXW262167 GOA262129:GOA262167 GEE262129:GEE262167 FUI262129:FUI262167 FKM262129:FKM262167 FAQ262129:FAQ262167 EQU262129:EQU262167 EGY262129:EGY262167 DXC262129:DXC262167 DNG262129:DNG262167 DDK262129:DDK262167 CTO262129:CTO262167 CJS262129:CJS262167 BZW262129:BZW262167 BQA262129:BQA262167 BGE262129:BGE262167 AWI262129:AWI262167 AMM262129:AMM262167 ACQ262129:ACQ262167 SU262129:SU262167 IY262129:IY262167 WVK196593:WVK196631 WLO196593:WLO196631 WBS196593:WBS196631 VRW196593:VRW196631 VIA196593:VIA196631 UYE196593:UYE196631 UOI196593:UOI196631 UEM196593:UEM196631 TUQ196593:TUQ196631 TKU196593:TKU196631 TAY196593:TAY196631 SRC196593:SRC196631 SHG196593:SHG196631 RXK196593:RXK196631 RNO196593:RNO196631 RDS196593:RDS196631 QTW196593:QTW196631 QKA196593:QKA196631 QAE196593:QAE196631 PQI196593:PQI196631 PGM196593:PGM196631 OWQ196593:OWQ196631 OMU196593:OMU196631 OCY196593:OCY196631 NTC196593:NTC196631 NJG196593:NJG196631 MZK196593:MZK196631 MPO196593:MPO196631 MFS196593:MFS196631 LVW196593:LVW196631 LMA196593:LMA196631 LCE196593:LCE196631 KSI196593:KSI196631 KIM196593:KIM196631 JYQ196593:JYQ196631 JOU196593:JOU196631 JEY196593:JEY196631 IVC196593:IVC196631 ILG196593:ILG196631 IBK196593:IBK196631 HRO196593:HRO196631 HHS196593:HHS196631 GXW196593:GXW196631 GOA196593:GOA196631 GEE196593:GEE196631 FUI196593:FUI196631 FKM196593:FKM196631 FAQ196593:FAQ196631 EQU196593:EQU196631 EGY196593:EGY196631 DXC196593:DXC196631 DNG196593:DNG196631 DDK196593:DDK196631 CTO196593:CTO196631 CJS196593:CJS196631 BZW196593:BZW196631 BQA196593:BQA196631 BGE196593:BGE196631 AWI196593:AWI196631 AMM196593:AMM196631 ACQ196593:ACQ196631 SU196593:SU196631 IY196593:IY196631 WVK131057:WVK131095 WLO131057:WLO131095 WBS131057:WBS131095 VRW131057:VRW131095 VIA131057:VIA131095 UYE131057:UYE131095 UOI131057:UOI131095 UEM131057:UEM131095 TUQ131057:TUQ131095 TKU131057:TKU131095 TAY131057:TAY131095 SRC131057:SRC131095 SHG131057:SHG131095 RXK131057:RXK131095 RNO131057:RNO131095 RDS131057:RDS131095 QTW131057:QTW131095 QKA131057:QKA131095 QAE131057:QAE131095 PQI131057:PQI131095 PGM131057:PGM131095 OWQ131057:OWQ131095 OMU131057:OMU131095 OCY131057:OCY131095 NTC131057:NTC131095 NJG131057:NJG131095 MZK131057:MZK131095 MPO131057:MPO131095 MFS131057:MFS131095 LVW131057:LVW131095 LMA131057:LMA131095 LCE131057:LCE131095 KSI131057:KSI131095 KIM131057:KIM131095 JYQ131057:JYQ131095 JOU131057:JOU131095 JEY131057:JEY131095 IVC131057:IVC131095 ILG131057:ILG131095 IBK131057:IBK131095 HRO131057:HRO131095 HHS131057:HHS131095 GXW131057:GXW131095 GOA131057:GOA131095 GEE131057:GEE131095 FUI131057:FUI131095 FKM131057:FKM131095 FAQ131057:FAQ131095 EQU131057:EQU131095 EGY131057:EGY131095 DXC131057:DXC131095 DNG131057:DNG131095 DDK131057:DDK131095 CTO131057:CTO131095 CJS131057:CJS131095 BZW131057:BZW131095 BQA131057:BQA131095 BGE131057:BGE131095 AWI131057:AWI131095 AMM131057:AMM131095 ACQ131057:ACQ131095 SU131057:SU131095 IY131057:IY131095 WVK65521:WVK65559 WLO65521:WLO65559 WBS65521:WBS65559 VRW65521:VRW65559 VIA65521:VIA65559 UYE65521:UYE65559 UOI65521:UOI65559 UEM65521:UEM65559 TUQ65521:TUQ65559 TKU65521:TKU65559 TAY65521:TAY65559 SRC65521:SRC65559 SHG65521:SHG65559 RXK65521:RXK65559 RNO65521:RNO65559 RDS65521:RDS65559 QTW65521:QTW65559 QKA65521:QKA65559 QAE65521:QAE65559 PQI65521:PQI65559 PGM65521:PGM65559 OWQ65521:OWQ65559 OMU65521:OMU65559 OCY65521:OCY65559 NTC65521:NTC65559 NJG65521:NJG65559 MZK65521:MZK65559 MPO65521:MPO65559 MFS65521:MFS65559 LVW65521:LVW65559 LMA65521:LMA65559 LCE65521:LCE65559 KSI65521:KSI65559 KIM65521:KIM65559 JYQ65521:JYQ65559 JOU65521:JOU65559 JEY65521:JEY65559 IVC65521:IVC65559 ILG65521:ILG65559 IBK65521:IBK65559 HRO65521:HRO65559 HHS65521:HHS65559 GXW65521:GXW65559 GOA65521:GOA65559 GEE65521:GEE65559 FUI65521:FUI65559 FKM65521:FKM65559 FAQ65521:FAQ65559 EQU65521:EQU65559 EGY65521:EGY65559 DXC65521:DXC65559 DNG65521:DNG65559 DDK65521:DDK65559 CTO65521:CTO65559 CJS65521:CJS65559 BZW65521:BZW65559 BQA65521:BQA65559 BGE65521:BGE65559 AWI65521:AWI65559 AMM65521:AMM65559 ACQ65521:ACQ65559 H5:H23 IY5:IY23 SU5:SU23 ACQ5:ACQ23 AMM5:AMM23 AWI5:AWI23 BGE5:BGE23 BQA5:BQA23 BZW5:BZW23 CJS5:CJS23 CTO5:CTO23 DDK5:DDK23 DNG5:DNG23 DXC5:DXC23 EGY5:EGY23 EQU5:EQU23 FAQ5:FAQ23 FKM5:FKM23 FUI5:FUI23 GEE5:GEE23 GOA5:GOA23 GXW5:GXW23 HHS5:HHS23 HRO5:HRO23 IBK5:IBK23 ILG5:ILG23 IVC5:IVC23 JEY5:JEY23 JOU5:JOU23 JYQ5:JYQ23 KIM5:KIM23 KSI5:KSI23 LCE5:LCE23 LMA5:LMA23 LVW5:LVW23 MFS5:MFS23 MPO5:MPO23 MZK5:MZK23 NJG5:NJG23 NTC5:NTC23 OCY5:OCY23 OMU5:OMU23 OWQ5:OWQ23 PGM5:PGM23 PQI5:PQI23 QAE5:QAE23 QKA5:QKA23 QTW5:QTW23 RDS5:RDS23 RNO5:RNO23 RXK5:RXK23 SHG5:SHG23 SRC5:SRC23 TAY5:TAY23 TKU5:TKU23 TUQ5:TUQ23 UEM5:UEM23 UOI5:UOI23 UYE5:UYE23 VIA5:VIA23 VRW5:VRW23 WBS5:WBS23 WLO5:WLO23 WVK5:WVK23">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="144"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="42" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="130"/>
+      <c r="D11" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="69">
+        <v>10</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="69">
+        <v>11</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="130"/>
+      <c r="D15" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 IY65515:IY65553 H983019:H983057 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 IY5:IY17 SU5:SU17 ACQ5:ACQ17 AMM5:AMM17 AWI5:AWI17 BGE5:BGE17 BQA5:BQA17 BZW5:BZW17 CJS5:CJS17 CTO5:CTO17 DDK5:DDK17 DNG5:DNG17 DXC5:DXC17 EGY5:EGY17 EQU5:EQU17 FAQ5:FAQ17 FKM5:FKM17 FUI5:FUI17 GEE5:GEE17 GOA5:GOA17 GXW5:GXW17 HHS5:HHS17 HRO5:HRO17 IBK5:IBK17 ILG5:ILG17 IVC5:IVC17 JEY5:JEY17 JOU5:JOU17 JYQ5:JYQ17 KIM5:KIM17 KSI5:KSI17 LCE5:LCE17 LMA5:LMA17 LVW5:LVW17 MFS5:MFS17 MPO5:MPO17 MZK5:MZK17 NJG5:NJG17 NTC5:NTC17 OCY5:OCY17 OMU5:OMU17 OWQ5:OWQ17 PGM5:PGM17 PQI5:PQI17 QAE5:QAE17 QKA5:QKA17 QTW5:QTW17 RDS5:RDS17 RNO5:RNO17 RXK5:RXK17 SHG5:SHG17 SRC5:SRC17 TAY5:TAY17 TKU5:TKU17 TUQ5:TUQ17 UEM5:UEM17 UOI5:UOI17 UYE5:UYE17 VIA5:VIA17 VRW5:VRW17 WBS5:WBS17 WLO5:WLO17 WVK5:WVK17 H5:H17">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="138"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="144"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="71">
+        <f>ROW()-4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="149"/>
+    </row>
+    <row r="5" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="71">
+        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="130"/>
+      <c r="D5" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
+    </row>
+    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="130"/>
+      <c r="D11" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="127"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="69">
+        <v>10</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65512:IY65550 SU65512:SU65550 ACQ65512:ACQ65550 AMM65512:AMM65550 AWI65512:AWI65550 BGE65512:BGE65550 BQA65512:BQA65550 BZW65512:BZW65550 CJS65512:CJS65550 CTO65512:CTO65550 DDK65512:DDK65550 DNG65512:DNG65550 DXC65512:DXC65550 EGY65512:EGY65550 EQU65512:EQU65550 FAQ65512:FAQ65550 FKM65512:FKM65550 FUI65512:FUI65550 GEE65512:GEE65550 GOA65512:GOA65550 GXW65512:GXW65550 HHS65512:HHS65550 HRO65512:HRO65550 IBK65512:IBK65550 ILG65512:ILG65550 IVC65512:IVC65550 JEY65512:JEY65550 JOU65512:JOU65550 JYQ65512:JYQ65550 KIM65512:KIM65550 KSI65512:KSI65550 LCE65512:LCE65550 LMA65512:LMA65550 LVW65512:LVW65550 MFS65512:MFS65550 MPO65512:MPO65550 MZK65512:MZK65550 NJG65512:NJG65550 NTC65512:NTC65550 OCY65512:OCY65550 OMU65512:OMU65550 OWQ65512:OWQ65550 PGM65512:PGM65550 PQI65512:PQI65550 QAE65512:QAE65550 QKA65512:QKA65550 QTW65512:QTW65550 RDS65512:RDS65550 RNO65512:RNO65550 RXK65512:RXK65550 SHG65512:SHG65550 SRC65512:SRC65550 TAY65512:TAY65550 TKU65512:TKU65550 TUQ65512:TUQ65550 UEM65512:UEM65550 UOI65512:UOI65550 UYE65512:UYE65550 VIA65512:VIA65550 VRW65512:VRW65550 WBS65512:WBS65550 WLO65512:WLO65550 WVK65512:WVK65550 IY131048:IY131086 SU131048:SU131086 ACQ131048:ACQ131086 AMM131048:AMM131086 AWI131048:AWI131086 BGE131048:BGE131086 BQA131048:BQA131086 BZW131048:BZW131086 CJS131048:CJS131086 CTO131048:CTO131086 DDK131048:DDK131086 DNG131048:DNG131086 DXC131048:DXC131086 EGY131048:EGY131086 EQU131048:EQU131086 FAQ131048:FAQ131086 FKM131048:FKM131086 FUI131048:FUI131086 GEE131048:GEE131086 GOA131048:GOA131086 GXW131048:GXW131086 HHS131048:HHS131086 HRO131048:HRO131086 IBK131048:IBK131086 ILG131048:ILG131086 IVC131048:IVC131086 JEY131048:JEY131086 JOU131048:JOU131086 JYQ131048:JYQ131086 KIM131048:KIM131086 KSI131048:KSI131086 LCE131048:LCE131086 LMA131048:LMA131086 LVW131048:LVW131086 MFS131048:MFS131086 MPO131048:MPO131086 MZK131048:MZK131086 NJG131048:NJG131086 NTC131048:NTC131086 OCY131048:OCY131086 OMU131048:OMU131086 OWQ131048:OWQ131086 PGM131048:PGM131086 PQI131048:PQI131086 QAE131048:QAE131086 QKA131048:QKA131086 QTW131048:QTW131086 RDS131048:RDS131086 RNO131048:RNO131086 RXK131048:RXK131086 SHG131048:SHG131086 SRC131048:SRC131086 TAY131048:TAY131086 TKU131048:TKU131086 TUQ131048:TUQ131086 UEM131048:UEM131086 UOI131048:UOI131086 UYE131048:UYE131086 VIA131048:VIA131086 VRW131048:VRW131086 WBS131048:WBS131086 WLO131048:WLO131086 WVK131048:WVK131086 IY196584:IY196622 SU196584:SU196622 ACQ196584:ACQ196622 AMM196584:AMM196622 AWI196584:AWI196622 BGE196584:BGE196622 BQA196584:BQA196622 BZW196584:BZW196622 CJS196584:CJS196622 CTO196584:CTO196622 DDK196584:DDK196622 DNG196584:DNG196622 DXC196584:DXC196622 EGY196584:EGY196622 EQU196584:EQU196622 FAQ196584:FAQ196622 FKM196584:FKM196622 FUI196584:FUI196622 GEE196584:GEE196622 GOA196584:GOA196622 GXW196584:GXW196622 HHS196584:HHS196622 HRO196584:HRO196622 IBK196584:IBK196622 ILG196584:ILG196622 IVC196584:IVC196622 JEY196584:JEY196622 JOU196584:JOU196622 JYQ196584:JYQ196622 KIM196584:KIM196622 KSI196584:KSI196622 LCE196584:LCE196622 LMA196584:LMA196622 LVW196584:LVW196622 MFS196584:MFS196622 MPO196584:MPO196622 MZK196584:MZK196622 NJG196584:NJG196622 NTC196584:NTC196622 OCY196584:OCY196622 OMU196584:OMU196622 OWQ196584:OWQ196622 PGM196584:PGM196622 PQI196584:PQI196622 QAE196584:QAE196622 QKA196584:QKA196622 QTW196584:QTW196622 RDS196584:RDS196622 RNO196584:RNO196622 RXK196584:RXK196622 SHG196584:SHG196622 SRC196584:SRC196622 TAY196584:TAY196622 TKU196584:TKU196622 TUQ196584:TUQ196622 UEM196584:UEM196622 UOI196584:UOI196622 UYE196584:UYE196622 VIA196584:VIA196622 VRW196584:VRW196622 WBS196584:WBS196622 WLO196584:WLO196622 WVK196584:WVK196622 IY262120:IY262158 SU262120:SU262158 ACQ262120:ACQ262158 AMM262120:AMM262158 AWI262120:AWI262158 BGE262120:BGE262158 BQA262120:BQA262158 BZW262120:BZW262158 CJS262120:CJS262158 CTO262120:CTO262158 DDK262120:DDK262158 DNG262120:DNG262158 DXC262120:DXC262158 EGY262120:EGY262158 EQU262120:EQU262158 FAQ262120:FAQ262158 FKM262120:FKM262158 FUI262120:FUI262158 GEE262120:GEE262158 GOA262120:GOA262158 GXW262120:GXW262158 HHS262120:HHS262158 HRO262120:HRO262158 IBK262120:IBK262158 ILG262120:ILG262158 IVC262120:IVC262158 JEY262120:JEY262158 JOU262120:JOU262158 JYQ262120:JYQ262158 KIM262120:KIM262158 KSI262120:KSI262158 LCE262120:LCE262158 LMA262120:LMA262158 LVW262120:LVW262158 MFS262120:MFS262158 MPO262120:MPO262158 MZK262120:MZK262158 NJG262120:NJG262158 NTC262120:NTC262158 OCY262120:OCY262158 OMU262120:OMU262158 OWQ262120:OWQ262158 PGM262120:PGM262158 PQI262120:PQI262158 QAE262120:QAE262158 QKA262120:QKA262158 QTW262120:QTW262158 RDS262120:RDS262158 RNO262120:RNO262158 RXK262120:RXK262158 SHG262120:SHG262158 SRC262120:SRC262158 TAY262120:TAY262158 TKU262120:TKU262158 TUQ262120:TUQ262158 UEM262120:UEM262158 UOI262120:UOI262158 UYE262120:UYE262158 VIA262120:VIA262158 VRW262120:VRW262158 WBS262120:WBS262158 WLO262120:WLO262158 WVK262120:WVK262158 IY327656:IY327694 SU327656:SU327694 ACQ327656:ACQ327694 AMM327656:AMM327694 AWI327656:AWI327694 BGE327656:BGE327694 BQA327656:BQA327694 BZW327656:BZW327694 CJS327656:CJS327694 CTO327656:CTO327694 DDK327656:DDK327694 DNG327656:DNG327694 DXC327656:DXC327694 EGY327656:EGY327694 EQU327656:EQU327694 FAQ327656:FAQ327694 FKM327656:FKM327694 FUI327656:FUI327694 GEE327656:GEE327694 GOA327656:GOA327694 GXW327656:GXW327694 HHS327656:HHS327694 HRO327656:HRO327694 IBK327656:IBK327694 ILG327656:ILG327694 IVC327656:IVC327694 JEY327656:JEY327694 JOU327656:JOU327694 JYQ327656:JYQ327694 KIM327656:KIM327694 KSI327656:KSI327694 LCE327656:LCE327694 LMA327656:LMA327694 LVW327656:LVW327694 MFS327656:MFS327694 MPO327656:MPO327694 MZK327656:MZK327694 NJG327656:NJG327694 NTC327656:NTC327694 OCY327656:OCY327694 OMU327656:OMU327694 OWQ327656:OWQ327694 PGM327656:PGM327694 PQI327656:PQI327694 QAE327656:QAE327694 QKA327656:QKA327694 QTW327656:QTW327694 RDS327656:RDS327694 RNO327656:RNO327694 RXK327656:RXK327694 SHG327656:SHG327694 SRC327656:SRC327694 TAY327656:TAY327694 TKU327656:TKU327694 TUQ327656:TUQ327694 UEM327656:UEM327694 UOI327656:UOI327694 UYE327656:UYE327694 VIA327656:VIA327694 VRW327656:VRW327694 WBS327656:WBS327694 WLO327656:WLO327694 WVK327656:WVK327694 IY393192:IY393230 SU393192:SU393230 ACQ393192:ACQ393230 AMM393192:AMM393230 AWI393192:AWI393230 BGE393192:BGE393230 BQA393192:BQA393230 BZW393192:BZW393230 CJS393192:CJS393230 CTO393192:CTO393230 DDK393192:DDK393230 DNG393192:DNG393230 DXC393192:DXC393230 EGY393192:EGY393230 EQU393192:EQU393230 FAQ393192:FAQ393230 FKM393192:FKM393230 FUI393192:FUI393230 GEE393192:GEE393230 GOA393192:GOA393230 GXW393192:GXW393230 HHS393192:HHS393230 HRO393192:HRO393230 IBK393192:IBK393230 ILG393192:ILG393230 IVC393192:IVC393230 JEY393192:JEY393230 JOU393192:JOU393230 JYQ393192:JYQ393230 KIM393192:KIM393230 KSI393192:KSI393230 LCE393192:LCE393230 LMA393192:LMA393230 LVW393192:LVW393230 MFS393192:MFS393230 MPO393192:MPO393230 MZK393192:MZK393230 NJG393192:NJG393230 NTC393192:NTC393230 OCY393192:OCY393230 OMU393192:OMU393230 OWQ393192:OWQ393230 PGM393192:PGM393230 PQI393192:PQI393230 QAE393192:QAE393230 QKA393192:QKA393230 QTW393192:QTW393230 RDS393192:RDS393230 RNO393192:RNO393230 RXK393192:RXK393230 SHG393192:SHG393230 SRC393192:SRC393230 TAY393192:TAY393230 TKU393192:TKU393230 TUQ393192:TUQ393230 UEM393192:UEM393230 UOI393192:UOI393230 UYE393192:UYE393230 VIA393192:VIA393230 VRW393192:VRW393230 WBS393192:WBS393230 WLO393192:WLO393230 WVK393192:WVK393230 IY458728:IY458766 SU458728:SU458766 ACQ458728:ACQ458766 AMM458728:AMM458766 AWI458728:AWI458766 BGE458728:BGE458766 BQA458728:BQA458766 BZW458728:BZW458766 CJS458728:CJS458766 CTO458728:CTO458766 DDK458728:DDK458766 DNG458728:DNG458766 DXC458728:DXC458766 EGY458728:EGY458766 EQU458728:EQU458766 FAQ458728:FAQ458766 FKM458728:FKM458766 FUI458728:FUI458766 GEE458728:GEE458766 GOA458728:GOA458766 GXW458728:GXW458766 HHS458728:HHS458766 HRO458728:HRO458766 IBK458728:IBK458766 ILG458728:ILG458766 IVC458728:IVC458766 JEY458728:JEY458766 JOU458728:JOU458766 JYQ458728:JYQ458766 KIM458728:KIM458766 KSI458728:KSI458766 LCE458728:LCE458766 LMA458728:LMA458766 LVW458728:LVW458766 MFS458728:MFS458766 MPO458728:MPO458766 MZK458728:MZK458766 NJG458728:NJG458766 NTC458728:NTC458766 OCY458728:OCY458766 OMU458728:OMU458766 OWQ458728:OWQ458766 PGM458728:PGM458766 PQI458728:PQI458766 QAE458728:QAE458766 QKA458728:QKA458766 QTW458728:QTW458766 RDS458728:RDS458766 RNO458728:RNO458766 RXK458728:RXK458766 SHG458728:SHG458766 SRC458728:SRC458766 TAY458728:TAY458766 TKU458728:TKU458766 TUQ458728:TUQ458766 UEM458728:UEM458766 UOI458728:UOI458766 UYE458728:UYE458766 VIA458728:VIA458766 VRW458728:VRW458766 WBS458728:WBS458766 WLO458728:WLO458766 WVK458728:WVK458766 IY524264:IY524302 SU524264:SU524302 ACQ524264:ACQ524302 AMM524264:AMM524302 AWI524264:AWI524302 BGE524264:BGE524302 BQA524264:BQA524302 BZW524264:BZW524302 CJS524264:CJS524302 CTO524264:CTO524302 DDK524264:DDK524302 DNG524264:DNG524302 DXC524264:DXC524302 EGY524264:EGY524302 EQU524264:EQU524302 FAQ524264:FAQ524302 FKM524264:FKM524302 FUI524264:FUI524302 GEE524264:GEE524302 GOA524264:GOA524302 GXW524264:GXW524302 HHS524264:HHS524302 HRO524264:HRO524302 IBK524264:IBK524302 ILG524264:ILG524302 IVC524264:IVC524302 JEY524264:JEY524302 JOU524264:JOU524302 JYQ524264:JYQ524302 KIM524264:KIM524302 KSI524264:KSI524302 LCE524264:LCE524302 LMA524264:LMA524302 LVW524264:LVW524302 MFS524264:MFS524302 MPO524264:MPO524302 MZK524264:MZK524302 NJG524264:NJG524302 NTC524264:NTC524302 OCY524264:OCY524302 OMU524264:OMU524302 OWQ524264:OWQ524302 PGM524264:PGM524302 PQI524264:PQI524302 QAE524264:QAE524302 QKA524264:QKA524302 QTW524264:QTW524302 RDS524264:RDS524302 RNO524264:RNO524302 RXK524264:RXK524302 SHG524264:SHG524302 SRC524264:SRC524302 TAY524264:TAY524302 TKU524264:TKU524302 TUQ524264:TUQ524302 UEM524264:UEM524302 UOI524264:UOI524302 UYE524264:UYE524302 VIA524264:VIA524302 VRW524264:VRW524302 WBS524264:WBS524302 WLO524264:WLO524302 WVK524264:WVK524302 IY589800:IY589838 SU589800:SU589838 ACQ589800:ACQ589838 AMM589800:AMM589838 AWI589800:AWI589838 BGE589800:BGE589838 BQA589800:BQA589838 BZW589800:BZW589838 CJS589800:CJS589838 CTO589800:CTO589838 DDK589800:DDK589838 DNG589800:DNG589838 DXC589800:DXC589838 EGY589800:EGY589838 EQU589800:EQU589838 FAQ589800:FAQ589838 FKM589800:FKM589838 FUI589800:FUI589838 GEE589800:GEE589838 GOA589800:GOA589838 GXW589800:GXW589838 HHS589800:HHS589838 HRO589800:HRO589838 IBK589800:IBK589838 ILG589800:ILG589838 IVC589800:IVC589838 JEY589800:JEY589838 JOU589800:JOU589838 JYQ589800:JYQ589838 KIM589800:KIM589838 KSI589800:KSI589838 LCE589800:LCE589838 LMA589800:LMA589838 LVW589800:LVW589838 MFS589800:MFS589838 MPO589800:MPO589838 MZK589800:MZK589838 NJG589800:NJG589838 NTC589800:NTC589838 OCY589800:OCY589838 OMU589800:OMU589838 OWQ589800:OWQ589838 PGM589800:PGM589838 PQI589800:PQI589838 QAE589800:QAE589838 QKA589800:QKA589838 QTW589800:QTW589838 RDS589800:RDS589838 RNO589800:RNO589838 RXK589800:RXK589838 SHG589800:SHG589838 SRC589800:SRC589838 TAY589800:TAY589838 TKU589800:TKU589838 TUQ589800:TUQ589838 UEM589800:UEM589838 UOI589800:UOI589838 UYE589800:UYE589838 VIA589800:VIA589838 VRW589800:VRW589838 WBS589800:WBS589838 WLO589800:WLO589838 WVK589800:WVK589838 IY655336:IY655374 SU655336:SU655374 ACQ655336:ACQ655374 AMM655336:AMM655374 AWI655336:AWI655374 BGE655336:BGE655374 BQA655336:BQA655374 BZW655336:BZW655374 CJS655336:CJS655374 CTO655336:CTO655374 DDK655336:DDK655374 DNG655336:DNG655374 DXC655336:DXC655374 EGY655336:EGY655374 EQU655336:EQU655374 FAQ655336:FAQ655374 FKM655336:FKM655374 FUI655336:FUI655374 GEE655336:GEE655374 GOA655336:GOA655374 GXW655336:GXW655374 HHS655336:HHS655374 HRO655336:HRO655374 IBK655336:IBK655374 ILG655336:ILG655374 IVC655336:IVC655374 JEY655336:JEY655374 JOU655336:JOU655374 JYQ655336:JYQ655374 KIM655336:KIM655374 KSI655336:KSI655374 LCE655336:LCE655374 LMA655336:LMA655374 LVW655336:LVW655374 MFS655336:MFS655374 MPO655336:MPO655374 MZK655336:MZK655374 NJG655336:NJG655374 NTC655336:NTC655374 OCY655336:OCY655374 OMU655336:OMU655374 OWQ655336:OWQ655374 PGM655336:PGM655374 PQI655336:PQI655374 QAE655336:QAE655374 QKA655336:QKA655374 QTW655336:QTW655374 RDS655336:RDS655374 RNO655336:RNO655374 RXK655336:RXK655374 SHG655336:SHG655374 SRC655336:SRC655374 TAY655336:TAY655374 TKU655336:TKU655374 TUQ655336:TUQ655374 UEM655336:UEM655374 UOI655336:UOI655374 UYE655336:UYE655374 VIA655336:VIA655374 VRW655336:VRW655374 WBS655336:WBS655374 WLO655336:WLO655374 WVK655336:WVK655374 IY720872:IY720910 SU720872:SU720910 ACQ720872:ACQ720910 AMM720872:AMM720910 AWI720872:AWI720910 BGE720872:BGE720910 BQA720872:BQA720910 BZW720872:BZW720910 CJS720872:CJS720910 CTO720872:CTO720910 DDK720872:DDK720910 DNG720872:DNG720910 DXC720872:DXC720910 EGY720872:EGY720910 EQU720872:EQU720910 FAQ720872:FAQ720910 FKM720872:FKM720910 FUI720872:FUI720910 GEE720872:GEE720910 GOA720872:GOA720910 GXW720872:GXW720910 HHS720872:HHS720910 HRO720872:HRO720910 IBK720872:IBK720910 ILG720872:ILG720910 IVC720872:IVC720910 JEY720872:JEY720910 JOU720872:JOU720910 JYQ720872:JYQ720910 KIM720872:KIM720910 KSI720872:KSI720910 LCE720872:LCE720910 LMA720872:LMA720910 LVW720872:LVW720910 MFS720872:MFS720910 MPO720872:MPO720910 MZK720872:MZK720910 NJG720872:NJG720910 NTC720872:NTC720910 OCY720872:OCY720910 OMU720872:OMU720910 OWQ720872:OWQ720910 PGM720872:PGM720910 PQI720872:PQI720910 QAE720872:QAE720910 QKA720872:QKA720910 QTW720872:QTW720910 RDS720872:RDS720910 RNO720872:RNO720910 RXK720872:RXK720910 SHG720872:SHG720910 SRC720872:SRC720910 TAY720872:TAY720910 TKU720872:TKU720910 TUQ720872:TUQ720910 UEM720872:UEM720910 UOI720872:UOI720910 UYE720872:UYE720910 VIA720872:VIA720910 VRW720872:VRW720910 WBS720872:WBS720910 WLO720872:WLO720910 WVK720872:WVK720910 IY786408:IY786446 SU786408:SU786446 ACQ786408:ACQ786446 AMM786408:AMM786446 AWI786408:AWI786446 BGE786408:BGE786446 BQA786408:BQA786446 BZW786408:BZW786446 CJS786408:CJS786446 CTO786408:CTO786446 DDK786408:DDK786446 DNG786408:DNG786446 DXC786408:DXC786446 EGY786408:EGY786446 EQU786408:EQU786446 FAQ786408:FAQ786446 FKM786408:FKM786446 FUI786408:FUI786446 GEE786408:GEE786446 GOA786408:GOA786446 GXW786408:GXW786446 HHS786408:HHS786446 HRO786408:HRO786446 IBK786408:IBK786446 ILG786408:ILG786446 IVC786408:IVC786446 JEY786408:JEY786446 JOU786408:JOU786446 JYQ786408:JYQ786446 KIM786408:KIM786446 KSI786408:KSI786446 LCE786408:LCE786446 LMA786408:LMA786446 LVW786408:LVW786446 MFS786408:MFS786446 MPO786408:MPO786446 MZK786408:MZK786446 NJG786408:NJG786446 NTC786408:NTC786446 OCY786408:OCY786446 OMU786408:OMU786446 OWQ786408:OWQ786446 PGM786408:PGM786446 PQI786408:PQI786446 QAE786408:QAE786446 QKA786408:QKA786446 QTW786408:QTW786446 RDS786408:RDS786446 RNO786408:RNO786446 RXK786408:RXK786446 SHG786408:SHG786446 SRC786408:SRC786446 TAY786408:TAY786446 TKU786408:TKU786446 TUQ786408:TUQ786446 UEM786408:UEM786446 UOI786408:UOI786446 UYE786408:UYE786446 VIA786408:VIA786446 VRW786408:VRW786446 WBS786408:WBS786446 WLO786408:WLO786446 WVK786408:WVK786446 IY851944:IY851982 SU851944:SU851982 ACQ851944:ACQ851982 AMM851944:AMM851982 AWI851944:AWI851982 BGE851944:BGE851982 BQA851944:BQA851982 BZW851944:BZW851982 CJS851944:CJS851982 CTO851944:CTO851982 DDK851944:DDK851982 DNG851944:DNG851982 DXC851944:DXC851982 EGY851944:EGY851982 EQU851944:EQU851982 FAQ851944:FAQ851982 FKM851944:FKM851982 FUI851944:FUI851982 GEE851944:GEE851982 GOA851944:GOA851982 GXW851944:GXW851982 HHS851944:HHS851982 HRO851944:HRO851982 IBK851944:IBK851982 ILG851944:ILG851982 IVC851944:IVC851982 JEY851944:JEY851982 JOU851944:JOU851982 JYQ851944:JYQ851982 KIM851944:KIM851982 KSI851944:KSI851982 LCE851944:LCE851982 LMA851944:LMA851982 LVW851944:LVW851982 MFS851944:MFS851982 MPO851944:MPO851982 MZK851944:MZK851982 NJG851944:NJG851982 NTC851944:NTC851982 OCY851944:OCY851982 OMU851944:OMU851982 OWQ851944:OWQ851982 PGM851944:PGM851982 PQI851944:PQI851982 QAE851944:QAE851982 QKA851944:QKA851982 QTW851944:QTW851982 RDS851944:RDS851982 RNO851944:RNO851982 RXK851944:RXK851982 SHG851944:SHG851982 SRC851944:SRC851982 TAY851944:TAY851982 TKU851944:TKU851982 TUQ851944:TUQ851982 UEM851944:UEM851982 UOI851944:UOI851982 UYE851944:UYE851982 VIA851944:VIA851982 VRW851944:VRW851982 WBS851944:WBS851982 WLO851944:WLO851982 WVK851944:WVK851982 IY917480:IY917518 SU917480:SU917518 ACQ917480:ACQ917518 AMM917480:AMM917518 AWI917480:AWI917518 BGE917480:BGE917518 BQA917480:BQA917518 BZW917480:BZW917518 CJS917480:CJS917518 CTO917480:CTO917518 DDK917480:DDK917518 DNG917480:DNG917518 DXC917480:DXC917518 EGY917480:EGY917518 EQU917480:EQU917518 FAQ917480:FAQ917518 FKM917480:FKM917518 FUI917480:FUI917518 GEE917480:GEE917518 GOA917480:GOA917518 GXW917480:GXW917518 HHS917480:HHS917518 HRO917480:HRO917518 IBK917480:IBK917518 ILG917480:ILG917518 IVC917480:IVC917518 JEY917480:JEY917518 JOU917480:JOU917518 JYQ917480:JYQ917518 KIM917480:KIM917518 KSI917480:KSI917518 LCE917480:LCE917518 LMA917480:LMA917518 LVW917480:LVW917518 MFS917480:MFS917518 MPO917480:MPO917518 MZK917480:MZK917518 NJG917480:NJG917518 NTC917480:NTC917518 OCY917480:OCY917518 OMU917480:OMU917518 OWQ917480:OWQ917518 PGM917480:PGM917518 PQI917480:PQI917518 QAE917480:QAE917518 QKA917480:QKA917518 QTW917480:QTW917518 RDS917480:RDS917518 RNO917480:RNO917518 RXK917480:RXK917518 SHG917480:SHG917518 SRC917480:SRC917518 TAY917480:TAY917518 TKU917480:TKU917518 TUQ917480:TUQ917518 UEM917480:UEM917518 UOI917480:UOI917518 UYE917480:UYE917518 VIA917480:VIA917518 VRW917480:VRW917518 WBS917480:WBS917518 WLO917480:WLO917518 WVK917480:WVK917518 IY983016:IY983054 SU983016:SU983054 ACQ983016:ACQ983054 AMM983016:AMM983054 AWI983016:AWI983054 BGE983016:BGE983054 BQA983016:BQA983054 BZW983016:BZW983054 CJS983016:CJS983054 CTO983016:CTO983054 DDK983016:DDK983054 DNG983016:DNG983054 DXC983016:DXC983054 EGY983016:EGY983054 EQU983016:EQU983054 FAQ983016:FAQ983054 FKM983016:FKM983054 FUI983016:FUI983054 GEE983016:GEE983054 GOA983016:GOA983054 GXW983016:GXW983054 HHS983016:HHS983054 HRO983016:HRO983054 IBK983016:IBK983054 ILG983016:ILG983054 IVC983016:IVC983054 JEY983016:JEY983054 JOU983016:JOU983054 JYQ983016:JYQ983054 KIM983016:KIM983054 KSI983016:KSI983054 LCE983016:LCE983054 LMA983016:LMA983054 LVW983016:LVW983054 MFS983016:MFS983054 MPO983016:MPO983054 MZK983016:MZK983054 NJG983016:NJG983054 NTC983016:NTC983054 OCY983016:OCY983054 OMU983016:OMU983054 OWQ983016:OWQ983054 PGM983016:PGM983054 PQI983016:PQI983054 QAE983016:QAE983054 QKA983016:QKA983054 QTW983016:QTW983054 RDS983016:RDS983054 RNO983016:RNO983054 RXK983016:RXK983054 SHG983016:SHG983054 SRC983016:SRC983054 TAY983016:TAY983054 TKU983016:TKU983054 TUQ983016:TUQ983054 UEM983016:UEM983054 UOI983016:UOI983054 UYE983016:UYE983054 VIA983016:VIA983054 VRW983016:VRW983054 WBS983016:WBS983054 WLO983016:WLO983054 WVK983016:WVK983054 H983016:H983054 H917480:H917518 H851944:H851982 H786408:H786446 H720872:H720910 H655336:H655374 H589800:H589838 H524264:H524302 H458728:H458766 H393192:H393230 H327656:H327694 H262120:H262158 H196584:H196622 H131048:H131086 H65512:H65550 H4:H14 IY4:IY14 SU4:SU14 ACQ4:ACQ14 AMM4:AMM14 AWI4:AWI14 BGE4:BGE14 BQA4:BQA14 BZW4:BZW14 CJS4:CJS14 CTO4:CTO14 DDK4:DDK14 DNG4:DNG14 DXC4:DXC14 EGY4:EGY14 EQU4:EQU14 FAQ4:FAQ14 FKM4:FKM14 FUI4:FUI14 GEE4:GEE14 GOA4:GOA14 GXW4:GXW14 HHS4:HHS14 HRO4:HRO14 IBK4:IBK14 ILG4:ILG14 IVC4:IVC14 JEY4:JEY14 JOU4:JOU14 JYQ4:JYQ14 KIM4:KIM14 KSI4:KSI14 LCE4:LCE14 LMA4:LMA14 LVW4:LVW14 MFS4:MFS14 MPO4:MPO14 MZK4:MZK14 NJG4:NJG14 NTC4:NTC14 OCY4:OCY14 OMU4:OMU14 OWQ4:OWQ14 PGM4:PGM14 PQI4:PQI14 QAE4:QAE14 QKA4:QKA14 QTW4:QTW14 RDS4:RDS14 RNO4:RNO14 RXK4:RXK14 SHG4:SHG14 SRC4:SRC14 TAY4:TAY14 TKU4:TKU14 TUQ4:TUQ14 UEM4:UEM14 UOI4:UOI14 UYE4:UYE14 VIA4:VIA14 VRW4:VRW14 WBS4:WBS14 WLO4:WLO14 WVK4:WVK14">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="144"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="130"/>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="71">
+        <f>ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+    </row>
+    <row r="7" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65509:H65547 H131045:H131083 H196581:H196619 H262117:H262155 H327653:H327691 H393189:H393227 H458725:H458763 H524261:H524299 H589797:H589835 H655333:H655371 H720869:H720907 H786405:H786443 H851941:H851979 H917477:H917515 H983013:H983051 WVK983013:WVK983051 WLO983013:WLO983051 WBS983013:WBS983051 VRW983013:VRW983051 VIA983013:VIA983051 UYE983013:UYE983051 UOI983013:UOI983051 UEM983013:UEM983051 TUQ983013:TUQ983051 TKU983013:TKU983051 TAY983013:TAY983051 SRC983013:SRC983051 SHG983013:SHG983051 RXK983013:RXK983051 RNO983013:RNO983051 RDS983013:RDS983051 QTW983013:QTW983051 QKA983013:QKA983051 QAE983013:QAE983051 PQI983013:PQI983051 PGM983013:PGM983051 OWQ983013:OWQ983051 OMU983013:OMU983051 OCY983013:OCY983051 NTC983013:NTC983051 NJG983013:NJG983051 MZK983013:MZK983051 MPO983013:MPO983051 MFS983013:MFS983051 LVW983013:LVW983051 LMA983013:LMA983051 LCE983013:LCE983051 KSI983013:KSI983051 KIM983013:KIM983051 JYQ983013:JYQ983051 JOU983013:JOU983051 JEY983013:JEY983051 IVC983013:IVC983051 ILG983013:ILG983051 IBK983013:IBK983051 HRO983013:HRO983051 HHS983013:HHS983051 GXW983013:GXW983051 GOA983013:GOA983051 GEE983013:GEE983051 FUI983013:FUI983051 FKM983013:FKM983051 FAQ983013:FAQ983051 EQU983013:EQU983051 EGY983013:EGY983051 DXC983013:DXC983051 DNG983013:DNG983051 DDK983013:DDK983051 CTO983013:CTO983051 CJS983013:CJS983051 BZW983013:BZW983051 BQA983013:BQA983051 BGE983013:BGE983051 AWI983013:AWI983051 AMM983013:AMM983051 ACQ983013:ACQ983051 SU983013:SU983051 IY983013:IY983051 WVK917477:WVK917515 WLO917477:WLO917515 WBS917477:WBS917515 VRW917477:VRW917515 VIA917477:VIA917515 UYE917477:UYE917515 UOI917477:UOI917515 UEM917477:UEM917515 TUQ917477:TUQ917515 TKU917477:TKU917515 TAY917477:TAY917515 SRC917477:SRC917515 SHG917477:SHG917515 RXK917477:RXK917515 RNO917477:RNO917515 RDS917477:RDS917515 QTW917477:QTW917515 QKA917477:QKA917515 QAE917477:QAE917515 PQI917477:PQI917515 PGM917477:PGM917515 OWQ917477:OWQ917515 OMU917477:OMU917515 OCY917477:OCY917515 NTC917477:NTC917515 NJG917477:NJG917515 MZK917477:MZK917515 MPO917477:MPO917515 MFS917477:MFS917515 LVW917477:LVW917515 LMA917477:LMA917515 LCE917477:LCE917515 KSI917477:KSI917515 KIM917477:KIM917515 JYQ917477:JYQ917515 JOU917477:JOU917515 JEY917477:JEY917515 IVC917477:IVC917515 ILG917477:ILG917515 IBK917477:IBK917515 HRO917477:HRO917515 HHS917477:HHS917515 GXW917477:GXW917515 GOA917477:GOA917515 GEE917477:GEE917515 FUI917477:FUI917515 FKM917477:FKM917515 FAQ917477:FAQ917515 EQU917477:EQU917515 EGY917477:EGY917515 DXC917477:DXC917515 DNG917477:DNG917515 DDK917477:DDK917515 CTO917477:CTO917515 CJS917477:CJS917515 BZW917477:BZW917515 BQA917477:BQA917515 BGE917477:BGE917515 AWI917477:AWI917515 AMM917477:AMM917515 ACQ917477:ACQ917515 SU917477:SU917515 IY917477:IY917515 WVK851941:WVK851979 WLO851941:WLO851979 WBS851941:WBS851979 VRW851941:VRW851979 VIA851941:VIA851979 UYE851941:UYE851979 UOI851941:UOI851979 UEM851941:UEM851979 TUQ851941:TUQ851979 TKU851941:TKU851979 TAY851941:TAY851979 SRC851941:SRC851979 SHG851941:SHG851979 RXK851941:RXK851979 RNO851941:RNO851979 RDS851941:RDS851979 QTW851941:QTW851979 QKA851941:QKA851979 QAE851941:QAE851979 PQI851941:PQI851979 PGM851941:PGM851979 OWQ851941:OWQ851979 OMU851941:OMU851979 OCY851941:OCY851979 NTC851941:NTC851979 NJG851941:NJG851979 MZK851941:MZK851979 MPO851941:MPO851979 MFS851941:MFS851979 LVW851941:LVW851979 LMA851941:LMA851979 LCE851941:LCE851979 KSI851941:KSI851979 KIM851941:KIM851979 JYQ851941:JYQ851979 JOU851941:JOU851979 JEY851941:JEY851979 IVC851941:IVC851979 ILG851941:ILG851979 IBK851941:IBK851979 HRO851941:HRO851979 HHS851941:HHS851979 GXW851941:GXW851979 GOA851941:GOA851979 GEE851941:GEE851979 FUI851941:FUI851979 FKM851941:FKM851979 FAQ851941:FAQ851979 EQU851941:EQU851979 EGY851941:EGY851979 DXC851941:DXC851979 DNG851941:DNG851979 DDK851941:DDK851979 CTO851941:CTO851979 CJS851941:CJS851979 BZW851941:BZW851979 BQA851941:BQA851979 BGE851941:BGE851979 AWI851941:AWI851979 AMM851941:AMM851979 ACQ851941:ACQ851979 SU851941:SU851979 IY851941:IY851979 WVK786405:WVK786443 WLO786405:WLO786443 WBS786405:WBS786443 VRW786405:VRW786443 VIA786405:VIA786443 UYE786405:UYE786443 UOI786405:UOI786443 UEM786405:UEM786443 TUQ786405:TUQ786443 TKU786405:TKU786443 TAY786405:TAY786443 SRC786405:SRC786443 SHG786405:SHG786443 RXK786405:RXK786443 RNO786405:RNO786443 RDS786405:RDS786443 QTW786405:QTW786443 QKA786405:QKA786443 QAE786405:QAE786443 PQI786405:PQI786443 PGM786405:PGM786443 OWQ786405:OWQ786443 OMU786405:OMU786443 OCY786405:OCY786443 NTC786405:NTC786443 NJG786405:NJG786443 MZK786405:MZK786443 MPO786405:MPO786443 MFS786405:MFS786443 LVW786405:LVW786443 LMA786405:LMA786443 LCE786405:LCE786443 KSI786405:KSI786443 KIM786405:KIM786443 JYQ786405:JYQ786443 JOU786405:JOU786443 JEY786405:JEY786443 IVC786405:IVC786443 ILG786405:ILG786443 IBK786405:IBK786443 HRO786405:HRO786443 HHS786405:HHS786443 GXW786405:GXW786443 GOA786405:GOA786443 GEE786405:GEE786443 FUI786405:FUI786443 FKM786405:FKM786443 FAQ786405:FAQ786443 EQU786405:EQU786443 EGY786405:EGY786443 DXC786405:DXC786443 DNG786405:DNG786443 DDK786405:DDK786443 CTO786405:CTO786443 CJS786405:CJS786443 BZW786405:BZW786443 BQA786405:BQA786443 BGE786405:BGE786443 AWI786405:AWI786443 AMM786405:AMM786443 ACQ786405:ACQ786443 SU786405:SU786443 IY786405:IY786443 WVK720869:WVK720907 WLO720869:WLO720907 WBS720869:WBS720907 VRW720869:VRW720907 VIA720869:VIA720907 UYE720869:UYE720907 UOI720869:UOI720907 UEM720869:UEM720907 TUQ720869:TUQ720907 TKU720869:TKU720907 TAY720869:TAY720907 SRC720869:SRC720907 SHG720869:SHG720907 RXK720869:RXK720907 RNO720869:RNO720907 RDS720869:RDS720907 QTW720869:QTW720907 QKA720869:QKA720907 QAE720869:QAE720907 PQI720869:PQI720907 PGM720869:PGM720907 OWQ720869:OWQ720907 OMU720869:OMU720907 OCY720869:OCY720907 NTC720869:NTC720907 NJG720869:NJG720907 MZK720869:MZK720907 MPO720869:MPO720907 MFS720869:MFS720907 LVW720869:LVW720907 LMA720869:LMA720907 LCE720869:LCE720907 KSI720869:KSI720907 KIM720869:KIM720907 JYQ720869:JYQ720907 JOU720869:JOU720907 JEY720869:JEY720907 IVC720869:IVC720907 ILG720869:ILG720907 IBK720869:IBK720907 HRO720869:HRO720907 HHS720869:HHS720907 GXW720869:GXW720907 GOA720869:GOA720907 GEE720869:GEE720907 FUI720869:FUI720907 FKM720869:FKM720907 FAQ720869:FAQ720907 EQU720869:EQU720907 EGY720869:EGY720907 DXC720869:DXC720907 DNG720869:DNG720907 DDK720869:DDK720907 CTO720869:CTO720907 CJS720869:CJS720907 BZW720869:BZW720907 BQA720869:BQA720907 BGE720869:BGE720907 AWI720869:AWI720907 AMM720869:AMM720907 ACQ720869:ACQ720907 SU720869:SU720907 IY720869:IY720907 WVK655333:WVK655371 WLO655333:WLO655371 WBS655333:WBS655371 VRW655333:VRW655371 VIA655333:VIA655371 UYE655333:UYE655371 UOI655333:UOI655371 UEM655333:UEM655371 TUQ655333:TUQ655371 TKU655333:TKU655371 TAY655333:TAY655371 SRC655333:SRC655371 SHG655333:SHG655371 RXK655333:RXK655371 RNO655333:RNO655371 RDS655333:RDS655371 QTW655333:QTW655371 QKA655333:QKA655371 QAE655333:QAE655371 PQI655333:PQI655371 PGM655333:PGM655371 OWQ655333:OWQ655371 OMU655333:OMU655371 OCY655333:OCY655371 NTC655333:NTC655371 NJG655333:NJG655371 MZK655333:MZK655371 MPO655333:MPO655371 MFS655333:MFS655371 LVW655333:LVW655371 LMA655333:LMA655371 LCE655333:LCE655371 KSI655333:KSI655371 KIM655333:KIM655371 JYQ655333:JYQ655371 JOU655333:JOU655371 JEY655333:JEY655371 IVC655333:IVC655371 ILG655333:ILG655371 IBK655333:IBK655371 HRO655333:HRO655371 HHS655333:HHS655371 GXW655333:GXW655371 GOA655333:GOA655371 GEE655333:GEE655371 FUI655333:FUI655371 FKM655333:FKM655371 FAQ655333:FAQ655371 EQU655333:EQU655371 EGY655333:EGY655371 DXC655333:DXC655371 DNG655333:DNG655371 DDK655333:DDK655371 CTO655333:CTO655371 CJS655333:CJS655371 BZW655333:BZW655371 BQA655333:BQA655371 BGE655333:BGE655371 AWI655333:AWI655371 AMM655333:AMM655371 ACQ655333:ACQ655371 SU655333:SU655371 IY655333:IY655371 WVK589797:WVK589835 WLO589797:WLO589835 WBS589797:WBS589835 VRW589797:VRW589835 VIA589797:VIA589835 UYE589797:UYE589835 UOI589797:UOI589835 UEM589797:UEM589835 TUQ589797:TUQ589835 TKU589797:TKU589835 TAY589797:TAY589835 SRC589797:SRC589835 SHG589797:SHG589835 RXK589797:RXK589835 RNO589797:RNO589835 RDS589797:RDS589835 QTW589797:QTW589835 QKA589797:QKA589835 QAE589797:QAE589835 PQI589797:PQI589835 PGM589797:PGM589835 OWQ589797:OWQ589835 OMU589797:OMU589835 OCY589797:OCY589835 NTC589797:NTC589835 NJG589797:NJG589835 MZK589797:MZK589835 MPO589797:MPO589835 MFS589797:MFS589835 LVW589797:LVW589835 LMA589797:LMA589835 LCE589797:LCE589835 KSI589797:KSI589835 KIM589797:KIM589835 JYQ589797:JYQ589835 JOU589797:JOU589835 JEY589797:JEY589835 IVC589797:IVC589835 ILG589797:ILG589835 IBK589797:IBK589835 HRO589797:HRO589835 HHS589797:HHS589835 GXW589797:GXW589835 GOA589797:GOA589835 GEE589797:GEE589835 FUI589797:FUI589835 FKM589797:FKM589835 FAQ589797:FAQ589835 EQU589797:EQU589835 EGY589797:EGY589835 DXC589797:DXC589835 DNG589797:DNG589835 DDK589797:DDK589835 CTO589797:CTO589835 CJS589797:CJS589835 BZW589797:BZW589835 BQA589797:BQA589835 BGE589797:BGE589835 AWI589797:AWI589835 AMM589797:AMM589835 ACQ589797:ACQ589835 SU589797:SU589835 IY589797:IY589835 WVK524261:WVK524299 WLO524261:WLO524299 WBS524261:WBS524299 VRW524261:VRW524299 VIA524261:VIA524299 UYE524261:UYE524299 UOI524261:UOI524299 UEM524261:UEM524299 TUQ524261:TUQ524299 TKU524261:TKU524299 TAY524261:TAY524299 SRC524261:SRC524299 SHG524261:SHG524299 RXK524261:RXK524299 RNO524261:RNO524299 RDS524261:RDS524299 QTW524261:QTW524299 QKA524261:QKA524299 QAE524261:QAE524299 PQI524261:PQI524299 PGM524261:PGM524299 OWQ524261:OWQ524299 OMU524261:OMU524299 OCY524261:OCY524299 NTC524261:NTC524299 NJG524261:NJG524299 MZK524261:MZK524299 MPO524261:MPO524299 MFS524261:MFS524299 LVW524261:LVW524299 LMA524261:LMA524299 LCE524261:LCE524299 KSI524261:KSI524299 KIM524261:KIM524299 JYQ524261:JYQ524299 JOU524261:JOU524299 JEY524261:JEY524299 IVC524261:IVC524299 ILG524261:ILG524299 IBK524261:IBK524299 HRO524261:HRO524299 HHS524261:HHS524299 GXW524261:GXW524299 GOA524261:GOA524299 GEE524261:GEE524299 FUI524261:FUI524299 FKM524261:FKM524299 FAQ524261:FAQ524299 EQU524261:EQU524299 EGY524261:EGY524299 DXC524261:DXC524299 DNG524261:DNG524299 DDK524261:DDK524299 CTO524261:CTO524299 CJS524261:CJS524299 BZW524261:BZW524299 BQA524261:BQA524299 BGE524261:BGE524299 AWI524261:AWI524299 AMM524261:AMM524299 ACQ524261:ACQ524299 SU524261:SU524299 IY524261:IY524299 WVK458725:WVK458763 WLO458725:WLO458763 WBS458725:WBS458763 VRW458725:VRW458763 VIA458725:VIA458763 UYE458725:UYE458763 UOI458725:UOI458763 UEM458725:UEM458763 TUQ458725:TUQ458763 TKU458725:TKU458763 TAY458725:TAY458763 SRC458725:SRC458763 SHG458725:SHG458763 RXK458725:RXK458763 RNO458725:RNO458763 RDS458725:RDS458763 QTW458725:QTW458763 QKA458725:QKA458763 QAE458725:QAE458763 PQI458725:PQI458763 PGM458725:PGM458763 OWQ458725:OWQ458763 OMU458725:OMU458763 OCY458725:OCY458763 NTC458725:NTC458763 NJG458725:NJG458763 MZK458725:MZK458763 MPO458725:MPO458763 MFS458725:MFS458763 LVW458725:LVW458763 LMA458725:LMA458763 LCE458725:LCE458763 KSI458725:KSI458763 KIM458725:KIM458763 JYQ458725:JYQ458763 JOU458725:JOU458763 JEY458725:JEY458763 IVC458725:IVC458763 ILG458725:ILG458763 IBK458725:IBK458763 HRO458725:HRO458763 HHS458725:HHS458763 GXW458725:GXW458763 GOA458725:GOA458763 GEE458725:GEE458763 FUI458725:FUI458763 FKM458725:FKM458763 FAQ458725:FAQ458763 EQU458725:EQU458763 EGY458725:EGY458763 DXC458725:DXC458763 DNG458725:DNG458763 DDK458725:DDK458763 CTO458725:CTO458763 CJS458725:CJS458763 BZW458725:BZW458763 BQA458725:BQA458763 BGE458725:BGE458763 AWI458725:AWI458763 AMM458725:AMM458763 ACQ458725:ACQ458763 SU458725:SU458763 IY458725:IY458763 WVK393189:WVK393227 WLO393189:WLO393227 WBS393189:WBS393227 VRW393189:VRW393227 VIA393189:VIA393227 UYE393189:UYE393227 UOI393189:UOI393227 UEM393189:UEM393227 TUQ393189:TUQ393227 TKU393189:TKU393227 TAY393189:TAY393227 SRC393189:SRC393227 SHG393189:SHG393227 RXK393189:RXK393227 RNO393189:RNO393227 RDS393189:RDS393227 QTW393189:QTW393227 QKA393189:QKA393227 QAE393189:QAE393227 PQI393189:PQI393227 PGM393189:PGM393227 OWQ393189:OWQ393227 OMU393189:OMU393227 OCY393189:OCY393227 NTC393189:NTC393227 NJG393189:NJG393227 MZK393189:MZK393227 MPO393189:MPO393227 MFS393189:MFS393227 LVW393189:LVW393227 LMA393189:LMA393227 LCE393189:LCE393227 KSI393189:KSI393227 KIM393189:KIM393227 JYQ393189:JYQ393227 JOU393189:JOU393227 JEY393189:JEY393227 IVC393189:IVC393227 ILG393189:ILG393227 IBK393189:IBK393227 HRO393189:HRO393227 HHS393189:HHS393227 GXW393189:GXW393227 GOA393189:GOA393227 GEE393189:GEE393227 FUI393189:FUI393227 FKM393189:FKM393227 FAQ393189:FAQ393227 EQU393189:EQU393227 EGY393189:EGY393227 DXC393189:DXC393227 DNG393189:DNG393227 DDK393189:DDK393227 CTO393189:CTO393227 CJS393189:CJS393227 BZW393189:BZW393227 BQA393189:BQA393227 BGE393189:BGE393227 AWI393189:AWI393227 AMM393189:AMM393227 ACQ393189:ACQ393227 SU393189:SU393227 IY393189:IY393227 WVK327653:WVK327691 WLO327653:WLO327691 WBS327653:WBS327691 VRW327653:VRW327691 VIA327653:VIA327691 UYE327653:UYE327691 UOI327653:UOI327691 UEM327653:UEM327691 TUQ327653:TUQ327691 TKU327653:TKU327691 TAY327653:TAY327691 SRC327653:SRC327691 SHG327653:SHG327691 RXK327653:RXK327691 RNO327653:RNO327691 RDS327653:RDS327691 QTW327653:QTW327691 QKA327653:QKA327691 QAE327653:QAE327691 PQI327653:PQI327691 PGM327653:PGM327691 OWQ327653:OWQ327691 OMU327653:OMU327691 OCY327653:OCY327691 NTC327653:NTC327691 NJG327653:NJG327691 MZK327653:MZK327691 MPO327653:MPO327691 MFS327653:MFS327691 LVW327653:LVW327691 LMA327653:LMA327691 LCE327653:LCE327691 KSI327653:KSI327691 KIM327653:KIM327691 JYQ327653:JYQ327691 JOU327653:JOU327691 JEY327653:JEY327691 IVC327653:IVC327691 ILG327653:ILG327691 IBK327653:IBK327691 HRO327653:HRO327691 HHS327653:HHS327691 GXW327653:GXW327691 GOA327653:GOA327691 GEE327653:GEE327691 FUI327653:FUI327691 FKM327653:FKM327691 FAQ327653:FAQ327691 EQU327653:EQU327691 EGY327653:EGY327691 DXC327653:DXC327691 DNG327653:DNG327691 DDK327653:DDK327691 CTO327653:CTO327691 CJS327653:CJS327691 BZW327653:BZW327691 BQA327653:BQA327691 BGE327653:BGE327691 AWI327653:AWI327691 AMM327653:AMM327691 ACQ327653:ACQ327691 SU327653:SU327691 IY327653:IY327691 WVK262117:WVK262155 WLO262117:WLO262155 WBS262117:WBS262155 VRW262117:VRW262155 VIA262117:VIA262155 UYE262117:UYE262155 UOI262117:UOI262155 UEM262117:UEM262155 TUQ262117:TUQ262155 TKU262117:TKU262155 TAY262117:TAY262155 SRC262117:SRC262155 SHG262117:SHG262155 RXK262117:RXK262155 RNO262117:RNO262155 RDS262117:RDS262155 QTW262117:QTW262155 QKA262117:QKA262155 QAE262117:QAE262155 PQI262117:PQI262155 PGM262117:PGM262155 OWQ262117:OWQ262155 OMU262117:OMU262155 OCY262117:OCY262155 NTC262117:NTC262155 NJG262117:NJG262155 MZK262117:MZK262155 MPO262117:MPO262155 MFS262117:MFS262155 LVW262117:LVW262155 LMA262117:LMA262155 LCE262117:LCE262155 KSI262117:KSI262155 KIM262117:KIM262155 JYQ262117:JYQ262155 JOU262117:JOU262155 JEY262117:JEY262155 IVC262117:IVC262155 ILG262117:ILG262155 IBK262117:IBK262155 HRO262117:HRO262155 HHS262117:HHS262155 GXW262117:GXW262155 GOA262117:GOA262155 GEE262117:GEE262155 FUI262117:FUI262155 FKM262117:FKM262155 FAQ262117:FAQ262155 EQU262117:EQU262155 EGY262117:EGY262155 DXC262117:DXC262155 DNG262117:DNG262155 DDK262117:DDK262155 CTO262117:CTO262155 CJS262117:CJS262155 BZW262117:BZW262155 BQA262117:BQA262155 BGE262117:BGE262155 AWI262117:AWI262155 AMM262117:AMM262155 ACQ262117:ACQ262155 SU262117:SU262155 IY262117:IY262155 WVK196581:WVK196619 WLO196581:WLO196619 WBS196581:WBS196619 VRW196581:VRW196619 VIA196581:VIA196619 UYE196581:UYE196619 UOI196581:UOI196619 UEM196581:UEM196619 TUQ196581:TUQ196619 TKU196581:TKU196619 TAY196581:TAY196619 SRC196581:SRC196619 SHG196581:SHG196619 RXK196581:RXK196619 RNO196581:RNO196619 RDS196581:RDS196619 QTW196581:QTW196619 QKA196581:QKA196619 QAE196581:QAE196619 PQI196581:PQI196619 PGM196581:PGM196619 OWQ196581:OWQ196619 OMU196581:OMU196619 OCY196581:OCY196619 NTC196581:NTC196619 NJG196581:NJG196619 MZK196581:MZK196619 MPO196581:MPO196619 MFS196581:MFS196619 LVW196581:LVW196619 LMA196581:LMA196619 LCE196581:LCE196619 KSI196581:KSI196619 KIM196581:KIM196619 JYQ196581:JYQ196619 JOU196581:JOU196619 JEY196581:JEY196619 IVC196581:IVC196619 ILG196581:ILG196619 IBK196581:IBK196619 HRO196581:HRO196619 HHS196581:HHS196619 GXW196581:GXW196619 GOA196581:GOA196619 GEE196581:GEE196619 FUI196581:FUI196619 FKM196581:FKM196619 FAQ196581:FAQ196619 EQU196581:EQU196619 EGY196581:EGY196619 DXC196581:DXC196619 DNG196581:DNG196619 DDK196581:DDK196619 CTO196581:CTO196619 CJS196581:CJS196619 BZW196581:BZW196619 BQA196581:BQA196619 BGE196581:BGE196619 AWI196581:AWI196619 AMM196581:AMM196619 ACQ196581:ACQ196619 SU196581:SU196619 IY196581:IY196619 WVK131045:WVK131083 WLO131045:WLO131083 WBS131045:WBS131083 VRW131045:VRW131083 VIA131045:VIA131083 UYE131045:UYE131083 UOI131045:UOI131083 UEM131045:UEM131083 TUQ131045:TUQ131083 TKU131045:TKU131083 TAY131045:TAY131083 SRC131045:SRC131083 SHG131045:SHG131083 RXK131045:RXK131083 RNO131045:RNO131083 RDS131045:RDS131083 QTW131045:QTW131083 QKA131045:QKA131083 QAE131045:QAE131083 PQI131045:PQI131083 PGM131045:PGM131083 OWQ131045:OWQ131083 OMU131045:OMU131083 OCY131045:OCY131083 NTC131045:NTC131083 NJG131045:NJG131083 MZK131045:MZK131083 MPO131045:MPO131083 MFS131045:MFS131083 LVW131045:LVW131083 LMA131045:LMA131083 LCE131045:LCE131083 KSI131045:KSI131083 KIM131045:KIM131083 JYQ131045:JYQ131083 JOU131045:JOU131083 JEY131045:JEY131083 IVC131045:IVC131083 ILG131045:ILG131083 IBK131045:IBK131083 HRO131045:HRO131083 HHS131045:HHS131083 GXW131045:GXW131083 GOA131045:GOA131083 GEE131045:GEE131083 FUI131045:FUI131083 FKM131045:FKM131083 FAQ131045:FAQ131083 EQU131045:EQU131083 EGY131045:EGY131083 DXC131045:DXC131083 DNG131045:DNG131083 DDK131045:DDK131083 CTO131045:CTO131083 CJS131045:CJS131083 BZW131045:BZW131083 BQA131045:BQA131083 BGE131045:BGE131083 AWI131045:AWI131083 AMM131045:AMM131083 ACQ131045:ACQ131083 SU131045:SU131083 IY131045:IY131083 WVK65509:WVK65547 WLO65509:WLO65547 WBS65509:WBS65547 VRW65509:VRW65547 VIA65509:VIA65547 UYE65509:UYE65547 UOI65509:UOI65547 UEM65509:UEM65547 TUQ65509:TUQ65547 TKU65509:TKU65547 TAY65509:TAY65547 SRC65509:SRC65547 SHG65509:SHG65547 RXK65509:RXK65547 RNO65509:RNO65547 RDS65509:RDS65547 QTW65509:QTW65547 QKA65509:QKA65547 QAE65509:QAE65547 PQI65509:PQI65547 PGM65509:PGM65547 OWQ65509:OWQ65547 OMU65509:OMU65547 OCY65509:OCY65547 NTC65509:NTC65547 NJG65509:NJG65547 MZK65509:MZK65547 MPO65509:MPO65547 MFS65509:MFS65547 LVW65509:LVW65547 LMA65509:LMA65547 LCE65509:LCE65547 KSI65509:KSI65547 KIM65509:KIM65547 JYQ65509:JYQ65547 JOU65509:JOU65547 JEY65509:JEY65547 IVC65509:IVC65547 ILG65509:ILG65547 IBK65509:IBK65547 HRO65509:HRO65547 HHS65509:HHS65547 GXW65509:GXW65547 GOA65509:GOA65547 GEE65509:GEE65547 FUI65509:FUI65547 FKM65509:FKM65547 FAQ65509:FAQ65547 EQU65509:EQU65547 EGY65509:EGY65547 DXC65509:DXC65547 DNG65509:DNG65547 DDK65509:DDK65547 CTO65509:CTO65547 CJS65509:CJS65547 BZW65509:BZW65547 BQA65509:BQA65547 BGE65509:BGE65547 AWI65509:AWI65547 AMM65509:AMM65547 ACQ65509:ACQ65547 SU65509:SU65547 IY65509:IY65547 SU6:SU11 ACQ6:ACQ11 AMM6:AMM11 AWI6:AWI11 BGE6:BGE11 BQA6:BQA11 BZW6:BZW11 CJS6:CJS11 CTO6:CTO11 DDK6:DDK11 DNG6:DNG11 DXC6:DXC11 EGY6:EGY11 EQU6:EQU11 FAQ6:FAQ11 FKM6:FKM11 FUI6:FUI11 GEE6:GEE11 GOA6:GOA11 GXW6:GXW11 HHS6:HHS11 HRO6:HRO11 IBK6:IBK11 ILG6:ILG11 IVC6:IVC11 JEY6:JEY11 JOU6:JOU11 JYQ6:JYQ11 KIM6:KIM11 KSI6:KSI11 LCE6:LCE11 LMA6:LMA11 LVW6:LVW11 MFS6:MFS11 MPO6:MPO11 MZK6:MZK11 NJG6:NJG11 NTC6:NTC11 OCY6:OCY11 OMU6:OMU11 OWQ6:OWQ11 PGM6:PGM11 PQI6:PQI11 QAE6:QAE11 QKA6:QKA11 QTW6:QTW11 RDS6:RDS11 RNO6:RNO11 RXK6:RXK11 SHG6:SHG11 SRC6:SRC11 TAY6:TAY11 TKU6:TKU11 TUQ6:TUQ11 UEM6:UEM11 UOI6:UOI11 UYE6:UYE11 VIA6:VIA11 VRW6:VRW11 WBS6:WBS11 WLO6:WLO11 WVK6:WVK11 H5:H11 IY6:IY11">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="144"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="71">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+    </row>
+    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" ref="A13" si="1">ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
+    </row>
+    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65515:IY65553 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 H983019:H983057 WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 H5:H17 WVK5:WVK17 WLO5:WLO17 WBS5:WBS17 VRW5:VRW17 VIA5:VIA17 UYE5:UYE17 UOI5:UOI17 UEM5:UEM17 TUQ5:TUQ17 TKU5:TKU17 TAY5:TAY17 SRC5:SRC17 SHG5:SHG17 RXK5:RXK17 RNO5:RNO17 RDS5:RDS17 QTW5:QTW17 QKA5:QKA17 QAE5:QAE17 PQI5:PQI17 PGM5:PGM17 OWQ5:OWQ17 OMU5:OMU17 OCY5:OCY17 NTC5:NTC17 NJG5:NJG17 MZK5:MZK17 MPO5:MPO17 MFS5:MFS17 LVW5:LVW17 LMA5:LMA17 LCE5:LCE17 KSI5:KSI17 KIM5:KIM17 JYQ5:JYQ17 JOU5:JOU17 JEY5:JEY17 IVC5:IVC17 ILG5:ILG17 IBK5:IBK17 HRO5:HRO17 HHS5:HHS17 GXW5:GXW17 GOA5:GOA17 GEE5:GEE17 FUI5:FUI17 FKM5:FKM17 FAQ5:FAQ17 EQU5:EQU17 EGY5:EGY17 DXC5:DXC17 DNG5:DNG17 DDK5:DDK17 CTO5:CTO17 CJS5:CJS17 BZW5:BZW17 BQA5:BQA17 BGE5:BGE17 AWI5:AWI17 AMM5:AMM17 ACQ5:ACQ17 SU5:SU17 IY5:IY17">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="11" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="8" max="8" width="6" style="52" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="8" style="52" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="144"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="71">
+        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
+        <v>-2</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="71">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="130"/>
+      <c r="D8" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="71">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
+    </row>
+    <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="71">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="71">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+    </row>
+    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="71">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="71">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+    </row>
+    <row r="18" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="71">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+    </row>
+    <row r="19" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="71">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+    </row>
+    <row r="20" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="71">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+    </row>
+    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="71">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+    </row>
+    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="71">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+    </row>
+    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
+    </row>
+    <row r="24" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="71">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
+    </row>
+    <row r="25" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="71">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+    </row>
+    <row r="26" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="73">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="132"/>
+    </row>
+    <row r="27" spans="1:10" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="73">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
+    </row>
+    <row r="28" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="73">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
+    </row>
+    <row r="29" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="73">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+    </row>
+    <row r="30" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="73">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
+    </row>
+    <row r="31" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="73">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
+    </row>
+    <row r="32" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="73">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
+    </row>
+    <row r="33" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="73">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+    </row>
+    <row r="34" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="73">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="132"/>
+    </row>
+    <row r="35" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="73">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="132"/>
+    </row>
+    <row r="36" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="73">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="132"/>
+    </row>
+    <row r="37" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="73">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
+    </row>
+    <row r="38" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="71">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="127"/>
+    </row>
+    <row r="39" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="71">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
+    </row>
+    <row r="40" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
+    </row>
+    <row r="41" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="127"/>
+    </row>
+    <row r="42" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="127"/>
+    </row>
+    <row r="43" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A43" s="64"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
     </row>
     <row r="44" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
       <c r="A44" s="60"/>
@@ -5137,3892 +9037,4 @@
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AS33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.75" style="1" customWidth="1"/>
-    <col min="19" max="28" width="3.75" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="3.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-    </row>
-    <row r="2" spans="1:45" s="22" customFormat="1" ht="12.75" thickBot="1">
-      <c r="A2" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="32"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-    </row>
-    <row r="3" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-    </row>
-    <row r="4" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="31" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>实体列表</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-    </row>
-    <row r="5" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-    </row>
-    <row r="6" spans="1:45" ht="29.25" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-    </row>
-    <row r="7" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="79">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="120"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-    </row>
-    <row r="8" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="79">
-        <v>2</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="120"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-    </row>
-    <row r="9" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="79">
-        <v>3</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="120"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-    </row>
-    <row r="10" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="79">
-        <v>3</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="120"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-    </row>
-    <row r="11" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="79">
-        <v>4</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="120"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-    </row>
-    <row r="12" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="79">
-        <v>5</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="120"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-    </row>
-    <row r="13" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="79">
-        <v>6</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="120"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-    </row>
-    <row r="14" spans="1:45" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="79">
-        <v>7</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="120"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-    </row>
-    <row r="15" spans="1:45" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-    </row>
-    <row r="16" spans="1:45" s="22" customFormat="1">
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-    </row>
-    <row r="17" spans="19:28" s="22" customFormat="1">
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-    </row>
-    <row r="18" spans="19:28" s="22" customFormat="1">
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-    </row>
-    <row r="19" spans="19:28" s="22" customFormat="1">
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-    </row>
-    <row r="20" spans="19:28" s="22" customFormat="1">
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-    </row>
-    <row r="21" spans="19:28" s="22" customFormat="1">
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-    </row>
-    <row r="22" spans="19:28" s="22" customFormat="1">
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-    </row>
-    <row r="23" spans="19:28" s="22" customFormat="1">
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-    </row>
-    <row r="24" spans="19:28" s="22" customFormat="1">
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-    </row>
-    <row r="25" spans="19:28" s="22" customFormat="1">
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-    </row>
-    <row r="26" spans="19:28" s="22" customFormat="1">
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-    </row>
-    <row r="27" spans="19:28" s="22" customFormat="1">
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-    </row>
-    <row r="28" spans="19:28" s="22" customFormat="1">
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-    </row>
-    <row r="29" spans="19:28" s="22" customFormat="1">
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-    </row>
-    <row r="30" spans="19:28" s="22" customFormat="1">
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-    </row>
-    <row r="31" spans="19:28" s="22" customFormat="1">
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-    </row>
-    <row r="32" spans="19:28" s="22" customFormat="1">
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-    </row>
-    <row r="33" spans="19:28" s="22" customFormat="1">
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A6:O6">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="23">
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B15:D15"/>
-  </mergeCells>
-  <phoneticPr fontId="5"/>
-  <hyperlinks>
-    <hyperlink ref="E7" location="keyword!A1" display="keyword"/>
-    <hyperlink ref="E8" location="site!A1" display="site"/>
-    <hyperlink ref="E9" location="link!A1" display="link"/>
-    <hyperlink ref="E10" location="keyword_page!A1" display="keyword_page"/>
-    <hyperlink ref="E11" location="statistics!A1" display="statistics"/>
-    <hyperlink ref="E12" location="city!A1" display="city"/>
-    <hyperlink ref="E13" location="user!A1" display="user"/>
-    <hyperlink ref="E14" location="operate_log!A1" display="operate_log"/>
-  </hyperlinks>
-  <pageMargins left="0.51" right="0.67" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="168" man="1"/>
-  </colBreaks>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="135"/>
-    </row>
-    <row r="4" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71">
-        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="141"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B5" s="136" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-    </row>
-    <row r="13" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="58"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="57"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65510:IY65548 H65510:H65548 H131046:H131084 H196582:H196620 H262118:H262156 H327654:H327692 H393190:H393228 H458726:H458764 H524262:H524300 H589798:H589836 H655334:H655372 H720870:H720908 H786406:H786444 H851942:H851980 H917478:H917516 H983014:H983052 WVK983014:WVK983052 WLO983014:WLO983052 WBS983014:WBS983052 VRW983014:VRW983052 VIA983014:VIA983052 UYE983014:UYE983052 UOI983014:UOI983052 UEM983014:UEM983052 TUQ983014:TUQ983052 TKU983014:TKU983052 TAY983014:TAY983052 SRC983014:SRC983052 SHG983014:SHG983052 RXK983014:RXK983052 RNO983014:RNO983052 RDS983014:RDS983052 QTW983014:QTW983052 QKA983014:QKA983052 QAE983014:QAE983052 PQI983014:PQI983052 PGM983014:PGM983052 OWQ983014:OWQ983052 OMU983014:OMU983052 OCY983014:OCY983052 NTC983014:NTC983052 NJG983014:NJG983052 MZK983014:MZK983052 MPO983014:MPO983052 MFS983014:MFS983052 LVW983014:LVW983052 LMA983014:LMA983052 LCE983014:LCE983052 KSI983014:KSI983052 KIM983014:KIM983052 JYQ983014:JYQ983052 JOU983014:JOU983052 JEY983014:JEY983052 IVC983014:IVC983052 ILG983014:ILG983052 IBK983014:IBK983052 HRO983014:HRO983052 HHS983014:HHS983052 GXW983014:GXW983052 GOA983014:GOA983052 GEE983014:GEE983052 FUI983014:FUI983052 FKM983014:FKM983052 FAQ983014:FAQ983052 EQU983014:EQU983052 EGY983014:EGY983052 DXC983014:DXC983052 DNG983014:DNG983052 DDK983014:DDK983052 CTO983014:CTO983052 CJS983014:CJS983052 BZW983014:BZW983052 BQA983014:BQA983052 BGE983014:BGE983052 AWI983014:AWI983052 AMM983014:AMM983052 ACQ983014:ACQ983052 SU983014:SU983052 IY983014:IY983052 WVK917478:WVK917516 WLO917478:WLO917516 WBS917478:WBS917516 VRW917478:VRW917516 VIA917478:VIA917516 UYE917478:UYE917516 UOI917478:UOI917516 UEM917478:UEM917516 TUQ917478:TUQ917516 TKU917478:TKU917516 TAY917478:TAY917516 SRC917478:SRC917516 SHG917478:SHG917516 RXK917478:RXK917516 RNO917478:RNO917516 RDS917478:RDS917516 QTW917478:QTW917516 QKA917478:QKA917516 QAE917478:QAE917516 PQI917478:PQI917516 PGM917478:PGM917516 OWQ917478:OWQ917516 OMU917478:OMU917516 OCY917478:OCY917516 NTC917478:NTC917516 NJG917478:NJG917516 MZK917478:MZK917516 MPO917478:MPO917516 MFS917478:MFS917516 LVW917478:LVW917516 LMA917478:LMA917516 LCE917478:LCE917516 KSI917478:KSI917516 KIM917478:KIM917516 JYQ917478:JYQ917516 JOU917478:JOU917516 JEY917478:JEY917516 IVC917478:IVC917516 ILG917478:ILG917516 IBK917478:IBK917516 HRO917478:HRO917516 HHS917478:HHS917516 GXW917478:GXW917516 GOA917478:GOA917516 GEE917478:GEE917516 FUI917478:FUI917516 FKM917478:FKM917516 FAQ917478:FAQ917516 EQU917478:EQU917516 EGY917478:EGY917516 DXC917478:DXC917516 DNG917478:DNG917516 DDK917478:DDK917516 CTO917478:CTO917516 CJS917478:CJS917516 BZW917478:BZW917516 BQA917478:BQA917516 BGE917478:BGE917516 AWI917478:AWI917516 AMM917478:AMM917516 ACQ917478:ACQ917516 SU917478:SU917516 IY917478:IY917516 WVK851942:WVK851980 WLO851942:WLO851980 WBS851942:WBS851980 VRW851942:VRW851980 VIA851942:VIA851980 UYE851942:UYE851980 UOI851942:UOI851980 UEM851942:UEM851980 TUQ851942:TUQ851980 TKU851942:TKU851980 TAY851942:TAY851980 SRC851942:SRC851980 SHG851942:SHG851980 RXK851942:RXK851980 RNO851942:RNO851980 RDS851942:RDS851980 QTW851942:QTW851980 QKA851942:QKA851980 QAE851942:QAE851980 PQI851942:PQI851980 PGM851942:PGM851980 OWQ851942:OWQ851980 OMU851942:OMU851980 OCY851942:OCY851980 NTC851942:NTC851980 NJG851942:NJG851980 MZK851942:MZK851980 MPO851942:MPO851980 MFS851942:MFS851980 LVW851942:LVW851980 LMA851942:LMA851980 LCE851942:LCE851980 KSI851942:KSI851980 KIM851942:KIM851980 JYQ851942:JYQ851980 JOU851942:JOU851980 JEY851942:JEY851980 IVC851942:IVC851980 ILG851942:ILG851980 IBK851942:IBK851980 HRO851942:HRO851980 HHS851942:HHS851980 GXW851942:GXW851980 GOA851942:GOA851980 GEE851942:GEE851980 FUI851942:FUI851980 FKM851942:FKM851980 FAQ851942:FAQ851980 EQU851942:EQU851980 EGY851942:EGY851980 DXC851942:DXC851980 DNG851942:DNG851980 DDK851942:DDK851980 CTO851942:CTO851980 CJS851942:CJS851980 BZW851942:BZW851980 BQA851942:BQA851980 BGE851942:BGE851980 AWI851942:AWI851980 AMM851942:AMM851980 ACQ851942:ACQ851980 SU851942:SU851980 IY851942:IY851980 WVK786406:WVK786444 WLO786406:WLO786444 WBS786406:WBS786444 VRW786406:VRW786444 VIA786406:VIA786444 UYE786406:UYE786444 UOI786406:UOI786444 UEM786406:UEM786444 TUQ786406:TUQ786444 TKU786406:TKU786444 TAY786406:TAY786444 SRC786406:SRC786444 SHG786406:SHG786444 RXK786406:RXK786444 RNO786406:RNO786444 RDS786406:RDS786444 QTW786406:QTW786444 QKA786406:QKA786444 QAE786406:QAE786444 PQI786406:PQI786444 PGM786406:PGM786444 OWQ786406:OWQ786444 OMU786406:OMU786444 OCY786406:OCY786444 NTC786406:NTC786444 NJG786406:NJG786444 MZK786406:MZK786444 MPO786406:MPO786444 MFS786406:MFS786444 LVW786406:LVW786444 LMA786406:LMA786444 LCE786406:LCE786444 KSI786406:KSI786444 KIM786406:KIM786444 JYQ786406:JYQ786444 JOU786406:JOU786444 JEY786406:JEY786444 IVC786406:IVC786444 ILG786406:ILG786444 IBK786406:IBK786444 HRO786406:HRO786444 HHS786406:HHS786444 GXW786406:GXW786444 GOA786406:GOA786444 GEE786406:GEE786444 FUI786406:FUI786444 FKM786406:FKM786444 FAQ786406:FAQ786444 EQU786406:EQU786444 EGY786406:EGY786444 DXC786406:DXC786444 DNG786406:DNG786444 DDK786406:DDK786444 CTO786406:CTO786444 CJS786406:CJS786444 BZW786406:BZW786444 BQA786406:BQA786444 BGE786406:BGE786444 AWI786406:AWI786444 AMM786406:AMM786444 ACQ786406:ACQ786444 SU786406:SU786444 IY786406:IY786444 WVK720870:WVK720908 WLO720870:WLO720908 WBS720870:WBS720908 VRW720870:VRW720908 VIA720870:VIA720908 UYE720870:UYE720908 UOI720870:UOI720908 UEM720870:UEM720908 TUQ720870:TUQ720908 TKU720870:TKU720908 TAY720870:TAY720908 SRC720870:SRC720908 SHG720870:SHG720908 RXK720870:RXK720908 RNO720870:RNO720908 RDS720870:RDS720908 QTW720870:QTW720908 QKA720870:QKA720908 QAE720870:QAE720908 PQI720870:PQI720908 PGM720870:PGM720908 OWQ720870:OWQ720908 OMU720870:OMU720908 OCY720870:OCY720908 NTC720870:NTC720908 NJG720870:NJG720908 MZK720870:MZK720908 MPO720870:MPO720908 MFS720870:MFS720908 LVW720870:LVW720908 LMA720870:LMA720908 LCE720870:LCE720908 KSI720870:KSI720908 KIM720870:KIM720908 JYQ720870:JYQ720908 JOU720870:JOU720908 JEY720870:JEY720908 IVC720870:IVC720908 ILG720870:ILG720908 IBK720870:IBK720908 HRO720870:HRO720908 HHS720870:HHS720908 GXW720870:GXW720908 GOA720870:GOA720908 GEE720870:GEE720908 FUI720870:FUI720908 FKM720870:FKM720908 FAQ720870:FAQ720908 EQU720870:EQU720908 EGY720870:EGY720908 DXC720870:DXC720908 DNG720870:DNG720908 DDK720870:DDK720908 CTO720870:CTO720908 CJS720870:CJS720908 BZW720870:BZW720908 BQA720870:BQA720908 BGE720870:BGE720908 AWI720870:AWI720908 AMM720870:AMM720908 ACQ720870:ACQ720908 SU720870:SU720908 IY720870:IY720908 WVK655334:WVK655372 WLO655334:WLO655372 WBS655334:WBS655372 VRW655334:VRW655372 VIA655334:VIA655372 UYE655334:UYE655372 UOI655334:UOI655372 UEM655334:UEM655372 TUQ655334:TUQ655372 TKU655334:TKU655372 TAY655334:TAY655372 SRC655334:SRC655372 SHG655334:SHG655372 RXK655334:RXK655372 RNO655334:RNO655372 RDS655334:RDS655372 QTW655334:QTW655372 QKA655334:QKA655372 QAE655334:QAE655372 PQI655334:PQI655372 PGM655334:PGM655372 OWQ655334:OWQ655372 OMU655334:OMU655372 OCY655334:OCY655372 NTC655334:NTC655372 NJG655334:NJG655372 MZK655334:MZK655372 MPO655334:MPO655372 MFS655334:MFS655372 LVW655334:LVW655372 LMA655334:LMA655372 LCE655334:LCE655372 KSI655334:KSI655372 KIM655334:KIM655372 JYQ655334:JYQ655372 JOU655334:JOU655372 JEY655334:JEY655372 IVC655334:IVC655372 ILG655334:ILG655372 IBK655334:IBK655372 HRO655334:HRO655372 HHS655334:HHS655372 GXW655334:GXW655372 GOA655334:GOA655372 GEE655334:GEE655372 FUI655334:FUI655372 FKM655334:FKM655372 FAQ655334:FAQ655372 EQU655334:EQU655372 EGY655334:EGY655372 DXC655334:DXC655372 DNG655334:DNG655372 DDK655334:DDK655372 CTO655334:CTO655372 CJS655334:CJS655372 BZW655334:BZW655372 BQA655334:BQA655372 BGE655334:BGE655372 AWI655334:AWI655372 AMM655334:AMM655372 ACQ655334:ACQ655372 SU655334:SU655372 IY655334:IY655372 WVK589798:WVK589836 WLO589798:WLO589836 WBS589798:WBS589836 VRW589798:VRW589836 VIA589798:VIA589836 UYE589798:UYE589836 UOI589798:UOI589836 UEM589798:UEM589836 TUQ589798:TUQ589836 TKU589798:TKU589836 TAY589798:TAY589836 SRC589798:SRC589836 SHG589798:SHG589836 RXK589798:RXK589836 RNO589798:RNO589836 RDS589798:RDS589836 QTW589798:QTW589836 QKA589798:QKA589836 QAE589798:QAE589836 PQI589798:PQI589836 PGM589798:PGM589836 OWQ589798:OWQ589836 OMU589798:OMU589836 OCY589798:OCY589836 NTC589798:NTC589836 NJG589798:NJG589836 MZK589798:MZK589836 MPO589798:MPO589836 MFS589798:MFS589836 LVW589798:LVW589836 LMA589798:LMA589836 LCE589798:LCE589836 KSI589798:KSI589836 KIM589798:KIM589836 JYQ589798:JYQ589836 JOU589798:JOU589836 JEY589798:JEY589836 IVC589798:IVC589836 ILG589798:ILG589836 IBK589798:IBK589836 HRO589798:HRO589836 HHS589798:HHS589836 GXW589798:GXW589836 GOA589798:GOA589836 GEE589798:GEE589836 FUI589798:FUI589836 FKM589798:FKM589836 FAQ589798:FAQ589836 EQU589798:EQU589836 EGY589798:EGY589836 DXC589798:DXC589836 DNG589798:DNG589836 DDK589798:DDK589836 CTO589798:CTO589836 CJS589798:CJS589836 BZW589798:BZW589836 BQA589798:BQA589836 BGE589798:BGE589836 AWI589798:AWI589836 AMM589798:AMM589836 ACQ589798:ACQ589836 SU589798:SU589836 IY589798:IY589836 WVK524262:WVK524300 WLO524262:WLO524300 WBS524262:WBS524300 VRW524262:VRW524300 VIA524262:VIA524300 UYE524262:UYE524300 UOI524262:UOI524300 UEM524262:UEM524300 TUQ524262:TUQ524300 TKU524262:TKU524300 TAY524262:TAY524300 SRC524262:SRC524300 SHG524262:SHG524300 RXK524262:RXK524300 RNO524262:RNO524300 RDS524262:RDS524300 QTW524262:QTW524300 QKA524262:QKA524300 QAE524262:QAE524300 PQI524262:PQI524300 PGM524262:PGM524300 OWQ524262:OWQ524300 OMU524262:OMU524300 OCY524262:OCY524300 NTC524262:NTC524300 NJG524262:NJG524300 MZK524262:MZK524300 MPO524262:MPO524300 MFS524262:MFS524300 LVW524262:LVW524300 LMA524262:LMA524300 LCE524262:LCE524300 KSI524262:KSI524300 KIM524262:KIM524300 JYQ524262:JYQ524300 JOU524262:JOU524300 JEY524262:JEY524300 IVC524262:IVC524300 ILG524262:ILG524300 IBK524262:IBK524300 HRO524262:HRO524300 HHS524262:HHS524300 GXW524262:GXW524300 GOA524262:GOA524300 GEE524262:GEE524300 FUI524262:FUI524300 FKM524262:FKM524300 FAQ524262:FAQ524300 EQU524262:EQU524300 EGY524262:EGY524300 DXC524262:DXC524300 DNG524262:DNG524300 DDK524262:DDK524300 CTO524262:CTO524300 CJS524262:CJS524300 BZW524262:BZW524300 BQA524262:BQA524300 BGE524262:BGE524300 AWI524262:AWI524300 AMM524262:AMM524300 ACQ524262:ACQ524300 SU524262:SU524300 IY524262:IY524300 WVK458726:WVK458764 WLO458726:WLO458764 WBS458726:WBS458764 VRW458726:VRW458764 VIA458726:VIA458764 UYE458726:UYE458764 UOI458726:UOI458764 UEM458726:UEM458764 TUQ458726:TUQ458764 TKU458726:TKU458764 TAY458726:TAY458764 SRC458726:SRC458764 SHG458726:SHG458764 RXK458726:RXK458764 RNO458726:RNO458764 RDS458726:RDS458764 QTW458726:QTW458764 QKA458726:QKA458764 QAE458726:QAE458764 PQI458726:PQI458764 PGM458726:PGM458764 OWQ458726:OWQ458764 OMU458726:OMU458764 OCY458726:OCY458764 NTC458726:NTC458764 NJG458726:NJG458764 MZK458726:MZK458764 MPO458726:MPO458764 MFS458726:MFS458764 LVW458726:LVW458764 LMA458726:LMA458764 LCE458726:LCE458764 KSI458726:KSI458764 KIM458726:KIM458764 JYQ458726:JYQ458764 JOU458726:JOU458764 JEY458726:JEY458764 IVC458726:IVC458764 ILG458726:ILG458764 IBK458726:IBK458764 HRO458726:HRO458764 HHS458726:HHS458764 GXW458726:GXW458764 GOA458726:GOA458764 GEE458726:GEE458764 FUI458726:FUI458764 FKM458726:FKM458764 FAQ458726:FAQ458764 EQU458726:EQU458764 EGY458726:EGY458764 DXC458726:DXC458764 DNG458726:DNG458764 DDK458726:DDK458764 CTO458726:CTO458764 CJS458726:CJS458764 BZW458726:BZW458764 BQA458726:BQA458764 BGE458726:BGE458764 AWI458726:AWI458764 AMM458726:AMM458764 ACQ458726:ACQ458764 SU458726:SU458764 IY458726:IY458764 WVK393190:WVK393228 WLO393190:WLO393228 WBS393190:WBS393228 VRW393190:VRW393228 VIA393190:VIA393228 UYE393190:UYE393228 UOI393190:UOI393228 UEM393190:UEM393228 TUQ393190:TUQ393228 TKU393190:TKU393228 TAY393190:TAY393228 SRC393190:SRC393228 SHG393190:SHG393228 RXK393190:RXK393228 RNO393190:RNO393228 RDS393190:RDS393228 QTW393190:QTW393228 QKA393190:QKA393228 QAE393190:QAE393228 PQI393190:PQI393228 PGM393190:PGM393228 OWQ393190:OWQ393228 OMU393190:OMU393228 OCY393190:OCY393228 NTC393190:NTC393228 NJG393190:NJG393228 MZK393190:MZK393228 MPO393190:MPO393228 MFS393190:MFS393228 LVW393190:LVW393228 LMA393190:LMA393228 LCE393190:LCE393228 KSI393190:KSI393228 KIM393190:KIM393228 JYQ393190:JYQ393228 JOU393190:JOU393228 JEY393190:JEY393228 IVC393190:IVC393228 ILG393190:ILG393228 IBK393190:IBK393228 HRO393190:HRO393228 HHS393190:HHS393228 GXW393190:GXW393228 GOA393190:GOA393228 GEE393190:GEE393228 FUI393190:FUI393228 FKM393190:FKM393228 FAQ393190:FAQ393228 EQU393190:EQU393228 EGY393190:EGY393228 DXC393190:DXC393228 DNG393190:DNG393228 DDK393190:DDK393228 CTO393190:CTO393228 CJS393190:CJS393228 BZW393190:BZW393228 BQA393190:BQA393228 BGE393190:BGE393228 AWI393190:AWI393228 AMM393190:AMM393228 ACQ393190:ACQ393228 SU393190:SU393228 IY393190:IY393228 WVK327654:WVK327692 WLO327654:WLO327692 WBS327654:WBS327692 VRW327654:VRW327692 VIA327654:VIA327692 UYE327654:UYE327692 UOI327654:UOI327692 UEM327654:UEM327692 TUQ327654:TUQ327692 TKU327654:TKU327692 TAY327654:TAY327692 SRC327654:SRC327692 SHG327654:SHG327692 RXK327654:RXK327692 RNO327654:RNO327692 RDS327654:RDS327692 QTW327654:QTW327692 QKA327654:QKA327692 QAE327654:QAE327692 PQI327654:PQI327692 PGM327654:PGM327692 OWQ327654:OWQ327692 OMU327654:OMU327692 OCY327654:OCY327692 NTC327654:NTC327692 NJG327654:NJG327692 MZK327654:MZK327692 MPO327654:MPO327692 MFS327654:MFS327692 LVW327654:LVW327692 LMA327654:LMA327692 LCE327654:LCE327692 KSI327654:KSI327692 KIM327654:KIM327692 JYQ327654:JYQ327692 JOU327654:JOU327692 JEY327654:JEY327692 IVC327654:IVC327692 ILG327654:ILG327692 IBK327654:IBK327692 HRO327654:HRO327692 HHS327654:HHS327692 GXW327654:GXW327692 GOA327654:GOA327692 GEE327654:GEE327692 FUI327654:FUI327692 FKM327654:FKM327692 FAQ327654:FAQ327692 EQU327654:EQU327692 EGY327654:EGY327692 DXC327654:DXC327692 DNG327654:DNG327692 DDK327654:DDK327692 CTO327654:CTO327692 CJS327654:CJS327692 BZW327654:BZW327692 BQA327654:BQA327692 BGE327654:BGE327692 AWI327654:AWI327692 AMM327654:AMM327692 ACQ327654:ACQ327692 SU327654:SU327692 IY327654:IY327692 WVK262118:WVK262156 WLO262118:WLO262156 WBS262118:WBS262156 VRW262118:VRW262156 VIA262118:VIA262156 UYE262118:UYE262156 UOI262118:UOI262156 UEM262118:UEM262156 TUQ262118:TUQ262156 TKU262118:TKU262156 TAY262118:TAY262156 SRC262118:SRC262156 SHG262118:SHG262156 RXK262118:RXK262156 RNO262118:RNO262156 RDS262118:RDS262156 QTW262118:QTW262156 QKA262118:QKA262156 QAE262118:QAE262156 PQI262118:PQI262156 PGM262118:PGM262156 OWQ262118:OWQ262156 OMU262118:OMU262156 OCY262118:OCY262156 NTC262118:NTC262156 NJG262118:NJG262156 MZK262118:MZK262156 MPO262118:MPO262156 MFS262118:MFS262156 LVW262118:LVW262156 LMA262118:LMA262156 LCE262118:LCE262156 KSI262118:KSI262156 KIM262118:KIM262156 JYQ262118:JYQ262156 JOU262118:JOU262156 JEY262118:JEY262156 IVC262118:IVC262156 ILG262118:ILG262156 IBK262118:IBK262156 HRO262118:HRO262156 HHS262118:HHS262156 GXW262118:GXW262156 GOA262118:GOA262156 GEE262118:GEE262156 FUI262118:FUI262156 FKM262118:FKM262156 FAQ262118:FAQ262156 EQU262118:EQU262156 EGY262118:EGY262156 DXC262118:DXC262156 DNG262118:DNG262156 DDK262118:DDK262156 CTO262118:CTO262156 CJS262118:CJS262156 BZW262118:BZW262156 BQA262118:BQA262156 BGE262118:BGE262156 AWI262118:AWI262156 AMM262118:AMM262156 ACQ262118:ACQ262156 SU262118:SU262156 IY262118:IY262156 WVK196582:WVK196620 WLO196582:WLO196620 WBS196582:WBS196620 VRW196582:VRW196620 VIA196582:VIA196620 UYE196582:UYE196620 UOI196582:UOI196620 UEM196582:UEM196620 TUQ196582:TUQ196620 TKU196582:TKU196620 TAY196582:TAY196620 SRC196582:SRC196620 SHG196582:SHG196620 RXK196582:RXK196620 RNO196582:RNO196620 RDS196582:RDS196620 QTW196582:QTW196620 QKA196582:QKA196620 QAE196582:QAE196620 PQI196582:PQI196620 PGM196582:PGM196620 OWQ196582:OWQ196620 OMU196582:OMU196620 OCY196582:OCY196620 NTC196582:NTC196620 NJG196582:NJG196620 MZK196582:MZK196620 MPO196582:MPO196620 MFS196582:MFS196620 LVW196582:LVW196620 LMA196582:LMA196620 LCE196582:LCE196620 KSI196582:KSI196620 KIM196582:KIM196620 JYQ196582:JYQ196620 JOU196582:JOU196620 JEY196582:JEY196620 IVC196582:IVC196620 ILG196582:ILG196620 IBK196582:IBK196620 HRO196582:HRO196620 HHS196582:HHS196620 GXW196582:GXW196620 GOA196582:GOA196620 GEE196582:GEE196620 FUI196582:FUI196620 FKM196582:FKM196620 FAQ196582:FAQ196620 EQU196582:EQU196620 EGY196582:EGY196620 DXC196582:DXC196620 DNG196582:DNG196620 DDK196582:DDK196620 CTO196582:CTO196620 CJS196582:CJS196620 BZW196582:BZW196620 BQA196582:BQA196620 BGE196582:BGE196620 AWI196582:AWI196620 AMM196582:AMM196620 ACQ196582:ACQ196620 SU196582:SU196620 IY196582:IY196620 WVK131046:WVK131084 WLO131046:WLO131084 WBS131046:WBS131084 VRW131046:VRW131084 VIA131046:VIA131084 UYE131046:UYE131084 UOI131046:UOI131084 UEM131046:UEM131084 TUQ131046:TUQ131084 TKU131046:TKU131084 TAY131046:TAY131084 SRC131046:SRC131084 SHG131046:SHG131084 RXK131046:RXK131084 RNO131046:RNO131084 RDS131046:RDS131084 QTW131046:QTW131084 QKA131046:QKA131084 QAE131046:QAE131084 PQI131046:PQI131084 PGM131046:PGM131084 OWQ131046:OWQ131084 OMU131046:OMU131084 OCY131046:OCY131084 NTC131046:NTC131084 NJG131046:NJG131084 MZK131046:MZK131084 MPO131046:MPO131084 MFS131046:MFS131084 LVW131046:LVW131084 LMA131046:LMA131084 LCE131046:LCE131084 KSI131046:KSI131084 KIM131046:KIM131084 JYQ131046:JYQ131084 JOU131046:JOU131084 JEY131046:JEY131084 IVC131046:IVC131084 ILG131046:ILG131084 IBK131046:IBK131084 HRO131046:HRO131084 HHS131046:HHS131084 GXW131046:GXW131084 GOA131046:GOA131084 GEE131046:GEE131084 FUI131046:FUI131084 FKM131046:FKM131084 FAQ131046:FAQ131084 EQU131046:EQU131084 EGY131046:EGY131084 DXC131046:DXC131084 DNG131046:DNG131084 DDK131046:DDK131084 CTO131046:CTO131084 CJS131046:CJS131084 BZW131046:BZW131084 BQA131046:BQA131084 BGE131046:BGE131084 AWI131046:AWI131084 AMM131046:AMM131084 ACQ131046:ACQ131084 SU131046:SU131084 IY131046:IY131084 WVK65510:WVK65548 WLO65510:WLO65548 WBS65510:WBS65548 VRW65510:VRW65548 VIA65510:VIA65548 UYE65510:UYE65548 UOI65510:UOI65548 UEM65510:UEM65548 TUQ65510:TUQ65548 TKU65510:TKU65548 TAY65510:TAY65548 SRC65510:SRC65548 SHG65510:SHG65548 RXK65510:RXK65548 RNO65510:RNO65548 RDS65510:RDS65548 QTW65510:QTW65548 QKA65510:QKA65548 QAE65510:QAE65548 PQI65510:PQI65548 PGM65510:PGM65548 OWQ65510:OWQ65548 OMU65510:OMU65548 OCY65510:OCY65548 NTC65510:NTC65548 NJG65510:NJG65548 MZK65510:MZK65548 MPO65510:MPO65548 MFS65510:MFS65548 LVW65510:LVW65548 LMA65510:LMA65548 LCE65510:LCE65548 KSI65510:KSI65548 KIM65510:KIM65548 JYQ65510:JYQ65548 JOU65510:JOU65548 JEY65510:JEY65548 IVC65510:IVC65548 ILG65510:ILG65548 IBK65510:IBK65548 HRO65510:HRO65548 HHS65510:HHS65548 GXW65510:GXW65548 GOA65510:GOA65548 GEE65510:GEE65548 FUI65510:FUI65548 FKM65510:FKM65548 FAQ65510:FAQ65548 EQU65510:EQU65548 EGY65510:EGY65548 DXC65510:DXC65548 DNG65510:DNG65548 DDK65510:DDK65548 CTO65510:CTO65548 CJS65510:CJS65548 BZW65510:BZW65548 BQA65510:BQA65548 BGE65510:BGE65548 AWI65510:AWI65548 AMM65510:AMM65548 ACQ65510:ACQ65548 SU65510:SU65548 H4:H12 WVK4:WVK12 WLO4:WLO12 WBS4:WBS12 VRW4:VRW12 VIA4:VIA12 UYE4:UYE12 UOI4:UOI12 UEM4:UEM12 TUQ4:TUQ12 TKU4:TKU12 TAY4:TAY12 SRC4:SRC12 SHG4:SHG12 RXK4:RXK12 RNO4:RNO12 RDS4:RDS12 QTW4:QTW12 QKA4:QKA12 QAE4:QAE12 PQI4:PQI12 PGM4:PGM12 OWQ4:OWQ12 OMU4:OMU12 OCY4:OCY12 NTC4:NTC12 NJG4:NJG12 MZK4:MZK12 MPO4:MPO12 MFS4:MFS12 LVW4:LVW12 LMA4:LMA12 LCE4:LCE12 KSI4:KSI12 KIM4:KIM12 JYQ4:JYQ12 JOU4:JOU12 JEY4:JEY12 IVC4:IVC12 ILG4:ILG12 IBK4:IBK12 HRO4:HRO12 HHS4:HHS12 GXW4:GXW12 GOA4:GOA12 GEE4:GEE12 FUI4:FUI12 FKM4:FKM12 FAQ4:FAQ12 EQU4:EQU12 EGY4:EGY12 DXC4:DXC12 DNG4:DNG12 DDK4:DDK12 CTO4:CTO12 CJS4:CJS12 BZW4:BZW12 BQA4:BQA12 BGE4:BGE12 AWI4:AWI12 AMM4:AMM12 ACQ4:ACQ12 SU4:SU12 IY4:IY12">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" ref="A6:A22" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-    </row>
-    <row r="7" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="144" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="71">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="71">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="144" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="71">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="71">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="144" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-    </row>
-    <row r="18" spans="1:10" s="61" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A18" s="71">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="144" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="141"/>
-    </row>
-    <row r="19" spans="1:10" s="61" customFormat="1" ht="39" customHeight="1">
-      <c r="A19" s="71">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="144" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="141"/>
-    </row>
-    <row r="20" spans="1:10" s="61" customFormat="1" ht="42" customHeight="1">
-      <c r="A20" s="71">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="144" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="140" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="71">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="144" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="71">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="144" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="140" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="141"/>
-    </row>
-    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-    </row>
-    <row r="24" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="57"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65521:IY65559 H65521:H65559 H131057:H131095 H196593:H196631 H262129:H262167 H327665:H327703 H393201:H393239 H458737:H458775 H524273:H524311 H589809:H589847 H655345:H655383 H720881:H720919 H786417:H786455 H851953:H851991 H917489:H917527 H983025:H983063 SU65521:SU65559 WVK983025:WVK983063 WLO983025:WLO983063 WBS983025:WBS983063 VRW983025:VRW983063 VIA983025:VIA983063 UYE983025:UYE983063 UOI983025:UOI983063 UEM983025:UEM983063 TUQ983025:TUQ983063 TKU983025:TKU983063 TAY983025:TAY983063 SRC983025:SRC983063 SHG983025:SHG983063 RXK983025:RXK983063 RNO983025:RNO983063 RDS983025:RDS983063 QTW983025:QTW983063 QKA983025:QKA983063 QAE983025:QAE983063 PQI983025:PQI983063 PGM983025:PGM983063 OWQ983025:OWQ983063 OMU983025:OMU983063 OCY983025:OCY983063 NTC983025:NTC983063 NJG983025:NJG983063 MZK983025:MZK983063 MPO983025:MPO983063 MFS983025:MFS983063 LVW983025:LVW983063 LMA983025:LMA983063 LCE983025:LCE983063 KSI983025:KSI983063 KIM983025:KIM983063 JYQ983025:JYQ983063 JOU983025:JOU983063 JEY983025:JEY983063 IVC983025:IVC983063 ILG983025:ILG983063 IBK983025:IBK983063 HRO983025:HRO983063 HHS983025:HHS983063 GXW983025:GXW983063 GOA983025:GOA983063 GEE983025:GEE983063 FUI983025:FUI983063 FKM983025:FKM983063 FAQ983025:FAQ983063 EQU983025:EQU983063 EGY983025:EGY983063 DXC983025:DXC983063 DNG983025:DNG983063 DDK983025:DDK983063 CTO983025:CTO983063 CJS983025:CJS983063 BZW983025:BZW983063 BQA983025:BQA983063 BGE983025:BGE983063 AWI983025:AWI983063 AMM983025:AMM983063 ACQ983025:ACQ983063 SU983025:SU983063 IY983025:IY983063 WVK917489:WVK917527 WLO917489:WLO917527 WBS917489:WBS917527 VRW917489:VRW917527 VIA917489:VIA917527 UYE917489:UYE917527 UOI917489:UOI917527 UEM917489:UEM917527 TUQ917489:TUQ917527 TKU917489:TKU917527 TAY917489:TAY917527 SRC917489:SRC917527 SHG917489:SHG917527 RXK917489:RXK917527 RNO917489:RNO917527 RDS917489:RDS917527 QTW917489:QTW917527 QKA917489:QKA917527 QAE917489:QAE917527 PQI917489:PQI917527 PGM917489:PGM917527 OWQ917489:OWQ917527 OMU917489:OMU917527 OCY917489:OCY917527 NTC917489:NTC917527 NJG917489:NJG917527 MZK917489:MZK917527 MPO917489:MPO917527 MFS917489:MFS917527 LVW917489:LVW917527 LMA917489:LMA917527 LCE917489:LCE917527 KSI917489:KSI917527 KIM917489:KIM917527 JYQ917489:JYQ917527 JOU917489:JOU917527 JEY917489:JEY917527 IVC917489:IVC917527 ILG917489:ILG917527 IBK917489:IBK917527 HRO917489:HRO917527 HHS917489:HHS917527 GXW917489:GXW917527 GOA917489:GOA917527 GEE917489:GEE917527 FUI917489:FUI917527 FKM917489:FKM917527 FAQ917489:FAQ917527 EQU917489:EQU917527 EGY917489:EGY917527 DXC917489:DXC917527 DNG917489:DNG917527 DDK917489:DDK917527 CTO917489:CTO917527 CJS917489:CJS917527 BZW917489:BZW917527 BQA917489:BQA917527 BGE917489:BGE917527 AWI917489:AWI917527 AMM917489:AMM917527 ACQ917489:ACQ917527 SU917489:SU917527 IY917489:IY917527 WVK851953:WVK851991 WLO851953:WLO851991 WBS851953:WBS851991 VRW851953:VRW851991 VIA851953:VIA851991 UYE851953:UYE851991 UOI851953:UOI851991 UEM851953:UEM851991 TUQ851953:TUQ851991 TKU851953:TKU851991 TAY851953:TAY851991 SRC851953:SRC851991 SHG851953:SHG851991 RXK851953:RXK851991 RNO851953:RNO851991 RDS851953:RDS851991 QTW851953:QTW851991 QKA851953:QKA851991 QAE851953:QAE851991 PQI851953:PQI851991 PGM851953:PGM851991 OWQ851953:OWQ851991 OMU851953:OMU851991 OCY851953:OCY851991 NTC851953:NTC851991 NJG851953:NJG851991 MZK851953:MZK851991 MPO851953:MPO851991 MFS851953:MFS851991 LVW851953:LVW851991 LMA851953:LMA851991 LCE851953:LCE851991 KSI851953:KSI851991 KIM851953:KIM851991 JYQ851953:JYQ851991 JOU851953:JOU851991 JEY851953:JEY851991 IVC851953:IVC851991 ILG851953:ILG851991 IBK851953:IBK851991 HRO851953:HRO851991 HHS851953:HHS851991 GXW851953:GXW851991 GOA851953:GOA851991 GEE851953:GEE851991 FUI851953:FUI851991 FKM851953:FKM851991 FAQ851953:FAQ851991 EQU851953:EQU851991 EGY851953:EGY851991 DXC851953:DXC851991 DNG851953:DNG851991 DDK851953:DDK851991 CTO851953:CTO851991 CJS851953:CJS851991 BZW851953:BZW851991 BQA851953:BQA851991 BGE851953:BGE851991 AWI851953:AWI851991 AMM851953:AMM851991 ACQ851953:ACQ851991 SU851953:SU851991 IY851953:IY851991 WVK786417:WVK786455 WLO786417:WLO786455 WBS786417:WBS786455 VRW786417:VRW786455 VIA786417:VIA786455 UYE786417:UYE786455 UOI786417:UOI786455 UEM786417:UEM786455 TUQ786417:TUQ786455 TKU786417:TKU786455 TAY786417:TAY786455 SRC786417:SRC786455 SHG786417:SHG786455 RXK786417:RXK786455 RNO786417:RNO786455 RDS786417:RDS786455 QTW786417:QTW786455 QKA786417:QKA786455 QAE786417:QAE786455 PQI786417:PQI786455 PGM786417:PGM786455 OWQ786417:OWQ786455 OMU786417:OMU786455 OCY786417:OCY786455 NTC786417:NTC786455 NJG786417:NJG786455 MZK786417:MZK786455 MPO786417:MPO786455 MFS786417:MFS786455 LVW786417:LVW786455 LMA786417:LMA786455 LCE786417:LCE786455 KSI786417:KSI786455 KIM786417:KIM786455 JYQ786417:JYQ786455 JOU786417:JOU786455 JEY786417:JEY786455 IVC786417:IVC786455 ILG786417:ILG786455 IBK786417:IBK786455 HRO786417:HRO786455 HHS786417:HHS786455 GXW786417:GXW786455 GOA786417:GOA786455 GEE786417:GEE786455 FUI786417:FUI786455 FKM786417:FKM786455 FAQ786417:FAQ786455 EQU786417:EQU786455 EGY786417:EGY786455 DXC786417:DXC786455 DNG786417:DNG786455 DDK786417:DDK786455 CTO786417:CTO786455 CJS786417:CJS786455 BZW786417:BZW786455 BQA786417:BQA786455 BGE786417:BGE786455 AWI786417:AWI786455 AMM786417:AMM786455 ACQ786417:ACQ786455 SU786417:SU786455 IY786417:IY786455 WVK720881:WVK720919 WLO720881:WLO720919 WBS720881:WBS720919 VRW720881:VRW720919 VIA720881:VIA720919 UYE720881:UYE720919 UOI720881:UOI720919 UEM720881:UEM720919 TUQ720881:TUQ720919 TKU720881:TKU720919 TAY720881:TAY720919 SRC720881:SRC720919 SHG720881:SHG720919 RXK720881:RXK720919 RNO720881:RNO720919 RDS720881:RDS720919 QTW720881:QTW720919 QKA720881:QKA720919 QAE720881:QAE720919 PQI720881:PQI720919 PGM720881:PGM720919 OWQ720881:OWQ720919 OMU720881:OMU720919 OCY720881:OCY720919 NTC720881:NTC720919 NJG720881:NJG720919 MZK720881:MZK720919 MPO720881:MPO720919 MFS720881:MFS720919 LVW720881:LVW720919 LMA720881:LMA720919 LCE720881:LCE720919 KSI720881:KSI720919 KIM720881:KIM720919 JYQ720881:JYQ720919 JOU720881:JOU720919 JEY720881:JEY720919 IVC720881:IVC720919 ILG720881:ILG720919 IBK720881:IBK720919 HRO720881:HRO720919 HHS720881:HHS720919 GXW720881:GXW720919 GOA720881:GOA720919 GEE720881:GEE720919 FUI720881:FUI720919 FKM720881:FKM720919 FAQ720881:FAQ720919 EQU720881:EQU720919 EGY720881:EGY720919 DXC720881:DXC720919 DNG720881:DNG720919 DDK720881:DDK720919 CTO720881:CTO720919 CJS720881:CJS720919 BZW720881:BZW720919 BQA720881:BQA720919 BGE720881:BGE720919 AWI720881:AWI720919 AMM720881:AMM720919 ACQ720881:ACQ720919 SU720881:SU720919 IY720881:IY720919 WVK655345:WVK655383 WLO655345:WLO655383 WBS655345:WBS655383 VRW655345:VRW655383 VIA655345:VIA655383 UYE655345:UYE655383 UOI655345:UOI655383 UEM655345:UEM655383 TUQ655345:TUQ655383 TKU655345:TKU655383 TAY655345:TAY655383 SRC655345:SRC655383 SHG655345:SHG655383 RXK655345:RXK655383 RNO655345:RNO655383 RDS655345:RDS655383 QTW655345:QTW655383 QKA655345:QKA655383 QAE655345:QAE655383 PQI655345:PQI655383 PGM655345:PGM655383 OWQ655345:OWQ655383 OMU655345:OMU655383 OCY655345:OCY655383 NTC655345:NTC655383 NJG655345:NJG655383 MZK655345:MZK655383 MPO655345:MPO655383 MFS655345:MFS655383 LVW655345:LVW655383 LMA655345:LMA655383 LCE655345:LCE655383 KSI655345:KSI655383 KIM655345:KIM655383 JYQ655345:JYQ655383 JOU655345:JOU655383 JEY655345:JEY655383 IVC655345:IVC655383 ILG655345:ILG655383 IBK655345:IBK655383 HRO655345:HRO655383 HHS655345:HHS655383 GXW655345:GXW655383 GOA655345:GOA655383 GEE655345:GEE655383 FUI655345:FUI655383 FKM655345:FKM655383 FAQ655345:FAQ655383 EQU655345:EQU655383 EGY655345:EGY655383 DXC655345:DXC655383 DNG655345:DNG655383 DDK655345:DDK655383 CTO655345:CTO655383 CJS655345:CJS655383 BZW655345:BZW655383 BQA655345:BQA655383 BGE655345:BGE655383 AWI655345:AWI655383 AMM655345:AMM655383 ACQ655345:ACQ655383 SU655345:SU655383 IY655345:IY655383 WVK589809:WVK589847 WLO589809:WLO589847 WBS589809:WBS589847 VRW589809:VRW589847 VIA589809:VIA589847 UYE589809:UYE589847 UOI589809:UOI589847 UEM589809:UEM589847 TUQ589809:TUQ589847 TKU589809:TKU589847 TAY589809:TAY589847 SRC589809:SRC589847 SHG589809:SHG589847 RXK589809:RXK589847 RNO589809:RNO589847 RDS589809:RDS589847 QTW589809:QTW589847 QKA589809:QKA589847 QAE589809:QAE589847 PQI589809:PQI589847 PGM589809:PGM589847 OWQ589809:OWQ589847 OMU589809:OMU589847 OCY589809:OCY589847 NTC589809:NTC589847 NJG589809:NJG589847 MZK589809:MZK589847 MPO589809:MPO589847 MFS589809:MFS589847 LVW589809:LVW589847 LMA589809:LMA589847 LCE589809:LCE589847 KSI589809:KSI589847 KIM589809:KIM589847 JYQ589809:JYQ589847 JOU589809:JOU589847 JEY589809:JEY589847 IVC589809:IVC589847 ILG589809:ILG589847 IBK589809:IBK589847 HRO589809:HRO589847 HHS589809:HHS589847 GXW589809:GXW589847 GOA589809:GOA589847 GEE589809:GEE589847 FUI589809:FUI589847 FKM589809:FKM589847 FAQ589809:FAQ589847 EQU589809:EQU589847 EGY589809:EGY589847 DXC589809:DXC589847 DNG589809:DNG589847 DDK589809:DDK589847 CTO589809:CTO589847 CJS589809:CJS589847 BZW589809:BZW589847 BQA589809:BQA589847 BGE589809:BGE589847 AWI589809:AWI589847 AMM589809:AMM589847 ACQ589809:ACQ589847 SU589809:SU589847 IY589809:IY589847 WVK524273:WVK524311 WLO524273:WLO524311 WBS524273:WBS524311 VRW524273:VRW524311 VIA524273:VIA524311 UYE524273:UYE524311 UOI524273:UOI524311 UEM524273:UEM524311 TUQ524273:TUQ524311 TKU524273:TKU524311 TAY524273:TAY524311 SRC524273:SRC524311 SHG524273:SHG524311 RXK524273:RXK524311 RNO524273:RNO524311 RDS524273:RDS524311 QTW524273:QTW524311 QKA524273:QKA524311 QAE524273:QAE524311 PQI524273:PQI524311 PGM524273:PGM524311 OWQ524273:OWQ524311 OMU524273:OMU524311 OCY524273:OCY524311 NTC524273:NTC524311 NJG524273:NJG524311 MZK524273:MZK524311 MPO524273:MPO524311 MFS524273:MFS524311 LVW524273:LVW524311 LMA524273:LMA524311 LCE524273:LCE524311 KSI524273:KSI524311 KIM524273:KIM524311 JYQ524273:JYQ524311 JOU524273:JOU524311 JEY524273:JEY524311 IVC524273:IVC524311 ILG524273:ILG524311 IBK524273:IBK524311 HRO524273:HRO524311 HHS524273:HHS524311 GXW524273:GXW524311 GOA524273:GOA524311 GEE524273:GEE524311 FUI524273:FUI524311 FKM524273:FKM524311 FAQ524273:FAQ524311 EQU524273:EQU524311 EGY524273:EGY524311 DXC524273:DXC524311 DNG524273:DNG524311 DDK524273:DDK524311 CTO524273:CTO524311 CJS524273:CJS524311 BZW524273:BZW524311 BQA524273:BQA524311 BGE524273:BGE524311 AWI524273:AWI524311 AMM524273:AMM524311 ACQ524273:ACQ524311 SU524273:SU524311 IY524273:IY524311 WVK458737:WVK458775 WLO458737:WLO458775 WBS458737:WBS458775 VRW458737:VRW458775 VIA458737:VIA458775 UYE458737:UYE458775 UOI458737:UOI458775 UEM458737:UEM458775 TUQ458737:TUQ458775 TKU458737:TKU458775 TAY458737:TAY458775 SRC458737:SRC458775 SHG458737:SHG458775 RXK458737:RXK458775 RNO458737:RNO458775 RDS458737:RDS458775 QTW458737:QTW458775 QKA458737:QKA458775 QAE458737:QAE458775 PQI458737:PQI458775 PGM458737:PGM458775 OWQ458737:OWQ458775 OMU458737:OMU458775 OCY458737:OCY458775 NTC458737:NTC458775 NJG458737:NJG458775 MZK458737:MZK458775 MPO458737:MPO458775 MFS458737:MFS458775 LVW458737:LVW458775 LMA458737:LMA458775 LCE458737:LCE458775 KSI458737:KSI458775 KIM458737:KIM458775 JYQ458737:JYQ458775 JOU458737:JOU458775 JEY458737:JEY458775 IVC458737:IVC458775 ILG458737:ILG458775 IBK458737:IBK458775 HRO458737:HRO458775 HHS458737:HHS458775 GXW458737:GXW458775 GOA458737:GOA458775 GEE458737:GEE458775 FUI458737:FUI458775 FKM458737:FKM458775 FAQ458737:FAQ458775 EQU458737:EQU458775 EGY458737:EGY458775 DXC458737:DXC458775 DNG458737:DNG458775 DDK458737:DDK458775 CTO458737:CTO458775 CJS458737:CJS458775 BZW458737:BZW458775 BQA458737:BQA458775 BGE458737:BGE458775 AWI458737:AWI458775 AMM458737:AMM458775 ACQ458737:ACQ458775 SU458737:SU458775 IY458737:IY458775 WVK393201:WVK393239 WLO393201:WLO393239 WBS393201:WBS393239 VRW393201:VRW393239 VIA393201:VIA393239 UYE393201:UYE393239 UOI393201:UOI393239 UEM393201:UEM393239 TUQ393201:TUQ393239 TKU393201:TKU393239 TAY393201:TAY393239 SRC393201:SRC393239 SHG393201:SHG393239 RXK393201:RXK393239 RNO393201:RNO393239 RDS393201:RDS393239 QTW393201:QTW393239 QKA393201:QKA393239 QAE393201:QAE393239 PQI393201:PQI393239 PGM393201:PGM393239 OWQ393201:OWQ393239 OMU393201:OMU393239 OCY393201:OCY393239 NTC393201:NTC393239 NJG393201:NJG393239 MZK393201:MZK393239 MPO393201:MPO393239 MFS393201:MFS393239 LVW393201:LVW393239 LMA393201:LMA393239 LCE393201:LCE393239 KSI393201:KSI393239 KIM393201:KIM393239 JYQ393201:JYQ393239 JOU393201:JOU393239 JEY393201:JEY393239 IVC393201:IVC393239 ILG393201:ILG393239 IBK393201:IBK393239 HRO393201:HRO393239 HHS393201:HHS393239 GXW393201:GXW393239 GOA393201:GOA393239 GEE393201:GEE393239 FUI393201:FUI393239 FKM393201:FKM393239 FAQ393201:FAQ393239 EQU393201:EQU393239 EGY393201:EGY393239 DXC393201:DXC393239 DNG393201:DNG393239 DDK393201:DDK393239 CTO393201:CTO393239 CJS393201:CJS393239 BZW393201:BZW393239 BQA393201:BQA393239 BGE393201:BGE393239 AWI393201:AWI393239 AMM393201:AMM393239 ACQ393201:ACQ393239 SU393201:SU393239 IY393201:IY393239 WVK327665:WVK327703 WLO327665:WLO327703 WBS327665:WBS327703 VRW327665:VRW327703 VIA327665:VIA327703 UYE327665:UYE327703 UOI327665:UOI327703 UEM327665:UEM327703 TUQ327665:TUQ327703 TKU327665:TKU327703 TAY327665:TAY327703 SRC327665:SRC327703 SHG327665:SHG327703 RXK327665:RXK327703 RNO327665:RNO327703 RDS327665:RDS327703 QTW327665:QTW327703 QKA327665:QKA327703 QAE327665:QAE327703 PQI327665:PQI327703 PGM327665:PGM327703 OWQ327665:OWQ327703 OMU327665:OMU327703 OCY327665:OCY327703 NTC327665:NTC327703 NJG327665:NJG327703 MZK327665:MZK327703 MPO327665:MPO327703 MFS327665:MFS327703 LVW327665:LVW327703 LMA327665:LMA327703 LCE327665:LCE327703 KSI327665:KSI327703 KIM327665:KIM327703 JYQ327665:JYQ327703 JOU327665:JOU327703 JEY327665:JEY327703 IVC327665:IVC327703 ILG327665:ILG327703 IBK327665:IBK327703 HRO327665:HRO327703 HHS327665:HHS327703 GXW327665:GXW327703 GOA327665:GOA327703 GEE327665:GEE327703 FUI327665:FUI327703 FKM327665:FKM327703 FAQ327665:FAQ327703 EQU327665:EQU327703 EGY327665:EGY327703 DXC327665:DXC327703 DNG327665:DNG327703 DDK327665:DDK327703 CTO327665:CTO327703 CJS327665:CJS327703 BZW327665:BZW327703 BQA327665:BQA327703 BGE327665:BGE327703 AWI327665:AWI327703 AMM327665:AMM327703 ACQ327665:ACQ327703 SU327665:SU327703 IY327665:IY327703 WVK262129:WVK262167 WLO262129:WLO262167 WBS262129:WBS262167 VRW262129:VRW262167 VIA262129:VIA262167 UYE262129:UYE262167 UOI262129:UOI262167 UEM262129:UEM262167 TUQ262129:TUQ262167 TKU262129:TKU262167 TAY262129:TAY262167 SRC262129:SRC262167 SHG262129:SHG262167 RXK262129:RXK262167 RNO262129:RNO262167 RDS262129:RDS262167 QTW262129:QTW262167 QKA262129:QKA262167 QAE262129:QAE262167 PQI262129:PQI262167 PGM262129:PGM262167 OWQ262129:OWQ262167 OMU262129:OMU262167 OCY262129:OCY262167 NTC262129:NTC262167 NJG262129:NJG262167 MZK262129:MZK262167 MPO262129:MPO262167 MFS262129:MFS262167 LVW262129:LVW262167 LMA262129:LMA262167 LCE262129:LCE262167 KSI262129:KSI262167 KIM262129:KIM262167 JYQ262129:JYQ262167 JOU262129:JOU262167 JEY262129:JEY262167 IVC262129:IVC262167 ILG262129:ILG262167 IBK262129:IBK262167 HRO262129:HRO262167 HHS262129:HHS262167 GXW262129:GXW262167 GOA262129:GOA262167 GEE262129:GEE262167 FUI262129:FUI262167 FKM262129:FKM262167 FAQ262129:FAQ262167 EQU262129:EQU262167 EGY262129:EGY262167 DXC262129:DXC262167 DNG262129:DNG262167 DDK262129:DDK262167 CTO262129:CTO262167 CJS262129:CJS262167 BZW262129:BZW262167 BQA262129:BQA262167 BGE262129:BGE262167 AWI262129:AWI262167 AMM262129:AMM262167 ACQ262129:ACQ262167 SU262129:SU262167 IY262129:IY262167 WVK196593:WVK196631 WLO196593:WLO196631 WBS196593:WBS196631 VRW196593:VRW196631 VIA196593:VIA196631 UYE196593:UYE196631 UOI196593:UOI196631 UEM196593:UEM196631 TUQ196593:TUQ196631 TKU196593:TKU196631 TAY196593:TAY196631 SRC196593:SRC196631 SHG196593:SHG196631 RXK196593:RXK196631 RNO196593:RNO196631 RDS196593:RDS196631 QTW196593:QTW196631 QKA196593:QKA196631 QAE196593:QAE196631 PQI196593:PQI196631 PGM196593:PGM196631 OWQ196593:OWQ196631 OMU196593:OMU196631 OCY196593:OCY196631 NTC196593:NTC196631 NJG196593:NJG196631 MZK196593:MZK196631 MPO196593:MPO196631 MFS196593:MFS196631 LVW196593:LVW196631 LMA196593:LMA196631 LCE196593:LCE196631 KSI196593:KSI196631 KIM196593:KIM196631 JYQ196593:JYQ196631 JOU196593:JOU196631 JEY196593:JEY196631 IVC196593:IVC196631 ILG196593:ILG196631 IBK196593:IBK196631 HRO196593:HRO196631 HHS196593:HHS196631 GXW196593:GXW196631 GOA196593:GOA196631 GEE196593:GEE196631 FUI196593:FUI196631 FKM196593:FKM196631 FAQ196593:FAQ196631 EQU196593:EQU196631 EGY196593:EGY196631 DXC196593:DXC196631 DNG196593:DNG196631 DDK196593:DDK196631 CTO196593:CTO196631 CJS196593:CJS196631 BZW196593:BZW196631 BQA196593:BQA196631 BGE196593:BGE196631 AWI196593:AWI196631 AMM196593:AMM196631 ACQ196593:ACQ196631 SU196593:SU196631 IY196593:IY196631 WVK131057:WVK131095 WLO131057:WLO131095 WBS131057:WBS131095 VRW131057:VRW131095 VIA131057:VIA131095 UYE131057:UYE131095 UOI131057:UOI131095 UEM131057:UEM131095 TUQ131057:TUQ131095 TKU131057:TKU131095 TAY131057:TAY131095 SRC131057:SRC131095 SHG131057:SHG131095 RXK131057:RXK131095 RNO131057:RNO131095 RDS131057:RDS131095 QTW131057:QTW131095 QKA131057:QKA131095 QAE131057:QAE131095 PQI131057:PQI131095 PGM131057:PGM131095 OWQ131057:OWQ131095 OMU131057:OMU131095 OCY131057:OCY131095 NTC131057:NTC131095 NJG131057:NJG131095 MZK131057:MZK131095 MPO131057:MPO131095 MFS131057:MFS131095 LVW131057:LVW131095 LMA131057:LMA131095 LCE131057:LCE131095 KSI131057:KSI131095 KIM131057:KIM131095 JYQ131057:JYQ131095 JOU131057:JOU131095 JEY131057:JEY131095 IVC131057:IVC131095 ILG131057:ILG131095 IBK131057:IBK131095 HRO131057:HRO131095 HHS131057:HHS131095 GXW131057:GXW131095 GOA131057:GOA131095 GEE131057:GEE131095 FUI131057:FUI131095 FKM131057:FKM131095 FAQ131057:FAQ131095 EQU131057:EQU131095 EGY131057:EGY131095 DXC131057:DXC131095 DNG131057:DNG131095 DDK131057:DDK131095 CTO131057:CTO131095 CJS131057:CJS131095 BZW131057:BZW131095 BQA131057:BQA131095 BGE131057:BGE131095 AWI131057:AWI131095 AMM131057:AMM131095 ACQ131057:ACQ131095 SU131057:SU131095 IY131057:IY131095 WVK65521:WVK65559 WLO65521:WLO65559 WBS65521:WBS65559 VRW65521:VRW65559 VIA65521:VIA65559 UYE65521:UYE65559 UOI65521:UOI65559 UEM65521:UEM65559 TUQ65521:TUQ65559 TKU65521:TKU65559 TAY65521:TAY65559 SRC65521:SRC65559 SHG65521:SHG65559 RXK65521:RXK65559 RNO65521:RNO65559 RDS65521:RDS65559 QTW65521:QTW65559 QKA65521:QKA65559 QAE65521:QAE65559 PQI65521:PQI65559 PGM65521:PGM65559 OWQ65521:OWQ65559 OMU65521:OMU65559 OCY65521:OCY65559 NTC65521:NTC65559 NJG65521:NJG65559 MZK65521:MZK65559 MPO65521:MPO65559 MFS65521:MFS65559 LVW65521:LVW65559 LMA65521:LMA65559 LCE65521:LCE65559 KSI65521:KSI65559 KIM65521:KIM65559 JYQ65521:JYQ65559 JOU65521:JOU65559 JEY65521:JEY65559 IVC65521:IVC65559 ILG65521:ILG65559 IBK65521:IBK65559 HRO65521:HRO65559 HHS65521:HHS65559 GXW65521:GXW65559 GOA65521:GOA65559 GEE65521:GEE65559 FUI65521:FUI65559 FKM65521:FKM65559 FAQ65521:FAQ65559 EQU65521:EQU65559 EGY65521:EGY65559 DXC65521:DXC65559 DNG65521:DNG65559 DDK65521:DDK65559 CTO65521:CTO65559 CJS65521:CJS65559 BZW65521:BZW65559 BQA65521:BQA65559 BGE65521:BGE65559 AWI65521:AWI65559 AMM65521:AMM65559 ACQ65521:ACQ65559 H5:H23 IY5:IY23 SU5:SU23 ACQ5:ACQ23 AMM5:AMM23 AWI5:AWI23 BGE5:BGE23 BQA5:BQA23 BZW5:BZW23 CJS5:CJS23 CTO5:CTO23 DDK5:DDK23 DNG5:DNG23 DXC5:DXC23 EGY5:EGY23 EQU5:EQU23 FAQ5:FAQ23 FKM5:FKM23 FUI5:FUI23 GEE5:GEE23 GOA5:GOA23 GXW5:GXW23 HHS5:HHS23 HRO5:HRO23 IBK5:IBK23 ILG5:ILG23 IVC5:IVC23 JEY5:JEY23 JOU5:JOU23 JYQ5:JYQ23 KIM5:KIM23 KSI5:KSI23 LCE5:LCE23 LMA5:LMA23 LVW5:LVW23 MFS5:MFS23 MPO5:MPO23 MZK5:MZK23 NJG5:NJG23 NTC5:NTC23 OCY5:OCY23 OMU5:OMU23 OWQ5:OWQ23 PGM5:PGM23 PQI5:PQI23 QAE5:QAE23 QKA5:QKA23 QTW5:QTW23 RDS5:RDS23 RNO5:RNO23 RXK5:RXK23 SHG5:SHG23 SRC5:SRC23 TAY5:TAY23 TKU5:TKU23 TUQ5:TUQ23 UEM5:UEM23 UOI5:UOI23 UYE5:UYE23 VIA5:VIA23 VRW5:VRW23 WBS5:WBS23 WLO5:WLO23 WVK5:WVK23">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="148" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="149"/>
-    </row>
-    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" ref="A6:A13" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="144" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:10" s="74" customFormat="1" ht="42" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="141"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="140" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="69">
-        <v>10</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="140" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="69">
-        <v>11</v>
-      </c>
-      <c r="B15" s="144" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-    </row>
-    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="57"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 IY65515:IY65553 H983019:H983057 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 IY5:IY17 SU5:SU17 ACQ5:ACQ17 AMM5:AMM17 AWI5:AWI17 BGE5:BGE17 BQA5:BQA17 BZW5:BZW17 CJS5:CJS17 CTO5:CTO17 DDK5:DDK17 DNG5:DNG17 DXC5:DXC17 EGY5:EGY17 EQU5:EQU17 FAQ5:FAQ17 FKM5:FKM17 FUI5:FUI17 GEE5:GEE17 GOA5:GOA17 GXW5:GXW17 HHS5:HHS17 HRO5:HRO17 IBK5:IBK17 ILG5:ILG17 IVC5:IVC17 JEY5:JEY17 JOU5:JOU17 JYQ5:JYQ17 KIM5:KIM17 KSI5:KSI17 LCE5:LCE17 LMA5:LMA17 LVW5:LVW17 MFS5:MFS17 MPO5:MPO17 MZK5:MZK17 NJG5:NJG17 NTC5:NTC17 OCY5:OCY17 OMU5:OMU17 OWQ5:OWQ17 PGM5:PGM17 PQI5:PQI17 QAE5:QAE17 QKA5:QKA17 QTW5:QTW17 RDS5:RDS17 RNO5:RNO17 RXK5:RXK17 SHG5:SHG17 SRC5:SRC17 TAY5:TAY17 TKU5:TKU17 TUQ5:TUQ17 UEM5:UEM17 UOI5:UOI17 UYE5:UYE17 VIA5:VIA17 VRW5:VRW17 WBS5:WBS17 WLO5:WLO17 WVK5:WVK17 H5:H17">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="135"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71">
-        <f>ROW()-4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="149"/>
-    </row>
-    <row r="5" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="71">
-        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="144" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141"/>
-    </row>
-    <row r="6" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="144" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="140" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" s="74" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="140" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="69">
-        <v>10</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="58"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="57"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65512:IY65550 SU65512:SU65550 ACQ65512:ACQ65550 AMM65512:AMM65550 AWI65512:AWI65550 BGE65512:BGE65550 BQA65512:BQA65550 BZW65512:BZW65550 CJS65512:CJS65550 CTO65512:CTO65550 DDK65512:DDK65550 DNG65512:DNG65550 DXC65512:DXC65550 EGY65512:EGY65550 EQU65512:EQU65550 FAQ65512:FAQ65550 FKM65512:FKM65550 FUI65512:FUI65550 GEE65512:GEE65550 GOA65512:GOA65550 GXW65512:GXW65550 HHS65512:HHS65550 HRO65512:HRO65550 IBK65512:IBK65550 ILG65512:ILG65550 IVC65512:IVC65550 JEY65512:JEY65550 JOU65512:JOU65550 JYQ65512:JYQ65550 KIM65512:KIM65550 KSI65512:KSI65550 LCE65512:LCE65550 LMA65512:LMA65550 LVW65512:LVW65550 MFS65512:MFS65550 MPO65512:MPO65550 MZK65512:MZK65550 NJG65512:NJG65550 NTC65512:NTC65550 OCY65512:OCY65550 OMU65512:OMU65550 OWQ65512:OWQ65550 PGM65512:PGM65550 PQI65512:PQI65550 QAE65512:QAE65550 QKA65512:QKA65550 QTW65512:QTW65550 RDS65512:RDS65550 RNO65512:RNO65550 RXK65512:RXK65550 SHG65512:SHG65550 SRC65512:SRC65550 TAY65512:TAY65550 TKU65512:TKU65550 TUQ65512:TUQ65550 UEM65512:UEM65550 UOI65512:UOI65550 UYE65512:UYE65550 VIA65512:VIA65550 VRW65512:VRW65550 WBS65512:WBS65550 WLO65512:WLO65550 WVK65512:WVK65550 IY131048:IY131086 SU131048:SU131086 ACQ131048:ACQ131086 AMM131048:AMM131086 AWI131048:AWI131086 BGE131048:BGE131086 BQA131048:BQA131086 BZW131048:BZW131086 CJS131048:CJS131086 CTO131048:CTO131086 DDK131048:DDK131086 DNG131048:DNG131086 DXC131048:DXC131086 EGY131048:EGY131086 EQU131048:EQU131086 FAQ131048:FAQ131086 FKM131048:FKM131086 FUI131048:FUI131086 GEE131048:GEE131086 GOA131048:GOA131086 GXW131048:GXW131086 HHS131048:HHS131086 HRO131048:HRO131086 IBK131048:IBK131086 ILG131048:ILG131086 IVC131048:IVC131086 JEY131048:JEY131086 JOU131048:JOU131086 JYQ131048:JYQ131086 KIM131048:KIM131086 KSI131048:KSI131086 LCE131048:LCE131086 LMA131048:LMA131086 LVW131048:LVW131086 MFS131048:MFS131086 MPO131048:MPO131086 MZK131048:MZK131086 NJG131048:NJG131086 NTC131048:NTC131086 OCY131048:OCY131086 OMU131048:OMU131086 OWQ131048:OWQ131086 PGM131048:PGM131086 PQI131048:PQI131086 QAE131048:QAE131086 QKA131048:QKA131086 QTW131048:QTW131086 RDS131048:RDS131086 RNO131048:RNO131086 RXK131048:RXK131086 SHG131048:SHG131086 SRC131048:SRC131086 TAY131048:TAY131086 TKU131048:TKU131086 TUQ131048:TUQ131086 UEM131048:UEM131086 UOI131048:UOI131086 UYE131048:UYE131086 VIA131048:VIA131086 VRW131048:VRW131086 WBS131048:WBS131086 WLO131048:WLO131086 WVK131048:WVK131086 IY196584:IY196622 SU196584:SU196622 ACQ196584:ACQ196622 AMM196584:AMM196622 AWI196584:AWI196622 BGE196584:BGE196622 BQA196584:BQA196622 BZW196584:BZW196622 CJS196584:CJS196622 CTO196584:CTO196622 DDK196584:DDK196622 DNG196584:DNG196622 DXC196584:DXC196622 EGY196584:EGY196622 EQU196584:EQU196622 FAQ196584:FAQ196622 FKM196584:FKM196622 FUI196584:FUI196622 GEE196584:GEE196622 GOA196584:GOA196622 GXW196584:GXW196622 HHS196584:HHS196622 HRO196584:HRO196622 IBK196584:IBK196622 ILG196584:ILG196622 IVC196584:IVC196622 JEY196584:JEY196622 JOU196584:JOU196622 JYQ196584:JYQ196622 KIM196584:KIM196622 KSI196584:KSI196622 LCE196584:LCE196622 LMA196584:LMA196622 LVW196584:LVW196622 MFS196584:MFS196622 MPO196584:MPO196622 MZK196584:MZK196622 NJG196584:NJG196622 NTC196584:NTC196622 OCY196584:OCY196622 OMU196584:OMU196622 OWQ196584:OWQ196622 PGM196584:PGM196622 PQI196584:PQI196622 QAE196584:QAE196622 QKA196584:QKA196622 QTW196584:QTW196622 RDS196584:RDS196622 RNO196584:RNO196622 RXK196584:RXK196622 SHG196584:SHG196622 SRC196584:SRC196622 TAY196584:TAY196622 TKU196584:TKU196622 TUQ196584:TUQ196622 UEM196584:UEM196622 UOI196584:UOI196622 UYE196584:UYE196622 VIA196584:VIA196622 VRW196584:VRW196622 WBS196584:WBS196622 WLO196584:WLO196622 WVK196584:WVK196622 IY262120:IY262158 SU262120:SU262158 ACQ262120:ACQ262158 AMM262120:AMM262158 AWI262120:AWI262158 BGE262120:BGE262158 BQA262120:BQA262158 BZW262120:BZW262158 CJS262120:CJS262158 CTO262120:CTO262158 DDK262120:DDK262158 DNG262120:DNG262158 DXC262120:DXC262158 EGY262120:EGY262158 EQU262120:EQU262158 FAQ262120:FAQ262158 FKM262120:FKM262158 FUI262120:FUI262158 GEE262120:GEE262158 GOA262120:GOA262158 GXW262120:GXW262158 HHS262120:HHS262158 HRO262120:HRO262158 IBK262120:IBK262158 ILG262120:ILG262158 IVC262120:IVC262158 JEY262120:JEY262158 JOU262120:JOU262158 JYQ262120:JYQ262158 KIM262120:KIM262158 KSI262120:KSI262158 LCE262120:LCE262158 LMA262120:LMA262158 LVW262120:LVW262158 MFS262120:MFS262158 MPO262120:MPO262158 MZK262120:MZK262158 NJG262120:NJG262158 NTC262120:NTC262158 OCY262120:OCY262158 OMU262120:OMU262158 OWQ262120:OWQ262158 PGM262120:PGM262158 PQI262120:PQI262158 QAE262120:QAE262158 QKA262120:QKA262158 QTW262120:QTW262158 RDS262120:RDS262158 RNO262120:RNO262158 RXK262120:RXK262158 SHG262120:SHG262158 SRC262120:SRC262158 TAY262120:TAY262158 TKU262120:TKU262158 TUQ262120:TUQ262158 UEM262120:UEM262158 UOI262120:UOI262158 UYE262120:UYE262158 VIA262120:VIA262158 VRW262120:VRW262158 WBS262120:WBS262158 WLO262120:WLO262158 WVK262120:WVK262158 IY327656:IY327694 SU327656:SU327694 ACQ327656:ACQ327694 AMM327656:AMM327694 AWI327656:AWI327694 BGE327656:BGE327694 BQA327656:BQA327694 BZW327656:BZW327694 CJS327656:CJS327694 CTO327656:CTO327694 DDK327656:DDK327694 DNG327656:DNG327694 DXC327656:DXC327694 EGY327656:EGY327694 EQU327656:EQU327694 FAQ327656:FAQ327694 FKM327656:FKM327694 FUI327656:FUI327694 GEE327656:GEE327694 GOA327656:GOA327694 GXW327656:GXW327694 HHS327656:HHS327694 HRO327656:HRO327694 IBK327656:IBK327694 ILG327656:ILG327694 IVC327656:IVC327694 JEY327656:JEY327694 JOU327656:JOU327694 JYQ327656:JYQ327694 KIM327656:KIM327694 KSI327656:KSI327694 LCE327656:LCE327694 LMA327656:LMA327694 LVW327656:LVW327694 MFS327656:MFS327694 MPO327656:MPO327694 MZK327656:MZK327694 NJG327656:NJG327694 NTC327656:NTC327694 OCY327656:OCY327694 OMU327656:OMU327694 OWQ327656:OWQ327694 PGM327656:PGM327694 PQI327656:PQI327694 QAE327656:QAE327694 QKA327656:QKA327694 QTW327656:QTW327694 RDS327656:RDS327694 RNO327656:RNO327694 RXK327656:RXK327694 SHG327656:SHG327694 SRC327656:SRC327694 TAY327656:TAY327694 TKU327656:TKU327694 TUQ327656:TUQ327694 UEM327656:UEM327694 UOI327656:UOI327694 UYE327656:UYE327694 VIA327656:VIA327694 VRW327656:VRW327694 WBS327656:WBS327694 WLO327656:WLO327694 WVK327656:WVK327694 IY393192:IY393230 SU393192:SU393230 ACQ393192:ACQ393230 AMM393192:AMM393230 AWI393192:AWI393230 BGE393192:BGE393230 BQA393192:BQA393230 BZW393192:BZW393230 CJS393192:CJS393230 CTO393192:CTO393230 DDK393192:DDK393230 DNG393192:DNG393230 DXC393192:DXC393230 EGY393192:EGY393230 EQU393192:EQU393230 FAQ393192:FAQ393230 FKM393192:FKM393230 FUI393192:FUI393230 GEE393192:GEE393230 GOA393192:GOA393230 GXW393192:GXW393230 HHS393192:HHS393230 HRO393192:HRO393230 IBK393192:IBK393230 ILG393192:ILG393230 IVC393192:IVC393230 JEY393192:JEY393230 JOU393192:JOU393230 JYQ393192:JYQ393230 KIM393192:KIM393230 KSI393192:KSI393230 LCE393192:LCE393230 LMA393192:LMA393230 LVW393192:LVW393230 MFS393192:MFS393230 MPO393192:MPO393230 MZK393192:MZK393230 NJG393192:NJG393230 NTC393192:NTC393230 OCY393192:OCY393230 OMU393192:OMU393230 OWQ393192:OWQ393230 PGM393192:PGM393230 PQI393192:PQI393230 QAE393192:QAE393230 QKA393192:QKA393230 QTW393192:QTW393230 RDS393192:RDS393230 RNO393192:RNO393230 RXK393192:RXK393230 SHG393192:SHG393230 SRC393192:SRC393230 TAY393192:TAY393230 TKU393192:TKU393230 TUQ393192:TUQ393230 UEM393192:UEM393230 UOI393192:UOI393230 UYE393192:UYE393230 VIA393192:VIA393230 VRW393192:VRW393230 WBS393192:WBS393230 WLO393192:WLO393230 WVK393192:WVK393230 IY458728:IY458766 SU458728:SU458766 ACQ458728:ACQ458766 AMM458728:AMM458766 AWI458728:AWI458766 BGE458728:BGE458766 BQA458728:BQA458766 BZW458728:BZW458766 CJS458728:CJS458766 CTO458728:CTO458766 DDK458728:DDK458766 DNG458728:DNG458766 DXC458728:DXC458766 EGY458728:EGY458766 EQU458728:EQU458766 FAQ458728:FAQ458766 FKM458728:FKM458766 FUI458728:FUI458766 GEE458728:GEE458766 GOA458728:GOA458766 GXW458728:GXW458766 HHS458728:HHS458766 HRO458728:HRO458766 IBK458728:IBK458766 ILG458728:ILG458766 IVC458728:IVC458766 JEY458728:JEY458766 JOU458728:JOU458766 JYQ458728:JYQ458766 KIM458728:KIM458766 KSI458728:KSI458766 LCE458728:LCE458766 LMA458728:LMA458766 LVW458728:LVW458766 MFS458728:MFS458766 MPO458728:MPO458766 MZK458728:MZK458766 NJG458728:NJG458766 NTC458728:NTC458766 OCY458728:OCY458766 OMU458728:OMU458766 OWQ458728:OWQ458766 PGM458728:PGM458766 PQI458728:PQI458766 QAE458728:QAE458766 QKA458728:QKA458766 QTW458728:QTW458766 RDS458728:RDS458766 RNO458728:RNO458766 RXK458728:RXK458766 SHG458728:SHG458766 SRC458728:SRC458766 TAY458728:TAY458766 TKU458728:TKU458766 TUQ458728:TUQ458766 UEM458728:UEM458766 UOI458728:UOI458766 UYE458728:UYE458766 VIA458728:VIA458766 VRW458728:VRW458766 WBS458728:WBS458766 WLO458728:WLO458766 WVK458728:WVK458766 IY524264:IY524302 SU524264:SU524302 ACQ524264:ACQ524302 AMM524264:AMM524302 AWI524264:AWI524302 BGE524264:BGE524302 BQA524264:BQA524302 BZW524264:BZW524302 CJS524264:CJS524302 CTO524264:CTO524302 DDK524264:DDK524302 DNG524264:DNG524302 DXC524264:DXC524302 EGY524264:EGY524302 EQU524264:EQU524302 FAQ524264:FAQ524302 FKM524264:FKM524302 FUI524264:FUI524302 GEE524264:GEE524302 GOA524264:GOA524302 GXW524264:GXW524302 HHS524264:HHS524302 HRO524264:HRO524302 IBK524264:IBK524302 ILG524264:ILG524302 IVC524264:IVC524302 JEY524264:JEY524302 JOU524264:JOU524302 JYQ524264:JYQ524302 KIM524264:KIM524302 KSI524264:KSI524302 LCE524264:LCE524302 LMA524264:LMA524302 LVW524264:LVW524302 MFS524264:MFS524302 MPO524264:MPO524302 MZK524264:MZK524302 NJG524264:NJG524302 NTC524264:NTC524302 OCY524264:OCY524302 OMU524264:OMU524302 OWQ524264:OWQ524302 PGM524264:PGM524302 PQI524264:PQI524302 QAE524264:QAE524302 QKA524264:QKA524302 QTW524264:QTW524302 RDS524264:RDS524302 RNO524264:RNO524302 RXK524264:RXK524302 SHG524264:SHG524302 SRC524264:SRC524302 TAY524264:TAY524302 TKU524264:TKU524302 TUQ524264:TUQ524302 UEM524264:UEM524302 UOI524264:UOI524302 UYE524264:UYE524302 VIA524264:VIA524302 VRW524264:VRW524302 WBS524264:WBS524302 WLO524264:WLO524302 WVK524264:WVK524302 IY589800:IY589838 SU589800:SU589838 ACQ589800:ACQ589838 AMM589800:AMM589838 AWI589800:AWI589838 BGE589800:BGE589838 BQA589800:BQA589838 BZW589800:BZW589838 CJS589800:CJS589838 CTO589800:CTO589838 DDK589800:DDK589838 DNG589800:DNG589838 DXC589800:DXC589838 EGY589800:EGY589838 EQU589800:EQU589838 FAQ589800:FAQ589838 FKM589800:FKM589838 FUI589800:FUI589838 GEE589800:GEE589838 GOA589800:GOA589838 GXW589800:GXW589838 HHS589800:HHS589838 HRO589800:HRO589838 IBK589800:IBK589838 ILG589800:ILG589838 IVC589800:IVC589838 JEY589800:JEY589838 JOU589800:JOU589838 JYQ589800:JYQ589838 KIM589800:KIM589838 KSI589800:KSI589838 LCE589800:LCE589838 LMA589800:LMA589838 LVW589800:LVW589838 MFS589800:MFS589838 MPO589800:MPO589838 MZK589800:MZK589838 NJG589800:NJG589838 NTC589800:NTC589838 OCY589800:OCY589838 OMU589800:OMU589838 OWQ589800:OWQ589838 PGM589800:PGM589838 PQI589800:PQI589838 QAE589800:QAE589838 QKA589800:QKA589838 QTW589800:QTW589838 RDS589800:RDS589838 RNO589800:RNO589838 RXK589800:RXK589838 SHG589800:SHG589838 SRC589800:SRC589838 TAY589800:TAY589838 TKU589800:TKU589838 TUQ589800:TUQ589838 UEM589800:UEM589838 UOI589800:UOI589838 UYE589800:UYE589838 VIA589800:VIA589838 VRW589800:VRW589838 WBS589800:WBS589838 WLO589800:WLO589838 WVK589800:WVK589838 IY655336:IY655374 SU655336:SU655374 ACQ655336:ACQ655374 AMM655336:AMM655374 AWI655336:AWI655374 BGE655336:BGE655374 BQA655336:BQA655374 BZW655336:BZW655374 CJS655336:CJS655374 CTO655336:CTO655374 DDK655336:DDK655374 DNG655336:DNG655374 DXC655336:DXC655374 EGY655336:EGY655374 EQU655336:EQU655374 FAQ655336:FAQ655374 FKM655336:FKM655374 FUI655336:FUI655374 GEE655336:GEE655374 GOA655336:GOA655374 GXW655336:GXW655374 HHS655336:HHS655374 HRO655336:HRO655374 IBK655336:IBK655374 ILG655336:ILG655374 IVC655336:IVC655374 JEY655336:JEY655374 JOU655336:JOU655374 JYQ655336:JYQ655374 KIM655336:KIM655374 KSI655336:KSI655374 LCE655336:LCE655374 LMA655336:LMA655374 LVW655336:LVW655374 MFS655336:MFS655374 MPO655336:MPO655374 MZK655336:MZK655374 NJG655336:NJG655374 NTC655336:NTC655374 OCY655336:OCY655374 OMU655336:OMU655374 OWQ655336:OWQ655374 PGM655336:PGM655374 PQI655336:PQI655374 QAE655336:QAE655374 QKA655336:QKA655374 QTW655336:QTW655374 RDS655336:RDS655374 RNO655336:RNO655374 RXK655336:RXK655374 SHG655336:SHG655374 SRC655336:SRC655374 TAY655336:TAY655374 TKU655336:TKU655374 TUQ655336:TUQ655374 UEM655336:UEM655374 UOI655336:UOI655374 UYE655336:UYE655374 VIA655336:VIA655374 VRW655336:VRW655374 WBS655336:WBS655374 WLO655336:WLO655374 WVK655336:WVK655374 IY720872:IY720910 SU720872:SU720910 ACQ720872:ACQ720910 AMM720872:AMM720910 AWI720872:AWI720910 BGE720872:BGE720910 BQA720872:BQA720910 BZW720872:BZW720910 CJS720872:CJS720910 CTO720872:CTO720910 DDK720872:DDK720910 DNG720872:DNG720910 DXC720872:DXC720910 EGY720872:EGY720910 EQU720872:EQU720910 FAQ720872:FAQ720910 FKM720872:FKM720910 FUI720872:FUI720910 GEE720872:GEE720910 GOA720872:GOA720910 GXW720872:GXW720910 HHS720872:HHS720910 HRO720872:HRO720910 IBK720872:IBK720910 ILG720872:ILG720910 IVC720872:IVC720910 JEY720872:JEY720910 JOU720872:JOU720910 JYQ720872:JYQ720910 KIM720872:KIM720910 KSI720872:KSI720910 LCE720872:LCE720910 LMA720872:LMA720910 LVW720872:LVW720910 MFS720872:MFS720910 MPO720872:MPO720910 MZK720872:MZK720910 NJG720872:NJG720910 NTC720872:NTC720910 OCY720872:OCY720910 OMU720872:OMU720910 OWQ720872:OWQ720910 PGM720872:PGM720910 PQI720872:PQI720910 QAE720872:QAE720910 QKA720872:QKA720910 QTW720872:QTW720910 RDS720872:RDS720910 RNO720872:RNO720910 RXK720872:RXK720910 SHG720872:SHG720910 SRC720872:SRC720910 TAY720872:TAY720910 TKU720872:TKU720910 TUQ720872:TUQ720910 UEM720872:UEM720910 UOI720872:UOI720910 UYE720872:UYE720910 VIA720872:VIA720910 VRW720872:VRW720910 WBS720872:WBS720910 WLO720872:WLO720910 WVK720872:WVK720910 IY786408:IY786446 SU786408:SU786446 ACQ786408:ACQ786446 AMM786408:AMM786446 AWI786408:AWI786446 BGE786408:BGE786446 BQA786408:BQA786446 BZW786408:BZW786446 CJS786408:CJS786446 CTO786408:CTO786446 DDK786408:DDK786446 DNG786408:DNG786446 DXC786408:DXC786446 EGY786408:EGY786446 EQU786408:EQU786446 FAQ786408:FAQ786446 FKM786408:FKM786446 FUI786408:FUI786446 GEE786408:GEE786446 GOA786408:GOA786446 GXW786408:GXW786446 HHS786408:HHS786446 HRO786408:HRO786446 IBK786408:IBK786446 ILG786408:ILG786446 IVC786408:IVC786446 JEY786408:JEY786446 JOU786408:JOU786446 JYQ786408:JYQ786446 KIM786408:KIM786446 KSI786408:KSI786446 LCE786408:LCE786446 LMA786408:LMA786446 LVW786408:LVW786446 MFS786408:MFS786446 MPO786408:MPO786446 MZK786408:MZK786446 NJG786408:NJG786446 NTC786408:NTC786446 OCY786408:OCY786446 OMU786408:OMU786446 OWQ786408:OWQ786446 PGM786408:PGM786446 PQI786408:PQI786446 QAE786408:QAE786446 QKA786408:QKA786446 QTW786408:QTW786446 RDS786408:RDS786446 RNO786408:RNO786446 RXK786408:RXK786446 SHG786408:SHG786446 SRC786408:SRC786446 TAY786408:TAY786446 TKU786408:TKU786446 TUQ786408:TUQ786446 UEM786408:UEM786446 UOI786408:UOI786446 UYE786408:UYE786446 VIA786408:VIA786446 VRW786408:VRW786446 WBS786408:WBS786446 WLO786408:WLO786446 WVK786408:WVK786446 IY851944:IY851982 SU851944:SU851982 ACQ851944:ACQ851982 AMM851944:AMM851982 AWI851944:AWI851982 BGE851944:BGE851982 BQA851944:BQA851982 BZW851944:BZW851982 CJS851944:CJS851982 CTO851944:CTO851982 DDK851944:DDK851982 DNG851944:DNG851982 DXC851944:DXC851982 EGY851944:EGY851982 EQU851944:EQU851982 FAQ851944:FAQ851982 FKM851944:FKM851982 FUI851944:FUI851982 GEE851944:GEE851982 GOA851944:GOA851982 GXW851944:GXW851982 HHS851944:HHS851982 HRO851944:HRO851982 IBK851944:IBK851982 ILG851944:ILG851982 IVC851944:IVC851982 JEY851944:JEY851982 JOU851944:JOU851982 JYQ851944:JYQ851982 KIM851944:KIM851982 KSI851944:KSI851982 LCE851944:LCE851982 LMA851944:LMA851982 LVW851944:LVW851982 MFS851944:MFS851982 MPO851944:MPO851982 MZK851944:MZK851982 NJG851944:NJG851982 NTC851944:NTC851982 OCY851944:OCY851982 OMU851944:OMU851982 OWQ851944:OWQ851982 PGM851944:PGM851982 PQI851944:PQI851982 QAE851944:QAE851982 QKA851944:QKA851982 QTW851944:QTW851982 RDS851944:RDS851982 RNO851944:RNO851982 RXK851944:RXK851982 SHG851944:SHG851982 SRC851944:SRC851982 TAY851944:TAY851982 TKU851944:TKU851982 TUQ851944:TUQ851982 UEM851944:UEM851982 UOI851944:UOI851982 UYE851944:UYE851982 VIA851944:VIA851982 VRW851944:VRW851982 WBS851944:WBS851982 WLO851944:WLO851982 WVK851944:WVK851982 IY917480:IY917518 SU917480:SU917518 ACQ917480:ACQ917518 AMM917480:AMM917518 AWI917480:AWI917518 BGE917480:BGE917518 BQA917480:BQA917518 BZW917480:BZW917518 CJS917480:CJS917518 CTO917480:CTO917518 DDK917480:DDK917518 DNG917480:DNG917518 DXC917480:DXC917518 EGY917480:EGY917518 EQU917480:EQU917518 FAQ917480:FAQ917518 FKM917480:FKM917518 FUI917480:FUI917518 GEE917480:GEE917518 GOA917480:GOA917518 GXW917480:GXW917518 HHS917480:HHS917518 HRO917480:HRO917518 IBK917480:IBK917518 ILG917480:ILG917518 IVC917480:IVC917518 JEY917480:JEY917518 JOU917480:JOU917518 JYQ917480:JYQ917518 KIM917480:KIM917518 KSI917480:KSI917518 LCE917480:LCE917518 LMA917480:LMA917518 LVW917480:LVW917518 MFS917480:MFS917518 MPO917480:MPO917518 MZK917480:MZK917518 NJG917480:NJG917518 NTC917480:NTC917518 OCY917480:OCY917518 OMU917480:OMU917518 OWQ917480:OWQ917518 PGM917480:PGM917518 PQI917480:PQI917518 QAE917480:QAE917518 QKA917480:QKA917518 QTW917480:QTW917518 RDS917480:RDS917518 RNO917480:RNO917518 RXK917480:RXK917518 SHG917480:SHG917518 SRC917480:SRC917518 TAY917480:TAY917518 TKU917480:TKU917518 TUQ917480:TUQ917518 UEM917480:UEM917518 UOI917480:UOI917518 UYE917480:UYE917518 VIA917480:VIA917518 VRW917480:VRW917518 WBS917480:WBS917518 WLO917480:WLO917518 WVK917480:WVK917518 IY983016:IY983054 SU983016:SU983054 ACQ983016:ACQ983054 AMM983016:AMM983054 AWI983016:AWI983054 BGE983016:BGE983054 BQA983016:BQA983054 BZW983016:BZW983054 CJS983016:CJS983054 CTO983016:CTO983054 DDK983016:DDK983054 DNG983016:DNG983054 DXC983016:DXC983054 EGY983016:EGY983054 EQU983016:EQU983054 FAQ983016:FAQ983054 FKM983016:FKM983054 FUI983016:FUI983054 GEE983016:GEE983054 GOA983016:GOA983054 GXW983016:GXW983054 HHS983016:HHS983054 HRO983016:HRO983054 IBK983016:IBK983054 ILG983016:ILG983054 IVC983016:IVC983054 JEY983016:JEY983054 JOU983016:JOU983054 JYQ983016:JYQ983054 KIM983016:KIM983054 KSI983016:KSI983054 LCE983016:LCE983054 LMA983016:LMA983054 LVW983016:LVW983054 MFS983016:MFS983054 MPO983016:MPO983054 MZK983016:MZK983054 NJG983016:NJG983054 NTC983016:NTC983054 OCY983016:OCY983054 OMU983016:OMU983054 OWQ983016:OWQ983054 PGM983016:PGM983054 PQI983016:PQI983054 QAE983016:QAE983054 QKA983016:QKA983054 QTW983016:QTW983054 RDS983016:RDS983054 RNO983016:RNO983054 RXK983016:RXK983054 SHG983016:SHG983054 SRC983016:SRC983054 TAY983016:TAY983054 TKU983016:TKU983054 TUQ983016:TUQ983054 UEM983016:UEM983054 UOI983016:UOI983054 UYE983016:UYE983054 VIA983016:VIA983054 VRW983016:VRW983054 WBS983016:WBS983054 WLO983016:WLO983054 WVK983016:WVK983054 H983016:H983054 H917480:H917518 H851944:H851982 H786408:H786446 H720872:H720910 H655336:H655374 H589800:H589838 H524264:H524302 H458728:H458766 H393192:H393230 H327656:H327694 H262120:H262158 H196584:H196622 H131048:H131086 H65512:H65550 H4:H14 IY4:IY14 SU4:SU14 ACQ4:ACQ14 AMM4:AMM14 AWI4:AWI14 BGE4:BGE14 BQA4:BQA14 BZW4:BZW14 CJS4:CJS14 CTO4:CTO14 DDK4:DDK14 DNG4:DNG14 DXC4:DXC14 EGY4:EGY14 EQU4:EQU14 FAQ4:FAQ14 FKM4:FKM14 FUI4:FUI14 GEE4:GEE14 GOA4:GOA14 GXW4:GXW14 HHS4:HHS14 HRO4:HRO14 IBK4:IBK14 ILG4:ILG14 IVC4:IVC14 JEY4:JEY14 JOU4:JOU14 JYQ4:JYQ14 KIM4:KIM14 KSI4:KSI14 LCE4:LCE14 LMA4:LMA14 LVW4:LVW14 MFS4:MFS14 MPO4:MPO14 MZK4:MZK14 NJG4:NJG14 NTC4:NTC14 OCY4:OCY14 OMU4:OMU14 OWQ4:OWQ14 PGM4:PGM14 PQI4:PQI14 QAE4:QAE14 QKA4:QKA14 QTW4:QTW14 RDS4:RDS14 RNO4:RNO14 RXK4:RXK14 SHG4:SHG14 SRC4:SRC14 TAY4:TAY14 TKU4:TKU14 TUQ4:TUQ14 UEM4:UEM14 UOI4:UOI14 UYE4:UYE14 VIA4:VIA14 VRW4:VRW14 WBS4:WBS14 WLO4:WLO14 WVK4:WVK14">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="71">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-    </row>
-    <row r="7" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-    </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="57"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65509:H65547 H131045:H131083 H196581:H196619 H262117:H262155 H327653:H327691 H393189:H393227 H458725:H458763 H524261:H524299 H589797:H589835 H655333:H655371 H720869:H720907 H786405:H786443 H851941:H851979 H917477:H917515 H983013:H983051 WVK983013:WVK983051 WLO983013:WLO983051 WBS983013:WBS983051 VRW983013:VRW983051 VIA983013:VIA983051 UYE983013:UYE983051 UOI983013:UOI983051 UEM983013:UEM983051 TUQ983013:TUQ983051 TKU983013:TKU983051 TAY983013:TAY983051 SRC983013:SRC983051 SHG983013:SHG983051 RXK983013:RXK983051 RNO983013:RNO983051 RDS983013:RDS983051 QTW983013:QTW983051 QKA983013:QKA983051 QAE983013:QAE983051 PQI983013:PQI983051 PGM983013:PGM983051 OWQ983013:OWQ983051 OMU983013:OMU983051 OCY983013:OCY983051 NTC983013:NTC983051 NJG983013:NJG983051 MZK983013:MZK983051 MPO983013:MPO983051 MFS983013:MFS983051 LVW983013:LVW983051 LMA983013:LMA983051 LCE983013:LCE983051 KSI983013:KSI983051 KIM983013:KIM983051 JYQ983013:JYQ983051 JOU983013:JOU983051 JEY983013:JEY983051 IVC983013:IVC983051 ILG983013:ILG983051 IBK983013:IBK983051 HRO983013:HRO983051 HHS983013:HHS983051 GXW983013:GXW983051 GOA983013:GOA983051 GEE983013:GEE983051 FUI983013:FUI983051 FKM983013:FKM983051 FAQ983013:FAQ983051 EQU983013:EQU983051 EGY983013:EGY983051 DXC983013:DXC983051 DNG983013:DNG983051 DDK983013:DDK983051 CTO983013:CTO983051 CJS983013:CJS983051 BZW983013:BZW983051 BQA983013:BQA983051 BGE983013:BGE983051 AWI983013:AWI983051 AMM983013:AMM983051 ACQ983013:ACQ983051 SU983013:SU983051 IY983013:IY983051 WVK917477:WVK917515 WLO917477:WLO917515 WBS917477:WBS917515 VRW917477:VRW917515 VIA917477:VIA917515 UYE917477:UYE917515 UOI917477:UOI917515 UEM917477:UEM917515 TUQ917477:TUQ917515 TKU917477:TKU917515 TAY917477:TAY917515 SRC917477:SRC917515 SHG917477:SHG917515 RXK917477:RXK917515 RNO917477:RNO917515 RDS917477:RDS917515 QTW917477:QTW917515 QKA917477:QKA917515 QAE917477:QAE917515 PQI917477:PQI917515 PGM917477:PGM917515 OWQ917477:OWQ917515 OMU917477:OMU917515 OCY917477:OCY917515 NTC917477:NTC917515 NJG917477:NJG917515 MZK917477:MZK917515 MPO917477:MPO917515 MFS917477:MFS917515 LVW917477:LVW917515 LMA917477:LMA917515 LCE917477:LCE917515 KSI917477:KSI917515 KIM917477:KIM917515 JYQ917477:JYQ917515 JOU917477:JOU917515 JEY917477:JEY917515 IVC917477:IVC917515 ILG917477:ILG917515 IBK917477:IBK917515 HRO917477:HRO917515 HHS917477:HHS917515 GXW917477:GXW917515 GOA917477:GOA917515 GEE917477:GEE917515 FUI917477:FUI917515 FKM917477:FKM917515 FAQ917477:FAQ917515 EQU917477:EQU917515 EGY917477:EGY917515 DXC917477:DXC917515 DNG917477:DNG917515 DDK917477:DDK917515 CTO917477:CTO917515 CJS917477:CJS917515 BZW917477:BZW917515 BQA917477:BQA917515 BGE917477:BGE917515 AWI917477:AWI917515 AMM917477:AMM917515 ACQ917477:ACQ917515 SU917477:SU917515 IY917477:IY917515 WVK851941:WVK851979 WLO851941:WLO851979 WBS851941:WBS851979 VRW851941:VRW851979 VIA851941:VIA851979 UYE851941:UYE851979 UOI851941:UOI851979 UEM851941:UEM851979 TUQ851941:TUQ851979 TKU851941:TKU851979 TAY851941:TAY851979 SRC851941:SRC851979 SHG851941:SHG851979 RXK851941:RXK851979 RNO851941:RNO851979 RDS851941:RDS851979 QTW851941:QTW851979 QKA851941:QKA851979 QAE851941:QAE851979 PQI851941:PQI851979 PGM851941:PGM851979 OWQ851941:OWQ851979 OMU851941:OMU851979 OCY851941:OCY851979 NTC851941:NTC851979 NJG851941:NJG851979 MZK851941:MZK851979 MPO851941:MPO851979 MFS851941:MFS851979 LVW851941:LVW851979 LMA851941:LMA851979 LCE851941:LCE851979 KSI851941:KSI851979 KIM851941:KIM851979 JYQ851941:JYQ851979 JOU851941:JOU851979 JEY851941:JEY851979 IVC851941:IVC851979 ILG851941:ILG851979 IBK851941:IBK851979 HRO851941:HRO851979 HHS851941:HHS851979 GXW851941:GXW851979 GOA851941:GOA851979 GEE851941:GEE851979 FUI851941:FUI851979 FKM851941:FKM851979 FAQ851941:FAQ851979 EQU851941:EQU851979 EGY851941:EGY851979 DXC851941:DXC851979 DNG851941:DNG851979 DDK851941:DDK851979 CTO851941:CTO851979 CJS851941:CJS851979 BZW851941:BZW851979 BQA851941:BQA851979 BGE851941:BGE851979 AWI851941:AWI851979 AMM851941:AMM851979 ACQ851941:ACQ851979 SU851941:SU851979 IY851941:IY851979 WVK786405:WVK786443 WLO786405:WLO786443 WBS786405:WBS786443 VRW786405:VRW786443 VIA786405:VIA786443 UYE786405:UYE786443 UOI786405:UOI786443 UEM786405:UEM786443 TUQ786405:TUQ786443 TKU786405:TKU786443 TAY786405:TAY786443 SRC786405:SRC786443 SHG786405:SHG786443 RXK786405:RXK786443 RNO786405:RNO786443 RDS786405:RDS786443 QTW786405:QTW786443 QKA786405:QKA786443 QAE786405:QAE786443 PQI786405:PQI786443 PGM786405:PGM786443 OWQ786405:OWQ786443 OMU786405:OMU786443 OCY786405:OCY786443 NTC786405:NTC786443 NJG786405:NJG786443 MZK786405:MZK786443 MPO786405:MPO786443 MFS786405:MFS786443 LVW786405:LVW786443 LMA786405:LMA786443 LCE786405:LCE786443 KSI786405:KSI786443 KIM786405:KIM786443 JYQ786405:JYQ786443 JOU786405:JOU786443 JEY786405:JEY786443 IVC786405:IVC786443 ILG786405:ILG786443 IBK786405:IBK786443 HRO786405:HRO786443 HHS786405:HHS786443 GXW786405:GXW786443 GOA786405:GOA786443 GEE786405:GEE786443 FUI786405:FUI786443 FKM786405:FKM786443 FAQ786405:FAQ786443 EQU786405:EQU786443 EGY786405:EGY786443 DXC786405:DXC786443 DNG786405:DNG786443 DDK786405:DDK786443 CTO786405:CTO786443 CJS786405:CJS786443 BZW786405:BZW786443 BQA786405:BQA786443 BGE786405:BGE786443 AWI786405:AWI786443 AMM786405:AMM786443 ACQ786405:ACQ786443 SU786405:SU786443 IY786405:IY786443 WVK720869:WVK720907 WLO720869:WLO720907 WBS720869:WBS720907 VRW720869:VRW720907 VIA720869:VIA720907 UYE720869:UYE720907 UOI720869:UOI720907 UEM720869:UEM720907 TUQ720869:TUQ720907 TKU720869:TKU720907 TAY720869:TAY720907 SRC720869:SRC720907 SHG720869:SHG720907 RXK720869:RXK720907 RNO720869:RNO720907 RDS720869:RDS720907 QTW720869:QTW720907 QKA720869:QKA720907 QAE720869:QAE720907 PQI720869:PQI720907 PGM720869:PGM720907 OWQ720869:OWQ720907 OMU720869:OMU720907 OCY720869:OCY720907 NTC720869:NTC720907 NJG720869:NJG720907 MZK720869:MZK720907 MPO720869:MPO720907 MFS720869:MFS720907 LVW720869:LVW720907 LMA720869:LMA720907 LCE720869:LCE720907 KSI720869:KSI720907 KIM720869:KIM720907 JYQ720869:JYQ720907 JOU720869:JOU720907 JEY720869:JEY720907 IVC720869:IVC720907 ILG720869:ILG720907 IBK720869:IBK720907 HRO720869:HRO720907 HHS720869:HHS720907 GXW720869:GXW720907 GOA720869:GOA720907 GEE720869:GEE720907 FUI720869:FUI720907 FKM720869:FKM720907 FAQ720869:FAQ720907 EQU720869:EQU720907 EGY720869:EGY720907 DXC720869:DXC720907 DNG720869:DNG720907 DDK720869:DDK720907 CTO720869:CTO720907 CJS720869:CJS720907 BZW720869:BZW720907 BQA720869:BQA720907 BGE720869:BGE720907 AWI720869:AWI720907 AMM720869:AMM720907 ACQ720869:ACQ720907 SU720869:SU720907 IY720869:IY720907 WVK655333:WVK655371 WLO655333:WLO655371 WBS655333:WBS655371 VRW655333:VRW655371 VIA655333:VIA655371 UYE655333:UYE655371 UOI655333:UOI655371 UEM655333:UEM655371 TUQ655333:TUQ655371 TKU655333:TKU655371 TAY655333:TAY655371 SRC655333:SRC655371 SHG655333:SHG655371 RXK655333:RXK655371 RNO655333:RNO655371 RDS655333:RDS655371 QTW655333:QTW655371 QKA655333:QKA655371 QAE655333:QAE655371 PQI655333:PQI655371 PGM655333:PGM655371 OWQ655333:OWQ655371 OMU655333:OMU655371 OCY655333:OCY655371 NTC655333:NTC655371 NJG655333:NJG655371 MZK655333:MZK655371 MPO655333:MPO655371 MFS655333:MFS655371 LVW655333:LVW655371 LMA655333:LMA655371 LCE655333:LCE655371 KSI655333:KSI655371 KIM655333:KIM655371 JYQ655333:JYQ655371 JOU655333:JOU655371 JEY655333:JEY655371 IVC655333:IVC655371 ILG655333:ILG655371 IBK655333:IBK655371 HRO655333:HRO655371 HHS655333:HHS655371 GXW655333:GXW655371 GOA655333:GOA655371 GEE655333:GEE655371 FUI655333:FUI655371 FKM655333:FKM655371 FAQ655333:FAQ655371 EQU655333:EQU655371 EGY655333:EGY655371 DXC655333:DXC655371 DNG655333:DNG655371 DDK655333:DDK655371 CTO655333:CTO655371 CJS655333:CJS655371 BZW655333:BZW655371 BQA655333:BQA655371 BGE655333:BGE655371 AWI655333:AWI655371 AMM655333:AMM655371 ACQ655333:ACQ655371 SU655333:SU655371 IY655333:IY655371 WVK589797:WVK589835 WLO589797:WLO589835 WBS589797:WBS589835 VRW589797:VRW589835 VIA589797:VIA589835 UYE589797:UYE589835 UOI589797:UOI589835 UEM589797:UEM589835 TUQ589797:TUQ589835 TKU589797:TKU589835 TAY589797:TAY589835 SRC589797:SRC589835 SHG589797:SHG589835 RXK589797:RXK589835 RNO589797:RNO589835 RDS589797:RDS589835 QTW589797:QTW589835 QKA589797:QKA589835 QAE589797:QAE589835 PQI589797:PQI589835 PGM589797:PGM589835 OWQ589797:OWQ589835 OMU589797:OMU589835 OCY589797:OCY589835 NTC589797:NTC589835 NJG589797:NJG589835 MZK589797:MZK589835 MPO589797:MPO589835 MFS589797:MFS589835 LVW589797:LVW589835 LMA589797:LMA589835 LCE589797:LCE589835 KSI589797:KSI589835 KIM589797:KIM589835 JYQ589797:JYQ589835 JOU589797:JOU589835 JEY589797:JEY589835 IVC589797:IVC589835 ILG589797:ILG589835 IBK589797:IBK589835 HRO589797:HRO589835 HHS589797:HHS589835 GXW589797:GXW589835 GOA589797:GOA589835 GEE589797:GEE589835 FUI589797:FUI589835 FKM589797:FKM589835 FAQ589797:FAQ589835 EQU589797:EQU589835 EGY589797:EGY589835 DXC589797:DXC589835 DNG589797:DNG589835 DDK589797:DDK589835 CTO589797:CTO589835 CJS589797:CJS589835 BZW589797:BZW589835 BQA589797:BQA589835 BGE589797:BGE589835 AWI589797:AWI589835 AMM589797:AMM589835 ACQ589797:ACQ589835 SU589797:SU589835 IY589797:IY589835 WVK524261:WVK524299 WLO524261:WLO524299 WBS524261:WBS524299 VRW524261:VRW524299 VIA524261:VIA524299 UYE524261:UYE524299 UOI524261:UOI524299 UEM524261:UEM524299 TUQ524261:TUQ524299 TKU524261:TKU524299 TAY524261:TAY524299 SRC524261:SRC524299 SHG524261:SHG524299 RXK524261:RXK524299 RNO524261:RNO524299 RDS524261:RDS524299 QTW524261:QTW524299 QKA524261:QKA524299 QAE524261:QAE524299 PQI524261:PQI524299 PGM524261:PGM524299 OWQ524261:OWQ524299 OMU524261:OMU524299 OCY524261:OCY524299 NTC524261:NTC524299 NJG524261:NJG524299 MZK524261:MZK524299 MPO524261:MPO524299 MFS524261:MFS524299 LVW524261:LVW524299 LMA524261:LMA524299 LCE524261:LCE524299 KSI524261:KSI524299 KIM524261:KIM524299 JYQ524261:JYQ524299 JOU524261:JOU524299 JEY524261:JEY524299 IVC524261:IVC524299 ILG524261:ILG524299 IBK524261:IBK524299 HRO524261:HRO524299 HHS524261:HHS524299 GXW524261:GXW524299 GOA524261:GOA524299 GEE524261:GEE524299 FUI524261:FUI524299 FKM524261:FKM524299 FAQ524261:FAQ524299 EQU524261:EQU524299 EGY524261:EGY524299 DXC524261:DXC524299 DNG524261:DNG524299 DDK524261:DDK524299 CTO524261:CTO524299 CJS524261:CJS524299 BZW524261:BZW524299 BQA524261:BQA524299 BGE524261:BGE524299 AWI524261:AWI524299 AMM524261:AMM524299 ACQ524261:ACQ524299 SU524261:SU524299 IY524261:IY524299 WVK458725:WVK458763 WLO458725:WLO458763 WBS458725:WBS458763 VRW458725:VRW458763 VIA458725:VIA458763 UYE458725:UYE458763 UOI458725:UOI458763 UEM458725:UEM458763 TUQ458725:TUQ458763 TKU458725:TKU458763 TAY458725:TAY458763 SRC458725:SRC458763 SHG458725:SHG458763 RXK458725:RXK458763 RNO458725:RNO458763 RDS458725:RDS458763 QTW458725:QTW458763 QKA458725:QKA458763 QAE458725:QAE458763 PQI458725:PQI458763 PGM458725:PGM458763 OWQ458725:OWQ458763 OMU458725:OMU458763 OCY458725:OCY458763 NTC458725:NTC458763 NJG458725:NJG458763 MZK458725:MZK458763 MPO458725:MPO458763 MFS458725:MFS458763 LVW458725:LVW458763 LMA458725:LMA458763 LCE458725:LCE458763 KSI458725:KSI458763 KIM458725:KIM458763 JYQ458725:JYQ458763 JOU458725:JOU458763 JEY458725:JEY458763 IVC458725:IVC458763 ILG458725:ILG458763 IBK458725:IBK458763 HRO458725:HRO458763 HHS458725:HHS458763 GXW458725:GXW458763 GOA458725:GOA458763 GEE458725:GEE458763 FUI458725:FUI458763 FKM458725:FKM458763 FAQ458725:FAQ458763 EQU458725:EQU458763 EGY458725:EGY458763 DXC458725:DXC458763 DNG458725:DNG458763 DDK458725:DDK458763 CTO458725:CTO458763 CJS458725:CJS458763 BZW458725:BZW458763 BQA458725:BQA458763 BGE458725:BGE458763 AWI458725:AWI458763 AMM458725:AMM458763 ACQ458725:ACQ458763 SU458725:SU458763 IY458725:IY458763 WVK393189:WVK393227 WLO393189:WLO393227 WBS393189:WBS393227 VRW393189:VRW393227 VIA393189:VIA393227 UYE393189:UYE393227 UOI393189:UOI393227 UEM393189:UEM393227 TUQ393189:TUQ393227 TKU393189:TKU393227 TAY393189:TAY393227 SRC393189:SRC393227 SHG393189:SHG393227 RXK393189:RXK393227 RNO393189:RNO393227 RDS393189:RDS393227 QTW393189:QTW393227 QKA393189:QKA393227 QAE393189:QAE393227 PQI393189:PQI393227 PGM393189:PGM393227 OWQ393189:OWQ393227 OMU393189:OMU393227 OCY393189:OCY393227 NTC393189:NTC393227 NJG393189:NJG393227 MZK393189:MZK393227 MPO393189:MPO393227 MFS393189:MFS393227 LVW393189:LVW393227 LMA393189:LMA393227 LCE393189:LCE393227 KSI393189:KSI393227 KIM393189:KIM393227 JYQ393189:JYQ393227 JOU393189:JOU393227 JEY393189:JEY393227 IVC393189:IVC393227 ILG393189:ILG393227 IBK393189:IBK393227 HRO393189:HRO393227 HHS393189:HHS393227 GXW393189:GXW393227 GOA393189:GOA393227 GEE393189:GEE393227 FUI393189:FUI393227 FKM393189:FKM393227 FAQ393189:FAQ393227 EQU393189:EQU393227 EGY393189:EGY393227 DXC393189:DXC393227 DNG393189:DNG393227 DDK393189:DDK393227 CTO393189:CTO393227 CJS393189:CJS393227 BZW393189:BZW393227 BQA393189:BQA393227 BGE393189:BGE393227 AWI393189:AWI393227 AMM393189:AMM393227 ACQ393189:ACQ393227 SU393189:SU393227 IY393189:IY393227 WVK327653:WVK327691 WLO327653:WLO327691 WBS327653:WBS327691 VRW327653:VRW327691 VIA327653:VIA327691 UYE327653:UYE327691 UOI327653:UOI327691 UEM327653:UEM327691 TUQ327653:TUQ327691 TKU327653:TKU327691 TAY327653:TAY327691 SRC327653:SRC327691 SHG327653:SHG327691 RXK327653:RXK327691 RNO327653:RNO327691 RDS327653:RDS327691 QTW327653:QTW327691 QKA327653:QKA327691 QAE327653:QAE327691 PQI327653:PQI327691 PGM327653:PGM327691 OWQ327653:OWQ327691 OMU327653:OMU327691 OCY327653:OCY327691 NTC327653:NTC327691 NJG327653:NJG327691 MZK327653:MZK327691 MPO327653:MPO327691 MFS327653:MFS327691 LVW327653:LVW327691 LMA327653:LMA327691 LCE327653:LCE327691 KSI327653:KSI327691 KIM327653:KIM327691 JYQ327653:JYQ327691 JOU327653:JOU327691 JEY327653:JEY327691 IVC327653:IVC327691 ILG327653:ILG327691 IBK327653:IBK327691 HRO327653:HRO327691 HHS327653:HHS327691 GXW327653:GXW327691 GOA327653:GOA327691 GEE327653:GEE327691 FUI327653:FUI327691 FKM327653:FKM327691 FAQ327653:FAQ327691 EQU327653:EQU327691 EGY327653:EGY327691 DXC327653:DXC327691 DNG327653:DNG327691 DDK327653:DDK327691 CTO327653:CTO327691 CJS327653:CJS327691 BZW327653:BZW327691 BQA327653:BQA327691 BGE327653:BGE327691 AWI327653:AWI327691 AMM327653:AMM327691 ACQ327653:ACQ327691 SU327653:SU327691 IY327653:IY327691 WVK262117:WVK262155 WLO262117:WLO262155 WBS262117:WBS262155 VRW262117:VRW262155 VIA262117:VIA262155 UYE262117:UYE262155 UOI262117:UOI262155 UEM262117:UEM262155 TUQ262117:TUQ262155 TKU262117:TKU262155 TAY262117:TAY262155 SRC262117:SRC262155 SHG262117:SHG262155 RXK262117:RXK262155 RNO262117:RNO262155 RDS262117:RDS262155 QTW262117:QTW262155 QKA262117:QKA262155 QAE262117:QAE262155 PQI262117:PQI262155 PGM262117:PGM262155 OWQ262117:OWQ262155 OMU262117:OMU262155 OCY262117:OCY262155 NTC262117:NTC262155 NJG262117:NJG262155 MZK262117:MZK262155 MPO262117:MPO262155 MFS262117:MFS262155 LVW262117:LVW262155 LMA262117:LMA262155 LCE262117:LCE262155 KSI262117:KSI262155 KIM262117:KIM262155 JYQ262117:JYQ262155 JOU262117:JOU262155 JEY262117:JEY262155 IVC262117:IVC262155 ILG262117:ILG262155 IBK262117:IBK262155 HRO262117:HRO262155 HHS262117:HHS262155 GXW262117:GXW262155 GOA262117:GOA262155 GEE262117:GEE262155 FUI262117:FUI262155 FKM262117:FKM262155 FAQ262117:FAQ262155 EQU262117:EQU262155 EGY262117:EGY262155 DXC262117:DXC262155 DNG262117:DNG262155 DDK262117:DDK262155 CTO262117:CTO262155 CJS262117:CJS262155 BZW262117:BZW262155 BQA262117:BQA262155 BGE262117:BGE262155 AWI262117:AWI262155 AMM262117:AMM262155 ACQ262117:ACQ262155 SU262117:SU262155 IY262117:IY262155 WVK196581:WVK196619 WLO196581:WLO196619 WBS196581:WBS196619 VRW196581:VRW196619 VIA196581:VIA196619 UYE196581:UYE196619 UOI196581:UOI196619 UEM196581:UEM196619 TUQ196581:TUQ196619 TKU196581:TKU196619 TAY196581:TAY196619 SRC196581:SRC196619 SHG196581:SHG196619 RXK196581:RXK196619 RNO196581:RNO196619 RDS196581:RDS196619 QTW196581:QTW196619 QKA196581:QKA196619 QAE196581:QAE196619 PQI196581:PQI196619 PGM196581:PGM196619 OWQ196581:OWQ196619 OMU196581:OMU196619 OCY196581:OCY196619 NTC196581:NTC196619 NJG196581:NJG196619 MZK196581:MZK196619 MPO196581:MPO196619 MFS196581:MFS196619 LVW196581:LVW196619 LMA196581:LMA196619 LCE196581:LCE196619 KSI196581:KSI196619 KIM196581:KIM196619 JYQ196581:JYQ196619 JOU196581:JOU196619 JEY196581:JEY196619 IVC196581:IVC196619 ILG196581:ILG196619 IBK196581:IBK196619 HRO196581:HRO196619 HHS196581:HHS196619 GXW196581:GXW196619 GOA196581:GOA196619 GEE196581:GEE196619 FUI196581:FUI196619 FKM196581:FKM196619 FAQ196581:FAQ196619 EQU196581:EQU196619 EGY196581:EGY196619 DXC196581:DXC196619 DNG196581:DNG196619 DDK196581:DDK196619 CTO196581:CTO196619 CJS196581:CJS196619 BZW196581:BZW196619 BQA196581:BQA196619 BGE196581:BGE196619 AWI196581:AWI196619 AMM196581:AMM196619 ACQ196581:ACQ196619 SU196581:SU196619 IY196581:IY196619 WVK131045:WVK131083 WLO131045:WLO131083 WBS131045:WBS131083 VRW131045:VRW131083 VIA131045:VIA131083 UYE131045:UYE131083 UOI131045:UOI131083 UEM131045:UEM131083 TUQ131045:TUQ131083 TKU131045:TKU131083 TAY131045:TAY131083 SRC131045:SRC131083 SHG131045:SHG131083 RXK131045:RXK131083 RNO131045:RNO131083 RDS131045:RDS131083 QTW131045:QTW131083 QKA131045:QKA131083 QAE131045:QAE131083 PQI131045:PQI131083 PGM131045:PGM131083 OWQ131045:OWQ131083 OMU131045:OMU131083 OCY131045:OCY131083 NTC131045:NTC131083 NJG131045:NJG131083 MZK131045:MZK131083 MPO131045:MPO131083 MFS131045:MFS131083 LVW131045:LVW131083 LMA131045:LMA131083 LCE131045:LCE131083 KSI131045:KSI131083 KIM131045:KIM131083 JYQ131045:JYQ131083 JOU131045:JOU131083 JEY131045:JEY131083 IVC131045:IVC131083 ILG131045:ILG131083 IBK131045:IBK131083 HRO131045:HRO131083 HHS131045:HHS131083 GXW131045:GXW131083 GOA131045:GOA131083 GEE131045:GEE131083 FUI131045:FUI131083 FKM131045:FKM131083 FAQ131045:FAQ131083 EQU131045:EQU131083 EGY131045:EGY131083 DXC131045:DXC131083 DNG131045:DNG131083 DDK131045:DDK131083 CTO131045:CTO131083 CJS131045:CJS131083 BZW131045:BZW131083 BQA131045:BQA131083 BGE131045:BGE131083 AWI131045:AWI131083 AMM131045:AMM131083 ACQ131045:ACQ131083 SU131045:SU131083 IY131045:IY131083 WVK65509:WVK65547 WLO65509:WLO65547 WBS65509:WBS65547 VRW65509:VRW65547 VIA65509:VIA65547 UYE65509:UYE65547 UOI65509:UOI65547 UEM65509:UEM65547 TUQ65509:TUQ65547 TKU65509:TKU65547 TAY65509:TAY65547 SRC65509:SRC65547 SHG65509:SHG65547 RXK65509:RXK65547 RNO65509:RNO65547 RDS65509:RDS65547 QTW65509:QTW65547 QKA65509:QKA65547 QAE65509:QAE65547 PQI65509:PQI65547 PGM65509:PGM65547 OWQ65509:OWQ65547 OMU65509:OMU65547 OCY65509:OCY65547 NTC65509:NTC65547 NJG65509:NJG65547 MZK65509:MZK65547 MPO65509:MPO65547 MFS65509:MFS65547 LVW65509:LVW65547 LMA65509:LMA65547 LCE65509:LCE65547 KSI65509:KSI65547 KIM65509:KIM65547 JYQ65509:JYQ65547 JOU65509:JOU65547 JEY65509:JEY65547 IVC65509:IVC65547 ILG65509:ILG65547 IBK65509:IBK65547 HRO65509:HRO65547 HHS65509:HHS65547 GXW65509:GXW65547 GOA65509:GOA65547 GEE65509:GEE65547 FUI65509:FUI65547 FKM65509:FKM65547 FAQ65509:FAQ65547 EQU65509:EQU65547 EGY65509:EGY65547 DXC65509:DXC65547 DNG65509:DNG65547 DDK65509:DDK65547 CTO65509:CTO65547 CJS65509:CJS65547 BZW65509:BZW65547 BQA65509:BQA65547 BGE65509:BGE65547 AWI65509:AWI65547 AMM65509:AMM65547 ACQ65509:ACQ65547 SU65509:SU65547 IY65509:IY65547 SU6:SU11 ACQ6:ACQ11 AMM6:AMM11 AWI6:AWI11 BGE6:BGE11 BQA6:BQA11 BZW6:BZW11 CJS6:CJS11 CTO6:CTO11 DDK6:DDK11 DNG6:DNG11 DXC6:DXC11 EGY6:EGY11 EQU6:EQU11 FAQ6:FAQ11 FKM6:FKM11 FUI6:FUI11 GEE6:GEE11 GOA6:GOA11 GXW6:GXW11 HHS6:HHS11 HRO6:HRO11 IBK6:IBK11 ILG6:ILG11 IVC6:IVC11 JEY6:JEY11 JOU6:JOU11 JYQ6:JYQ11 KIM6:KIM11 KSI6:KSI11 LCE6:LCE11 LMA6:LMA11 LVW6:LVW11 MFS6:MFS11 MPO6:MPO11 MZK6:MZK11 NJG6:NJG11 NTC6:NTC11 OCY6:OCY11 OMU6:OMU11 OWQ6:OWQ11 PGM6:PGM11 PQI6:PQI11 QAE6:QAE11 QKA6:QKA11 QTW6:QTW11 RDS6:RDS11 RNO6:RNO11 RXK6:RXK11 SHG6:SHG11 SRC6:SRC11 TAY6:TAY11 TKU6:TKU11 TUQ6:TUQ11 UEM6:UEM11 UOI6:UOI11 UYE6:UYE11 VIA6:VIA11 VRW6:VRW11 WBS6:WBS11 WLO6:WLO11 WVK6:WVK11 H5:H11 IY6:IY11">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="71">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="144" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
-    </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-    </row>
-    <row r="12" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" ref="A13" si="1">ROW()-7</f>
-        <v>6</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-    </row>
-    <row r="18" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="57"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65515:IY65553 H65515:H65553 H131051:H131089 H196587:H196625 H262123:H262161 H327659:H327697 H393195:H393233 H458731:H458769 H524267:H524305 H589803:H589841 H655339:H655377 H720875:H720913 H786411:H786449 H851947:H851985 H917483:H917521 H983019:H983057 WVK983019:WVK983057 WLO983019:WLO983057 WBS983019:WBS983057 VRW983019:VRW983057 VIA983019:VIA983057 UYE983019:UYE983057 UOI983019:UOI983057 UEM983019:UEM983057 TUQ983019:TUQ983057 TKU983019:TKU983057 TAY983019:TAY983057 SRC983019:SRC983057 SHG983019:SHG983057 RXK983019:RXK983057 RNO983019:RNO983057 RDS983019:RDS983057 QTW983019:QTW983057 QKA983019:QKA983057 QAE983019:QAE983057 PQI983019:PQI983057 PGM983019:PGM983057 OWQ983019:OWQ983057 OMU983019:OMU983057 OCY983019:OCY983057 NTC983019:NTC983057 NJG983019:NJG983057 MZK983019:MZK983057 MPO983019:MPO983057 MFS983019:MFS983057 LVW983019:LVW983057 LMA983019:LMA983057 LCE983019:LCE983057 KSI983019:KSI983057 KIM983019:KIM983057 JYQ983019:JYQ983057 JOU983019:JOU983057 JEY983019:JEY983057 IVC983019:IVC983057 ILG983019:ILG983057 IBK983019:IBK983057 HRO983019:HRO983057 HHS983019:HHS983057 GXW983019:GXW983057 GOA983019:GOA983057 GEE983019:GEE983057 FUI983019:FUI983057 FKM983019:FKM983057 FAQ983019:FAQ983057 EQU983019:EQU983057 EGY983019:EGY983057 DXC983019:DXC983057 DNG983019:DNG983057 DDK983019:DDK983057 CTO983019:CTO983057 CJS983019:CJS983057 BZW983019:BZW983057 BQA983019:BQA983057 BGE983019:BGE983057 AWI983019:AWI983057 AMM983019:AMM983057 ACQ983019:ACQ983057 SU983019:SU983057 IY983019:IY983057 WVK917483:WVK917521 WLO917483:WLO917521 WBS917483:WBS917521 VRW917483:VRW917521 VIA917483:VIA917521 UYE917483:UYE917521 UOI917483:UOI917521 UEM917483:UEM917521 TUQ917483:TUQ917521 TKU917483:TKU917521 TAY917483:TAY917521 SRC917483:SRC917521 SHG917483:SHG917521 RXK917483:RXK917521 RNO917483:RNO917521 RDS917483:RDS917521 QTW917483:QTW917521 QKA917483:QKA917521 QAE917483:QAE917521 PQI917483:PQI917521 PGM917483:PGM917521 OWQ917483:OWQ917521 OMU917483:OMU917521 OCY917483:OCY917521 NTC917483:NTC917521 NJG917483:NJG917521 MZK917483:MZK917521 MPO917483:MPO917521 MFS917483:MFS917521 LVW917483:LVW917521 LMA917483:LMA917521 LCE917483:LCE917521 KSI917483:KSI917521 KIM917483:KIM917521 JYQ917483:JYQ917521 JOU917483:JOU917521 JEY917483:JEY917521 IVC917483:IVC917521 ILG917483:ILG917521 IBK917483:IBK917521 HRO917483:HRO917521 HHS917483:HHS917521 GXW917483:GXW917521 GOA917483:GOA917521 GEE917483:GEE917521 FUI917483:FUI917521 FKM917483:FKM917521 FAQ917483:FAQ917521 EQU917483:EQU917521 EGY917483:EGY917521 DXC917483:DXC917521 DNG917483:DNG917521 DDK917483:DDK917521 CTO917483:CTO917521 CJS917483:CJS917521 BZW917483:BZW917521 BQA917483:BQA917521 BGE917483:BGE917521 AWI917483:AWI917521 AMM917483:AMM917521 ACQ917483:ACQ917521 SU917483:SU917521 IY917483:IY917521 WVK851947:WVK851985 WLO851947:WLO851985 WBS851947:WBS851985 VRW851947:VRW851985 VIA851947:VIA851985 UYE851947:UYE851985 UOI851947:UOI851985 UEM851947:UEM851985 TUQ851947:TUQ851985 TKU851947:TKU851985 TAY851947:TAY851985 SRC851947:SRC851985 SHG851947:SHG851985 RXK851947:RXK851985 RNO851947:RNO851985 RDS851947:RDS851985 QTW851947:QTW851985 QKA851947:QKA851985 QAE851947:QAE851985 PQI851947:PQI851985 PGM851947:PGM851985 OWQ851947:OWQ851985 OMU851947:OMU851985 OCY851947:OCY851985 NTC851947:NTC851985 NJG851947:NJG851985 MZK851947:MZK851985 MPO851947:MPO851985 MFS851947:MFS851985 LVW851947:LVW851985 LMA851947:LMA851985 LCE851947:LCE851985 KSI851947:KSI851985 KIM851947:KIM851985 JYQ851947:JYQ851985 JOU851947:JOU851985 JEY851947:JEY851985 IVC851947:IVC851985 ILG851947:ILG851985 IBK851947:IBK851985 HRO851947:HRO851985 HHS851947:HHS851985 GXW851947:GXW851985 GOA851947:GOA851985 GEE851947:GEE851985 FUI851947:FUI851985 FKM851947:FKM851985 FAQ851947:FAQ851985 EQU851947:EQU851985 EGY851947:EGY851985 DXC851947:DXC851985 DNG851947:DNG851985 DDK851947:DDK851985 CTO851947:CTO851985 CJS851947:CJS851985 BZW851947:BZW851985 BQA851947:BQA851985 BGE851947:BGE851985 AWI851947:AWI851985 AMM851947:AMM851985 ACQ851947:ACQ851985 SU851947:SU851985 IY851947:IY851985 WVK786411:WVK786449 WLO786411:WLO786449 WBS786411:WBS786449 VRW786411:VRW786449 VIA786411:VIA786449 UYE786411:UYE786449 UOI786411:UOI786449 UEM786411:UEM786449 TUQ786411:TUQ786449 TKU786411:TKU786449 TAY786411:TAY786449 SRC786411:SRC786449 SHG786411:SHG786449 RXK786411:RXK786449 RNO786411:RNO786449 RDS786411:RDS786449 QTW786411:QTW786449 QKA786411:QKA786449 QAE786411:QAE786449 PQI786411:PQI786449 PGM786411:PGM786449 OWQ786411:OWQ786449 OMU786411:OMU786449 OCY786411:OCY786449 NTC786411:NTC786449 NJG786411:NJG786449 MZK786411:MZK786449 MPO786411:MPO786449 MFS786411:MFS786449 LVW786411:LVW786449 LMA786411:LMA786449 LCE786411:LCE786449 KSI786411:KSI786449 KIM786411:KIM786449 JYQ786411:JYQ786449 JOU786411:JOU786449 JEY786411:JEY786449 IVC786411:IVC786449 ILG786411:ILG786449 IBK786411:IBK786449 HRO786411:HRO786449 HHS786411:HHS786449 GXW786411:GXW786449 GOA786411:GOA786449 GEE786411:GEE786449 FUI786411:FUI786449 FKM786411:FKM786449 FAQ786411:FAQ786449 EQU786411:EQU786449 EGY786411:EGY786449 DXC786411:DXC786449 DNG786411:DNG786449 DDK786411:DDK786449 CTO786411:CTO786449 CJS786411:CJS786449 BZW786411:BZW786449 BQA786411:BQA786449 BGE786411:BGE786449 AWI786411:AWI786449 AMM786411:AMM786449 ACQ786411:ACQ786449 SU786411:SU786449 IY786411:IY786449 WVK720875:WVK720913 WLO720875:WLO720913 WBS720875:WBS720913 VRW720875:VRW720913 VIA720875:VIA720913 UYE720875:UYE720913 UOI720875:UOI720913 UEM720875:UEM720913 TUQ720875:TUQ720913 TKU720875:TKU720913 TAY720875:TAY720913 SRC720875:SRC720913 SHG720875:SHG720913 RXK720875:RXK720913 RNO720875:RNO720913 RDS720875:RDS720913 QTW720875:QTW720913 QKA720875:QKA720913 QAE720875:QAE720913 PQI720875:PQI720913 PGM720875:PGM720913 OWQ720875:OWQ720913 OMU720875:OMU720913 OCY720875:OCY720913 NTC720875:NTC720913 NJG720875:NJG720913 MZK720875:MZK720913 MPO720875:MPO720913 MFS720875:MFS720913 LVW720875:LVW720913 LMA720875:LMA720913 LCE720875:LCE720913 KSI720875:KSI720913 KIM720875:KIM720913 JYQ720875:JYQ720913 JOU720875:JOU720913 JEY720875:JEY720913 IVC720875:IVC720913 ILG720875:ILG720913 IBK720875:IBK720913 HRO720875:HRO720913 HHS720875:HHS720913 GXW720875:GXW720913 GOA720875:GOA720913 GEE720875:GEE720913 FUI720875:FUI720913 FKM720875:FKM720913 FAQ720875:FAQ720913 EQU720875:EQU720913 EGY720875:EGY720913 DXC720875:DXC720913 DNG720875:DNG720913 DDK720875:DDK720913 CTO720875:CTO720913 CJS720875:CJS720913 BZW720875:BZW720913 BQA720875:BQA720913 BGE720875:BGE720913 AWI720875:AWI720913 AMM720875:AMM720913 ACQ720875:ACQ720913 SU720875:SU720913 IY720875:IY720913 WVK655339:WVK655377 WLO655339:WLO655377 WBS655339:WBS655377 VRW655339:VRW655377 VIA655339:VIA655377 UYE655339:UYE655377 UOI655339:UOI655377 UEM655339:UEM655377 TUQ655339:TUQ655377 TKU655339:TKU655377 TAY655339:TAY655377 SRC655339:SRC655377 SHG655339:SHG655377 RXK655339:RXK655377 RNO655339:RNO655377 RDS655339:RDS655377 QTW655339:QTW655377 QKA655339:QKA655377 QAE655339:QAE655377 PQI655339:PQI655377 PGM655339:PGM655377 OWQ655339:OWQ655377 OMU655339:OMU655377 OCY655339:OCY655377 NTC655339:NTC655377 NJG655339:NJG655377 MZK655339:MZK655377 MPO655339:MPO655377 MFS655339:MFS655377 LVW655339:LVW655377 LMA655339:LMA655377 LCE655339:LCE655377 KSI655339:KSI655377 KIM655339:KIM655377 JYQ655339:JYQ655377 JOU655339:JOU655377 JEY655339:JEY655377 IVC655339:IVC655377 ILG655339:ILG655377 IBK655339:IBK655377 HRO655339:HRO655377 HHS655339:HHS655377 GXW655339:GXW655377 GOA655339:GOA655377 GEE655339:GEE655377 FUI655339:FUI655377 FKM655339:FKM655377 FAQ655339:FAQ655377 EQU655339:EQU655377 EGY655339:EGY655377 DXC655339:DXC655377 DNG655339:DNG655377 DDK655339:DDK655377 CTO655339:CTO655377 CJS655339:CJS655377 BZW655339:BZW655377 BQA655339:BQA655377 BGE655339:BGE655377 AWI655339:AWI655377 AMM655339:AMM655377 ACQ655339:ACQ655377 SU655339:SU655377 IY655339:IY655377 WVK589803:WVK589841 WLO589803:WLO589841 WBS589803:WBS589841 VRW589803:VRW589841 VIA589803:VIA589841 UYE589803:UYE589841 UOI589803:UOI589841 UEM589803:UEM589841 TUQ589803:TUQ589841 TKU589803:TKU589841 TAY589803:TAY589841 SRC589803:SRC589841 SHG589803:SHG589841 RXK589803:RXK589841 RNO589803:RNO589841 RDS589803:RDS589841 QTW589803:QTW589841 QKA589803:QKA589841 QAE589803:QAE589841 PQI589803:PQI589841 PGM589803:PGM589841 OWQ589803:OWQ589841 OMU589803:OMU589841 OCY589803:OCY589841 NTC589803:NTC589841 NJG589803:NJG589841 MZK589803:MZK589841 MPO589803:MPO589841 MFS589803:MFS589841 LVW589803:LVW589841 LMA589803:LMA589841 LCE589803:LCE589841 KSI589803:KSI589841 KIM589803:KIM589841 JYQ589803:JYQ589841 JOU589803:JOU589841 JEY589803:JEY589841 IVC589803:IVC589841 ILG589803:ILG589841 IBK589803:IBK589841 HRO589803:HRO589841 HHS589803:HHS589841 GXW589803:GXW589841 GOA589803:GOA589841 GEE589803:GEE589841 FUI589803:FUI589841 FKM589803:FKM589841 FAQ589803:FAQ589841 EQU589803:EQU589841 EGY589803:EGY589841 DXC589803:DXC589841 DNG589803:DNG589841 DDK589803:DDK589841 CTO589803:CTO589841 CJS589803:CJS589841 BZW589803:BZW589841 BQA589803:BQA589841 BGE589803:BGE589841 AWI589803:AWI589841 AMM589803:AMM589841 ACQ589803:ACQ589841 SU589803:SU589841 IY589803:IY589841 WVK524267:WVK524305 WLO524267:WLO524305 WBS524267:WBS524305 VRW524267:VRW524305 VIA524267:VIA524305 UYE524267:UYE524305 UOI524267:UOI524305 UEM524267:UEM524305 TUQ524267:TUQ524305 TKU524267:TKU524305 TAY524267:TAY524305 SRC524267:SRC524305 SHG524267:SHG524305 RXK524267:RXK524305 RNO524267:RNO524305 RDS524267:RDS524305 QTW524267:QTW524305 QKA524267:QKA524305 QAE524267:QAE524305 PQI524267:PQI524305 PGM524267:PGM524305 OWQ524267:OWQ524305 OMU524267:OMU524305 OCY524267:OCY524305 NTC524267:NTC524305 NJG524267:NJG524305 MZK524267:MZK524305 MPO524267:MPO524305 MFS524267:MFS524305 LVW524267:LVW524305 LMA524267:LMA524305 LCE524267:LCE524305 KSI524267:KSI524305 KIM524267:KIM524305 JYQ524267:JYQ524305 JOU524267:JOU524305 JEY524267:JEY524305 IVC524267:IVC524305 ILG524267:ILG524305 IBK524267:IBK524305 HRO524267:HRO524305 HHS524267:HHS524305 GXW524267:GXW524305 GOA524267:GOA524305 GEE524267:GEE524305 FUI524267:FUI524305 FKM524267:FKM524305 FAQ524267:FAQ524305 EQU524267:EQU524305 EGY524267:EGY524305 DXC524267:DXC524305 DNG524267:DNG524305 DDK524267:DDK524305 CTO524267:CTO524305 CJS524267:CJS524305 BZW524267:BZW524305 BQA524267:BQA524305 BGE524267:BGE524305 AWI524267:AWI524305 AMM524267:AMM524305 ACQ524267:ACQ524305 SU524267:SU524305 IY524267:IY524305 WVK458731:WVK458769 WLO458731:WLO458769 WBS458731:WBS458769 VRW458731:VRW458769 VIA458731:VIA458769 UYE458731:UYE458769 UOI458731:UOI458769 UEM458731:UEM458769 TUQ458731:TUQ458769 TKU458731:TKU458769 TAY458731:TAY458769 SRC458731:SRC458769 SHG458731:SHG458769 RXK458731:RXK458769 RNO458731:RNO458769 RDS458731:RDS458769 QTW458731:QTW458769 QKA458731:QKA458769 QAE458731:QAE458769 PQI458731:PQI458769 PGM458731:PGM458769 OWQ458731:OWQ458769 OMU458731:OMU458769 OCY458731:OCY458769 NTC458731:NTC458769 NJG458731:NJG458769 MZK458731:MZK458769 MPO458731:MPO458769 MFS458731:MFS458769 LVW458731:LVW458769 LMA458731:LMA458769 LCE458731:LCE458769 KSI458731:KSI458769 KIM458731:KIM458769 JYQ458731:JYQ458769 JOU458731:JOU458769 JEY458731:JEY458769 IVC458731:IVC458769 ILG458731:ILG458769 IBK458731:IBK458769 HRO458731:HRO458769 HHS458731:HHS458769 GXW458731:GXW458769 GOA458731:GOA458769 GEE458731:GEE458769 FUI458731:FUI458769 FKM458731:FKM458769 FAQ458731:FAQ458769 EQU458731:EQU458769 EGY458731:EGY458769 DXC458731:DXC458769 DNG458731:DNG458769 DDK458731:DDK458769 CTO458731:CTO458769 CJS458731:CJS458769 BZW458731:BZW458769 BQA458731:BQA458769 BGE458731:BGE458769 AWI458731:AWI458769 AMM458731:AMM458769 ACQ458731:ACQ458769 SU458731:SU458769 IY458731:IY458769 WVK393195:WVK393233 WLO393195:WLO393233 WBS393195:WBS393233 VRW393195:VRW393233 VIA393195:VIA393233 UYE393195:UYE393233 UOI393195:UOI393233 UEM393195:UEM393233 TUQ393195:TUQ393233 TKU393195:TKU393233 TAY393195:TAY393233 SRC393195:SRC393233 SHG393195:SHG393233 RXK393195:RXK393233 RNO393195:RNO393233 RDS393195:RDS393233 QTW393195:QTW393233 QKA393195:QKA393233 QAE393195:QAE393233 PQI393195:PQI393233 PGM393195:PGM393233 OWQ393195:OWQ393233 OMU393195:OMU393233 OCY393195:OCY393233 NTC393195:NTC393233 NJG393195:NJG393233 MZK393195:MZK393233 MPO393195:MPO393233 MFS393195:MFS393233 LVW393195:LVW393233 LMA393195:LMA393233 LCE393195:LCE393233 KSI393195:KSI393233 KIM393195:KIM393233 JYQ393195:JYQ393233 JOU393195:JOU393233 JEY393195:JEY393233 IVC393195:IVC393233 ILG393195:ILG393233 IBK393195:IBK393233 HRO393195:HRO393233 HHS393195:HHS393233 GXW393195:GXW393233 GOA393195:GOA393233 GEE393195:GEE393233 FUI393195:FUI393233 FKM393195:FKM393233 FAQ393195:FAQ393233 EQU393195:EQU393233 EGY393195:EGY393233 DXC393195:DXC393233 DNG393195:DNG393233 DDK393195:DDK393233 CTO393195:CTO393233 CJS393195:CJS393233 BZW393195:BZW393233 BQA393195:BQA393233 BGE393195:BGE393233 AWI393195:AWI393233 AMM393195:AMM393233 ACQ393195:ACQ393233 SU393195:SU393233 IY393195:IY393233 WVK327659:WVK327697 WLO327659:WLO327697 WBS327659:WBS327697 VRW327659:VRW327697 VIA327659:VIA327697 UYE327659:UYE327697 UOI327659:UOI327697 UEM327659:UEM327697 TUQ327659:TUQ327697 TKU327659:TKU327697 TAY327659:TAY327697 SRC327659:SRC327697 SHG327659:SHG327697 RXK327659:RXK327697 RNO327659:RNO327697 RDS327659:RDS327697 QTW327659:QTW327697 QKA327659:QKA327697 QAE327659:QAE327697 PQI327659:PQI327697 PGM327659:PGM327697 OWQ327659:OWQ327697 OMU327659:OMU327697 OCY327659:OCY327697 NTC327659:NTC327697 NJG327659:NJG327697 MZK327659:MZK327697 MPO327659:MPO327697 MFS327659:MFS327697 LVW327659:LVW327697 LMA327659:LMA327697 LCE327659:LCE327697 KSI327659:KSI327697 KIM327659:KIM327697 JYQ327659:JYQ327697 JOU327659:JOU327697 JEY327659:JEY327697 IVC327659:IVC327697 ILG327659:ILG327697 IBK327659:IBK327697 HRO327659:HRO327697 HHS327659:HHS327697 GXW327659:GXW327697 GOA327659:GOA327697 GEE327659:GEE327697 FUI327659:FUI327697 FKM327659:FKM327697 FAQ327659:FAQ327697 EQU327659:EQU327697 EGY327659:EGY327697 DXC327659:DXC327697 DNG327659:DNG327697 DDK327659:DDK327697 CTO327659:CTO327697 CJS327659:CJS327697 BZW327659:BZW327697 BQA327659:BQA327697 BGE327659:BGE327697 AWI327659:AWI327697 AMM327659:AMM327697 ACQ327659:ACQ327697 SU327659:SU327697 IY327659:IY327697 WVK262123:WVK262161 WLO262123:WLO262161 WBS262123:WBS262161 VRW262123:VRW262161 VIA262123:VIA262161 UYE262123:UYE262161 UOI262123:UOI262161 UEM262123:UEM262161 TUQ262123:TUQ262161 TKU262123:TKU262161 TAY262123:TAY262161 SRC262123:SRC262161 SHG262123:SHG262161 RXK262123:RXK262161 RNO262123:RNO262161 RDS262123:RDS262161 QTW262123:QTW262161 QKA262123:QKA262161 QAE262123:QAE262161 PQI262123:PQI262161 PGM262123:PGM262161 OWQ262123:OWQ262161 OMU262123:OMU262161 OCY262123:OCY262161 NTC262123:NTC262161 NJG262123:NJG262161 MZK262123:MZK262161 MPO262123:MPO262161 MFS262123:MFS262161 LVW262123:LVW262161 LMA262123:LMA262161 LCE262123:LCE262161 KSI262123:KSI262161 KIM262123:KIM262161 JYQ262123:JYQ262161 JOU262123:JOU262161 JEY262123:JEY262161 IVC262123:IVC262161 ILG262123:ILG262161 IBK262123:IBK262161 HRO262123:HRO262161 HHS262123:HHS262161 GXW262123:GXW262161 GOA262123:GOA262161 GEE262123:GEE262161 FUI262123:FUI262161 FKM262123:FKM262161 FAQ262123:FAQ262161 EQU262123:EQU262161 EGY262123:EGY262161 DXC262123:DXC262161 DNG262123:DNG262161 DDK262123:DDK262161 CTO262123:CTO262161 CJS262123:CJS262161 BZW262123:BZW262161 BQA262123:BQA262161 BGE262123:BGE262161 AWI262123:AWI262161 AMM262123:AMM262161 ACQ262123:ACQ262161 SU262123:SU262161 IY262123:IY262161 WVK196587:WVK196625 WLO196587:WLO196625 WBS196587:WBS196625 VRW196587:VRW196625 VIA196587:VIA196625 UYE196587:UYE196625 UOI196587:UOI196625 UEM196587:UEM196625 TUQ196587:TUQ196625 TKU196587:TKU196625 TAY196587:TAY196625 SRC196587:SRC196625 SHG196587:SHG196625 RXK196587:RXK196625 RNO196587:RNO196625 RDS196587:RDS196625 QTW196587:QTW196625 QKA196587:QKA196625 QAE196587:QAE196625 PQI196587:PQI196625 PGM196587:PGM196625 OWQ196587:OWQ196625 OMU196587:OMU196625 OCY196587:OCY196625 NTC196587:NTC196625 NJG196587:NJG196625 MZK196587:MZK196625 MPO196587:MPO196625 MFS196587:MFS196625 LVW196587:LVW196625 LMA196587:LMA196625 LCE196587:LCE196625 KSI196587:KSI196625 KIM196587:KIM196625 JYQ196587:JYQ196625 JOU196587:JOU196625 JEY196587:JEY196625 IVC196587:IVC196625 ILG196587:ILG196625 IBK196587:IBK196625 HRO196587:HRO196625 HHS196587:HHS196625 GXW196587:GXW196625 GOA196587:GOA196625 GEE196587:GEE196625 FUI196587:FUI196625 FKM196587:FKM196625 FAQ196587:FAQ196625 EQU196587:EQU196625 EGY196587:EGY196625 DXC196587:DXC196625 DNG196587:DNG196625 DDK196587:DDK196625 CTO196587:CTO196625 CJS196587:CJS196625 BZW196587:BZW196625 BQA196587:BQA196625 BGE196587:BGE196625 AWI196587:AWI196625 AMM196587:AMM196625 ACQ196587:ACQ196625 SU196587:SU196625 IY196587:IY196625 WVK131051:WVK131089 WLO131051:WLO131089 WBS131051:WBS131089 VRW131051:VRW131089 VIA131051:VIA131089 UYE131051:UYE131089 UOI131051:UOI131089 UEM131051:UEM131089 TUQ131051:TUQ131089 TKU131051:TKU131089 TAY131051:TAY131089 SRC131051:SRC131089 SHG131051:SHG131089 RXK131051:RXK131089 RNO131051:RNO131089 RDS131051:RDS131089 QTW131051:QTW131089 QKA131051:QKA131089 QAE131051:QAE131089 PQI131051:PQI131089 PGM131051:PGM131089 OWQ131051:OWQ131089 OMU131051:OMU131089 OCY131051:OCY131089 NTC131051:NTC131089 NJG131051:NJG131089 MZK131051:MZK131089 MPO131051:MPO131089 MFS131051:MFS131089 LVW131051:LVW131089 LMA131051:LMA131089 LCE131051:LCE131089 KSI131051:KSI131089 KIM131051:KIM131089 JYQ131051:JYQ131089 JOU131051:JOU131089 JEY131051:JEY131089 IVC131051:IVC131089 ILG131051:ILG131089 IBK131051:IBK131089 HRO131051:HRO131089 HHS131051:HHS131089 GXW131051:GXW131089 GOA131051:GOA131089 GEE131051:GEE131089 FUI131051:FUI131089 FKM131051:FKM131089 FAQ131051:FAQ131089 EQU131051:EQU131089 EGY131051:EGY131089 DXC131051:DXC131089 DNG131051:DNG131089 DDK131051:DDK131089 CTO131051:CTO131089 CJS131051:CJS131089 BZW131051:BZW131089 BQA131051:BQA131089 BGE131051:BGE131089 AWI131051:AWI131089 AMM131051:AMM131089 ACQ131051:ACQ131089 SU131051:SU131089 IY131051:IY131089 WVK65515:WVK65553 WLO65515:WLO65553 WBS65515:WBS65553 VRW65515:VRW65553 VIA65515:VIA65553 UYE65515:UYE65553 UOI65515:UOI65553 UEM65515:UEM65553 TUQ65515:TUQ65553 TKU65515:TKU65553 TAY65515:TAY65553 SRC65515:SRC65553 SHG65515:SHG65553 RXK65515:RXK65553 RNO65515:RNO65553 RDS65515:RDS65553 QTW65515:QTW65553 QKA65515:QKA65553 QAE65515:QAE65553 PQI65515:PQI65553 PGM65515:PGM65553 OWQ65515:OWQ65553 OMU65515:OMU65553 OCY65515:OCY65553 NTC65515:NTC65553 NJG65515:NJG65553 MZK65515:MZK65553 MPO65515:MPO65553 MFS65515:MFS65553 LVW65515:LVW65553 LMA65515:LMA65553 LCE65515:LCE65553 KSI65515:KSI65553 KIM65515:KIM65553 JYQ65515:JYQ65553 JOU65515:JOU65553 JEY65515:JEY65553 IVC65515:IVC65553 ILG65515:ILG65553 IBK65515:IBK65553 HRO65515:HRO65553 HHS65515:HHS65553 GXW65515:GXW65553 GOA65515:GOA65553 GEE65515:GEE65553 FUI65515:FUI65553 FKM65515:FKM65553 FAQ65515:FAQ65553 EQU65515:EQU65553 EGY65515:EGY65553 DXC65515:DXC65553 DNG65515:DNG65553 DDK65515:DDK65553 CTO65515:CTO65553 CJS65515:CJS65553 BZW65515:BZW65553 BQA65515:BQA65553 BGE65515:BGE65553 AWI65515:AWI65553 AMM65515:AMM65553 ACQ65515:ACQ65553 SU65515:SU65553 H5:H17 WVK5:WVK17 WLO5:WLO17 WBS5:WBS17 VRW5:VRW17 VIA5:VIA17 UYE5:UYE17 UOI5:UOI17 UEM5:UEM17 TUQ5:TUQ17 TKU5:TKU17 TAY5:TAY17 SRC5:SRC17 SHG5:SHG17 RXK5:RXK17 RNO5:RNO17 RDS5:RDS17 QTW5:QTW17 QKA5:QKA17 QAE5:QAE17 PQI5:PQI17 PGM5:PGM17 OWQ5:OWQ17 OMU5:OMU17 OCY5:OCY17 NTC5:NTC17 NJG5:NJG17 MZK5:MZK17 MPO5:MPO17 MFS5:MFS17 LVW5:LVW17 LMA5:LMA17 LCE5:LCE17 KSI5:KSI17 KIM5:KIM17 JYQ5:JYQ17 JOU5:JOU17 JEY5:JEY17 IVC5:IVC17 ILG5:ILG17 IBK5:IBK17 HRO5:HRO17 HHS5:HHS17 GXW5:GXW17 GOA5:GOA17 GEE5:GEE17 FUI5:FUI17 FKM5:FKM17 FAQ5:FAQ17 EQU5:EQU17 EGY5:EGY17 DXC5:DXC17 DNG5:DNG17 DDK5:DDK17 CTO5:CTO17 CJS5:CJS17 BZW5:BZW17 BQA5:BQA17 BGE5:BGE17 AWI5:AWI17 AMM5:AMM17 ACQ5:ACQ17 SU5:SU17 IY5:IY17">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="11" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="52" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
-    <col min="8" max="8" width="6" style="52" customWidth="1"/>
-    <col min="9" max="9" width="34.875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-    </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="71">
-        <f t="shared" ref="A5:A39" si="0">ROW()-7</f>
-        <v>-2</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="71">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="1:10" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="71">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="71">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="71">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="71">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="71">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="71">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:10" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="71">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="71">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="71">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-    </row>
-    <row r="17" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="71">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-    </row>
-    <row r="18" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="71">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-    </row>
-    <row r="19" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="71">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-    </row>
-    <row r="20" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="71">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="71">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="71">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-    </row>
-    <row r="23" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="71">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-    </row>
-    <row r="24" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="71">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
-    </row>
-    <row r="25" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="71">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
-    </row>
-    <row r="26" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="73">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="139"/>
-    </row>
-    <row r="27" spans="1:10" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="73">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
-    </row>
-    <row r="28" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="73">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="139"/>
-    </row>
-    <row r="29" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="73">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-    </row>
-    <row r="30" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="73">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-    </row>
-    <row r="31" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="73">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="139"/>
-    </row>
-    <row r="32" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="73">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="139"/>
-    </row>
-    <row r="33" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="73">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="139"/>
-    </row>
-    <row r="34" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="73">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="139"/>
-    </row>
-    <row r="35" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="73">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="139"/>
-    </row>
-    <row r="36" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="73">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="139"/>
-    </row>
-    <row r="37" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="73">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="139"/>
-    </row>
-    <row r="38" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="71">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
-    </row>
-    <row r="39" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="71">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="141"/>
-    </row>
-    <row r="40" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="141"/>
-    </row>
-    <row r="41" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
-    </row>
-    <row r="42" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="141"/>
-    </row>
-    <row r="43" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-    </row>
-    <row r="44" spans="1:10" s="52" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="57"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="I42:J42"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY43 SU5:SU43 ACQ5:ACQ43 AMM5:AMM43 AWI5:AWI43 BGE5:BGE43 BQA5:BQA43 BZW5:BZW43 CJS5:CJS43 CTO5:CTO43 DDK5:DDK43 DNG5:DNG43 DXC5:DXC43 EGY5:EGY43 EQU5:EQU43 FAQ5:FAQ43 FKM5:FKM43 FUI5:FUI43 GEE5:GEE43 GOA5:GOA43 GXW5:GXW43 HHS5:HHS43 HRO5:HRO43 IBK5:IBK43 ILG5:ILG43 IVC5:IVC43 JEY5:JEY43 JOU5:JOU43 JYQ5:JYQ43 KIM5:KIM43 KSI5:KSI43 LCE5:LCE43 LMA5:LMA43 LVW5:LVW43 MFS5:MFS43 MPO5:MPO43 MZK5:MZK43 NJG5:NJG43 NTC5:NTC43 OCY5:OCY43 OMU5:OMU43 OWQ5:OWQ43 PGM5:PGM43 PQI5:PQI43 QAE5:QAE43 QKA5:QKA43 QTW5:QTW43 RDS5:RDS43 RNO5:RNO43 RXK5:RXK43 SHG5:SHG43 SRC5:SRC43 TAY5:TAY43 TKU5:TKU43 TUQ5:TUQ43 UEM5:UEM43 UOI5:UOI43 UYE5:UYE43 VIA5:VIA43 VRW5:VRW43 WBS5:WBS43 WLO5:WLO43 WVK5:WVK43 IY65541:IY65579 SU65541:SU65579 ACQ65541:ACQ65579 AMM65541:AMM65579 AWI65541:AWI65579 BGE65541:BGE65579 BQA65541:BQA65579 BZW65541:BZW65579 CJS65541:CJS65579 CTO65541:CTO65579 DDK65541:DDK65579 DNG65541:DNG65579 DXC65541:DXC65579 EGY65541:EGY65579 EQU65541:EQU65579 FAQ65541:FAQ65579 FKM65541:FKM65579 FUI65541:FUI65579 GEE65541:GEE65579 GOA65541:GOA65579 GXW65541:GXW65579 HHS65541:HHS65579 HRO65541:HRO65579 IBK65541:IBK65579 ILG65541:ILG65579 IVC65541:IVC65579 JEY65541:JEY65579 JOU65541:JOU65579 JYQ65541:JYQ65579 KIM65541:KIM65579 KSI65541:KSI65579 LCE65541:LCE65579 LMA65541:LMA65579 LVW65541:LVW65579 MFS65541:MFS65579 MPO65541:MPO65579 MZK65541:MZK65579 NJG65541:NJG65579 NTC65541:NTC65579 OCY65541:OCY65579 OMU65541:OMU65579 OWQ65541:OWQ65579 PGM65541:PGM65579 PQI65541:PQI65579 QAE65541:QAE65579 QKA65541:QKA65579 QTW65541:QTW65579 RDS65541:RDS65579 RNO65541:RNO65579 RXK65541:RXK65579 SHG65541:SHG65579 SRC65541:SRC65579 TAY65541:TAY65579 TKU65541:TKU65579 TUQ65541:TUQ65579 UEM65541:UEM65579 UOI65541:UOI65579 UYE65541:UYE65579 VIA65541:VIA65579 VRW65541:VRW65579 WBS65541:WBS65579 WLO65541:WLO65579 WVK65541:WVK65579 IY131077:IY131115 SU131077:SU131115 ACQ131077:ACQ131115 AMM131077:AMM131115 AWI131077:AWI131115 BGE131077:BGE131115 BQA131077:BQA131115 BZW131077:BZW131115 CJS131077:CJS131115 CTO131077:CTO131115 DDK131077:DDK131115 DNG131077:DNG131115 DXC131077:DXC131115 EGY131077:EGY131115 EQU131077:EQU131115 FAQ131077:FAQ131115 FKM131077:FKM131115 FUI131077:FUI131115 GEE131077:GEE131115 GOA131077:GOA131115 GXW131077:GXW131115 HHS131077:HHS131115 HRO131077:HRO131115 IBK131077:IBK131115 ILG131077:ILG131115 IVC131077:IVC131115 JEY131077:JEY131115 JOU131077:JOU131115 JYQ131077:JYQ131115 KIM131077:KIM131115 KSI131077:KSI131115 LCE131077:LCE131115 LMA131077:LMA131115 LVW131077:LVW131115 MFS131077:MFS131115 MPO131077:MPO131115 MZK131077:MZK131115 NJG131077:NJG131115 NTC131077:NTC131115 OCY131077:OCY131115 OMU131077:OMU131115 OWQ131077:OWQ131115 PGM131077:PGM131115 PQI131077:PQI131115 QAE131077:QAE131115 QKA131077:QKA131115 QTW131077:QTW131115 RDS131077:RDS131115 RNO131077:RNO131115 RXK131077:RXK131115 SHG131077:SHG131115 SRC131077:SRC131115 TAY131077:TAY131115 TKU131077:TKU131115 TUQ131077:TUQ131115 UEM131077:UEM131115 UOI131077:UOI131115 UYE131077:UYE131115 VIA131077:VIA131115 VRW131077:VRW131115 WBS131077:WBS131115 WLO131077:WLO131115 WVK131077:WVK131115 IY196613:IY196651 SU196613:SU196651 ACQ196613:ACQ196651 AMM196613:AMM196651 AWI196613:AWI196651 BGE196613:BGE196651 BQA196613:BQA196651 BZW196613:BZW196651 CJS196613:CJS196651 CTO196613:CTO196651 DDK196613:DDK196651 DNG196613:DNG196651 DXC196613:DXC196651 EGY196613:EGY196651 EQU196613:EQU196651 FAQ196613:FAQ196651 FKM196613:FKM196651 FUI196613:FUI196651 GEE196613:GEE196651 GOA196613:GOA196651 GXW196613:GXW196651 HHS196613:HHS196651 HRO196613:HRO196651 IBK196613:IBK196651 ILG196613:ILG196651 IVC196613:IVC196651 JEY196613:JEY196651 JOU196613:JOU196651 JYQ196613:JYQ196651 KIM196613:KIM196651 KSI196613:KSI196651 LCE196613:LCE196651 LMA196613:LMA196651 LVW196613:LVW196651 MFS196613:MFS196651 MPO196613:MPO196651 MZK196613:MZK196651 NJG196613:NJG196651 NTC196613:NTC196651 OCY196613:OCY196651 OMU196613:OMU196651 OWQ196613:OWQ196651 PGM196613:PGM196651 PQI196613:PQI196651 QAE196613:QAE196651 QKA196613:QKA196651 QTW196613:QTW196651 RDS196613:RDS196651 RNO196613:RNO196651 RXK196613:RXK196651 SHG196613:SHG196651 SRC196613:SRC196651 TAY196613:TAY196651 TKU196613:TKU196651 TUQ196613:TUQ196651 UEM196613:UEM196651 UOI196613:UOI196651 UYE196613:UYE196651 VIA196613:VIA196651 VRW196613:VRW196651 WBS196613:WBS196651 WLO196613:WLO196651 WVK196613:WVK196651 IY262149:IY262187 SU262149:SU262187 ACQ262149:ACQ262187 AMM262149:AMM262187 AWI262149:AWI262187 BGE262149:BGE262187 BQA262149:BQA262187 BZW262149:BZW262187 CJS262149:CJS262187 CTO262149:CTO262187 DDK262149:DDK262187 DNG262149:DNG262187 DXC262149:DXC262187 EGY262149:EGY262187 EQU262149:EQU262187 FAQ262149:FAQ262187 FKM262149:FKM262187 FUI262149:FUI262187 GEE262149:GEE262187 GOA262149:GOA262187 GXW262149:GXW262187 HHS262149:HHS262187 HRO262149:HRO262187 IBK262149:IBK262187 ILG262149:ILG262187 IVC262149:IVC262187 JEY262149:JEY262187 JOU262149:JOU262187 JYQ262149:JYQ262187 KIM262149:KIM262187 KSI262149:KSI262187 LCE262149:LCE262187 LMA262149:LMA262187 LVW262149:LVW262187 MFS262149:MFS262187 MPO262149:MPO262187 MZK262149:MZK262187 NJG262149:NJG262187 NTC262149:NTC262187 OCY262149:OCY262187 OMU262149:OMU262187 OWQ262149:OWQ262187 PGM262149:PGM262187 PQI262149:PQI262187 QAE262149:QAE262187 QKA262149:QKA262187 QTW262149:QTW262187 RDS262149:RDS262187 RNO262149:RNO262187 RXK262149:RXK262187 SHG262149:SHG262187 SRC262149:SRC262187 TAY262149:TAY262187 TKU262149:TKU262187 TUQ262149:TUQ262187 UEM262149:UEM262187 UOI262149:UOI262187 UYE262149:UYE262187 VIA262149:VIA262187 VRW262149:VRW262187 WBS262149:WBS262187 WLO262149:WLO262187 WVK262149:WVK262187 IY327685:IY327723 SU327685:SU327723 ACQ327685:ACQ327723 AMM327685:AMM327723 AWI327685:AWI327723 BGE327685:BGE327723 BQA327685:BQA327723 BZW327685:BZW327723 CJS327685:CJS327723 CTO327685:CTO327723 DDK327685:DDK327723 DNG327685:DNG327723 DXC327685:DXC327723 EGY327685:EGY327723 EQU327685:EQU327723 FAQ327685:FAQ327723 FKM327685:FKM327723 FUI327685:FUI327723 GEE327685:GEE327723 GOA327685:GOA327723 GXW327685:GXW327723 HHS327685:HHS327723 HRO327685:HRO327723 IBK327685:IBK327723 ILG327685:ILG327723 IVC327685:IVC327723 JEY327685:JEY327723 JOU327685:JOU327723 JYQ327685:JYQ327723 KIM327685:KIM327723 KSI327685:KSI327723 LCE327685:LCE327723 LMA327685:LMA327723 LVW327685:LVW327723 MFS327685:MFS327723 MPO327685:MPO327723 MZK327685:MZK327723 NJG327685:NJG327723 NTC327685:NTC327723 OCY327685:OCY327723 OMU327685:OMU327723 OWQ327685:OWQ327723 PGM327685:PGM327723 PQI327685:PQI327723 QAE327685:QAE327723 QKA327685:QKA327723 QTW327685:QTW327723 RDS327685:RDS327723 RNO327685:RNO327723 RXK327685:RXK327723 SHG327685:SHG327723 SRC327685:SRC327723 TAY327685:TAY327723 TKU327685:TKU327723 TUQ327685:TUQ327723 UEM327685:UEM327723 UOI327685:UOI327723 UYE327685:UYE327723 VIA327685:VIA327723 VRW327685:VRW327723 WBS327685:WBS327723 WLO327685:WLO327723 WVK327685:WVK327723 IY393221:IY393259 SU393221:SU393259 ACQ393221:ACQ393259 AMM393221:AMM393259 AWI393221:AWI393259 BGE393221:BGE393259 BQA393221:BQA393259 BZW393221:BZW393259 CJS393221:CJS393259 CTO393221:CTO393259 DDK393221:DDK393259 DNG393221:DNG393259 DXC393221:DXC393259 EGY393221:EGY393259 EQU393221:EQU393259 FAQ393221:FAQ393259 FKM393221:FKM393259 FUI393221:FUI393259 GEE393221:GEE393259 GOA393221:GOA393259 GXW393221:GXW393259 HHS393221:HHS393259 HRO393221:HRO393259 IBK393221:IBK393259 ILG393221:ILG393259 IVC393221:IVC393259 JEY393221:JEY393259 JOU393221:JOU393259 JYQ393221:JYQ393259 KIM393221:KIM393259 KSI393221:KSI393259 LCE393221:LCE393259 LMA393221:LMA393259 LVW393221:LVW393259 MFS393221:MFS393259 MPO393221:MPO393259 MZK393221:MZK393259 NJG393221:NJG393259 NTC393221:NTC393259 OCY393221:OCY393259 OMU393221:OMU393259 OWQ393221:OWQ393259 PGM393221:PGM393259 PQI393221:PQI393259 QAE393221:QAE393259 QKA393221:QKA393259 QTW393221:QTW393259 RDS393221:RDS393259 RNO393221:RNO393259 RXK393221:RXK393259 SHG393221:SHG393259 SRC393221:SRC393259 TAY393221:TAY393259 TKU393221:TKU393259 TUQ393221:TUQ393259 UEM393221:UEM393259 UOI393221:UOI393259 UYE393221:UYE393259 VIA393221:VIA393259 VRW393221:VRW393259 WBS393221:WBS393259 WLO393221:WLO393259 WVK393221:WVK393259 IY458757:IY458795 SU458757:SU458795 ACQ458757:ACQ458795 AMM458757:AMM458795 AWI458757:AWI458795 BGE458757:BGE458795 BQA458757:BQA458795 BZW458757:BZW458795 CJS458757:CJS458795 CTO458757:CTO458795 DDK458757:DDK458795 DNG458757:DNG458795 DXC458757:DXC458795 EGY458757:EGY458795 EQU458757:EQU458795 FAQ458757:FAQ458795 FKM458757:FKM458795 FUI458757:FUI458795 GEE458757:GEE458795 GOA458757:GOA458795 GXW458757:GXW458795 HHS458757:HHS458795 HRO458757:HRO458795 IBK458757:IBK458795 ILG458757:ILG458795 IVC458757:IVC458795 JEY458757:JEY458795 JOU458757:JOU458795 JYQ458757:JYQ458795 KIM458757:KIM458795 KSI458757:KSI458795 LCE458757:LCE458795 LMA458757:LMA458795 LVW458757:LVW458795 MFS458757:MFS458795 MPO458757:MPO458795 MZK458757:MZK458795 NJG458757:NJG458795 NTC458757:NTC458795 OCY458757:OCY458795 OMU458757:OMU458795 OWQ458757:OWQ458795 PGM458757:PGM458795 PQI458757:PQI458795 QAE458757:QAE458795 QKA458757:QKA458795 QTW458757:QTW458795 RDS458757:RDS458795 RNO458757:RNO458795 RXK458757:RXK458795 SHG458757:SHG458795 SRC458757:SRC458795 TAY458757:TAY458795 TKU458757:TKU458795 TUQ458757:TUQ458795 UEM458757:UEM458795 UOI458757:UOI458795 UYE458757:UYE458795 VIA458757:VIA458795 VRW458757:VRW458795 WBS458757:WBS458795 WLO458757:WLO458795 WVK458757:WVK458795 IY524293:IY524331 SU524293:SU524331 ACQ524293:ACQ524331 AMM524293:AMM524331 AWI524293:AWI524331 BGE524293:BGE524331 BQA524293:BQA524331 BZW524293:BZW524331 CJS524293:CJS524331 CTO524293:CTO524331 DDK524293:DDK524331 DNG524293:DNG524331 DXC524293:DXC524331 EGY524293:EGY524331 EQU524293:EQU524331 FAQ524293:FAQ524331 FKM524293:FKM524331 FUI524293:FUI524331 GEE524293:GEE524331 GOA524293:GOA524331 GXW524293:GXW524331 HHS524293:HHS524331 HRO524293:HRO524331 IBK524293:IBK524331 ILG524293:ILG524331 IVC524293:IVC524331 JEY524293:JEY524331 JOU524293:JOU524331 JYQ524293:JYQ524331 KIM524293:KIM524331 KSI524293:KSI524331 LCE524293:LCE524331 LMA524293:LMA524331 LVW524293:LVW524331 MFS524293:MFS524331 MPO524293:MPO524331 MZK524293:MZK524331 NJG524293:NJG524331 NTC524293:NTC524331 OCY524293:OCY524331 OMU524293:OMU524331 OWQ524293:OWQ524331 PGM524293:PGM524331 PQI524293:PQI524331 QAE524293:QAE524331 QKA524293:QKA524331 QTW524293:QTW524331 RDS524293:RDS524331 RNO524293:RNO524331 RXK524293:RXK524331 SHG524293:SHG524331 SRC524293:SRC524331 TAY524293:TAY524331 TKU524293:TKU524331 TUQ524293:TUQ524331 UEM524293:UEM524331 UOI524293:UOI524331 UYE524293:UYE524331 VIA524293:VIA524331 VRW524293:VRW524331 WBS524293:WBS524331 WLO524293:WLO524331 WVK524293:WVK524331 IY589829:IY589867 SU589829:SU589867 ACQ589829:ACQ589867 AMM589829:AMM589867 AWI589829:AWI589867 BGE589829:BGE589867 BQA589829:BQA589867 BZW589829:BZW589867 CJS589829:CJS589867 CTO589829:CTO589867 DDK589829:DDK589867 DNG589829:DNG589867 DXC589829:DXC589867 EGY589829:EGY589867 EQU589829:EQU589867 FAQ589829:FAQ589867 FKM589829:FKM589867 FUI589829:FUI589867 GEE589829:GEE589867 GOA589829:GOA589867 GXW589829:GXW589867 HHS589829:HHS589867 HRO589829:HRO589867 IBK589829:IBK589867 ILG589829:ILG589867 IVC589829:IVC589867 JEY589829:JEY589867 JOU589829:JOU589867 JYQ589829:JYQ589867 KIM589829:KIM589867 KSI589829:KSI589867 LCE589829:LCE589867 LMA589829:LMA589867 LVW589829:LVW589867 MFS589829:MFS589867 MPO589829:MPO589867 MZK589829:MZK589867 NJG589829:NJG589867 NTC589829:NTC589867 OCY589829:OCY589867 OMU589829:OMU589867 OWQ589829:OWQ589867 PGM589829:PGM589867 PQI589829:PQI589867 QAE589829:QAE589867 QKA589829:QKA589867 QTW589829:QTW589867 RDS589829:RDS589867 RNO589829:RNO589867 RXK589829:RXK589867 SHG589829:SHG589867 SRC589829:SRC589867 TAY589829:TAY589867 TKU589829:TKU589867 TUQ589829:TUQ589867 UEM589829:UEM589867 UOI589829:UOI589867 UYE589829:UYE589867 VIA589829:VIA589867 VRW589829:VRW589867 WBS589829:WBS589867 WLO589829:WLO589867 WVK589829:WVK589867 IY655365:IY655403 SU655365:SU655403 ACQ655365:ACQ655403 AMM655365:AMM655403 AWI655365:AWI655403 BGE655365:BGE655403 BQA655365:BQA655403 BZW655365:BZW655403 CJS655365:CJS655403 CTO655365:CTO655403 DDK655365:DDK655403 DNG655365:DNG655403 DXC655365:DXC655403 EGY655365:EGY655403 EQU655365:EQU655403 FAQ655365:FAQ655403 FKM655365:FKM655403 FUI655365:FUI655403 GEE655365:GEE655403 GOA655365:GOA655403 GXW655365:GXW655403 HHS655365:HHS655403 HRO655365:HRO655403 IBK655365:IBK655403 ILG655365:ILG655403 IVC655365:IVC655403 JEY655365:JEY655403 JOU655365:JOU655403 JYQ655365:JYQ655403 KIM655365:KIM655403 KSI655365:KSI655403 LCE655365:LCE655403 LMA655365:LMA655403 LVW655365:LVW655403 MFS655365:MFS655403 MPO655365:MPO655403 MZK655365:MZK655403 NJG655365:NJG655403 NTC655365:NTC655403 OCY655365:OCY655403 OMU655365:OMU655403 OWQ655365:OWQ655403 PGM655365:PGM655403 PQI655365:PQI655403 QAE655365:QAE655403 QKA655365:QKA655403 QTW655365:QTW655403 RDS655365:RDS655403 RNO655365:RNO655403 RXK655365:RXK655403 SHG655365:SHG655403 SRC655365:SRC655403 TAY655365:TAY655403 TKU655365:TKU655403 TUQ655365:TUQ655403 UEM655365:UEM655403 UOI655365:UOI655403 UYE655365:UYE655403 VIA655365:VIA655403 VRW655365:VRW655403 WBS655365:WBS655403 WLO655365:WLO655403 WVK655365:WVK655403 IY720901:IY720939 SU720901:SU720939 ACQ720901:ACQ720939 AMM720901:AMM720939 AWI720901:AWI720939 BGE720901:BGE720939 BQA720901:BQA720939 BZW720901:BZW720939 CJS720901:CJS720939 CTO720901:CTO720939 DDK720901:DDK720939 DNG720901:DNG720939 DXC720901:DXC720939 EGY720901:EGY720939 EQU720901:EQU720939 FAQ720901:FAQ720939 FKM720901:FKM720939 FUI720901:FUI720939 GEE720901:GEE720939 GOA720901:GOA720939 GXW720901:GXW720939 HHS720901:HHS720939 HRO720901:HRO720939 IBK720901:IBK720939 ILG720901:ILG720939 IVC720901:IVC720939 JEY720901:JEY720939 JOU720901:JOU720939 JYQ720901:JYQ720939 KIM720901:KIM720939 KSI720901:KSI720939 LCE720901:LCE720939 LMA720901:LMA720939 LVW720901:LVW720939 MFS720901:MFS720939 MPO720901:MPO720939 MZK720901:MZK720939 NJG720901:NJG720939 NTC720901:NTC720939 OCY720901:OCY720939 OMU720901:OMU720939 OWQ720901:OWQ720939 PGM720901:PGM720939 PQI720901:PQI720939 QAE720901:QAE720939 QKA720901:QKA720939 QTW720901:QTW720939 RDS720901:RDS720939 RNO720901:RNO720939 RXK720901:RXK720939 SHG720901:SHG720939 SRC720901:SRC720939 TAY720901:TAY720939 TKU720901:TKU720939 TUQ720901:TUQ720939 UEM720901:UEM720939 UOI720901:UOI720939 UYE720901:UYE720939 VIA720901:VIA720939 VRW720901:VRW720939 WBS720901:WBS720939 WLO720901:WLO720939 WVK720901:WVK720939 IY786437:IY786475 SU786437:SU786475 ACQ786437:ACQ786475 AMM786437:AMM786475 AWI786437:AWI786475 BGE786437:BGE786475 BQA786437:BQA786475 BZW786437:BZW786475 CJS786437:CJS786475 CTO786437:CTO786475 DDK786437:DDK786475 DNG786437:DNG786475 DXC786437:DXC786475 EGY786437:EGY786475 EQU786437:EQU786475 FAQ786437:FAQ786475 FKM786437:FKM786475 FUI786437:FUI786475 GEE786437:GEE786475 GOA786437:GOA786475 GXW786437:GXW786475 HHS786437:HHS786475 HRO786437:HRO786475 IBK786437:IBK786475 ILG786437:ILG786475 IVC786437:IVC786475 JEY786437:JEY786475 JOU786437:JOU786475 JYQ786437:JYQ786475 KIM786437:KIM786475 KSI786437:KSI786475 LCE786437:LCE786475 LMA786437:LMA786475 LVW786437:LVW786475 MFS786437:MFS786475 MPO786437:MPO786475 MZK786437:MZK786475 NJG786437:NJG786475 NTC786437:NTC786475 OCY786437:OCY786475 OMU786437:OMU786475 OWQ786437:OWQ786475 PGM786437:PGM786475 PQI786437:PQI786475 QAE786437:QAE786475 QKA786437:QKA786475 QTW786437:QTW786475 RDS786437:RDS786475 RNO786437:RNO786475 RXK786437:RXK786475 SHG786437:SHG786475 SRC786437:SRC786475 TAY786437:TAY786475 TKU786437:TKU786475 TUQ786437:TUQ786475 UEM786437:UEM786475 UOI786437:UOI786475 UYE786437:UYE786475 VIA786437:VIA786475 VRW786437:VRW786475 WBS786437:WBS786475 WLO786437:WLO786475 WVK786437:WVK786475 IY851973:IY852011 SU851973:SU852011 ACQ851973:ACQ852011 AMM851973:AMM852011 AWI851973:AWI852011 BGE851973:BGE852011 BQA851973:BQA852011 BZW851973:BZW852011 CJS851973:CJS852011 CTO851973:CTO852011 DDK851973:DDK852011 DNG851973:DNG852011 DXC851973:DXC852011 EGY851973:EGY852011 EQU851973:EQU852011 FAQ851973:FAQ852011 FKM851973:FKM852011 FUI851973:FUI852011 GEE851973:GEE852011 GOA851973:GOA852011 GXW851973:GXW852011 HHS851973:HHS852011 HRO851973:HRO852011 IBK851973:IBK852011 ILG851973:ILG852011 IVC851973:IVC852011 JEY851973:JEY852011 JOU851973:JOU852011 JYQ851973:JYQ852011 KIM851973:KIM852011 KSI851973:KSI852011 LCE851973:LCE852011 LMA851973:LMA852011 LVW851973:LVW852011 MFS851973:MFS852011 MPO851973:MPO852011 MZK851973:MZK852011 NJG851973:NJG852011 NTC851973:NTC852011 OCY851973:OCY852011 OMU851973:OMU852011 OWQ851973:OWQ852011 PGM851973:PGM852011 PQI851973:PQI852011 QAE851973:QAE852011 QKA851973:QKA852011 QTW851973:QTW852011 RDS851973:RDS852011 RNO851973:RNO852011 RXK851973:RXK852011 SHG851973:SHG852011 SRC851973:SRC852011 TAY851973:TAY852011 TKU851973:TKU852011 TUQ851973:TUQ852011 UEM851973:UEM852011 UOI851973:UOI852011 UYE851973:UYE852011 VIA851973:VIA852011 VRW851973:VRW852011 WBS851973:WBS852011 WLO851973:WLO852011 WVK851973:WVK852011 IY917509:IY917547 SU917509:SU917547 ACQ917509:ACQ917547 AMM917509:AMM917547 AWI917509:AWI917547 BGE917509:BGE917547 BQA917509:BQA917547 BZW917509:BZW917547 CJS917509:CJS917547 CTO917509:CTO917547 DDK917509:DDK917547 DNG917509:DNG917547 DXC917509:DXC917547 EGY917509:EGY917547 EQU917509:EQU917547 FAQ917509:FAQ917547 FKM917509:FKM917547 FUI917509:FUI917547 GEE917509:GEE917547 GOA917509:GOA917547 GXW917509:GXW917547 HHS917509:HHS917547 HRO917509:HRO917547 IBK917509:IBK917547 ILG917509:ILG917547 IVC917509:IVC917547 JEY917509:JEY917547 JOU917509:JOU917547 JYQ917509:JYQ917547 KIM917509:KIM917547 KSI917509:KSI917547 LCE917509:LCE917547 LMA917509:LMA917547 LVW917509:LVW917547 MFS917509:MFS917547 MPO917509:MPO917547 MZK917509:MZK917547 NJG917509:NJG917547 NTC917509:NTC917547 OCY917509:OCY917547 OMU917509:OMU917547 OWQ917509:OWQ917547 PGM917509:PGM917547 PQI917509:PQI917547 QAE917509:QAE917547 QKA917509:QKA917547 QTW917509:QTW917547 RDS917509:RDS917547 RNO917509:RNO917547 RXK917509:RXK917547 SHG917509:SHG917547 SRC917509:SRC917547 TAY917509:TAY917547 TKU917509:TKU917547 TUQ917509:TUQ917547 UEM917509:UEM917547 UOI917509:UOI917547 UYE917509:UYE917547 VIA917509:VIA917547 VRW917509:VRW917547 WBS917509:WBS917547 WLO917509:WLO917547 WVK917509:WVK917547 IY983045:IY983083 SU983045:SU983083 ACQ983045:ACQ983083 AMM983045:AMM983083 AWI983045:AWI983083 BGE983045:BGE983083 BQA983045:BQA983083 BZW983045:BZW983083 CJS983045:CJS983083 CTO983045:CTO983083 DDK983045:DDK983083 DNG983045:DNG983083 DXC983045:DXC983083 EGY983045:EGY983083 EQU983045:EQU983083 FAQ983045:FAQ983083 FKM983045:FKM983083 FUI983045:FUI983083 GEE983045:GEE983083 GOA983045:GOA983083 GXW983045:GXW983083 HHS983045:HHS983083 HRO983045:HRO983083 IBK983045:IBK983083 ILG983045:ILG983083 IVC983045:IVC983083 JEY983045:JEY983083 JOU983045:JOU983083 JYQ983045:JYQ983083 KIM983045:KIM983083 KSI983045:KSI983083 LCE983045:LCE983083 LMA983045:LMA983083 LVW983045:LVW983083 MFS983045:MFS983083 MPO983045:MPO983083 MZK983045:MZK983083 NJG983045:NJG983083 NTC983045:NTC983083 OCY983045:OCY983083 OMU983045:OMU983083 OWQ983045:OWQ983083 PGM983045:PGM983083 PQI983045:PQI983083 QAE983045:QAE983083 QKA983045:QKA983083 QTW983045:QTW983083 RDS983045:RDS983083 RNO983045:RNO983083 RXK983045:RXK983083 SHG983045:SHG983083 SRC983045:SRC983083 TAY983045:TAY983083 TKU983045:TKU983083 TUQ983045:TUQ983083 UEM983045:UEM983083 UOI983045:UOI983083 UYE983045:UYE983083 VIA983045:VIA983083 VRW983045:VRW983083 WBS983045:WBS983083 WLO983045:WLO983083 WVK983045:WVK983083 H983045:H983083 H917509:H917547 H851973:H852011 H786437:H786475 H720901:H720939 H655365:H655403 H589829:H589867 H524293:H524331 H458757:H458795 H393221:H393259 H327685:H327723 H262149:H262187 H196613:H196651 H131077:H131115 H65541:H65579 H5:H43">
-      <formula1>"主键,外键,索引"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
 </file>
--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="15360" windowHeight="7515" tabRatio="656" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">user!$A$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">实体列表!$A$1:$O$26</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="226">
   <si>
     <t>1.1.0</t>
     <phoneticPr fontId="5"/>
@@ -1002,11 +1002,39 @@
     <t>增加告警类型信息，添加附件告警</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>裴朝辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0普通用户1管理员2审计员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="53">
     <font>
       <sz val="11"/>
@@ -3016,6 +3044,33 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3025,32 +3080,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3061,9 +3095,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3073,14 +3104,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="49" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="2" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3116,33 +3171,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3311,7 +3339,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3385,6 +3413,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3419,6 +3448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3594,12 +3624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
@@ -3659,17 +3689,17 @@
       <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="113"/>
       <c r="P4" s="2"/>
       <c r="Z4" s="1"/>
     </row>
@@ -4004,17 +4034,17 @@
       <c r="D14" s="9">
         <v>1.7</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -4039,17 +4069,17 @@
       <c r="D15" s="9">
         <v>1.8</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="113"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="110"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -4074,17 +4104,17 @@
       <c r="D16" s="9">
         <v>1.9</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="113"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="110"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -4109,17 +4139,17 @@
       <c r="D17" s="9">
         <v>1.9</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="113"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="110"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -4132,19 +4162,29 @@
       <c r="Y17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="110"/>
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="104"/>
       <c r="P18" s="2"/>
       <c r="Z18" s="1"/>
     </row>
@@ -4435,13 +4475,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
@@ -4450,6 +4483,13 @@
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4459,7 +4499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4482,10 +4522,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="146"/>
       <c r="D1" s="147"/>
       <c r="E1" s="147"/>
@@ -4496,10 +4536,10 @@
       <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="146"/>
       <c r="D2" s="147"/>
       <c r="E2" s="147"/>
@@ -4510,27 +4550,27 @@
       <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="134"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="75" t="s">
         <v>22</v>
       </c>
@@ -4546,10 +4586,10 @@
       <c r="H4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="135" t="s">
+      <c r="I4" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="136"/>
+      <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="69">
@@ -4575,10 +4615,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="145"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="66" t="s">
         <v>99</v>
       </c>
@@ -4586,18 +4626,18 @@
       <c r="F6" s="65"/>
       <c r="G6" s="64"/>
       <c r="H6" s="63"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
     </row>
     <row r="7" spans="1:10" s="72" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="145"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="66" t="s">
         <v>190</v>
       </c>
@@ -4605,18 +4645,18 @@
       <c r="F7" s="65"/>
       <c r="G7" s="64"/>
       <c r="H7" s="63"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
     </row>
     <row r="8" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="145"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="66" t="s">
         <v>191</v>
       </c>
@@ -4624,18 +4664,18 @@
       <c r="F8" s="65"/>
       <c r="G8" s="64"/>
       <c r="H8" s="63"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
     </row>
     <row r="9" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="69">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="145"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="66" t="s">
         <v>194</v>
       </c>
@@ -4643,506 +4683,4679 @@
       <c r="F9" s="65"/>
       <c r="G9" s="64"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="69">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="66"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="84"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
     </row>
     <row r="11" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="69">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="66"/>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
       <c r="G11" s="64"/>
       <c r="H11" s="63"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="69">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="66"/>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
       <c r="G12" s="64"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
     </row>
     <row r="13" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="69">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="66"/>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="64"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
     </row>
     <row r="14" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="69">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="66"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
       <c r="G14" s="64"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
     </row>
     <row r="15" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="69">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="66"/>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
       <c r="G15" s="64"/>
       <c r="H15" s="63"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="142"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="69">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="66"/>
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
       <c r="G16" s="64"/>
       <c r="H16" s="63"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="69">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="66"/>
       <c r="E17" s="65"/>
       <c r="F17" s="65"/>
       <c r="G17" s="64"/>
       <c r="H17" s="63"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="69">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="66"/>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="64"/>
       <c r="H18" s="63"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="69">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="66"/>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
       <c r="G19" s="64"/>
       <c r="H19" s="63"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
     </row>
     <row r="20" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="69">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="66"/>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
       <c r="G20" s="64"/>
       <c r="H20" s="63"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
     </row>
     <row r="21" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="69">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="66"/>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
       <c r="G21" s="64"/>
       <c r="H21" s="63"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="142"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
     </row>
     <row r="22" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="69">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="66"/>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
       <c r="G22" s="64"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="142"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="69">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="66"/>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
       <c r="G23" s="64"/>
       <c r="H23" s="63"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="142"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
     </row>
     <row r="24" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="69">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="66"/>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
       <c r="G24" s="64"/>
       <c r="H24" s="63"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="142"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
     </row>
     <row r="25" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="69">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="66"/>
       <c r="E25" s="65"/>
       <c r="F25" s="65"/>
       <c r="G25" s="64"/>
       <c r="H25" s="63"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="142"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
     </row>
     <row r="26" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="71">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="66"/>
       <c r="E26" s="68"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
       <c r="H26" s="70"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="140"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="133"/>
     </row>
     <row r="27" spans="1:10" s="59" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="71">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="66"/>
       <c r="E27" s="68"/>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="140"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
     </row>
     <row r="28" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="71">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="66"/>
       <c r="E28" s="68"/>
       <c r="F28" s="65"/>
       <c r="G28" s="65"/>
       <c r="H28" s="70"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="140"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="71">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="66"/>
       <c r="E29" s="68"/>
       <c r="F29" s="65"/>
       <c r="G29" s="65"/>
       <c r="H29" s="70"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
     </row>
     <row r="30" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="71">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="66"/>
       <c r="E30" s="68"/>
       <c r="F30" s="65"/>
       <c r="G30" s="65"/>
       <c r="H30" s="70"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="140"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
     </row>
     <row r="31" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="71">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="66"/>
       <c r="E31" s="68"/>
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
       <c r="H31" s="70"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="140"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
     </row>
     <row r="32" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="71">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="66"/>
       <c r="E32" s="68"/>
       <c r="F32" s="65"/>
       <c r="G32" s="65"/>
       <c r="H32" s="70"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="140"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
     </row>
     <row r="33" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="71">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="66"/>
       <c r="E33" s="68"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="70"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="140"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
     </row>
     <row r="34" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="71">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="145"/>
-      <c r="C34" s="145"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="66"/>
       <c r="E34" s="68"/>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
       <c r="H34" s="70"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="140"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
     </row>
     <row r="35" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="71">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="66"/>
       <c r="E35" s="68"/>
       <c r="F35" s="65"/>
       <c r="G35" s="65"/>
       <c r="H35" s="70"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="140"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="133"/>
     </row>
     <row r="36" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="71">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="66"/>
       <c r="E36" s="68"/>
       <c r="F36" s="65"/>
       <c r="G36" s="65"/>
       <c r="H36" s="70"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="140"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="133"/>
     </row>
     <row r="37" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="71">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="66"/>
       <c r="E37" s="68"/>
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="140"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
     </row>
     <row r="38" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="69">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
       <c r="D38" s="66"/>
       <c r="E38" s="65"/>
       <c r="F38" s="65"/>
       <c r="G38" s="64"/>
       <c r="H38" s="63"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="142"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="128"/>
     </row>
     <row r="39" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="69">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="66"/>
       <c r="E39" s="68"/>
       <c r="F39" s="65"/>
       <c r="G39" s="64"/>
       <c r="H39" s="63"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="142"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="67"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="66"/>
       <c r="E40" s="65"/>
       <c r="F40" s="65"/>
       <c r="G40" s="64"/>
       <c r="H40" s="63"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="142"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="67"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="66"/>
       <c r="E41" s="65"/>
       <c r="F41" s="65"/>
       <c r="G41" s="64"/>
       <c r="H41" s="63"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="142"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="66"/>
       <c r="E42" s="65"/>
       <c r="F42" s="65"/>
       <c r="G42" s="64"/>
       <c r="H42" s="63"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="142"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="128"/>
     </row>
     <row r="43" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A43" s="62"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="97"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+    </row>
+    <row r="44" spans="1:10" s="50" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A44" s="58"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="56"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="55"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="I42:J42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY5:IY43 SU5:SU43 ACQ5:ACQ43 AMM5:AMM43 AWI5:AWI43 BGE5:BGE43 BQA5:BQA43 BZW5:BZW43 CJS5:CJS43 CTO5:CTO43 DDK5:DDK43 DNG5:DNG43 DXC5:DXC43 EGY5:EGY43 EQU5:EQU43 FAQ5:FAQ43 FKM5:FKM43 FUI5:FUI43 GEE5:GEE43 GOA5:GOA43 GXW5:GXW43 HHS5:HHS43 HRO5:HRO43 IBK5:IBK43 ILG5:ILG43 IVC5:IVC43 JEY5:JEY43 JOU5:JOU43 JYQ5:JYQ43 KIM5:KIM43 KSI5:KSI43 LCE5:LCE43 LMA5:LMA43 LVW5:LVW43 MFS5:MFS43 MPO5:MPO43 MZK5:MZK43 NJG5:NJG43 NTC5:NTC43 OCY5:OCY43 OMU5:OMU43 OWQ5:OWQ43 PGM5:PGM43 PQI5:PQI43 QAE5:QAE43 QKA5:QKA43 QTW5:QTW43 RDS5:RDS43 RNO5:RNO43 RXK5:RXK43 SHG5:SHG43 SRC5:SRC43 TAY5:TAY43 TKU5:TKU43 TUQ5:TUQ43 UEM5:UEM43 UOI5:UOI43 UYE5:UYE43 VIA5:VIA43 VRW5:VRW43 WBS5:WBS43 WLO5:WLO43 WVK5:WVK43 IY65541:IY65579 SU65541:SU65579 ACQ65541:ACQ65579 AMM65541:AMM65579 AWI65541:AWI65579 BGE65541:BGE65579 BQA65541:BQA65579 BZW65541:BZW65579 CJS65541:CJS65579 CTO65541:CTO65579 DDK65541:DDK65579 DNG65541:DNG65579 DXC65541:DXC65579 EGY65541:EGY65579 EQU65541:EQU65579 FAQ65541:FAQ65579 FKM65541:FKM65579 FUI65541:FUI65579 GEE65541:GEE65579 GOA65541:GOA65579 GXW65541:GXW65579 HHS65541:HHS65579 HRO65541:HRO65579 IBK65541:IBK65579 ILG65541:ILG65579 IVC65541:IVC65579 JEY65541:JEY65579 JOU65541:JOU65579 JYQ65541:JYQ65579 KIM65541:KIM65579 KSI65541:KSI65579 LCE65541:LCE65579 LMA65541:LMA65579 LVW65541:LVW65579 MFS65541:MFS65579 MPO65541:MPO65579 MZK65541:MZK65579 NJG65541:NJG65579 NTC65541:NTC65579 OCY65541:OCY65579 OMU65541:OMU65579 OWQ65541:OWQ65579 PGM65541:PGM65579 PQI65541:PQI65579 QAE65541:QAE65579 QKA65541:QKA65579 QTW65541:QTW65579 RDS65541:RDS65579 RNO65541:RNO65579 RXK65541:RXK65579 SHG65541:SHG65579 SRC65541:SRC65579 TAY65541:TAY65579 TKU65541:TKU65579 TUQ65541:TUQ65579 UEM65541:UEM65579 UOI65541:UOI65579 UYE65541:UYE65579 VIA65541:VIA65579 VRW65541:VRW65579 WBS65541:WBS65579 WLO65541:WLO65579 WVK65541:WVK65579 IY131077:IY131115 SU131077:SU131115 ACQ131077:ACQ131115 AMM131077:AMM131115 AWI131077:AWI131115 BGE131077:BGE131115 BQA131077:BQA131115 BZW131077:BZW131115 CJS131077:CJS131115 CTO131077:CTO131115 DDK131077:DDK131115 DNG131077:DNG131115 DXC131077:DXC131115 EGY131077:EGY131115 EQU131077:EQU131115 FAQ131077:FAQ131115 FKM131077:FKM131115 FUI131077:FUI131115 GEE131077:GEE131115 GOA131077:GOA131115 GXW131077:GXW131115 HHS131077:HHS131115 HRO131077:HRO131115 IBK131077:IBK131115 ILG131077:ILG131115 IVC131077:IVC131115 JEY131077:JEY131115 JOU131077:JOU131115 JYQ131077:JYQ131115 KIM131077:KIM131115 KSI131077:KSI131115 LCE131077:LCE131115 LMA131077:LMA131115 LVW131077:LVW131115 MFS131077:MFS131115 MPO131077:MPO131115 MZK131077:MZK131115 NJG131077:NJG131115 NTC131077:NTC131115 OCY131077:OCY131115 OMU131077:OMU131115 OWQ131077:OWQ131115 PGM131077:PGM131115 PQI131077:PQI131115 QAE131077:QAE131115 QKA131077:QKA131115 QTW131077:QTW131115 RDS131077:RDS131115 RNO131077:RNO131115 RXK131077:RXK131115 SHG131077:SHG131115 SRC131077:SRC131115 TAY131077:TAY131115 TKU131077:TKU131115 TUQ131077:TUQ131115 UEM131077:UEM131115 UOI131077:UOI131115 UYE131077:UYE131115 VIA131077:VIA131115 VRW131077:VRW131115 WBS131077:WBS131115 WLO131077:WLO131115 WVK131077:WVK131115 IY196613:IY196651 SU196613:SU196651 ACQ196613:ACQ196651 AMM196613:AMM196651 AWI196613:AWI196651 BGE196613:BGE196651 BQA196613:BQA196651 BZW196613:BZW196651 CJS196613:CJS196651 CTO196613:CTO196651 DDK196613:DDK196651 DNG196613:DNG196651 DXC196613:DXC196651 EGY196613:EGY196651 EQU196613:EQU196651 FAQ196613:FAQ196651 FKM196613:FKM196651 FUI196613:FUI196651 GEE196613:GEE196651 GOA196613:GOA196651 GXW196613:GXW196651 HHS196613:HHS196651 HRO196613:HRO196651 IBK196613:IBK196651 ILG196613:ILG196651 IVC196613:IVC196651 JEY196613:JEY196651 JOU196613:JOU196651 JYQ196613:JYQ196651 KIM196613:KIM196651 KSI196613:KSI196651 LCE196613:LCE196651 LMA196613:LMA196651 LVW196613:LVW196651 MFS196613:MFS196651 MPO196613:MPO196651 MZK196613:MZK196651 NJG196613:NJG196651 NTC196613:NTC196651 OCY196613:OCY196651 OMU196613:OMU196651 OWQ196613:OWQ196651 PGM196613:PGM196651 PQI196613:PQI196651 QAE196613:QAE196651 QKA196613:QKA196651 QTW196613:QTW196651 RDS196613:RDS196651 RNO196613:RNO196651 RXK196613:RXK196651 SHG196613:SHG196651 SRC196613:SRC196651 TAY196613:TAY196651 TKU196613:TKU196651 TUQ196613:TUQ196651 UEM196613:UEM196651 UOI196613:UOI196651 UYE196613:UYE196651 VIA196613:VIA196651 VRW196613:VRW196651 WBS196613:WBS196651 WLO196613:WLO196651 WVK196613:WVK196651 IY262149:IY262187 SU262149:SU262187 ACQ262149:ACQ262187 AMM262149:AMM262187 AWI262149:AWI262187 BGE262149:BGE262187 BQA262149:BQA262187 BZW262149:BZW262187 CJS262149:CJS262187 CTO262149:CTO262187 DDK262149:DDK262187 DNG262149:DNG262187 DXC262149:DXC262187 EGY262149:EGY262187 EQU262149:EQU262187 FAQ262149:FAQ262187 FKM262149:FKM262187 FUI262149:FUI262187 GEE262149:GEE262187 GOA262149:GOA262187 GXW262149:GXW262187 HHS262149:HHS262187 HRO262149:HRO262187 IBK262149:IBK262187 ILG262149:ILG262187 IVC262149:IVC262187 JEY262149:JEY262187 JOU262149:JOU262187 JYQ262149:JYQ262187 KIM262149:KIM262187 KSI262149:KSI262187 LCE262149:LCE262187 LMA262149:LMA262187 LVW262149:LVW262187 MFS262149:MFS262187 MPO262149:MPO262187 MZK262149:MZK262187 NJG262149:NJG262187 NTC262149:NTC262187 OCY262149:OCY262187 OMU262149:OMU262187 OWQ262149:OWQ262187 PGM262149:PGM262187 PQI262149:PQI262187 QAE262149:QAE262187 QKA262149:QKA262187 QTW262149:QTW262187 RDS262149:RDS262187 RNO262149:RNO262187 RXK262149:RXK262187 SHG262149:SHG262187 SRC262149:SRC262187 TAY262149:TAY262187 TKU262149:TKU262187 TUQ262149:TUQ262187 UEM262149:UEM262187 UOI262149:UOI262187 UYE262149:UYE262187 VIA262149:VIA262187 VRW262149:VRW262187 WBS262149:WBS262187 WLO262149:WLO262187 WVK262149:WVK262187 IY327685:IY327723 SU327685:SU327723 ACQ327685:ACQ327723 AMM327685:AMM327723 AWI327685:AWI327723 BGE327685:BGE327723 BQA327685:BQA327723 BZW327685:BZW327723 CJS327685:CJS327723 CTO327685:CTO327723 DDK327685:DDK327723 DNG327685:DNG327723 DXC327685:DXC327723 EGY327685:EGY327723 EQU327685:EQU327723 FAQ327685:FAQ327723 FKM327685:FKM327723 FUI327685:FUI327723 GEE327685:GEE327723 GOA327685:GOA327723 GXW327685:GXW327723 HHS327685:HHS327723 HRO327685:HRO327723 IBK327685:IBK327723 ILG327685:ILG327723 IVC327685:IVC327723 JEY327685:JEY327723 JOU327685:JOU327723 JYQ327685:JYQ327723 KIM327685:KIM327723 KSI327685:KSI327723 LCE327685:LCE327723 LMA327685:LMA327723 LVW327685:LVW327723 MFS327685:MFS327723 MPO327685:MPO327723 MZK327685:MZK327723 NJG327685:NJG327723 NTC327685:NTC327723 OCY327685:OCY327723 OMU327685:OMU327723 OWQ327685:OWQ327723 PGM327685:PGM327723 PQI327685:PQI327723 QAE327685:QAE327723 QKA327685:QKA327723 QTW327685:QTW327723 RDS327685:RDS327723 RNO327685:RNO327723 RXK327685:RXK327723 SHG327685:SHG327723 SRC327685:SRC327723 TAY327685:TAY327723 TKU327685:TKU327723 TUQ327685:TUQ327723 UEM327685:UEM327723 UOI327685:UOI327723 UYE327685:UYE327723 VIA327685:VIA327723 VRW327685:VRW327723 WBS327685:WBS327723 WLO327685:WLO327723 WVK327685:WVK327723 IY393221:IY393259 SU393221:SU393259 ACQ393221:ACQ393259 AMM393221:AMM393259 AWI393221:AWI393259 BGE393221:BGE393259 BQA393221:BQA393259 BZW393221:BZW393259 CJS393221:CJS393259 CTO393221:CTO393259 DDK393221:DDK393259 DNG393221:DNG393259 DXC393221:DXC393259 EGY393221:EGY393259 EQU393221:EQU393259 FAQ393221:FAQ393259 FKM393221:FKM393259 FUI393221:FUI393259 GEE393221:GEE393259 GOA393221:GOA393259 GXW393221:GXW393259 HHS393221:HHS393259 HRO393221:HRO393259 IBK393221:IBK393259 ILG393221:ILG393259 IVC393221:IVC393259 JEY393221:JEY393259 JOU393221:JOU393259 JYQ393221:JYQ393259 KIM393221:KIM393259 KSI393221:KSI393259 LCE393221:LCE393259 LMA393221:LMA393259 LVW393221:LVW393259 MFS393221:MFS393259 MPO393221:MPO393259 MZK393221:MZK393259 NJG393221:NJG393259 NTC393221:NTC393259 OCY393221:OCY393259 OMU393221:OMU393259 OWQ393221:OWQ393259 PGM393221:PGM393259 PQI393221:PQI393259 QAE393221:QAE393259 QKA393221:QKA393259 QTW393221:QTW393259 RDS393221:RDS393259 RNO393221:RNO393259 RXK393221:RXK393259 SHG393221:SHG393259 SRC393221:SRC393259 TAY393221:TAY393259 TKU393221:TKU393259 TUQ393221:TUQ393259 UEM393221:UEM393259 UOI393221:UOI393259 UYE393221:UYE393259 VIA393221:VIA393259 VRW393221:VRW393259 WBS393221:WBS393259 WLO393221:WLO393259 WVK393221:WVK393259 IY458757:IY458795 SU458757:SU458795 ACQ458757:ACQ458795 AMM458757:AMM458795 AWI458757:AWI458795 BGE458757:BGE458795 BQA458757:BQA458795 BZW458757:BZW458795 CJS458757:CJS458795 CTO458757:CTO458795 DDK458757:DDK458795 DNG458757:DNG458795 DXC458757:DXC458795 EGY458757:EGY458795 EQU458757:EQU458795 FAQ458757:FAQ458795 FKM458757:FKM458795 FUI458757:FUI458795 GEE458757:GEE458795 GOA458757:GOA458795 GXW458757:GXW458795 HHS458757:HHS458795 HRO458757:HRO458795 IBK458757:IBK458795 ILG458757:ILG458795 IVC458757:IVC458795 JEY458757:JEY458795 JOU458757:JOU458795 JYQ458757:JYQ458795 KIM458757:KIM458795 KSI458757:KSI458795 LCE458757:LCE458795 LMA458757:LMA458795 LVW458757:LVW458795 MFS458757:MFS458795 MPO458757:MPO458795 MZK458757:MZK458795 NJG458757:NJG458795 NTC458757:NTC458795 OCY458757:OCY458795 OMU458757:OMU458795 OWQ458757:OWQ458795 PGM458757:PGM458795 PQI458757:PQI458795 QAE458757:QAE458795 QKA458757:QKA458795 QTW458757:QTW458795 RDS458757:RDS458795 RNO458757:RNO458795 RXK458757:RXK458795 SHG458757:SHG458795 SRC458757:SRC458795 TAY458757:TAY458795 TKU458757:TKU458795 TUQ458757:TUQ458795 UEM458757:UEM458795 UOI458757:UOI458795 UYE458757:UYE458795 VIA458757:VIA458795 VRW458757:VRW458795 WBS458757:WBS458795 WLO458757:WLO458795 WVK458757:WVK458795 IY524293:IY524331 SU524293:SU524331 ACQ524293:ACQ524331 AMM524293:AMM524331 AWI524293:AWI524331 BGE524293:BGE524331 BQA524293:BQA524331 BZW524293:BZW524331 CJS524293:CJS524331 CTO524293:CTO524331 DDK524293:DDK524331 DNG524293:DNG524331 DXC524293:DXC524331 EGY524293:EGY524331 EQU524293:EQU524331 FAQ524293:FAQ524331 FKM524293:FKM524331 FUI524293:FUI524331 GEE524293:GEE524331 GOA524293:GOA524331 GXW524293:GXW524331 HHS524293:HHS524331 HRO524293:HRO524331 IBK524293:IBK524331 ILG524293:ILG524331 IVC524293:IVC524331 JEY524293:JEY524331 JOU524293:JOU524331 JYQ524293:JYQ524331 KIM524293:KIM524331 KSI524293:KSI524331 LCE524293:LCE524331 LMA524293:LMA524331 LVW524293:LVW524331 MFS524293:MFS524331 MPO524293:MPO524331 MZK524293:MZK524331 NJG524293:NJG524331 NTC524293:NTC524331 OCY524293:OCY524331 OMU524293:OMU524331 OWQ524293:OWQ524331 PGM524293:PGM524331 PQI524293:PQI524331 QAE524293:QAE524331 QKA524293:QKA524331 QTW524293:QTW524331 RDS524293:RDS524331 RNO524293:RNO524331 RXK524293:RXK524331 SHG524293:SHG524331 SRC524293:SRC524331 TAY524293:TAY524331 TKU524293:TKU524331 TUQ524293:TUQ524331 UEM524293:UEM524331 UOI524293:UOI524331 UYE524293:UYE524331 VIA524293:VIA524331 VRW524293:VRW524331 WBS524293:WBS524331 WLO524293:WLO524331 WVK524293:WVK524331 IY589829:IY589867 SU589829:SU589867 ACQ589829:ACQ589867 AMM589829:AMM589867 AWI589829:AWI589867 BGE589829:BGE589867 BQA589829:BQA589867 BZW589829:BZW589867 CJS589829:CJS589867 CTO589829:CTO589867 DDK589829:DDK589867 DNG589829:DNG589867 DXC589829:DXC589867 EGY589829:EGY589867 EQU589829:EQU589867 FAQ589829:FAQ589867 FKM589829:FKM589867 FUI589829:FUI589867 GEE589829:GEE589867 GOA589829:GOA589867 GXW589829:GXW589867 HHS589829:HHS589867 HRO589829:HRO589867 IBK589829:IBK589867 ILG589829:ILG589867 IVC589829:IVC589867 JEY589829:JEY589867 JOU589829:JOU589867 JYQ589829:JYQ589867 KIM589829:KIM589867 KSI589829:KSI589867 LCE589829:LCE589867 LMA589829:LMA589867 LVW589829:LVW589867 MFS589829:MFS589867 MPO589829:MPO589867 MZK589829:MZK589867 NJG589829:NJG589867 NTC589829:NTC589867 OCY589829:OCY589867 OMU589829:OMU589867 OWQ589829:OWQ589867 PGM589829:PGM589867 PQI589829:PQI589867 QAE589829:QAE589867 QKA589829:QKA589867 QTW589829:QTW589867 RDS589829:RDS589867 RNO589829:RNO589867 RXK589829:RXK589867 SHG589829:SHG589867 SRC589829:SRC589867 TAY589829:TAY589867 TKU589829:TKU589867 TUQ589829:TUQ589867 UEM589829:UEM589867 UOI589829:UOI589867 UYE589829:UYE589867 VIA589829:VIA589867 VRW589829:VRW589867 WBS589829:WBS589867 WLO589829:WLO589867 WVK589829:WVK589867 IY655365:IY655403 SU655365:SU655403 ACQ655365:ACQ655403 AMM655365:AMM655403 AWI655365:AWI655403 BGE655365:BGE655403 BQA655365:BQA655403 BZW655365:BZW655403 CJS655365:CJS655403 CTO655365:CTO655403 DDK655365:DDK655403 DNG655365:DNG655403 DXC655365:DXC655403 EGY655365:EGY655403 EQU655365:EQU655403 FAQ655365:FAQ655403 FKM655365:FKM655403 FUI655365:FUI655403 GEE655365:GEE655403 GOA655365:GOA655403 GXW655365:GXW655403 HHS655365:HHS655403 HRO655365:HRO655403 IBK655365:IBK655403 ILG655365:ILG655403 IVC655365:IVC655403 JEY655365:JEY655403 JOU655365:JOU655403 JYQ655365:JYQ655403 KIM655365:KIM655403 KSI655365:KSI655403 LCE655365:LCE655403 LMA655365:LMA655403 LVW655365:LVW655403 MFS655365:MFS655403 MPO655365:MPO655403 MZK655365:MZK655403 NJG655365:NJG655403 NTC655365:NTC655403 OCY655365:OCY655403 OMU655365:OMU655403 OWQ655365:OWQ655403 PGM655365:PGM655403 PQI655365:PQI655403 QAE655365:QAE655403 QKA655365:QKA655403 QTW655365:QTW655403 RDS655365:RDS655403 RNO655365:RNO655403 RXK655365:RXK655403 SHG655365:SHG655403 SRC655365:SRC655403 TAY655365:TAY655403 TKU655365:TKU655403 TUQ655365:TUQ655403 UEM655365:UEM655403 UOI655365:UOI655403 UYE655365:UYE655403 VIA655365:VIA655403 VRW655365:VRW655403 WBS655365:WBS655403 WLO655365:WLO655403 WVK655365:WVK655403 IY720901:IY720939 SU720901:SU720939 ACQ720901:ACQ720939 AMM720901:AMM720939 AWI720901:AWI720939 BGE720901:BGE720939 BQA720901:BQA720939 BZW720901:BZW720939 CJS720901:CJS720939 CTO720901:CTO720939 DDK720901:DDK720939 DNG720901:DNG720939 DXC720901:DXC720939 EGY720901:EGY720939 EQU720901:EQU720939 FAQ720901:FAQ720939 FKM720901:FKM720939 FUI720901:FUI720939 GEE720901:GEE720939 GOA720901:GOA720939 GXW720901:GXW720939 HHS720901:HHS720939 HRO720901:HRO720939 IBK720901:IBK720939 ILG720901:ILG720939 IVC720901:IVC720939 JEY720901:JEY720939 JOU720901:JOU720939 JYQ720901:JYQ720939 KIM720901:KIM720939 KSI720901:KSI720939 LCE720901:LCE720939 LMA720901:LMA720939 LVW720901:LVW720939 MFS720901:MFS720939 MPO720901:MPO720939 MZK720901:MZK720939 NJG720901:NJG720939 NTC720901:NTC720939 OCY720901:OCY720939 OMU720901:OMU720939 OWQ720901:OWQ720939 PGM720901:PGM720939 PQI720901:PQI720939 QAE720901:QAE720939 QKA720901:QKA720939 QTW720901:QTW720939 RDS720901:RDS720939 RNO720901:RNO720939 RXK720901:RXK720939 SHG720901:SHG720939 SRC720901:SRC720939 TAY720901:TAY720939 TKU720901:TKU720939 TUQ720901:TUQ720939 UEM720901:UEM720939 UOI720901:UOI720939 UYE720901:UYE720939 VIA720901:VIA720939 VRW720901:VRW720939 WBS720901:WBS720939 WLO720901:WLO720939 WVK720901:WVK720939 IY786437:IY786475 SU786437:SU786475 ACQ786437:ACQ786475 AMM786437:AMM786475 AWI786437:AWI786475 BGE786437:BGE786475 BQA786437:BQA786475 BZW786437:BZW786475 CJS786437:CJS786475 CTO786437:CTO786475 DDK786437:DDK786475 DNG786437:DNG786475 DXC786437:DXC786475 EGY786437:EGY786475 EQU786437:EQU786475 FAQ786437:FAQ786475 FKM786437:FKM786475 FUI786437:FUI786475 GEE786437:GEE786475 GOA786437:GOA786475 GXW786437:GXW786475 HHS786437:HHS786475 HRO786437:HRO786475 IBK786437:IBK786475 ILG786437:ILG786475 IVC786437:IVC786475 JEY786437:JEY786475 JOU786437:JOU786475 JYQ786437:JYQ786475 KIM786437:KIM786475 KSI786437:KSI786475 LCE786437:LCE786475 LMA786437:LMA786475 LVW786437:LVW786475 MFS786437:MFS786475 MPO786437:MPO786475 MZK786437:MZK786475 NJG786437:NJG786475 NTC786437:NTC786475 OCY786437:OCY786475 OMU786437:OMU786475 OWQ786437:OWQ786475 PGM786437:PGM786475 PQI786437:PQI786475 QAE786437:QAE786475 QKA786437:QKA786475 QTW786437:QTW786475 RDS786437:RDS786475 RNO786437:RNO786475 RXK786437:RXK786475 SHG786437:SHG786475 SRC786437:SRC786475 TAY786437:TAY786475 TKU786437:TKU786475 TUQ786437:TUQ786475 UEM786437:UEM786475 UOI786437:UOI786475 UYE786437:UYE786475 VIA786437:VIA786475 VRW786437:VRW786475 WBS786437:WBS786475 WLO786437:WLO786475 WVK786437:WVK786475 IY851973:IY852011 SU851973:SU852011 ACQ851973:ACQ852011 AMM851973:AMM852011 AWI851973:AWI852011 BGE851973:BGE852011 BQA851973:BQA852011 BZW851973:BZW852011 CJS851973:CJS852011 CTO851973:CTO852011 DDK851973:DDK852011 DNG851973:DNG852011 DXC851973:DXC852011 EGY851973:EGY852011 EQU851973:EQU852011 FAQ851973:FAQ852011 FKM851973:FKM852011 FUI851973:FUI852011 GEE851973:GEE852011 GOA851973:GOA852011 GXW851973:GXW852011 HHS851973:HHS852011 HRO851973:HRO852011 IBK851973:IBK852011 ILG851973:ILG852011 IVC851973:IVC852011 JEY851973:JEY852011 JOU851973:JOU852011 JYQ851973:JYQ852011 KIM851973:KIM852011 KSI851973:KSI852011 LCE851973:LCE852011 LMA851973:LMA852011 LVW851973:LVW852011 MFS851973:MFS852011 MPO851973:MPO852011 MZK851973:MZK852011 NJG851973:NJG852011 NTC851973:NTC852011 OCY851973:OCY852011 OMU851973:OMU852011 OWQ851973:OWQ852011 PGM851973:PGM852011 PQI851973:PQI852011 QAE851973:QAE852011 QKA851973:QKA852011 QTW851973:QTW852011 RDS851973:RDS852011 RNO851973:RNO852011 RXK851973:RXK852011 SHG851973:SHG852011 SRC851973:SRC852011 TAY851973:TAY852011 TKU851973:TKU852011 TUQ851973:TUQ852011 UEM851973:UEM852011 UOI851973:UOI852011 UYE851973:UYE852011 VIA851973:VIA852011 VRW851973:VRW852011 WBS851973:WBS852011 WLO851973:WLO852011 WVK851973:WVK852011 IY917509:IY917547 SU917509:SU917547 ACQ917509:ACQ917547 AMM917509:AMM917547 AWI917509:AWI917547 BGE917509:BGE917547 BQA917509:BQA917547 BZW917509:BZW917547 CJS917509:CJS917547 CTO917509:CTO917547 DDK917509:DDK917547 DNG917509:DNG917547 DXC917509:DXC917547 EGY917509:EGY917547 EQU917509:EQU917547 FAQ917509:FAQ917547 FKM917509:FKM917547 FUI917509:FUI917547 GEE917509:GEE917547 GOA917509:GOA917547 GXW917509:GXW917547 HHS917509:HHS917547 HRO917509:HRO917547 IBK917509:IBK917547 ILG917509:ILG917547 IVC917509:IVC917547 JEY917509:JEY917547 JOU917509:JOU917547 JYQ917509:JYQ917547 KIM917509:KIM917547 KSI917509:KSI917547 LCE917509:LCE917547 LMA917509:LMA917547 LVW917509:LVW917547 MFS917509:MFS917547 MPO917509:MPO917547 MZK917509:MZK917547 NJG917509:NJG917547 NTC917509:NTC917547 OCY917509:OCY917547 OMU917509:OMU917547 OWQ917509:OWQ917547 PGM917509:PGM917547 PQI917509:PQI917547 QAE917509:QAE917547 QKA917509:QKA917547 QTW917509:QTW917547 RDS917509:RDS917547 RNO917509:RNO917547 RXK917509:RXK917547 SHG917509:SHG917547 SRC917509:SRC917547 TAY917509:TAY917547 TKU917509:TKU917547 TUQ917509:TUQ917547 UEM917509:UEM917547 UOI917509:UOI917547 UYE917509:UYE917547 VIA917509:VIA917547 VRW917509:VRW917547 WBS917509:WBS917547 WLO917509:WLO917547 WVK917509:WVK917547 IY983045:IY983083 SU983045:SU983083 ACQ983045:ACQ983083 AMM983045:AMM983083 AWI983045:AWI983083 BGE983045:BGE983083 BQA983045:BQA983083 BZW983045:BZW983083 CJS983045:CJS983083 CTO983045:CTO983083 DDK983045:DDK983083 DNG983045:DNG983083 DXC983045:DXC983083 EGY983045:EGY983083 EQU983045:EQU983083 FAQ983045:FAQ983083 FKM983045:FKM983083 FUI983045:FUI983083 GEE983045:GEE983083 GOA983045:GOA983083 GXW983045:GXW983083 HHS983045:HHS983083 HRO983045:HRO983083 IBK983045:IBK983083 ILG983045:ILG983083 IVC983045:IVC983083 JEY983045:JEY983083 JOU983045:JOU983083 JYQ983045:JYQ983083 KIM983045:KIM983083 KSI983045:KSI983083 LCE983045:LCE983083 LMA983045:LMA983083 LVW983045:LVW983083 MFS983045:MFS983083 MPO983045:MPO983083 MZK983045:MZK983083 NJG983045:NJG983083 NTC983045:NTC983083 OCY983045:OCY983083 OMU983045:OMU983083 OWQ983045:OWQ983083 PGM983045:PGM983083 PQI983045:PQI983083 QAE983045:QAE983083 QKA983045:QKA983083 QTW983045:QTW983083 RDS983045:RDS983083 RNO983045:RNO983083 RXK983045:RXK983083 SHG983045:SHG983083 SRC983045:SRC983083 TAY983045:TAY983083 TKU983045:TKU983083 TUQ983045:TUQ983083 UEM983045:UEM983083 UOI983045:UOI983083 UYE983045:UYE983083 VIA983045:VIA983083 VRW983045:VRW983083 WBS983045:WBS983083 WLO983045:WLO983083 WVK983045:WVK983083 H983045:H983083 H917509:H917547 H851973:H852011 H786437:H786475 H720901:H720939 H655365:H655403 H589829:H589867 H524293:H524331 H458757:H458795 H393221:H393259 H327685:H327723 H262149:H262187 H196613:H196651 H131077:H131115 H65541:H65579 H5:H43">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11" style="50" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6" style="50" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="8" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+    </row>
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+    </row>
+    <row r="3" spans="1:10" s="50" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="145"/>
+    </row>
+    <row r="5" spans="1:10" s="50" customFormat="1" ht="48" customHeight="1">
+      <c r="A5" s="69">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="149" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="150"/>
+    </row>
+    <row r="6" spans="1:10" s="59" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="69">
+        <f t="shared" ref="A6:A7" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+    </row>
+    <row r="7" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+    </row>
+    <row r="9" spans="1:10" s="50" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A9" s="58"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65506:IY65544 SU65506:SU65544 ACQ65506:ACQ65544 AMM65506:AMM65544 AWI65506:AWI65544 BGE65506:BGE65544 BQA65506:BQA65544 BZW65506:BZW65544 CJS65506:CJS65544 CTO65506:CTO65544 DDK65506:DDK65544 DNG65506:DNG65544 DXC65506:DXC65544 EGY65506:EGY65544 EQU65506:EQU65544 FAQ65506:FAQ65544 FKM65506:FKM65544 FUI65506:FUI65544 GEE65506:GEE65544 GOA65506:GOA65544 GXW65506:GXW65544 HHS65506:HHS65544 HRO65506:HRO65544 IBK65506:IBK65544 ILG65506:ILG65544 IVC65506:IVC65544 JEY65506:JEY65544 JOU65506:JOU65544 JYQ65506:JYQ65544 KIM65506:KIM65544 KSI65506:KSI65544 LCE65506:LCE65544 LMA65506:LMA65544 LVW65506:LVW65544 MFS65506:MFS65544 MPO65506:MPO65544 MZK65506:MZK65544 NJG65506:NJG65544 NTC65506:NTC65544 OCY65506:OCY65544 OMU65506:OMU65544 OWQ65506:OWQ65544 PGM65506:PGM65544 PQI65506:PQI65544 QAE65506:QAE65544 QKA65506:QKA65544 QTW65506:QTW65544 RDS65506:RDS65544 RNO65506:RNO65544 RXK65506:RXK65544 SHG65506:SHG65544 SRC65506:SRC65544 TAY65506:TAY65544 TKU65506:TKU65544 TUQ65506:TUQ65544 UEM65506:UEM65544 UOI65506:UOI65544 UYE65506:UYE65544 VIA65506:VIA65544 VRW65506:VRW65544 WBS65506:WBS65544 WLO65506:WLO65544 WVK65506:WVK65544 IY131042:IY131080 SU131042:SU131080 ACQ131042:ACQ131080 AMM131042:AMM131080 AWI131042:AWI131080 BGE131042:BGE131080 BQA131042:BQA131080 BZW131042:BZW131080 CJS131042:CJS131080 CTO131042:CTO131080 DDK131042:DDK131080 DNG131042:DNG131080 DXC131042:DXC131080 EGY131042:EGY131080 EQU131042:EQU131080 FAQ131042:FAQ131080 FKM131042:FKM131080 FUI131042:FUI131080 GEE131042:GEE131080 GOA131042:GOA131080 GXW131042:GXW131080 HHS131042:HHS131080 HRO131042:HRO131080 IBK131042:IBK131080 ILG131042:ILG131080 IVC131042:IVC131080 JEY131042:JEY131080 JOU131042:JOU131080 JYQ131042:JYQ131080 KIM131042:KIM131080 KSI131042:KSI131080 LCE131042:LCE131080 LMA131042:LMA131080 LVW131042:LVW131080 MFS131042:MFS131080 MPO131042:MPO131080 MZK131042:MZK131080 NJG131042:NJG131080 NTC131042:NTC131080 OCY131042:OCY131080 OMU131042:OMU131080 OWQ131042:OWQ131080 PGM131042:PGM131080 PQI131042:PQI131080 QAE131042:QAE131080 QKA131042:QKA131080 QTW131042:QTW131080 RDS131042:RDS131080 RNO131042:RNO131080 RXK131042:RXK131080 SHG131042:SHG131080 SRC131042:SRC131080 TAY131042:TAY131080 TKU131042:TKU131080 TUQ131042:TUQ131080 UEM131042:UEM131080 UOI131042:UOI131080 UYE131042:UYE131080 VIA131042:VIA131080 VRW131042:VRW131080 WBS131042:WBS131080 WLO131042:WLO131080 WVK131042:WVK131080 IY196578:IY196616 SU196578:SU196616 ACQ196578:ACQ196616 AMM196578:AMM196616 AWI196578:AWI196616 BGE196578:BGE196616 BQA196578:BQA196616 BZW196578:BZW196616 CJS196578:CJS196616 CTO196578:CTO196616 DDK196578:DDK196616 DNG196578:DNG196616 DXC196578:DXC196616 EGY196578:EGY196616 EQU196578:EQU196616 FAQ196578:FAQ196616 FKM196578:FKM196616 FUI196578:FUI196616 GEE196578:GEE196616 GOA196578:GOA196616 GXW196578:GXW196616 HHS196578:HHS196616 HRO196578:HRO196616 IBK196578:IBK196616 ILG196578:ILG196616 IVC196578:IVC196616 JEY196578:JEY196616 JOU196578:JOU196616 JYQ196578:JYQ196616 KIM196578:KIM196616 KSI196578:KSI196616 LCE196578:LCE196616 LMA196578:LMA196616 LVW196578:LVW196616 MFS196578:MFS196616 MPO196578:MPO196616 MZK196578:MZK196616 NJG196578:NJG196616 NTC196578:NTC196616 OCY196578:OCY196616 OMU196578:OMU196616 OWQ196578:OWQ196616 PGM196578:PGM196616 PQI196578:PQI196616 QAE196578:QAE196616 QKA196578:QKA196616 QTW196578:QTW196616 RDS196578:RDS196616 RNO196578:RNO196616 RXK196578:RXK196616 SHG196578:SHG196616 SRC196578:SRC196616 TAY196578:TAY196616 TKU196578:TKU196616 TUQ196578:TUQ196616 UEM196578:UEM196616 UOI196578:UOI196616 UYE196578:UYE196616 VIA196578:VIA196616 VRW196578:VRW196616 WBS196578:WBS196616 WLO196578:WLO196616 WVK196578:WVK196616 IY262114:IY262152 SU262114:SU262152 ACQ262114:ACQ262152 AMM262114:AMM262152 AWI262114:AWI262152 BGE262114:BGE262152 BQA262114:BQA262152 BZW262114:BZW262152 CJS262114:CJS262152 CTO262114:CTO262152 DDK262114:DDK262152 DNG262114:DNG262152 DXC262114:DXC262152 EGY262114:EGY262152 EQU262114:EQU262152 FAQ262114:FAQ262152 FKM262114:FKM262152 FUI262114:FUI262152 GEE262114:GEE262152 GOA262114:GOA262152 GXW262114:GXW262152 HHS262114:HHS262152 HRO262114:HRO262152 IBK262114:IBK262152 ILG262114:ILG262152 IVC262114:IVC262152 JEY262114:JEY262152 JOU262114:JOU262152 JYQ262114:JYQ262152 KIM262114:KIM262152 KSI262114:KSI262152 LCE262114:LCE262152 LMA262114:LMA262152 LVW262114:LVW262152 MFS262114:MFS262152 MPO262114:MPO262152 MZK262114:MZK262152 NJG262114:NJG262152 NTC262114:NTC262152 OCY262114:OCY262152 OMU262114:OMU262152 OWQ262114:OWQ262152 PGM262114:PGM262152 PQI262114:PQI262152 QAE262114:QAE262152 QKA262114:QKA262152 QTW262114:QTW262152 RDS262114:RDS262152 RNO262114:RNO262152 RXK262114:RXK262152 SHG262114:SHG262152 SRC262114:SRC262152 TAY262114:TAY262152 TKU262114:TKU262152 TUQ262114:TUQ262152 UEM262114:UEM262152 UOI262114:UOI262152 UYE262114:UYE262152 VIA262114:VIA262152 VRW262114:VRW262152 WBS262114:WBS262152 WLO262114:WLO262152 WVK262114:WVK262152 IY327650:IY327688 SU327650:SU327688 ACQ327650:ACQ327688 AMM327650:AMM327688 AWI327650:AWI327688 BGE327650:BGE327688 BQA327650:BQA327688 BZW327650:BZW327688 CJS327650:CJS327688 CTO327650:CTO327688 DDK327650:DDK327688 DNG327650:DNG327688 DXC327650:DXC327688 EGY327650:EGY327688 EQU327650:EQU327688 FAQ327650:FAQ327688 FKM327650:FKM327688 FUI327650:FUI327688 GEE327650:GEE327688 GOA327650:GOA327688 GXW327650:GXW327688 HHS327650:HHS327688 HRO327650:HRO327688 IBK327650:IBK327688 ILG327650:ILG327688 IVC327650:IVC327688 JEY327650:JEY327688 JOU327650:JOU327688 JYQ327650:JYQ327688 KIM327650:KIM327688 KSI327650:KSI327688 LCE327650:LCE327688 LMA327650:LMA327688 LVW327650:LVW327688 MFS327650:MFS327688 MPO327650:MPO327688 MZK327650:MZK327688 NJG327650:NJG327688 NTC327650:NTC327688 OCY327650:OCY327688 OMU327650:OMU327688 OWQ327650:OWQ327688 PGM327650:PGM327688 PQI327650:PQI327688 QAE327650:QAE327688 QKA327650:QKA327688 QTW327650:QTW327688 RDS327650:RDS327688 RNO327650:RNO327688 RXK327650:RXK327688 SHG327650:SHG327688 SRC327650:SRC327688 TAY327650:TAY327688 TKU327650:TKU327688 TUQ327650:TUQ327688 UEM327650:UEM327688 UOI327650:UOI327688 UYE327650:UYE327688 VIA327650:VIA327688 VRW327650:VRW327688 WBS327650:WBS327688 WLO327650:WLO327688 WVK327650:WVK327688 IY393186:IY393224 SU393186:SU393224 ACQ393186:ACQ393224 AMM393186:AMM393224 AWI393186:AWI393224 BGE393186:BGE393224 BQA393186:BQA393224 BZW393186:BZW393224 CJS393186:CJS393224 CTO393186:CTO393224 DDK393186:DDK393224 DNG393186:DNG393224 DXC393186:DXC393224 EGY393186:EGY393224 EQU393186:EQU393224 FAQ393186:FAQ393224 FKM393186:FKM393224 FUI393186:FUI393224 GEE393186:GEE393224 GOA393186:GOA393224 GXW393186:GXW393224 HHS393186:HHS393224 HRO393186:HRO393224 IBK393186:IBK393224 ILG393186:ILG393224 IVC393186:IVC393224 JEY393186:JEY393224 JOU393186:JOU393224 JYQ393186:JYQ393224 KIM393186:KIM393224 KSI393186:KSI393224 LCE393186:LCE393224 LMA393186:LMA393224 LVW393186:LVW393224 MFS393186:MFS393224 MPO393186:MPO393224 MZK393186:MZK393224 NJG393186:NJG393224 NTC393186:NTC393224 OCY393186:OCY393224 OMU393186:OMU393224 OWQ393186:OWQ393224 PGM393186:PGM393224 PQI393186:PQI393224 QAE393186:QAE393224 QKA393186:QKA393224 QTW393186:QTW393224 RDS393186:RDS393224 RNO393186:RNO393224 RXK393186:RXK393224 SHG393186:SHG393224 SRC393186:SRC393224 TAY393186:TAY393224 TKU393186:TKU393224 TUQ393186:TUQ393224 UEM393186:UEM393224 UOI393186:UOI393224 UYE393186:UYE393224 VIA393186:VIA393224 VRW393186:VRW393224 WBS393186:WBS393224 WLO393186:WLO393224 WVK393186:WVK393224 IY458722:IY458760 SU458722:SU458760 ACQ458722:ACQ458760 AMM458722:AMM458760 AWI458722:AWI458760 BGE458722:BGE458760 BQA458722:BQA458760 BZW458722:BZW458760 CJS458722:CJS458760 CTO458722:CTO458760 DDK458722:DDK458760 DNG458722:DNG458760 DXC458722:DXC458760 EGY458722:EGY458760 EQU458722:EQU458760 FAQ458722:FAQ458760 FKM458722:FKM458760 FUI458722:FUI458760 GEE458722:GEE458760 GOA458722:GOA458760 GXW458722:GXW458760 HHS458722:HHS458760 HRO458722:HRO458760 IBK458722:IBK458760 ILG458722:ILG458760 IVC458722:IVC458760 JEY458722:JEY458760 JOU458722:JOU458760 JYQ458722:JYQ458760 KIM458722:KIM458760 KSI458722:KSI458760 LCE458722:LCE458760 LMA458722:LMA458760 LVW458722:LVW458760 MFS458722:MFS458760 MPO458722:MPO458760 MZK458722:MZK458760 NJG458722:NJG458760 NTC458722:NTC458760 OCY458722:OCY458760 OMU458722:OMU458760 OWQ458722:OWQ458760 PGM458722:PGM458760 PQI458722:PQI458760 QAE458722:QAE458760 QKA458722:QKA458760 QTW458722:QTW458760 RDS458722:RDS458760 RNO458722:RNO458760 RXK458722:RXK458760 SHG458722:SHG458760 SRC458722:SRC458760 TAY458722:TAY458760 TKU458722:TKU458760 TUQ458722:TUQ458760 UEM458722:UEM458760 UOI458722:UOI458760 UYE458722:UYE458760 VIA458722:VIA458760 VRW458722:VRW458760 WBS458722:WBS458760 WLO458722:WLO458760 WVK458722:WVK458760 IY524258:IY524296 SU524258:SU524296 ACQ524258:ACQ524296 AMM524258:AMM524296 AWI524258:AWI524296 BGE524258:BGE524296 BQA524258:BQA524296 BZW524258:BZW524296 CJS524258:CJS524296 CTO524258:CTO524296 DDK524258:DDK524296 DNG524258:DNG524296 DXC524258:DXC524296 EGY524258:EGY524296 EQU524258:EQU524296 FAQ524258:FAQ524296 FKM524258:FKM524296 FUI524258:FUI524296 GEE524258:GEE524296 GOA524258:GOA524296 GXW524258:GXW524296 HHS524258:HHS524296 HRO524258:HRO524296 IBK524258:IBK524296 ILG524258:ILG524296 IVC524258:IVC524296 JEY524258:JEY524296 JOU524258:JOU524296 JYQ524258:JYQ524296 KIM524258:KIM524296 KSI524258:KSI524296 LCE524258:LCE524296 LMA524258:LMA524296 LVW524258:LVW524296 MFS524258:MFS524296 MPO524258:MPO524296 MZK524258:MZK524296 NJG524258:NJG524296 NTC524258:NTC524296 OCY524258:OCY524296 OMU524258:OMU524296 OWQ524258:OWQ524296 PGM524258:PGM524296 PQI524258:PQI524296 QAE524258:QAE524296 QKA524258:QKA524296 QTW524258:QTW524296 RDS524258:RDS524296 RNO524258:RNO524296 RXK524258:RXK524296 SHG524258:SHG524296 SRC524258:SRC524296 TAY524258:TAY524296 TKU524258:TKU524296 TUQ524258:TUQ524296 UEM524258:UEM524296 UOI524258:UOI524296 UYE524258:UYE524296 VIA524258:VIA524296 VRW524258:VRW524296 WBS524258:WBS524296 WLO524258:WLO524296 WVK524258:WVK524296 IY589794:IY589832 SU589794:SU589832 ACQ589794:ACQ589832 AMM589794:AMM589832 AWI589794:AWI589832 BGE589794:BGE589832 BQA589794:BQA589832 BZW589794:BZW589832 CJS589794:CJS589832 CTO589794:CTO589832 DDK589794:DDK589832 DNG589794:DNG589832 DXC589794:DXC589832 EGY589794:EGY589832 EQU589794:EQU589832 FAQ589794:FAQ589832 FKM589794:FKM589832 FUI589794:FUI589832 GEE589794:GEE589832 GOA589794:GOA589832 GXW589794:GXW589832 HHS589794:HHS589832 HRO589794:HRO589832 IBK589794:IBK589832 ILG589794:ILG589832 IVC589794:IVC589832 JEY589794:JEY589832 JOU589794:JOU589832 JYQ589794:JYQ589832 KIM589794:KIM589832 KSI589794:KSI589832 LCE589794:LCE589832 LMA589794:LMA589832 LVW589794:LVW589832 MFS589794:MFS589832 MPO589794:MPO589832 MZK589794:MZK589832 NJG589794:NJG589832 NTC589794:NTC589832 OCY589794:OCY589832 OMU589794:OMU589832 OWQ589794:OWQ589832 PGM589794:PGM589832 PQI589794:PQI589832 QAE589794:QAE589832 QKA589794:QKA589832 QTW589794:QTW589832 RDS589794:RDS589832 RNO589794:RNO589832 RXK589794:RXK589832 SHG589794:SHG589832 SRC589794:SRC589832 TAY589794:TAY589832 TKU589794:TKU589832 TUQ589794:TUQ589832 UEM589794:UEM589832 UOI589794:UOI589832 UYE589794:UYE589832 VIA589794:VIA589832 VRW589794:VRW589832 WBS589794:WBS589832 WLO589794:WLO589832 WVK589794:WVK589832 IY655330:IY655368 SU655330:SU655368 ACQ655330:ACQ655368 AMM655330:AMM655368 AWI655330:AWI655368 BGE655330:BGE655368 BQA655330:BQA655368 BZW655330:BZW655368 CJS655330:CJS655368 CTO655330:CTO655368 DDK655330:DDK655368 DNG655330:DNG655368 DXC655330:DXC655368 EGY655330:EGY655368 EQU655330:EQU655368 FAQ655330:FAQ655368 FKM655330:FKM655368 FUI655330:FUI655368 GEE655330:GEE655368 GOA655330:GOA655368 GXW655330:GXW655368 HHS655330:HHS655368 HRO655330:HRO655368 IBK655330:IBK655368 ILG655330:ILG655368 IVC655330:IVC655368 JEY655330:JEY655368 JOU655330:JOU655368 JYQ655330:JYQ655368 KIM655330:KIM655368 KSI655330:KSI655368 LCE655330:LCE655368 LMA655330:LMA655368 LVW655330:LVW655368 MFS655330:MFS655368 MPO655330:MPO655368 MZK655330:MZK655368 NJG655330:NJG655368 NTC655330:NTC655368 OCY655330:OCY655368 OMU655330:OMU655368 OWQ655330:OWQ655368 PGM655330:PGM655368 PQI655330:PQI655368 QAE655330:QAE655368 QKA655330:QKA655368 QTW655330:QTW655368 RDS655330:RDS655368 RNO655330:RNO655368 RXK655330:RXK655368 SHG655330:SHG655368 SRC655330:SRC655368 TAY655330:TAY655368 TKU655330:TKU655368 TUQ655330:TUQ655368 UEM655330:UEM655368 UOI655330:UOI655368 UYE655330:UYE655368 VIA655330:VIA655368 VRW655330:VRW655368 WBS655330:WBS655368 WLO655330:WLO655368 WVK655330:WVK655368 IY720866:IY720904 SU720866:SU720904 ACQ720866:ACQ720904 AMM720866:AMM720904 AWI720866:AWI720904 BGE720866:BGE720904 BQA720866:BQA720904 BZW720866:BZW720904 CJS720866:CJS720904 CTO720866:CTO720904 DDK720866:DDK720904 DNG720866:DNG720904 DXC720866:DXC720904 EGY720866:EGY720904 EQU720866:EQU720904 FAQ720866:FAQ720904 FKM720866:FKM720904 FUI720866:FUI720904 GEE720866:GEE720904 GOA720866:GOA720904 GXW720866:GXW720904 HHS720866:HHS720904 HRO720866:HRO720904 IBK720866:IBK720904 ILG720866:ILG720904 IVC720866:IVC720904 JEY720866:JEY720904 JOU720866:JOU720904 JYQ720866:JYQ720904 KIM720866:KIM720904 KSI720866:KSI720904 LCE720866:LCE720904 LMA720866:LMA720904 LVW720866:LVW720904 MFS720866:MFS720904 MPO720866:MPO720904 MZK720866:MZK720904 NJG720866:NJG720904 NTC720866:NTC720904 OCY720866:OCY720904 OMU720866:OMU720904 OWQ720866:OWQ720904 PGM720866:PGM720904 PQI720866:PQI720904 QAE720866:QAE720904 QKA720866:QKA720904 QTW720866:QTW720904 RDS720866:RDS720904 RNO720866:RNO720904 RXK720866:RXK720904 SHG720866:SHG720904 SRC720866:SRC720904 TAY720866:TAY720904 TKU720866:TKU720904 TUQ720866:TUQ720904 UEM720866:UEM720904 UOI720866:UOI720904 UYE720866:UYE720904 VIA720866:VIA720904 VRW720866:VRW720904 WBS720866:WBS720904 WLO720866:WLO720904 WVK720866:WVK720904 IY786402:IY786440 SU786402:SU786440 ACQ786402:ACQ786440 AMM786402:AMM786440 AWI786402:AWI786440 BGE786402:BGE786440 BQA786402:BQA786440 BZW786402:BZW786440 CJS786402:CJS786440 CTO786402:CTO786440 DDK786402:DDK786440 DNG786402:DNG786440 DXC786402:DXC786440 EGY786402:EGY786440 EQU786402:EQU786440 FAQ786402:FAQ786440 FKM786402:FKM786440 FUI786402:FUI786440 GEE786402:GEE786440 GOA786402:GOA786440 GXW786402:GXW786440 HHS786402:HHS786440 HRO786402:HRO786440 IBK786402:IBK786440 ILG786402:ILG786440 IVC786402:IVC786440 JEY786402:JEY786440 JOU786402:JOU786440 JYQ786402:JYQ786440 KIM786402:KIM786440 KSI786402:KSI786440 LCE786402:LCE786440 LMA786402:LMA786440 LVW786402:LVW786440 MFS786402:MFS786440 MPO786402:MPO786440 MZK786402:MZK786440 NJG786402:NJG786440 NTC786402:NTC786440 OCY786402:OCY786440 OMU786402:OMU786440 OWQ786402:OWQ786440 PGM786402:PGM786440 PQI786402:PQI786440 QAE786402:QAE786440 QKA786402:QKA786440 QTW786402:QTW786440 RDS786402:RDS786440 RNO786402:RNO786440 RXK786402:RXK786440 SHG786402:SHG786440 SRC786402:SRC786440 TAY786402:TAY786440 TKU786402:TKU786440 TUQ786402:TUQ786440 UEM786402:UEM786440 UOI786402:UOI786440 UYE786402:UYE786440 VIA786402:VIA786440 VRW786402:VRW786440 WBS786402:WBS786440 WLO786402:WLO786440 WVK786402:WVK786440 IY851938:IY851976 SU851938:SU851976 ACQ851938:ACQ851976 AMM851938:AMM851976 AWI851938:AWI851976 BGE851938:BGE851976 BQA851938:BQA851976 BZW851938:BZW851976 CJS851938:CJS851976 CTO851938:CTO851976 DDK851938:DDK851976 DNG851938:DNG851976 DXC851938:DXC851976 EGY851938:EGY851976 EQU851938:EQU851976 FAQ851938:FAQ851976 FKM851938:FKM851976 FUI851938:FUI851976 GEE851938:GEE851976 GOA851938:GOA851976 GXW851938:GXW851976 HHS851938:HHS851976 HRO851938:HRO851976 IBK851938:IBK851976 ILG851938:ILG851976 IVC851938:IVC851976 JEY851938:JEY851976 JOU851938:JOU851976 JYQ851938:JYQ851976 KIM851938:KIM851976 KSI851938:KSI851976 LCE851938:LCE851976 LMA851938:LMA851976 LVW851938:LVW851976 MFS851938:MFS851976 MPO851938:MPO851976 MZK851938:MZK851976 NJG851938:NJG851976 NTC851938:NTC851976 OCY851938:OCY851976 OMU851938:OMU851976 OWQ851938:OWQ851976 PGM851938:PGM851976 PQI851938:PQI851976 QAE851938:QAE851976 QKA851938:QKA851976 QTW851938:QTW851976 RDS851938:RDS851976 RNO851938:RNO851976 RXK851938:RXK851976 SHG851938:SHG851976 SRC851938:SRC851976 TAY851938:TAY851976 TKU851938:TKU851976 TUQ851938:TUQ851976 UEM851938:UEM851976 UOI851938:UOI851976 UYE851938:UYE851976 VIA851938:VIA851976 VRW851938:VRW851976 WBS851938:WBS851976 WLO851938:WLO851976 WVK851938:WVK851976 IY917474:IY917512 SU917474:SU917512 ACQ917474:ACQ917512 AMM917474:AMM917512 AWI917474:AWI917512 BGE917474:BGE917512 BQA917474:BQA917512 BZW917474:BZW917512 CJS917474:CJS917512 CTO917474:CTO917512 DDK917474:DDK917512 DNG917474:DNG917512 DXC917474:DXC917512 EGY917474:EGY917512 EQU917474:EQU917512 FAQ917474:FAQ917512 FKM917474:FKM917512 FUI917474:FUI917512 GEE917474:GEE917512 GOA917474:GOA917512 GXW917474:GXW917512 HHS917474:HHS917512 HRO917474:HRO917512 IBK917474:IBK917512 ILG917474:ILG917512 IVC917474:IVC917512 JEY917474:JEY917512 JOU917474:JOU917512 JYQ917474:JYQ917512 KIM917474:KIM917512 KSI917474:KSI917512 LCE917474:LCE917512 LMA917474:LMA917512 LVW917474:LVW917512 MFS917474:MFS917512 MPO917474:MPO917512 MZK917474:MZK917512 NJG917474:NJG917512 NTC917474:NTC917512 OCY917474:OCY917512 OMU917474:OMU917512 OWQ917474:OWQ917512 PGM917474:PGM917512 PQI917474:PQI917512 QAE917474:QAE917512 QKA917474:QKA917512 QTW917474:QTW917512 RDS917474:RDS917512 RNO917474:RNO917512 RXK917474:RXK917512 SHG917474:SHG917512 SRC917474:SRC917512 TAY917474:TAY917512 TKU917474:TKU917512 TUQ917474:TUQ917512 UEM917474:UEM917512 UOI917474:UOI917512 UYE917474:UYE917512 VIA917474:VIA917512 VRW917474:VRW917512 WBS917474:WBS917512 WLO917474:WLO917512 WVK917474:WVK917512 IY983010:IY983048 SU983010:SU983048 ACQ983010:ACQ983048 AMM983010:AMM983048 AWI983010:AWI983048 BGE983010:BGE983048 BQA983010:BQA983048 BZW983010:BZW983048 CJS983010:CJS983048 CTO983010:CTO983048 DDK983010:DDK983048 DNG983010:DNG983048 DXC983010:DXC983048 EGY983010:EGY983048 EQU983010:EQU983048 FAQ983010:FAQ983048 FKM983010:FKM983048 FUI983010:FUI983048 GEE983010:GEE983048 GOA983010:GOA983048 GXW983010:GXW983048 HHS983010:HHS983048 HRO983010:HRO983048 IBK983010:IBK983048 ILG983010:ILG983048 IVC983010:IVC983048 JEY983010:JEY983048 JOU983010:JOU983048 JYQ983010:JYQ983048 KIM983010:KIM983048 KSI983010:KSI983048 LCE983010:LCE983048 LMA983010:LMA983048 LVW983010:LVW983048 MFS983010:MFS983048 MPO983010:MPO983048 MZK983010:MZK983048 NJG983010:NJG983048 NTC983010:NTC983048 OCY983010:OCY983048 OMU983010:OMU983048 OWQ983010:OWQ983048 PGM983010:PGM983048 PQI983010:PQI983048 QAE983010:QAE983048 QKA983010:QKA983048 QTW983010:QTW983048 RDS983010:RDS983048 RNO983010:RNO983048 RXK983010:RXK983048 SHG983010:SHG983048 SRC983010:SRC983048 TAY983010:TAY983048 TKU983010:TKU983048 TUQ983010:TUQ983048 UEM983010:UEM983048 UOI983010:UOI983048 UYE983010:UYE983048 VIA983010:VIA983048 VRW983010:VRW983048 WBS983010:WBS983048 WLO983010:WLO983048 WVK983010:WVK983048 H983010:H983048 H917474:H917512 H851938:H851976 H786402:H786440 H720866:H720904 H655330:H655368 H589794:H589832 H524258:H524296 H458722:H458760 H393186:H393224 H327650:H327688 H262114:H262152 H196578:H196616 H131042:H131080 H65506:H65544 H5:H8 WVK5:WVK8 WLO5:WLO8 WBS5:WBS8 VRW5:VRW8 VIA5:VIA8 UYE5:UYE8 UOI5:UOI8 UEM5:UEM8 TUQ5:TUQ8 TKU5:TKU8 TAY5:TAY8 SRC5:SRC8 SHG5:SHG8 RXK5:RXK8 RNO5:RNO8 RDS5:RDS8 QTW5:QTW8 QKA5:QKA8 QAE5:QAE8 PQI5:PQI8 PGM5:PGM8 OWQ5:OWQ8 OMU5:OMU8 OCY5:OCY8 NTC5:NTC8 NJG5:NJG8 MZK5:MZK8 MPO5:MPO8 MFS5:MFS8 LVW5:LVW8 LMA5:LMA8 LCE5:LCE8 KSI5:KSI8 KIM5:KIM8 JYQ5:JYQ8 JOU5:JOU8 JEY5:JEY8 IVC5:IVC8 ILG5:ILG8 IBK5:IBK8 HRO5:HRO8 HHS5:HHS8 GXW5:GXW8 GOA5:GOA8 GEE5:GEE8 FUI5:FUI8 FKM5:FKM8 FAQ5:FAQ8 EQU5:EQU8 EGY5:EGY8 DXC5:DXC8 DNG5:DNG8 DDK5:DDK8 CTO5:CTO8 CJS5:CJS8 BZW5:BZW8 BQA5:BQA8 BGE5:BGE8 AWI5:AWI8 AMM5:AMM8 ACQ5:ACQ8 SU5:SU8 IY5:IY8">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AS33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B24:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" style="1" customWidth="1"/>
+    <col min="19" max="28" width="3.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="3.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+    </row>
+    <row r="2" spans="1:45" s="20" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+    </row>
+    <row r="3" spans="1:45" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+    </row>
+    <row r="4" spans="1:45" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>实体列表</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+    </row>
+    <row r="5" spans="1:45" s="20" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+    </row>
+    <row r="6" spans="1:45" ht="29.25" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="118"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+    </row>
+    <row r="7" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="77">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="115"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+    </row>
+    <row r="8" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="77">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="115"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+    </row>
+    <row r="9" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="77">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+    </row>
+    <row r="10" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="77">
+        <v>3</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="115"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+    </row>
+    <row r="11" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="77">
+        <v>4</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="115"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+    </row>
+    <row r="12" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="77">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="115"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+    </row>
+    <row r="13" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="77">
+        <v>6</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="115"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+    </row>
+    <row r="14" spans="1:45" s="80" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="77">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="115"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+    </row>
+    <row r="15" spans="1:45" s="20" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+    </row>
+    <row r="16" spans="1:45" s="20" customFormat="1">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+    </row>
+    <row r="17" spans="19:28" s="20" customFormat="1">
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+    </row>
+    <row r="18" spans="19:28" s="20" customFormat="1">
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="19:28" s="20" customFormat="1">
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="19:28" s="20" customFormat="1">
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+    </row>
+    <row r="21" spans="19:28" s="20" customFormat="1">
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+    </row>
+    <row r="22" spans="19:28" s="20" customFormat="1">
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" spans="19:28" s="20" customFormat="1">
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+    </row>
+    <row r="24" spans="19:28" s="20" customFormat="1">
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+    </row>
+    <row r="25" spans="19:28" s="20" customFormat="1">
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+    </row>
+    <row r="26" spans="19:28" s="20" customFormat="1">
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+    </row>
+    <row r="27" spans="19:28" s="20" customFormat="1">
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+    </row>
+    <row r="28" spans="19:28" s="20" customFormat="1">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+    </row>
+    <row r="29" spans="19:28" s="20" customFormat="1">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+    </row>
+    <row r="30" spans="19:28" s="20" customFormat="1">
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+    </row>
+    <row r="31" spans="19:28" s="20" customFormat="1">
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+    </row>
+    <row r="32" spans="19:28" s="20" customFormat="1">
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+    </row>
+    <row r="33" spans="19:28" s="20" customFormat="1">
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:O6">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="23">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H11:L11"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="E7" location="keyword!A1" display="keyword"/>
+    <hyperlink ref="E8" location="site!A1" display="site"/>
+    <hyperlink ref="E9" location="link!A1" display="link"/>
+    <hyperlink ref="E10" location="keyword_page!A1" display="keyword_page"/>
+    <hyperlink ref="E11" location="statistics!A1" display="statistics"/>
+    <hyperlink ref="E12" location="city!A1" display="city"/>
+    <hyperlink ref="E13" location="user!A1" display="user"/>
+    <hyperlink ref="E14" location="operate_log!A1" display="operate_log"/>
+  </hyperlinks>
+  <pageMargins left="0.51" right="0.67" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="168" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11" style="50" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6" style="50" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+    </row>
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+    </row>
+    <row r="3" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="145"/>
+    </row>
+    <row r="4" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="69">
+        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+    </row>
+    <row r="7" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="67"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+    </row>
+    <row r="10" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="67"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+    </row>
+    <row r="11" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="67"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+    </row>
+    <row r="13" spans="1:10" s="50" customFormat="1" ht="14.25" thickTop="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="55"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IY65510:IY65548 H65510:H65548 H131046:H131084 H196582:H196620 H262118:H262156 H327654:H327692 H393190:H393228 H458726:H458764 H524262:H524300 H589798:H589836 H655334:H655372 H720870:H720908 H786406:H786444 H851942:H851980 H917478:H917516 H983014:H983052 WVK983014:WVK983052 WLO983014:WLO983052 WBS983014:WBS983052 VRW983014:VRW983052 VIA983014:VIA983052 UYE983014:UYE983052 UOI983014:UOI983052 UEM983014:UEM983052 TUQ983014:TUQ983052 TKU983014:TKU983052 TAY983014:TAY983052 SRC983014:SRC983052 SHG983014:SHG983052 RXK983014:RXK983052 RNO983014:RNO983052 RDS983014:RDS983052 QTW983014:QTW983052 QKA983014:QKA983052 QAE983014:QAE983052 PQI983014:PQI983052 PGM983014:PGM983052 OWQ983014:OWQ983052 OMU983014:OMU983052 OCY983014:OCY983052 NTC983014:NTC983052 NJG983014:NJG983052 MZK983014:MZK983052 MPO983014:MPO983052 MFS983014:MFS983052 LVW983014:LVW983052 LMA983014:LMA983052 LCE983014:LCE983052 KSI983014:KSI983052 KIM983014:KIM983052 JYQ983014:JYQ983052 JOU983014:JOU983052 JEY983014:JEY983052 IVC983014:IVC983052 ILG983014:ILG983052 IBK983014:IBK983052 HRO983014:HRO983052 HHS983014:HHS983052 GXW983014:GXW983052 GOA983014:GOA983052 GEE983014:GEE983052 FUI983014:FUI983052 FKM983014:FKM983052 FAQ983014:FAQ983052 EQU983014:EQU983052 EGY983014:EGY983052 DXC983014:DXC983052 DNG983014:DNG983052 DDK983014:DDK983052 CTO983014:CTO983052 CJS983014:CJS983052 BZW983014:BZW983052 BQA983014:BQA983052 BGE983014:BGE983052 AWI983014:AWI983052 AMM983014:AMM983052 ACQ983014:ACQ983052 SU983014:SU983052 IY983014:IY983052 WVK917478:WVK917516 WLO917478:WLO917516 WBS917478:WBS917516 VRW917478:VRW917516 VIA917478:VIA917516 UYE917478:UYE917516 UOI917478:UOI917516 UEM917478:UEM917516 TUQ917478:TUQ917516 TKU917478:TKU917516 TAY917478:TAY917516 SRC917478:SRC917516 SHG917478:SHG917516 RXK917478:RXK917516 RNO917478:RNO917516 RDS917478:RDS917516 QTW917478:QTW917516 QKA917478:QKA917516 QAE917478:QAE917516 PQI917478:PQI917516 PGM917478:PGM917516 OWQ917478:OWQ917516 OMU917478:OMU917516 OCY917478:OCY917516 NTC917478:NTC917516 NJG917478:NJG917516 MZK917478:MZK917516 MPO917478:MPO917516 MFS917478:MFS917516 LVW917478:LVW917516 LMA917478:LMA917516 LCE917478:LCE917516 KSI917478:KSI917516 KIM917478:KIM917516 JYQ917478:JYQ917516 JOU917478:JOU917516 JEY917478:JEY917516 IVC917478:IVC917516 ILG917478:ILG917516 IBK917478:IBK917516 HRO917478:HRO917516 HHS917478:HHS917516 GXW917478:GXW917516 GOA917478:GOA917516 GEE917478:GEE917516 FUI917478:FUI917516 FKM917478:FKM917516 FAQ917478:FAQ917516 EQU917478:EQU917516 EGY917478:EGY917516 DXC917478:DXC917516 DNG917478:DNG917516 DDK917478:DDK917516 CTO917478:CTO917516 CJS917478:CJS917516 BZW917478:BZW917516 BQA917478:BQA917516 BGE917478:BGE917516 AWI917478:AWI917516 AMM917478:AMM917516 ACQ917478:ACQ917516 SU917478:SU917516 IY917478:IY917516 WVK851942:WVK851980 WLO851942:WLO851980 WBS851942:WBS851980 VRW851942:VRW851980 VIA851942:VIA851980 UYE851942:UYE851980 UOI851942:UOI851980 UEM851942:UEM851980 TUQ851942:TUQ851980 TKU851942:TKU851980 TAY851942:TAY851980 SRC851942:SRC851980 SHG851942:SHG851980 RXK851942:RXK851980 RNO851942:RNO851980 RDS851942:RDS851980 QTW851942:QTW851980 QKA851942:QKA851980 QAE851942:QAE851980 PQI851942:PQI851980 PGM851942:PGM851980 OWQ851942:OWQ851980 OMU851942:OMU851980 OCY851942:OCY851980 NTC851942:NTC851980 NJG851942:NJG851980 MZK851942:MZK851980 MPO851942:MPO851980 MFS851942:MFS851980 LVW851942:LVW851980 LMA851942:LMA851980 LCE851942:LCE851980 KSI851942:KSI851980 KIM851942:KIM851980 JYQ851942:JYQ851980 JOU851942:JOU851980 JEY851942:JEY851980 IVC851942:IVC851980 ILG851942:ILG851980 IBK851942:IBK851980 HRO851942:HRO851980 HHS851942:HHS851980 GXW851942:GXW851980 GOA851942:GOA851980 GEE851942:GEE851980 FUI851942:FUI851980 FKM851942:FKM851980 FAQ851942:FAQ851980 EQU851942:EQU851980 EGY851942:EGY851980 DXC851942:DXC851980 DNG851942:DNG851980 DDK851942:DDK851980 CTO851942:CTO851980 CJS851942:CJS851980 BZW851942:BZW851980 BQA851942:BQA851980 BGE851942:BGE851980 AWI851942:AWI851980 AMM851942:AMM851980 ACQ851942:ACQ851980 SU851942:SU851980 IY851942:IY851980 WVK786406:WVK786444 WLO786406:WLO786444 WBS786406:WBS786444 VRW786406:VRW786444 VIA786406:VIA786444 UYE786406:UYE786444 UOI786406:UOI786444 UEM786406:UEM786444 TUQ786406:TUQ786444 TKU786406:TKU786444 TAY786406:TAY786444 SRC786406:SRC786444 SHG786406:SHG786444 RXK786406:RXK786444 RNO786406:RNO786444 RDS786406:RDS786444 QTW786406:QTW786444 QKA786406:QKA786444 QAE786406:QAE786444 PQI786406:PQI786444 PGM786406:PGM786444 OWQ786406:OWQ786444 OMU786406:OMU786444 OCY786406:OCY786444 NTC786406:NTC786444 NJG786406:NJG786444 MZK786406:MZK786444 MPO786406:MPO786444 MFS786406:MFS786444 LVW786406:LVW786444 LMA786406:LMA786444 LCE786406:LCE786444 KSI786406:KSI786444 KIM786406:KIM786444 JYQ786406:JYQ786444 JOU786406:JOU786444 JEY786406:JEY786444 IVC786406:IVC786444 ILG786406:ILG786444 IBK786406:IBK786444 HRO786406:HRO786444 HHS786406:HHS786444 GXW786406:GXW786444 GOA786406:GOA786444 GEE786406:GEE786444 FUI786406:FUI786444 FKM786406:FKM786444 FAQ786406:FAQ786444 EQU786406:EQU786444 EGY786406:EGY786444 DXC786406:DXC786444 DNG786406:DNG786444 DDK786406:DDK786444 CTO786406:CTO786444 CJS786406:CJS786444 BZW786406:BZW786444 BQA786406:BQA786444 BGE786406:BGE786444 AWI786406:AWI786444 AMM786406:AMM786444 ACQ786406:ACQ786444 SU786406:SU786444 IY786406:IY786444 WVK720870:WVK720908 WLO720870:WLO720908 WBS720870:WBS720908 VRW720870:VRW720908 VIA720870:VIA720908 UYE720870:UYE720908 UOI720870:UOI720908 UEM720870:UEM720908 TUQ720870:TUQ720908 TKU720870:TKU720908 TAY720870:TAY720908 SRC720870:SRC720908 SHG720870:SHG720908 RXK720870:RXK720908 RNO720870:RNO720908 RDS720870:RDS720908 QTW720870:QTW720908 QKA720870:QKA720908 QAE720870:QAE720908 PQI720870:PQI720908 PGM720870:PGM720908 OWQ720870:OWQ720908 OMU720870:OMU720908 OCY720870:OCY720908 NTC720870:NTC720908 NJG720870:NJG720908 MZK720870:MZK720908 MPO720870:MPO720908 MFS720870:MFS720908 LVW720870:LVW720908 LMA720870:LMA720908 LCE720870:LCE720908 KSI720870:KSI720908 KIM720870:KIM720908 JYQ720870:JYQ720908 JOU720870:JOU720908 JEY720870:JEY720908 IVC720870:IVC720908 ILG720870:ILG720908 IBK720870:IBK720908 HRO720870:HRO720908 HHS720870:HHS720908 GXW720870:GXW720908 GOA720870:GOA720908 GEE720870:GEE720908 FUI720870:FUI720908 FKM720870:FKM720908 FAQ720870:FAQ720908 EQU720870:EQU720908 EGY720870:EGY720908 DXC720870:DXC720908 DNG720870:DNG720908 DDK720870:DDK720908 CTO720870:CTO720908 CJS720870:CJS720908 BZW720870:BZW720908 BQA720870:BQA720908 BGE720870:BGE720908 AWI720870:AWI720908 AMM720870:AMM720908 ACQ720870:ACQ720908 SU720870:SU720908 IY720870:IY720908 WVK655334:WVK655372 WLO655334:WLO655372 WBS655334:WBS655372 VRW655334:VRW655372 VIA655334:VIA655372 UYE655334:UYE655372 UOI655334:UOI655372 UEM655334:UEM655372 TUQ655334:TUQ655372 TKU655334:TKU655372 TAY655334:TAY655372 SRC655334:SRC655372 SHG655334:SHG655372 RXK655334:RXK655372 RNO655334:RNO655372 RDS655334:RDS655372 QTW655334:QTW655372 QKA655334:QKA655372 QAE655334:QAE655372 PQI655334:PQI655372 PGM655334:PGM655372 OWQ655334:OWQ655372 OMU655334:OMU655372 OCY655334:OCY655372 NTC655334:NTC655372 NJG655334:NJG655372 MZK655334:MZK655372 MPO655334:MPO655372 MFS655334:MFS655372 LVW655334:LVW655372 LMA655334:LMA655372 LCE655334:LCE655372 KSI655334:KSI655372 KIM655334:KIM655372 JYQ655334:JYQ655372 JOU655334:JOU655372 JEY655334:JEY655372 IVC655334:IVC655372 ILG655334:ILG655372 IBK655334:IBK655372 HRO655334:HRO655372 HHS655334:HHS655372 GXW655334:GXW655372 GOA655334:GOA655372 GEE655334:GEE655372 FUI655334:FUI655372 FKM655334:FKM655372 FAQ655334:FAQ655372 EQU655334:EQU655372 EGY655334:EGY655372 DXC655334:DXC655372 DNG655334:DNG655372 DDK655334:DDK655372 CTO655334:CTO655372 CJS655334:CJS655372 BZW655334:BZW655372 BQA655334:BQA655372 BGE655334:BGE655372 AWI655334:AWI655372 AMM655334:AMM655372 ACQ655334:ACQ655372 SU655334:SU655372 IY655334:IY655372 WVK589798:WVK589836 WLO589798:WLO589836 WBS589798:WBS589836 VRW589798:VRW589836 VIA589798:VIA589836 UYE589798:UYE589836 UOI589798:UOI589836 UEM589798:UEM589836 TUQ589798:TUQ589836 TKU589798:TKU589836 TAY589798:TAY589836 SRC589798:SRC589836 SHG589798:SHG589836 RXK589798:RXK589836 RNO589798:RNO589836 RDS589798:RDS589836 QTW589798:QTW589836 QKA589798:QKA589836 QAE589798:QAE589836 PQI589798:PQI589836 PGM589798:PGM589836 OWQ589798:OWQ589836 OMU589798:OMU589836 OCY589798:OCY589836 NTC589798:NTC589836 NJG589798:NJG589836 MZK589798:MZK589836 MPO589798:MPO589836 MFS589798:MFS589836 LVW589798:LVW589836 LMA589798:LMA589836 LCE589798:LCE589836 KSI589798:KSI589836 KIM589798:KIM589836 JYQ589798:JYQ589836 JOU589798:JOU589836 JEY589798:JEY589836 IVC589798:IVC589836 ILG589798:ILG589836 IBK589798:IBK589836 HRO589798:HRO589836 HHS589798:HHS589836 GXW589798:GXW589836 GOA589798:GOA589836 GEE589798:GEE589836 FUI589798:FUI589836 FKM589798:FKM589836 FAQ589798:FAQ589836 EQU589798:EQU589836 EGY589798:EGY589836 DXC589798:DXC589836 DNG589798:DNG589836 DDK589798:DDK589836 CTO589798:CTO589836 CJS589798:CJS589836 BZW589798:BZW589836 BQA589798:BQA589836 BGE589798:BGE589836 AWI589798:AWI589836 AMM589798:AMM589836 ACQ589798:ACQ589836 SU589798:SU589836 IY589798:IY589836 WVK524262:WVK524300 WLO524262:WLO524300 WBS524262:WBS524300 VRW524262:VRW524300 VIA524262:VIA524300 UYE524262:UYE524300 UOI524262:UOI524300 UEM524262:UEM524300 TUQ524262:TUQ524300 TKU524262:TKU524300 TAY524262:TAY524300 SRC524262:SRC524300 SHG524262:SHG524300 RXK524262:RXK524300 RNO524262:RNO524300 RDS524262:RDS524300 QTW524262:QTW524300 QKA524262:QKA524300 QAE524262:QAE524300 PQI524262:PQI524300 PGM524262:PGM524300 OWQ524262:OWQ524300 OMU524262:OMU524300 OCY524262:OCY524300 NTC524262:NTC524300 NJG524262:NJG524300 MZK524262:MZK524300 MPO524262:MPO524300 MFS524262:MFS524300 LVW524262:LVW524300 LMA524262:LMA524300 LCE524262:LCE524300 KSI524262:KSI524300 KIM524262:KIM524300 JYQ524262:JYQ524300 JOU524262:JOU524300 JEY524262:JEY524300 IVC524262:IVC524300 ILG524262:ILG524300 IBK524262:IBK524300 HRO524262:HRO524300 HHS524262:HHS524300 GXW524262:GXW524300 GOA524262:GOA524300 GEE524262:GEE524300 FUI524262:FUI524300 FKM524262:FKM524300 FAQ524262:FAQ524300 EQU524262:EQU524300 EGY524262:EGY524300 DXC524262:DXC524300 DNG524262:DNG524300 DDK524262:DDK524300 CTO524262:CTO524300 CJS524262:CJS524300 BZW524262:BZW524300 BQA524262:BQA524300 BGE524262:BGE524300 AWI524262:AWI524300 AMM524262:AMM524300 ACQ524262:ACQ524300 SU524262:SU524300 IY524262:IY524300 WVK458726:WVK458764 WLO458726:WLO458764 WBS458726:WBS458764 VRW458726:VRW458764 VIA458726:VIA458764 UYE458726:UYE458764 UOI458726:UOI458764 UEM458726:UEM458764 TUQ458726:TUQ458764 TKU458726:TKU458764 TAY458726:TAY458764 SRC458726:SRC458764 SHG458726:SHG458764 RXK458726:RXK458764 RNO458726:RNO458764 RDS458726:RDS458764 QTW458726:QTW458764 QKA458726:QKA458764 QAE458726:QAE458764 PQI458726:PQI458764 PGM458726:PGM458764 OWQ458726:OWQ458764 OMU458726:OMU458764 OCY458726:OCY458764 NTC458726:NTC458764 NJG458726:NJG458764 MZK458726:MZK458764 MPO458726:MPO458764 MFS458726:MFS458764 LVW458726:LVW458764 LMA458726:LMA458764 LCE458726:LCE458764 KSI458726:KSI458764 KIM458726:KIM458764 JYQ458726:JYQ458764 JOU458726:JOU458764 JEY458726:JEY458764 IVC458726:IVC458764 ILG458726:ILG458764 IBK458726:IBK458764 HRO458726:HRO458764 HHS458726:HHS458764 GXW458726:GXW458764 GOA458726:GOA458764 GEE458726:GEE458764 FUI458726:FUI458764 FKM458726:FKM458764 FAQ458726:FAQ458764 EQU458726:EQU458764 EGY458726:EGY458764 DXC458726:DXC458764 DNG458726:DNG458764 DDK458726:DDK458764 CTO458726:CTO458764 CJS458726:CJS458764 BZW458726:BZW458764 BQA458726:BQA458764 BGE458726:BGE458764 AWI458726:AWI458764 AMM458726:AMM458764 ACQ458726:ACQ458764 SU458726:SU458764 IY458726:IY458764 WVK393190:WVK393228 WLO393190:WLO393228 WBS393190:WBS393228 VRW393190:VRW393228 VIA393190:VIA393228 UYE393190:UYE393228 UOI393190:UOI393228 UEM393190:UEM393228 TUQ393190:TUQ393228 TKU393190:TKU393228 TAY393190:TAY393228 SRC393190:SRC393228 SHG393190:SHG393228 RXK393190:RXK393228 RNO393190:RNO393228 RDS393190:RDS393228 QTW393190:QTW393228 QKA393190:QKA393228 QAE393190:QAE393228 PQI393190:PQI393228 PGM393190:PGM393228 OWQ393190:OWQ393228 OMU393190:OMU393228 OCY393190:OCY393228 NTC393190:NTC393228 NJG393190:NJG393228 MZK393190:MZK393228 MPO393190:MPO393228 MFS393190:MFS393228 LVW393190:LVW393228 LMA393190:LMA393228 LCE393190:LCE393228 KSI393190:KSI393228 KIM393190:KIM393228 JYQ393190:JYQ393228 JOU393190:JOU393228 JEY393190:JEY393228 IVC393190:IVC393228 ILG393190:ILG393228 IBK393190:IBK393228 HRO393190:HRO393228 HHS393190:HHS393228 GXW393190:GXW393228 GOA393190:GOA393228 GEE393190:GEE393228 FUI393190:FUI393228 FKM393190:FKM393228 FAQ393190:FAQ393228 EQU393190:EQU393228 EGY393190:EGY393228 DXC393190:DXC393228 DNG393190:DNG393228 DDK393190:DDK393228 CTO393190:CTO393228 CJS393190:CJS393228 BZW393190:BZW393228 BQA393190:BQA393228 BGE393190:BGE393228 AWI393190:AWI393228 AMM393190:AMM393228 ACQ393190:ACQ393228 SU393190:SU393228 IY393190:IY393228 WVK327654:WVK327692 WLO327654:WLO327692 WBS327654:WBS327692 VRW327654:VRW327692 VIA327654:VIA327692 UYE327654:UYE327692 UOI327654:UOI327692 UEM327654:UEM327692 TUQ327654:TUQ327692 TKU327654:TKU327692 TAY327654:TAY327692 SRC327654:SRC327692 SHG327654:SHG327692 RXK327654:RXK327692 RNO327654:RNO327692 RDS327654:RDS327692 QTW327654:QTW327692 QKA327654:QKA327692 QAE327654:QAE327692 PQI327654:PQI327692 PGM327654:PGM327692 OWQ327654:OWQ327692 OMU327654:OMU327692 OCY327654:OCY327692 NTC327654:NTC327692 NJG327654:NJG327692 MZK327654:MZK327692 MPO327654:MPO327692 MFS327654:MFS327692 LVW327654:LVW327692 LMA327654:LMA327692 LCE327654:LCE327692 KSI327654:KSI327692 KIM327654:KIM327692 JYQ327654:JYQ327692 JOU327654:JOU327692 JEY327654:JEY327692 IVC327654:IVC327692 ILG327654:ILG327692 IBK327654:IBK327692 HRO327654:HRO327692 HHS327654:HHS327692 GXW327654:GXW327692 GOA327654:GOA327692 GEE327654:GEE327692 FUI327654:FUI327692 FKM327654:FKM327692 FAQ327654:FAQ327692 EQU327654:EQU327692 EGY327654:EGY327692 DXC327654:DXC327692 DNG327654:DNG327692 DDK327654:DDK327692 CTO327654:CTO327692 CJS327654:CJS327692 BZW327654:BZW327692 BQA327654:BQA327692 BGE327654:BGE327692 AWI327654:AWI327692 AMM327654:AMM327692 ACQ327654:ACQ327692 SU327654:SU327692 IY327654:IY327692 WVK262118:WVK262156 WLO262118:WLO262156 WBS262118:WBS262156 VRW262118:VRW262156 VIA262118:VIA262156 UYE262118:UYE262156 UOI262118:UOI262156 UEM262118:UEM262156 TUQ262118:TUQ262156 TKU262118:TKU262156 TAY262118:TAY262156 SRC262118:SRC262156 SHG262118:SHG262156 RXK262118:RXK262156 RNO262118:RNO262156 RDS262118:RDS262156 QTW262118:QTW262156 QKA262118:QKA262156 QAE262118:QAE262156 PQI262118:PQI262156 PGM262118:PGM262156 OWQ262118:OWQ262156 OMU262118:OMU262156 OCY262118:OCY262156 NTC262118:NTC262156 NJG262118:NJG262156 MZK262118:MZK262156 MPO262118:MPO262156 MFS262118:MFS262156 LVW262118:LVW262156 LMA262118:LMA262156 LCE262118:LCE262156 KSI262118:KSI262156 KIM262118:KIM262156 JYQ262118:JYQ262156 JOU262118:JOU262156 JEY262118:JEY262156 IVC262118:IVC262156 ILG262118:ILG262156 IBK262118:IBK262156 HRO262118:HRO262156 HHS262118:HHS262156 GXW262118:GXW262156 GOA262118:GOA262156 GEE262118:GEE262156 FUI262118:FUI262156 FKM262118:FKM262156 FAQ262118:FAQ262156 EQU262118:EQU262156 EGY262118:EGY262156 DXC262118:DXC262156 DNG262118:DNG262156 DDK262118:DDK262156 CTO262118:CTO262156 CJS262118:CJS262156 BZW262118:BZW262156 BQA262118:BQA262156 BGE262118:BGE262156 AWI262118:AWI262156 AMM262118:AMM262156 ACQ262118:ACQ262156 SU262118:SU262156 IY262118:IY262156 WVK196582:WVK196620 WLO196582:WLO196620 WBS196582:WBS196620 VRW196582:VRW196620 VIA196582:VIA196620 UYE196582:UYE196620 UOI196582:UOI196620 UEM196582:UEM196620 TUQ196582:TUQ196620 TKU196582:TKU196620 TAY196582:TAY196620 SRC196582:SRC196620 SHG196582:SHG196620 RXK196582:RXK196620 RNO196582:RNO196620 RDS196582:RDS196620 QTW196582:QTW196620 QKA196582:QKA196620 QAE196582:QAE196620 PQI196582:PQI196620 PGM196582:PGM196620 OWQ196582:OWQ196620 OMU196582:OMU196620 OCY196582:OCY196620 NTC196582:NTC196620 NJG196582:NJG196620 MZK196582:MZK196620 MPO196582:MPO196620 MFS196582:MFS196620 LVW196582:LVW196620 LMA196582:LMA196620 LCE196582:LCE196620 KSI196582:KSI196620 KIM196582:KIM196620 JYQ196582:JYQ196620 JOU196582:JOU196620 JEY196582:JEY196620 IVC196582:IVC196620 ILG196582:ILG196620 IBK196582:IBK196620 HRO196582:HRO196620 HHS196582:HHS196620 GXW196582:GXW196620 GOA196582:GOA196620 GEE196582:GEE196620 FUI196582:FUI196620 FKM196582:FKM196620 FAQ196582:FAQ196620 EQU196582:EQU196620 EGY196582:EGY196620 DXC196582:DXC196620 DNG196582:DNG196620 DDK196582:DDK196620 CTO196582:CTO196620 CJS196582:CJS196620 BZW196582:BZW196620 BQA196582:BQA196620 BGE196582:BGE196620 AWI196582:AWI196620 AMM196582:AMM196620 ACQ196582:ACQ196620 SU196582:SU196620 IY196582:IY196620 WVK131046:WVK131084 WLO131046:WLO131084 WBS131046:WBS131084 VRW131046:VRW131084 VIA131046:VIA131084 UYE131046:UYE131084 UOI131046:UOI131084 UEM131046:UEM131084 TUQ131046:TUQ131084 TKU131046:TKU131084 TAY131046:TAY131084 SRC131046:SRC131084 SHG131046:SHG131084 RXK131046:RXK131084 RNO131046:RNO131084 RDS131046:RDS131084 QTW131046:QTW131084 QKA131046:QKA131084 QAE131046:QAE131084 PQI131046:PQI131084 PGM131046:PGM131084 OWQ131046:OWQ131084 OMU131046:OMU131084 OCY131046:OCY131084 NTC131046:NTC131084 NJG131046:NJG131084 MZK131046:MZK131084 MPO131046:MPO131084 MFS131046:MFS131084 LVW131046:LVW131084 LMA131046:LMA131084 LCE131046:LCE131084 KSI131046:KSI131084 KIM131046:KIM131084 JYQ131046:JYQ131084 JOU131046:JOU131084 JEY131046:JEY131084 IVC131046:IVC131084 ILG131046:ILG131084 IBK131046:IBK131084 HRO131046:HRO131084 HHS131046:HHS131084 GXW131046:GXW131084 GOA131046:GOA131084 GEE131046:GEE131084 FUI131046:FUI131084 FKM131046:FKM131084 FAQ131046:FAQ131084 EQU131046:EQU131084 EGY131046:EGY131084 DXC131046:DXC131084 DNG131046:DNG131084 DDK131046:DDK131084 CTO131046:CTO131084 CJS131046:CJS131084 BZW131046:BZW131084 BQA131046:BQA131084 BGE131046:BGE131084 AWI131046:AWI131084 AMM131046:AMM131084 ACQ131046:ACQ131084 SU131046:SU131084 IY131046:IY131084 WVK65510:WVK65548 WLO65510:WLO65548 WBS65510:WBS65548 VRW65510:VRW65548 VIA65510:VIA65548 UYE65510:UYE65548 UOI65510:UOI65548 UEM65510:UEM65548 TUQ65510:TUQ65548 TKU65510:TKU65548 TAY65510:TAY65548 SRC65510:SRC65548 SHG65510:SHG65548 RXK65510:RXK65548 RNO65510:RNO65548 RDS65510:RDS65548 QTW65510:QTW65548 QKA65510:QKA65548 QAE65510:QAE65548 PQI65510:PQI65548 PGM65510:PGM65548 OWQ65510:OWQ65548 OMU65510:OMU65548 OCY65510:OCY65548 NTC65510:NTC65548 NJG65510:NJG65548 MZK65510:MZK65548 MPO65510:MPO65548 MFS65510:MFS65548 LVW65510:LVW65548 LMA65510:LMA65548 LCE65510:LCE65548 KSI65510:KSI65548 KIM65510:KIM65548 JYQ65510:JYQ65548 JOU65510:JOU65548 JEY65510:JEY65548 IVC65510:IVC65548 ILG65510:ILG65548 IBK65510:IBK65548 HRO65510:HRO65548 HHS65510:HHS65548 GXW65510:GXW65548 GOA65510:GOA65548 GEE65510:GEE65548 FUI65510:FUI65548 FKM65510:FKM65548 FAQ65510:FAQ65548 EQU65510:EQU65548 EGY65510:EGY65548 DXC65510:DXC65548 DNG65510:DNG65548 DDK65510:DDK65548 CTO65510:CTO65548 CJS65510:CJS65548 BZW65510:BZW65548 BQA65510:BQA65548 BGE65510:BGE65548 AWI65510:AWI65548 AMM65510:AMM65548 ACQ65510:ACQ65548 SU65510:SU65548 H4:H12 WVK4:WVK12 WLO4:WLO12 WBS4:WBS12 VRW4:VRW12 VIA4:VIA12 UYE4:UYE12 UOI4:UOI12 UEM4:UEM12 TUQ4:TUQ12 TKU4:TKU12 TAY4:TAY12 SRC4:SRC12 SHG4:SHG12 RXK4:RXK12 RNO4:RNO12 RDS4:RDS12 QTW4:QTW12 QKA4:QKA12 QAE4:QAE12 PQI4:PQI12 PGM4:PGM12 OWQ4:OWQ12 OMU4:OMU12 OCY4:OCY12 NTC4:NTC12 NJG4:NJG12 MZK4:MZK12 MPO4:MPO12 MFS4:MFS12 LVW4:LVW12 LMA4:LMA12 LCE4:LCE12 KSI4:KSI12 KIM4:KIM12 JYQ4:JYQ12 JOU4:JOU12 JEY4:JEY12 IVC4:IVC12 ILG4:ILG12 IBK4:IBK12 HRO4:HRO12 HHS4:HHS12 GXW4:GXW12 GOA4:GOA12 GEE4:GEE12 FUI4:FUI12 FKM4:FKM12 FAQ4:FAQ12 EQU4:EQU12 EGY4:EGY12 DXC4:DXC12 DNG4:DNG12 DDK4:DDK12 CTO4:CTO12 CJS4:CJS12 BZW4:BZW12 BQA4:BQA12 BGE4:BGE12 AWI4:AWI12 AMM4:AMM12 ACQ4:ACQ12 SU4:SU12 IY4:IY12">
+      <formula1>"主键,外键,索引"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11" style="50" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6" style="50" customWidth="1"/>
+    <col min="9" max="9" width="34.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="8" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+    </row>
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+    </row>
+    <row r="3" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="145"/>
+    </row>
+    <row r="5" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="69">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150"/>
+    </row>
+    <row r="6" spans="1:10" s="50" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="69">
+        <f t="shared" ref="A6:A22" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="148"/>
+      <c r="D6" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+    </row>
+    <row r="7" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="131"/>
+      <c r="D8" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+    </row>
+    <row r="10" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="131"/>
+      <c r="D10" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+    </row>
+    <row r="11" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="69">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="131"/>
+      <c r="D12" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+    </row>
+    <row r="13" spans="1:10" s="59" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="69">
+  